--- a/database/steel_data.xlsx
+++ b/database/steel_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\PLANiT\github\macc_steel\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8435790-B742-4534-8B41-B881E75A1141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60EDBF0F-0459-4B7D-8F07-1482A5425DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-27920" yWindow="720" windowWidth="26350" windowHeight="14720" tabRatio="620" activeTab="1" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
   </bookViews>
@@ -211,10 +211,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>remained_lifespan</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>material</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -232,6 +228,10 @@
   </si>
   <si>
     <t>introduction</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>introduced_year</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -728,7 +728,7 @@
         <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
@@ -760,10 +760,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
@@ -840,10 +840,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
@@ -905,14 +905,14 @@
   <dimension ref="A1:AA6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1">
         <v>2025</v>
@@ -1164,82 +1164,82 @@
         <v>7</v>
       </c>
       <c r="B4" s="5">
-        <v>1.6561115100472845</v>
+        <v>0</v>
       </c>
       <c r="C4" s="5">
-        <v>6.8203698630888576</v>
+        <v>0</v>
       </c>
       <c r="D4" s="5">
-        <v>1.4137603139272703</v>
+        <v>0</v>
       </c>
       <c r="E4" s="5">
-        <v>4.3586868316947838</v>
+        <v>0</v>
       </c>
       <c r="F4" s="5">
-        <v>9.5169563479933696</v>
+        <v>0</v>
       </c>
       <c r="G4" s="5">
-        <v>6.6592244131241145</v>
+        <v>0</v>
       </c>
       <c r="H4" s="5">
-        <v>3.2346583782178726</v>
+        <v>0</v>
       </c>
       <c r="I4" s="5">
-        <v>8.4298844355731966</v>
+        <v>0</v>
       </c>
       <c r="J4" s="5">
-        <v>2.0837137856376531E-2</v>
+        <v>0</v>
       </c>
       <c r="K4" s="5">
-        <v>7.801618608794608</v>
+        <v>0</v>
       </c>
       <c r="L4" s="5">
-        <v>1.1747432563255356</v>
+        <v>0</v>
       </c>
       <c r="M4" s="5">
-        <v>9.2189855539967063</v>
+        <v>0</v>
       </c>
       <c r="N4" s="5">
-        <v>5.6389770014244593</v>
+        <v>0</v>
       </c>
       <c r="O4" s="5">
-        <v>9.3557448426025598</v>
+        <v>0</v>
       </c>
       <c r="P4" s="5">
-        <v>2.5307863577058676</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="5">
-        <v>1.8798425218320436</v>
+        <v>0</v>
       </c>
       <c r="R4" s="5">
-        <v>4.9777650025283062</v>
+        <v>0</v>
       </c>
       <c r="S4" s="5">
-        <v>2.470635282434567</v>
+        <v>0</v>
       </c>
       <c r="T4" s="5">
-        <v>8.3448632095880253</v>
+        <v>0</v>
       </c>
       <c r="U4" s="5">
-        <v>2.8797087757874475</v>
+        <v>0</v>
       </c>
       <c r="V4" s="5">
-        <v>4.8495072111122131</v>
+        <v>0</v>
       </c>
       <c r="W4" s="5">
-        <v>0.6494650243068445</v>
+        <v>0</v>
       </c>
       <c r="X4" s="5">
-        <v>4.0400013877281555</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="5">
-        <v>8.7109696253244202</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="5">
-        <v>2.5086878384546196</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="5">
-        <v>1.6351143304444082</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.4">
@@ -1426,7 +1426,7 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1">
         <v>2025</v>
@@ -1940,7 +1940,7 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1">
         <v>2025</v>
@@ -2463,19 +2463,19 @@
         <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E1" t="s">
         <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
@@ -2495,7 +2495,7 @@
         <v>4000</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
@@ -2515,7 +2515,7 @@
         <v>3000</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
@@ -2535,7 +2535,7 @@
         <v>1500</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
@@ -2555,7 +2555,7 @@
         <v>1500</v>
       </c>
       <c r="F5">
-        <v>5</v>
+        <v>2021</v>
       </c>
     </row>
   </sheetData>
@@ -2568,13 +2568,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E234AF8D-964B-419F-969D-C9FD34B2C8AE}">
   <dimension ref="A1:AA4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B1">
         <v>2025</v>
@@ -2785,40 +2787,40 @@
         <v>40</v>
       </c>
       <c r="P3" s="4">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="4">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="R3" s="4">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="S3" s="4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T3" s="4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="U3" s="4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="V3" s="4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="W3" s="4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="X3" s="4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Y3" s="4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AA3" s="4">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.4">
@@ -2868,40 +2870,40 @@
         <v>67</v>
       </c>
       <c r="P4">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="Q4">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="R4">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="S4">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="T4">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="U4">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="V4">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="W4">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="X4">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="Y4">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="Z4">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="AA4">
-        <v>55</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2920,7 +2922,7 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B1">
         <v>2025</v>
@@ -3172,51 +3174,51 @@
       </c>
       <c r="P3" s="3">
         <f>capex!P3*0.05</f>
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="3">
         <f>capex!Q3*0.05</f>
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="R3" s="3">
         <f>capex!R3*0.05</f>
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="S3" s="3">
         <f>capex!S3*0.05</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3" s="3">
         <f>capex!T3*0.05</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3" s="3">
         <f>capex!U3*0.05</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3" s="3">
         <f>capex!V3*0.05</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3" s="3">
         <f>capex!W3*0.05</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X3" s="3">
         <f>capex!X3*0.05</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y3" s="3">
         <f>capex!Y3*0.05</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="3">
         <f>capex!Z3*0.05</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA3" s="3">
         <f>capex!AA3*0.05</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.4">
@@ -3281,51 +3283,51 @@
       </c>
       <c r="P4" s="3">
         <f>capex!P4*0.05</f>
-        <v>3.3000000000000003</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="3">
         <f>capex!Q4*0.05</f>
-        <v>3.25</v>
+        <v>1</v>
       </c>
       <c r="R4" s="3">
         <f>capex!R4*0.05</f>
-        <v>3.2</v>
+        <v>1</v>
       </c>
       <c r="S4" s="3">
         <f>capex!S4*0.05</f>
-        <v>3.1500000000000004</v>
+        <v>1</v>
       </c>
       <c r="T4" s="3">
         <f>capex!T4*0.05</f>
-        <v>3.1</v>
+        <v>1</v>
       </c>
       <c r="U4" s="3">
         <f>capex!U4*0.05</f>
-        <v>3.0500000000000003</v>
+        <v>1</v>
       </c>
       <c r="V4" s="3">
         <f>capex!V4*0.05</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W4" s="3">
         <f>capex!W4*0.05</f>
-        <v>2.95</v>
+        <v>1</v>
       </c>
       <c r="X4" s="3">
         <f>capex!X4*0.05</f>
-        <v>2.9000000000000004</v>
+        <v>1</v>
       </c>
       <c r="Y4" s="3">
         <f>capex!Y4*0.05</f>
-        <v>2.85</v>
+        <v>1</v>
       </c>
       <c r="Z4" s="3">
         <f>capex!Z4*0.05</f>
-        <v>2.8000000000000003</v>
+        <v>1</v>
       </c>
       <c r="AA4" s="3">
         <f>capex!AA4*0.05</f>
-        <v>2.75</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3344,7 +3346,7 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B1">
         <v>2025</v>
@@ -3596,51 +3598,51 @@
       </c>
       <c r="P3" s="3">
         <f>capex!P3*0.25</f>
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="3">
         <f>capex!Q3*0.25</f>
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="R3" s="3">
         <f>capex!R3*0.25</f>
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="S3" s="3">
         <f>capex!S3*0.25</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T3" s="3">
         <f>capex!T3*0.25</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U3" s="3">
         <f>capex!U3*0.25</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V3" s="3">
         <f>capex!V3*0.25</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W3" s="3">
         <f>capex!W3*0.25</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="X3" s="3">
         <f>capex!X3*0.25</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y3" s="3">
         <f>capex!Y3*0.25</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="3">
         <f>capex!Z3*0.25</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AA3" s="3">
         <f>capex!AA3*0.25</f>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.4">
@@ -3705,51 +3707,51 @@
       </c>
       <c r="P4" s="3">
         <f>capex!P4*0.25</f>
-        <v>16.5</v>
+        <v>5</v>
       </c>
       <c r="Q4" s="3">
         <f>capex!Q4*0.25</f>
-        <v>16.25</v>
+        <v>5</v>
       </c>
       <c r="R4" s="3">
         <f>capex!R4*0.25</f>
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="S4" s="3">
         <f>capex!S4*0.25</f>
-        <v>15.75</v>
+        <v>5</v>
       </c>
       <c r="T4" s="3">
         <f>capex!T4*0.25</f>
-        <v>15.5</v>
+        <v>5</v>
       </c>
       <c r="U4" s="3">
         <f>capex!U4*0.25</f>
-        <v>15.25</v>
+        <v>5</v>
       </c>
       <c r="V4" s="3">
         <f>capex!V4*0.25</f>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="W4" s="3">
         <f>capex!W4*0.25</f>
-        <v>14.75</v>
+        <v>5</v>
       </c>
       <c r="X4" s="3">
         <f>capex!X4*0.25</f>
-        <v>14.5</v>
+        <v>5</v>
       </c>
       <c r="Y4" s="3">
         <f>capex!Y4*0.25</f>
-        <v>14.25</v>
+        <v>5</v>
       </c>
       <c r="Z4" s="3">
         <f>capex!Z4*0.25</f>
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="AA4" s="3">
         <f>capex!AA4*0.25</f>
-        <v>13.75</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -3763,7 +3765,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3775,13 +3777,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B1" t="s">
         <v>41</v>
       </c>
       <c r="C1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
@@ -3836,7 +3838,7 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1">
         <v>2025</v>
@@ -4268,7 +4270,7 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1">
         <v>2025</v>
@@ -4697,7 +4699,7 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1">
         <v>2025</v>

--- a/database/steel_data.xlsx
+++ b/database/steel_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\PLANiT\github\macc_steel\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60EDBF0F-0459-4B7D-8F07-1482A5425DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A78FA03A-B016-4B0F-9592-A28A1799D199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27920" yWindow="720" windowWidth="26350" windowHeight="14720" tabRatio="620" activeTab="1" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
+    <workbookView xWindow="-27920" yWindow="720" windowWidth="26350" windowHeight="14720" tabRatio="620" activeTab="5" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="18" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="50">
   <si>
     <t>BF-BOF</t>
   </si>
@@ -232,6 +232,10 @@
   </si>
   <si>
     <t>introduced_year</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bio</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -905,7 +909,7 @@
   <dimension ref="A1:AA6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2446,8 +2450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B80F836-AAFA-4D20-813C-A31BE68F85E1}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2526,7 +2530,7 @@
         <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -2569,7 +2573,7 @@
   <dimension ref="A1:AA4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2662,82 +2666,82 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="J2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="L2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="O2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="P2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="Q2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="S2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="T2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="U2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="V2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="W2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="X2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="Y2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="Z2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AA2">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
@@ -3009,107 +3013,107 @@
       </c>
       <c r="B2" s="3">
         <f>capex!B2*0.05</f>
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="C2" s="3">
         <f>capex!C2*0.05</f>
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="D2" s="3">
         <f>capex!D2*0.05</f>
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="E2" s="3">
         <f>capex!E2*0.05</f>
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F2" s="3">
         <f>capex!F2*0.05</f>
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="G2" s="3">
         <f>capex!G2*0.05</f>
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="H2" s="3">
         <f>capex!H2*0.05</f>
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="I2" s="3">
         <f>capex!I2*0.05</f>
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="J2" s="3">
         <f>capex!J2*0.05</f>
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="K2" s="3">
         <f>capex!K2*0.05</f>
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="L2" s="3">
         <f>capex!L2*0.05</f>
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="M2" s="3">
         <f>capex!M2*0.05</f>
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="N2" s="3">
         <f>capex!N2*0.05</f>
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="O2" s="3">
         <f>capex!O2*0.05</f>
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="P2" s="3">
         <f>capex!P2*0.05</f>
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="Q2" s="3">
         <f>capex!Q2*0.05</f>
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="R2" s="3">
         <f>capex!R2*0.05</f>
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="S2" s="3">
         <f>capex!S2*0.05</f>
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="T2" s="3">
         <f>capex!T2*0.05</f>
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="U2" s="3">
         <f>capex!U2*0.05</f>
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="V2" s="3">
         <f>capex!V2*0.05</f>
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="W2" s="3">
         <f>capex!W2*0.05</f>
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="X2" s="3">
         <f>capex!X2*0.05</f>
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="Y2" s="3">
         <f>capex!Y2*0.05</f>
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="Z2" s="3">
         <f>capex!Z2*0.05</f>
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="AA2" s="3">
         <f>capex!AA2*0.05</f>
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
@@ -3433,107 +3437,107 @@
       </c>
       <c r="B2" s="3">
         <f>capex!B2*0.25</f>
-        <v>12.5</v>
+        <v>7.5</v>
       </c>
       <c r="C2" s="3">
         <f>capex!C2*0.25</f>
-        <v>12.5</v>
+        <v>7.5</v>
       </c>
       <c r="D2" s="3">
         <f>capex!D2*0.25</f>
-        <v>12.5</v>
+        <v>7.5</v>
       </c>
       <c r="E2" s="3">
         <f>capex!E2*0.25</f>
-        <v>12.5</v>
+        <v>7.5</v>
       </c>
       <c r="F2" s="3">
         <f>capex!F2*0.25</f>
-        <v>12.5</v>
+        <v>7.5</v>
       </c>
       <c r="G2" s="3">
         <f>capex!G2*0.25</f>
-        <v>12.5</v>
+        <v>7.5</v>
       </c>
       <c r="H2" s="3">
         <f>capex!H2*0.25</f>
-        <v>12.5</v>
+        <v>7.5</v>
       </c>
       <c r="I2" s="3">
         <f>capex!I2*0.25</f>
-        <v>12.5</v>
+        <v>7.5</v>
       </c>
       <c r="J2" s="3">
         <f>capex!J2*0.25</f>
-        <v>12.5</v>
+        <v>7.5</v>
       </c>
       <c r="K2" s="3">
         <f>capex!K2*0.25</f>
-        <v>12.5</v>
+        <v>7.5</v>
       </c>
       <c r="L2" s="3">
         <f>capex!L2*0.25</f>
-        <v>12.5</v>
+        <v>7.5</v>
       </c>
       <c r="M2" s="3">
         <f>capex!M2*0.25</f>
-        <v>12.5</v>
+        <v>7.5</v>
       </c>
       <c r="N2" s="3">
         <f>capex!N2*0.25</f>
-        <v>12.5</v>
+        <v>7.5</v>
       </c>
       <c r="O2" s="3">
         <f>capex!O2*0.25</f>
-        <v>12.5</v>
+        <v>7.5</v>
       </c>
       <c r="P2" s="3">
         <f>capex!P2*0.25</f>
-        <v>12.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q2" s="3">
         <f>capex!Q2*0.25</f>
-        <v>12.5</v>
+        <v>7.5</v>
       </c>
       <c r="R2" s="3">
         <f>capex!R2*0.25</f>
-        <v>12.5</v>
+        <v>7.5</v>
       </c>
       <c r="S2" s="3">
         <f>capex!S2*0.25</f>
-        <v>12.5</v>
+        <v>7.5</v>
       </c>
       <c r="T2" s="3">
         <f>capex!T2*0.25</f>
-        <v>12.5</v>
+        <v>7.5</v>
       </c>
       <c r="U2" s="3">
         <f>capex!U2*0.25</f>
-        <v>12.5</v>
+        <v>7.5</v>
       </c>
       <c r="V2" s="3">
         <f>capex!V2*0.25</f>
-        <v>12.5</v>
+        <v>7.5</v>
       </c>
       <c r="W2" s="3">
         <f>capex!W2*0.25</f>
-        <v>12.5</v>
+        <v>7.5</v>
       </c>
       <c r="X2" s="3">
         <f>capex!X2*0.25</f>
-        <v>12.5</v>
+        <v>7.5</v>
       </c>
       <c r="Y2" s="3">
         <f>capex!Y2*0.25</f>
-        <v>12.5</v>
+        <v>7.5</v>
       </c>
       <c r="Z2" s="3">
         <f>capex!Z2*0.25</f>
-        <v>12.5</v>
+        <v>7.5</v>
       </c>
       <c r="AA2" s="3">
         <f>capex!AA2*0.25</f>
-        <v>12.5</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
@@ -3764,8 +3768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED5339A0-3D98-43CE-86F7-53EF60721306}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3791,10 +3795,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C2">
-        <v>2025</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
@@ -3813,10 +3817,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C4">
-        <v>2025</v>
+        <v>2020</v>
       </c>
     </row>
   </sheetData>

--- a/database/steel_data.xlsx
+++ b/database/steel_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\PLANiT\github\macc_steel\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A78FA03A-B016-4B0F-9592-A28A1799D199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A83F3BF6-2589-4C51-98EE-392EA48252A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27920" yWindow="720" windowWidth="26350" windowHeight="14720" tabRatio="620" activeTab="5" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
+    <workbookView xWindow="-27920" yWindow="720" windowWidth="26350" windowHeight="14720" tabRatio="620" firstSheet="4" activeTab="7" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="18" r:id="rId1"/>
@@ -19,14 +19,16 @@
     <sheet name="opex" sheetId="14" r:id="rId4"/>
     <sheet name="renewal" sheetId="15" r:id="rId5"/>
     <sheet name="technology" sheetId="19" r:id="rId6"/>
-    <sheet name="material_cost" sheetId="11" r:id="rId7"/>
-    <sheet name="material_emission" sheetId="12" r:id="rId8"/>
-    <sheet name="material_efficiency" sheetId="17" r:id="rId9"/>
-    <sheet name="technology_fuel_pairs" sheetId="5" r:id="rId10"/>
-    <sheet name="technology_material_pairs" sheetId="6" r:id="rId11"/>
-    <sheet name="fuel_cost" sheetId="8" r:id="rId12"/>
-    <sheet name="fuel_emission" sheetId="10" r:id="rId13"/>
-    <sheet name="fuel_efficiency" sheetId="16" r:id="rId14"/>
+    <sheet name="technology_ei" sheetId="21" r:id="rId7"/>
+    <sheet name="emission" sheetId="23" r:id="rId8"/>
+    <sheet name="material_cost" sheetId="11" r:id="rId9"/>
+    <sheet name="material_emission" sheetId="12" r:id="rId10"/>
+    <sheet name="material_efficiency" sheetId="17" r:id="rId11"/>
+    <sheet name="technology_fuel_pairs" sheetId="5" r:id="rId12"/>
+    <sheet name="technology_material_pairs" sheetId="6" r:id="rId13"/>
+    <sheet name="fuel_cost" sheetId="8" r:id="rId14"/>
+    <sheet name="fuel_emission" sheetId="10" r:id="rId15"/>
+    <sheet name="fuel_efficiency" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="54">
   <si>
     <t>BF-BOF</t>
   </si>
@@ -236,6 +238,22 @@
   </si>
   <si>
     <t>Bio</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BF-BOF-CCUS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>emission</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>scope1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>scope2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -750,6 +768,867 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A95E18AD-1C92-4B5C-962D-792F4AC09175}">
+  <dimension ref="A1:AA5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="27" width="9.796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1">
+        <v>2025</v>
+      </c>
+      <c r="C1">
+        <v>2026</v>
+      </c>
+      <c r="D1">
+        <v>2027</v>
+      </c>
+      <c r="E1">
+        <v>2028</v>
+      </c>
+      <c r="F1">
+        <v>2029</v>
+      </c>
+      <c r="G1">
+        <v>2030</v>
+      </c>
+      <c r="H1">
+        <v>2031</v>
+      </c>
+      <c r="I1">
+        <v>2032</v>
+      </c>
+      <c r="J1">
+        <v>2033</v>
+      </c>
+      <c r="K1">
+        <v>2034</v>
+      </c>
+      <c r="L1">
+        <v>2035</v>
+      </c>
+      <c r="M1">
+        <v>2036</v>
+      </c>
+      <c r="N1">
+        <v>2037</v>
+      </c>
+      <c r="O1">
+        <v>2038</v>
+      </c>
+      <c r="P1">
+        <v>2039</v>
+      </c>
+      <c r="Q1">
+        <v>2040</v>
+      </c>
+      <c r="R1">
+        <v>2041</v>
+      </c>
+      <c r="S1">
+        <v>2042</v>
+      </c>
+      <c r="T1">
+        <v>2043</v>
+      </c>
+      <c r="U1">
+        <v>2044</v>
+      </c>
+      <c r="V1">
+        <v>2045</v>
+      </c>
+      <c r="W1">
+        <v>2046</v>
+      </c>
+      <c r="X1">
+        <v>2047</v>
+      </c>
+      <c r="Y1">
+        <v>2048</v>
+      </c>
+      <c r="Z1">
+        <v>2049</v>
+      </c>
+      <c r="AA1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1.138931802510158</v>
+      </c>
+      <c r="C2" s="5">
+        <v>7.574766115689437</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0.67628647507918527</v>
+      </c>
+      <c r="E2" s="5">
+        <v>3.2136905007923797</v>
+      </c>
+      <c r="F2" s="5">
+        <v>5.6365173572880378</v>
+      </c>
+      <c r="G2" s="5">
+        <v>8.23729264578464</v>
+      </c>
+      <c r="H2" s="5">
+        <v>3.9808290290957169</v>
+      </c>
+      <c r="I2" s="5">
+        <v>4.2084362783232425</v>
+      </c>
+      <c r="J2" s="5">
+        <v>2.6547768072885605</v>
+      </c>
+      <c r="K2" s="5">
+        <v>8.6895749145679559</v>
+      </c>
+      <c r="L2" s="5">
+        <v>4.4525335538469051</v>
+      </c>
+      <c r="M2" s="5">
+        <v>3.4468203268875373</v>
+      </c>
+      <c r="N2" s="5">
+        <v>2.4572713271210231</v>
+      </c>
+      <c r="O2" s="5">
+        <v>8.927728792550143</v>
+      </c>
+      <c r="P2" s="5">
+        <v>5.982551937391019</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>7.3819001349795244E-2</v>
+      </c>
+      <c r="R2" s="5">
+        <v>1.9919161958087483</v>
+      </c>
+      <c r="S2" s="5">
+        <v>2.4831770957740105</v>
+      </c>
+      <c r="T2" s="5">
+        <v>9.4001854872220374</v>
+      </c>
+      <c r="U2" s="5">
+        <v>4.3998924386883029</v>
+      </c>
+      <c r="V2" s="5">
+        <v>0.43428856551232409</v>
+      </c>
+      <c r="W2" s="5">
+        <v>7.9407731237710166</v>
+      </c>
+      <c r="X2" s="5">
+        <v>4.1007272303399853</v>
+      </c>
+      <c r="Y2" s="5">
+        <v>5.8292407312736536</v>
+      </c>
+      <c r="Z2" s="5">
+        <v>0.26933124855980206</v>
+      </c>
+      <c r="AA2" s="5">
+        <v>6.9076528786362008</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1.2044835146641231</v>
+      </c>
+      <c r="C3" s="5">
+        <v>7.987902585292554</v>
+      </c>
+      <c r="D3" s="5">
+        <v>7.9590068482088627</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0.1606066383802518</v>
+      </c>
+      <c r="F3" s="5">
+        <v>4.585605094215504</v>
+      </c>
+      <c r="G3" s="5">
+        <v>9.6626632527953404</v>
+      </c>
+      <c r="H3" s="5">
+        <v>5.7739880052029147</v>
+      </c>
+      <c r="I3" s="5">
+        <v>9.2566527937944265</v>
+      </c>
+      <c r="J3" s="5">
+        <v>9.4800396741663029</v>
+      </c>
+      <c r="K3" s="5">
+        <v>3.6065083788586447</v>
+      </c>
+      <c r="L3" s="5">
+        <v>8.5438796497736664</v>
+      </c>
+      <c r="M3" s="5">
+        <v>0.59728548866735287</v>
+      </c>
+      <c r="N3" s="5">
+        <v>3.8461224682055359</v>
+      </c>
+      <c r="O3" s="5">
+        <v>6.6481529824524479</v>
+      </c>
+      <c r="P3" s="5">
+        <v>7.3392403143414278</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>3.1816087694142494</v>
+      </c>
+      <c r="R3" s="5">
+        <v>2.7863956935330956</v>
+      </c>
+      <c r="S3" s="5">
+        <v>9.3348757795029993</v>
+      </c>
+      <c r="T3" s="5">
+        <v>2.1397729972070723</v>
+      </c>
+      <c r="U3" s="5">
+        <v>6.9678153416583575</v>
+      </c>
+      <c r="V3" s="5">
+        <v>7.7674217492321507</v>
+      </c>
+      <c r="W3" s="5">
+        <v>4.7216654236148514</v>
+      </c>
+      <c r="X3" s="5">
+        <v>4.238810750971469</v>
+      </c>
+      <c r="Y3" s="5">
+        <v>7.3608683858912185</v>
+      </c>
+      <c r="Z3" s="5">
+        <v>7.5148932206900243</v>
+      </c>
+      <c r="AA3" s="5">
+        <v>9.6339470176296054</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1.6561115100472845</v>
+      </c>
+      <c r="C4" s="5">
+        <v>6.8203698630888576</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1.4137603139272703</v>
+      </c>
+      <c r="E4" s="5">
+        <v>4.3586868316947838</v>
+      </c>
+      <c r="F4" s="5">
+        <v>9.5169563479933696</v>
+      </c>
+      <c r="G4" s="5">
+        <v>6.6592244131241145</v>
+      </c>
+      <c r="H4" s="5">
+        <v>3.2346583782178726</v>
+      </c>
+      <c r="I4" s="5">
+        <v>8.4298844355731966</v>
+      </c>
+      <c r="J4" s="5">
+        <v>2.0837137856376531E-2</v>
+      </c>
+      <c r="K4" s="5">
+        <v>7.801618608794608</v>
+      </c>
+      <c r="L4" s="5">
+        <v>1.1747432563255356</v>
+      </c>
+      <c r="M4" s="5">
+        <v>9.2189855539967063</v>
+      </c>
+      <c r="N4" s="5">
+        <v>5.6389770014244593</v>
+      </c>
+      <c r="O4" s="5">
+        <v>9.3557448426025598</v>
+      </c>
+      <c r="P4" s="5">
+        <v>2.5307863577058676</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>1.8798425218320436</v>
+      </c>
+      <c r="R4" s="5">
+        <v>4.9777650025283062</v>
+      </c>
+      <c r="S4" s="5">
+        <v>2.470635282434567</v>
+      </c>
+      <c r="T4" s="5">
+        <v>8.3448632095880253</v>
+      </c>
+      <c r="U4" s="5">
+        <v>2.8797087757874475</v>
+      </c>
+      <c r="V4" s="5">
+        <v>4.8495072111122131</v>
+      </c>
+      <c r="W4" s="5">
+        <v>0.6494650243068445</v>
+      </c>
+      <c r="X4" s="5">
+        <v>4.0400013877281555</v>
+      </c>
+      <c r="Y4" s="5">
+        <v>8.7109696253244202</v>
+      </c>
+      <c r="Z4" s="5">
+        <v>2.5086878384546196</v>
+      </c>
+      <c r="AA4" s="5">
+        <v>1.6351143304444082</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <v>9.0280272949077336</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.79148016981419489</v>
+      </c>
+      <c r="D5" s="5">
+        <v>9.3450116579607538</v>
+      </c>
+      <c r="E5" s="5">
+        <v>8.7779321350987356</v>
+      </c>
+      <c r="F5" s="5">
+        <v>9.9122391981291731</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1.6940251254577043</v>
+      </c>
+      <c r="H5" s="5">
+        <v>5.3580360106324925</v>
+      </c>
+      <c r="I5" s="5">
+        <v>2.9089999765545471</v>
+      </c>
+      <c r="J5" s="5">
+        <v>6.3392393508409226</v>
+      </c>
+      <c r="K5" s="5">
+        <v>1.3233246022872935</v>
+      </c>
+      <c r="L5" s="5">
+        <v>1.120067870198912</v>
+      </c>
+      <c r="M5" s="5">
+        <v>7.6992979145058449</v>
+      </c>
+      <c r="N5" s="5">
+        <v>2.5057427861077572</v>
+      </c>
+      <c r="O5" s="5">
+        <v>7.3750450434362538</v>
+      </c>
+      <c r="P5" s="5">
+        <v>9.4007626187483222</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>9.101036356582326E-2</v>
+      </c>
+      <c r="R5" s="5">
+        <v>0.57288500630638395</v>
+      </c>
+      <c r="S5" s="5">
+        <v>7.4626065943311914</v>
+      </c>
+      <c r="T5" s="5">
+        <v>3.1809862851226445</v>
+      </c>
+      <c r="U5" s="5">
+        <v>9.2020936906236397</v>
+      </c>
+      <c r="V5" s="5">
+        <v>7.2239084732453938</v>
+      </c>
+      <c r="W5" s="5">
+        <v>4.8200977144393988</v>
+      </c>
+      <c r="X5" s="5">
+        <v>0.51573154632642448</v>
+      </c>
+      <c r="Y5" s="5">
+        <v>2.0417983331255551</v>
+      </c>
+      <c r="Z5" s="5">
+        <v>4.1086422921963939</v>
+      </c>
+      <c r="AA5" s="5">
+        <v>4.5570832737185842</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3CF035B-C14B-46B7-A841-579E94220A37}">
+  <dimension ref="A1:AA5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1">
+        <v>2025</v>
+      </c>
+      <c r="C1">
+        <v>2026</v>
+      </c>
+      <c r="D1">
+        <v>2027</v>
+      </c>
+      <c r="E1">
+        <v>2028</v>
+      </c>
+      <c r="F1">
+        <v>2029</v>
+      </c>
+      <c r="G1">
+        <v>2030</v>
+      </c>
+      <c r="H1">
+        <v>2031</v>
+      </c>
+      <c r="I1">
+        <v>2032</v>
+      </c>
+      <c r="J1">
+        <v>2033</v>
+      </c>
+      <c r="K1">
+        <v>2034</v>
+      </c>
+      <c r="L1">
+        <v>2035</v>
+      </c>
+      <c r="M1">
+        <v>2036</v>
+      </c>
+      <c r="N1">
+        <v>2037</v>
+      </c>
+      <c r="O1">
+        <v>2038</v>
+      </c>
+      <c r="P1">
+        <v>2039</v>
+      </c>
+      <c r="Q1">
+        <v>2040</v>
+      </c>
+      <c r="R1">
+        <v>2041</v>
+      </c>
+      <c r="S1">
+        <v>2042</v>
+      </c>
+      <c r="T1">
+        <v>2043</v>
+      </c>
+      <c r="U1">
+        <v>2044</v>
+      </c>
+      <c r="V1">
+        <v>2045</v>
+      </c>
+      <c r="W1">
+        <v>2046</v>
+      </c>
+      <c r="X1">
+        <v>2047</v>
+      </c>
+      <c r="Y1">
+        <v>2048</v>
+      </c>
+      <c r="Z1">
+        <v>2049</v>
+      </c>
+      <c r="AA1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="E2" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="G2" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="H2" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="I2" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="J2" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="K2" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="L2" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="M2" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="N2" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="O2" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="P2" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="R2" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="S2" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="T2" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="U2" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="V2" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="W2" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="X2" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="Y2" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="Z2" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="AA2" s="5">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="G3" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="H3" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="I3" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="J3" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="K3" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="L3" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="M3" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="N3" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="O3" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="P3" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="R3" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="S3" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="T3" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="U3" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="V3" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="W3" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="X3" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="Y3" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="Z3" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="AA3" s="5">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="H4" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="I4" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="J4" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="K4" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="L4" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="M4" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="N4" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="O4" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="P4" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="R4" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="S4" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="T4" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="U4" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="V4" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="W4" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="X4" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="Y4" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="Z4" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="AA4" s="5">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I5" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J5" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K5" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L5" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M5" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N5" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O5" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P5" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R5" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="S5" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="T5" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="U5" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="V5" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="W5" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="X5" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Y5" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Z5" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AA5" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8A5865B-B011-402F-A09D-739FDD6B0E90}">
   <dimension ref="A1:B8"/>
   <sheetViews>
@@ -832,7 +1711,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83A8B42D-00EB-470C-A0D2-7C21A6CB877B}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -904,12 +1783,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{251D8908-2320-4E41-AC8F-86BD7BF58C9B}">
   <dimension ref="A1:AA6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:AA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1418,7 +2297,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20EB8FDB-F47B-40C2-8266-6700BCAB2D8C}">
   <dimension ref="A1:AA6"/>
   <sheetViews>
@@ -1932,7 +2811,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DC1A385-697C-4C01-B126-79A22BD0CC72}">
   <dimension ref="A1:AA6"/>
   <sheetViews>
@@ -2570,10 +3449,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E234AF8D-964B-419F-969D-C9FD34B2C8AE}">
-  <dimension ref="A1:AA4"/>
+  <dimension ref="A1:AA5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2908,6 +3787,115 @@
       </c>
       <c r="AA4">
         <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5">
+        <f>B2*1.5</f>
+        <v>45</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:AA5" si="0">C2*1.5</f>
+        <v>45</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" si="0"/>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2918,9 +3906,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39EC2A4D-93DC-4E45-8627-2A75EDF5181B}">
-  <dimension ref="A1:AA4"/>
+  <dimension ref="A1:AA5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:AA5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -3332,6 +4322,115 @@
       <c r="AA4" s="3">
         <f>capex!AA4*0.05</f>
         <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="3">
+        <f>capex!B5*0.05</f>
+        <v>2.25</v>
+      </c>
+      <c r="C5" s="3">
+        <f>capex!C5*0.05</f>
+        <v>2.25</v>
+      </c>
+      <c r="D5" s="3">
+        <f>capex!D5*0.05</f>
+        <v>2.25</v>
+      </c>
+      <c r="E5" s="3">
+        <f>capex!E5*0.05</f>
+        <v>2.25</v>
+      </c>
+      <c r="F5" s="3">
+        <f>capex!F5*0.05</f>
+        <v>2.25</v>
+      </c>
+      <c r="G5" s="3">
+        <f>capex!G5*0.05</f>
+        <v>2.25</v>
+      </c>
+      <c r="H5" s="3">
+        <f>capex!H5*0.05</f>
+        <v>2.25</v>
+      </c>
+      <c r="I5" s="3">
+        <f>capex!I5*0.05</f>
+        <v>2.25</v>
+      </c>
+      <c r="J5" s="3">
+        <f>capex!J5*0.05</f>
+        <v>2.25</v>
+      </c>
+      <c r="K5" s="3">
+        <f>capex!K5*0.05</f>
+        <v>2.25</v>
+      </c>
+      <c r="L5" s="3">
+        <f>capex!L5*0.05</f>
+        <v>2.25</v>
+      </c>
+      <c r="M5" s="3">
+        <f>capex!M5*0.05</f>
+        <v>2.25</v>
+      </c>
+      <c r="N5" s="3">
+        <f>capex!N5*0.05</f>
+        <v>2.25</v>
+      </c>
+      <c r="O5" s="3">
+        <f>capex!O5*0.05</f>
+        <v>2.25</v>
+      </c>
+      <c r="P5" s="3">
+        <f>capex!P5*0.05</f>
+        <v>2.25</v>
+      </c>
+      <c r="Q5" s="3">
+        <f>capex!Q5*0.05</f>
+        <v>2.25</v>
+      </c>
+      <c r="R5" s="3">
+        <f>capex!R5*0.05</f>
+        <v>2.25</v>
+      </c>
+      <c r="S5" s="3">
+        <f>capex!S5*0.05</f>
+        <v>2.25</v>
+      </c>
+      <c r="T5" s="3">
+        <f>capex!T5*0.05</f>
+        <v>2.25</v>
+      </c>
+      <c r="U5" s="3">
+        <f>capex!U5*0.05</f>
+        <v>2.25</v>
+      </c>
+      <c r="V5" s="3">
+        <f>capex!V5*0.05</f>
+        <v>2.25</v>
+      </c>
+      <c r="W5" s="3">
+        <f>capex!W5*0.05</f>
+        <v>2.25</v>
+      </c>
+      <c r="X5" s="3">
+        <f>capex!X5*0.05</f>
+        <v>2.25</v>
+      </c>
+      <c r="Y5" s="3">
+        <f>capex!Y5*0.05</f>
+        <v>2.25</v>
+      </c>
+      <c r="Z5" s="3">
+        <f>capex!Z5*0.05</f>
+        <v>2.25</v>
+      </c>
+      <c r="AA5" s="3">
+        <f>capex!AA5*0.05</f>
+        <v>2.25</v>
       </c>
     </row>
   </sheetData>
@@ -3342,9 +4441,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A18CEE6-4CB2-4E28-86E1-E84E657A73A8}">
-  <dimension ref="A1:AA4"/>
+  <dimension ref="A1:AA5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -3756,6 +4857,115 @@
       <c r="AA4" s="3">
         <f>capex!AA4*0.25</f>
         <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="3">
+        <f>capex!B5*0.25</f>
+        <v>11.25</v>
+      </c>
+      <c r="C5" s="3">
+        <f>capex!C5*0.25</f>
+        <v>11.25</v>
+      </c>
+      <c r="D5" s="3">
+        <f>capex!D5*0.25</f>
+        <v>11.25</v>
+      </c>
+      <c r="E5" s="3">
+        <f>capex!E5*0.25</f>
+        <v>11.25</v>
+      </c>
+      <c r="F5" s="3">
+        <f>capex!F5*0.25</f>
+        <v>11.25</v>
+      </c>
+      <c r="G5" s="3">
+        <f>capex!G5*0.25</f>
+        <v>11.25</v>
+      </c>
+      <c r="H5" s="3">
+        <f>capex!H5*0.25</f>
+        <v>11.25</v>
+      </c>
+      <c r="I5" s="3">
+        <f>capex!I5*0.25</f>
+        <v>11.25</v>
+      </c>
+      <c r="J5" s="3">
+        <f>capex!J5*0.25</f>
+        <v>11.25</v>
+      </c>
+      <c r="K5" s="3">
+        <f>capex!K5*0.25</f>
+        <v>11.25</v>
+      </c>
+      <c r="L5" s="3">
+        <f>capex!L5*0.25</f>
+        <v>11.25</v>
+      </c>
+      <c r="M5" s="3">
+        <f>capex!M5*0.25</f>
+        <v>11.25</v>
+      </c>
+      <c r="N5" s="3">
+        <f>capex!N5*0.25</f>
+        <v>11.25</v>
+      </c>
+      <c r="O5" s="3">
+        <f>capex!O5*0.25</f>
+        <v>11.25</v>
+      </c>
+      <c r="P5" s="3">
+        <f>capex!P5*0.25</f>
+        <v>11.25</v>
+      </c>
+      <c r="Q5" s="3">
+        <f>capex!Q5*0.25</f>
+        <v>11.25</v>
+      </c>
+      <c r="R5" s="3">
+        <f>capex!R5*0.25</f>
+        <v>11.25</v>
+      </c>
+      <c r="S5" s="3">
+        <f>capex!S5*0.25</f>
+        <v>11.25</v>
+      </c>
+      <c r="T5" s="3">
+        <f>capex!T5*0.25</f>
+        <v>11.25</v>
+      </c>
+      <c r="U5" s="3">
+        <f>capex!U5*0.25</f>
+        <v>11.25</v>
+      </c>
+      <c r="V5" s="3">
+        <f>capex!V5*0.25</f>
+        <v>11.25</v>
+      </c>
+      <c r="W5" s="3">
+        <f>capex!W5*0.25</f>
+        <v>11.25</v>
+      </c>
+      <c r="X5" s="3">
+        <f>capex!X5*0.25</f>
+        <v>11.25</v>
+      </c>
+      <c r="Y5" s="3">
+        <f>capex!Y5*0.25</f>
+        <v>11.25</v>
+      </c>
+      <c r="Z5" s="3">
+        <f>capex!Z5*0.25</f>
+        <v>11.25</v>
+      </c>
+      <c r="AA5" s="3">
+        <f>capex!AA5*0.25</f>
+        <v>11.25</v>
       </c>
     </row>
   </sheetData>
@@ -3766,10 +4976,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED5339A0-3D98-43CE-86F7-53EF60721306}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3823,6 +5033,17 @@
         <v>2020</v>
       </c>
     </row>
+    <row r="5" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>2035</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3830,10 +5051,552 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F464A74C-C8AE-4B5D-B335-B05DB5565181}">
+  <dimension ref="A1:AA5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1">
+        <v>2025</v>
+      </c>
+      <c r="C1">
+        <v>2026</v>
+      </c>
+      <c r="D1">
+        <v>2027</v>
+      </c>
+      <c r="E1">
+        <v>2028</v>
+      </c>
+      <c r="F1">
+        <v>2029</v>
+      </c>
+      <c r="G1">
+        <v>2030</v>
+      </c>
+      <c r="H1">
+        <v>2031</v>
+      </c>
+      <c r="I1">
+        <v>2032</v>
+      </c>
+      <c r="J1">
+        <v>2033</v>
+      </c>
+      <c r="K1">
+        <v>2034</v>
+      </c>
+      <c r="L1">
+        <v>2035</v>
+      </c>
+      <c r="M1">
+        <v>2036</v>
+      </c>
+      <c r="N1">
+        <v>2037</v>
+      </c>
+      <c r="O1">
+        <v>2038</v>
+      </c>
+      <c r="P1">
+        <v>2039</v>
+      </c>
+      <c r="Q1">
+        <v>2040</v>
+      </c>
+      <c r="R1">
+        <v>2041</v>
+      </c>
+      <c r="S1">
+        <v>2042</v>
+      </c>
+      <c r="T1">
+        <v>2043</v>
+      </c>
+      <c r="U1">
+        <v>2044</v>
+      </c>
+      <c r="V1">
+        <v>2045</v>
+      </c>
+      <c r="W1">
+        <v>2046</v>
+      </c>
+      <c r="X1">
+        <v>2047</v>
+      </c>
+      <c r="Y1">
+        <v>2048</v>
+      </c>
+      <c r="Z1">
+        <v>2049</v>
+      </c>
+      <c r="AA1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
+      <c r="Y2">
+        <v>1</v>
+      </c>
+      <c r="Z2">
+        <v>1</v>
+      </c>
+      <c r="AA2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="Z3">
+        <v>1</v>
+      </c>
+      <c r="AA3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
+      <c r="Y4">
+        <v>1</v>
+      </c>
+      <c r="Z4">
+        <v>1</v>
+      </c>
+      <c r="AA4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5">
+        <v>0.6</v>
+      </c>
+      <c r="C5">
+        <v>0.6</v>
+      </c>
+      <c r="D5">
+        <v>0.6</v>
+      </c>
+      <c r="E5">
+        <v>0.6</v>
+      </c>
+      <c r="F5">
+        <v>0.6</v>
+      </c>
+      <c r="G5">
+        <v>0.6</v>
+      </c>
+      <c r="H5">
+        <v>0.6</v>
+      </c>
+      <c r="I5">
+        <v>0.6</v>
+      </c>
+      <c r="J5">
+        <v>0.6</v>
+      </c>
+      <c r="K5">
+        <v>0.6</v>
+      </c>
+      <c r="L5">
+        <v>0.6</v>
+      </c>
+      <c r="M5">
+        <v>0.6</v>
+      </c>
+      <c r="N5">
+        <v>0.6</v>
+      </c>
+      <c r="O5">
+        <v>0.6</v>
+      </c>
+      <c r="P5">
+        <v>0.6</v>
+      </c>
+      <c r="Q5">
+        <v>0.6</v>
+      </c>
+      <c r="R5">
+        <v>0.6</v>
+      </c>
+      <c r="S5">
+        <v>0.6</v>
+      </c>
+      <c r="T5">
+        <v>0.6</v>
+      </c>
+      <c r="U5">
+        <v>0.6</v>
+      </c>
+      <c r="V5">
+        <v>0.6</v>
+      </c>
+      <c r="W5">
+        <v>0.6</v>
+      </c>
+      <c r="X5">
+        <v>0.6</v>
+      </c>
+      <c r="Y5">
+        <v>0.6</v>
+      </c>
+      <c r="Z5">
+        <v>0.6</v>
+      </c>
+      <c r="AA5">
+        <v>0.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E46CCB1-2754-42FA-B5C9-8DABA83A320C}">
+  <dimension ref="A1:AA3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1">
+        <v>2025</v>
+      </c>
+      <c r="C1">
+        <v>2026</v>
+      </c>
+      <c r="D1">
+        <v>2027</v>
+      </c>
+      <c r="E1">
+        <v>2028</v>
+      </c>
+      <c r="F1">
+        <v>2029</v>
+      </c>
+      <c r="G1">
+        <v>2030</v>
+      </c>
+      <c r="H1">
+        <v>2031</v>
+      </c>
+      <c r="I1">
+        <v>2032</v>
+      </c>
+      <c r="J1">
+        <v>2033</v>
+      </c>
+      <c r="K1">
+        <v>2034</v>
+      </c>
+      <c r="L1">
+        <v>2035</v>
+      </c>
+      <c r="M1">
+        <v>2036</v>
+      </c>
+      <c r="N1">
+        <v>2037</v>
+      </c>
+      <c r="O1">
+        <v>2038</v>
+      </c>
+      <c r="P1">
+        <v>2039</v>
+      </c>
+      <c r="Q1">
+        <v>2040</v>
+      </c>
+      <c r="R1">
+        <v>2041</v>
+      </c>
+      <c r="S1">
+        <v>2042</v>
+      </c>
+      <c r="T1">
+        <v>2043</v>
+      </c>
+      <c r="U1">
+        <v>2044</v>
+      </c>
+      <c r="V1">
+        <v>2045</v>
+      </c>
+      <c r="W1">
+        <v>2046</v>
+      </c>
+      <c r="X1">
+        <v>2047</v>
+      </c>
+      <c r="Y1">
+        <v>2048</v>
+      </c>
+      <c r="Z1">
+        <v>2049</v>
+      </c>
+      <c r="AA1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9059A3E3-467F-433B-AAF0-DA415330A29D}">
   <dimension ref="A1:AA5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection sqref="A1:AA1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
@@ -4259,865 +6022,4 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A95E18AD-1C92-4B5C-962D-792F4AC09175}">
-  <dimension ref="A1:AA5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="2" max="27" width="9.796875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1">
-        <v>2025</v>
-      </c>
-      <c r="C1">
-        <v>2026</v>
-      </c>
-      <c r="D1">
-        <v>2027</v>
-      </c>
-      <c r="E1">
-        <v>2028</v>
-      </c>
-      <c r="F1">
-        <v>2029</v>
-      </c>
-      <c r="G1">
-        <v>2030</v>
-      </c>
-      <c r="H1">
-        <v>2031</v>
-      </c>
-      <c r="I1">
-        <v>2032</v>
-      </c>
-      <c r="J1">
-        <v>2033</v>
-      </c>
-      <c r="K1">
-        <v>2034</v>
-      </c>
-      <c r="L1">
-        <v>2035</v>
-      </c>
-      <c r="M1">
-        <v>2036</v>
-      </c>
-      <c r="N1">
-        <v>2037</v>
-      </c>
-      <c r="O1">
-        <v>2038</v>
-      </c>
-      <c r="P1">
-        <v>2039</v>
-      </c>
-      <c r="Q1">
-        <v>2040</v>
-      </c>
-      <c r="R1">
-        <v>2041</v>
-      </c>
-      <c r="S1">
-        <v>2042</v>
-      </c>
-      <c r="T1">
-        <v>2043</v>
-      </c>
-      <c r="U1">
-        <v>2044</v>
-      </c>
-      <c r="V1">
-        <v>2045</v>
-      </c>
-      <c r="W1">
-        <v>2046</v>
-      </c>
-      <c r="X1">
-        <v>2047</v>
-      </c>
-      <c r="Y1">
-        <v>2048</v>
-      </c>
-      <c r="Z1">
-        <v>2049</v>
-      </c>
-      <c r="AA1">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5">
-        <v>1.138931802510158</v>
-      </c>
-      <c r="C2" s="5">
-        <v>7.574766115689437</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0.67628647507918527</v>
-      </c>
-      <c r="E2" s="5">
-        <v>3.2136905007923797</v>
-      </c>
-      <c r="F2" s="5">
-        <v>5.6365173572880378</v>
-      </c>
-      <c r="G2" s="5">
-        <v>8.23729264578464</v>
-      </c>
-      <c r="H2" s="5">
-        <v>3.9808290290957169</v>
-      </c>
-      <c r="I2" s="5">
-        <v>4.2084362783232425</v>
-      </c>
-      <c r="J2" s="5">
-        <v>2.6547768072885605</v>
-      </c>
-      <c r="K2" s="5">
-        <v>8.6895749145679559</v>
-      </c>
-      <c r="L2" s="5">
-        <v>4.4525335538469051</v>
-      </c>
-      <c r="M2" s="5">
-        <v>3.4468203268875373</v>
-      </c>
-      <c r="N2" s="5">
-        <v>2.4572713271210231</v>
-      </c>
-      <c r="O2" s="5">
-        <v>8.927728792550143</v>
-      </c>
-      <c r="P2" s="5">
-        <v>5.982551937391019</v>
-      </c>
-      <c r="Q2" s="5">
-        <v>7.3819001349795244E-2</v>
-      </c>
-      <c r="R2" s="5">
-        <v>1.9919161958087483</v>
-      </c>
-      <c r="S2" s="5">
-        <v>2.4831770957740105</v>
-      </c>
-      <c r="T2" s="5">
-        <v>9.4001854872220374</v>
-      </c>
-      <c r="U2" s="5">
-        <v>4.3998924386883029</v>
-      </c>
-      <c r="V2" s="5">
-        <v>0.43428856551232409</v>
-      </c>
-      <c r="W2" s="5">
-        <v>7.9407731237710166</v>
-      </c>
-      <c r="X2" s="5">
-        <v>4.1007272303399853</v>
-      </c>
-      <c r="Y2" s="5">
-        <v>5.8292407312736536</v>
-      </c>
-      <c r="Z2" s="5">
-        <v>0.26933124855980206</v>
-      </c>
-      <c r="AA2" s="5">
-        <v>6.9076528786362008</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="5">
-        <v>1.2044835146641231</v>
-      </c>
-      <c r="C3" s="5">
-        <v>7.987902585292554</v>
-      </c>
-      <c r="D3" s="5">
-        <v>7.9590068482088627</v>
-      </c>
-      <c r="E3" s="5">
-        <v>0.1606066383802518</v>
-      </c>
-      <c r="F3" s="5">
-        <v>4.585605094215504</v>
-      </c>
-      <c r="G3" s="5">
-        <v>9.6626632527953404</v>
-      </c>
-      <c r="H3" s="5">
-        <v>5.7739880052029147</v>
-      </c>
-      <c r="I3" s="5">
-        <v>9.2566527937944265</v>
-      </c>
-      <c r="J3" s="5">
-        <v>9.4800396741663029</v>
-      </c>
-      <c r="K3" s="5">
-        <v>3.6065083788586447</v>
-      </c>
-      <c r="L3" s="5">
-        <v>8.5438796497736664</v>
-      </c>
-      <c r="M3" s="5">
-        <v>0.59728548866735287</v>
-      </c>
-      <c r="N3" s="5">
-        <v>3.8461224682055359</v>
-      </c>
-      <c r="O3" s="5">
-        <v>6.6481529824524479</v>
-      </c>
-      <c r="P3" s="5">
-        <v>7.3392403143414278</v>
-      </c>
-      <c r="Q3" s="5">
-        <v>3.1816087694142494</v>
-      </c>
-      <c r="R3" s="5">
-        <v>2.7863956935330956</v>
-      </c>
-      <c r="S3" s="5">
-        <v>9.3348757795029993</v>
-      </c>
-      <c r="T3" s="5">
-        <v>2.1397729972070723</v>
-      </c>
-      <c r="U3" s="5">
-        <v>6.9678153416583575</v>
-      </c>
-      <c r="V3" s="5">
-        <v>7.7674217492321507</v>
-      </c>
-      <c r="W3" s="5">
-        <v>4.7216654236148514</v>
-      </c>
-      <c r="X3" s="5">
-        <v>4.238810750971469</v>
-      </c>
-      <c r="Y3" s="5">
-        <v>7.3608683858912185</v>
-      </c>
-      <c r="Z3" s="5">
-        <v>7.5148932206900243</v>
-      </c>
-      <c r="AA3" s="5">
-        <v>9.6339470176296054</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="5">
-        <v>1.6561115100472845</v>
-      </c>
-      <c r="C4" s="5">
-        <v>6.8203698630888576</v>
-      </c>
-      <c r="D4" s="5">
-        <v>1.4137603139272703</v>
-      </c>
-      <c r="E4" s="5">
-        <v>4.3586868316947838</v>
-      </c>
-      <c r="F4" s="5">
-        <v>9.5169563479933696</v>
-      </c>
-      <c r="G4" s="5">
-        <v>6.6592244131241145</v>
-      </c>
-      <c r="H4" s="5">
-        <v>3.2346583782178726</v>
-      </c>
-      <c r="I4" s="5">
-        <v>8.4298844355731966</v>
-      </c>
-      <c r="J4" s="5">
-        <v>2.0837137856376531E-2</v>
-      </c>
-      <c r="K4" s="5">
-        <v>7.801618608794608</v>
-      </c>
-      <c r="L4" s="5">
-        <v>1.1747432563255356</v>
-      </c>
-      <c r="M4" s="5">
-        <v>9.2189855539967063</v>
-      </c>
-      <c r="N4" s="5">
-        <v>5.6389770014244593</v>
-      </c>
-      <c r="O4" s="5">
-        <v>9.3557448426025598</v>
-      </c>
-      <c r="P4" s="5">
-        <v>2.5307863577058676</v>
-      </c>
-      <c r="Q4" s="5">
-        <v>1.8798425218320436</v>
-      </c>
-      <c r="R4" s="5">
-        <v>4.9777650025283062</v>
-      </c>
-      <c r="S4" s="5">
-        <v>2.470635282434567</v>
-      </c>
-      <c r="T4" s="5">
-        <v>8.3448632095880253</v>
-      </c>
-      <c r="U4" s="5">
-        <v>2.8797087757874475</v>
-      </c>
-      <c r="V4" s="5">
-        <v>4.8495072111122131</v>
-      </c>
-      <c r="W4" s="5">
-        <v>0.6494650243068445</v>
-      </c>
-      <c r="X4" s="5">
-        <v>4.0400013877281555</v>
-      </c>
-      <c r="Y4" s="5">
-        <v>8.7109696253244202</v>
-      </c>
-      <c r="Z4" s="5">
-        <v>2.5086878384546196</v>
-      </c>
-      <c r="AA4" s="5">
-        <v>1.6351143304444082</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5">
-        <v>9.0280272949077336</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0.79148016981419489</v>
-      </c>
-      <c r="D5" s="5">
-        <v>9.3450116579607538</v>
-      </c>
-      <c r="E5" s="5">
-        <v>8.7779321350987356</v>
-      </c>
-      <c r="F5" s="5">
-        <v>9.9122391981291731</v>
-      </c>
-      <c r="G5" s="5">
-        <v>1.6940251254577043</v>
-      </c>
-      <c r="H5" s="5">
-        <v>5.3580360106324925</v>
-      </c>
-      <c r="I5" s="5">
-        <v>2.9089999765545471</v>
-      </c>
-      <c r="J5" s="5">
-        <v>6.3392393508409226</v>
-      </c>
-      <c r="K5" s="5">
-        <v>1.3233246022872935</v>
-      </c>
-      <c r="L5" s="5">
-        <v>1.120067870198912</v>
-      </c>
-      <c r="M5" s="5">
-        <v>7.6992979145058449</v>
-      </c>
-      <c r="N5" s="5">
-        <v>2.5057427861077572</v>
-      </c>
-      <c r="O5" s="5">
-        <v>7.3750450434362538</v>
-      </c>
-      <c r="P5" s="5">
-        <v>9.4007626187483222</v>
-      </c>
-      <c r="Q5" s="5">
-        <v>9.101036356582326E-2</v>
-      </c>
-      <c r="R5" s="5">
-        <v>0.57288500630638395</v>
-      </c>
-      <c r="S5" s="5">
-        <v>7.4626065943311914</v>
-      </c>
-      <c r="T5" s="5">
-        <v>3.1809862851226445</v>
-      </c>
-      <c r="U5" s="5">
-        <v>9.2020936906236397</v>
-      </c>
-      <c r="V5" s="5">
-        <v>7.2239084732453938</v>
-      </c>
-      <c r="W5" s="5">
-        <v>4.8200977144393988</v>
-      </c>
-      <c r="X5" s="5">
-        <v>0.51573154632642448</v>
-      </c>
-      <c r="Y5" s="5">
-        <v>2.0417983331255551</v>
-      </c>
-      <c r="Z5" s="5">
-        <v>4.1086422921963939</v>
-      </c>
-      <c r="AA5" s="5">
-        <v>4.5570832737185842</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3CF035B-C14B-46B7-A841-579E94220A37}">
-  <dimension ref="A1:AA5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1">
-        <v>2025</v>
-      </c>
-      <c r="C1">
-        <v>2026</v>
-      </c>
-      <c r="D1">
-        <v>2027</v>
-      </c>
-      <c r="E1">
-        <v>2028</v>
-      </c>
-      <c r="F1">
-        <v>2029</v>
-      </c>
-      <c r="G1">
-        <v>2030</v>
-      </c>
-      <c r="H1">
-        <v>2031</v>
-      </c>
-      <c r="I1">
-        <v>2032</v>
-      </c>
-      <c r="J1">
-        <v>2033</v>
-      </c>
-      <c r="K1">
-        <v>2034</v>
-      </c>
-      <c r="L1">
-        <v>2035</v>
-      </c>
-      <c r="M1">
-        <v>2036</v>
-      </c>
-      <c r="N1">
-        <v>2037</v>
-      </c>
-      <c r="O1">
-        <v>2038</v>
-      </c>
-      <c r="P1">
-        <v>2039</v>
-      </c>
-      <c r="Q1">
-        <v>2040</v>
-      </c>
-      <c r="R1">
-        <v>2041</v>
-      </c>
-      <c r="S1">
-        <v>2042</v>
-      </c>
-      <c r="T1">
-        <v>2043</v>
-      </c>
-      <c r="U1">
-        <v>2044</v>
-      </c>
-      <c r="V1">
-        <v>2045</v>
-      </c>
-      <c r="W1">
-        <v>2046</v>
-      </c>
-      <c r="X1">
-        <v>2047</v>
-      </c>
-      <c r="Y1">
-        <v>2048</v>
-      </c>
-      <c r="Z1">
-        <v>2049</v>
-      </c>
-      <c r="AA1">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5">
-        <v>1.2</v>
-      </c>
-      <c r="C2" s="5">
-        <v>1.2</v>
-      </c>
-      <c r="D2" s="5">
-        <v>1.2</v>
-      </c>
-      <c r="E2" s="5">
-        <v>1.2</v>
-      </c>
-      <c r="F2" s="5">
-        <v>1.2</v>
-      </c>
-      <c r="G2" s="5">
-        <v>1.2</v>
-      </c>
-      <c r="H2" s="5">
-        <v>1.2</v>
-      </c>
-      <c r="I2" s="5">
-        <v>1.2</v>
-      </c>
-      <c r="J2" s="5">
-        <v>1.2</v>
-      </c>
-      <c r="K2" s="5">
-        <v>1.2</v>
-      </c>
-      <c r="L2" s="5">
-        <v>1.2</v>
-      </c>
-      <c r="M2" s="5">
-        <v>1.2</v>
-      </c>
-      <c r="N2" s="5">
-        <v>1.2</v>
-      </c>
-      <c r="O2" s="5">
-        <v>1.2</v>
-      </c>
-      <c r="P2" s="5">
-        <v>1.2</v>
-      </c>
-      <c r="Q2" s="5">
-        <v>1.2</v>
-      </c>
-      <c r="R2" s="5">
-        <v>1.2</v>
-      </c>
-      <c r="S2" s="5">
-        <v>1.2</v>
-      </c>
-      <c r="T2" s="5">
-        <v>1.2</v>
-      </c>
-      <c r="U2" s="5">
-        <v>1.2</v>
-      </c>
-      <c r="V2" s="5">
-        <v>1.2</v>
-      </c>
-      <c r="W2" s="5">
-        <v>1.2</v>
-      </c>
-      <c r="X2" s="5">
-        <v>1.2</v>
-      </c>
-      <c r="Y2" s="5">
-        <v>1.2</v>
-      </c>
-      <c r="Z2" s="5">
-        <v>1.2</v>
-      </c>
-      <c r="AA2" s="5">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="C3" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="D3" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="E3" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="F3" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="G3" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="H3" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="I3" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="J3" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="K3" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="L3" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="M3" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="N3" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="O3" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="P3" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="Q3" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="R3" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="S3" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="T3" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="U3" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="V3" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="W3" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="X3" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="Y3" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="Z3" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="AA3" s="5">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="C4" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="D4" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="E4" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="F4" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="G4" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="H4" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="I4" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="J4" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="K4" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="L4" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="M4" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="N4" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="O4" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="P4" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="Q4" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="R4" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="S4" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="T4" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="U4" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="V4" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="W4" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="X4" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="Y4" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="Z4" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="AA4" s="5">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C5" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D5" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E5" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F5" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G5" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H5" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I5" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="J5" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="K5" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L5" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M5" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="N5" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="O5" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="P5" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="Q5" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="R5" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="S5" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="T5" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="U5" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="V5" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="W5" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="X5" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="Y5" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="Z5" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AA5" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/database/steel_data.xlsx
+++ b/database/steel_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\PLANiT\github\macc_steel\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A83F3BF6-2589-4C51-98EE-392EA48252A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{064475A1-D367-4864-81FC-9F5674CC779D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27920" yWindow="720" windowWidth="26350" windowHeight="14720" tabRatio="620" firstSheet="4" activeTab="7" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
+    <workbookView xWindow="4320" yWindow="1632" windowWidth="37776" windowHeight="14724" tabRatio="620" activeTab="5" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="18" r:id="rId1"/>
@@ -27,8 +27,8 @@
     <sheet name="technology_fuel_pairs" sheetId="5" r:id="rId12"/>
     <sheet name="technology_material_pairs" sheetId="6" r:id="rId13"/>
     <sheet name="fuel_cost" sheetId="8" r:id="rId14"/>
-    <sheet name="fuel_emission" sheetId="10" r:id="rId15"/>
-    <sheet name="fuel_efficiency" sheetId="16" r:id="rId16"/>
+    <sheet name="fuel_efficiency" sheetId="16" r:id="rId15"/>
+    <sheet name="fuel_emission" sheetId="10" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="54">
   <si>
     <t>BF-BOF</t>
   </si>
@@ -1630,10 +1630,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8A5865B-B011-402F-A09D-739FDD6B0E90}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1705,6 +1705,22 @@
         <v>9</v>
       </c>
     </row>
+    <row r="9" spans="1:2" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1713,10 +1729,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83A8B42D-00EB-470C-A0D2-7C21A6CB877B}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="A8" sqref="A8:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1774,6 +1790,22 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1787,7 +1819,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{251D8908-2320-4E41-AC8F-86BD7BF58C9B}">
   <dimension ref="A1:AA6"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:AA1"/>
     </sheetView>
   </sheetViews>
@@ -2298,6 +2330,520 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DC1A385-697C-4C01-B126-79A22BD0CC72}">
+  <dimension ref="A1:AA6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1">
+        <v>2025</v>
+      </c>
+      <c r="C1">
+        <v>2026</v>
+      </c>
+      <c r="D1">
+        <v>2027</v>
+      </c>
+      <c r="E1">
+        <v>2028</v>
+      </c>
+      <c r="F1">
+        <v>2029</v>
+      </c>
+      <c r="G1">
+        <v>2030</v>
+      </c>
+      <c r="H1">
+        <v>2031</v>
+      </c>
+      <c r="I1">
+        <v>2032</v>
+      </c>
+      <c r="J1">
+        <v>2033</v>
+      </c>
+      <c r="K1">
+        <v>2034</v>
+      </c>
+      <c r="L1">
+        <v>2035</v>
+      </c>
+      <c r="M1">
+        <v>2036</v>
+      </c>
+      <c r="N1">
+        <v>2037</v>
+      </c>
+      <c r="O1">
+        <v>2038</v>
+      </c>
+      <c r="P1">
+        <v>2039</v>
+      </c>
+      <c r="Q1">
+        <v>2040</v>
+      </c>
+      <c r="R1">
+        <v>2041</v>
+      </c>
+      <c r="S1">
+        <v>2042</v>
+      </c>
+      <c r="T1">
+        <v>2043</v>
+      </c>
+      <c r="U1">
+        <v>2044</v>
+      </c>
+      <c r="V1">
+        <v>2045</v>
+      </c>
+      <c r="W1">
+        <v>2046</v>
+      </c>
+      <c r="X1">
+        <v>2047</v>
+      </c>
+      <c r="Y1">
+        <v>2048</v>
+      </c>
+      <c r="Z1">
+        <v>2049</v>
+      </c>
+      <c r="AA1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5">
+        <v>5</v>
+      </c>
+      <c r="F2" s="5">
+        <v>5</v>
+      </c>
+      <c r="G2" s="5">
+        <v>5</v>
+      </c>
+      <c r="H2" s="5">
+        <v>5</v>
+      </c>
+      <c r="I2" s="5">
+        <v>5</v>
+      </c>
+      <c r="J2" s="5">
+        <v>5</v>
+      </c>
+      <c r="K2" s="5">
+        <v>5</v>
+      </c>
+      <c r="L2" s="5">
+        <v>5</v>
+      </c>
+      <c r="M2" s="5">
+        <v>5</v>
+      </c>
+      <c r="N2" s="5">
+        <v>5</v>
+      </c>
+      <c r="O2" s="5">
+        <v>5</v>
+      </c>
+      <c r="P2" s="5">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>5</v>
+      </c>
+      <c r="R2" s="5">
+        <v>5</v>
+      </c>
+      <c r="S2" s="5">
+        <v>5</v>
+      </c>
+      <c r="T2" s="5">
+        <v>5</v>
+      </c>
+      <c r="U2" s="5">
+        <v>5</v>
+      </c>
+      <c r="V2" s="5">
+        <v>5</v>
+      </c>
+      <c r="W2" s="5">
+        <v>5</v>
+      </c>
+      <c r="X2" s="5">
+        <v>5</v>
+      </c>
+      <c r="Y2" s="5">
+        <v>5</v>
+      </c>
+      <c r="Z2" s="5">
+        <v>5</v>
+      </c>
+      <c r="AA2" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5">
+        <v>5</v>
+      </c>
+      <c r="D3" s="5">
+        <v>5</v>
+      </c>
+      <c r="E3" s="5">
+        <v>5</v>
+      </c>
+      <c r="F3" s="5">
+        <v>5</v>
+      </c>
+      <c r="G3" s="5">
+        <v>5</v>
+      </c>
+      <c r="H3" s="5">
+        <v>5</v>
+      </c>
+      <c r="I3" s="5">
+        <v>5</v>
+      </c>
+      <c r="J3" s="5">
+        <v>5</v>
+      </c>
+      <c r="K3" s="5">
+        <v>5</v>
+      </c>
+      <c r="L3" s="5">
+        <v>5</v>
+      </c>
+      <c r="M3" s="5">
+        <v>5</v>
+      </c>
+      <c r="N3" s="5">
+        <v>5</v>
+      </c>
+      <c r="O3" s="5">
+        <v>5</v>
+      </c>
+      <c r="P3" s="5">
+        <v>5</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>5</v>
+      </c>
+      <c r="R3" s="5">
+        <v>5</v>
+      </c>
+      <c r="S3" s="5">
+        <v>5</v>
+      </c>
+      <c r="T3" s="5">
+        <v>5</v>
+      </c>
+      <c r="U3" s="5">
+        <v>5</v>
+      </c>
+      <c r="V3" s="5">
+        <v>5</v>
+      </c>
+      <c r="W3" s="5">
+        <v>5</v>
+      </c>
+      <c r="X3" s="5">
+        <v>5</v>
+      </c>
+      <c r="Y3" s="5">
+        <v>5</v>
+      </c>
+      <c r="Z3" s="5">
+        <v>5</v>
+      </c>
+      <c r="AA3" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="5">
+        <v>4</v>
+      </c>
+      <c r="C4" s="5">
+        <v>4</v>
+      </c>
+      <c r="D4" s="5">
+        <v>4</v>
+      </c>
+      <c r="E4" s="5">
+        <v>4</v>
+      </c>
+      <c r="F4" s="5">
+        <v>4</v>
+      </c>
+      <c r="G4" s="5">
+        <v>4</v>
+      </c>
+      <c r="H4" s="5">
+        <v>4</v>
+      </c>
+      <c r="I4" s="5">
+        <v>4</v>
+      </c>
+      <c r="J4" s="5">
+        <v>4</v>
+      </c>
+      <c r="K4" s="5">
+        <v>4</v>
+      </c>
+      <c r="L4" s="5">
+        <v>4</v>
+      </c>
+      <c r="M4" s="5">
+        <v>4</v>
+      </c>
+      <c r="N4" s="5">
+        <v>4</v>
+      </c>
+      <c r="O4" s="5">
+        <v>4</v>
+      </c>
+      <c r="P4" s="5">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>4</v>
+      </c>
+      <c r="R4" s="5">
+        <v>4</v>
+      </c>
+      <c r="S4" s="5">
+        <v>4</v>
+      </c>
+      <c r="T4" s="5">
+        <v>4</v>
+      </c>
+      <c r="U4" s="5">
+        <v>4</v>
+      </c>
+      <c r="V4" s="5">
+        <v>4</v>
+      </c>
+      <c r="W4" s="5">
+        <v>4</v>
+      </c>
+      <c r="X4" s="5">
+        <v>4</v>
+      </c>
+      <c r="Y4" s="5">
+        <v>4</v>
+      </c>
+      <c r="Z4" s="5">
+        <v>4</v>
+      </c>
+      <c r="AA4" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5">
+        <v>7</v>
+      </c>
+      <c r="D5" s="5">
+        <v>7</v>
+      </c>
+      <c r="E5" s="5">
+        <v>7</v>
+      </c>
+      <c r="F5" s="5">
+        <v>7</v>
+      </c>
+      <c r="G5" s="5">
+        <v>7</v>
+      </c>
+      <c r="H5" s="5">
+        <v>7</v>
+      </c>
+      <c r="I5" s="5">
+        <v>7</v>
+      </c>
+      <c r="J5" s="5">
+        <v>7</v>
+      </c>
+      <c r="K5" s="5">
+        <v>7</v>
+      </c>
+      <c r="L5" s="5">
+        <v>7</v>
+      </c>
+      <c r="M5" s="5">
+        <v>7</v>
+      </c>
+      <c r="N5" s="5">
+        <v>7</v>
+      </c>
+      <c r="O5" s="5">
+        <v>7</v>
+      </c>
+      <c r="P5" s="5">
+        <v>7</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>7</v>
+      </c>
+      <c r="R5" s="5">
+        <v>7</v>
+      </c>
+      <c r="S5" s="5">
+        <v>7</v>
+      </c>
+      <c r="T5" s="5">
+        <v>7</v>
+      </c>
+      <c r="U5" s="5">
+        <v>7</v>
+      </c>
+      <c r="V5" s="5">
+        <v>7</v>
+      </c>
+      <c r="W5" s="5">
+        <v>7</v>
+      </c>
+      <c r="X5" s="5">
+        <v>7</v>
+      </c>
+      <c r="Y5" s="5">
+        <v>7</v>
+      </c>
+      <c r="Z5" s="5">
+        <v>7</v>
+      </c>
+      <c r="AA5" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="5">
+        <v>3</v>
+      </c>
+      <c r="C6" s="5">
+        <v>3</v>
+      </c>
+      <c r="D6" s="5">
+        <v>3</v>
+      </c>
+      <c r="E6" s="5">
+        <v>3</v>
+      </c>
+      <c r="F6" s="5">
+        <v>3</v>
+      </c>
+      <c r="G6" s="5">
+        <v>3</v>
+      </c>
+      <c r="H6" s="5">
+        <v>3</v>
+      </c>
+      <c r="I6" s="5">
+        <v>3</v>
+      </c>
+      <c r="J6" s="5">
+        <v>3</v>
+      </c>
+      <c r="K6" s="5">
+        <v>3</v>
+      </c>
+      <c r="L6" s="5">
+        <v>3</v>
+      </c>
+      <c r="M6" s="5">
+        <v>3</v>
+      </c>
+      <c r="N6" s="5">
+        <v>3</v>
+      </c>
+      <c r="O6" s="5">
+        <v>3</v>
+      </c>
+      <c r="P6" s="5">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>3</v>
+      </c>
+      <c r="R6" s="5">
+        <v>3</v>
+      </c>
+      <c r="S6" s="5">
+        <v>3</v>
+      </c>
+      <c r="T6" s="5">
+        <v>3</v>
+      </c>
+      <c r="U6" s="5">
+        <v>3</v>
+      </c>
+      <c r="V6" s="5">
+        <v>3</v>
+      </c>
+      <c r="W6" s="5">
+        <v>3</v>
+      </c>
+      <c r="X6" s="5">
+        <v>3</v>
+      </c>
+      <c r="Y6" s="5">
+        <v>3</v>
+      </c>
+      <c r="Z6" s="5">
+        <v>3</v>
+      </c>
+      <c r="AA6" s="5">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20EB8FDB-F47B-40C2-8266-6700BCAB2D8C}">
   <dimension ref="A1:AA6"/>
   <sheetViews>
@@ -2811,526 +3357,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DC1A385-697C-4C01-B126-79A22BD0CC72}">
-  <dimension ref="A1:AA6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1">
-        <v>2025</v>
-      </c>
-      <c r="C1">
-        <v>2026</v>
-      </c>
-      <c r="D1">
-        <v>2027</v>
-      </c>
-      <c r="E1">
-        <v>2028</v>
-      </c>
-      <c r="F1">
-        <v>2029</v>
-      </c>
-      <c r="G1">
-        <v>2030</v>
-      </c>
-      <c r="H1">
-        <v>2031</v>
-      </c>
-      <c r="I1">
-        <v>2032</v>
-      </c>
-      <c r="J1">
-        <v>2033</v>
-      </c>
-      <c r="K1">
-        <v>2034</v>
-      </c>
-      <c r="L1">
-        <v>2035</v>
-      </c>
-      <c r="M1">
-        <v>2036</v>
-      </c>
-      <c r="N1">
-        <v>2037</v>
-      </c>
-      <c r="O1">
-        <v>2038</v>
-      </c>
-      <c r="P1">
-        <v>2039</v>
-      </c>
-      <c r="Q1">
-        <v>2040</v>
-      </c>
-      <c r="R1">
-        <v>2041</v>
-      </c>
-      <c r="S1">
-        <v>2042</v>
-      </c>
-      <c r="T1">
-        <v>2043</v>
-      </c>
-      <c r="U1">
-        <v>2044</v>
-      </c>
-      <c r="V1">
-        <v>2045</v>
-      </c>
-      <c r="W1">
-        <v>2046</v>
-      </c>
-      <c r="X1">
-        <v>2047</v>
-      </c>
-      <c r="Y1">
-        <v>2048</v>
-      </c>
-      <c r="Z1">
-        <v>2049</v>
-      </c>
-      <c r="AA1">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="5">
-        <v>5</v>
-      </c>
-      <c r="C2" s="5">
-        <v>5</v>
-      </c>
-      <c r="D2" s="5">
-        <v>5</v>
-      </c>
-      <c r="E2" s="5">
-        <v>5</v>
-      </c>
-      <c r="F2" s="5">
-        <v>5</v>
-      </c>
-      <c r="G2" s="5">
-        <v>5</v>
-      </c>
-      <c r="H2" s="5">
-        <v>5</v>
-      </c>
-      <c r="I2" s="5">
-        <v>5</v>
-      </c>
-      <c r="J2" s="5">
-        <v>5</v>
-      </c>
-      <c r="K2" s="5">
-        <v>5</v>
-      </c>
-      <c r="L2" s="5">
-        <v>5</v>
-      </c>
-      <c r="M2" s="5">
-        <v>5</v>
-      </c>
-      <c r="N2" s="5">
-        <v>5</v>
-      </c>
-      <c r="O2" s="5">
-        <v>5</v>
-      </c>
-      <c r="P2" s="5">
-        <v>5</v>
-      </c>
-      <c r="Q2" s="5">
-        <v>5</v>
-      </c>
-      <c r="R2" s="5">
-        <v>5</v>
-      </c>
-      <c r="S2" s="5">
-        <v>5</v>
-      </c>
-      <c r="T2" s="5">
-        <v>5</v>
-      </c>
-      <c r="U2" s="5">
-        <v>5</v>
-      </c>
-      <c r="V2" s="5">
-        <v>5</v>
-      </c>
-      <c r="W2" s="5">
-        <v>5</v>
-      </c>
-      <c r="X2" s="5">
-        <v>5</v>
-      </c>
-      <c r="Y2" s="5">
-        <v>5</v>
-      </c>
-      <c r="Z2" s="5">
-        <v>5</v>
-      </c>
-      <c r="AA2" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="5">
-        <v>5</v>
-      </c>
-      <c r="C3" s="5">
-        <v>5</v>
-      </c>
-      <c r="D3" s="5">
-        <v>5</v>
-      </c>
-      <c r="E3" s="5">
-        <v>5</v>
-      </c>
-      <c r="F3" s="5">
-        <v>5</v>
-      </c>
-      <c r="G3" s="5">
-        <v>5</v>
-      </c>
-      <c r="H3" s="5">
-        <v>5</v>
-      </c>
-      <c r="I3" s="5">
-        <v>5</v>
-      </c>
-      <c r="J3" s="5">
-        <v>5</v>
-      </c>
-      <c r="K3" s="5">
-        <v>5</v>
-      </c>
-      <c r="L3" s="5">
-        <v>5</v>
-      </c>
-      <c r="M3" s="5">
-        <v>5</v>
-      </c>
-      <c r="N3" s="5">
-        <v>5</v>
-      </c>
-      <c r="O3" s="5">
-        <v>5</v>
-      </c>
-      <c r="P3" s="5">
-        <v>5</v>
-      </c>
-      <c r="Q3" s="5">
-        <v>5</v>
-      </c>
-      <c r="R3" s="5">
-        <v>5</v>
-      </c>
-      <c r="S3" s="5">
-        <v>5</v>
-      </c>
-      <c r="T3" s="5">
-        <v>5</v>
-      </c>
-      <c r="U3" s="5">
-        <v>5</v>
-      </c>
-      <c r="V3" s="5">
-        <v>5</v>
-      </c>
-      <c r="W3" s="5">
-        <v>5</v>
-      </c>
-      <c r="X3" s="5">
-        <v>5</v>
-      </c>
-      <c r="Y3" s="5">
-        <v>5</v>
-      </c>
-      <c r="Z3" s="5">
-        <v>5</v>
-      </c>
-      <c r="AA3" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="5">
-        <v>4</v>
-      </c>
-      <c r="C4" s="5">
-        <v>4</v>
-      </c>
-      <c r="D4" s="5">
-        <v>4</v>
-      </c>
-      <c r="E4" s="5">
-        <v>4</v>
-      </c>
-      <c r="F4" s="5">
-        <v>4</v>
-      </c>
-      <c r="G4" s="5">
-        <v>4</v>
-      </c>
-      <c r="H4" s="5">
-        <v>4</v>
-      </c>
-      <c r="I4" s="5">
-        <v>4</v>
-      </c>
-      <c r="J4" s="5">
-        <v>4</v>
-      </c>
-      <c r="K4" s="5">
-        <v>4</v>
-      </c>
-      <c r="L4" s="5">
-        <v>4</v>
-      </c>
-      <c r="M4" s="5">
-        <v>4</v>
-      </c>
-      <c r="N4" s="5">
-        <v>4</v>
-      </c>
-      <c r="O4" s="5">
-        <v>4</v>
-      </c>
-      <c r="P4" s="5">
-        <v>4</v>
-      </c>
-      <c r="Q4" s="5">
-        <v>4</v>
-      </c>
-      <c r="R4" s="5">
-        <v>4</v>
-      </c>
-      <c r="S4" s="5">
-        <v>4</v>
-      </c>
-      <c r="T4" s="5">
-        <v>4</v>
-      </c>
-      <c r="U4" s="5">
-        <v>4</v>
-      </c>
-      <c r="V4" s="5">
-        <v>4</v>
-      </c>
-      <c r="W4" s="5">
-        <v>4</v>
-      </c>
-      <c r="X4" s="5">
-        <v>4</v>
-      </c>
-      <c r="Y4" s="5">
-        <v>4</v>
-      </c>
-      <c r="Z4" s="5">
-        <v>4</v>
-      </c>
-      <c r="AA4" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="5">
-        <v>7</v>
-      </c>
-      <c r="C5" s="5">
-        <v>7</v>
-      </c>
-      <c r="D5" s="5">
-        <v>7</v>
-      </c>
-      <c r="E5" s="5">
-        <v>7</v>
-      </c>
-      <c r="F5" s="5">
-        <v>7</v>
-      </c>
-      <c r="G5" s="5">
-        <v>7</v>
-      </c>
-      <c r="H5" s="5">
-        <v>7</v>
-      </c>
-      <c r="I5" s="5">
-        <v>7</v>
-      </c>
-      <c r="J5" s="5">
-        <v>7</v>
-      </c>
-      <c r="K5" s="5">
-        <v>7</v>
-      </c>
-      <c r="L5" s="5">
-        <v>7</v>
-      </c>
-      <c r="M5" s="5">
-        <v>7</v>
-      </c>
-      <c r="N5" s="5">
-        <v>7</v>
-      </c>
-      <c r="O5" s="5">
-        <v>7</v>
-      </c>
-      <c r="P5" s="5">
-        <v>7</v>
-      </c>
-      <c r="Q5" s="5">
-        <v>7</v>
-      </c>
-      <c r="R5" s="5">
-        <v>7</v>
-      </c>
-      <c r="S5" s="5">
-        <v>7</v>
-      </c>
-      <c r="T5" s="5">
-        <v>7</v>
-      </c>
-      <c r="U5" s="5">
-        <v>7</v>
-      </c>
-      <c r="V5" s="5">
-        <v>7</v>
-      </c>
-      <c r="W5" s="5">
-        <v>7</v>
-      </c>
-      <c r="X5" s="5">
-        <v>7</v>
-      </c>
-      <c r="Y5" s="5">
-        <v>7</v>
-      </c>
-      <c r="Z5" s="5">
-        <v>7</v>
-      </c>
-      <c r="AA5" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="5">
-        <v>3</v>
-      </c>
-      <c r="C6" s="5">
-        <v>3</v>
-      </c>
-      <c r="D6" s="5">
-        <v>3</v>
-      </c>
-      <c r="E6" s="5">
-        <v>3</v>
-      </c>
-      <c r="F6" s="5">
-        <v>3</v>
-      </c>
-      <c r="G6" s="5">
-        <v>3</v>
-      </c>
-      <c r="H6" s="5">
-        <v>3</v>
-      </c>
-      <c r="I6" s="5">
-        <v>3</v>
-      </c>
-      <c r="J6" s="5">
-        <v>3</v>
-      </c>
-      <c r="K6" s="5">
-        <v>3</v>
-      </c>
-      <c r="L6" s="5">
-        <v>3</v>
-      </c>
-      <c r="M6" s="5">
-        <v>3</v>
-      </c>
-      <c r="N6" s="5">
-        <v>3</v>
-      </c>
-      <c r="O6" s="5">
-        <v>3</v>
-      </c>
-      <c r="P6" s="5">
-        <v>3</v>
-      </c>
-      <c r="Q6" s="5">
-        <v>3</v>
-      </c>
-      <c r="R6" s="5">
-        <v>3</v>
-      </c>
-      <c r="S6" s="5">
-        <v>3</v>
-      </c>
-      <c r="T6" s="5">
-        <v>3</v>
-      </c>
-      <c r="U6" s="5">
-        <v>3</v>
-      </c>
-      <c r="V6" s="5">
-        <v>3</v>
-      </c>
-      <c r="W6" s="5">
-        <v>3</v>
-      </c>
-      <c r="X6" s="5">
-        <v>3</v>
-      </c>
-      <c r="Y6" s="5">
-        <v>3</v>
-      </c>
-      <c r="Z6" s="5">
-        <v>3</v>
-      </c>
-      <c r="AA6" s="5">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B80F836-AAFA-4D20-813C-A31BE68F85E1}">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3908,7 +3940,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39EC2A4D-93DC-4E45-8627-2A75EDF5181B}">
   <dimension ref="A1:AA5"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5:AA5"/>
     </sheetView>
   </sheetViews>
@@ -4978,8 +5010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED5339A0-3D98-43CE-86F7-53EF60721306}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -5005,7 +5037,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>2020</v>
@@ -5016,10 +5048,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C3">
-        <v>2045</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
@@ -5027,7 +5059,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>2020</v>
@@ -5038,10 +5070,10 @@
         <v>50</v>
       </c>
       <c r="B5">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C5">
-        <v>2035</v>
+        <v>2030</v>
       </c>
     </row>
   </sheetData>
@@ -5485,7 +5517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E46CCB1-2754-42FA-B5C9-8DABA83A320C}">
   <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>

--- a/database/steel_data.xlsx
+++ b/database/steel_data.xlsx
@@ -8,27 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\PLANiT\github\macc_steel\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{064475A1-D367-4864-81FC-9F5674CC779D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED14111-91C8-40B0-AEBD-460223846C26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4320" yWindow="1632" windowWidth="37776" windowHeight="14724" tabRatio="620" activeTab="5" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
+    <workbookView xWindow="192" yWindow="348" windowWidth="37152" windowHeight="14724" tabRatio="620" activeTab="2" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="18" r:id="rId1"/>
     <sheet name="baseline" sheetId="7" r:id="rId2"/>
-    <sheet name="capex" sheetId="13" r:id="rId3"/>
-    <sheet name="opex" sheetId="14" r:id="rId4"/>
-    <sheet name="renewal" sheetId="15" r:id="rId5"/>
-    <sheet name="technology" sheetId="19" r:id="rId6"/>
-    <sheet name="technology_ei" sheetId="21" r:id="rId7"/>
-    <sheet name="emission" sheetId="23" r:id="rId8"/>
-    <sheet name="material_cost" sheetId="11" r:id="rId9"/>
-    <sheet name="material_emission" sheetId="12" r:id="rId10"/>
-    <sheet name="material_efficiency" sheetId="17" r:id="rId11"/>
-    <sheet name="technology_fuel_pairs" sheetId="5" r:id="rId12"/>
-    <sheet name="technology_material_pairs" sheetId="6" r:id="rId13"/>
-    <sheet name="fuel_cost" sheetId="8" r:id="rId14"/>
-    <sheet name="fuel_efficiency" sheetId="16" r:id="rId15"/>
-    <sheet name="fuel_emission" sheetId="10" r:id="rId16"/>
+    <sheet name="emission_system" sheetId="24" r:id="rId3"/>
+    <sheet name="capex" sheetId="13" r:id="rId4"/>
+    <sheet name="opex" sheetId="14" r:id="rId5"/>
+    <sheet name="renewal" sheetId="15" r:id="rId6"/>
+    <sheet name="technology" sheetId="19" r:id="rId7"/>
+    <sheet name="technology_ei" sheetId="21" r:id="rId8"/>
+    <sheet name="emission" sheetId="23" r:id="rId9"/>
+    <sheet name="material_cost" sheetId="11" r:id="rId10"/>
+    <sheet name="material_emission" sheetId="12" r:id="rId11"/>
+    <sheet name="material_efficiency" sheetId="17" r:id="rId12"/>
+    <sheet name="technology_fuel_pairs" sheetId="5" r:id="rId13"/>
+    <sheet name="technology_material_pairs" sheetId="6" r:id="rId14"/>
+    <sheet name="fuel_cost" sheetId="8" r:id="rId15"/>
+    <sheet name="fuel_efficiency" sheetId="16" r:id="rId16"/>
+    <sheet name="fuel_emission" sheetId="10" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="53">
   <si>
     <t>BF-BOF</t>
   </si>
@@ -249,11 +250,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>scope1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>scope2</t>
+    <t>tonCO2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -665,10 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21BDFBF-8BC3-41DF-97CA-33C5F9721F61}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -761,6 +758,14 @@
         <v>42</v>
       </c>
     </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -768,10 +773,12 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A95E18AD-1C92-4B5C-962D-792F4AC09175}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9059A3E3-467F-433B-AAF0-DA415330A29D}">
   <dimension ref="A1:AA5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection sqref="A1:AA1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1200,6 +1207,440 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A95E18AD-1C92-4B5C-962D-792F4AC09175}">
+  <dimension ref="A1:AA5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:AA5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="27" width="9.796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1">
+        <v>2025</v>
+      </c>
+      <c r="C1">
+        <v>2026</v>
+      </c>
+      <c r="D1">
+        <v>2027</v>
+      </c>
+      <c r="E1">
+        <v>2028</v>
+      </c>
+      <c r="F1">
+        <v>2029</v>
+      </c>
+      <c r="G1">
+        <v>2030</v>
+      </c>
+      <c r="H1">
+        <v>2031</v>
+      </c>
+      <c r="I1">
+        <v>2032</v>
+      </c>
+      <c r="J1">
+        <v>2033</v>
+      </c>
+      <c r="K1">
+        <v>2034</v>
+      </c>
+      <c r="L1">
+        <v>2035</v>
+      </c>
+      <c r="M1">
+        <v>2036</v>
+      </c>
+      <c r="N1">
+        <v>2037</v>
+      </c>
+      <c r="O1">
+        <v>2038</v>
+      </c>
+      <c r="P1">
+        <v>2039</v>
+      </c>
+      <c r="Q1">
+        <v>2040</v>
+      </c>
+      <c r="R1">
+        <v>2041</v>
+      </c>
+      <c r="S1">
+        <v>2042</v>
+      </c>
+      <c r="T1">
+        <v>2043</v>
+      </c>
+      <c r="U1">
+        <v>2044</v>
+      </c>
+      <c r="V1">
+        <v>2045</v>
+      </c>
+      <c r="W1">
+        <v>2046</v>
+      </c>
+      <c r="X1">
+        <v>2047</v>
+      </c>
+      <c r="Y1">
+        <v>2048</v>
+      </c>
+      <c r="Z1">
+        <v>2049</v>
+      </c>
+      <c r="AA1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>10</v>
+      </c>
+      <c r="C2" s="5">
+        <v>10</v>
+      </c>
+      <c r="D2" s="5">
+        <v>10</v>
+      </c>
+      <c r="E2" s="5">
+        <v>10</v>
+      </c>
+      <c r="F2" s="5">
+        <v>10</v>
+      </c>
+      <c r="G2" s="5">
+        <v>10</v>
+      </c>
+      <c r="H2" s="5">
+        <v>10</v>
+      </c>
+      <c r="I2" s="5">
+        <v>10</v>
+      </c>
+      <c r="J2" s="5">
+        <v>10</v>
+      </c>
+      <c r="K2" s="5">
+        <v>10</v>
+      </c>
+      <c r="L2" s="5">
+        <v>10</v>
+      </c>
+      <c r="M2" s="5">
+        <v>10</v>
+      </c>
+      <c r="N2" s="5">
+        <v>10</v>
+      </c>
+      <c r="O2" s="5">
+        <v>10</v>
+      </c>
+      <c r="P2" s="5">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>10</v>
+      </c>
+      <c r="R2" s="5">
+        <v>10</v>
+      </c>
+      <c r="S2" s="5">
+        <v>10</v>
+      </c>
+      <c r="T2" s="5">
+        <v>10</v>
+      </c>
+      <c r="U2" s="5">
+        <v>10</v>
+      </c>
+      <c r="V2" s="5">
+        <v>10</v>
+      </c>
+      <c r="W2" s="5">
+        <v>10</v>
+      </c>
+      <c r="X2" s="5">
+        <v>10</v>
+      </c>
+      <c r="Y2" s="5">
+        <v>10</v>
+      </c>
+      <c r="Z2" s="5">
+        <v>10</v>
+      </c>
+      <c r="AA2" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0</v>
+      </c>
+      <c r="M3" s="5">
+        <v>0</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0</v>
+      </c>
+      <c r="O3" s="5">
+        <v>0</v>
+      </c>
+      <c r="P3" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>0</v>
+      </c>
+      <c r="R3" s="5">
+        <v>0</v>
+      </c>
+      <c r="S3" s="5">
+        <v>0</v>
+      </c>
+      <c r="T3" s="5">
+        <v>0</v>
+      </c>
+      <c r="U3" s="5">
+        <v>0</v>
+      </c>
+      <c r="V3" s="5">
+        <v>0</v>
+      </c>
+      <c r="W3" s="5">
+        <v>0</v>
+      </c>
+      <c r="X3" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0</v>
+      </c>
+      <c r="M4" s="5">
+        <v>0</v>
+      </c>
+      <c r="N4" s="5">
+        <v>0</v>
+      </c>
+      <c r="O4" s="5">
+        <v>0</v>
+      </c>
+      <c r="P4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>0</v>
+      </c>
+      <c r="R4" s="5">
+        <v>0</v>
+      </c>
+      <c r="S4" s="5">
+        <v>0</v>
+      </c>
+      <c r="T4" s="5">
+        <v>0</v>
+      </c>
+      <c r="U4" s="5">
+        <v>0</v>
+      </c>
+      <c r="V4" s="5">
+        <v>0</v>
+      </c>
+      <c r="W4" s="5">
+        <v>0</v>
+      </c>
+      <c r="X4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5">
+        <v>3</v>
+      </c>
+      <c r="D5" s="5">
+        <v>3</v>
+      </c>
+      <c r="E5" s="5">
+        <v>3</v>
+      </c>
+      <c r="F5" s="5">
+        <v>3</v>
+      </c>
+      <c r="G5" s="5">
+        <v>3</v>
+      </c>
+      <c r="H5" s="5">
+        <v>3</v>
+      </c>
+      <c r="I5" s="5">
+        <v>3</v>
+      </c>
+      <c r="J5" s="5">
+        <v>3</v>
+      </c>
+      <c r="K5" s="5">
+        <v>3</v>
+      </c>
+      <c r="L5" s="5">
+        <v>3</v>
+      </c>
+      <c r="M5" s="5">
+        <v>3</v>
+      </c>
+      <c r="N5" s="5">
+        <v>3</v>
+      </c>
+      <c r="O5" s="5">
+        <v>3</v>
+      </c>
+      <c r="P5" s="5">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>3</v>
+      </c>
+      <c r="R5" s="5">
+        <v>3</v>
+      </c>
+      <c r="S5" s="5">
+        <v>3</v>
+      </c>
+      <c r="T5" s="5">
+        <v>3</v>
+      </c>
+      <c r="U5" s="5">
+        <v>3</v>
+      </c>
+      <c r="V5" s="5">
+        <v>3</v>
+      </c>
+      <c r="W5" s="5">
+        <v>3</v>
+      </c>
+      <c r="X5" s="5">
+        <v>3</v>
+      </c>
+      <c r="Y5" s="5">
+        <v>3</v>
+      </c>
+      <c r="Z5" s="5">
+        <v>3</v>
+      </c>
+      <c r="AA5" s="5">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3CF035B-C14B-46B7-A841-579E94220A37}">
   <dimension ref="A1:AA5"/>
   <sheetViews>
@@ -1628,7 +2069,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8A5865B-B011-402F-A09D-739FDD6B0E90}">
   <dimension ref="A1:B10"/>
   <sheetViews>
@@ -1727,7 +2168,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83A8B42D-00EB-470C-A0D2-7C21A6CB877B}">
   <dimension ref="A1:B9"/>
   <sheetViews>
@@ -1815,7 +2256,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{251D8908-2320-4E41-AC8F-86BD7BF58C9B}">
   <dimension ref="A1:AA6"/>
   <sheetViews>
@@ -2329,7 +2770,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DC1A385-697C-4C01-B126-79A22BD0CC72}">
   <dimension ref="A1:AA6"/>
   <sheetViews>
@@ -2843,12 +3284,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20EB8FDB-F47B-40C2-8266-6700BCAB2D8C}">
   <dimension ref="A1:AA6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2941,82 +3382,82 @@
         <v>5</v>
       </c>
       <c r="B2" s="5">
-        <v>6.2600453911352592</v>
+        <v>15</v>
       </c>
       <c r="C2" s="5">
-        <v>8.8222245042937839</v>
+        <v>15</v>
       </c>
       <c r="D2" s="5">
-        <v>4.8668853685625946</v>
+        <v>15</v>
       </c>
       <c r="E2" s="5">
-        <v>3.0027339992948447</v>
+        <v>15</v>
       </c>
       <c r="F2" s="5">
-        <v>12.316434020161935</v>
+        <v>15</v>
       </c>
       <c r="G2" s="5">
-        <v>9.1604563428165449</v>
+        <v>15</v>
       </c>
       <c r="H2" s="5">
-        <v>13.810504059621291</v>
+        <v>15</v>
       </c>
       <c r="I2" s="5">
-        <v>13.678304827571088</v>
+        <v>15</v>
       </c>
       <c r="J2" s="5">
-        <v>5.8399342077426173</v>
+        <v>15</v>
       </c>
       <c r="K2" s="5">
-        <v>2.560914432207829</v>
+        <v>15</v>
       </c>
       <c r="L2" s="5">
-        <v>5.0246792755547727</v>
+        <v>15</v>
       </c>
       <c r="M2" s="5">
-        <v>7.5294774046140711</v>
+        <v>15</v>
       </c>
       <c r="N2" s="5">
-        <v>1.9541670348732643</v>
+        <v>15</v>
       </c>
       <c r="O2" s="5">
-        <v>13.207174085612678</v>
+        <v>15</v>
       </c>
       <c r="P2" s="5">
-        <v>2.1123798485142267</v>
+        <v>15</v>
       </c>
       <c r="Q2" s="5">
-        <v>8.2771658498784042</v>
+        <v>15</v>
       </c>
       <c r="R2" s="5">
-        <v>11.435579213869961</v>
+        <v>15</v>
       </c>
       <c r="S2" s="5">
-        <v>3.9924456653586322</v>
+        <v>15</v>
       </c>
       <c r="T2" s="5">
-        <v>2.2337207330716131</v>
+        <v>15</v>
       </c>
       <c r="U2" s="5">
-        <v>0.77075067579372769</v>
+        <v>15</v>
       </c>
       <c r="V2" s="5">
-        <v>7.4480948670040483</v>
+        <v>15</v>
       </c>
       <c r="W2" s="5">
-        <v>9.2154154285436807</v>
+        <v>15</v>
       </c>
       <c r="X2" s="5">
-        <v>9.2716405592341573</v>
+        <v>15</v>
       </c>
       <c r="Y2" s="5">
-        <v>12.967771240834429</v>
+        <v>15</v>
       </c>
       <c r="Z2" s="5">
-        <v>0.57482413439813695</v>
+        <v>15</v>
       </c>
       <c r="AA2" s="5">
-        <v>4.9093381539763445</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
@@ -3024,82 +3465,82 @@
         <v>6</v>
       </c>
       <c r="B3" s="5">
-        <v>6.0928105811331736</v>
+        <v>7</v>
       </c>
       <c r="C3" s="5">
-        <v>10.920004594456977</v>
+        <v>7</v>
       </c>
       <c r="D3" s="5">
-        <v>10.31641722809619</v>
+        <v>7</v>
       </c>
       <c r="E3" s="5">
-        <v>11.231570014907881</v>
+        <v>7</v>
       </c>
       <c r="F3" s="5">
-        <v>4.0300577869180412</v>
+        <v>7</v>
       </c>
       <c r="G3" s="5">
-        <v>9.7931874255999407</v>
+        <v>7</v>
       </c>
       <c r="H3" s="5">
-        <v>6.5855699920290354</v>
+        <v>7</v>
       </c>
       <c r="I3" s="5">
-        <v>12.645957910868292</v>
+        <v>7</v>
       </c>
       <c r="J3" s="5">
-        <v>9.0111096831596385</v>
+        <v>7</v>
       </c>
       <c r="K3" s="5">
-        <v>14.461253731910586</v>
+        <v>7</v>
       </c>
       <c r="L3" s="5">
-        <v>8.9799456481388624</v>
+        <v>7</v>
       </c>
       <c r="M3" s="5">
-        <v>4.7150586178587268</v>
+        <v>7</v>
       </c>
       <c r="N3" s="5">
-        <v>5.4839121890832141</v>
+        <v>7</v>
       </c>
       <c r="O3" s="5">
-        <v>10.122550689063209</v>
+        <v>7</v>
       </c>
       <c r="P3" s="5">
-        <v>7.8280462780875242</v>
+        <v>7</v>
       </c>
       <c r="Q3" s="5">
-        <v>7.6429173482145618</v>
+        <v>7</v>
       </c>
       <c r="R3" s="5">
-        <v>7.3949426293514016</v>
+        <v>7</v>
       </c>
       <c r="S3" s="5">
-        <v>5.9836552397334621</v>
+        <v>7</v>
       </c>
       <c r="T3" s="5">
-        <v>14.767485384903011</v>
+        <v>7</v>
       </c>
       <c r="U3" s="5">
-        <v>14.941741866675336</v>
+        <v>7</v>
       </c>
       <c r="V3" s="5">
-        <v>7.7439303214902528</v>
+        <v>7</v>
       </c>
       <c r="W3" s="5">
-        <v>2.2664469848803375</v>
+        <v>7</v>
       </c>
       <c r="X3" s="5">
-        <v>13.544815043150813</v>
+        <v>7</v>
       </c>
       <c r="Y3" s="5">
-        <v>6.4222308368027994</v>
+        <v>7</v>
       </c>
       <c r="Z3" s="5">
-        <v>13.586164555760988</v>
+        <v>7</v>
       </c>
       <c r="AA3" s="5">
-        <v>4.7729454920000585</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.4">
@@ -3107,52 +3548,52 @@
         <v>7</v>
       </c>
       <c r="B4" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" s="5">
         <v>0</v>
@@ -3190,82 +3631,82 @@
         <v>8</v>
       </c>
       <c r="B5" s="5">
-        <v>1.5656079326091326</v>
+        <v>3</v>
       </c>
       <c r="C5" s="5">
-        <v>7.0696725603625747</v>
+        <v>3</v>
       </c>
       <c r="D5" s="5">
-        <v>13.930561403523109</v>
+        <v>3</v>
       </c>
       <c r="E5" s="5">
-        <v>1.8108541081271028</v>
+        <v>3</v>
       </c>
       <c r="F5" s="5">
-        <v>9.8977810969127145</v>
+        <v>3</v>
       </c>
       <c r="G5" s="5">
-        <v>8.9157542243891523</v>
+        <v>3</v>
       </c>
       <c r="H5" s="5">
-        <v>1.4197410500231373</v>
+        <v>3</v>
       </c>
       <c r="I5" s="5">
-        <v>14.42293937901222</v>
+        <v>3</v>
       </c>
       <c r="J5" s="5">
-        <v>5.7060995832871946</v>
+        <v>3</v>
       </c>
       <c r="K5" s="5">
-        <v>8.1914860415473392</v>
+        <v>3</v>
       </c>
       <c r="L5" s="5">
-        <v>1.1389909220565793</v>
+        <v>3</v>
       </c>
       <c r="M5" s="5">
-        <v>12.153650602918825</v>
+        <v>3</v>
       </c>
       <c r="N5" s="5">
-        <v>1.510531126422946</v>
+        <v>3</v>
       </c>
       <c r="O5" s="5">
-        <v>13.090121511788489</v>
+        <v>3</v>
       </c>
       <c r="P5" s="5">
-        <v>0.54059712332527765</v>
+        <v>3</v>
       </c>
       <c r="Q5" s="5">
-        <v>3.7045329437070307</v>
+        <v>3</v>
       </c>
       <c r="R5" s="5">
-        <v>3.0330638243461121</v>
+        <v>3</v>
       </c>
       <c r="S5" s="5">
-        <v>12.903065697567044</v>
+        <v>3</v>
       </c>
       <c r="T5" s="5">
-        <v>1.4698172604967619</v>
+        <v>3</v>
       </c>
       <c r="U5" s="5">
-        <v>13.294158844375065</v>
+        <v>3</v>
       </c>
       <c r="V5" s="5">
-        <v>1.9401206045700869</v>
+        <v>3</v>
       </c>
       <c r="W5" s="5">
-        <v>11.556833436996552</v>
+        <v>3</v>
       </c>
       <c r="X5" s="5">
-        <v>10.776514785179515</v>
+        <v>3</v>
       </c>
       <c r="Y5" s="5">
-        <v>4.5405047745340825</v>
+        <v>3</v>
       </c>
       <c r="Z5" s="5">
-        <v>10.189852738682372</v>
+        <v>3</v>
       </c>
       <c r="AA5" s="5">
-        <v>0.64474612191384173</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.4">
@@ -3273,82 +3714,82 @@
         <v>9</v>
       </c>
       <c r="B6" s="5">
-        <v>5.6458240477817503</v>
+        <v>10</v>
       </c>
       <c r="C6" s="5">
-        <v>12.11004514404361</v>
+        <v>10</v>
       </c>
       <c r="D6" s="5">
-        <v>2.4811179390953697</v>
+        <v>10</v>
       </c>
       <c r="E6" s="5">
-        <v>6.1671767253971428</v>
+        <v>10</v>
       </c>
       <c r="F6" s="5">
-        <v>7.5454106189369359</v>
+        <v>10</v>
       </c>
       <c r="G6" s="5">
-        <v>7.0635669710864448</v>
+        <v>10</v>
       </c>
       <c r="H6" s="5">
-        <v>0.18246921511723524</v>
+        <v>10</v>
       </c>
       <c r="I6" s="5">
-        <v>3.4895307493457715</v>
+        <v>10</v>
       </c>
       <c r="J6" s="5">
-        <v>11.59767902500657</v>
+        <v>10</v>
       </c>
       <c r="K6" s="5">
-        <v>7.0683511784111568</v>
+        <v>10</v>
       </c>
       <c r="L6" s="5">
-        <v>0.64911250216048266</v>
+        <v>10</v>
       </c>
       <c r="M6" s="5">
-        <v>0.44520733666444823</v>
+        <v>10</v>
       </c>
       <c r="N6" s="5">
-        <v>8.9341169520372112</v>
+        <v>10</v>
       </c>
       <c r="O6" s="5">
-        <v>0.62570928049550445</v>
+        <v>10</v>
       </c>
       <c r="P6" s="5">
-        <v>8.9725944611639665</v>
+        <v>10</v>
       </c>
       <c r="Q6" s="5">
-        <v>9.5227323982664096</v>
+        <v>10</v>
       </c>
       <c r="R6" s="5">
-        <v>12.414087553790218</v>
+        <v>10</v>
       </c>
       <c r="S6" s="5">
-        <v>1.7434432341620525</v>
+        <v>10</v>
       </c>
       <c r="T6" s="5">
-        <v>14.364541169192789</v>
+        <v>10</v>
       </c>
       <c r="U6" s="5">
-        <v>11.089944690516745</v>
+        <v>10</v>
       </c>
       <c r="V6" s="5">
-        <v>11.092578252638637</v>
+        <v>10</v>
       </c>
       <c r="W6" s="5">
-        <v>14.787616392537849</v>
+        <v>10</v>
       </c>
       <c r="X6" s="5">
-        <v>6.8072585730220982</v>
+        <v>10</v>
       </c>
       <c r="Y6" s="5">
-        <v>10.053584208006448</v>
+        <v>10</v>
       </c>
       <c r="Z6" s="5">
-        <v>6.4915980484470079</v>
+        <v>10</v>
       </c>
       <c r="AA6" s="5">
-        <v>9.8008766827123228</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -3362,7 +3803,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection sqref="A1:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3480,6 +3921,437 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E683ACB1-236C-41D9-AD28-376C61929EF9}">
+  <dimension ref="A1:AA5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2:AA2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1">
+        <v>2025</v>
+      </c>
+      <c r="C1">
+        <v>2026</v>
+      </c>
+      <c r="D1">
+        <v>2027</v>
+      </c>
+      <c r="E1">
+        <v>2028</v>
+      </c>
+      <c r="F1">
+        <v>2029</v>
+      </c>
+      <c r="G1">
+        <v>2030</v>
+      </c>
+      <c r="H1">
+        <v>2031</v>
+      </c>
+      <c r="I1">
+        <v>2032</v>
+      </c>
+      <c r="J1">
+        <v>2033</v>
+      </c>
+      <c r="K1">
+        <v>2034</v>
+      </c>
+      <c r="L1">
+        <v>2035</v>
+      </c>
+      <c r="M1">
+        <v>2036</v>
+      </c>
+      <c r="N1">
+        <v>2037</v>
+      </c>
+      <c r="O1">
+        <v>2038</v>
+      </c>
+      <c r="P1">
+        <v>2039</v>
+      </c>
+      <c r="Q1">
+        <v>2040</v>
+      </c>
+      <c r="R1">
+        <v>2041</v>
+      </c>
+      <c r="S1">
+        <v>2042</v>
+      </c>
+      <c r="T1">
+        <v>2043</v>
+      </c>
+      <c r="U1">
+        <v>2044</v>
+      </c>
+      <c r="V1">
+        <v>2045</v>
+      </c>
+      <c r="W1">
+        <v>2046</v>
+      </c>
+      <c r="X1">
+        <v>2047</v>
+      </c>
+      <c r="Y1">
+        <v>2048</v>
+      </c>
+      <c r="Z1">
+        <v>2049</v>
+      </c>
+      <c r="AA1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>500000</v>
+      </c>
+      <c r="C2">
+        <v>200000</v>
+      </c>
+      <c r="D2">
+        <v>200000</v>
+      </c>
+      <c r="E2">
+        <v>200000</v>
+      </c>
+      <c r="F2">
+        <v>200000</v>
+      </c>
+      <c r="G2">
+        <v>200000</v>
+      </c>
+      <c r="H2">
+        <v>200000</v>
+      </c>
+      <c r="I2">
+        <v>200000</v>
+      </c>
+      <c r="J2">
+        <v>200000</v>
+      </c>
+      <c r="K2">
+        <v>200000</v>
+      </c>
+      <c r="L2">
+        <v>100000</v>
+      </c>
+      <c r="M2">
+        <v>100000</v>
+      </c>
+      <c r="N2">
+        <v>100000</v>
+      </c>
+      <c r="O2">
+        <v>100000</v>
+      </c>
+      <c r="P2">
+        <v>100000</v>
+      </c>
+      <c r="Q2">
+        <v>50000</v>
+      </c>
+      <c r="R2">
+        <v>50000</v>
+      </c>
+      <c r="S2">
+        <v>50000</v>
+      </c>
+      <c r="T2">
+        <v>50000</v>
+      </c>
+      <c r="U2">
+        <v>50000</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>500000</v>
+      </c>
+      <c r="C3">
+        <v>500000</v>
+      </c>
+      <c r="D3">
+        <v>500000</v>
+      </c>
+      <c r="E3">
+        <v>500000</v>
+      </c>
+      <c r="F3">
+        <v>500000</v>
+      </c>
+      <c r="G3">
+        <v>500000</v>
+      </c>
+      <c r="H3">
+        <v>500000</v>
+      </c>
+      <c r="I3">
+        <v>500000</v>
+      </c>
+      <c r="J3">
+        <v>500000</v>
+      </c>
+      <c r="K3">
+        <v>200000</v>
+      </c>
+      <c r="L3">
+        <v>200000</v>
+      </c>
+      <c r="M3">
+        <v>200000</v>
+      </c>
+      <c r="N3">
+        <v>200000</v>
+      </c>
+      <c r="O3">
+        <v>200000</v>
+      </c>
+      <c r="P3">
+        <v>200000</v>
+      </c>
+      <c r="Q3">
+        <v>200000</v>
+      </c>
+      <c r="R3">
+        <v>200000</v>
+      </c>
+      <c r="S3">
+        <v>200000</v>
+      </c>
+      <c r="T3">
+        <v>200000</v>
+      </c>
+      <c r="U3">
+        <v>200000</v>
+      </c>
+      <c r="V3">
+        <v>200000</v>
+      </c>
+      <c r="W3">
+        <v>200000</v>
+      </c>
+      <c r="X3">
+        <v>200000</v>
+      </c>
+      <c r="Y3">
+        <v>200000</v>
+      </c>
+      <c r="Z3">
+        <v>200000</v>
+      </c>
+      <c r="AA3">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>100000</v>
+      </c>
+      <c r="C4">
+        <v>100000</v>
+      </c>
+      <c r="D4">
+        <v>100000</v>
+      </c>
+      <c r="E4">
+        <v>100000</v>
+      </c>
+      <c r="F4">
+        <v>100000</v>
+      </c>
+      <c r="G4">
+        <v>100000</v>
+      </c>
+      <c r="H4">
+        <v>100000</v>
+      </c>
+      <c r="I4">
+        <v>100000</v>
+      </c>
+      <c r="J4">
+        <v>100000</v>
+      </c>
+      <c r="K4">
+        <v>100000</v>
+      </c>
+      <c r="L4">
+        <v>100000</v>
+      </c>
+      <c r="M4">
+        <v>100000</v>
+      </c>
+      <c r="N4">
+        <v>100000</v>
+      </c>
+      <c r="O4">
+        <v>100000</v>
+      </c>
+      <c r="P4">
+        <v>100000</v>
+      </c>
+      <c r="Q4">
+        <v>100000</v>
+      </c>
+      <c r="R4">
+        <v>100000</v>
+      </c>
+      <c r="S4">
+        <v>100000</v>
+      </c>
+      <c r="T4">
+        <v>100000</v>
+      </c>
+      <c r="U4">
+        <v>100000</v>
+      </c>
+      <c r="V4">
+        <v>100000</v>
+      </c>
+      <c r="W4">
+        <v>100000</v>
+      </c>
+      <c r="X4">
+        <v>100000</v>
+      </c>
+      <c r="Y4">
+        <v>100000</v>
+      </c>
+      <c r="Z4">
+        <v>100000</v>
+      </c>
+      <c r="AA4">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>100000</v>
+      </c>
+      <c r="C5">
+        <v>100000</v>
+      </c>
+      <c r="D5">
+        <v>100000</v>
+      </c>
+      <c r="E5">
+        <v>100000</v>
+      </c>
+      <c r="F5">
+        <v>100000</v>
+      </c>
+      <c r="G5">
+        <v>100000</v>
+      </c>
+      <c r="H5">
+        <v>100000</v>
+      </c>
+      <c r="I5">
+        <v>100000</v>
+      </c>
+      <c r="J5">
+        <v>100000</v>
+      </c>
+      <c r="K5">
+        <v>100000</v>
+      </c>
+      <c r="L5">
+        <v>100000</v>
+      </c>
+      <c r="M5">
+        <v>100000</v>
+      </c>
+      <c r="N5">
+        <v>100000</v>
+      </c>
+      <c r="O5">
+        <v>100000</v>
+      </c>
+      <c r="P5">
+        <v>100000</v>
+      </c>
+      <c r="Q5">
+        <v>100000</v>
+      </c>
+      <c r="R5">
+        <v>100000</v>
+      </c>
+      <c r="S5">
+        <v>100000</v>
+      </c>
+      <c r="T5">
+        <v>100000</v>
+      </c>
+      <c r="U5">
+        <v>100000</v>
+      </c>
+      <c r="V5">
+        <v>100000</v>
+      </c>
+      <c r="W5">
+        <v>100000</v>
+      </c>
+      <c r="X5">
+        <v>100000</v>
+      </c>
+      <c r="Y5">
+        <v>100000</v>
+      </c>
+      <c r="Z5">
+        <v>100000</v>
+      </c>
+      <c r="AA5">
+        <v>100000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E234AF8D-964B-419F-969D-C9FD34B2C8AE}">
   <dimension ref="A1:AA5"/>
   <sheetViews>
@@ -3936,7 +4808,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39EC2A4D-93DC-4E45-8627-2A75EDF5181B}">
   <dimension ref="A1:AA5"/>
   <sheetViews>
@@ -4471,7 +5343,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A18CEE6-4CB2-4E28-86E1-E84E657A73A8}">
   <dimension ref="A1:AA5"/>
   <sheetViews>
@@ -5006,11 +5878,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED5339A0-3D98-43CE-86F7-53EF60721306}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -5082,12 +5954,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F464A74C-C8AE-4B5D-B335-B05DB5565181}">
   <dimension ref="A1:AA5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection sqref="A1:AA5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -5513,15 +6385,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E46CCB1-2754-42FA-B5C9-8DABA83A320C}">
-  <dimension ref="A1:AA3"/>
+  <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="Z6" sqref="Z6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="18" max="18" width="9.3984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
@@ -5608,446 +6483,85 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9059A3E3-467F-433B-AAF0-DA415330A29D}">
-  <dimension ref="A1:AA5"/>
-  <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection sqref="A1:AA1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="2" max="27" width="9.796875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1">
-        <v>2025</v>
-      </c>
-      <c r="C1">
-        <v>2026</v>
-      </c>
-      <c r="D1">
-        <v>2027</v>
-      </c>
-      <c r="E1">
-        <v>2028</v>
-      </c>
-      <c r="F1">
-        <v>2029</v>
-      </c>
-      <c r="G1">
-        <v>2030</v>
-      </c>
-      <c r="H1">
-        <v>2031</v>
-      </c>
-      <c r="I1">
-        <v>2032</v>
-      </c>
-      <c r="J1">
-        <v>2033</v>
-      </c>
-      <c r="K1">
-        <v>2034</v>
-      </c>
-      <c r="L1">
-        <v>2035</v>
-      </c>
-      <c r="M1">
-        <v>2036</v>
-      </c>
-      <c r="N1">
-        <v>2037</v>
-      </c>
-      <c r="O1">
-        <v>2038</v>
-      </c>
-      <c r="P1">
-        <v>2039</v>
-      </c>
-      <c r="Q1">
-        <v>2040</v>
-      </c>
-      <c r="R1">
-        <v>2041</v>
-      </c>
-      <c r="S1">
-        <v>2042</v>
-      </c>
-      <c r="T1">
-        <v>2043</v>
-      </c>
-      <c r="U1">
-        <v>2044</v>
-      </c>
-      <c r="V1">
-        <v>2045</v>
-      </c>
-      <c r="W1">
-        <v>2046</v>
-      </c>
-      <c r="X1">
-        <v>2047</v>
-      </c>
-      <c r="Y1">
-        <v>2048</v>
-      </c>
-      <c r="Z1">
-        <v>2049</v>
-      </c>
-      <c r="AA1">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5">
-        <v>1.138931802510158</v>
-      </c>
-      <c r="C2" s="5">
-        <v>7.574766115689437</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0.67628647507918527</v>
-      </c>
-      <c r="E2" s="5">
-        <v>3.2136905007923797</v>
-      </c>
-      <c r="F2" s="5">
-        <v>5.6365173572880378</v>
-      </c>
-      <c r="G2" s="5">
-        <v>8.23729264578464</v>
-      </c>
-      <c r="H2" s="5">
-        <v>3.9808290290957169</v>
-      </c>
-      <c r="I2" s="5">
-        <v>4.2084362783232425</v>
-      </c>
-      <c r="J2" s="5">
-        <v>2.6547768072885605</v>
-      </c>
-      <c r="K2" s="5">
-        <v>8.6895749145679559</v>
-      </c>
-      <c r="L2" s="5">
-        <v>4.4525335538469051</v>
-      </c>
-      <c r="M2" s="5">
-        <v>3.4468203268875373</v>
-      </c>
-      <c r="N2" s="5">
-        <v>2.4572713271210231</v>
-      </c>
-      <c r="O2" s="5">
-        <v>8.927728792550143</v>
-      </c>
-      <c r="P2" s="5">
-        <v>5.982551937391019</v>
-      </c>
-      <c r="Q2" s="5">
-        <v>7.3819001349795244E-2</v>
-      </c>
-      <c r="R2" s="5">
-        <v>1.9919161958087483</v>
-      </c>
-      <c r="S2" s="5">
-        <v>2.4831770957740105</v>
-      </c>
-      <c r="T2" s="5">
-        <v>9.4001854872220374</v>
-      </c>
-      <c r="U2" s="5">
-        <v>4.3998924386883029</v>
-      </c>
-      <c r="V2" s="5">
-        <v>0.43428856551232409</v>
-      </c>
-      <c r="W2" s="5">
-        <v>7.9407731237710166</v>
-      </c>
-      <c r="X2" s="5">
-        <v>4.1007272303399853</v>
-      </c>
-      <c r="Y2" s="5">
-        <v>5.8292407312736536</v>
-      </c>
-      <c r="Z2" s="5">
-        <v>0.26933124855980206</v>
-      </c>
-      <c r="AA2" s="5">
-        <v>6.9076528786362008</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="5">
-        <v>1.2044835146641231</v>
-      </c>
-      <c r="C3" s="5">
-        <v>7.987902585292554</v>
-      </c>
-      <c r="D3" s="5">
-        <v>7.9590068482088627</v>
-      </c>
-      <c r="E3" s="5">
-        <v>0.1606066383802518</v>
-      </c>
-      <c r="F3" s="5">
-        <v>4.585605094215504</v>
-      </c>
-      <c r="G3" s="5">
-        <v>9.6626632527953404</v>
-      </c>
-      <c r="H3" s="5">
-        <v>5.7739880052029147</v>
-      </c>
-      <c r="I3" s="5">
-        <v>9.2566527937944265</v>
-      </c>
-      <c r="J3" s="5">
-        <v>9.4800396741663029</v>
-      </c>
-      <c r="K3" s="5">
-        <v>3.6065083788586447</v>
-      </c>
-      <c r="L3" s="5">
-        <v>8.5438796497736664</v>
-      </c>
-      <c r="M3" s="5">
-        <v>0.59728548866735287</v>
-      </c>
-      <c r="N3" s="5">
-        <v>3.8461224682055359</v>
-      </c>
-      <c r="O3" s="5">
-        <v>6.6481529824524479</v>
-      </c>
-      <c r="P3" s="5">
-        <v>7.3392403143414278</v>
-      </c>
-      <c r="Q3" s="5">
-        <v>3.1816087694142494</v>
-      </c>
-      <c r="R3" s="5">
-        <v>2.7863956935330956</v>
-      </c>
-      <c r="S3" s="5">
-        <v>9.3348757795029993</v>
-      </c>
-      <c r="T3" s="5">
-        <v>2.1397729972070723</v>
-      </c>
-      <c r="U3" s="5">
-        <v>6.9678153416583575</v>
-      </c>
-      <c r="V3" s="5">
-        <v>7.7674217492321507</v>
-      </c>
-      <c r="W3" s="5">
-        <v>4.7216654236148514</v>
-      </c>
-      <c r="X3" s="5">
-        <v>4.238810750971469</v>
-      </c>
-      <c r="Y3" s="5">
-        <v>7.3608683858912185</v>
-      </c>
-      <c r="Z3" s="5">
-        <v>7.5148932206900243</v>
-      </c>
-      <c r="AA3" s="5">
-        <v>9.6339470176296054</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="5">
-        <v>1.6561115100472845</v>
-      </c>
-      <c r="C4" s="5">
-        <v>6.8203698630888576</v>
-      </c>
-      <c r="D4" s="5">
-        <v>1.4137603139272703</v>
-      </c>
-      <c r="E4" s="5">
-        <v>4.3586868316947838</v>
-      </c>
-      <c r="F4" s="5">
-        <v>9.5169563479933696</v>
-      </c>
-      <c r="G4" s="5">
-        <v>6.6592244131241145</v>
-      </c>
-      <c r="H4" s="5">
-        <v>3.2346583782178726</v>
-      </c>
-      <c r="I4" s="5">
-        <v>8.4298844355731966</v>
-      </c>
-      <c r="J4" s="5">
-        <v>2.0837137856376531E-2</v>
-      </c>
-      <c r="K4" s="5">
-        <v>7.801618608794608</v>
-      </c>
-      <c r="L4" s="5">
-        <v>1.1747432563255356</v>
-      </c>
-      <c r="M4" s="5">
-        <v>9.2189855539967063</v>
-      </c>
-      <c r="N4" s="5">
-        <v>5.6389770014244593</v>
-      </c>
-      <c r="O4" s="5">
-        <v>9.3557448426025598</v>
-      </c>
-      <c r="P4" s="5">
-        <v>2.5307863577058676</v>
-      </c>
-      <c r="Q4" s="5">
-        <v>1.8798425218320436</v>
-      </c>
-      <c r="R4" s="5">
-        <v>4.9777650025283062</v>
-      </c>
-      <c r="S4" s="5">
-        <v>2.470635282434567</v>
-      </c>
-      <c r="T4" s="5">
-        <v>8.3448632095880253</v>
-      </c>
-      <c r="U4" s="5">
-        <v>2.8797087757874475</v>
-      </c>
-      <c r="V4" s="5">
-        <v>4.8495072111122131</v>
-      </c>
-      <c r="W4" s="5">
-        <v>0.6494650243068445</v>
-      </c>
-      <c r="X4" s="5">
-        <v>4.0400013877281555</v>
-      </c>
-      <c r="Y4" s="5">
-        <v>8.7109696253244202</v>
-      </c>
-      <c r="Z4" s="5">
-        <v>2.5086878384546196</v>
-      </c>
-      <c r="AA4" s="5">
-        <v>1.6351143304444082</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5">
-        <v>9.0280272949077336</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0.79148016981419489</v>
-      </c>
-      <c r="D5" s="5">
-        <v>9.3450116579607538</v>
-      </c>
-      <c r="E5" s="5">
-        <v>8.7779321350987356</v>
-      </c>
-      <c r="F5" s="5">
-        <v>9.9122391981291731</v>
-      </c>
-      <c r="G5" s="5">
-        <v>1.6940251254577043</v>
-      </c>
-      <c r="H5" s="5">
-        <v>5.3580360106324925</v>
-      </c>
-      <c r="I5" s="5">
-        <v>2.9089999765545471</v>
-      </c>
-      <c r="J5" s="5">
-        <v>6.3392393508409226</v>
-      </c>
-      <c r="K5" s="5">
-        <v>1.3233246022872935</v>
-      </c>
-      <c r="L5" s="5">
-        <v>1.120067870198912</v>
-      </c>
-      <c r="M5" s="5">
-        <v>7.6992979145058449</v>
-      </c>
-      <c r="N5" s="5">
-        <v>2.5057427861077572</v>
-      </c>
-      <c r="O5" s="5">
-        <v>7.3750450434362538</v>
-      </c>
-      <c r="P5" s="5">
-        <v>9.4007626187483222</v>
-      </c>
-      <c r="Q5" s="5">
-        <v>9.101036356582326E-2</v>
-      </c>
-      <c r="R5" s="5">
-        <v>0.57288500630638395</v>
-      </c>
-      <c r="S5" s="5">
-        <v>7.4626065943311914</v>
-      </c>
-      <c r="T5" s="5">
-        <v>3.1809862851226445</v>
-      </c>
-      <c r="U5" s="5">
-        <v>9.2020936906236397</v>
-      </c>
-      <c r="V5" s="5">
-        <v>7.2239084732453938</v>
-      </c>
-      <c r="W5" s="5">
-        <v>4.8200977144393988</v>
-      </c>
-      <c r="X5" s="5">
-        <v>0.51573154632642448</v>
-      </c>
-      <c r="Y5" s="5">
-        <v>2.0417983331255551</v>
-      </c>
-      <c r="Z5" s="5">
-        <v>4.1086422921963939</v>
-      </c>
-      <c r="AA5" s="5">
-        <v>4.5570832737185842</v>
+        <v>51</v>
+      </c>
+      <c r="B2">
+        <v>500000</v>
+      </c>
+      <c r="C2">
+        <v>500000</v>
+      </c>
+      <c r="D2">
+        <v>500000</v>
+      </c>
+      <c r="E2">
+        <v>500000</v>
+      </c>
+      <c r="F2">
+        <v>500000</v>
+      </c>
+      <c r="G2">
+        <v>500000</v>
+      </c>
+      <c r="H2">
+        <v>500000</v>
+      </c>
+      <c r="I2">
+        <v>500000</v>
+      </c>
+      <c r="J2">
+        <v>500000</v>
+      </c>
+      <c r="K2">
+        <v>500000</v>
+      </c>
+      <c r="L2">
+        <v>500000</v>
+      </c>
+      <c r="M2">
+        <v>500000</v>
+      </c>
+      <c r="N2">
+        <v>500000</v>
+      </c>
+      <c r="O2">
+        <v>500000</v>
+      </c>
+      <c r="P2">
+        <v>500000</v>
+      </c>
+      <c r="Q2">
+        <v>500000</v>
+      </c>
+      <c r="R2">
+        <v>500000</v>
+      </c>
+      <c r="S2">
+        <v>500000</v>
+      </c>
+      <c r="T2">
+        <v>500000</v>
+      </c>
+      <c r="U2">
+        <v>500000</v>
+      </c>
+      <c r="V2">
+        <v>500000</v>
+      </c>
+      <c r="W2">
+        <v>500000</v>
+      </c>
+      <c r="X2">
+        <v>500000</v>
+      </c>
+      <c r="Y2">
+        <v>500000</v>
+      </c>
+      <c r="Z2">
+        <v>500000</v>
+      </c>
+      <c r="AA2">
+        <v>500000</v>
       </c>
     </row>
   </sheetData>

--- a/database/steel_data.xlsx
+++ b/database/steel_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\PLANiT\github\macc_steel\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED14111-91C8-40B0-AEBD-460223846C26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E85EB7-1979-443C-A424-7761F573DB52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="192" yWindow="348" windowWidth="37152" windowHeight="14724" tabRatio="620" activeTab="2" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
+    <workbookView xWindow="204" yWindow="348" windowWidth="28620" windowHeight="12264" tabRatio="620" activeTab="8" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="18" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="54">
   <si>
     <t>BF-BOF</t>
   </si>
@@ -238,10 +238,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Bio</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>BF-BOF-CCUS</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -251,6 +247,14 @@
   </si>
   <si>
     <t>tonCO2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>max</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>global</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -665,7 +669,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -760,10 +764,10 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
         <v>51</v>
-      </c>
-      <c r="B12" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2071,10 +2075,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8A5865B-B011-402F-A09D-739FDD6B0E90}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2082,84 +2086,114 @@
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>46</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C6">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="C8">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="C10">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -2170,84 +2204,111 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83A8B42D-00EB-470C-A0D2-7C21A6CB877B}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A9"/>
+      <selection sqref="A1:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>46</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C6">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>4</v>
+      </c>
+      <c r="C9">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -3803,7 +3864,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3882,7 +3943,7 @@
         <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -3924,11 +3985,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E683ACB1-236C-41D9-AD28-376C61929EF9}">
   <dimension ref="A1:AA5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2:AA2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:AA3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="9.3984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
@@ -4018,37 +4082,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>500000</v>
+        <v>10000000</v>
       </c>
       <c r="C2">
-        <v>200000</v>
+        <v>600000</v>
       </c>
       <c r="D2">
-        <v>200000</v>
+        <v>600000</v>
       </c>
       <c r="E2">
-        <v>200000</v>
+        <v>600000</v>
       </c>
       <c r="F2">
-        <v>200000</v>
+        <v>600000</v>
       </c>
       <c r="G2">
-        <v>200000</v>
+        <v>600000</v>
       </c>
       <c r="H2">
-        <v>200000</v>
+        <v>600000</v>
       </c>
       <c r="I2">
-        <v>200000</v>
+        <v>600000</v>
       </c>
       <c r="J2">
-        <v>200000</v>
+        <v>600000</v>
       </c>
       <c r="K2">
-        <v>200000</v>
+        <v>600000</v>
       </c>
       <c r="L2">
-        <v>100000</v>
+        <v>600000</v>
       </c>
       <c r="M2">
         <v>100000</v>
@@ -4063,37 +4127,37 @@
         <v>100000</v>
       </c>
       <c r="Q2">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="R2">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="S2">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="T2">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="U2">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
@@ -4101,82 +4165,82 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>500000</v>
+        <v>10000000</v>
       </c>
       <c r="C3">
-        <v>500000</v>
+        <v>600000</v>
       </c>
       <c r="D3">
-        <v>500000</v>
+        <v>600000</v>
       </c>
       <c r="E3">
-        <v>500000</v>
+        <v>600000</v>
       </c>
       <c r="F3">
-        <v>500000</v>
+        <v>600000</v>
       </c>
       <c r="G3">
-        <v>500000</v>
+        <v>600000</v>
       </c>
       <c r="H3">
-        <v>500000</v>
+        <v>600000</v>
       </c>
       <c r="I3">
-        <v>500000</v>
+        <v>600000</v>
       </c>
       <c r="J3">
-        <v>500000</v>
+        <v>600000</v>
       </c>
       <c r="K3">
-        <v>200000</v>
+        <v>600000</v>
       </c>
       <c r="L3">
-        <v>200000</v>
+        <v>600000</v>
       </c>
       <c r="M3">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="N3">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="O3">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="P3">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="Q3">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="R3">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="S3">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="T3">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="U3">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="V3">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="W3">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="X3">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="Y3">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="Z3">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="AA3">
-        <v>200000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.4">
@@ -4184,82 +4248,82 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="C4">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="D4">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="E4">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="F4">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="G4">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="H4">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="I4">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="J4">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="K4">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="L4">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="M4">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="N4">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="O4">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="P4">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="Q4">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="R4">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="S4">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="T4">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="U4">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="V4">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="W4">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>100000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.4">
@@ -4267,82 +4331,82 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="C5">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="D5">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="E5">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="F5">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="G5">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="H5">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="I5">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="J5">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="K5">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="L5">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="M5">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="N5">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="O5">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="P5">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="Q5">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="R5">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="S5">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="T5">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="U5">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="V5">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="W5">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>100000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4695,7 +4759,7 @@
     </row>
     <row r="5" spans="1:27" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5">
         <f>B2*1.5</f>
@@ -5230,7 +5294,7 @@
     </row>
     <row r="5" spans="1:27" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" s="3">
         <f>capex!B5*0.05</f>
@@ -5765,7 +5829,7 @@
     </row>
     <row r="5" spans="1:27" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" s="3">
         <f>capex!B5*0.25</f>
@@ -5939,7 +6003,7 @@
     </row>
     <row r="5" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5">
         <v>15</v>
@@ -6298,7 +6362,7 @@
     </row>
     <row r="5" spans="1:27" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5">
         <v>0.6</v>
@@ -6389,18 +6453,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E46CCB1-2754-42FA-B5C9-8DABA83A320C}">
   <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Z6" sqref="Z6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
+    <col min="2" max="2" width="9.3984375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1">
         <v>2025</v>
@@ -6483,85 +6548,85 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B2">
-        <v>500000</v>
+        <v>10000000</v>
       </c>
       <c r="C2">
-        <v>500000</v>
+        <v>10000000</v>
       </c>
       <c r="D2">
-        <v>500000</v>
+        <v>10000000</v>
       </c>
       <c r="E2">
-        <v>500000</v>
+        <v>10000000</v>
       </c>
       <c r="F2">
-        <v>500000</v>
+        <v>10000000</v>
       </c>
       <c r="G2">
-        <v>500000</v>
+        <v>10000000</v>
       </c>
       <c r="H2">
-        <v>500000</v>
+        <v>10000000</v>
       </c>
       <c r="I2">
-        <v>500000</v>
+        <v>10000000</v>
       </c>
       <c r="J2">
-        <v>500000</v>
+        <v>10000000</v>
       </c>
       <c r="K2">
-        <v>500000</v>
+        <v>10000000</v>
       </c>
       <c r="L2">
-        <v>500000</v>
+        <v>10000000</v>
       </c>
       <c r="M2">
-        <v>500000</v>
+        <v>10000000</v>
       </c>
       <c r="N2">
-        <v>500000</v>
+        <v>10000000</v>
       </c>
       <c r="O2">
-        <v>500000</v>
+        <v>10000000</v>
       </c>
       <c r="P2">
-        <v>500000</v>
+        <v>10000000</v>
       </c>
       <c r="Q2">
-        <v>500000</v>
+        <v>10000000</v>
       </c>
       <c r="R2">
-        <v>500000</v>
+        <v>10000000</v>
       </c>
       <c r="S2">
-        <v>500000</v>
+        <v>10000000</v>
       </c>
       <c r="T2">
-        <v>500000</v>
+        <v>10000000</v>
       </c>
       <c r="U2">
-        <v>500000</v>
+        <v>10000000</v>
       </c>
       <c r="V2">
-        <v>500000</v>
+        <v>10000000</v>
       </c>
       <c r="W2">
-        <v>500000</v>
+        <v>10000000</v>
       </c>
       <c r="X2">
-        <v>500000</v>
+        <v>10000000</v>
       </c>
       <c r="Y2">
-        <v>500000</v>
+        <v>10000000</v>
       </c>
       <c r="Z2">
-        <v>500000</v>
+        <v>10000000</v>
       </c>
       <c r="AA2">
-        <v>500000</v>
+        <v>10000000</v>
       </c>
     </row>
   </sheetData>

--- a/database/steel_data.xlsx
+++ b/database/steel_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\PLANiT\github\macc_steel\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E85EB7-1979-443C-A424-7761F573DB52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B795D3-8AE7-4286-A27D-1257966DA157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="204" yWindow="348" windowWidth="28620" windowHeight="12264" tabRatio="620" activeTab="8" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
   </bookViews>
@@ -6454,7 +6454,7 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:AA2"/>
+      <selection activeCell="V2" sqref="V2:AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -6611,22 +6611,22 @@
         <v>10000000</v>
       </c>
       <c r="V2">
-        <v>10000000</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>10000000</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>10000000</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>10000000</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>10000000</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>10000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/database/steel_data.xlsx
+++ b/database/steel_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\PLANiT\github\macc_steel\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B795D3-8AE7-4286-A27D-1257966DA157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365BA471-2FC7-4789-8419-BDA75AEC4FEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="204" yWindow="348" windowWidth="28620" windowHeight="12264" tabRatio="620" activeTab="8" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
+    <workbookView xWindow="204" yWindow="348" windowWidth="28620" windowHeight="12264" tabRatio="620" activeTab="6" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="18" r:id="rId1"/>
@@ -5946,7 +5946,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED5339A0-3D98-43CE-86F7-53EF60721306}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -5987,7 +5987,7 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>2035</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
@@ -6453,7 +6453,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E46CCB1-2754-42FA-B5C9-8DABA83A320C}">
   <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="V2" sqref="V2:AA2"/>
     </sheetView>
   </sheetViews>

--- a/database/steel_data.xlsx
+++ b/database/steel_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\PLANiT\github\macc_steel\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365BA471-2FC7-4789-8419-BDA75AEC4FEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC535C40-6C13-4C5E-8B4C-771971B3DB7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="204" yWindow="348" windowWidth="28620" windowHeight="12264" tabRatio="620" activeTab="6" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
+    <workbookView xWindow="204" yWindow="348" windowWidth="28620" windowHeight="12264" tabRatio="620" activeTab="2" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="18" r:id="rId1"/>
@@ -3985,8 +3985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E683ACB1-236C-41D9-AD28-376C61929EF9}">
   <dimension ref="A1:AA5"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:AA3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2:AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4082,82 +4082,82 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>10000000</v>
+        <v>1500000</v>
       </c>
       <c r="C2">
-        <v>600000</v>
+        <v>1500000</v>
       </c>
       <c r="D2">
-        <v>600000</v>
+        <v>1500000</v>
       </c>
       <c r="E2">
-        <v>600000</v>
+        <v>1500000</v>
       </c>
       <c r="F2">
-        <v>600000</v>
+        <v>1500000</v>
       </c>
       <c r="G2">
-        <v>600000</v>
+        <v>1500000</v>
       </c>
       <c r="H2">
-        <v>600000</v>
+        <v>1500000</v>
       </c>
       <c r="I2">
-        <v>600000</v>
+        <v>1500000</v>
       </c>
       <c r="J2">
-        <v>600000</v>
+        <v>1500000</v>
       </c>
       <c r="K2">
-        <v>600000</v>
+        <v>1500000</v>
       </c>
       <c r="L2">
-        <v>600000</v>
+        <v>1000000</v>
       </c>
       <c r="M2">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
       <c r="N2">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
       <c r="O2">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
       <c r="P2">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
       <c r="Q2">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
       <c r="R2">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
       <c r="S2">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
       <c r="T2">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
       <c r="U2">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
       <c r="V2">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>100000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
@@ -4165,82 +4165,82 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>10000000</v>
+        <v>1000000</v>
       </c>
       <c r="C3">
-        <v>600000</v>
+        <v>1000000</v>
       </c>
       <c r="D3">
-        <v>600000</v>
+        <v>1000000</v>
       </c>
       <c r="E3">
-        <v>600000</v>
+        <v>1000000</v>
       </c>
       <c r="F3">
-        <v>600000</v>
+        <v>1000000</v>
       </c>
       <c r="G3">
-        <v>600000</v>
+        <v>1000000</v>
       </c>
       <c r="H3">
-        <v>600000</v>
+        <v>1000000</v>
       </c>
       <c r="I3">
-        <v>600000</v>
+        <v>1000000</v>
       </c>
       <c r="J3">
-        <v>600000</v>
+        <v>1000000</v>
       </c>
       <c r="K3">
-        <v>600000</v>
+        <v>1000000</v>
       </c>
       <c r="L3">
-        <v>600000</v>
+        <v>1000000</v>
       </c>
       <c r="M3">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
       <c r="N3">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
       <c r="O3">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
       <c r="P3">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
       <c r="Q3">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
       <c r="R3">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
       <c r="S3">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
       <c r="T3">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
       <c r="U3">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
       <c r="V3">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>100000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.4">
@@ -4308,7 +4308,7 @@
         <v>50000</v>
       </c>
       <c r="V4">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="W4">
         <v>0</v>
@@ -4391,7 +4391,7 @@
         <v>50000</v>
       </c>
       <c r="V5">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="W5">
         <v>0</v>
@@ -5946,8 +5946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED5339A0-3D98-43CE-86F7-53EF60721306}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -6454,7 +6454,7 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2:AA2"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -6611,22 +6611,22 @@
         <v>10000000</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>10000000</v>
       </c>
     </row>
   </sheetData>

--- a/database/steel_data.xlsx
+++ b/database/steel_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\PLANiT\github\macc_steel\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC535C40-6C13-4C5E-8B4C-771971B3DB7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07AE055-EB32-4A37-AB8E-21D4E2AA2CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="204" yWindow="348" windowWidth="28620" windowHeight="12264" tabRatio="620" activeTab="2" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
+    <workbookView xWindow="1644" yWindow="804" windowWidth="43116" windowHeight="20856" tabRatio="620" activeTab="2" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="18" r:id="rId1"/>
@@ -669,10 +669,14 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="16.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.796875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
@@ -778,10 +782,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9059A3E3-467F-433B-AAF0-DA415330A29D}">
-  <dimension ref="A1:AA5"/>
+  <dimension ref="A1:AA6"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection sqref="A1:AA1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -877,82 +881,82 @@
         <v>1</v>
       </c>
       <c r="B2" s="5">
-        <v>1.138931802510158</v>
+        <v>1</v>
       </c>
       <c r="C2" s="5">
-        <v>7.574766115689437</v>
+        <v>1</v>
       </c>
       <c r="D2" s="5">
-        <v>0.67628647507918527</v>
+        <v>1</v>
       </c>
       <c r="E2" s="5">
-        <v>3.2136905007923797</v>
+        <v>1</v>
       </c>
       <c r="F2" s="5">
-        <v>5.6365173572880378</v>
+        <v>1</v>
       </c>
       <c r="G2" s="5">
-        <v>8.23729264578464</v>
+        <v>1</v>
       </c>
       <c r="H2" s="5">
-        <v>3.9808290290957169</v>
+        <v>1</v>
       </c>
       <c r="I2" s="5">
-        <v>4.2084362783232425</v>
+        <v>1</v>
       </c>
       <c r="J2" s="5">
-        <v>2.6547768072885605</v>
+        <v>1</v>
       </c>
       <c r="K2" s="5">
-        <v>8.6895749145679559</v>
+        <v>1</v>
       </c>
       <c r="L2" s="5">
-        <v>4.4525335538469051</v>
+        <v>1</v>
       </c>
       <c r="M2" s="5">
-        <v>3.4468203268875373</v>
+        <v>1</v>
       </c>
       <c r="N2" s="5">
-        <v>2.4572713271210231</v>
+        <v>1</v>
       </c>
       <c r="O2" s="5">
-        <v>8.927728792550143</v>
+        <v>1</v>
       </c>
       <c r="P2" s="5">
-        <v>5.982551937391019</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="5">
-        <v>7.3819001349795244E-2</v>
+        <v>1</v>
       </c>
       <c r="R2" s="5">
-        <v>1.9919161958087483</v>
+        <v>1</v>
       </c>
       <c r="S2" s="5">
-        <v>2.4831770957740105</v>
+        <v>1</v>
       </c>
       <c r="T2" s="5">
-        <v>9.4001854872220374</v>
+        <v>1</v>
       </c>
       <c r="U2" s="5">
-        <v>4.3998924386883029</v>
+        <v>1</v>
       </c>
       <c r="V2" s="5">
-        <v>0.43428856551232409</v>
+        <v>1</v>
       </c>
       <c r="W2" s="5">
-        <v>7.9407731237710166</v>
+        <v>1</v>
       </c>
       <c r="X2" s="5">
-        <v>4.1007272303399853</v>
+        <v>1</v>
       </c>
       <c r="Y2" s="5">
-        <v>5.8292407312736536</v>
+        <v>1</v>
       </c>
       <c r="Z2" s="5">
-        <v>0.26933124855980206</v>
+        <v>1</v>
       </c>
       <c r="AA2" s="5">
-        <v>6.9076528786362008</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
@@ -960,82 +964,82 @@
         <v>10</v>
       </c>
       <c r="B3" s="5">
-        <v>1.2044835146641231</v>
+        <v>8</v>
       </c>
       <c r="C3" s="5">
-        <v>7.987902585292554</v>
+        <v>8</v>
       </c>
       <c r="D3" s="5">
-        <v>7.9590068482088627</v>
+        <v>8</v>
       </c>
       <c r="E3" s="5">
-        <v>0.1606066383802518</v>
+        <v>8</v>
       </c>
       <c r="F3" s="5">
-        <v>4.585605094215504</v>
+        <v>8</v>
       </c>
       <c r="G3" s="5">
-        <v>9.6626632527953404</v>
+        <v>8</v>
       </c>
       <c r="H3" s="5">
-        <v>5.7739880052029147</v>
+        <v>8</v>
       </c>
       <c r="I3" s="5">
-        <v>9.2566527937944265</v>
+        <v>8</v>
       </c>
       <c r="J3" s="5">
-        <v>9.4800396741663029</v>
+        <v>8</v>
       </c>
       <c r="K3" s="5">
-        <v>3.6065083788586447</v>
+        <v>8</v>
       </c>
       <c r="L3" s="5">
-        <v>8.5438796497736664</v>
+        <v>8</v>
       </c>
       <c r="M3" s="5">
-        <v>0.59728548866735287</v>
+        <v>8</v>
       </c>
       <c r="N3" s="5">
-        <v>3.8461224682055359</v>
+        <v>8</v>
       </c>
       <c r="O3" s="5">
-        <v>6.6481529824524479</v>
+        <v>8</v>
       </c>
       <c r="P3" s="5">
-        <v>7.3392403143414278</v>
+        <v>8</v>
       </c>
       <c r="Q3" s="5">
-        <v>3.1816087694142494</v>
+        <v>8</v>
       </c>
       <c r="R3" s="5">
-        <v>2.7863956935330956</v>
+        <v>8</v>
       </c>
       <c r="S3" s="5">
-        <v>9.3348757795029993</v>
+        <v>8</v>
       </c>
       <c r="T3" s="5">
-        <v>2.1397729972070723</v>
+        <v>8</v>
       </c>
       <c r="U3" s="5">
-        <v>6.9678153416583575</v>
+        <v>8</v>
       </c>
       <c r="V3" s="5">
-        <v>7.7674217492321507</v>
+        <v>8</v>
       </c>
       <c r="W3" s="5">
-        <v>4.7216654236148514</v>
+        <v>8</v>
       </c>
       <c r="X3" s="5">
-        <v>4.238810750971469</v>
+        <v>8</v>
       </c>
       <c r="Y3" s="5">
-        <v>7.3608683858912185</v>
+        <v>8</v>
       </c>
       <c r="Z3" s="5">
-        <v>7.5148932206900243</v>
+        <v>8</v>
       </c>
       <c r="AA3" s="5">
-        <v>9.6339470176296054</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.4">
@@ -1043,82 +1047,82 @@
         <v>11</v>
       </c>
       <c r="B4" s="5">
-        <v>1.6561115100472845</v>
+        <v>10</v>
       </c>
       <c r="C4" s="5">
-        <v>6.8203698630888576</v>
+        <v>10</v>
       </c>
       <c r="D4" s="5">
-        <v>1.4137603139272703</v>
+        <v>10</v>
       </c>
       <c r="E4" s="5">
-        <v>4.3586868316947838</v>
+        <v>10</v>
       </c>
       <c r="F4" s="5">
-        <v>9.5169563479933696</v>
+        <v>10</v>
       </c>
       <c r="G4" s="5">
-        <v>6.6592244131241145</v>
+        <v>10</v>
       </c>
       <c r="H4" s="5">
-        <v>3.2346583782178726</v>
+        <v>10</v>
       </c>
       <c r="I4" s="5">
-        <v>8.4298844355731966</v>
+        <v>10</v>
       </c>
       <c r="J4" s="5">
-        <v>2.0837137856376531E-2</v>
+        <v>10</v>
       </c>
       <c r="K4" s="5">
-        <v>7.801618608794608</v>
+        <v>10</v>
       </c>
       <c r="L4" s="5">
-        <v>1.1747432563255356</v>
+        <v>10</v>
       </c>
       <c r="M4" s="5">
-        <v>9.2189855539967063</v>
+        <v>10</v>
       </c>
       <c r="N4" s="5">
-        <v>5.6389770014244593</v>
+        <v>10</v>
       </c>
       <c r="O4" s="5">
-        <v>9.3557448426025598</v>
+        <v>10</v>
       </c>
       <c r="P4" s="5">
-        <v>2.5307863577058676</v>
+        <v>10</v>
       </c>
       <c r="Q4" s="5">
-        <v>1.8798425218320436</v>
+        <v>10</v>
       </c>
       <c r="R4" s="5">
-        <v>4.9777650025283062</v>
+        <v>10</v>
       </c>
       <c r="S4" s="5">
-        <v>2.470635282434567</v>
+        <v>10</v>
       </c>
       <c r="T4" s="5">
-        <v>8.3448632095880253</v>
+        <v>10</v>
       </c>
       <c r="U4" s="5">
-        <v>2.8797087757874475</v>
+        <v>10</v>
       </c>
       <c r="V4" s="5">
-        <v>4.8495072111122131</v>
+        <v>10</v>
       </c>
       <c r="W4" s="5">
-        <v>0.6494650243068445</v>
+        <v>10</v>
       </c>
       <c r="X4" s="5">
-        <v>4.0400013877281555</v>
+        <v>10</v>
       </c>
       <c r="Y4" s="5">
-        <v>8.7109696253244202</v>
+        <v>10</v>
       </c>
       <c r="Z4" s="5">
-        <v>2.5086878384546196</v>
+        <v>10</v>
       </c>
       <c r="AA4" s="5">
-        <v>1.6351143304444082</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.4">
@@ -1126,83 +1130,112 @@
         <v>4</v>
       </c>
       <c r="B5" s="5">
-        <v>9.0280272949077336</v>
+        <v>5</v>
       </c>
       <c r="C5" s="5">
-        <v>0.79148016981419489</v>
+        <v>5</v>
       </c>
       <c r="D5" s="5">
-        <v>9.3450116579607538</v>
+        <v>5</v>
       </c>
       <c r="E5" s="5">
-        <v>8.7779321350987356</v>
+        <v>5</v>
       </c>
       <c r="F5" s="5">
-        <v>9.9122391981291731</v>
+        <v>5</v>
       </c>
       <c r="G5" s="5">
-        <v>1.6940251254577043</v>
+        <v>0.5</v>
       </c>
       <c r="H5" s="5">
-        <v>5.3580360106324925</v>
+        <v>0.5</v>
       </c>
       <c r="I5" s="5">
-        <v>2.9089999765545471</v>
+        <v>0.5</v>
       </c>
       <c r="J5" s="5">
-        <v>6.3392393508409226</v>
+        <v>0.5</v>
       </c>
       <c r="K5" s="5">
-        <v>1.3233246022872935</v>
+        <v>0.5</v>
       </c>
       <c r="L5" s="5">
-        <v>1.120067870198912</v>
+        <v>0.5</v>
       </c>
       <c r="M5" s="5">
-        <v>7.6992979145058449</v>
+        <v>0.5</v>
       </c>
       <c r="N5" s="5">
-        <v>2.5057427861077572</v>
+        <v>0.5</v>
       </c>
       <c r="O5" s="5">
-        <v>7.3750450434362538</v>
+        <v>0.5</v>
       </c>
       <c r="P5" s="5">
-        <v>9.4007626187483222</v>
+        <v>0.5</v>
       </c>
       <c r="Q5" s="5">
-        <v>9.101036356582326E-2</v>
+        <v>0.5</v>
       </c>
       <c r="R5" s="5">
-        <v>0.57288500630638395</v>
+        <v>0.5</v>
       </c>
       <c r="S5" s="5">
-        <v>7.4626065943311914</v>
+        <v>0.5</v>
       </c>
       <c r="T5" s="5">
-        <v>3.1809862851226445</v>
+        <v>0.5</v>
       </c>
       <c r="U5" s="5">
-        <v>9.2020936906236397</v>
+        <v>0.5</v>
       </c>
       <c r="V5" s="5">
-        <v>7.2239084732453938</v>
+        <v>0.5</v>
       </c>
       <c r="W5" s="5">
-        <v>4.8200977144393988</v>
+        <v>0.5</v>
       </c>
       <c r="X5" s="5">
-        <v>0.51573154632642448</v>
+        <v>0.5</v>
       </c>
       <c r="Y5" s="5">
-        <v>2.0417983331255551</v>
+        <v>0.5</v>
       </c>
       <c r="Z5" s="5">
-        <v>4.1086422921963939</v>
+        <v>0.5</v>
       </c>
       <c r="AA5" s="5">
-        <v>4.5570832737185842</v>
-      </c>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A6" s="2"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1212,15 +1245,16 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A95E18AD-1C92-4B5C-962D-792F4AC09175}">
-  <dimension ref="A1:AA5"/>
+  <dimension ref="A1:AA6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:AA5"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="27" width="9.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="27" width="9.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.4">
@@ -1394,82 +1428,82 @@
         <v>10</v>
       </c>
       <c r="B3" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S3" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U3" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W3" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X3" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y3" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z3" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA3" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.4">
@@ -1477,82 +1511,82 @@
         <v>11</v>
       </c>
       <c r="B4" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U4" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X4" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y4" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z4" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA4" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.4">
@@ -1560,83 +1594,112 @@
         <v>4</v>
       </c>
       <c r="B5" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C5" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D5" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E5" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F5" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G5" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H5" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J5" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K5" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L5" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M5" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N5" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O5" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P5" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R5" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S5" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T5" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U5" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V5" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W5" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X5" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA5" s="5">
-        <v>3</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A6" s="2"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1646,9 +1709,11 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3CF035B-C14B-46B7-A841-579E94220A37}">
-  <dimension ref="A1:AA5"/>
+  <dimension ref="A1:AA6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -1989,83 +2054,112 @@
         <v>4</v>
       </c>
       <c r="B5" s="5">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="C5" s="5">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="D5" s="5">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="E5" s="5">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="F5" s="5">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G5" s="5">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="H5" s="5">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="I5" s="5">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="J5" s="5">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="K5" s="5">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="L5" s="5">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="M5" s="5">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="N5" s="5">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="O5" s="5">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="P5" s="5">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="5">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="R5" s="5">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="S5" s="5">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="T5" s="5">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="U5" s="5">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="V5" s="5">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="W5" s="5">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="X5" s="5">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="Y5" s="5">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="Z5" s="5">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA5" s="5">
-        <v>1.1000000000000001</v>
-      </c>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A6" s="2"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2078,7 +2172,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2116,7 +2210,7 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
@@ -2127,7 +2221,7 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
@@ -2149,7 +2243,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
@@ -2171,7 +2265,7 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -2193,7 +2287,7 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2207,10 +2301,13 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C9"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="9.3984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
@@ -2275,7 +2372,7 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
@@ -2322,7 +2419,7 @@
   <dimension ref="A1:AA6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AA1"/>
+      <selection activeCell="B2" sqref="B2:AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2415,82 +2512,82 @@
         <v>5</v>
       </c>
       <c r="B2" s="5">
-        <v>1.138931802510158</v>
+        <v>0</v>
       </c>
       <c r="C2" s="5">
-        <v>7.574766115689437</v>
+        <v>0</v>
       </c>
       <c r="D2" s="5">
-        <v>0.67628647507918527</v>
+        <v>0</v>
       </c>
       <c r="E2" s="5">
-        <v>3.2136905007923797</v>
+        <v>0</v>
       </c>
       <c r="F2" s="5">
-        <v>5.6365173572880378</v>
+        <v>0</v>
       </c>
       <c r="G2" s="5">
-        <v>8.23729264578464</v>
+        <v>0</v>
       </c>
       <c r="H2" s="5">
-        <v>3.9808290290957169</v>
+        <v>0</v>
       </c>
       <c r="I2" s="5">
-        <v>4.2084362783232425</v>
+        <v>0</v>
       </c>
       <c r="J2" s="5">
-        <v>2.6547768072885605</v>
+        <v>0</v>
       </c>
       <c r="K2" s="5">
-        <v>8.6895749145679559</v>
+        <v>0</v>
       </c>
       <c r="L2" s="5">
-        <v>4.4525335538469051</v>
+        <v>0</v>
       </c>
       <c r="M2" s="5">
-        <v>3.4468203268875373</v>
+        <v>0</v>
       </c>
       <c r="N2" s="5">
-        <v>2.4572713271210231</v>
+        <v>0</v>
       </c>
       <c r="O2" s="5">
-        <v>8.927728792550143</v>
+        <v>0</v>
       </c>
       <c r="P2" s="5">
-        <v>5.982551937391019</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="5">
-        <v>7.3819001349795244E-2</v>
+        <v>0</v>
       </c>
       <c r="R2" s="5">
-        <v>1.9919161958087483</v>
+        <v>0</v>
       </c>
       <c r="S2" s="5">
-        <v>2.4831770957740105</v>
+        <v>0</v>
       </c>
       <c r="T2" s="5">
-        <v>9.4001854872220374</v>
+        <v>0</v>
       </c>
       <c r="U2" s="5">
-        <v>4.3998924386883029</v>
+        <v>0</v>
       </c>
       <c r="V2" s="5">
-        <v>0.43428856551232409</v>
+        <v>0</v>
       </c>
       <c r="W2" s="5">
-        <v>7.9407731237710166</v>
+        <v>0</v>
       </c>
       <c r="X2" s="5">
-        <v>4.1007272303399853</v>
+        <v>0</v>
       </c>
       <c r="Y2" s="5">
-        <v>5.8292407312736536</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="5">
-        <v>0.26933124855980206</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="5">
-        <v>6.9076528786362008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
@@ -2498,82 +2595,82 @@
         <v>6</v>
       </c>
       <c r="B3" s="5">
-        <v>1.2044835146641231</v>
+        <v>2</v>
       </c>
       <c r="C3" s="5">
-        <v>7.987902585292554</v>
+        <v>2</v>
       </c>
       <c r="D3" s="5">
-        <v>7.9590068482088627</v>
+        <v>2</v>
       </c>
       <c r="E3" s="5">
-        <v>0.1606066383802518</v>
+        <v>2</v>
       </c>
       <c r="F3" s="5">
-        <v>4.585605094215504</v>
+        <v>2</v>
       </c>
       <c r="G3" s="5">
-        <v>9.6626632527953404</v>
+        <v>2</v>
       </c>
       <c r="H3" s="5">
-        <v>5.7739880052029147</v>
+        <v>2</v>
       </c>
       <c r="I3" s="5">
-        <v>9.2566527937944265</v>
+        <v>2</v>
       </c>
       <c r="J3" s="5">
-        <v>9.4800396741663029</v>
+        <v>2</v>
       </c>
       <c r="K3" s="5">
-        <v>3.6065083788586447</v>
+        <v>2</v>
       </c>
       <c r="L3" s="5">
-        <v>8.5438796497736664</v>
+        <v>2</v>
       </c>
       <c r="M3" s="5">
-        <v>0.59728548866735287</v>
+        <v>2</v>
       </c>
       <c r="N3" s="5">
-        <v>3.8461224682055359</v>
+        <v>2</v>
       </c>
       <c r="O3" s="5">
-        <v>6.6481529824524479</v>
+        <v>2</v>
       </c>
       <c r="P3" s="5">
-        <v>7.3392403143414278</v>
+        <v>2</v>
       </c>
       <c r="Q3" s="5">
-        <v>3.1816087694142494</v>
+        <v>2</v>
       </c>
       <c r="R3" s="5">
-        <v>2.7863956935330956</v>
+        <v>2</v>
       </c>
       <c r="S3" s="5">
-        <v>9.3348757795029993</v>
+        <v>2</v>
       </c>
       <c r="T3" s="5">
-        <v>2.1397729972070723</v>
+        <v>2</v>
       </c>
       <c r="U3" s="5">
-        <v>6.9678153416583575</v>
+        <v>2</v>
       </c>
       <c r="V3" s="5">
-        <v>7.7674217492321507</v>
+        <v>2</v>
       </c>
       <c r="W3" s="5">
-        <v>4.7216654236148514</v>
+        <v>2</v>
       </c>
       <c r="X3" s="5">
-        <v>4.238810750971469</v>
+        <v>2</v>
       </c>
       <c r="Y3" s="5">
-        <v>7.3608683858912185</v>
+        <v>2</v>
       </c>
       <c r="Z3" s="5">
-        <v>7.5148932206900243</v>
+        <v>2</v>
       </c>
       <c r="AA3" s="5">
-        <v>9.6339470176296054</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.4">
@@ -2581,82 +2678,82 @@
         <v>7</v>
       </c>
       <c r="B4" s="5">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="C4" s="5">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="D4" s="5">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E4" s="5">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F4" s="5">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="G4" s="5">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="H4" s="5">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="I4" s="5">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="J4" s="5">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="K4" s="5">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="L4" s="5">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="M4" s="5">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="N4" s="5">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="O4" s="5">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P4" s="5">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Q4" s="5">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="R4" s="5">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="S4" s="5">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="T4" s="5">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="U4" s="5">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="V4" s="5">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="W4" s="5">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="X4" s="5">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Y4" s="5">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Z4" s="5">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AA4" s="5">
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.4">
@@ -2664,82 +2761,82 @@
         <v>8</v>
       </c>
       <c r="B5" s="5">
-        <v>9.0280272949077336</v>
+        <v>5</v>
       </c>
       <c r="C5" s="5">
-        <v>0.79148016981419489</v>
+        <v>5</v>
       </c>
       <c r="D5" s="5">
-        <v>9.3450116579607538</v>
+        <v>5</v>
       </c>
       <c r="E5" s="5">
-        <v>8.7779321350987356</v>
+        <v>5</v>
       </c>
       <c r="F5" s="5">
-        <v>9.9122391981291731</v>
+        <v>5</v>
       </c>
       <c r="G5" s="5">
-        <v>1.6940251254577043</v>
+        <v>0.5</v>
       </c>
       <c r="H5" s="5">
-        <v>5.3580360106324925</v>
+        <v>0.5</v>
       </c>
       <c r="I5" s="5">
-        <v>2.9089999765545471</v>
+        <v>0.5</v>
       </c>
       <c r="J5" s="5">
-        <v>6.3392393508409226</v>
+        <v>0.5</v>
       </c>
       <c r="K5" s="5">
-        <v>1.3233246022872935</v>
+        <v>0.5</v>
       </c>
       <c r="L5" s="5">
-        <v>1.120067870198912</v>
+        <v>0.5</v>
       </c>
       <c r="M5" s="5">
-        <v>7.6992979145058449</v>
+        <v>0.5</v>
       </c>
       <c r="N5" s="5">
-        <v>2.5057427861077572</v>
+        <v>0.5</v>
       </c>
       <c r="O5" s="5">
-        <v>7.3750450434362538</v>
+        <v>0.5</v>
       </c>
       <c r="P5" s="5">
-        <v>9.4007626187483222</v>
+        <v>0.5</v>
       </c>
       <c r="Q5" s="5">
-        <v>9.101036356582326E-2</v>
+        <v>0.5</v>
       </c>
       <c r="R5" s="5">
-        <v>0.57288500630638395</v>
+        <v>0.5</v>
       </c>
       <c r="S5" s="5">
-        <v>7.4626065943311914</v>
+        <v>0.5</v>
       </c>
       <c r="T5" s="5">
-        <v>3.1809862851226445</v>
+        <v>0.5</v>
       </c>
       <c r="U5" s="5">
-        <v>9.2020936906236397</v>
+        <v>0.5</v>
       </c>
       <c r="V5" s="5">
-        <v>7.2239084732453938</v>
+        <v>0.5</v>
       </c>
       <c r="W5" s="5">
-        <v>4.8200977144393988</v>
+        <v>0.5</v>
       </c>
       <c r="X5" s="5">
-        <v>0.51573154632642448</v>
+        <v>0.5</v>
       </c>
       <c r="Y5" s="5">
-        <v>2.0417983331255551</v>
+        <v>0.5</v>
       </c>
       <c r="Z5" s="5">
-        <v>4.1086422921963939</v>
+        <v>0.5</v>
       </c>
       <c r="AA5" s="5">
-        <v>4.5570832737185842</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.4">
@@ -2747,82 +2844,82 @@
         <v>9</v>
       </c>
       <c r="B6" s="5">
-        <v>7.8957032192905761</v>
+        <v>7</v>
       </c>
       <c r="C6" s="5">
-        <v>4.6082787714867699</v>
+        <v>7</v>
       </c>
       <c r="D6" s="5">
-        <v>0.6091916868338465</v>
+        <v>7</v>
       </c>
       <c r="E6" s="5">
-        <v>4.5793589856973238</v>
+        <v>7</v>
       </c>
       <c r="F6" s="5">
-        <v>8.1786077617116337</v>
+        <v>7</v>
       </c>
       <c r="G6" s="5">
-        <v>8.0194570739747864</v>
+        <v>0.5</v>
       </c>
       <c r="H6" s="5">
-        <v>5.3363776828222846</v>
+        <v>0.5</v>
       </c>
       <c r="I6" s="5">
-        <v>2.0392354662996173</v>
+        <v>0.5</v>
       </c>
       <c r="J6" s="5">
-        <v>1.5611429793634013</v>
+        <v>0.5</v>
       </c>
       <c r="K6" s="5">
-        <v>4.8911639936651881</v>
+        <v>0.5</v>
       </c>
       <c r="L6" s="5">
-        <v>0.40969313950629416</v>
+        <v>0.5</v>
       </c>
       <c r="M6" s="5">
-        <v>8.1821714040505622</v>
+        <v>0.5</v>
       </c>
       <c r="N6" s="5">
-        <v>7.1594690363400781</v>
+        <v>0.5</v>
       </c>
       <c r="O6" s="5">
-        <v>9.6385261152701958</v>
+        <v>0.5</v>
       </c>
       <c r="P6" s="5">
-        <v>6.1105005430337744</v>
+        <v>0.5</v>
       </c>
       <c r="Q6" s="5">
-        <v>9.8360503707220346</v>
+        <v>0.5</v>
       </c>
       <c r="R6" s="5">
-        <v>3.1687053337959927</v>
+        <v>0.5</v>
       </c>
       <c r="S6" s="5">
-        <v>7.4574597903735853</v>
+        <v>0.5</v>
       </c>
       <c r="T6" s="5">
-        <v>1.7179916959018882</v>
+        <v>0.5</v>
       </c>
       <c r="U6" s="5">
-        <v>1.3703096017555394</v>
+        <v>0.5</v>
       </c>
       <c r="V6" s="5">
-        <v>1.224292525245001</v>
+        <v>0.5</v>
       </c>
       <c r="W6" s="5">
-        <v>9.9777665023046573</v>
+        <v>0.5</v>
       </c>
       <c r="X6" s="5">
-        <v>0.23044312727864225</v>
+        <v>0.5</v>
       </c>
       <c r="Y6" s="5">
-        <v>4.2498432589860649</v>
+        <v>0.5</v>
       </c>
       <c r="Z6" s="5">
-        <v>0.66055919821920162</v>
+        <v>0.5</v>
       </c>
       <c r="AA6" s="5">
-        <v>5.425378034772347</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -3350,7 +3447,7 @@
   <dimension ref="A1:AA6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3864,7 +3961,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3912,7 +4009,7 @@
         <v>4000</v>
       </c>
       <c r="F2">
-        <v>2015</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
@@ -3929,17 +4026,17 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="F3">
-        <v>2020</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -3949,17 +4046,17 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1500</v>
+        <v>4000</v>
       </c>
       <c r="F4">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -3969,10 +4066,10 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>1500</v>
+        <v>4000</v>
       </c>
       <c r="F5">
-        <v>2021</v>
+        <v>2019</v>
       </c>
     </row>
   </sheetData>
@@ -3985,8 +4082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E683ACB1-236C-41D9-AD28-376C61929EF9}">
   <dimension ref="A1:AA5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2:AA2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4082,34 +4179,34 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>1500000</v>
+        <v>99999999</v>
       </c>
       <c r="C2">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="D2">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="E2">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="F2">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="G2">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="H2">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="I2">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="J2">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="K2">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="L2">
         <v>1000000</v>
@@ -4142,22 +4239,22 @@
         <v>1000000</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
@@ -4165,7 +4262,7 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>1000000</v>
+        <v>99999999</v>
       </c>
       <c r="C3">
         <v>1000000</v>
@@ -4225,22 +4322,22 @@
         <v>1000000</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.4">
@@ -4248,82 +4345,82 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>50000</v>
+        <v>99999999</v>
       </c>
       <c r="C4">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="D4">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="E4">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="F4">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="G4">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="H4">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="I4">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="J4">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="K4">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="L4">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="M4">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="N4">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="O4">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="P4">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="Q4">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="R4">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="S4">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="T4">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="U4">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.4">
@@ -4331,82 +4428,82 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>50000</v>
+        <v>99999999</v>
       </c>
       <c r="C5">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="D5">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="E5">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="F5">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="G5">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="H5">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="I5">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="J5">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="K5">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="L5">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="M5">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="N5">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="O5">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="P5">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="Q5">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="R5">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="S5">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="T5">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="U5">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
   </sheetData>
@@ -4420,7 +4517,7 @@
   <dimension ref="A1:AA5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="Q3" sqref="Q3:AA3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4513,82 +4610,82 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="C2">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="D2">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="E2">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="F2">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="G2">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="H2">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="I2">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="J2">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="K2">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="L2">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="M2">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="N2">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="O2">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="P2">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="Q2">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="R2">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="S2">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="T2">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="U2">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="V2">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="W2">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="X2">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="Y2">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="Z2">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="AA2">
-        <v>30</v>
+        <v>500</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
@@ -4596,82 +4693,82 @@
         <v>2</v>
       </c>
       <c r="B3" s="4">
-        <v>150</v>
+        <v>9000</v>
       </c>
       <c r="C3" s="4">
-        <v>145.33333333333331</v>
+        <v>9000</v>
       </c>
       <c r="D3" s="4">
-        <v>140.66666666666666</v>
+        <v>9000</v>
       </c>
       <c r="E3" s="4">
-        <v>136</v>
+        <v>9000</v>
       </c>
       <c r="F3" s="4">
-        <v>131.33333333333334</v>
+        <v>9000</v>
       </c>
       <c r="G3" s="4">
-        <v>126.66666666666666</v>
+        <v>9000</v>
       </c>
       <c r="H3" s="4">
-        <v>122</v>
+        <v>9000</v>
       </c>
       <c r="I3" s="4">
-        <v>117.33333333333334</v>
+        <v>9000</v>
       </c>
       <c r="J3" s="4">
-        <v>112.66666666666667</v>
+        <v>9000</v>
       </c>
       <c r="K3" s="4">
-        <v>108</v>
+        <v>9000</v>
       </c>
       <c r="L3" s="4">
-        <v>103.33333333333334</v>
+        <v>300</v>
       </c>
       <c r="M3" s="4">
-        <v>98.666666666666671</v>
+        <v>300</v>
       </c>
       <c r="N3" s="4">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="O3" s="4">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="P3" s="4">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="Q3" s="4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R3" s="4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S3" s="4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T3" s="4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U3" s="4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V3" s="4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W3" s="4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X3" s="4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y3" s="4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z3" s="4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA3" s="4">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.4">
@@ -4679,82 +4776,82 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>80</v>
+        <v>4500</v>
       </c>
       <c r="C4">
-        <v>79</v>
+        <v>4500</v>
       </c>
       <c r="D4">
-        <v>78</v>
+        <v>4500</v>
       </c>
       <c r="E4">
-        <v>77</v>
+        <v>4500</v>
       </c>
       <c r="F4">
-        <v>76</v>
+        <v>4500</v>
       </c>
       <c r="G4">
-        <v>75</v>
+        <v>4500</v>
       </c>
       <c r="H4">
-        <v>74</v>
+        <v>4500</v>
       </c>
       <c r="I4">
-        <v>73</v>
+        <v>4500</v>
       </c>
       <c r="J4">
-        <v>72</v>
+        <v>4500</v>
       </c>
       <c r="K4">
-        <v>71</v>
+        <v>4500</v>
       </c>
       <c r="L4">
-        <v>70</v>
+        <v>4500</v>
       </c>
       <c r="M4">
-        <v>69</v>
+        <v>4500</v>
       </c>
       <c r="N4">
-        <v>68</v>
+        <v>4500</v>
       </c>
       <c r="O4">
-        <v>67</v>
+        <v>4500</v>
       </c>
       <c r="P4">
-        <v>20</v>
+        <v>4500</v>
       </c>
       <c r="Q4">
-        <v>20</v>
+        <v>4500</v>
       </c>
       <c r="R4">
-        <v>20</v>
+        <v>4500</v>
       </c>
       <c r="S4">
-        <v>20</v>
+        <v>4500</v>
       </c>
       <c r="T4">
-        <v>20</v>
+        <v>4500</v>
       </c>
       <c r="U4">
-        <v>20</v>
+        <v>4500</v>
       </c>
       <c r="V4">
-        <v>20</v>
+        <v>4500</v>
       </c>
       <c r="W4">
-        <v>20</v>
+        <v>4500</v>
       </c>
       <c r="X4">
-        <v>20</v>
+        <v>4500</v>
       </c>
       <c r="Y4">
-        <v>20</v>
+        <v>4500</v>
       </c>
       <c r="Z4">
-        <v>20</v>
+        <v>4500</v>
       </c>
       <c r="AA4">
-        <v>20</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -4763,107 +4860,107 @@
       </c>
       <c r="B5">
         <f>B2*1.5</f>
-        <v>45</v>
+        <v>750</v>
       </c>
       <c r="C5">
         <f t="shared" ref="C5:AA5" si="0">C2*1.5</f>
-        <v>45</v>
+        <v>750</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>750</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>750</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>750</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>750</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>750</v>
       </c>
       <c r="I5">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>750</v>
       </c>
       <c r="J5">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>750</v>
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>750</v>
       </c>
       <c r="L5">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>750</v>
       </c>
       <c r="M5">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>750</v>
       </c>
       <c r="N5">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>750</v>
       </c>
       <c r="O5">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>750</v>
       </c>
       <c r="P5">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>750</v>
       </c>
       <c r="Q5">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>750</v>
       </c>
       <c r="R5">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>750</v>
       </c>
       <c r="S5">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>750</v>
       </c>
       <c r="T5">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>750</v>
       </c>
       <c r="U5">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>750</v>
       </c>
       <c r="V5">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>750</v>
       </c>
       <c r="W5">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>750</v>
       </c>
       <c r="X5">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>750</v>
       </c>
       <c r="Y5">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>750</v>
       </c>
       <c r="Z5">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>750</v>
       </c>
       <c r="AA5">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>750</v>
       </c>
     </row>
   </sheetData>
@@ -4971,107 +5068,107 @@
       </c>
       <c r="B2" s="3">
         <f>capex!B2*0.05</f>
-        <v>1.5</v>
+        <v>25</v>
       </c>
       <c r="C2" s="3">
         <f>capex!C2*0.05</f>
-        <v>1.5</v>
+        <v>25</v>
       </c>
       <c r="D2" s="3">
         <f>capex!D2*0.05</f>
-        <v>1.5</v>
+        <v>25</v>
       </c>
       <c r="E2" s="3">
         <f>capex!E2*0.05</f>
-        <v>1.5</v>
+        <v>25</v>
       </c>
       <c r="F2" s="3">
         <f>capex!F2*0.05</f>
-        <v>1.5</v>
+        <v>25</v>
       </c>
       <c r="G2" s="3">
         <f>capex!G2*0.05</f>
-        <v>1.5</v>
+        <v>25</v>
       </c>
       <c r="H2" s="3">
         <f>capex!H2*0.05</f>
-        <v>1.5</v>
+        <v>25</v>
       </c>
       <c r="I2" s="3">
         <f>capex!I2*0.05</f>
-        <v>1.5</v>
+        <v>25</v>
       </c>
       <c r="J2" s="3">
         <f>capex!J2*0.05</f>
-        <v>1.5</v>
+        <v>25</v>
       </c>
       <c r="K2" s="3">
         <f>capex!K2*0.05</f>
-        <v>1.5</v>
+        <v>25</v>
       </c>
       <c r="L2" s="3">
         <f>capex!L2*0.05</f>
-        <v>1.5</v>
+        <v>25</v>
       </c>
       <c r="M2" s="3">
         <f>capex!M2*0.05</f>
-        <v>1.5</v>
+        <v>25</v>
       </c>
       <c r="N2" s="3">
         <f>capex!N2*0.05</f>
-        <v>1.5</v>
+        <v>25</v>
       </c>
       <c r="O2" s="3">
         <f>capex!O2*0.05</f>
-        <v>1.5</v>
+        <v>25</v>
       </c>
       <c r="P2" s="3">
         <f>capex!P2*0.05</f>
-        <v>1.5</v>
+        <v>25</v>
       </c>
       <c r="Q2" s="3">
         <f>capex!Q2*0.05</f>
-        <v>1.5</v>
+        <v>25</v>
       </c>
       <c r="R2" s="3">
         <f>capex!R2*0.05</f>
-        <v>1.5</v>
+        <v>25</v>
       </c>
       <c r="S2" s="3">
         <f>capex!S2*0.05</f>
-        <v>1.5</v>
+        <v>25</v>
       </c>
       <c r="T2" s="3">
         <f>capex!T2*0.05</f>
-        <v>1.5</v>
+        <v>25</v>
       </c>
       <c r="U2" s="3">
         <f>capex!U2*0.05</f>
-        <v>1.5</v>
+        <v>25</v>
       </c>
       <c r="V2" s="3">
         <f>capex!V2*0.05</f>
-        <v>1.5</v>
+        <v>25</v>
       </c>
       <c r="W2" s="3">
         <f>capex!W2*0.05</f>
-        <v>1.5</v>
+        <v>25</v>
       </c>
       <c r="X2" s="3">
         <f>capex!X2*0.05</f>
-        <v>1.5</v>
+        <v>25</v>
       </c>
       <c r="Y2" s="3">
         <f>capex!Y2*0.05</f>
-        <v>1.5</v>
+        <v>25</v>
       </c>
       <c r="Z2" s="3">
         <f>capex!Z2*0.05</f>
-        <v>1.5</v>
+        <v>25</v>
       </c>
       <c r="AA2" s="3">
         <f>capex!AA2*0.05</f>
-        <v>1.5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
@@ -5080,107 +5177,107 @@
       </c>
       <c r="B3" s="3">
         <f>capex!B3*0.05</f>
-        <v>7.5</v>
+        <v>450</v>
       </c>
       <c r="C3" s="3">
         <f>capex!C3*0.05</f>
-        <v>7.2666666666666657</v>
+        <v>450</v>
       </c>
       <c r="D3" s="3">
         <f>capex!D3*0.05</f>
-        <v>7.0333333333333332</v>
+        <v>450</v>
       </c>
       <c r="E3" s="3">
         <f>capex!E3*0.05</f>
-        <v>6.8000000000000007</v>
+        <v>450</v>
       </c>
       <c r="F3" s="3">
         <f>capex!F3*0.05</f>
-        <v>6.5666666666666673</v>
+        <v>450</v>
       </c>
       <c r="G3" s="3">
         <f>capex!G3*0.05</f>
-        <v>6.333333333333333</v>
+        <v>450</v>
       </c>
       <c r="H3" s="3">
         <f>capex!H3*0.05</f>
-        <v>6.1000000000000005</v>
+        <v>450</v>
       </c>
       <c r="I3" s="3">
         <f>capex!I3*0.05</f>
-        <v>5.8666666666666671</v>
+        <v>450</v>
       </c>
       <c r="J3" s="3">
         <f>capex!J3*0.05</f>
-        <v>5.6333333333333337</v>
+        <v>450</v>
       </c>
       <c r="K3" s="3">
         <f>capex!K3*0.05</f>
-        <v>5.4</v>
+        <v>450</v>
       </c>
       <c r="L3" s="3">
         <f>capex!L3*0.05</f>
-        <v>5.1666666666666679</v>
+        <v>15</v>
       </c>
       <c r="M3" s="3">
         <f>capex!M3*0.05</f>
-        <v>4.9333333333333336</v>
+        <v>15</v>
       </c>
       <c r="N3" s="3">
         <f>capex!N3*0.05</f>
-        <v>2.5</v>
+        <v>15</v>
       </c>
       <c r="O3" s="3">
         <f>capex!O3*0.05</f>
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="P3" s="3">
         <f>capex!P3*0.05</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Q3" s="3">
         <f>capex!Q3*0.05</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R3" s="3">
         <f>capex!R3*0.05</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S3" s="3">
         <f>capex!S3*0.05</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T3" s="3">
         <f>capex!T3*0.05</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U3" s="3">
         <f>capex!U3*0.05</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V3" s="3">
         <f>capex!V3*0.05</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W3" s="3">
         <f>capex!W3*0.05</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X3" s="3">
         <f>capex!X3*0.05</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y3" s="3">
         <f>capex!Y3*0.05</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z3" s="3">
         <f>capex!Z3*0.05</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AA3" s="3">
         <f>capex!AA3*0.05</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.4">
@@ -5189,107 +5286,107 @@
       </c>
       <c r="B4" s="3">
         <f>capex!B4*0.05</f>
-        <v>4</v>
+        <v>225</v>
       </c>
       <c r="C4" s="3">
         <f>capex!C4*0.05</f>
-        <v>3.95</v>
+        <v>225</v>
       </c>
       <c r="D4" s="3">
         <f>capex!D4*0.05</f>
-        <v>3.9000000000000004</v>
+        <v>225</v>
       </c>
       <c r="E4" s="3">
         <f>capex!E4*0.05</f>
-        <v>3.85</v>
+        <v>225</v>
       </c>
       <c r="F4" s="3">
         <f>capex!F4*0.05</f>
-        <v>3.8000000000000003</v>
+        <v>225</v>
       </c>
       <c r="G4" s="3">
         <f>capex!G4*0.05</f>
-        <v>3.75</v>
+        <v>225</v>
       </c>
       <c r="H4" s="3">
         <f>capex!H4*0.05</f>
-        <v>3.7</v>
+        <v>225</v>
       </c>
       <c r="I4" s="3">
         <f>capex!I4*0.05</f>
-        <v>3.6500000000000004</v>
+        <v>225</v>
       </c>
       <c r="J4" s="3">
         <f>capex!J4*0.05</f>
-        <v>3.6</v>
+        <v>225</v>
       </c>
       <c r="K4" s="3">
         <f>capex!K4*0.05</f>
-        <v>3.5500000000000003</v>
+        <v>225</v>
       </c>
       <c r="L4" s="3">
         <f>capex!L4*0.05</f>
-        <v>3.5</v>
+        <v>225</v>
       </c>
       <c r="M4" s="3">
         <f>capex!M4*0.05</f>
-        <v>3.45</v>
+        <v>225</v>
       </c>
       <c r="N4" s="3">
         <f>capex!N4*0.05</f>
-        <v>3.4000000000000004</v>
+        <v>225</v>
       </c>
       <c r="O4" s="3">
         <f>capex!O4*0.05</f>
-        <v>3.35</v>
+        <v>225</v>
       </c>
       <c r="P4" s="3">
         <f>capex!P4*0.05</f>
-        <v>1</v>
+        <v>225</v>
       </c>
       <c r="Q4" s="3">
         <f>capex!Q4*0.05</f>
-        <v>1</v>
+        <v>225</v>
       </c>
       <c r="R4" s="3">
         <f>capex!R4*0.05</f>
-        <v>1</v>
+        <v>225</v>
       </c>
       <c r="S4" s="3">
         <f>capex!S4*0.05</f>
-        <v>1</v>
+        <v>225</v>
       </c>
       <c r="T4" s="3">
         <f>capex!T4*0.05</f>
-        <v>1</v>
+        <v>225</v>
       </c>
       <c r="U4" s="3">
         <f>capex!U4*0.05</f>
-        <v>1</v>
+        <v>225</v>
       </c>
       <c r="V4" s="3">
         <f>capex!V4*0.05</f>
-        <v>1</v>
+        <v>225</v>
       </c>
       <c r="W4" s="3">
         <f>capex!W4*0.05</f>
-        <v>1</v>
+        <v>225</v>
       </c>
       <c r="X4" s="3">
         <f>capex!X4*0.05</f>
-        <v>1</v>
+        <v>225</v>
       </c>
       <c r="Y4" s="3">
         <f>capex!Y4*0.05</f>
-        <v>1</v>
+        <v>225</v>
       </c>
       <c r="Z4" s="3">
         <f>capex!Z4*0.05</f>
-        <v>1</v>
+        <v>225</v>
       </c>
       <c r="AA4" s="3">
         <f>capex!AA4*0.05</f>
-        <v>1</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -5298,107 +5395,107 @@
       </c>
       <c r="B5" s="3">
         <f>capex!B5*0.05</f>
-        <v>2.25</v>
+        <v>37.5</v>
       </c>
       <c r="C5" s="3">
         <f>capex!C5*0.05</f>
-        <v>2.25</v>
+        <v>37.5</v>
       </c>
       <c r="D5" s="3">
         <f>capex!D5*0.05</f>
-        <v>2.25</v>
+        <v>37.5</v>
       </c>
       <c r="E5" s="3">
         <f>capex!E5*0.05</f>
-        <v>2.25</v>
+        <v>37.5</v>
       </c>
       <c r="F5" s="3">
         <f>capex!F5*0.05</f>
-        <v>2.25</v>
+        <v>37.5</v>
       </c>
       <c r="G5" s="3">
         <f>capex!G5*0.05</f>
-        <v>2.25</v>
+        <v>37.5</v>
       </c>
       <c r="H5" s="3">
         <f>capex!H5*0.05</f>
-        <v>2.25</v>
+        <v>37.5</v>
       </c>
       <c r="I5" s="3">
         <f>capex!I5*0.05</f>
-        <v>2.25</v>
+        <v>37.5</v>
       </c>
       <c r="J5" s="3">
         <f>capex!J5*0.05</f>
-        <v>2.25</v>
+        <v>37.5</v>
       </c>
       <c r="K5" s="3">
         <f>capex!K5*0.05</f>
-        <v>2.25</v>
+        <v>37.5</v>
       </c>
       <c r="L5" s="3">
         <f>capex!L5*0.05</f>
-        <v>2.25</v>
+        <v>37.5</v>
       </c>
       <c r="M5" s="3">
         <f>capex!M5*0.05</f>
-        <v>2.25</v>
+        <v>37.5</v>
       </c>
       <c r="N5" s="3">
         <f>capex!N5*0.05</f>
-        <v>2.25</v>
+        <v>37.5</v>
       </c>
       <c r="O5" s="3">
         <f>capex!O5*0.05</f>
-        <v>2.25</v>
+        <v>37.5</v>
       </c>
       <c r="P5" s="3">
         <f>capex!P5*0.05</f>
-        <v>2.25</v>
+        <v>37.5</v>
       </c>
       <c r="Q5" s="3">
         <f>capex!Q5*0.05</f>
-        <v>2.25</v>
+        <v>37.5</v>
       </c>
       <c r="R5" s="3">
         <f>capex!R5*0.05</f>
-        <v>2.25</v>
+        <v>37.5</v>
       </c>
       <c r="S5" s="3">
         <f>capex!S5*0.05</f>
-        <v>2.25</v>
+        <v>37.5</v>
       </c>
       <c r="T5" s="3">
         <f>capex!T5*0.05</f>
-        <v>2.25</v>
+        <v>37.5</v>
       </c>
       <c r="U5" s="3">
         <f>capex!U5*0.05</f>
-        <v>2.25</v>
+        <v>37.5</v>
       </c>
       <c r="V5" s="3">
         <f>capex!V5*0.05</f>
-        <v>2.25</v>
+        <v>37.5</v>
       </c>
       <c r="W5" s="3">
         <f>capex!W5*0.05</f>
-        <v>2.25</v>
+        <v>37.5</v>
       </c>
       <c r="X5" s="3">
         <f>capex!X5*0.05</f>
-        <v>2.25</v>
+        <v>37.5</v>
       </c>
       <c r="Y5" s="3">
         <f>capex!Y5*0.05</f>
-        <v>2.25</v>
+        <v>37.5</v>
       </c>
       <c r="Z5" s="3">
         <f>capex!Z5*0.05</f>
-        <v>2.25</v>
+        <v>37.5</v>
       </c>
       <c r="AA5" s="3">
         <f>capex!AA5*0.05</f>
-        <v>2.25</v>
+        <v>37.5</v>
       </c>
     </row>
   </sheetData>
@@ -5506,107 +5603,107 @@
       </c>
       <c r="B2" s="3">
         <f>capex!B2*0.25</f>
-        <v>7.5</v>
+        <v>125</v>
       </c>
       <c r="C2" s="3">
         <f>capex!C2*0.25</f>
-        <v>7.5</v>
+        <v>125</v>
       </c>
       <c r="D2" s="3">
         <f>capex!D2*0.25</f>
-        <v>7.5</v>
+        <v>125</v>
       </c>
       <c r="E2" s="3">
         <f>capex!E2*0.25</f>
-        <v>7.5</v>
+        <v>125</v>
       </c>
       <c r="F2" s="3">
         <f>capex!F2*0.25</f>
-        <v>7.5</v>
+        <v>125</v>
       </c>
       <c r="G2" s="3">
         <f>capex!G2*0.25</f>
-        <v>7.5</v>
+        <v>125</v>
       </c>
       <c r="H2" s="3">
         <f>capex!H2*0.25</f>
-        <v>7.5</v>
+        <v>125</v>
       </c>
       <c r="I2" s="3">
         <f>capex!I2*0.25</f>
-        <v>7.5</v>
+        <v>125</v>
       </c>
       <c r="J2" s="3">
         <f>capex!J2*0.25</f>
-        <v>7.5</v>
+        <v>125</v>
       </c>
       <c r="K2" s="3">
         <f>capex!K2*0.25</f>
-        <v>7.5</v>
+        <v>125</v>
       </c>
       <c r="L2" s="3">
         <f>capex!L2*0.25</f>
-        <v>7.5</v>
+        <v>125</v>
       </c>
       <c r="M2" s="3">
         <f>capex!M2*0.25</f>
-        <v>7.5</v>
+        <v>125</v>
       </c>
       <c r="N2" s="3">
         <f>capex!N2*0.25</f>
-        <v>7.5</v>
+        <v>125</v>
       </c>
       <c r="O2" s="3">
         <f>capex!O2*0.25</f>
-        <v>7.5</v>
+        <v>125</v>
       </c>
       <c r="P2" s="3">
         <f>capex!P2*0.25</f>
-        <v>7.5</v>
+        <v>125</v>
       </c>
       <c r="Q2" s="3">
         <f>capex!Q2*0.25</f>
-        <v>7.5</v>
+        <v>125</v>
       </c>
       <c r="R2" s="3">
         <f>capex!R2*0.25</f>
-        <v>7.5</v>
+        <v>125</v>
       </c>
       <c r="S2" s="3">
         <f>capex!S2*0.25</f>
-        <v>7.5</v>
+        <v>125</v>
       </c>
       <c r="T2" s="3">
         <f>capex!T2*0.25</f>
-        <v>7.5</v>
+        <v>125</v>
       </c>
       <c r="U2" s="3">
         <f>capex!U2*0.25</f>
-        <v>7.5</v>
+        <v>125</v>
       </c>
       <c r="V2" s="3">
         <f>capex!V2*0.25</f>
-        <v>7.5</v>
+        <v>125</v>
       </c>
       <c r="W2" s="3">
         <f>capex!W2*0.25</f>
-        <v>7.5</v>
+        <v>125</v>
       </c>
       <c r="X2" s="3">
         <f>capex!X2*0.25</f>
-        <v>7.5</v>
+        <v>125</v>
       </c>
       <c r="Y2" s="3">
         <f>capex!Y2*0.25</f>
-        <v>7.5</v>
+        <v>125</v>
       </c>
       <c r="Z2" s="3">
         <f>capex!Z2*0.25</f>
-        <v>7.5</v>
+        <v>125</v>
       </c>
       <c r="AA2" s="3">
         <f>capex!AA2*0.25</f>
-        <v>7.5</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
@@ -5615,107 +5712,107 @@
       </c>
       <c r="B3" s="3">
         <f>capex!B3*0.25</f>
-        <v>37.5</v>
+        <v>2250</v>
       </c>
       <c r="C3" s="3">
         <f>capex!C3*0.25</f>
-        <v>36.333333333333329</v>
+        <v>2250</v>
       </c>
       <c r="D3" s="3">
         <f>capex!D3*0.25</f>
-        <v>35.166666666666664</v>
+        <v>2250</v>
       </c>
       <c r="E3" s="3">
         <f>capex!E3*0.25</f>
-        <v>34</v>
+        <v>2250</v>
       </c>
       <c r="F3" s="3">
         <f>capex!F3*0.25</f>
-        <v>32.833333333333336</v>
+        <v>2250</v>
       </c>
       <c r="G3" s="3">
         <f>capex!G3*0.25</f>
-        <v>31.666666666666664</v>
+        <v>2250</v>
       </c>
       <c r="H3" s="3">
         <f>capex!H3*0.25</f>
-        <v>30.5</v>
+        <v>2250</v>
       </c>
       <c r="I3" s="3">
         <f>capex!I3*0.25</f>
-        <v>29.333333333333336</v>
+        <v>2250</v>
       </c>
       <c r="J3" s="3">
         <f>capex!J3*0.25</f>
-        <v>28.166666666666668</v>
+        <v>2250</v>
       </c>
       <c r="K3" s="3">
         <f>capex!K3*0.25</f>
-        <v>27</v>
+        <v>2250</v>
       </c>
       <c r="L3" s="3">
         <f>capex!L3*0.25</f>
-        <v>25.833333333333336</v>
+        <v>75</v>
       </c>
       <c r="M3" s="3">
         <f>capex!M3*0.25</f>
-        <v>24.666666666666668</v>
+        <v>75</v>
       </c>
       <c r="N3" s="3">
         <f>capex!N3*0.25</f>
-        <v>12.5</v>
+        <v>75</v>
       </c>
       <c r="O3" s="3">
         <f>capex!O3*0.25</f>
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="P3" s="3">
         <f>capex!P3*0.25</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="Q3" s="3">
         <f>capex!Q3*0.25</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="R3" s="3">
         <f>capex!R3*0.25</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="S3" s="3">
         <f>capex!S3*0.25</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="T3" s="3">
         <f>capex!T3*0.25</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="U3" s="3">
         <f>capex!U3*0.25</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="V3" s="3">
         <f>capex!V3*0.25</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="W3" s="3">
         <f>capex!W3*0.25</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="X3" s="3">
         <f>capex!X3*0.25</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Y3" s="3">
         <f>capex!Y3*0.25</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Z3" s="3">
         <f>capex!Z3*0.25</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AA3" s="3">
         <f>capex!AA3*0.25</f>
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.4">
@@ -5724,107 +5821,107 @@
       </c>
       <c r="B4" s="3">
         <f>capex!B4*0.25</f>
-        <v>20</v>
+        <v>1125</v>
       </c>
       <c r="C4" s="3">
         <f>capex!C4*0.25</f>
-        <v>19.75</v>
+        <v>1125</v>
       </c>
       <c r="D4" s="3">
         <f>capex!D4*0.25</f>
-        <v>19.5</v>
+        <v>1125</v>
       </c>
       <c r="E4" s="3">
         <f>capex!E4*0.25</f>
-        <v>19.25</v>
+        <v>1125</v>
       </c>
       <c r="F4" s="3">
         <f>capex!F4*0.25</f>
-        <v>19</v>
+        <v>1125</v>
       </c>
       <c r="G4" s="3">
         <f>capex!G4*0.25</f>
-        <v>18.75</v>
+        <v>1125</v>
       </c>
       <c r="H4" s="3">
         <f>capex!H4*0.25</f>
-        <v>18.5</v>
+        <v>1125</v>
       </c>
       <c r="I4" s="3">
         <f>capex!I4*0.25</f>
-        <v>18.25</v>
+        <v>1125</v>
       </c>
       <c r="J4" s="3">
         <f>capex!J4*0.25</f>
-        <v>18</v>
+        <v>1125</v>
       </c>
       <c r="K4" s="3">
         <f>capex!K4*0.25</f>
-        <v>17.75</v>
+        <v>1125</v>
       </c>
       <c r="L4" s="3">
         <f>capex!L4*0.25</f>
-        <v>17.5</v>
+        <v>1125</v>
       </c>
       <c r="M4" s="3">
         <f>capex!M4*0.25</f>
-        <v>17.25</v>
+        <v>1125</v>
       </c>
       <c r="N4" s="3">
         <f>capex!N4*0.25</f>
-        <v>17</v>
+        <v>1125</v>
       </c>
       <c r="O4" s="3">
         <f>capex!O4*0.25</f>
-        <v>16.75</v>
+        <v>1125</v>
       </c>
       <c r="P4" s="3">
         <f>capex!P4*0.25</f>
-        <v>5</v>
+        <v>1125</v>
       </c>
       <c r="Q4" s="3">
         <f>capex!Q4*0.25</f>
-        <v>5</v>
+        <v>1125</v>
       </c>
       <c r="R4" s="3">
         <f>capex!R4*0.25</f>
-        <v>5</v>
+        <v>1125</v>
       </c>
       <c r="S4" s="3">
         <f>capex!S4*0.25</f>
-        <v>5</v>
+        <v>1125</v>
       </c>
       <c r="T4" s="3">
         <f>capex!T4*0.25</f>
-        <v>5</v>
+        <v>1125</v>
       </c>
       <c r="U4" s="3">
         <f>capex!U4*0.25</f>
-        <v>5</v>
+        <v>1125</v>
       </c>
       <c r="V4" s="3">
         <f>capex!V4*0.25</f>
-        <v>5</v>
+        <v>1125</v>
       </c>
       <c r="W4" s="3">
         <f>capex!W4*0.25</f>
-        <v>5</v>
+        <v>1125</v>
       </c>
       <c r="X4" s="3">
         <f>capex!X4*0.25</f>
-        <v>5</v>
+        <v>1125</v>
       </c>
       <c r="Y4" s="3">
         <f>capex!Y4*0.25</f>
-        <v>5</v>
+        <v>1125</v>
       </c>
       <c r="Z4" s="3">
         <f>capex!Z4*0.25</f>
-        <v>5</v>
+        <v>1125</v>
       </c>
       <c r="AA4" s="3">
         <f>capex!AA4*0.25</f>
-        <v>5</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -5833,107 +5930,107 @@
       </c>
       <c r="B5" s="3">
         <f>capex!B5*0.25</f>
-        <v>11.25</v>
+        <v>187.5</v>
       </c>
       <c r="C5" s="3">
         <f>capex!C5*0.25</f>
-        <v>11.25</v>
+        <v>187.5</v>
       </c>
       <c r="D5" s="3">
         <f>capex!D5*0.25</f>
-        <v>11.25</v>
+        <v>187.5</v>
       </c>
       <c r="E5" s="3">
         <f>capex!E5*0.25</f>
-        <v>11.25</v>
+        <v>187.5</v>
       </c>
       <c r="F5" s="3">
         <f>capex!F5*0.25</f>
-        <v>11.25</v>
+        <v>187.5</v>
       </c>
       <c r="G5" s="3">
         <f>capex!G5*0.25</f>
-        <v>11.25</v>
+        <v>187.5</v>
       </c>
       <c r="H5" s="3">
         <f>capex!H5*0.25</f>
-        <v>11.25</v>
+        <v>187.5</v>
       </c>
       <c r="I5" s="3">
         <f>capex!I5*0.25</f>
-        <v>11.25</v>
+        <v>187.5</v>
       </c>
       <c r="J5" s="3">
         <f>capex!J5*0.25</f>
-        <v>11.25</v>
+        <v>187.5</v>
       </c>
       <c r="K5" s="3">
         <f>capex!K5*0.25</f>
-        <v>11.25</v>
+        <v>187.5</v>
       </c>
       <c r="L5" s="3">
         <f>capex!L5*0.25</f>
-        <v>11.25</v>
+        <v>187.5</v>
       </c>
       <c r="M5" s="3">
         <f>capex!M5*0.25</f>
-        <v>11.25</v>
+        <v>187.5</v>
       </c>
       <c r="N5" s="3">
         <f>capex!N5*0.25</f>
-        <v>11.25</v>
+        <v>187.5</v>
       </c>
       <c r="O5" s="3">
         <f>capex!O5*0.25</f>
-        <v>11.25</v>
+        <v>187.5</v>
       </c>
       <c r="P5" s="3">
         <f>capex!P5*0.25</f>
-        <v>11.25</v>
+        <v>187.5</v>
       </c>
       <c r="Q5" s="3">
         <f>capex!Q5*0.25</f>
-        <v>11.25</v>
+        <v>187.5</v>
       </c>
       <c r="R5" s="3">
         <f>capex!R5*0.25</f>
-        <v>11.25</v>
+        <v>187.5</v>
       </c>
       <c r="S5" s="3">
         <f>capex!S5*0.25</f>
-        <v>11.25</v>
+        <v>187.5</v>
       </c>
       <c r="T5" s="3">
         <f>capex!T5*0.25</f>
-        <v>11.25</v>
+        <v>187.5</v>
       </c>
       <c r="U5" s="3">
         <f>capex!U5*0.25</f>
-        <v>11.25</v>
+        <v>187.5</v>
       </c>
       <c r="V5" s="3">
         <f>capex!V5*0.25</f>
-        <v>11.25</v>
+        <v>187.5</v>
       </c>
       <c r="W5" s="3">
         <f>capex!W5*0.25</f>
-        <v>11.25</v>
+        <v>187.5</v>
       </c>
       <c r="X5" s="3">
         <f>capex!X5*0.25</f>
-        <v>11.25</v>
+        <v>187.5</v>
       </c>
       <c r="Y5" s="3">
         <f>capex!Y5*0.25</f>
-        <v>11.25</v>
+        <v>187.5</v>
       </c>
       <c r="Z5" s="3">
         <f>capex!Z5*0.25</f>
-        <v>11.25</v>
+        <v>187.5</v>
       </c>
       <c r="AA5" s="3">
         <f>capex!AA5*0.25</f>
-        <v>11.25</v>
+        <v>187.5</v>
       </c>
     </row>
   </sheetData>
@@ -5947,7 +6044,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -5973,7 +6070,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>2020</v>
@@ -5984,7 +6081,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>2040</v>
@@ -5995,7 +6092,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>2020</v>
@@ -6006,7 +6103,7 @@
         <v>49</v>
       </c>
       <c r="B5">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>2030</v>

--- a/database/steel_data.xlsx
+++ b/database/steel_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\PLANiT\github\macc_steel\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07AE055-EB32-4A37-AB8E-21D4E2AA2CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1120D8E7-C1C1-485F-A2EA-67D95261F94F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1644" yWindow="804" windowWidth="43116" windowHeight="20856" tabRatio="620" activeTab="2" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
+    <workbookView xWindow="21696" yWindow="2880" windowWidth="23760" windowHeight="19476" tabRatio="620" activeTab="8" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="18" r:id="rId1"/>
@@ -4082,7 +4082,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E683ACB1-236C-41D9-AD28-376C61929EF9}">
   <dimension ref="A1:AA5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
@@ -6550,8 +6550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E46CCB1-2754-42FA-B5C9-8DABA83A320C}">
   <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -6651,79 +6651,84 @@
         <v>10000000</v>
       </c>
       <c r="C2">
-        <v>10000000</v>
+        <f>B2*0.5</f>
+        <v>5000000</v>
       </c>
       <c r="D2">
-        <v>10000000</v>
+        <f t="shared" ref="D2:F2" si="0">C2*0.5</f>
+        <v>2500000</v>
       </c>
       <c r="E2">
-        <v>10000000</v>
+        <f t="shared" si="0"/>
+        <v>1250000</v>
       </c>
       <c r="F2">
-        <v>10000000</v>
+        <f t="shared" si="0"/>
+        <v>625000</v>
       </c>
       <c r="G2">
-        <v>10000000</v>
+        <f>F2*0.7</f>
+        <v>437500</v>
       </c>
       <c r="H2">
-        <v>10000000</v>
+        <v>200000</v>
       </c>
       <c r="I2">
-        <v>10000000</v>
+        <v>200000</v>
       </c>
       <c r="J2">
-        <v>10000000</v>
+        <v>200000</v>
       </c>
       <c r="K2">
-        <v>10000000</v>
+        <v>200000</v>
       </c>
       <c r="L2">
-        <v>10000000</v>
+        <v>200000</v>
       </c>
       <c r="M2">
-        <v>10000000</v>
+        <v>200000</v>
       </c>
       <c r="N2">
-        <v>10000000</v>
+        <v>200000</v>
       </c>
       <c r="O2">
-        <v>10000000</v>
+        <v>200000</v>
       </c>
       <c r="P2">
-        <v>10000000</v>
+        <v>200000</v>
       </c>
       <c r="Q2">
-        <v>10000000</v>
+        <v>200000</v>
       </c>
       <c r="R2">
-        <v>10000000</v>
+        <v>200000</v>
       </c>
       <c r="S2">
-        <v>10000000</v>
+        <v>200000</v>
       </c>
       <c r="T2">
-        <v>10000000</v>
+        <v>200000</v>
       </c>
       <c r="U2">
-        <v>10000000</v>
+        <v>200000</v>
       </c>
       <c r="V2">
-        <v>10000000</v>
+        <v>200000</v>
       </c>
       <c r="W2">
-        <v>10000000</v>
+        <v>200000</v>
       </c>
       <c r="X2">
-        <v>10000000</v>
+        <v>200000</v>
       </c>
       <c r="Y2">
-        <v>10000000</v>
+        <v>200000</v>
       </c>
       <c r="Z2">
-        <v>10000000</v>
+        <v>200000</v>
       </c>
       <c r="AA2">
-        <v>10000000</v>
+        <v>200000</v>
       </c>
     </row>
   </sheetData>

--- a/database/steel_data.xlsx
+++ b/database/steel_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\PLANiT\github\macc_steel\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1120D8E7-C1C1-485F-A2EA-67D95261F94F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2CBE8C-142E-4742-9DC5-FE8D3731E2E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21696" yWindow="2880" windowWidth="23760" windowHeight="19476" tabRatio="620" activeTab="8" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
+    <workbookView xWindow="10296" yWindow="2844" windowWidth="23760" windowHeight="19476" tabRatio="620" activeTab="1" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="18" r:id="rId1"/>
@@ -3960,8 +3960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B80F836-AAFA-4D20-813C-A31BE68F85E1}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4006,7 +4006,7 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="F2">
         <v>2017</v>
@@ -4026,7 +4026,7 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="F3">
         <v>2023</v>
@@ -4046,7 +4046,7 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F4">
         <v>2022</v>
@@ -4066,7 +4066,7 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F5">
         <v>2019</v>
@@ -6550,8 +6550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E46CCB1-2754-42FA-B5C9-8DABA83A320C}">
   <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:AA2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -6651,84 +6651,79 @@
         <v>10000000</v>
       </c>
       <c r="C2">
-        <f>B2*0.5</f>
-        <v>5000000</v>
+        <v>10000000</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:F2" si="0">C2*0.5</f>
-        <v>2500000</v>
+        <v>10000000</v>
       </c>
       <c r="E2">
-        <f t="shared" si="0"/>
-        <v>1250000</v>
+        <v>10000000</v>
       </c>
       <c r="F2">
-        <f t="shared" si="0"/>
-        <v>625000</v>
+        <v>10000000</v>
       </c>
       <c r="G2">
-        <f>F2*0.7</f>
-        <v>437500</v>
+        <v>10000000</v>
       </c>
       <c r="H2">
-        <v>200000</v>
+        <v>10000000</v>
       </c>
       <c r="I2">
-        <v>200000</v>
+        <v>10000000</v>
       </c>
       <c r="J2">
-        <v>200000</v>
+        <v>10000000</v>
       </c>
       <c r="K2">
-        <v>200000</v>
+        <v>10000000</v>
       </c>
       <c r="L2">
-        <v>200000</v>
+        <v>10000000</v>
       </c>
       <c r="M2">
-        <v>200000</v>
+        <v>10000000</v>
       </c>
       <c r="N2">
-        <v>200000</v>
+        <v>10000000</v>
       </c>
       <c r="O2">
-        <v>200000</v>
+        <v>10000000</v>
       </c>
       <c r="P2">
-        <v>200000</v>
+        <v>10000000</v>
       </c>
       <c r="Q2">
-        <v>200000</v>
+        <v>10000000</v>
       </c>
       <c r="R2">
-        <v>200000</v>
+        <v>10000000</v>
       </c>
       <c r="S2">
-        <v>200000</v>
+        <v>10000000</v>
       </c>
       <c r="T2">
-        <v>200000</v>
+        <v>10000000</v>
       </c>
       <c r="U2">
-        <v>200000</v>
+        <v>10000000</v>
       </c>
       <c r="V2">
-        <v>200000</v>
+        <v>10000000</v>
       </c>
       <c r="W2">
-        <v>200000</v>
+        <v>10000000</v>
       </c>
       <c r="X2">
-        <v>200000</v>
+        <v>10000000</v>
       </c>
       <c r="Y2">
-        <v>200000</v>
+        <v>10000000</v>
       </c>
       <c r="Z2">
-        <v>200000</v>
+        <v>10000000</v>
       </c>
       <c r="AA2">
-        <v>200000</v>
+        <v>10000000</v>
       </c>
     </row>
   </sheetData>

--- a/database/steel_data.xlsx
+++ b/database/steel_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\PLANiT\github\macc_steel\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2CBE8C-142E-4742-9DC5-FE8D3731E2E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2693B181-FB71-46EF-94DD-901BA935CA75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10296" yWindow="2844" windowWidth="23760" windowHeight="19476" tabRatio="620" activeTab="1" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
+    <workbookView xWindow="10296" yWindow="2844" windowWidth="23760" windowHeight="19476" tabRatio="620" firstSheet="9" activeTab="13" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="18" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="54">
   <si>
     <t>BF-BOF</t>
   </si>
@@ -2300,8 +2300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83A8B42D-00EB-470C-A0D2-7C21A6CB877B}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2333,13 +2333,13 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
@@ -2347,7 +2347,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2358,55 +2358,37 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9">
-        <v>0.2</v>
-      </c>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3960,7 +3942,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B80F836-AAFA-4D20-813C-A31BE68F85E1}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>

--- a/database/steel_data.xlsx
+++ b/database/steel_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\PLANiT\github\macc_steel\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2693B181-FB71-46EF-94DD-901BA935CA75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED2E909-18D3-42C5-BB5F-617C161BD252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10296" yWindow="2844" windowWidth="23760" windowHeight="19476" tabRatio="620" firstSheet="9" activeTab="13" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
+    <workbookView xWindow="14700" yWindow="2064" windowWidth="23760" windowHeight="19476" tabRatio="620" firstSheet="12" activeTab="12" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="18" r:id="rId1"/>
@@ -2171,8 +2171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8A5865B-B011-402F-A09D-739FDD6B0E90}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2199,7 +2199,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
@@ -2210,7 +2210,7 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
@@ -2300,7 +2300,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83A8B42D-00EB-470C-A0D2-7C21A6CB877B}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:C7"/>
     </sheetView>
   </sheetViews>
@@ -2401,7 +2401,7 @@
   <dimension ref="A1:AA6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:AA2"/>
+      <selection activeCell="B6" sqref="B6:AA6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2494,82 +2494,82 @@
         <v>5</v>
       </c>
       <c r="B2" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C2" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D2" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E2" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F2" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G2" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H2" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I2" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J2" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K2" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L2" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M2" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N2" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O2" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P2" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q2" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R2" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S2" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T2" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U2" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V2" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W2" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X2" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y2" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z2" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AA2" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
@@ -2826,82 +2826,82 @@
         <v>9</v>
       </c>
       <c r="B6" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C6" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D6" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E6" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F6" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G6" s="5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H6" s="5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I6" s="5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J6" s="5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K6" s="5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L6" s="5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M6" s="5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N6" s="5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O6" s="5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P6" s="5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R6" s="5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S6" s="5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="T6" s="5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="U6" s="5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="V6" s="5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="W6" s="5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="X6" s="5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AA6" s="5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6532,8 +6532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E46CCB1-2754-42FA-B5C9-8DABA83A320C}">
   <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:AA2"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2:AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -6633,79 +6633,98 @@
         <v>10000000</v>
       </c>
       <c r="C2">
-        <v>10000000</v>
+        <f>B2*0.5</f>
+        <v>5000000</v>
       </c>
       <c r="D2">
-        <v>10000000</v>
+        <f>C2</f>
+        <v>5000000</v>
       </c>
       <c r="E2">
-        <v>10000000</v>
+        <f t="shared" ref="E2:F2" si="0">D2</f>
+        <v>5000000</v>
       </c>
       <c r="F2">
-        <v>10000000</v>
+        <f t="shared" si="0"/>
+        <v>5000000</v>
       </c>
       <c r="G2">
-        <v>10000000</v>
+        <f>F2*0.5</f>
+        <v>2500000</v>
       </c>
       <c r="H2">
-        <v>10000000</v>
+        <f>G2</f>
+        <v>2500000</v>
       </c>
       <c r="I2">
-        <v>10000000</v>
+        <f t="shared" ref="I2:K2" si="1">H2</f>
+        <v>2500000</v>
       </c>
       <c r="J2">
-        <v>10000000</v>
+        <f t="shared" si="1"/>
+        <v>2500000</v>
       </c>
       <c r="K2">
-        <v>10000000</v>
+        <f t="shared" si="1"/>
+        <v>2500000</v>
       </c>
       <c r="L2">
-        <v>10000000</v>
+        <f>K2*0.5</f>
+        <v>1250000</v>
       </c>
       <c r="M2">
-        <v>10000000</v>
+        <f>L2</f>
+        <v>1250000</v>
       </c>
       <c r="N2">
-        <v>10000000</v>
+        <f t="shared" ref="N2:U2" si="2">M2</f>
+        <v>1250000</v>
       </c>
       <c r="O2">
-        <v>10000000</v>
+        <f t="shared" si="2"/>
+        <v>1250000</v>
       </c>
       <c r="P2">
-        <v>10000000</v>
+        <f t="shared" si="2"/>
+        <v>1250000</v>
       </c>
       <c r="Q2">
-        <v>10000000</v>
+        <f t="shared" si="2"/>
+        <v>1250000</v>
       </c>
       <c r="R2">
-        <v>10000000</v>
+        <f t="shared" si="2"/>
+        <v>1250000</v>
       </c>
       <c r="S2">
-        <v>10000000</v>
+        <f t="shared" si="2"/>
+        <v>1250000</v>
       </c>
       <c r="T2">
-        <v>10000000</v>
+        <f t="shared" si="2"/>
+        <v>1250000</v>
       </c>
       <c r="U2">
-        <v>10000000</v>
+        <f t="shared" si="2"/>
+        <v>1250000</v>
       </c>
       <c r="V2">
-        <v>10000000</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>10000000</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>10000000</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>10000000</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>10000000</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>10000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/database/steel_data.xlsx
+++ b/database/steel_data.xlsx
@@ -8,20 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\PLANiT\github\macc_steel\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED2E909-18D3-42C5-BB5F-617C161BD252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB20CF58-D683-4D95-B1EA-AA94F2EDB4A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14700" yWindow="2064" windowWidth="23760" windowHeight="19476" tabRatio="620" firstSheet="12" activeTab="12" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
+    <workbookView xWindow="-28910" yWindow="-110" windowWidth="29020" windowHeight="17500" tabRatio="620" firstSheet="7" activeTab="12" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="18" r:id="rId1"/>
     <sheet name="baseline" sheetId="7" r:id="rId2"/>
-    <sheet name="emission_system" sheetId="24" r:id="rId3"/>
-    <sheet name="capex" sheetId="13" r:id="rId4"/>
-    <sheet name="opex" sheetId="14" r:id="rId5"/>
-    <sheet name="renewal" sheetId="15" r:id="rId6"/>
-    <sheet name="technology" sheetId="19" r:id="rId7"/>
-    <sheet name="technology_ei" sheetId="21" r:id="rId8"/>
-    <sheet name="emission" sheetId="23" r:id="rId9"/>
+    <sheet name="capex" sheetId="13" r:id="rId3"/>
+    <sheet name="opex" sheetId="14" r:id="rId4"/>
+    <sheet name="renewal" sheetId="15" r:id="rId5"/>
+    <sheet name="technology" sheetId="19" r:id="rId6"/>
+    <sheet name="technology_ei" sheetId="21" r:id="rId7"/>
+    <sheet name="emission" sheetId="23" r:id="rId8"/>
+    <sheet name="emission_system" sheetId="24" r:id="rId9"/>
     <sheet name="material_cost" sheetId="11" r:id="rId10"/>
     <sheet name="material_emission" sheetId="12" r:id="rId11"/>
     <sheet name="material_efficiency" sheetId="17" r:id="rId12"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="55">
   <si>
     <t>BF-BOF</t>
   </si>
@@ -255,6 +255,10 @@
   </si>
   <si>
     <t>global</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>min</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2169,10 +2173,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8A5865B-B011-402F-A09D-739FDD6B0E90}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2180,7 +2184,7 @@
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -2190,8 +2194,11 @@
       <c r="C1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2199,10 +2206,13 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -2210,10 +2220,13 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+        <v>0.5</v>
+      </c>
+      <c r="D3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -2221,10 +2234,13 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+        <v>0.4</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -2234,8 +2250,11 @@
       <c r="C5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -2243,10 +2262,13 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+        <v>0.2</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
@@ -2256,8 +2278,11 @@
       <c r="C7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
@@ -2265,10 +2290,13 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>0.2</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>49</v>
       </c>
@@ -2278,8 +2306,11 @@
       <c r="C9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="D9">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>49</v>
       </c>
@@ -2287,7 +2318,10 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2298,10 +2332,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83A8B42D-00EB-470C-A0D2-7C21A6CB877B}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2309,7 +2343,7 @@
     <col min="3" max="3" width="9.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -2319,8 +2353,11 @@
       <c r="C1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2330,65 +2367,107 @@
       <c r="C2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+        <v>0.5</v>
+      </c>
+      <c r="D3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>0.2</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9">
+        <v>0.2</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -4061,440 +4140,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E683ACB1-236C-41D9-AD28-376C61929EF9}">
-  <dimension ref="A1:AA5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="2" max="2" width="9.3984375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1">
-        <v>2025</v>
-      </c>
-      <c r="C1">
-        <v>2026</v>
-      </c>
-      <c r="D1">
-        <v>2027</v>
-      </c>
-      <c r="E1">
-        <v>2028</v>
-      </c>
-      <c r="F1">
-        <v>2029</v>
-      </c>
-      <c r="G1">
-        <v>2030</v>
-      </c>
-      <c r="H1">
-        <v>2031</v>
-      </c>
-      <c r="I1">
-        <v>2032</v>
-      </c>
-      <c r="J1">
-        <v>2033</v>
-      </c>
-      <c r="K1">
-        <v>2034</v>
-      </c>
-      <c r="L1">
-        <v>2035</v>
-      </c>
-      <c r="M1">
-        <v>2036</v>
-      </c>
-      <c r="N1">
-        <v>2037</v>
-      </c>
-      <c r="O1">
-        <v>2038</v>
-      </c>
-      <c r="P1">
-        <v>2039</v>
-      </c>
-      <c r="Q1">
-        <v>2040</v>
-      </c>
-      <c r="R1">
-        <v>2041</v>
-      </c>
-      <c r="S1">
-        <v>2042</v>
-      </c>
-      <c r="T1">
-        <v>2043</v>
-      </c>
-      <c r="U1">
-        <v>2044</v>
-      </c>
-      <c r="V1">
-        <v>2045</v>
-      </c>
-      <c r="W1">
-        <v>2046</v>
-      </c>
-      <c r="X1">
-        <v>2047</v>
-      </c>
-      <c r="Y1">
-        <v>2048</v>
-      </c>
-      <c r="Z1">
-        <v>2049</v>
-      </c>
-      <c r="AA1">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2">
-        <v>99999999</v>
-      </c>
-      <c r="C2">
-        <v>1000000</v>
-      </c>
-      <c r="D2">
-        <v>1000000</v>
-      </c>
-      <c r="E2">
-        <v>1000000</v>
-      </c>
-      <c r="F2">
-        <v>1000000</v>
-      </c>
-      <c r="G2">
-        <v>1000000</v>
-      </c>
-      <c r="H2">
-        <v>1000000</v>
-      </c>
-      <c r="I2">
-        <v>1000000</v>
-      </c>
-      <c r="J2">
-        <v>1000000</v>
-      </c>
-      <c r="K2">
-        <v>1000000</v>
-      </c>
-      <c r="L2">
-        <v>1000000</v>
-      </c>
-      <c r="M2">
-        <v>1000000</v>
-      </c>
-      <c r="N2">
-        <v>1000000</v>
-      </c>
-      <c r="O2">
-        <v>1000000</v>
-      </c>
-      <c r="P2">
-        <v>1000000</v>
-      </c>
-      <c r="Q2">
-        <v>1000000</v>
-      </c>
-      <c r="R2">
-        <v>1000000</v>
-      </c>
-      <c r="S2">
-        <v>1000000</v>
-      </c>
-      <c r="T2">
-        <v>1000000</v>
-      </c>
-      <c r="U2">
-        <v>1000000</v>
-      </c>
-      <c r="V2">
-        <v>1000000</v>
-      </c>
-      <c r="W2">
-        <v>1000000</v>
-      </c>
-      <c r="X2">
-        <v>1000000</v>
-      </c>
-      <c r="Y2">
-        <v>1000000</v>
-      </c>
-      <c r="Z2">
-        <v>1000000</v>
-      </c>
-      <c r="AA2">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3">
-        <v>99999999</v>
-      </c>
-      <c r="C3">
-        <v>1000000</v>
-      </c>
-      <c r="D3">
-        <v>1000000</v>
-      </c>
-      <c r="E3">
-        <v>1000000</v>
-      </c>
-      <c r="F3">
-        <v>1000000</v>
-      </c>
-      <c r="G3">
-        <v>1000000</v>
-      </c>
-      <c r="H3">
-        <v>1000000</v>
-      </c>
-      <c r="I3">
-        <v>1000000</v>
-      </c>
-      <c r="J3">
-        <v>1000000</v>
-      </c>
-      <c r="K3">
-        <v>1000000</v>
-      </c>
-      <c r="L3">
-        <v>1000000</v>
-      </c>
-      <c r="M3">
-        <v>1000000</v>
-      </c>
-      <c r="N3">
-        <v>1000000</v>
-      </c>
-      <c r="O3">
-        <v>1000000</v>
-      </c>
-      <c r="P3">
-        <v>1000000</v>
-      </c>
-      <c r="Q3">
-        <v>1000000</v>
-      </c>
-      <c r="R3">
-        <v>1000000</v>
-      </c>
-      <c r="S3">
-        <v>1000000</v>
-      </c>
-      <c r="T3">
-        <v>1000000</v>
-      </c>
-      <c r="U3">
-        <v>1000000</v>
-      </c>
-      <c r="V3">
-        <v>1000000</v>
-      </c>
-      <c r="W3">
-        <v>1000000</v>
-      </c>
-      <c r="X3">
-        <v>1000000</v>
-      </c>
-      <c r="Y3">
-        <v>1000000</v>
-      </c>
-      <c r="Z3">
-        <v>1000000</v>
-      </c>
-      <c r="AA3">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4">
-        <v>99999999</v>
-      </c>
-      <c r="C4">
-        <v>100000</v>
-      </c>
-      <c r="D4">
-        <v>100000</v>
-      </c>
-      <c r="E4">
-        <v>100000</v>
-      </c>
-      <c r="F4">
-        <v>100000</v>
-      </c>
-      <c r="G4">
-        <v>100000</v>
-      </c>
-      <c r="H4">
-        <v>100000</v>
-      </c>
-      <c r="I4">
-        <v>100000</v>
-      </c>
-      <c r="J4">
-        <v>100000</v>
-      </c>
-      <c r="K4">
-        <v>100000</v>
-      </c>
-      <c r="L4">
-        <v>100000</v>
-      </c>
-      <c r="M4">
-        <v>100000</v>
-      </c>
-      <c r="N4">
-        <v>100000</v>
-      </c>
-      <c r="O4">
-        <v>100000</v>
-      </c>
-      <c r="P4">
-        <v>100000</v>
-      </c>
-      <c r="Q4">
-        <v>100000</v>
-      </c>
-      <c r="R4">
-        <v>100000</v>
-      </c>
-      <c r="S4">
-        <v>100000</v>
-      </c>
-      <c r="T4">
-        <v>100000</v>
-      </c>
-      <c r="U4">
-        <v>100000</v>
-      </c>
-      <c r="V4">
-        <v>100000</v>
-      </c>
-      <c r="W4">
-        <v>100000</v>
-      </c>
-      <c r="X4">
-        <v>100000</v>
-      </c>
-      <c r="Y4">
-        <v>100000</v>
-      </c>
-      <c r="Z4">
-        <v>100000</v>
-      </c>
-      <c r="AA4">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5">
-        <v>99999999</v>
-      </c>
-      <c r="C5">
-        <v>100000</v>
-      </c>
-      <c r="D5">
-        <v>100000</v>
-      </c>
-      <c r="E5">
-        <v>100000</v>
-      </c>
-      <c r="F5">
-        <v>100000</v>
-      </c>
-      <c r="G5">
-        <v>100000</v>
-      </c>
-      <c r="H5">
-        <v>100000</v>
-      </c>
-      <c r="I5">
-        <v>100000</v>
-      </c>
-      <c r="J5">
-        <v>100000</v>
-      </c>
-      <c r="K5">
-        <v>100000</v>
-      </c>
-      <c r="L5">
-        <v>100000</v>
-      </c>
-      <c r="M5">
-        <v>100000</v>
-      </c>
-      <c r="N5">
-        <v>100000</v>
-      </c>
-      <c r="O5">
-        <v>100000</v>
-      </c>
-      <c r="P5">
-        <v>100000</v>
-      </c>
-      <c r="Q5">
-        <v>100000</v>
-      </c>
-      <c r="R5">
-        <v>100000</v>
-      </c>
-      <c r="S5">
-        <v>100000</v>
-      </c>
-      <c r="T5">
-        <v>100000</v>
-      </c>
-      <c r="U5">
-        <v>100000</v>
-      </c>
-      <c r="V5">
-        <v>100000</v>
-      </c>
-      <c r="W5">
-        <v>100000</v>
-      </c>
-      <c r="X5">
-        <v>100000</v>
-      </c>
-      <c r="Y5">
-        <v>100000</v>
-      </c>
-      <c r="Z5">
-        <v>100000</v>
-      </c>
-      <c r="AA5">
-        <v>100000</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E234AF8D-964B-419F-969D-C9FD34B2C8AE}">
   <dimension ref="A1:AA5"/>
   <sheetViews>
@@ -4951,7 +4596,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39EC2A4D-93DC-4E45-8627-2A75EDF5181B}">
   <dimension ref="A1:AA5"/>
   <sheetViews>
@@ -5486,7 +5131,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A18CEE6-4CB2-4E28-86E1-E84E657A73A8}">
   <dimension ref="A1:AA5"/>
   <sheetViews>
@@ -6021,7 +5666,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED5339A0-3D98-43CE-86F7-53EF60721306}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -6097,7 +5742,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F464A74C-C8AE-4B5D-B335-B05DB5565181}">
   <dimension ref="A1:AA5"/>
   <sheetViews>
@@ -6528,17 +6173,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E46CCB1-2754-42FA-B5C9-8DABA83A320C}">
   <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2:AA2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.3984375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6630,101 +6275,556 @@
         <v>53</v>
       </c>
       <c r="B2">
+        <v>999999999</v>
+      </c>
+      <c r="C2">
+        <v>999999999</v>
+      </c>
+      <c r="D2">
+        <v>999999999</v>
+      </c>
+      <c r="E2">
+        <v>999999999</v>
+      </c>
+      <c r="F2">
+        <v>999999999</v>
+      </c>
+      <c r="G2">
+        <v>999999999</v>
+      </c>
+      <c r="H2">
+        <v>999999999</v>
+      </c>
+      <c r="I2">
+        <v>999999999</v>
+      </c>
+      <c r="J2">
+        <v>999999999</v>
+      </c>
+      <c r="K2">
+        <v>999999999</v>
+      </c>
+      <c r="L2">
+        <v>999999999</v>
+      </c>
+      <c r="M2">
+        <v>999999999</v>
+      </c>
+      <c r="N2">
+        <v>999999999</v>
+      </c>
+      <c r="O2">
+        <v>999999999</v>
+      </c>
+      <c r="P2">
+        <v>999999999</v>
+      </c>
+      <c r="Q2">
+        <v>999999999</v>
+      </c>
+      <c r="R2">
+        <v>999999999</v>
+      </c>
+      <c r="S2">
+        <v>999999999</v>
+      </c>
+      <c r="T2">
+        <v>999999999</v>
+      </c>
+      <c r="U2">
+        <v>999999999</v>
+      </c>
+      <c r="V2">
+        <v>999999999</v>
+      </c>
+      <c r="W2">
+        <v>999999999</v>
+      </c>
+      <c r="X2">
+        <v>999999999</v>
+      </c>
+      <c r="Y2">
+        <v>999999999</v>
+      </c>
+      <c r="Z2">
+        <v>999999999</v>
+      </c>
+      <c r="AA2">
+        <v>999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E683ACB1-236C-41D9-AD28-376C61929EF9}">
+  <dimension ref="A1:AA5"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3:AA5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="3" width="9.3984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1">
+        <v>2025</v>
+      </c>
+      <c r="C1">
+        <v>2026</v>
+      </c>
+      <c r="D1">
+        <v>2027</v>
+      </c>
+      <c r="E1">
+        <v>2028</v>
+      </c>
+      <c r="F1">
+        <v>2029</v>
+      </c>
+      <c r="G1">
+        <v>2030</v>
+      </c>
+      <c r="H1">
+        <v>2031</v>
+      </c>
+      <c r="I1">
+        <v>2032</v>
+      </c>
+      <c r="J1">
+        <v>2033</v>
+      </c>
+      <c r="K1">
+        <v>2034</v>
+      </c>
+      <c r="L1">
+        <v>2035</v>
+      </c>
+      <c r="M1">
+        <v>2036</v>
+      </c>
+      <c r="N1">
+        <v>2037</v>
+      </c>
+      <c r="O1">
+        <v>2038</v>
+      </c>
+      <c r="P1">
+        <v>2039</v>
+      </c>
+      <c r="Q1">
+        <v>2040</v>
+      </c>
+      <c r="R1">
+        <v>2041</v>
+      </c>
+      <c r="S1">
+        <v>2042</v>
+      </c>
+      <c r="T1">
+        <v>2043</v>
+      </c>
+      <c r="U1">
+        <v>2044</v>
+      </c>
+      <c r="V1">
+        <v>2045</v>
+      </c>
+      <c r="W1">
+        <v>2046</v>
+      </c>
+      <c r="X1">
+        <v>2047</v>
+      </c>
+      <c r="Y1">
+        <v>2048</v>
+      </c>
+      <c r="Z1">
+        <v>2049</v>
+      </c>
+      <c r="AA1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>99999999</v>
+      </c>
+      <c r="C2">
         <v>10000000</v>
       </c>
-      <c r="C2">
-        <f>B2*0.5</f>
+      <c r="D2">
+        <v>10000000</v>
+      </c>
+      <c r="E2">
+        <v>10000000</v>
+      </c>
+      <c r="F2">
+        <v>10000000</v>
+      </c>
+      <c r="G2">
+        <v>10000000</v>
+      </c>
+      <c r="H2">
+        <f>G2/2</f>
         <v>5000000</v>
       </c>
-      <c r="D2">
-        <f>C2</f>
-        <v>5000000</v>
-      </c>
-      <c r="E2">
-        <f t="shared" ref="E2:F2" si="0">D2</f>
-        <v>5000000</v>
-      </c>
-      <c r="F2">
-        <f t="shared" si="0"/>
-        <v>5000000</v>
-      </c>
-      <c r="G2">
-        <f>F2*0.5</f>
+      <c r="I2">
+        <f t="shared" ref="I2:AA3" si="0">H2/2</f>
         <v>2500000</v>
       </c>
-      <c r="H2">
-        <f>G2</f>
+      <c r="J2">
+        <f>I2</f>
         <v>2500000</v>
       </c>
-      <c r="I2">
-        <f t="shared" ref="I2:K2" si="1">H2</f>
+      <c r="K2">
+        <f t="shared" ref="K2:AA3" si="1">J2</f>
         <v>2500000</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <f t="shared" si="1"/>
         <v>2500000</v>
       </c>
-      <c r="K2">
+      <c r="M2">
         <f t="shared" si="1"/>
         <v>2500000</v>
       </c>
-      <c r="L2">
-        <f>K2*0.5</f>
-        <v>1250000</v>
-      </c>
-      <c r="M2">
-        <f>L2</f>
-        <v>1250000</v>
-      </c>
       <c r="N2">
-        <f t="shared" ref="N2:U2" si="2">M2</f>
-        <v>1250000</v>
+        <f t="shared" si="1"/>
+        <v>2500000</v>
       </c>
       <c r="O2">
-        <f t="shared" si="2"/>
-        <v>1250000</v>
+        <f t="shared" si="1"/>
+        <v>2500000</v>
       </c>
       <c r="P2">
-        <f t="shared" si="2"/>
-        <v>1250000</v>
+        <f t="shared" si="1"/>
+        <v>2500000</v>
       </c>
       <c r="Q2">
-        <f t="shared" si="2"/>
-        <v>1250000</v>
+        <f t="shared" si="1"/>
+        <v>2500000</v>
       </c>
       <c r="R2">
-        <f t="shared" si="2"/>
-        <v>1250000</v>
+        <f t="shared" si="1"/>
+        <v>2500000</v>
       </c>
       <c r="S2">
-        <f t="shared" si="2"/>
-        <v>1250000</v>
+        <f t="shared" si="1"/>
+        <v>2500000</v>
       </c>
       <c r="T2">
-        <f t="shared" si="2"/>
-        <v>1250000</v>
+        <f t="shared" si="1"/>
+        <v>2500000</v>
       </c>
       <c r="U2">
-        <f t="shared" si="2"/>
-        <v>1250000</v>
+        <f t="shared" si="1"/>
+        <v>2500000</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2500000</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2500000</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2500000</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2500000</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2500000</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>99999999</v>
+      </c>
+      <c r="C3">
+        <v>10000000</v>
+      </c>
+      <c r="D3">
+        <v>10000000</v>
+      </c>
+      <c r="E3">
+        <v>10000000</v>
+      </c>
+      <c r="F3">
+        <v>10000000</v>
+      </c>
+      <c r="G3">
+        <v>10000000</v>
+      </c>
+      <c r="H3">
+        <f>G3/2</f>
+        <v>5000000</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="0"/>
+        <v>2500000</v>
+      </c>
+      <c r="J3">
+        <f>I3</f>
+        <v>2500000</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="1"/>
+        <v>2500000</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="1"/>
+        <v>2500000</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="1"/>
+        <v>2500000</v>
+      </c>
+      <c r="N3">
+        <f t="shared" si="1"/>
+        <v>2500000</v>
+      </c>
+      <c r="O3">
+        <f t="shared" si="1"/>
+        <v>2500000</v>
+      </c>
+      <c r="P3">
+        <f t="shared" si="1"/>
+        <v>2500000</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" si="1"/>
+        <v>2500000</v>
+      </c>
+      <c r="R3">
+        <f t="shared" si="1"/>
+        <v>2500000</v>
+      </c>
+      <c r="S3">
+        <f t="shared" si="1"/>
+        <v>2500000</v>
+      </c>
+      <c r="T3">
+        <f t="shared" si="1"/>
+        <v>2500000</v>
+      </c>
+      <c r="U3">
+        <f t="shared" si="1"/>
+        <v>2500000</v>
+      </c>
+      <c r="V3">
+        <f t="shared" si="1"/>
+        <v>2500000</v>
+      </c>
+      <c r="W3">
+        <f t="shared" si="1"/>
+        <v>2500000</v>
+      </c>
+      <c r="X3">
+        <f t="shared" si="1"/>
+        <v>2500000</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" si="1"/>
+        <v>2500000</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" si="1"/>
+        <v>2500000</v>
+      </c>
+      <c r="AA3">
+        <f t="shared" si="1"/>
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>99999999</v>
+      </c>
+      <c r="C4">
+        <v>10000000</v>
+      </c>
+      <c r="D4">
+        <v>10000000</v>
+      </c>
+      <c r="E4">
+        <v>10000000</v>
+      </c>
+      <c r="F4">
+        <v>10000000</v>
+      </c>
+      <c r="G4">
+        <v>10000000</v>
+      </c>
+      <c r="H4">
+        <v>500000</v>
+      </c>
+      <c r="I4">
+        <v>500000</v>
+      </c>
+      <c r="J4">
+        <v>500000</v>
+      </c>
+      <c r="K4">
+        <v>500000</v>
+      </c>
+      <c r="L4">
+        <v>500000</v>
+      </c>
+      <c r="M4">
+        <v>500000</v>
+      </c>
+      <c r="N4">
+        <v>500000</v>
+      </c>
+      <c r="O4">
+        <v>500000</v>
+      </c>
+      <c r="P4">
+        <v>500000</v>
+      </c>
+      <c r="Q4">
+        <v>500000</v>
+      </c>
+      <c r="R4">
+        <v>500000</v>
+      </c>
+      <c r="S4">
+        <v>500000</v>
+      </c>
+      <c r="T4">
+        <v>500000</v>
+      </c>
+      <c r="U4">
+        <v>500000</v>
+      </c>
+      <c r="V4">
+        <v>500000</v>
+      </c>
+      <c r="W4">
+        <v>500000</v>
+      </c>
+      <c r="X4">
+        <v>500000</v>
+      </c>
+      <c r="Y4">
+        <v>500000</v>
+      </c>
+      <c r="Z4">
+        <v>500000</v>
+      </c>
+      <c r="AA4">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>99999999</v>
+      </c>
+      <c r="C5">
+        <v>10000000</v>
+      </c>
+      <c r="D5">
+        <v>10000000</v>
+      </c>
+      <c r="E5">
+        <v>10000000</v>
+      </c>
+      <c r="F5">
+        <v>10000000</v>
+      </c>
+      <c r="G5">
+        <v>10000000</v>
+      </c>
+      <c r="H5">
+        <v>500000</v>
+      </c>
+      <c r="I5">
+        <v>500000</v>
+      </c>
+      <c r="J5">
+        <v>500000</v>
+      </c>
+      <c r="K5">
+        <v>500000</v>
+      </c>
+      <c r="L5">
+        <v>500000</v>
+      </c>
+      <c r="M5">
+        <v>500000</v>
+      </c>
+      <c r="N5">
+        <v>500000</v>
+      </c>
+      <c r="O5">
+        <v>500000</v>
+      </c>
+      <c r="P5">
+        <v>500000</v>
+      </c>
+      <c r="Q5">
+        <v>500000</v>
+      </c>
+      <c r="R5">
+        <v>500000</v>
+      </c>
+      <c r="S5">
+        <v>500000</v>
+      </c>
+      <c r="T5">
+        <v>500000</v>
+      </c>
+      <c r="U5">
+        <v>500000</v>
+      </c>
+      <c r="V5">
+        <v>500000</v>
+      </c>
+      <c r="W5">
+        <v>500000</v>
+      </c>
+      <c r="X5">
+        <v>500000</v>
+      </c>
+      <c r="Y5">
+        <v>500000</v>
+      </c>
+      <c r="Z5">
+        <v>500000</v>
+      </c>
+      <c r="AA5">
+        <v>500000</v>
       </c>
     </row>
   </sheetData>

--- a/database/steel_data.xlsx
+++ b/database/steel_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\PLANiT\github\macc_steel\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB20CF58-D683-4D95-B1EA-AA94F2EDB4A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E74D71-E2FA-4D68-81B9-C5A3EE732C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28910" yWindow="-110" windowWidth="29020" windowHeight="17500" tabRatio="620" firstSheet="7" activeTab="12" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
+    <workbookView xWindow="-28910" yWindow="-110" windowWidth="29020" windowHeight="17500" tabRatio="620" firstSheet="7" activeTab="7" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="18" r:id="rId1"/>
@@ -2175,7 +2175,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8A5865B-B011-402F-A09D-739FDD6B0E90}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -6177,8 +6177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E46CCB1-2754-42FA-B5C9-8DABA83A320C}">
   <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -6275,82 +6275,98 @@
         <v>53</v>
       </c>
       <c r="B2">
-        <v>999999999</v>
+        <v>4000000</v>
       </c>
       <c r="C2">
-        <v>999999999</v>
+        <v>4000000</v>
       </c>
       <c r="D2">
-        <v>999999999</v>
+        <v>4000000</v>
       </c>
       <c r="E2">
-        <v>999999999</v>
+        <v>4000000</v>
       </c>
       <c r="F2">
-        <v>999999999</v>
+        <v>4000000</v>
       </c>
       <c r="G2">
-        <v>999999999</v>
+        <f>F2*50%</f>
+        <v>2000000</v>
       </c>
       <c r="H2">
-        <v>999999999</v>
+        <f>G2</f>
+        <v>2000000</v>
       </c>
       <c r="I2">
-        <v>999999999</v>
+        <f t="shared" ref="I2:L2" si="0">H2</f>
+        <v>2000000</v>
       </c>
       <c r="J2">
-        <v>999999999</v>
+        <f t="shared" si="0"/>
+        <v>2000000</v>
       </c>
       <c r="K2">
-        <v>999999999</v>
+        <f t="shared" si="0"/>
+        <v>2000000</v>
       </c>
       <c r="L2">
-        <v>999999999</v>
+        <f t="shared" si="0"/>
+        <v>2000000</v>
       </c>
       <c r="M2">
-        <v>999999999</v>
+        <f>L2*25%</f>
+        <v>500000</v>
       </c>
       <c r="N2">
-        <v>999999999</v>
+        <f>M2</f>
+        <v>500000</v>
       </c>
       <c r="O2">
-        <v>999999999</v>
+        <f t="shared" ref="O2:Q2" si="1">N2</f>
+        <v>500000</v>
       </c>
       <c r="P2">
-        <v>999999999</v>
+        <f t="shared" si="1"/>
+        <v>500000</v>
       </c>
       <c r="Q2">
-        <v>999999999</v>
+        <f t="shared" si="1"/>
+        <v>500000</v>
       </c>
       <c r="R2">
-        <v>999999999</v>
+        <f>Q2*0.5</f>
+        <v>250000</v>
       </c>
       <c r="S2">
-        <v>999999999</v>
+        <f>R2*0.5</f>
+        <v>125000</v>
       </c>
       <c r="T2">
-        <v>999999999</v>
+        <f>S2*0.5</f>
+        <v>62500</v>
       </c>
       <c r="U2">
-        <v>999999999</v>
+        <f>T2*0.5</f>
+        <v>31250</v>
       </c>
       <c r="V2">
-        <v>999999999</v>
+        <f>U2*0.5</f>
+        <v>15625</v>
       </c>
       <c r="W2">
-        <v>999999999</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>999999999</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>999999999</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>999999999</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>999999999</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6363,8 +6379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E683ACB1-236C-41D9-AD28-376C61929EF9}">
   <dimension ref="A1:AA5"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:AA5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>

--- a/database/steel_data.xlsx
+++ b/database/steel_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\PLANiT\github\macc_steel\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E74D71-E2FA-4D68-81B9-C5A3EE732C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1394C2C-0311-4042-BC60-D556E43F6324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28910" yWindow="-110" windowWidth="29020" windowHeight="17500" tabRatio="620" firstSheet="7" activeTab="7" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
+    <workbookView xWindow="-28910" yWindow="-110" windowWidth="29020" windowHeight="17500" tabRatio="620" activeTab="8" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="18" r:id="rId1"/>
@@ -21,15 +21,16 @@
     <sheet name="technology" sheetId="19" r:id="rId6"/>
     <sheet name="technology_ei" sheetId="21" r:id="rId7"/>
     <sheet name="emission" sheetId="23" r:id="rId8"/>
-    <sheet name="emission_system" sheetId="24" r:id="rId9"/>
-    <sheet name="material_cost" sheetId="11" r:id="rId10"/>
-    <sheet name="material_emission" sheetId="12" r:id="rId11"/>
-    <sheet name="material_efficiency" sheetId="17" r:id="rId12"/>
-    <sheet name="technology_fuel_pairs" sheetId="5" r:id="rId13"/>
-    <sheet name="technology_material_pairs" sheetId="6" r:id="rId14"/>
-    <sheet name="fuel_cost" sheetId="8" r:id="rId15"/>
-    <sheet name="fuel_efficiency" sheetId="16" r:id="rId16"/>
-    <sheet name="fuel_emission" sheetId="10" r:id="rId17"/>
+    <sheet name="carbonprice" sheetId="25" r:id="rId9"/>
+    <sheet name="emission_system" sheetId="24" r:id="rId10"/>
+    <sheet name="material_cost" sheetId="11" r:id="rId11"/>
+    <sheet name="material_emission" sheetId="12" r:id="rId12"/>
+    <sheet name="material_efficiency" sheetId="17" r:id="rId13"/>
+    <sheet name="technology_fuel_pairs" sheetId="5" r:id="rId14"/>
+    <sheet name="technology_material_pairs" sheetId="6" r:id="rId15"/>
+    <sheet name="fuel_cost" sheetId="8" r:id="rId16"/>
+    <sheet name="fuel_efficiency" sheetId="16" r:id="rId17"/>
+    <sheet name="fuel_emission" sheetId="10" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="57">
   <si>
     <t>BF-BOF</t>
   </si>
@@ -259,6 +260,14 @@
   </si>
   <si>
     <t>min</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>carbon price</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>currency / ton-CO2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -670,10 +679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21BDFBF-8BC3-41DF-97CA-33C5F9721F61}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -778,6 +787,14 @@
         <v>51</v>
       </c>
     </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -785,6 +802,480 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E683ACB1-236C-41D9-AD28-376C61929EF9}">
+  <dimension ref="A1:AA5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="3" width="9.3984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1">
+        <v>2025</v>
+      </c>
+      <c r="C1">
+        <v>2026</v>
+      </c>
+      <c r="D1">
+        <v>2027</v>
+      </c>
+      <c r="E1">
+        <v>2028</v>
+      </c>
+      <c r="F1">
+        <v>2029</v>
+      </c>
+      <c r="G1">
+        <v>2030</v>
+      </c>
+      <c r="H1">
+        <v>2031</v>
+      </c>
+      <c r="I1">
+        <v>2032</v>
+      </c>
+      <c r="J1">
+        <v>2033</v>
+      </c>
+      <c r="K1">
+        <v>2034</v>
+      </c>
+      <c r="L1">
+        <v>2035</v>
+      </c>
+      <c r="M1">
+        <v>2036</v>
+      </c>
+      <c r="N1">
+        <v>2037</v>
+      </c>
+      <c r="O1">
+        <v>2038</v>
+      </c>
+      <c r="P1">
+        <v>2039</v>
+      </c>
+      <c r="Q1">
+        <v>2040</v>
+      </c>
+      <c r="R1">
+        <v>2041</v>
+      </c>
+      <c r="S1">
+        <v>2042</v>
+      </c>
+      <c r="T1">
+        <v>2043</v>
+      </c>
+      <c r="U1">
+        <v>2044</v>
+      </c>
+      <c r="V1">
+        <v>2045</v>
+      </c>
+      <c r="W1">
+        <v>2046</v>
+      </c>
+      <c r="X1">
+        <v>2047</v>
+      </c>
+      <c r="Y1">
+        <v>2048</v>
+      </c>
+      <c r="Z1">
+        <v>2049</v>
+      </c>
+      <c r="AA1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>99999999</v>
+      </c>
+      <c r="C2">
+        <v>10000000</v>
+      </c>
+      <c r="D2">
+        <v>10000000</v>
+      </c>
+      <c r="E2">
+        <v>10000000</v>
+      </c>
+      <c r="F2">
+        <v>10000000</v>
+      </c>
+      <c r="G2">
+        <v>10000000</v>
+      </c>
+      <c r="H2">
+        <f>G2/2</f>
+        <v>5000000</v>
+      </c>
+      <c r="I2">
+        <f t="shared" ref="I2:I3" si="0">H2/2</f>
+        <v>2500000</v>
+      </c>
+      <c r="J2">
+        <f>I2</f>
+        <v>2500000</v>
+      </c>
+      <c r="K2">
+        <f t="shared" ref="K2:AA3" si="1">J2</f>
+        <v>2500000</v>
+      </c>
+      <c r="L2">
+        <f t="shared" si="1"/>
+        <v>2500000</v>
+      </c>
+      <c r="M2">
+        <f t="shared" si="1"/>
+        <v>2500000</v>
+      </c>
+      <c r="N2">
+        <f t="shared" si="1"/>
+        <v>2500000</v>
+      </c>
+      <c r="O2">
+        <f t="shared" si="1"/>
+        <v>2500000</v>
+      </c>
+      <c r="P2">
+        <f t="shared" si="1"/>
+        <v>2500000</v>
+      </c>
+      <c r="Q2">
+        <f t="shared" si="1"/>
+        <v>2500000</v>
+      </c>
+      <c r="R2">
+        <f t="shared" si="1"/>
+        <v>2500000</v>
+      </c>
+      <c r="S2">
+        <f t="shared" si="1"/>
+        <v>2500000</v>
+      </c>
+      <c r="T2">
+        <f t="shared" si="1"/>
+        <v>2500000</v>
+      </c>
+      <c r="U2">
+        <f t="shared" si="1"/>
+        <v>2500000</v>
+      </c>
+      <c r="V2">
+        <f t="shared" si="1"/>
+        <v>2500000</v>
+      </c>
+      <c r="W2">
+        <f t="shared" si="1"/>
+        <v>2500000</v>
+      </c>
+      <c r="X2">
+        <f t="shared" si="1"/>
+        <v>2500000</v>
+      </c>
+      <c r="Y2">
+        <f t="shared" si="1"/>
+        <v>2500000</v>
+      </c>
+      <c r="Z2">
+        <f t="shared" si="1"/>
+        <v>2500000</v>
+      </c>
+      <c r="AA2">
+        <f t="shared" si="1"/>
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>99999999</v>
+      </c>
+      <c r="C3">
+        <v>10000000</v>
+      </c>
+      <c r="D3">
+        <v>10000000</v>
+      </c>
+      <c r="E3">
+        <v>10000000</v>
+      </c>
+      <c r="F3">
+        <v>10000000</v>
+      </c>
+      <c r="G3">
+        <v>10000000</v>
+      </c>
+      <c r="H3">
+        <f>G3/2</f>
+        <v>5000000</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="0"/>
+        <v>2500000</v>
+      </c>
+      <c r="J3">
+        <f>I3</f>
+        <v>2500000</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="1"/>
+        <v>2500000</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="1"/>
+        <v>2500000</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="1"/>
+        <v>2500000</v>
+      </c>
+      <c r="N3">
+        <f t="shared" si="1"/>
+        <v>2500000</v>
+      </c>
+      <c r="O3">
+        <f t="shared" si="1"/>
+        <v>2500000</v>
+      </c>
+      <c r="P3">
+        <f t="shared" si="1"/>
+        <v>2500000</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" si="1"/>
+        <v>2500000</v>
+      </c>
+      <c r="R3">
+        <f t="shared" si="1"/>
+        <v>2500000</v>
+      </c>
+      <c r="S3">
+        <f t="shared" si="1"/>
+        <v>2500000</v>
+      </c>
+      <c r="T3">
+        <f t="shared" si="1"/>
+        <v>2500000</v>
+      </c>
+      <c r="U3">
+        <f t="shared" si="1"/>
+        <v>2500000</v>
+      </c>
+      <c r="V3">
+        <f t="shared" si="1"/>
+        <v>2500000</v>
+      </c>
+      <c r="W3">
+        <f t="shared" si="1"/>
+        <v>2500000</v>
+      </c>
+      <c r="X3">
+        <f t="shared" si="1"/>
+        <v>2500000</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" si="1"/>
+        <v>2500000</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" si="1"/>
+        <v>2500000</v>
+      </c>
+      <c r="AA3">
+        <f t="shared" si="1"/>
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>99999999</v>
+      </c>
+      <c r="C4">
+        <v>10000000</v>
+      </c>
+      <c r="D4">
+        <v>10000000</v>
+      </c>
+      <c r="E4">
+        <v>10000000</v>
+      </c>
+      <c r="F4">
+        <v>10000000</v>
+      </c>
+      <c r="G4">
+        <v>10000000</v>
+      </c>
+      <c r="H4">
+        <v>500000</v>
+      </c>
+      <c r="I4">
+        <v>500000</v>
+      </c>
+      <c r="J4">
+        <v>500000</v>
+      </c>
+      <c r="K4">
+        <v>500000</v>
+      </c>
+      <c r="L4">
+        <v>500000</v>
+      </c>
+      <c r="M4">
+        <v>500000</v>
+      </c>
+      <c r="N4">
+        <v>500000</v>
+      </c>
+      <c r="O4">
+        <v>500000</v>
+      </c>
+      <c r="P4">
+        <v>500000</v>
+      </c>
+      <c r="Q4">
+        <v>500000</v>
+      </c>
+      <c r="R4">
+        <v>500000</v>
+      </c>
+      <c r="S4">
+        <v>500000</v>
+      </c>
+      <c r="T4">
+        <v>500000</v>
+      </c>
+      <c r="U4">
+        <v>500000</v>
+      </c>
+      <c r="V4">
+        <v>500000</v>
+      </c>
+      <c r="W4">
+        <v>500000</v>
+      </c>
+      <c r="X4">
+        <v>500000</v>
+      </c>
+      <c r="Y4">
+        <v>500000</v>
+      </c>
+      <c r="Z4">
+        <v>500000</v>
+      </c>
+      <c r="AA4">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>99999999</v>
+      </c>
+      <c r="C5">
+        <v>10000000</v>
+      </c>
+      <c r="D5">
+        <v>10000000</v>
+      </c>
+      <c r="E5">
+        <v>10000000</v>
+      </c>
+      <c r="F5">
+        <v>10000000</v>
+      </c>
+      <c r="G5">
+        <v>10000000</v>
+      </c>
+      <c r="H5">
+        <v>500000</v>
+      </c>
+      <c r="I5">
+        <v>500000</v>
+      </c>
+      <c r="J5">
+        <v>500000</v>
+      </c>
+      <c r="K5">
+        <v>500000</v>
+      </c>
+      <c r="L5">
+        <v>500000</v>
+      </c>
+      <c r="M5">
+        <v>500000</v>
+      </c>
+      <c r="N5">
+        <v>500000</v>
+      </c>
+      <c r="O5">
+        <v>500000</v>
+      </c>
+      <c r="P5">
+        <v>500000</v>
+      </c>
+      <c r="Q5">
+        <v>500000</v>
+      </c>
+      <c r="R5">
+        <v>500000</v>
+      </c>
+      <c r="S5">
+        <v>500000</v>
+      </c>
+      <c r="T5">
+        <v>500000</v>
+      </c>
+      <c r="U5">
+        <v>500000</v>
+      </c>
+      <c r="V5">
+        <v>500000</v>
+      </c>
+      <c r="W5">
+        <v>500000</v>
+      </c>
+      <c r="X5">
+        <v>500000</v>
+      </c>
+      <c r="Y5">
+        <v>500000</v>
+      </c>
+      <c r="Z5">
+        <v>500000</v>
+      </c>
+      <c r="AA5">
+        <v>500000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9059A3E3-467F-433B-AAF0-DA415330A29D}">
   <dimension ref="A1:AA6"/>
   <sheetViews>
@@ -1247,7 +1738,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A95E18AD-1C92-4B5C-962D-792F4AC09175}">
   <dimension ref="A1:AA6"/>
   <sheetViews>
@@ -1711,7 +2202,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3CF035B-C14B-46B7-A841-579E94220A37}">
   <dimension ref="A1:AA6"/>
   <sheetViews>
@@ -2171,7 +2662,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8A5865B-B011-402F-A09D-739FDD6B0E90}">
   <dimension ref="A1:D10"/>
   <sheetViews>
@@ -2330,7 +2821,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83A8B42D-00EB-470C-A0D2-7C21A6CB877B}">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -2475,7 +2966,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{251D8908-2320-4E41-AC8F-86BD7BF58C9B}">
   <dimension ref="A1:AA6"/>
   <sheetViews>
@@ -2989,7 +3480,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DC1A385-697C-4C01-B126-79A22BD0CC72}">
   <dimension ref="A1:AA6"/>
   <sheetViews>
@@ -3503,7 +3994,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20EB8FDB-F47B-40C2-8266-6700BCAB2D8C}">
   <dimension ref="A1:AA6"/>
   <sheetViews>
@@ -6177,8 +6668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E46CCB1-2754-42FA-B5C9-8DABA83A320C}">
   <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -6376,21 +6867,18 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E683ACB1-236C-41D9-AD28-376C61929EF9}">
-  <dimension ref="A1:AA5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D074F1A1-9C61-4352-AF1E-453C90E48727}">
+  <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="2" max="3" width="9.3984375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>16</v>
+      <c r="A1" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B1">
         <v>2025</v>
@@ -6473,374 +6961,110 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="B2">
-        <v>99999999</v>
-      </c>
-      <c r="C2">
-        <v>10000000</v>
-      </c>
-      <c r="D2">
-        <v>10000000</v>
-      </c>
-      <c r="E2">
-        <v>10000000</v>
-      </c>
-      <c r="F2">
-        <v>10000000</v>
-      </c>
-      <c r="G2">
-        <v>10000000</v>
-      </c>
-      <c r="H2">
-        <f>G2/2</f>
-        <v>5000000</v>
-      </c>
-      <c r="I2">
-        <f t="shared" ref="I2:AA3" si="0">H2/2</f>
-        <v>2500000</v>
-      </c>
-      <c r="J2">
-        <f>I2</f>
-        <v>2500000</v>
-      </c>
-      <c r="K2">
-        <f t="shared" ref="K2:AA3" si="1">J2</f>
-        <v>2500000</v>
-      </c>
-      <c r="L2">
-        <f t="shared" si="1"/>
-        <v>2500000</v>
-      </c>
-      <c r="M2">
-        <f t="shared" si="1"/>
-        <v>2500000</v>
-      </c>
-      <c r="N2">
-        <f t="shared" si="1"/>
-        <v>2500000</v>
-      </c>
-      <c r="O2">
-        <f t="shared" si="1"/>
-        <v>2500000</v>
-      </c>
-      <c r="P2">
-        <f t="shared" si="1"/>
-        <v>2500000</v>
-      </c>
-      <c r="Q2">
-        <f t="shared" si="1"/>
-        <v>2500000</v>
-      </c>
-      <c r="R2">
-        <f t="shared" si="1"/>
-        <v>2500000</v>
-      </c>
-      <c r="S2">
-        <f t="shared" si="1"/>
-        <v>2500000</v>
-      </c>
-      <c r="T2">
-        <f t="shared" si="1"/>
-        <v>2500000</v>
-      </c>
-      <c r="U2">
-        <f t="shared" si="1"/>
-        <v>2500000</v>
-      </c>
-      <c r="V2">
-        <f t="shared" si="1"/>
-        <v>2500000</v>
-      </c>
-      <c r="W2">
-        <f t="shared" si="1"/>
-        <v>2500000</v>
-      </c>
-      <c r="X2">
-        <f t="shared" si="1"/>
-        <v>2500000</v>
-      </c>
-      <c r="Y2">
-        <f t="shared" si="1"/>
-        <v>2500000</v>
-      </c>
-      <c r="Z2">
-        <f t="shared" si="1"/>
-        <v>2500000</v>
-      </c>
-      <c r="AA2">
-        <f t="shared" si="1"/>
-        <v>2500000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3">
-        <v>99999999</v>
-      </c>
-      <c r="C3">
-        <v>10000000</v>
-      </c>
-      <c r="D3">
-        <v>10000000</v>
-      </c>
-      <c r="E3">
-        <v>10000000</v>
-      </c>
-      <c r="F3">
-        <v>10000000</v>
-      </c>
-      <c r="G3">
-        <v>10000000</v>
-      </c>
-      <c r="H3">
-        <f>G3/2</f>
-        <v>5000000</v>
-      </c>
-      <c r="I3">
+        <v>50</v>
+      </c>
+      <c r="C2" s="4">
+        <f>B2*1.1</f>
+        <v>55.000000000000007</v>
+      </c>
+      <c r="D2" s="4">
+        <f t="shared" ref="D2:AA2" si="0">C2*1.1</f>
+        <v>60.500000000000014</v>
+      </c>
+      <c r="E2" s="4">
         <f t="shared" si="0"/>
-        <v>2500000</v>
-      </c>
-      <c r="J3">
-        <f>I3</f>
-        <v>2500000</v>
-      </c>
-      <c r="K3">
-        <f t="shared" si="1"/>
-        <v>2500000</v>
-      </c>
-      <c r="L3">
-        <f t="shared" si="1"/>
-        <v>2500000</v>
-      </c>
-      <c r="M3">
-        <f t="shared" si="1"/>
-        <v>2500000</v>
-      </c>
-      <c r="N3">
-        <f t="shared" si="1"/>
-        <v>2500000</v>
-      </c>
-      <c r="O3">
-        <f t="shared" si="1"/>
-        <v>2500000</v>
-      </c>
-      <c r="P3">
-        <f t="shared" si="1"/>
-        <v>2500000</v>
-      </c>
-      <c r="Q3">
-        <f t="shared" si="1"/>
-        <v>2500000</v>
-      </c>
-      <c r="R3">
-        <f t="shared" si="1"/>
-        <v>2500000</v>
-      </c>
-      <c r="S3">
-        <f t="shared" si="1"/>
-        <v>2500000</v>
-      </c>
-      <c r="T3">
-        <f t="shared" si="1"/>
-        <v>2500000</v>
-      </c>
-      <c r="U3">
-        <f t="shared" si="1"/>
-        <v>2500000</v>
-      </c>
-      <c r="V3">
-        <f t="shared" si="1"/>
-        <v>2500000</v>
-      </c>
-      <c r="W3">
-        <f t="shared" si="1"/>
-        <v>2500000</v>
-      </c>
-      <c r="X3">
-        <f t="shared" si="1"/>
-        <v>2500000</v>
-      </c>
-      <c r="Y3">
-        <f t="shared" si="1"/>
-        <v>2500000</v>
-      </c>
-      <c r="Z3">
-        <f t="shared" si="1"/>
-        <v>2500000</v>
-      </c>
-      <c r="AA3">
-        <f t="shared" si="1"/>
-        <v>2500000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4">
-        <v>99999999</v>
-      </c>
-      <c r="C4">
-        <v>10000000</v>
-      </c>
-      <c r="D4">
-        <v>10000000</v>
-      </c>
-      <c r="E4">
-        <v>10000000</v>
-      </c>
-      <c r="F4">
-        <v>10000000</v>
-      </c>
-      <c r="G4">
-        <v>10000000</v>
-      </c>
-      <c r="H4">
-        <v>500000</v>
-      </c>
-      <c r="I4">
-        <v>500000</v>
-      </c>
-      <c r="J4">
-        <v>500000</v>
-      </c>
-      <c r="K4">
-        <v>500000</v>
-      </c>
-      <c r="L4">
-        <v>500000</v>
-      </c>
-      <c r="M4">
-        <v>500000</v>
-      </c>
-      <c r="N4">
-        <v>500000</v>
-      </c>
-      <c r="O4">
-        <v>500000</v>
-      </c>
-      <c r="P4">
-        <v>500000</v>
-      </c>
-      <c r="Q4">
-        <v>500000</v>
-      </c>
-      <c r="R4">
-        <v>500000</v>
-      </c>
-      <c r="S4">
-        <v>500000</v>
-      </c>
-      <c r="T4">
-        <v>500000</v>
-      </c>
-      <c r="U4">
-        <v>500000</v>
-      </c>
-      <c r="V4">
-        <v>500000</v>
-      </c>
-      <c r="W4">
-        <v>500000</v>
-      </c>
-      <c r="X4">
-        <v>500000</v>
-      </c>
-      <c r="Y4">
-        <v>500000</v>
-      </c>
-      <c r="Z4">
-        <v>500000</v>
-      </c>
-      <c r="AA4">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5">
-        <v>99999999</v>
-      </c>
-      <c r="C5">
-        <v>10000000</v>
-      </c>
-      <c r="D5">
-        <v>10000000</v>
-      </c>
-      <c r="E5">
-        <v>10000000</v>
-      </c>
-      <c r="F5">
-        <v>10000000</v>
-      </c>
-      <c r="G5">
-        <v>10000000</v>
-      </c>
-      <c r="H5">
-        <v>500000</v>
-      </c>
-      <c r="I5">
-        <v>500000</v>
-      </c>
-      <c r="J5">
-        <v>500000</v>
-      </c>
-      <c r="K5">
-        <v>500000</v>
-      </c>
-      <c r="L5">
-        <v>500000</v>
-      </c>
-      <c r="M5">
-        <v>500000</v>
-      </c>
-      <c r="N5">
-        <v>500000</v>
-      </c>
-      <c r="O5">
-        <v>500000</v>
-      </c>
-      <c r="P5">
-        <v>500000</v>
-      </c>
-      <c r="Q5">
-        <v>500000</v>
-      </c>
-      <c r="R5">
-        <v>500000</v>
-      </c>
-      <c r="S5">
-        <v>500000</v>
-      </c>
-      <c r="T5">
-        <v>500000</v>
-      </c>
-      <c r="U5">
-        <v>500000</v>
-      </c>
-      <c r="V5">
-        <v>500000</v>
-      </c>
-      <c r="W5">
-        <v>500000</v>
-      </c>
-      <c r="X5">
-        <v>500000</v>
-      </c>
-      <c r="Y5">
-        <v>500000</v>
-      </c>
-      <c r="Z5">
-        <v>500000</v>
-      </c>
-      <c r="AA5">
-        <v>500000</v>
+        <v>66.550000000000026</v>
+      </c>
+      <c r="F2" s="4">
+        <f t="shared" si="0"/>
+        <v>73.205000000000041</v>
+      </c>
+      <c r="G2" s="4">
+        <f t="shared" si="0"/>
+        <v>80.525500000000051</v>
+      </c>
+      <c r="H2" s="4">
+        <f t="shared" si="0"/>
+        <v>88.578050000000061</v>
+      </c>
+      <c r="I2" s="4">
+        <f t="shared" si="0"/>
+        <v>97.435855000000075</v>
+      </c>
+      <c r="J2" s="4">
+        <f t="shared" si="0"/>
+        <v>107.1794405000001</v>
+      </c>
+      <c r="K2" s="4">
+        <f t="shared" si="0"/>
+        <v>117.89738455000011</v>
+      </c>
+      <c r="L2" s="4">
+        <f t="shared" si="0"/>
+        <v>129.68712300500013</v>
+      </c>
+      <c r="M2" s="4">
+        <f t="shared" si="0"/>
+        <v>142.65583530550015</v>
+      </c>
+      <c r="N2" s="4">
+        <f t="shared" si="0"/>
+        <v>156.92141883605018</v>
+      </c>
+      <c r="O2" s="4">
+        <f t="shared" si="0"/>
+        <v>172.6135607196552</v>
+      </c>
+      <c r="P2" s="4">
+        <f t="shared" si="0"/>
+        <v>189.87491679162073</v>
+      </c>
+      <c r="Q2" s="4">
+        <f t="shared" si="0"/>
+        <v>208.86240847078281</v>
+      </c>
+      <c r="R2" s="4">
+        <f t="shared" si="0"/>
+        <v>229.74864931786112</v>
+      </c>
+      <c r="S2" s="4">
+        <f t="shared" si="0"/>
+        <v>252.72351424964725</v>
+      </c>
+      <c r="T2" s="4">
+        <f t="shared" si="0"/>
+        <v>277.99586567461199</v>
+      </c>
+      <c r="U2" s="4">
+        <f t="shared" si="0"/>
+        <v>305.79545224207322</v>
+      </c>
+      <c r="V2" s="4">
+        <f t="shared" si="0"/>
+        <v>336.37499746628055</v>
+      </c>
+      <c r="W2" s="4">
+        <f t="shared" si="0"/>
+        <v>370.01249721290861</v>
+      </c>
+      <c r="X2" s="4">
+        <f t="shared" si="0"/>
+        <v>407.0137469341995</v>
+      </c>
+      <c r="Y2" s="4">
+        <f t="shared" si="0"/>
+        <v>447.71512162761951</v>
+      </c>
+      <c r="Z2" s="4">
+        <f t="shared" si="0"/>
+        <v>492.48663379038152</v>
+      </c>
+      <c r="AA2" s="4">
+        <f t="shared" si="0"/>
+        <v>541.73529716941971</v>
       </c>
     </row>
   </sheetData>

--- a/database/steel_data.xlsx
+++ b/database/steel_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\PLANiT\github\macc_steel\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1394C2C-0311-4042-BC60-D556E43F6324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3227FBC8-4162-4E32-81D6-7873251140B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28910" yWindow="-110" windowWidth="29020" windowHeight="17500" tabRatio="620" activeTab="8" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
   </bookViews>
@@ -6669,7 +6669,7 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:AA2"/>
+      <selection activeCell="B2" sqref="B2:AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -6781,83 +6781,67 @@
         <v>4000000</v>
       </c>
       <c r="G2">
-        <f>F2*50%</f>
-        <v>2000000</v>
+        <v>4000000</v>
       </c>
       <c r="H2">
-        <f>G2</f>
-        <v>2000000</v>
+        <v>4000000</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="I2:L2" si="0">H2</f>
-        <v>2000000</v>
+        <v>4000000</v>
       </c>
       <c r="J2">
-        <f t="shared" si="0"/>
-        <v>2000000</v>
+        <v>4000000</v>
       </c>
       <c r="K2">
-        <f t="shared" si="0"/>
-        <v>2000000</v>
+        <v>4000000</v>
       </c>
       <c r="L2">
-        <f t="shared" si="0"/>
-        <v>2000000</v>
+        <v>4000000</v>
       </c>
       <c r="M2">
-        <f>L2*25%</f>
-        <v>500000</v>
+        <v>4000000</v>
       </c>
       <c r="N2">
-        <f>M2</f>
-        <v>500000</v>
+        <v>4000000</v>
       </c>
       <c r="O2">
-        <f t="shared" ref="O2:Q2" si="1">N2</f>
-        <v>500000</v>
+        <v>4000000</v>
       </c>
       <c r="P2">
-        <f t="shared" si="1"/>
-        <v>500000</v>
+        <v>4000000</v>
       </c>
       <c r="Q2">
-        <f t="shared" si="1"/>
-        <v>500000</v>
+        <v>4000000</v>
       </c>
       <c r="R2">
-        <f>Q2*0.5</f>
-        <v>250000</v>
+        <v>4000000</v>
       </c>
       <c r="S2">
-        <f>R2*0.5</f>
-        <v>125000</v>
+        <v>4000000</v>
       </c>
       <c r="T2">
-        <f>S2*0.5</f>
-        <v>62500</v>
+        <v>4000000</v>
       </c>
       <c r="U2">
-        <f>T2*0.5</f>
-        <v>31250</v>
+        <v>4000000</v>
       </c>
       <c r="V2">
-        <f>U2*0.5</f>
-        <v>15625</v>
+        <v>4000000</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>4000000</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>4000000</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>4000000</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>4000000</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>4000000</v>
       </c>
     </row>
   </sheetData>
@@ -6871,7 +6855,7 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>

--- a/database/steel_data.xlsx
+++ b/database/steel_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\PLANiT\github\macc_steel\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3227FBC8-4162-4E32-81D6-7873251140B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C14CEC9-9F6D-41D6-BCB4-BB1D3AD2E3CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28910" yWindow="-110" windowWidth="29020" windowHeight="17500" tabRatio="620" activeTab="8" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
+    <workbookView xWindow="3276" yWindow="708" windowWidth="39132" windowHeight="17376" tabRatio="620" activeTab="5" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="18" r:id="rId1"/>
@@ -4513,7 +4513,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -6161,7 +6161,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED5339A0-3D98-43CE-86F7-53EF60721306}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
@@ -6202,7 +6202,7 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>2040</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
@@ -6854,8 +6854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D074F1A1-9C61-4352-AF1E-453C90E48727}">
   <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>

--- a/database/steel_data.xlsx
+++ b/database/steel_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\PLANiT\github\macc_steel\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C14CEC9-9F6D-41D6-BCB4-BB1D3AD2E3CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9109A8-2648-47F8-AD06-E0FACA76FD27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3276" yWindow="708" windowWidth="39132" windowHeight="17376" tabRatio="620" activeTab="5" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
+    <workbookView xWindow="1230" yWindow="1050" windowWidth="25690" windowHeight="15010" tabRatio="775" firstSheet="8" activeTab="14" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="18" r:id="rId1"/>
@@ -27,10 +27,12 @@
     <sheet name="material_emission" sheetId="12" r:id="rId12"/>
     <sheet name="material_efficiency" sheetId="17" r:id="rId13"/>
     <sheet name="technology_fuel_pairs" sheetId="5" r:id="rId14"/>
-    <sheet name="technology_material_pairs" sheetId="6" r:id="rId15"/>
-    <sheet name="fuel_cost" sheetId="8" r:id="rId16"/>
-    <sheet name="fuel_efficiency" sheetId="16" r:id="rId17"/>
-    <sheet name="fuel_emission" sheetId="10" r:id="rId18"/>
+    <sheet name="fuel_introduction" sheetId="26" r:id="rId15"/>
+    <sheet name="material_introduction" sheetId="27" r:id="rId16"/>
+    <sheet name="technology_material_pairs" sheetId="6" r:id="rId17"/>
+    <sheet name="fuel_cost" sheetId="8" r:id="rId18"/>
+    <sheet name="fuel_efficiency" sheetId="16" r:id="rId19"/>
+    <sheet name="fuel_emission" sheetId="10" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="66">
   <si>
     <t>BF-BOF</t>
   </si>
@@ -268,6 +270,42 @@
   </si>
   <si>
     <t>currency / ton-CO2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>currency / ton-capacity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelised</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>per capacity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>note</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fuel_share</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>material_share</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8, 0.2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cokes, Scrap</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NG-DRI</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -679,51 +717,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21BDFBF-8BC3-41DF-97CA-33C5F9721F61}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.8984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.9140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>29</v>
       </c>
       <c r="B1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="D1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+        <v>57</v>
+      </c>
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>27</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>28</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -731,15 +782,18 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>32</v>
       </c>
       <c r="B6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -747,7 +801,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -755,23 +809,29 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>36</v>
       </c>
       <c r="B9" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>40</v>
       </c>
       <c r="B10" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -779,7 +839,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -787,7 +847,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>55</v>
       </c>
@@ -806,15 +866,15 @@
   <dimension ref="A1:AA5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="B2" sqref="B2:AA5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="3" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -897,7 +957,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -905,102 +965,82 @@
         <v>99999999</v>
       </c>
       <c r="C2">
-        <v>10000000</v>
+        <v>99999999</v>
       </c>
       <c r="D2">
-        <v>10000000</v>
+        <v>99999999</v>
       </c>
       <c r="E2">
-        <v>10000000</v>
+        <v>99999999</v>
       </c>
       <c r="F2">
-        <v>10000000</v>
+        <v>99999999</v>
       </c>
       <c r="G2">
-        <v>10000000</v>
+        <v>99999999</v>
       </c>
       <c r="H2">
-        <f>G2/2</f>
-        <v>5000000</v>
+        <v>99999999</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="I2:I3" si="0">H2/2</f>
-        <v>2500000</v>
+        <v>99999999</v>
       </c>
       <c r="J2">
-        <f>I2</f>
-        <v>2500000</v>
+        <v>99999999</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:AA3" si="1">J2</f>
-        <v>2500000</v>
+        <v>99999999</v>
       </c>
       <c r="L2">
-        <f t="shared" si="1"/>
-        <v>2500000</v>
+        <v>99999999</v>
       </c>
       <c r="M2">
-        <f t="shared" si="1"/>
-        <v>2500000</v>
+        <v>99999999</v>
       </c>
       <c r="N2">
-        <f t="shared" si="1"/>
-        <v>2500000</v>
+        <v>99999999</v>
       </c>
       <c r="O2">
-        <f t="shared" si="1"/>
-        <v>2500000</v>
+        <v>99999999</v>
       </c>
       <c r="P2">
-        <f t="shared" si="1"/>
-        <v>2500000</v>
+        <v>99999999</v>
       </c>
       <c r="Q2">
-        <f t="shared" si="1"/>
-        <v>2500000</v>
+        <v>99999999</v>
       </c>
       <c r="R2">
-        <f t="shared" si="1"/>
-        <v>2500000</v>
+        <v>99999999</v>
       </c>
       <c r="S2">
-        <f t="shared" si="1"/>
-        <v>2500000</v>
+        <v>99999999</v>
       </c>
       <c r="T2">
-        <f t="shared" si="1"/>
-        <v>2500000</v>
+        <v>99999999</v>
       </c>
       <c r="U2">
-        <f t="shared" si="1"/>
-        <v>2500000</v>
+        <v>99999999</v>
       </c>
       <c r="V2">
-        <f t="shared" si="1"/>
-        <v>2500000</v>
+        <v>99999999</v>
       </c>
       <c r="W2">
-        <f t="shared" si="1"/>
-        <v>2500000</v>
+        <v>99999999</v>
       </c>
       <c r="X2">
-        <f t="shared" si="1"/>
-        <v>2500000</v>
+        <v>99999999</v>
       </c>
       <c r="Y2">
-        <f t="shared" si="1"/>
-        <v>2500000</v>
+        <v>99999999</v>
       </c>
       <c r="Z2">
-        <f t="shared" si="1"/>
-        <v>2500000</v>
+        <v>99999999</v>
       </c>
       <c r="AA2">
-        <f t="shared" si="1"/>
-        <v>2500000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
+        <v>99999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1008,102 +1048,82 @@
         <v>99999999</v>
       </c>
       <c r="C3">
-        <v>10000000</v>
+        <v>99999999</v>
       </c>
       <c r="D3">
-        <v>10000000</v>
+        <v>99999999</v>
       </c>
       <c r="E3">
-        <v>10000000</v>
+        <v>99999999</v>
       </c>
       <c r="F3">
-        <v>10000000</v>
+        <v>99999999</v>
       </c>
       <c r="G3">
-        <v>10000000</v>
+        <v>99999999</v>
       </c>
       <c r="H3">
-        <f>G3/2</f>
-        <v>5000000</v>
+        <v>99999999</v>
       </c>
       <c r="I3">
-        <f t="shared" si="0"/>
-        <v>2500000</v>
+        <v>99999999</v>
       </c>
       <c r="J3">
-        <f>I3</f>
-        <v>2500000</v>
+        <v>99999999</v>
       </c>
       <c r="K3">
-        <f t="shared" si="1"/>
-        <v>2500000</v>
+        <v>99999999</v>
       </c>
       <c r="L3">
-        <f t="shared" si="1"/>
-        <v>2500000</v>
+        <v>99999999</v>
       </c>
       <c r="M3">
-        <f t="shared" si="1"/>
-        <v>2500000</v>
+        <v>99999999</v>
       </c>
       <c r="N3">
-        <f t="shared" si="1"/>
-        <v>2500000</v>
+        <v>99999999</v>
       </c>
       <c r="O3">
-        <f t="shared" si="1"/>
-        <v>2500000</v>
+        <v>99999999</v>
       </c>
       <c r="P3">
-        <f t="shared" si="1"/>
-        <v>2500000</v>
+        <v>99999999</v>
       </c>
       <c r="Q3">
-        <f t="shared" si="1"/>
-        <v>2500000</v>
+        <v>99999999</v>
       </c>
       <c r="R3">
-        <f t="shared" si="1"/>
-        <v>2500000</v>
+        <v>99999999</v>
       </c>
       <c r="S3">
-        <f t="shared" si="1"/>
-        <v>2500000</v>
+        <v>99999999</v>
       </c>
       <c r="T3">
-        <f t="shared" si="1"/>
-        <v>2500000</v>
+        <v>99999999</v>
       </c>
       <c r="U3">
-        <f t="shared" si="1"/>
-        <v>2500000</v>
+        <v>99999999</v>
       </c>
       <c r="V3">
-        <f t="shared" si="1"/>
-        <v>2500000</v>
+        <v>99999999</v>
       </c>
       <c r="W3">
-        <f t="shared" si="1"/>
-        <v>2500000</v>
+        <v>99999999</v>
       </c>
       <c r="X3">
-        <f t="shared" si="1"/>
-        <v>2500000</v>
+        <v>99999999</v>
       </c>
       <c r="Y3">
-        <f t="shared" si="1"/>
-        <v>2500000</v>
+        <v>99999999</v>
       </c>
       <c r="Z3">
-        <f t="shared" si="1"/>
-        <v>2500000</v>
+        <v>99999999</v>
       </c>
       <c r="AA3">
-        <f t="shared" si="1"/>
-        <v>2500000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
+        <v>99999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1111,82 +1131,82 @@
         <v>99999999</v>
       </c>
       <c r="C4">
-        <v>10000000</v>
+        <v>99999999</v>
       </c>
       <c r="D4">
-        <v>10000000</v>
+        <v>99999999</v>
       </c>
       <c r="E4">
-        <v>10000000</v>
+        <v>99999999</v>
       </c>
       <c r="F4">
-        <v>10000000</v>
+        <v>99999999</v>
       </c>
       <c r="G4">
-        <v>10000000</v>
+        <v>99999999</v>
       </c>
       <c r="H4">
-        <v>500000</v>
+        <v>99999999</v>
       </c>
       <c r="I4">
-        <v>500000</v>
+        <v>99999999</v>
       </c>
       <c r="J4">
-        <v>500000</v>
+        <v>99999999</v>
       </c>
       <c r="K4">
-        <v>500000</v>
+        <v>99999999</v>
       </c>
       <c r="L4">
-        <v>500000</v>
+        <v>99999999</v>
       </c>
       <c r="M4">
-        <v>500000</v>
+        <v>99999999</v>
       </c>
       <c r="N4">
-        <v>500000</v>
+        <v>99999999</v>
       </c>
       <c r="O4">
-        <v>500000</v>
+        <v>99999999</v>
       </c>
       <c r="P4">
-        <v>500000</v>
+        <v>99999999</v>
       </c>
       <c r="Q4">
-        <v>500000</v>
+        <v>99999999</v>
       </c>
       <c r="R4">
-        <v>500000</v>
+        <v>99999999</v>
       </c>
       <c r="S4">
-        <v>500000</v>
+        <v>99999999</v>
       </c>
       <c r="T4">
-        <v>500000</v>
+        <v>99999999</v>
       </c>
       <c r="U4">
-        <v>500000</v>
+        <v>99999999</v>
       </c>
       <c r="V4">
-        <v>500000</v>
+        <v>99999999</v>
       </c>
       <c r="W4">
-        <v>500000</v>
+        <v>99999999</v>
       </c>
       <c r="X4">
-        <v>500000</v>
+        <v>99999999</v>
       </c>
       <c r="Y4">
-        <v>500000</v>
+        <v>99999999</v>
       </c>
       <c r="Z4">
-        <v>500000</v>
+        <v>99999999</v>
       </c>
       <c r="AA4">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
+        <v>99999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1194,79 +1214,79 @@
         <v>99999999</v>
       </c>
       <c r="C5">
-        <v>10000000</v>
+        <v>99999999</v>
       </c>
       <c r="D5">
-        <v>10000000</v>
+        <v>99999999</v>
       </c>
       <c r="E5">
-        <v>10000000</v>
+        <v>99999999</v>
       </c>
       <c r="F5">
-        <v>10000000</v>
+        <v>99999999</v>
       </c>
       <c r="G5">
-        <v>10000000</v>
+        <v>99999999</v>
       </c>
       <c r="H5">
-        <v>500000</v>
+        <v>99999999</v>
       </c>
       <c r="I5">
-        <v>500000</v>
+        <v>99999999</v>
       </c>
       <c r="J5">
-        <v>500000</v>
+        <v>99999999</v>
       </c>
       <c r="K5">
-        <v>500000</v>
+        <v>99999999</v>
       </c>
       <c r="L5">
-        <v>500000</v>
+        <v>99999999</v>
       </c>
       <c r="M5">
-        <v>500000</v>
+        <v>99999999</v>
       </c>
       <c r="N5">
-        <v>500000</v>
+        <v>99999999</v>
       </c>
       <c r="O5">
-        <v>500000</v>
+        <v>99999999</v>
       </c>
       <c r="P5">
-        <v>500000</v>
+        <v>99999999</v>
       </c>
       <c r="Q5">
-        <v>500000</v>
+        <v>99999999</v>
       </c>
       <c r="R5">
-        <v>500000</v>
+        <v>99999999</v>
       </c>
       <c r="S5">
-        <v>500000</v>
+        <v>99999999</v>
       </c>
       <c r="T5">
-        <v>500000</v>
+        <v>99999999</v>
       </c>
       <c r="U5">
-        <v>500000</v>
+        <v>99999999</v>
       </c>
       <c r="V5">
-        <v>500000</v>
+        <v>99999999</v>
       </c>
       <c r="W5">
-        <v>500000</v>
+        <v>99999999</v>
       </c>
       <c r="X5">
-        <v>500000</v>
+        <v>99999999</v>
       </c>
       <c r="Y5">
-        <v>500000</v>
+        <v>99999999</v>
       </c>
       <c r="Z5">
-        <v>500000</v>
+        <v>99999999</v>
       </c>
       <c r="AA5">
-        <v>500000</v>
+        <v>99999999</v>
       </c>
     </row>
   </sheetData>
@@ -1280,15 +1300,15 @@
   <dimension ref="A1:AA6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection sqref="A1:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="27" width="9.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="27" width="9.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
@@ -1371,7 +1391,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1454,7 +1474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -1537,7 +1557,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -1620,7 +1640,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1703,7 +1723,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="2"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -1743,16 +1763,16 @@
   <dimension ref="A1:AA6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="R43" sqref="R43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="27" width="9.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="27" width="9.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
@@ -1835,7 +1855,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1918,7 +1938,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -2001,7 +2021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -2084,7 +2104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -2167,7 +2187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="2"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -2210,9 +2230,9 @@
       <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
@@ -2295,7 +2315,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2378,7 +2398,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -2461,7 +2481,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -2544,7 +2564,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -2627,7 +2647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="2"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -2664,18 +2684,18 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8A5865B-B011-402F-A09D-739FDD6B0E90}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -2688,8 +2708,11 @@
       <c r="D1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2702,8 +2725,11 @@
       <c r="D2">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -2714,10 +2740,13 @@
         <v>0.5</v>
       </c>
       <c r="D3">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -2730,8 +2759,11 @@
       <c r="D4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -2744,8 +2776,11 @@
       <c r="D5">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E5">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -2753,13 +2788,16 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E6">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
@@ -2772,8 +2810,11 @@
       <c r="D7">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E7">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
@@ -2786,8 +2827,11 @@
       <c r="D8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="E8">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>49</v>
       </c>
@@ -2800,8 +2844,11 @@
       <c r="D9">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="E9">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>49</v>
       </c>
@@ -2813,6 +2860,9 @@
       </c>
       <c r="D10">
         <v>0</v>
+      </c>
+      <c r="E10">
+        <v>2000</v>
       </c>
     </row>
   </sheetData>
@@ -2822,142 +2872,61 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83A8B42D-00EB-470C-A0D2-7C21A6CB877B}">
-  <dimension ref="A1:D9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A811D9-2602-4FD1-8BF7-F55E2D4AA43D}">
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="3" max="3" width="9.3984375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3">
-        <v>0.5</v>
-      </c>
-      <c r="D3">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>0.2</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9">
-        <v>0.2</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>2035</v>
       </c>
     </row>
   </sheetData>
@@ -2967,511 +2936,53 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{251D8908-2320-4E41-AC8F-86BD7BF58C9B}">
-  <dimension ref="A1:AA6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{410A1906-5A3B-4FF2-8752-8FE09D0C1871}">
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:AA6"/>
+      <selection activeCell="B4" sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1">
-        <v>2025</v>
-      </c>
-      <c r="C1">
-        <v>2026</v>
-      </c>
-      <c r="D1">
-        <v>2027</v>
-      </c>
-      <c r="E1">
-        <v>2028</v>
-      </c>
-      <c r="F1">
-        <v>2029</v>
-      </c>
-      <c r="G1">
-        <v>2030</v>
-      </c>
-      <c r="H1">
-        <v>2031</v>
-      </c>
-      <c r="I1">
-        <v>2032</v>
-      </c>
-      <c r="J1">
-        <v>2033</v>
-      </c>
-      <c r="K1">
-        <v>2034</v>
-      </c>
-      <c r="L1">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
         <v>2035</v>
       </c>
-      <c r="M1">
-        <v>2036</v>
-      </c>
-      <c r="N1">
-        <v>2037</v>
-      </c>
-      <c r="O1">
-        <v>2038</v>
-      </c>
-      <c r="P1">
-        <v>2039</v>
-      </c>
-      <c r="Q1">
-        <v>2040</v>
-      </c>
-      <c r="R1">
-        <v>2041</v>
-      </c>
-      <c r="S1">
-        <v>2042</v>
-      </c>
-      <c r="T1">
-        <v>2043</v>
-      </c>
-      <c r="U1">
-        <v>2044</v>
-      </c>
-      <c r="V1">
-        <v>2045</v>
-      </c>
-      <c r="W1">
-        <v>2046</v>
-      </c>
-      <c r="X1">
-        <v>2047</v>
-      </c>
-      <c r="Y1">
-        <v>2048</v>
-      </c>
-      <c r="Z1">
-        <v>2049</v>
-      </c>
-      <c r="AA1">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="5">
-        <v>5</v>
-      </c>
-      <c r="C2" s="5">
-        <v>5</v>
-      </c>
-      <c r="D2" s="5">
-        <v>5</v>
-      </c>
-      <c r="E2" s="5">
-        <v>5</v>
-      </c>
-      <c r="F2" s="5">
-        <v>5</v>
-      </c>
-      <c r="G2" s="5">
-        <v>5</v>
-      </c>
-      <c r="H2" s="5">
-        <v>5</v>
-      </c>
-      <c r="I2" s="5">
-        <v>5</v>
-      </c>
-      <c r="J2" s="5">
-        <v>5</v>
-      </c>
-      <c r="K2" s="5">
-        <v>5</v>
-      </c>
-      <c r="L2" s="5">
-        <v>5</v>
-      </c>
-      <c r="M2" s="5">
-        <v>5</v>
-      </c>
-      <c r="N2" s="5">
-        <v>5</v>
-      </c>
-      <c r="O2" s="5">
-        <v>5</v>
-      </c>
-      <c r="P2" s="5">
-        <v>5</v>
-      </c>
-      <c r="Q2" s="5">
-        <v>5</v>
-      </c>
-      <c r="R2" s="5">
-        <v>5</v>
-      </c>
-      <c r="S2" s="5">
-        <v>5</v>
-      </c>
-      <c r="T2" s="5">
-        <v>5</v>
-      </c>
-      <c r="U2" s="5">
-        <v>5</v>
-      </c>
-      <c r="V2" s="5">
-        <v>5</v>
-      </c>
-      <c r="W2" s="5">
-        <v>5</v>
-      </c>
-      <c r="X2" s="5">
-        <v>5</v>
-      </c>
-      <c r="Y2" s="5">
-        <v>5</v>
-      </c>
-      <c r="Z2" s="5">
-        <v>5</v>
-      </c>
-      <c r="AA2" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="5">
-        <v>2</v>
-      </c>
-      <c r="C3" s="5">
-        <v>2</v>
-      </c>
-      <c r="D3" s="5">
-        <v>2</v>
-      </c>
-      <c r="E3" s="5">
-        <v>2</v>
-      </c>
-      <c r="F3" s="5">
-        <v>2</v>
-      </c>
-      <c r="G3" s="5">
-        <v>2</v>
-      </c>
-      <c r="H3" s="5">
-        <v>2</v>
-      </c>
-      <c r="I3" s="5">
-        <v>2</v>
-      </c>
-      <c r="J3" s="5">
-        <v>2</v>
-      </c>
-      <c r="K3" s="5">
-        <v>2</v>
-      </c>
-      <c r="L3" s="5">
-        <v>2</v>
-      </c>
-      <c r="M3" s="5">
-        <v>2</v>
-      </c>
-      <c r="N3" s="5">
-        <v>2</v>
-      </c>
-      <c r="O3" s="5">
-        <v>2</v>
-      </c>
-      <c r="P3" s="5">
-        <v>2</v>
-      </c>
-      <c r="Q3" s="5">
-        <v>2</v>
-      </c>
-      <c r="R3" s="5">
-        <v>2</v>
-      </c>
-      <c r="S3" s="5">
-        <v>2</v>
-      </c>
-      <c r="T3" s="5">
-        <v>2</v>
-      </c>
-      <c r="U3" s="5">
-        <v>2</v>
-      </c>
-      <c r="V3" s="5">
-        <v>2</v>
-      </c>
-      <c r="W3" s="5">
-        <v>2</v>
-      </c>
-      <c r="X3" s="5">
-        <v>2</v>
-      </c>
-      <c r="Y3" s="5">
-        <v>2</v>
-      </c>
-      <c r="Z3" s="5">
-        <v>2</v>
-      </c>
-      <c r="AA3" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="C4" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="D4" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="E4" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="F4" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="G4" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="H4" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="I4" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="J4" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="K4" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="L4" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="M4" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="N4" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="O4" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="P4" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="Q4" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="R4" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="S4" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="T4" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="U4" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="V4" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="W4" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="X4" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="Y4" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="Z4" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="AA4" s="5">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="5">
-        <v>5</v>
-      </c>
-      <c r="C5" s="5">
-        <v>5</v>
-      </c>
-      <c r="D5" s="5">
-        <v>5</v>
-      </c>
-      <c r="E5" s="5">
-        <v>5</v>
-      </c>
-      <c r="F5" s="5">
-        <v>5</v>
-      </c>
-      <c r="G5" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="H5" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="I5" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="J5" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="K5" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="L5" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="M5" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="N5" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="O5" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="P5" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="Q5" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="R5" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="S5" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="T5" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="U5" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="V5" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="W5" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="X5" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="Y5" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="Z5" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="AA5" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="5">
-        <v>0</v>
-      </c>
-      <c r="C6" s="5">
-        <v>0</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0</v>
-      </c>
-      <c r="G6" s="5">
-        <v>0</v>
-      </c>
-      <c r="H6" s="5">
-        <v>0</v>
-      </c>
-      <c r="I6" s="5">
-        <v>0</v>
-      </c>
-      <c r="J6" s="5">
-        <v>0</v>
-      </c>
-      <c r="K6" s="5">
-        <v>0</v>
-      </c>
-      <c r="L6" s="5">
-        <v>0</v>
-      </c>
-      <c r="M6" s="5">
-        <v>0</v>
-      </c>
-      <c r="N6" s="5">
-        <v>0</v>
-      </c>
-      <c r="O6" s="5">
-        <v>0</v>
-      </c>
-      <c r="P6" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="5">
-        <v>0</v>
-      </c>
-      <c r="R6" s="5">
-        <v>0</v>
-      </c>
-      <c r="S6" s="5">
-        <v>0</v>
-      </c>
-      <c r="T6" s="5">
-        <v>0</v>
-      </c>
-      <c r="U6" s="5">
-        <v>0</v>
-      </c>
-      <c r="V6" s="5">
-        <v>0</v>
-      </c>
-      <c r="W6" s="5">
-        <v>0</v>
-      </c>
-      <c r="X6" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="5">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2000</v>
       </c>
     </row>
   </sheetData>
@@ -3481,6 +2992,709 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83A8B42D-00EB-470C-A0D2-7C21A6CB877B}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="9.4140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0.8</v>
+      </c>
+      <c r="E2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3">
+        <v>0.2</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>0.2</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+      <c r="A9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0.8</v>
+      </c>
+      <c r="E9">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+      <c r="A10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10">
+        <v>0.2</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>2000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{251D8908-2320-4E41-AC8F-86BD7BF58C9B}">
+  <dimension ref="A1:AA6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1">
+        <v>2025</v>
+      </c>
+      <c r="C1">
+        <v>2026</v>
+      </c>
+      <c r="D1">
+        <v>2027</v>
+      </c>
+      <c r="E1">
+        <v>2028</v>
+      </c>
+      <c r="F1">
+        <v>2029</v>
+      </c>
+      <c r="G1">
+        <v>2030</v>
+      </c>
+      <c r="H1">
+        <v>2031</v>
+      </c>
+      <c r="I1">
+        <v>2032</v>
+      </c>
+      <c r="J1">
+        <v>2033</v>
+      </c>
+      <c r="K1">
+        <v>2034</v>
+      </c>
+      <c r="L1">
+        <v>2035</v>
+      </c>
+      <c r="M1">
+        <v>2036</v>
+      </c>
+      <c r="N1">
+        <v>2037</v>
+      </c>
+      <c r="O1">
+        <v>2038</v>
+      </c>
+      <c r="P1">
+        <v>2039</v>
+      </c>
+      <c r="Q1">
+        <v>2040</v>
+      </c>
+      <c r="R1">
+        <v>2041</v>
+      </c>
+      <c r="S1">
+        <v>2042</v>
+      </c>
+      <c r="T1">
+        <v>2043</v>
+      </c>
+      <c r="U1">
+        <v>2044</v>
+      </c>
+      <c r="V1">
+        <v>2045</v>
+      </c>
+      <c r="W1">
+        <v>2046</v>
+      </c>
+      <c r="X1">
+        <v>2047</v>
+      </c>
+      <c r="Y1">
+        <v>2048</v>
+      </c>
+      <c r="Z1">
+        <v>2049</v>
+      </c>
+      <c r="AA1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5">
+        <v>5</v>
+      </c>
+      <c r="F2" s="5">
+        <v>5</v>
+      </c>
+      <c r="G2" s="5">
+        <v>5</v>
+      </c>
+      <c r="H2" s="5">
+        <v>5</v>
+      </c>
+      <c r="I2" s="5">
+        <v>5</v>
+      </c>
+      <c r="J2" s="5">
+        <v>5</v>
+      </c>
+      <c r="K2" s="5">
+        <v>5</v>
+      </c>
+      <c r="L2" s="5">
+        <v>5</v>
+      </c>
+      <c r="M2" s="5">
+        <v>5</v>
+      </c>
+      <c r="N2" s="5">
+        <v>5</v>
+      </c>
+      <c r="O2" s="5">
+        <v>5</v>
+      </c>
+      <c r="P2" s="5">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>5</v>
+      </c>
+      <c r="R2" s="5">
+        <v>5</v>
+      </c>
+      <c r="S2" s="5">
+        <v>5</v>
+      </c>
+      <c r="T2" s="5">
+        <v>5</v>
+      </c>
+      <c r="U2" s="5">
+        <v>5</v>
+      </c>
+      <c r="V2" s="5">
+        <v>5</v>
+      </c>
+      <c r="W2" s="5">
+        <v>5</v>
+      </c>
+      <c r="X2" s="5">
+        <v>5</v>
+      </c>
+      <c r="Y2" s="5">
+        <v>5</v>
+      </c>
+      <c r="Z2" s="5">
+        <v>5</v>
+      </c>
+      <c r="AA2" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5">
+        <v>2</v>
+      </c>
+      <c r="E3" s="5">
+        <v>2</v>
+      </c>
+      <c r="F3" s="5">
+        <v>2</v>
+      </c>
+      <c r="G3" s="5">
+        <v>2</v>
+      </c>
+      <c r="H3" s="5">
+        <v>2</v>
+      </c>
+      <c r="I3" s="5">
+        <v>2</v>
+      </c>
+      <c r="J3" s="5">
+        <v>2</v>
+      </c>
+      <c r="K3" s="5">
+        <v>2</v>
+      </c>
+      <c r="L3" s="5">
+        <v>2</v>
+      </c>
+      <c r="M3" s="5">
+        <v>2</v>
+      </c>
+      <c r="N3" s="5">
+        <v>2</v>
+      </c>
+      <c r="O3" s="5">
+        <v>2</v>
+      </c>
+      <c r="P3" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>2</v>
+      </c>
+      <c r="R3" s="5">
+        <v>2</v>
+      </c>
+      <c r="S3" s="5">
+        <v>2</v>
+      </c>
+      <c r="T3" s="5">
+        <v>2</v>
+      </c>
+      <c r="U3" s="5">
+        <v>2</v>
+      </c>
+      <c r="V3" s="5">
+        <v>2</v>
+      </c>
+      <c r="W3" s="5">
+        <v>2</v>
+      </c>
+      <c r="X3" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="5">
+        <v>2</v>
+      </c>
+      <c r="Z3" s="5">
+        <v>2</v>
+      </c>
+      <c r="AA3" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="H4" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="I4" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="J4" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="K4" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="L4" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="M4" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="N4" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="O4" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="P4" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="R4" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="S4" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="T4" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="U4" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="V4" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="W4" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="X4" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="Y4" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="Z4" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="AA4" s="5">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5">
+        <v>5</v>
+      </c>
+      <c r="C5" s="5">
+        <v>5</v>
+      </c>
+      <c r="D5" s="5">
+        <v>5</v>
+      </c>
+      <c r="E5" s="5">
+        <v>5</v>
+      </c>
+      <c r="F5" s="5">
+        <v>5</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="P5" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="R5" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="S5" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="T5" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="U5" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="V5" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="W5" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="X5" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Y5" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Z5" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AA5" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0</v>
+      </c>
+      <c r="N6" s="5">
+        <v>0</v>
+      </c>
+      <c r="O6" s="5">
+        <v>0</v>
+      </c>
+      <c r="P6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>0</v>
+      </c>
+      <c r="R6" s="5">
+        <v>0</v>
+      </c>
+      <c r="S6" s="5">
+        <v>0</v>
+      </c>
+      <c r="T6" s="5">
+        <v>0</v>
+      </c>
+      <c r="U6" s="5">
+        <v>0</v>
+      </c>
+      <c r="V6" s="5">
+        <v>0</v>
+      </c>
+      <c r="W6" s="5">
+        <v>0</v>
+      </c>
+      <c r="X6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DC1A385-697C-4C01-B126-79A22BD0CC72}">
   <dimension ref="A1:AA6"/>
   <sheetViews>
@@ -3488,9 +3702,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -3573,7 +3787,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -3656,7 +3870,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -3739,7 +3953,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -3822,7 +4036,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -3905,7 +4119,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -3986,520 +4200,6 @@
       </c>
       <c r="AA6" s="5">
         <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20EB8FDB-F47B-40C2-8266-6700BCAB2D8C}">
-  <dimension ref="A1:AA6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1">
-        <v>2025</v>
-      </c>
-      <c r="C1">
-        <v>2026</v>
-      </c>
-      <c r="D1">
-        <v>2027</v>
-      </c>
-      <c r="E1">
-        <v>2028</v>
-      </c>
-      <c r="F1">
-        <v>2029</v>
-      </c>
-      <c r="G1">
-        <v>2030</v>
-      </c>
-      <c r="H1">
-        <v>2031</v>
-      </c>
-      <c r="I1">
-        <v>2032</v>
-      </c>
-      <c r="J1">
-        <v>2033</v>
-      </c>
-      <c r="K1">
-        <v>2034</v>
-      </c>
-      <c r="L1">
-        <v>2035</v>
-      </c>
-      <c r="M1">
-        <v>2036</v>
-      </c>
-      <c r="N1">
-        <v>2037</v>
-      </c>
-      <c r="O1">
-        <v>2038</v>
-      </c>
-      <c r="P1">
-        <v>2039</v>
-      </c>
-      <c r="Q1">
-        <v>2040</v>
-      </c>
-      <c r="R1">
-        <v>2041</v>
-      </c>
-      <c r="S1">
-        <v>2042</v>
-      </c>
-      <c r="T1">
-        <v>2043</v>
-      </c>
-      <c r="U1">
-        <v>2044</v>
-      </c>
-      <c r="V1">
-        <v>2045</v>
-      </c>
-      <c r="W1">
-        <v>2046</v>
-      </c>
-      <c r="X1">
-        <v>2047</v>
-      </c>
-      <c r="Y1">
-        <v>2048</v>
-      </c>
-      <c r="Z1">
-        <v>2049</v>
-      </c>
-      <c r="AA1">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="5">
-        <v>15</v>
-      </c>
-      <c r="C2" s="5">
-        <v>15</v>
-      </c>
-      <c r="D2" s="5">
-        <v>15</v>
-      </c>
-      <c r="E2" s="5">
-        <v>15</v>
-      </c>
-      <c r="F2" s="5">
-        <v>15</v>
-      </c>
-      <c r="G2" s="5">
-        <v>15</v>
-      </c>
-      <c r="H2" s="5">
-        <v>15</v>
-      </c>
-      <c r="I2" s="5">
-        <v>15</v>
-      </c>
-      <c r="J2" s="5">
-        <v>15</v>
-      </c>
-      <c r="K2" s="5">
-        <v>15</v>
-      </c>
-      <c r="L2" s="5">
-        <v>15</v>
-      </c>
-      <c r="M2" s="5">
-        <v>15</v>
-      </c>
-      <c r="N2" s="5">
-        <v>15</v>
-      </c>
-      <c r="O2" s="5">
-        <v>15</v>
-      </c>
-      <c r="P2" s="5">
-        <v>15</v>
-      </c>
-      <c r="Q2" s="5">
-        <v>15</v>
-      </c>
-      <c r="R2" s="5">
-        <v>15</v>
-      </c>
-      <c r="S2" s="5">
-        <v>15</v>
-      </c>
-      <c r="T2" s="5">
-        <v>15</v>
-      </c>
-      <c r="U2" s="5">
-        <v>15</v>
-      </c>
-      <c r="V2" s="5">
-        <v>15</v>
-      </c>
-      <c r="W2" s="5">
-        <v>15</v>
-      </c>
-      <c r="X2" s="5">
-        <v>15</v>
-      </c>
-      <c r="Y2" s="5">
-        <v>15</v>
-      </c>
-      <c r="Z2" s="5">
-        <v>15</v>
-      </c>
-      <c r="AA2" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="5">
-        <v>7</v>
-      </c>
-      <c r="C3" s="5">
-        <v>7</v>
-      </c>
-      <c r="D3" s="5">
-        <v>7</v>
-      </c>
-      <c r="E3" s="5">
-        <v>7</v>
-      </c>
-      <c r="F3" s="5">
-        <v>7</v>
-      </c>
-      <c r="G3" s="5">
-        <v>7</v>
-      </c>
-      <c r="H3" s="5">
-        <v>7</v>
-      </c>
-      <c r="I3" s="5">
-        <v>7</v>
-      </c>
-      <c r="J3" s="5">
-        <v>7</v>
-      </c>
-      <c r="K3" s="5">
-        <v>7</v>
-      </c>
-      <c r="L3" s="5">
-        <v>7</v>
-      </c>
-      <c r="M3" s="5">
-        <v>7</v>
-      </c>
-      <c r="N3" s="5">
-        <v>7</v>
-      </c>
-      <c r="O3" s="5">
-        <v>7</v>
-      </c>
-      <c r="P3" s="5">
-        <v>7</v>
-      </c>
-      <c r="Q3" s="5">
-        <v>7</v>
-      </c>
-      <c r="R3" s="5">
-        <v>7</v>
-      </c>
-      <c r="S3" s="5">
-        <v>7</v>
-      </c>
-      <c r="T3" s="5">
-        <v>7</v>
-      </c>
-      <c r="U3" s="5">
-        <v>7</v>
-      </c>
-      <c r="V3" s="5">
-        <v>7</v>
-      </c>
-      <c r="W3" s="5">
-        <v>7</v>
-      </c>
-      <c r="X3" s="5">
-        <v>7</v>
-      </c>
-      <c r="Y3" s="5">
-        <v>7</v>
-      </c>
-      <c r="Z3" s="5">
-        <v>7</v>
-      </c>
-      <c r="AA3" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5">
-        <v>1</v>
-      </c>
-      <c r="E4" s="5">
-        <v>1</v>
-      </c>
-      <c r="F4" s="5">
-        <v>1</v>
-      </c>
-      <c r="G4" s="5">
-        <v>1</v>
-      </c>
-      <c r="H4" s="5">
-        <v>1</v>
-      </c>
-      <c r="I4" s="5">
-        <v>1</v>
-      </c>
-      <c r="J4" s="5">
-        <v>1</v>
-      </c>
-      <c r="K4" s="5">
-        <v>1</v>
-      </c>
-      <c r="L4" s="5">
-        <v>1</v>
-      </c>
-      <c r="M4" s="5">
-        <v>1</v>
-      </c>
-      <c r="N4" s="5">
-        <v>1</v>
-      </c>
-      <c r="O4" s="5">
-        <v>1</v>
-      </c>
-      <c r="P4" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="5">
-        <v>1</v>
-      </c>
-      <c r="R4" s="5">
-        <v>0</v>
-      </c>
-      <c r="S4" s="5">
-        <v>0</v>
-      </c>
-      <c r="T4" s="5">
-        <v>0</v>
-      </c>
-      <c r="U4" s="5">
-        <v>0</v>
-      </c>
-      <c r="V4" s="5">
-        <v>0</v>
-      </c>
-      <c r="W4" s="5">
-        <v>0</v>
-      </c>
-      <c r="X4" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="5">
-        <v>3</v>
-      </c>
-      <c r="C5" s="5">
-        <v>3</v>
-      </c>
-      <c r="D5" s="5">
-        <v>3</v>
-      </c>
-      <c r="E5" s="5">
-        <v>3</v>
-      </c>
-      <c r="F5" s="5">
-        <v>3</v>
-      </c>
-      <c r="G5" s="5">
-        <v>3</v>
-      </c>
-      <c r="H5" s="5">
-        <v>3</v>
-      </c>
-      <c r="I5" s="5">
-        <v>3</v>
-      </c>
-      <c r="J5" s="5">
-        <v>3</v>
-      </c>
-      <c r="K5" s="5">
-        <v>3</v>
-      </c>
-      <c r="L5" s="5">
-        <v>3</v>
-      </c>
-      <c r="M5" s="5">
-        <v>3</v>
-      </c>
-      <c r="N5" s="5">
-        <v>3</v>
-      </c>
-      <c r="O5" s="5">
-        <v>3</v>
-      </c>
-      <c r="P5" s="5">
-        <v>3</v>
-      </c>
-      <c r="Q5" s="5">
-        <v>3</v>
-      </c>
-      <c r="R5" s="5">
-        <v>3</v>
-      </c>
-      <c r="S5" s="5">
-        <v>3</v>
-      </c>
-      <c r="T5" s="5">
-        <v>3</v>
-      </c>
-      <c r="U5" s="5">
-        <v>3</v>
-      </c>
-      <c r="V5" s="5">
-        <v>3</v>
-      </c>
-      <c r="W5" s="5">
-        <v>3</v>
-      </c>
-      <c r="X5" s="5">
-        <v>3</v>
-      </c>
-      <c r="Y5" s="5">
-        <v>3</v>
-      </c>
-      <c r="Z5" s="5">
-        <v>3</v>
-      </c>
-      <c r="AA5" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="5">
-        <v>10</v>
-      </c>
-      <c r="C6" s="5">
-        <v>10</v>
-      </c>
-      <c r="D6" s="5">
-        <v>10</v>
-      </c>
-      <c r="E6" s="5">
-        <v>10</v>
-      </c>
-      <c r="F6" s="5">
-        <v>10</v>
-      </c>
-      <c r="G6" s="5">
-        <v>10</v>
-      </c>
-      <c r="H6" s="5">
-        <v>10</v>
-      </c>
-      <c r="I6" s="5">
-        <v>10</v>
-      </c>
-      <c r="J6" s="5">
-        <v>10</v>
-      </c>
-      <c r="K6" s="5">
-        <v>10</v>
-      </c>
-      <c r="L6" s="5">
-        <v>10</v>
-      </c>
-      <c r="M6" s="5">
-        <v>10</v>
-      </c>
-      <c r="N6" s="5">
-        <v>10</v>
-      </c>
-      <c r="O6" s="5">
-        <v>10</v>
-      </c>
-      <c r="P6" s="5">
-        <v>10</v>
-      </c>
-      <c r="Q6" s="5">
-        <v>10</v>
-      </c>
-      <c r="R6" s="5">
-        <v>10</v>
-      </c>
-      <c r="S6" s="5">
-        <v>10</v>
-      </c>
-      <c r="T6" s="5">
-        <v>10</v>
-      </c>
-      <c r="U6" s="5">
-        <v>10</v>
-      </c>
-      <c r="V6" s="5">
-        <v>10</v>
-      </c>
-      <c r="W6" s="5">
-        <v>10</v>
-      </c>
-      <c r="X6" s="5">
-        <v>10</v>
-      </c>
-      <c r="Y6" s="5">
-        <v>10</v>
-      </c>
-      <c r="Z6" s="5">
-        <v>10</v>
-      </c>
-      <c r="AA6" s="5">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -4510,21 +4210,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B80F836-AAFA-4D20-813C-A31BE68F85E1}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.4140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.69921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -4535,16 +4236,22 @@
         <v>44</v>
       </c>
       <c r="D1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" t="s">
         <v>43</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -4554,17 +4261,23 @@
       <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2">
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2">
         <v>6000</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>2017</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -4574,17 +4287,23 @@
       <c r="C3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
         <v>20</v>
       </c>
-      <c r="E3">
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
         <v>5000</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>2023</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -4594,17 +4313,23 @@
       <c r="C4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
         <v>21</v>
       </c>
-      <c r="E4">
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4">
         <v>2000</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>2022</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -4614,14 +4339,534 @@
       <c r="C5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5">
         <v>2000</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>2019</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20EB8FDB-F47B-40C2-8266-6700BCAB2D8C}">
+  <dimension ref="A1:AA6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1">
+        <v>2025</v>
+      </c>
+      <c r="C1">
+        <v>2026</v>
+      </c>
+      <c r="D1">
+        <v>2027</v>
+      </c>
+      <c r="E1">
+        <v>2028</v>
+      </c>
+      <c r="F1">
+        <v>2029</v>
+      </c>
+      <c r="G1">
+        <v>2030</v>
+      </c>
+      <c r="H1">
+        <v>2031</v>
+      </c>
+      <c r="I1">
+        <v>2032</v>
+      </c>
+      <c r="J1">
+        <v>2033</v>
+      </c>
+      <c r="K1">
+        <v>2034</v>
+      </c>
+      <c r="L1">
+        <v>2035</v>
+      </c>
+      <c r="M1">
+        <v>2036</v>
+      </c>
+      <c r="N1">
+        <v>2037</v>
+      </c>
+      <c r="O1">
+        <v>2038</v>
+      </c>
+      <c r="P1">
+        <v>2039</v>
+      </c>
+      <c r="Q1">
+        <v>2040</v>
+      </c>
+      <c r="R1">
+        <v>2041</v>
+      </c>
+      <c r="S1">
+        <v>2042</v>
+      </c>
+      <c r="T1">
+        <v>2043</v>
+      </c>
+      <c r="U1">
+        <v>2044</v>
+      </c>
+      <c r="V1">
+        <v>2045</v>
+      </c>
+      <c r="W1">
+        <v>2046</v>
+      </c>
+      <c r="X1">
+        <v>2047</v>
+      </c>
+      <c r="Y1">
+        <v>2048</v>
+      </c>
+      <c r="Z1">
+        <v>2049</v>
+      </c>
+      <c r="AA1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5">
+        <v>15</v>
+      </c>
+      <c r="C2" s="5">
+        <v>15</v>
+      </c>
+      <c r="D2" s="5">
+        <v>15</v>
+      </c>
+      <c r="E2" s="5">
+        <v>15</v>
+      </c>
+      <c r="F2" s="5">
+        <v>15</v>
+      </c>
+      <c r="G2" s="5">
+        <v>15</v>
+      </c>
+      <c r="H2" s="5">
+        <v>15</v>
+      </c>
+      <c r="I2" s="5">
+        <v>15</v>
+      </c>
+      <c r="J2" s="5">
+        <v>15</v>
+      </c>
+      <c r="K2" s="5">
+        <v>15</v>
+      </c>
+      <c r="L2" s="5">
+        <v>15</v>
+      </c>
+      <c r="M2" s="5">
+        <v>15</v>
+      </c>
+      <c r="N2" s="5">
+        <v>15</v>
+      </c>
+      <c r="O2" s="5">
+        <v>15</v>
+      </c>
+      <c r="P2" s="5">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>15</v>
+      </c>
+      <c r="R2" s="5">
+        <v>15</v>
+      </c>
+      <c r="S2" s="5">
+        <v>15</v>
+      </c>
+      <c r="T2" s="5">
+        <v>15</v>
+      </c>
+      <c r="U2" s="5">
+        <v>15</v>
+      </c>
+      <c r="V2" s="5">
+        <v>15</v>
+      </c>
+      <c r="W2" s="5">
+        <v>15</v>
+      </c>
+      <c r="X2" s="5">
+        <v>15</v>
+      </c>
+      <c r="Y2" s="5">
+        <v>15</v>
+      </c>
+      <c r="Z2" s="5">
+        <v>15</v>
+      </c>
+      <c r="AA2" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5">
+        <v>7</v>
+      </c>
+      <c r="C3" s="5">
+        <v>7</v>
+      </c>
+      <c r="D3" s="5">
+        <v>7</v>
+      </c>
+      <c r="E3" s="5">
+        <v>7</v>
+      </c>
+      <c r="F3" s="5">
+        <v>7</v>
+      </c>
+      <c r="G3" s="5">
+        <v>7</v>
+      </c>
+      <c r="H3" s="5">
+        <v>7</v>
+      </c>
+      <c r="I3" s="5">
+        <v>7</v>
+      </c>
+      <c r="J3" s="5">
+        <v>7</v>
+      </c>
+      <c r="K3" s="5">
+        <v>7</v>
+      </c>
+      <c r="L3" s="5">
+        <v>7</v>
+      </c>
+      <c r="M3" s="5">
+        <v>7</v>
+      </c>
+      <c r="N3" s="5">
+        <v>7</v>
+      </c>
+      <c r="O3" s="5">
+        <v>7</v>
+      </c>
+      <c r="P3" s="5">
+        <v>7</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>7</v>
+      </c>
+      <c r="R3" s="5">
+        <v>7</v>
+      </c>
+      <c r="S3" s="5">
+        <v>7</v>
+      </c>
+      <c r="T3" s="5">
+        <v>7</v>
+      </c>
+      <c r="U3" s="5">
+        <v>7</v>
+      </c>
+      <c r="V3" s="5">
+        <v>7</v>
+      </c>
+      <c r="W3" s="5">
+        <v>7</v>
+      </c>
+      <c r="X3" s="5">
+        <v>7</v>
+      </c>
+      <c r="Y3" s="5">
+        <v>7</v>
+      </c>
+      <c r="Z3" s="5">
+        <v>7</v>
+      </c>
+      <c r="AA3" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1</v>
+      </c>
+      <c r="H4" s="5">
+        <v>1</v>
+      </c>
+      <c r="I4" s="5">
+        <v>1</v>
+      </c>
+      <c r="J4" s="5">
+        <v>1</v>
+      </c>
+      <c r="K4" s="5">
+        <v>1</v>
+      </c>
+      <c r="L4" s="5">
+        <v>1</v>
+      </c>
+      <c r="M4" s="5">
+        <v>1</v>
+      </c>
+      <c r="N4" s="5">
+        <v>1</v>
+      </c>
+      <c r="O4" s="5">
+        <v>1</v>
+      </c>
+      <c r="P4" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>1</v>
+      </c>
+      <c r="R4" s="5">
+        <v>0</v>
+      </c>
+      <c r="S4" s="5">
+        <v>0</v>
+      </c>
+      <c r="T4" s="5">
+        <v>0</v>
+      </c>
+      <c r="U4" s="5">
+        <v>0</v>
+      </c>
+      <c r="V4" s="5">
+        <v>0</v>
+      </c>
+      <c r="W4" s="5">
+        <v>0</v>
+      </c>
+      <c r="X4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5">
+        <v>3</v>
+      </c>
+      <c r="D5" s="5">
+        <v>3</v>
+      </c>
+      <c r="E5" s="5">
+        <v>3</v>
+      </c>
+      <c r="F5" s="5">
+        <v>3</v>
+      </c>
+      <c r="G5" s="5">
+        <v>3</v>
+      </c>
+      <c r="H5" s="5">
+        <v>3</v>
+      </c>
+      <c r="I5" s="5">
+        <v>3</v>
+      </c>
+      <c r="J5" s="5">
+        <v>3</v>
+      </c>
+      <c r="K5" s="5">
+        <v>3</v>
+      </c>
+      <c r="L5" s="5">
+        <v>3</v>
+      </c>
+      <c r="M5" s="5">
+        <v>3</v>
+      </c>
+      <c r="N5" s="5">
+        <v>3</v>
+      </c>
+      <c r="O5" s="5">
+        <v>3</v>
+      </c>
+      <c r="P5" s="5">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>3</v>
+      </c>
+      <c r="R5" s="5">
+        <v>3</v>
+      </c>
+      <c r="S5" s="5">
+        <v>3</v>
+      </c>
+      <c r="T5" s="5">
+        <v>3</v>
+      </c>
+      <c r="U5" s="5">
+        <v>3</v>
+      </c>
+      <c r="V5" s="5">
+        <v>3</v>
+      </c>
+      <c r="W5" s="5">
+        <v>3</v>
+      </c>
+      <c r="X5" s="5">
+        <v>3</v>
+      </c>
+      <c r="Y5" s="5">
+        <v>3</v>
+      </c>
+      <c r="Z5" s="5">
+        <v>3</v>
+      </c>
+      <c r="AA5" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="5">
+        <v>10</v>
+      </c>
+      <c r="C6" s="5">
+        <v>10</v>
+      </c>
+      <c r="D6" s="5">
+        <v>10</v>
+      </c>
+      <c r="E6" s="5">
+        <v>10</v>
+      </c>
+      <c r="F6" s="5">
+        <v>10</v>
+      </c>
+      <c r="G6" s="5">
+        <v>10</v>
+      </c>
+      <c r="H6" s="5">
+        <v>10</v>
+      </c>
+      <c r="I6" s="5">
+        <v>10</v>
+      </c>
+      <c r="J6" s="5">
+        <v>10</v>
+      </c>
+      <c r="K6" s="5">
+        <v>10</v>
+      </c>
+      <c r="L6" s="5">
+        <v>10</v>
+      </c>
+      <c r="M6" s="5">
+        <v>10</v>
+      </c>
+      <c r="N6" s="5">
+        <v>10</v>
+      </c>
+      <c r="O6" s="5">
+        <v>10</v>
+      </c>
+      <c r="P6" s="5">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>10</v>
+      </c>
+      <c r="R6" s="5">
+        <v>10</v>
+      </c>
+      <c r="S6" s="5">
+        <v>10</v>
+      </c>
+      <c r="T6" s="5">
+        <v>10</v>
+      </c>
+      <c r="U6" s="5">
+        <v>10</v>
+      </c>
+      <c r="V6" s="5">
+        <v>10</v>
+      </c>
+      <c r="W6" s="5">
+        <v>10</v>
+      </c>
+      <c r="X6" s="5">
+        <v>10</v>
+      </c>
+      <c r="Y6" s="5">
+        <v>10</v>
+      </c>
+      <c r="Z6" s="5">
+        <v>10</v>
+      </c>
+      <c r="AA6" s="5">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -4638,9 +4883,9 @@
       <selection activeCell="Q3" sqref="Q3:AA3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -4723,7 +4968,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -4806,7 +5051,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -4889,7 +5134,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -4972,7 +5217,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:27" ht="34" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>49</v>
       </c>
@@ -5095,9 +5340,9 @@
       <selection activeCell="B5" sqref="B5:AA5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -5180,7 +5425,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -5289,7 +5534,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -5398,7 +5643,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -5507,7 +5752,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:27" ht="34" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>49</v>
       </c>
@@ -5630,9 +5875,9 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -5715,7 +5960,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -5824,7 +6069,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -5933,7 +6178,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -6042,7 +6287,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:27" ht="34" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>49</v>
       </c>
@@ -6161,18 +6406,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED5339A0-3D98-43CE-86F7-53EF60721306}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -6183,7 +6428,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -6194,7 +6439,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -6205,7 +6450,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -6216,7 +6461,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" ht="34" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>49</v>
       </c>
@@ -6241,9 +6486,9 @@
       <selection sqref="A1:AA5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -6326,7 +6571,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -6409,7 +6654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -6492,7 +6737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -6575,7 +6820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:27" ht="34" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>49</v>
       </c>
@@ -6668,17 +6913,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E46CCB1-2754-42FA-B5C9-8DABA83A320C}">
   <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:AA2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
@@ -6761,7 +7006,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -6854,13 +7099,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D074F1A1-9C61-4352-AF1E-453C90E48727}">
   <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
@@ -6943,7 +7188,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>53</v>
       </c>

--- a/database/steel_data.xlsx
+++ b/database/steel_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinsupark/jinsu-coding/macc_steel/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8CF4A9-7B4E-D042-88A0-81AEBCDAE5FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9436CD-71E9-9045-A735-D4958831A20C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" tabRatio="775" firstSheet="10" activeTab="16" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="775" activeTab="1" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="18" r:id="rId1"/>
@@ -23,9 +23,9 @@
     <sheet name="emission" sheetId="23" r:id="rId8"/>
     <sheet name="emission_system" sheetId="24" r:id="rId9"/>
     <sheet name="technology_ei" sheetId="21" r:id="rId10"/>
-    <sheet name="technology_material_pairs" sheetId="6" r:id="rId11"/>
-    <sheet name="material_cost" sheetId="11" r:id="rId12"/>
-    <sheet name="material_efficiency" sheetId="17" r:id="rId13"/>
+    <sheet name="material_efficiency" sheetId="17" r:id="rId11"/>
+    <sheet name="technology_material_pairs" sheetId="6" r:id="rId12"/>
+    <sheet name="material_cost" sheetId="11" r:id="rId13"/>
     <sheet name="material_emission" sheetId="12" r:id="rId14"/>
     <sheet name="material_introduction" sheetId="27" r:id="rId15"/>
     <sheet name="fuel_introduction" sheetId="26" r:id="rId16"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="82">
   <si>
     <t>system</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -259,105 +259,97 @@
     <t>BAT BF-BOF</t>
   </si>
   <si>
-    <t>DRI-EAF_100% green H2</t>
-  </si>
-  <si>
     <t>EAF</t>
-  </si>
-  <si>
-    <t>energy_rate</t>
   </si>
   <si>
     <t>0.81, 0.19</t>
   </si>
   <si>
-    <t>Iron ore_1</t>
+    <t>Met coal_BB</t>
   </si>
   <si>
-    <t>Scrap_1</t>
+    <t>Coke_BB</t>
   </si>
   <si>
-    <t>DRI_1</t>
+    <t>Thermal coal_BB</t>
   </si>
   <si>
-    <t>Iron ore_2</t>
+    <t>BF gas_BB</t>
   </si>
   <si>
-    <t>Scrap_2</t>
+    <t>COG_BB</t>
   </si>
   <si>
-    <t>DRI_2</t>
+    <t>BOF gas_BB</t>
   </si>
   <si>
-    <t>Iron ore_3</t>
+    <t>Natural gas_BB</t>
   </si>
   <si>
-    <t>Scrap_3</t>
+    <t>Iron ore_BB</t>
   </si>
   <si>
-    <t>DRI_3</t>
+    <t>Iron ore_BB, Scrap_BB</t>
   </si>
   <si>
-    <t>Met coal_1</t>
+    <t>Scrap_BB</t>
   </si>
   <si>
-    <t>Coke_1</t>
+    <t>H2-DRI-EAF</t>
   </si>
   <si>
-    <t>Thermal coal_1</t>
+    <t>DRI_BB</t>
   </si>
   <si>
-    <t>BF gas_1</t>
+    <t>Iron ore_EAF</t>
   </si>
   <si>
-    <t>COG_1</t>
+    <t>Scrap_EAF</t>
   </si>
   <si>
-    <t>BOF gas_1</t>
+    <t>DRI_EAF</t>
   </si>
   <si>
-    <t>Natural gas_1</t>
+    <t>Iron ore_H2</t>
   </si>
   <si>
-    <t>Met coal_2</t>
+    <t>Scrap_H2</t>
   </si>
   <si>
-    <t>Hydrogen_2</t>
+    <t>DRI_H2</t>
   </si>
   <si>
-    <t>Electricity_2</t>
+    <t>Hydrogen_H2</t>
   </si>
   <si>
-    <t>Steam_2</t>
+    <t>Electricity_H2</t>
   </si>
   <si>
-    <t>Met coal_3</t>
+    <t>Steam_H2</t>
   </si>
   <si>
-    <t>Natural gas_3</t>
+    <t>Natural gas_EAF</t>
   </si>
   <si>
-    <t>Electricity_3</t>
+    <t>Electricity_EAF</t>
   </si>
   <si>
-    <t>Steam_3</t>
+    <t>Steam_EAF</t>
   </si>
   <si>
-    <t>Met coal_1, Coke_1, Thermal coal_1, BF gas_1, COG_1, BOF gas_1, Natural gas_1</t>
+    <t>0.34, 0.097, 0.374, 0.114, 0.059, 0.016</t>
   </si>
   <si>
-    <t>Iron ore_1, Scrap_1</t>
-  </si>
-  <si>
-    <t>0.46, 0.184, 0.052, 0.202, 0.062, 0.032, 0.008</t>
+    <t>Coke_BB, Thermal coal_BB, BF gas_BB, COG_BB, BOF gas_BB, Natural gas_BB, Hydrogen_BB, Electricity_BB, Steam_BB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
@@ -473,7 +465,7 @@
     </xf>
     <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -526,14 +518,11 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1195,7 +1184,7 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1278,7 +1267,7 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1367,16 +1356,867 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3CF035B-C14B-46B7-A841-579E94220A37}">
+  <dimension ref="A1:AA10"/>
+  <sheetViews>
+    <sheetView zoomScale="112" zoomScaleNormal="47" workbookViewId="0">
+      <selection activeCell="W13" sqref="V13:W13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1">
+        <v>2025</v>
+      </c>
+      <c r="C1">
+        <v>2026</v>
+      </c>
+      <c r="D1">
+        <v>2027</v>
+      </c>
+      <c r="E1">
+        <v>2028</v>
+      </c>
+      <c r="F1">
+        <v>2029</v>
+      </c>
+      <c r="G1">
+        <v>2030</v>
+      </c>
+      <c r="H1">
+        <v>2031</v>
+      </c>
+      <c r="I1">
+        <v>2032</v>
+      </c>
+      <c r="J1">
+        <v>2033</v>
+      </c>
+      <c r="K1">
+        <v>2034</v>
+      </c>
+      <c r="L1">
+        <v>2035</v>
+      </c>
+      <c r="M1">
+        <v>2036</v>
+      </c>
+      <c r="N1">
+        <v>2037</v>
+      </c>
+      <c r="O1">
+        <v>2038</v>
+      </c>
+      <c r="P1">
+        <v>2039</v>
+      </c>
+      <c r="Q1">
+        <v>2040</v>
+      </c>
+      <c r="R1">
+        <v>2041</v>
+      </c>
+      <c r="S1">
+        <v>2042</v>
+      </c>
+      <c r="T1">
+        <v>2043</v>
+      </c>
+      <c r="U1">
+        <v>2044</v>
+      </c>
+      <c r="V1">
+        <v>2045</v>
+      </c>
+      <c r="W1">
+        <v>2046</v>
+      </c>
+      <c r="X1">
+        <v>2047</v>
+      </c>
+      <c r="Y1">
+        <v>2048</v>
+      </c>
+      <c r="Z1">
+        <v>2049</v>
+      </c>
+      <c r="AA1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
+      <c r="Y2">
+        <v>1</v>
+      </c>
+      <c r="Z2">
+        <v>1</v>
+      </c>
+      <c r="AA2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="Z3">
+        <v>1</v>
+      </c>
+      <c r="AA3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
+      <c r="Y4">
+        <v>1</v>
+      </c>
+      <c r="Z4">
+        <v>1</v>
+      </c>
+      <c r="AA4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
+      <c r="Y5">
+        <v>1</v>
+      </c>
+      <c r="Z5">
+        <v>1</v>
+      </c>
+      <c r="AA5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="X6">
+        <v>1</v>
+      </c>
+      <c r="Y6">
+        <v>1</v>
+      </c>
+      <c r="Z6">
+        <v>1</v>
+      </c>
+      <c r="AA6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <v>1</v>
+      </c>
+      <c r="Z7">
+        <v>1</v>
+      </c>
+      <c r="AA7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
+      <c r="Y8">
+        <v>1</v>
+      </c>
+      <c r="Z8">
+        <v>1</v>
+      </c>
+      <c r="AA8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <v>1</v>
+      </c>
+      <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <v>1</v>
+      </c>
+      <c r="Y9">
+        <v>1</v>
+      </c>
+      <c r="Z9">
+        <v>1</v>
+      </c>
+      <c r="AA9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <v>1</v>
+      </c>
+      <c r="V10">
+        <v>1</v>
+      </c>
+      <c r="W10">
+        <v>1</v>
+      </c>
+      <c r="X10">
+        <v>1</v>
+      </c>
+      <c r="Y10">
+        <v>1</v>
+      </c>
+      <c r="Z10">
+        <v>1</v>
+      </c>
+      <c r="AA10">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83A8B42D-00EB-470C-A0D2-7C21A6CB877B}">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView zoomScale="107" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.1640625" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
@@ -1398,22 +2238,20 @@
       <c r="E1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="14" t="s">
-        <v>56</v>
-      </c>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C2" s="14">
         <v>1</v>
       </c>
       <c r="D2" s="14">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="E2" s="14">
         <v>2000</v>
@@ -1424,7 +2262,7 @@
         <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C3" s="14">
         <v>0.3</v>
@@ -1441,7 +2279,7 @@
         <v>53</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C4" s="14">
         <v>0.01</v>
@@ -1455,10 +2293,10 @@
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C5" s="14">
         <v>0.01</v>
@@ -1472,10 +2310,10 @@
     </row>
     <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C6" s="14">
         <v>0.3</v>
@@ -1489,10 +2327,10 @@
     </row>
     <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C7" s="14">
         <v>1</v>
@@ -1506,10 +2344,10 @@
     </row>
     <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C8" s="14">
         <v>0.01</v>
@@ -1523,16 +2361,16 @@
     </row>
     <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C9" s="14">
         <v>1</v>
       </c>
       <c r="D9" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="14">
         <v>2000</v>
@@ -1540,10 +2378,10 @@
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C10" s="14">
         <v>0.01</v>
@@ -1563,857 +2401,6 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9059A3E3-467F-433B-AAF0-DA415330A29D}">
-  <dimension ref="A1:AA10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="27" width="9.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1">
-        <v>2025</v>
-      </c>
-      <c r="C1">
-        <v>2026</v>
-      </c>
-      <c r="D1">
-        <v>2027</v>
-      </c>
-      <c r="E1">
-        <v>2028</v>
-      </c>
-      <c r="F1">
-        <v>2029</v>
-      </c>
-      <c r="G1">
-        <v>2030</v>
-      </c>
-      <c r="H1">
-        <v>2031</v>
-      </c>
-      <c r="I1">
-        <v>2032</v>
-      </c>
-      <c r="J1">
-        <v>2033</v>
-      </c>
-      <c r="K1">
-        <v>2034</v>
-      </c>
-      <c r="L1">
-        <v>2035</v>
-      </c>
-      <c r="M1">
-        <v>2036</v>
-      </c>
-      <c r="N1">
-        <v>2037</v>
-      </c>
-      <c r="O1">
-        <v>2038</v>
-      </c>
-      <c r="P1">
-        <v>2039</v>
-      </c>
-      <c r="Q1">
-        <v>2040</v>
-      </c>
-      <c r="R1">
-        <v>2041</v>
-      </c>
-      <c r="S1">
-        <v>2042</v>
-      </c>
-      <c r="T1">
-        <v>2043</v>
-      </c>
-      <c r="U1">
-        <v>2044</v>
-      </c>
-      <c r="V1">
-        <v>2045</v>
-      </c>
-      <c r="W1">
-        <v>2046</v>
-      </c>
-      <c r="X1">
-        <v>2047</v>
-      </c>
-      <c r="Y1">
-        <v>2048</v>
-      </c>
-      <c r="Z1">
-        <v>2049</v>
-      </c>
-      <c r="AA1">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="5">
-        <v>126638.8</v>
-      </c>
-      <c r="C2" s="5">
-        <v>126638.8</v>
-      </c>
-      <c r="D2" s="5">
-        <v>126638.8</v>
-      </c>
-      <c r="E2" s="5">
-        <v>126638.8</v>
-      </c>
-      <c r="F2" s="5">
-        <v>126638.8</v>
-      </c>
-      <c r="G2" s="5">
-        <v>126638.8</v>
-      </c>
-      <c r="H2" s="5">
-        <v>126638.8</v>
-      </c>
-      <c r="I2" s="5">
-        <v>126638.8</v>
-      </c>
-      <c r="J2" s="5">
-        <v>126638.8</v>
-      </c>
-      <c r="K2" s="5">
-        <v>126638.8</v>
-      </c>
-      <c r="L2" s="5">
-        <v>126638.8</v>
-      </c>
-      <c r="M2" s="5">
-        <v>126638.8</v>
-      </c>
-      <c r="N2" s="5">
-        <v>126638.8</v>
-      </c>
-      <c r="O2" s="5">
-        <v>126638.8</v>
-      </c>
-      <c r="P2" s="5">
-        <v>126638.8</v>
-      </c>
-      <c r="Q2" s="5">
-        <v>126638.8</v>
-      </c>
-      <c r="R2" s="5">
-        <v>126638.8</v>
-      </c>
-      <c r="S2" s="5">
-        <v>126638.8</v>
-      </c>
-      <c r="T2" s="5">
-        <v>126638.8</v>
-      </c>
-      <c r="U2" s="5">
-        <v>126638.8</v>
-      </c>
-      <c r="V2" s="5">
-        <v>126638.8</v>
-      </c>
-      <c r="W2" s="5">
-        <v>126638.8</v>
-      </c>
-      <c r="X2" s="5">
-        <v>126638.8</v>
-      </c>
-      <c r="Y2" s="5">
-        <v>126638.8</v>
-      </c>
-      <c r="Z2" s="5">
-        <v>126638.8</v>
-      </c>
-      <c r="AA2" s="5">
-        <v>126638.8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="5">
-        <v>290855.8</v>
-      </c>
-      <c r="C3" s="5">
-        <v>290855.8</v>
-      </c>
-      <c r="D3" s="5">
-        <v>290855.8</v>
-      </c>
-      <c r="E3" s="5">
-        <v>290855.8</v>
-      </c>
-      <c r="F3" s="5">
-        <v>290855.8</v>
-      </c>
-      <c r="G3" s="5">
-        <v>290855.8</v>
-      </c>
-      <c r="H3" s="5">
-        <v>290855.8</v>
-      </c>
-      <c r="I3" s="5">
-        <v>290855.8</v>
-      </c>
-      <c r="J3" s="5">
-        <v>290855.8</v>
-      </c>
-      <c r="K3" s="5">
-        <v>290855.8</v>
-      </c>
-      <c r="L3" s="5">
-        <v>290855.8</v>
-      </c>
-      <c r="M3" s="5">
-        <v>290855.8</v>
-      </c>
-      <c r="N3" s="5">
-        <v>290855.8</v>
-      </c>
-      <c r="O3" s="5">
-        <v>290855.8</v>
-      </c>
-      <c r="P3" s="5">
-        <v>290855.8</v>
-      </c>
-      <c r="Q3" s="5">
-        <v>290855.8</v>
-      </c>
-      <c r="R3" s="5">
-        <v>290855.8</v>
-      </c>
-      <c r="S3" s="5">
-        <v>290855.8</v>
-      </c>
-      <c r="T3" s="5">
-        <v>290855.8</v>
-      </c>
-      <c r="U3" s="5">
-        <v>290855.8</v>
-      </c>
-      <c r="V3" s="5">
-        <v>290855.8</v>
-      </c>
-      <c r="W3" s="5">
-        <v>290855.8</v>
-      </c>
-      <c r="X3" s="5">
-        <v>290855.8</v>
-      </c>
-      <c r="Y3" s="5">
-        <v>290855.8</v>
-      </c>
-      <c r="Z3" s="5">
-        <v>290855.8</v>
-      </c>
-      <c r="AA3" s="5">
-        <v>290855.8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="5">
-        <v>389609</v>
-      </c>
-      <c r="C4" s="5">
-        <v>389609</v>
-      </c>
-      <c r="D4" s="5">
-        <v>389609</v>
-      </c>
-      <c r="E4" s="5">
-        <v>389609</v>
-      </c>
-      <c r="F4" s="5">
-        <v>389609</v>
-      </c>
-      <c r="G4" s="5">
-        <v>389609</v>
-      </c>
-      <c r="H4" s="5">
-        <v>389609</v>
-      </c>
-      <c r="I4" s="5">
-        <v>389609</v>
-      </c>
-      <c r="J4" s="5">
-        <v>389609</v>
-      </c>
-      <c r="K4" s="5">
-        <v>389609</v>
-      </c>
-      <c r="L4" s="5">
-        <v>389609</v>
-      </c>
-      <c r="M4" s="5">
-        <v>389609</v>
-      </c>
-      <c r="N4" s="5">
-        <v>389609</v>
-      </c>
-      <c r="O4" s="5">
-        <v>389609</v>
-      </c>
-      <c r="P4" s="5">
-        <v>389609</v>
-      </c>
-      <c r="Q4" s="5">
-        <v>389609</v>
-      </c>
-      <c r="R4" s="5">
-        <v>389609</v>
-      </c>
-      <c r="S4" s="5">
-        <v>389609</v>
-      </c>
-      <c r="T4" s="5">
-        <v>389609</v>
-      </c>
-      <c r="U4" s="5">
-        <v>389609</v>
-      </c>
-      <c r="V4" s="5">
-        <v>389609</v>
-      </c>
-      <c r="W4" s="5">
-        <v>389609</v>
-      </c>
-      <c r="X4" s="5">
-        <v>389609</v>
-      </c>
-      <c r="Y4" s="5">
-        <v>389609</v>
-      </c>
-      <c r="Z4" s="5">
-        <v>389609</v>
-      </c>
-      <c r="AA4" s="5">
-        <v>389609</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="5">
-        <v>126638.8</v>
-      </c>
-      <c r="C5" s="5">
-        <v>126638.8</v>
-      </c>
-      <c r="D5" s="5">
-        <v>126638.8</v>
-      </c>
-      <c r="E5" s="5">
-        <v>126638.8</v>
-      </c>
-      <c r="F5" s="5">
-        <v>126638.8</v>
-      </c>
-      <c r="G5" s="5">
-        <v>126638.8</v>
-      </c>
-      <c r="H5" s="5">
-        <v>126638.8</v>
-      </c>
-      <c r="I5" s="5">
-        <v>126638.8</v>
-      </c>
-      <c r="J5" s="5">
-        <v>126638.8</v>
-      </c>
-      <c r="K5" s="5">
-        <v>126638.8</v>
-      </c>
-      <c r="L5" s="5">
-        <v>126638.8</v>
-      </c>
-      <c r="M5" s="5">
-        <v>126638.8</v>
-      </c>
-      <c r="N5" s="5">
-        <v>126638.8</v>
-      </c>
-      <c r="O5" s="5">
-        <v>126638.8</v>
-      </c>
-      <c r="P5" s="5">
-        <v>126638.8</v>
-      </c>
-      <c r="Q5" s="5">
-        <v>126638.8</v>
-      </c>
-      <c r="R5" s="5">
-        <v>126638.8</v>
-      </c>
-      <c r="S5" s="5">
-        <v>126638.8</v>
-      </c>
-      <c r="T5" s="5">
-        <v>126638.8</v>
-      </c>
-      <c r="U5" s="5">
-        <v>126638.8</v>
-      </c>
-      <c r="V5" s="5">
-        <v>126638.8</v>
-      </c>
-      <c r="W5" s="5">
-        <v>126638.8</v>
-      </c>
-      <c r="X5" s="5">
-        <v>126638.8</v>
-      </c>
-      <c r="Y5" s="5">
-        <v>126638.8</v>
-      </c>
-      <c r="Z5" s="5">
-        <v>126638.8</v>
-      </c>
-      <c r="AA5" s="5">
-        <v>126638.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="5">
-        <v>290855.8</v>
-      </c>
-      <c r="C6" s="5">
-        <v>290855.8</v>
-      </c>
-      <c r="D6" s="5">
-        <v>290855.8</v>
-      </c>
-      <c r="E6" s="5">
-        <v>290855.8</v>
-      </c>
-      <c r="F6" s="5">
-        <v>290855.8</v>
-      </c>
-      <c r="G6" s="5">
-        <v>290855.8</v>
-      </c>
-      <c r="H6" s="5">
-        <v>290855.8</v>
-      </c>
-      <c r="I6" s="5">
-        <v>290855.8</v>
-      </c>
-      <c r="J6" s="5">
-        <v>290855.8</v>
-      </c>
-      <c r="K6" s="5">
-        <v>290855.8</v>
-      </c>
-      <c r="L6" s="5">
-        <v>290855.8</v>
-      </c>
-      <c r="M6" s="5">
-        <v>290855.8</v>
-      </c>
-      <c r="N6" s="5">
-        <v>290855.8</v>
-      </c>
-      <c r="O6" s="5">
-        <v>290855.8</v>
-      </c>
-      <c r="P6" s="5">
-        <v>290855.8</v>
-      </c>
-      <c r="Q6" s="5">
-        <v>290855.8</v>
-      </c>
-      <c r="R6" s="5">
-        <v>290855.8</v>
-      </c>
-      <c r="S6" s="5">
-        <v>290855.8</v>
-      </c>
-      <c r="T6" s="5">
-        <v>290855.8</v>
-      </c>
-      <c r="U6" s="5">
-        <v>290855.8</v>
-      </c>
-      <c r="V6" s="5">
-        <v>290855.8</v>
-      </c>
-      <c r="W6" s="5">
-        <v>290855.8</v>
-      </c>
-      <c r="X6" s="5">
-        <v>290855.8</v>
-      </c>
-      <c r="Y6" s="5">
-        <v>290855.8</v>
-      </c>
-      <c r="Z6" s="5">
-        <v>290855.8</v>
-      </c>
-      <c r="AA6" s="5">
-        <v>290855.8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="5">
-        <v>389609</v>
-      </c>
-      <c r="C7" s="5">
-        <v>389609</v>
-      </c>
-      <c r="D7" s="5">
-        <v>389609</v>
-      </c>
-      <c r="E7" s="5">
-        <v>389609</v>
-      </c>
-      <c r="F7" s="5">
-        <v>389609</v>
-      </c>
-      <c r="G7" s="5">
-        <v>389609</v>
-      </c>
-      <c r="H7" s="5">
-        <v>389609</v>
-      </c>
-      <c r="I7" s="5">
-        <v>389609</v>
-      </c>
-      <c r="J7" s="5">
-        <v>389609</v>
-      </c>
-      <c r="K7" s="5">
-        <v>389609</v>
-      </c>
-      <c r="L7" s="5">
-        <v>389609</v>
-      </c>
-      <c r="M7" s="5">
-        <v>389609</v>
-      </c>
-      <c r="N7" s="5">
-        <v>389609</v>
-      </c>
-      <c r="O7" s="5">
-        <v>389609</v>
-      </c>
-      <c r="P7" s="5">
-        <v>389609</v>
-      </c>
-      <c r="Q7" s="5">
-        <v>389609</v>
-      </c>
-      <c r="R7" s="5">
-        <v>389609</v>
-      </c>
-      <c r="S7" s="5">
-        <v>389609</v>
-      </c>
-      <c r="T7" s="5">
-        <v>389609</v>
-      </c>
-      <c r="U7" s="5">
-        <v>389609</v>
-      </c>
-      <c r="V7" s="5">
-        <v>389609</v>
-      </c>
-      <c r="W7" s="5">
-        <v>389609</v>
-      </c>
-      <c r="X7" s="5">
-        <v>389609</v>
-      </c>
-      <c r="Y7" s="5">
-        <v>389609</v>
-      </c>
-      <c r="Z7" s="5">
-        <v>389609</v>
-      </c>
-      <c r="AA7" s="5">
-        <v>389609</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" s="5">
-        <v>126638.8</v>
-      </c>
-      <c r="C8" s="5">
-        <v>126638.8</v>
-      </c>
-      <c r="D8" s="5">
-        <v>126638.8</v>
-      </c>
-      <c r="E8" s="5">
-        <v>126638.8</v>
-      </c>
-      <c r="F8" s="5">
-        <v>126638.8</v>
-      </c>
-      <c r="G8" s="5">
-        <v>126638.8</v>
-      </c>
-      <c r="H8" s="5">
-        <v>126638.8</v>
-      </c>
-      <c r="I8" s="5">
-        <v>126638.8</v>
-      </c>
-      <c r="J8" s="5">
-        <v>126638.8</v>
-      </c>
-      <c r="K8" s="5">
-        <v>126638.8</v>
-      </c>
-      <c r="L8" s="5">
-        <v>126638.8</v>
-      </c>
-      <c r="M8" s="5">
-        <v>126638.8</v>
-      </c>
-      <c r="N8" s="5">
-        <v>126638.8</v>
-      </c>
-      <c r="O8" s="5">
-        <v>126638.8</v>
-      </c>
-      <c r="P8" s="5">
-        <v>126638.8</v>
-      </c>
-      <c r="Q8" s="5">
-        <v>126638.8</v>
-      </c>
-      <c r="R8" s="5">
-        <v>126638.8</v>
-      </c>
-      <c r="S8" s="5">
-        <v>126638.8</v>
-      </c>
-      <c r="T8" s="5">
-        <v>126638.8</v>
-      </c>
-      <c r="U8" s="5">
-        <v>126638.8</v>
-      </c>
-      <c r="V8" s="5">
-        <v>126638.8</v>
-      </c>
-      <c r="W8" s="5">
-        <v>126638.8</v>
-      </c>
-      <c r="X8" s="5">
-        <v>126638.8</v>
-      </c>
-      <c r="Y8" s="5">
-        <v>126638.8</v>
-      </c>
-      <c r="Z8" s="5">
-        <v>126638.8</v>
-      </c>
-      <c r="AA8" s="5">
-        <v>126638.8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" s="5">
-        <v>290855.8</v>
-      </c>
-      <c r="C9" s="5">
-        <v>290855.8</v>
-      </c>
-      <c r="D9" s="5">
-        <v>290855.8</v>
-      </c>
-      <c r="E9" s="5">
-        <v>290855.8</v>
-      </c>
-      <c r="F9" s="5">
-        <v>290855.8</v>
-      </c>
-      <c r="G9" s="5">
-        <v>290855.8</v>
-      </c>
-      <c r="H9" s="5">
-        <v>290855.8</v>
-      </c>
-      <c r="I9" s="5">
-        <v>290855.8</v>
-      </c>
-      <c r="J9" s="5">
-        <v>290855.8</v>
-      </c>
-      <c r="K9" s="5">
-        <v>290855.8</v>
-      </c>
-      <c r="L9" s="5">
-        <v>290855.8</v>
-      </c>
-      <c r="M9" s="5">
-        <v>290855.8</v>
-      </c>
-      <c r="N9" s="5">
-        <v>290855.8</v>
-      </c>
-      <c r="O9" s="5">
-        <v>290855.8</v>
-      </c>
-      <c r="P9" s="5">
-        <v>290855.8</v>
-      </c>
-      <c r="Q9" s="5">
-        <v>290855.8</v>
-      </c>
-      <c r="R9" s="5">
-        <v>290855.8</v>
-      </c>
-      <c r="S9" s="5">
-        <v>290855.8</v>
-      </c>
-      <c r="T9" s="5">
-        <v>290855.8</v>
-      </c>
-      <c r="U9" s="5">
-        <v>290855.8</v>
-      </c>
-      <c r="V9" s="5">
-        <v>290855.8</v>
-      </c>
-      <c r="W9" s="5">
-        <v>290855.8</v>
-      </c>
-      <c r="X9" s="5">
-        <v>290855.8</v>
-      </c>
-      <c r="Y9" s="5">
-        <v>290855.8</v>
-      </c>
-      <c r="Z9" s="5">
-        <v>290855.8</v>
-      </c>
-      <c r="AA9" s="5">
-        <v>290855.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="5">
-        <v>389609</v>
-      </c>
-      <c r="C10" s="5">
-        <v>389609</v>
-      </c>
-      <c r="D10" s="5">
-        <v>389609</v>
-      </c>
-      <c r="E10" s="5">
-        <v>389609</v>
-      </c>
-      <c r="F10" s="5">
-        <v>389609</v>
-      </c>
-      <c r="G10" s="5">
-        <v>389609</v>
-      </c>
-      <c r="H10" s="5">
-        <v>389609</v>
-      </c>
-      <c r="I10" s="5">
-        <v>389609</v>
-      </c>
-      <c r="J10" s="5">
-        <v>389609</v>
-      </c>
-      <c r="K10" s="5">
-        <v>389609</v>
-      </c>
-      <c r="L10" s="5">
-        <v>389609</v>
-      </c>
-      <c r="M10" s="5">
-        <v>389609</v>
-      </c>
-      <c r="N10" s="5">
-        <v>389609</v>
-      </c>
-      <c r="O10" s="5">
-        <v>389609</v>
-      </c>
-      <c r="P10" s="5">
-        <v>389609</v>
-      </c>
-      <c r="Q10" s="5">
-        <v>389609</v>
-      </c>
-      <c r="R10" s="5">
-        <v>389609</v>
-      </c>
-      <c r="S10" s="5">
-        <v>389609</v>
-      </c>
-      <c r="T10" s="5">
-        <v>389609</v>
-      </c>
-      <c r="U10" s="5">
-        <v>389609</v>
-      </c>
-      <c r="V10" s="5">
-        <v>389609</v>
-      </c>
-      <c r="W10" s="5">
-        <v>389609</v>
-      </c>
-      <c r="X10" s="5">
-        <v>389609</v>
-      </c>
-      <c r="Y10" s="5">
-        <v>389609</v>
-      </c>
-      <c r="Z10" s="5">
-        <v>389609</v>
-      </c>
-      <c r="AA10" s="5">
-        <v>389609</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2423,846 +2410,848 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3CF035B-C14B-46B7-A841-579E94220A37}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9059A3E3-467F-433B-AAF0-DA415330A29D}">
   <dimension ref="A1:AA10"/>
   <sheetViews>
-    <sheetView zoomScale="112" zoomScaleNormal="47" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="27" width="9.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="23">
+      <c r="B1">
         <v>2025</v>
       </c>
-      <c r="C1" s="23">
+      <c r="C1">
         <v>2026</v>
       </c>
-      <c r="D1" s="23">
+      <c r="D1">
         <v>2027</v>
       </c>
-      <c r="E1" s="23">
+      <c r="E1">
         <v>2028</v>
       </c>
-      <c r="F1" s="23">
+      <c r="F1">
         <v>2029</v>
       </c>
-      <c r="G1" s="23">
+      <c r="G1">
         <v>2030</v>
       </c>
-      <c r="H1" s="23">
+      <c r="H1">
         <v>2031</v>
       </c>
-      <c r="I1" s="23">
+      <c r="I1">
         <v>2032</v>
       </c>
-      <c r="J1" s="23">
+      <c r="J1">
         <v>2033</v>
       </c>
-      <c r="K1" s="23">
+      <c r="K1">
         <v>2034</v>
       </c>
-      <c r="L1" s="23">
+      <c r="L1">
         <v>2035</v>
       </c>
-      <c r="M1" s="23">
+      <c r="M1">
         <v>2036</v>
       </c>
-      <c r="N1" s="23">
+      <c r="N1">
         <v>2037</v>
       </c>
-      <c r="O1" s="23">
+      <c r="O1">
         <v>2038</v>
       </c>
-      <c r="P1" s="23">
+      <c r="P1">
         <v>2039</v>
       </c>
-      <c r="Q1" s="23">
+      <c r="Q1">
         <v>2040</v>
       </c>
-      <c r="R1" s="23">
+      <c r="R1">
         <v>2041</v>
       </c>
-      <c r="S1" s="23">
+      <c r="S1">
         <v>2042</v>
       </c>
-      <c r="T1" s="23">
+      <c r="T1">
         <v>2043</v>
       </c>
-      <c r="U1" s="23">
+      <c r="U1">
         <v>2044</v>
       </c>
-      <c r="V1" s="23">
+      <c r="V1">
         <v>2045</v>
       </c>
-      <c r="W1" s="23">
+      <c r="W1">
         <v>2046</v>
       </c>
-      <c r="X1" s="23">
+      <c r="X1">
         <v>2047</v>
       </c>
-      <c r="Y1" s="23">
+      <c r="Y1">
         <v>2048</v>
       </c>
-      <c r="Z1" s="23">
+      <c r="Z1">
         <v>2049</v>
       </c>
-      <c r="AA1" s="23">
+      <c r="AA1">
         <v>2050</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="23">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="C2" s="23">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="D2" s="23">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="E2" s="23">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="F2" s="23">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="G2" s="23">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="H2" s="23">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="I2" s="23">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="J2" s="23">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="K2" s="23">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="L2" s="23">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="M2" s="23">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="N2" s="23">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="O2" s="23">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="P2" s="23">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="Q2" s="23">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="R2" s="23">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="S2" s="23">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="T2" s="23">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="U2" s="23">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="V2" s="23">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="W2" s="23">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="X2" s="23">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="Y2" s="23">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="Z2" s="23">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="AA2" s="23">
-        <v>1.1200000000000001</v>
+      <c r="A2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="5">
+        <v>126638.8</v>
+      </c>
+      <c r="C2" s="5">
+        <v>126638.8</v>
+      </c>
+      <c r="D2" s="5">
+        <v>126638.8</v>
+      </c>
+      <c r="E2" s="5">
+        <v>126638.8</v>
+      </c>
+      <c r="F2" s="5">
+        <v>126638.8</v>
+      </c>
+      <c r="G2" s="5">
+        <v>126638.8</v>
+      </c>
+      <c r="H2" s="5">
+        <v>126638.8</v>
+      </c>
+      <c r="I2" s="5">
+        <v>126638.8</v>
+      </c>
+      <c r="J2" s="5">
+        <v>126638.8</v>
+      </c>
+      <c r="K2" s="5">
+        <v>126638.8</v>
+      </c>
+      <c r="L2" s="5">
+        <v>126638.8</v>
+      </c>
+      <c r="M2" s="5">
+        <v>126638.8</v>
+      </c>
+      <c r="N2" s="5">
+        <v>126638.8</v>
+      </c>
+      <c r="O2" s="5">
+        <v>126638.8</v>
+      </c>
+      <c r="P2" s="5">
+        <v>126638.8</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>126638.8</v>
+      </c>
+      <c r="R2" s="5">
+        <v>126638.8</v>
+      </c>
+      <c r="S2" s="5">
+        <v>126638.8</v>
+      </c>
+      <c r="T2" s="5">
+        <v>126638.8</v>
+      </c>
+      <c r="U2" s="5">
+        <v>126638.8</v>
+      </c>
+      <c r="V2" s="5">
+        <v>126638.8</v>
+      </c>
+      <c r="W2" s="5">
+        <v>126638.8</v>
+      </c>
+      <c r="X2" s="5">
+        <v>126638.8</v>
+      </c>
+      <c r="Y2" s="5">
+        <v>126638.8</v>
+      </c>
+      <c r="Z2" s="5">
+        <v>126638.8</v>
+      </c>
+      <c r="AA2" s="5">
+        <v>126638.8</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="23">
-        <v>0.26</v>
-      </c>
-      <c r="C3" s="23">
-        <v>0.26</v>
-      </c>
-      <c r="D3" s="23">
-        <v>0.26</v>
-      </c>
-      <c r="E3" s="23">
-        <v>0.26</v>
-      </c>
-      <c r="F3" s="23">
-        <v>0.26</v>
-      </c>
-      <c r="G3" s="23">
-        <v>0.26</v>
-      </c>
-      <c r="H3" s="23">
-        <v>0.26</v>
-      </c>
-      <c r="I3" s="23">
-        <v>0.26</v>
-      </c>
-      <c r="J3" s="23">
-        <v>0.26</v>
-      </c>
-      <c r="K3" s="23">
-        <v>0.26</v>
-      </c>
-      <c r="L3" s="23">
-        <v>0.26</v>
-      </c>
-      <c r="M3" s="23">
-        <v>0.26</v>
-      </c>
-      <c r="N3" s="23">
-        <v>0.26</v>
-      </c>
-      <c r="O3" s="23">
-        <v>0.26</v>
-      </c>
-      <c r="P3" s="23">
-        <v>0.26</v>
-      </c>
-      <c r="Q3" s="23">
-        <v>0.26</v>
-      </c>
-      <c r="R3" s="23">
-        <v>0.26</v>
-      </c>
-      <c r="S3" s="23">
-        <v>0.26</v>
-      </c>
-      <c r="T3" s="23">
-        <v>0.26</v>
-      </c>
-      <c r="U3" s="23">
-        <v>0.26</v>
-      </c>
-      <c r="V3" s="23">
-        <v>0.26</v>
-      </c>
-      <c r="W3" s="23">
-        <v>0.26</v>
-      </c>
-      <c r="X3" s="23">
-        <v>0.26</v>
-      </c>
-      <c r="Y3" s="23">
-        <v>0.26</v>
-      </c>
-      <c r="Z3" s="23">
-        <v>0.26</v>
-      </c>
-      <c r="AA3" s="23">
-        <v>0.26</v>
+      <c r="A3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="5">
+        <v>290855.8</v>
+      </c>
+      <c r="C3" s="5">
+        <v>290855.8</v>
+      </c>
+      <c r="D3" s="5">
+        <v>290855.8</v>
+      </c>
+      <c r="E3" s="5">
+        <v>290855.8</v>
+      </c>
+      <c r="F3" s="5">
+        <v>290855.8</v>
+      </c>
+      <c r="G3" s="5">
+        <v>290855.8</v>
+      </c>
+      <c r="H3" s="5">
+        <v>290855.8</v>
+      </c>
+      <c r="I3" s="5">
+        <v>290855.8</v>
+      </c>
+      <c r="J3" s="5">
+        <v>290855.8</v>
+      </c>
+      <c r="K3" s="5">
+        <v>290855.8</v>
+      </c>
+      <c r="L3" s="5">
+        <v>290855.8</v>
+      </c>
+      <c r="M3" s="5">
+        <v>290855.8</v>
+      </c>
+      <c r="N3" s="5">
+        <v>290855.8</v>
+      </c>
+      <c r="O3" s="5">
+        <v>290855.8</v>
+      </c>
+      <c r="P3" s="5">
+        <v>290855.8</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>290855.8</v>
+      </c>
+      <c r="R3" s="5">
+        <v>290855.8</v>
+      </c>
+      <c r="S3" s="5">
+        <v>290855.8</v>
+      </c>
+      <c r="T3" s="5">
+        <v>290855.8</v>
+      </c>
+      <c r="U3" s="5">
+        <v>290855.8</v>
+      </c>
+      <c r="V3" s="5">
+        <v>290855.8</v>
+      </c>
+      <c r="W3" s="5">
+        <v>290855.8</v>
+      </c>
+      <c r="X3" s="5">
+        <v>290855.8</v>
+      </c>
+      <c r="Y3" s="5">
+        <v>290855.8</v>
+      </c>
+      <c r="Z3" s="5">
+        <v>290855.8</v>
+      </c>
+      <c r="AA3" s="5">
+        <v>290855.8</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="C4" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="D4" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="E4" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="F4" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="G4" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="H4" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="I4" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="J4" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="K4" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="L4" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="M4" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="N4" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="O4" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="P4" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="Q4" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="R4" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="S4" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="T4" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="U4" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="V4" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="W4" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="X4" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="Y4" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="Z4" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="AA4" s="23">
-        <v>0.01</v>
+      <c r="A4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="5">
+        <v>389609</v>
+      </c>
+      <c r="C4" s="5">
+        <v>389609</v>
+      </c>
+      <c r="D4" s="5">
+        <v>389609</v>
+      </c>
+      <c r="E4" s="5">
+        <v>389609</v>
+      </c>
+      <c r="F4" s="5">
+        <v>389609</v>
+      </c>
+      <c r="G4" s="5">
+        <v>389609</v>
+      </c>
+      <c r="H4" s="5">
+        <v>389609</v>
+      </c>
+      <c r="I4" s="5">
+        <v>389609</v>
+      </c>
+      <c r="J4" s="5">
+        <v>389609</v>
+      </c>
+      <c r="K4" s="5">
+        <v>389609</v>
+      </c>
+      <c r="L4" s="5">
+        <v>389609</v>
+      </c>
+      <c r="M4" s="5">
+        <v>389609</v>
+      </c>
+      <c r="N4" s="5">
+        <v>389609</v>
+      </c>
+      <c r="O4" s="5">
+        <v>389609</v>
+      </c>
+      <c r="P4" s="5">
+        <v>389609</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>389609</v>
+      </c>
+      <c r="R4" s="5">
+        <v>389609</v>
+      </c>
+      <c r="S4" s="5">
+        <v>389609</v>
+      </c>
+      <c r="T4" s="5">
+        <v>389609</v>
+      </c>
+      <c r="U4" s="5">
+        <v>389609</v>
+      </c>
+      <c r="V4" s="5">
+        <v>389609</v>
+      </c>
+      <c r="W4" s="5">
+        <v>389609</v>
+      </c>
+      <c r="X4" s="5">
+        <v>389609</v>
+      </c>
+      <c r="Y4" s="5">
+        <v>389609</v>
+      </c>
+      <c r="Z4" s="5">
+        <v>389609</v>
+      </c>
+      <c r="AA4" s="5">
+        <v>389609</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="23">
-        <v>1.59</v>
-      </c>
-      <c r="C5" s="23">
-        <v>1.59</v>
-      </c>
-      <c r="D5" s="23">
-        <v>1.59</v>
-      </c>
-      <c r="E5" s="23">
-        <v>1.59</v>
-      </c>
-      <c r="F5" s="23">
-        <v>1.59</v>
-      </c>
-      <c r="G5" s="23">
-        <v>1.59</v>
-      </c>
-      <c r="H5" s="23">
-        <v>1.59</v>
-      </c>
-      <c r="I5" s="23">
-        <v>1.59</v>
-      </c>
-      <c r="J5" s="23">
-        <v>1.59</v>
-      </c>
-      <c r="K5" s="23">
-        <v>1.59</v>
-      </c>
-      <c r="L5" s="23">
-        <v>1.59</v>
-      </c>
-      <c r="M5" s="23">
-        <v>1.59</v>
-      </c>
-      <c r="N5" s="23">
-        <v>1.59</v>
-      </c>
-      <c r="O5" s="23">
-        <v>1.59</v>
-      </c>
-      <c r="P5" s="23">
-        <v>1.59</v>
-      </c>
-      <c r="Q5" s="23">
-        <v>1.59</v>
-      </c>
-      <c r="R5" s="23">
-        <v>1.59</v>
-      </c>
-      <c r="S5" s="23">
-        <v>1.59</v>
-      </c>
-      <c r="T5" s="23">
-        <v>1.59</v>
-      </c>
-      <c r="U5" s="23">
-        <v>1.59</v>
-      </c>
-      <c r="V5" s="23">
-        <v>1.59</v>
-      </c>
-      <c r="W5" s="23">
-        <v>1.59</v>
-      </c>
-      <c r="X5" s="23">
-        <v>1.59</v>
-      </c>
-      <c r="Y5" s="23">
-        <v>1.59</v>
-      </c>
-      <c r="Z5" s="23">
-        <v>1.59</v>
-      </c>
-      <c r="AA5" s="23">
-        <v>1.59</v>
+      <c r="A5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="5">
+        <v>126638.8</v>
+      </c>
+      <c r="C5" s="5">
+        <v>126638.8</v>
+      </c>
+      <c r="D5" s="5">
+        <v>126638.8</v>
+      </c>
+      <c r="E5" s="5">
+        <v>126638.8</v>
+      </c>
+      <c r="F5" s="5">
+        <v>126638.8</v>
+      </c>
+      <c r="G5" s="5">
+        <v>126638.8</v>
+      </c>
+      <c r="H5" s="5">
+        <v>126638.8</v>
+      </c>
+      <c r="I5" s="5">
+        <v>126638.8</v>
+      </c>
+      <c r="J5" s="5">
+        <v>126638.8</v>
+      </c>
+      <c r="K5" s="5">
+        <v>126638.8</v>
+      </c>
+      <c r="L5" s="5">
+        <v>126638.8</v>
+      </c>
+      <c r="M5" s="5">
+        <v>126638.8</v>
+      </c>
+      <c r="N5" s="5">
+        <v>126638.8</v>
+      </c>
+      <c r="O5" s="5">
+        <v>126638.8</v>
+      </c>
+      <c r="P5" s="5">
+        <v>126638.8</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>126638.8</v>
+      </c>
+      <c r="R5" s="5">
+        <v>126638.8</v>
+      </c>
+      <c r="S5" s="5">
+        <v>126638.8</v>
+      </c>
+      <c r="T5" s="5">
+        <v>126638.8</v>
+      </c>
+      <c r="U5" s="5">
+        <v>126638.8</v>
+      </c>
+      <c r="V5" s="5">
+        <v>126638.8</v>
+      </c>
+      <c r="W5" s="5">
+        <v>126638.8</v>
+      </c>
+      <c r="X5" s="5">
+        <v>126638.8</v>
+      </c>
+      <c r="Y5" s="5">
+        <v>126638.8</v>
+      </c>
+      <c r="Z5" s="5">
+        <v>126638.8</v>
+      </c>
+      <c r="AA5" s="5">
+        <v>126638.8</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="C6" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="D6" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="E6" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="F6" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="G6" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="H6" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="I6" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="J6" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="K6" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="L6" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="M6" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="N6" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="O6" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="P6" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="Q6" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="R6" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="S6" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="T6" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="U6" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="V6" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="W6" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="X6" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="Y6" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="Z6" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="AA6" s="23">
-        <v>0.01</v>
+      <c r="A6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="5">
+        <v>290855.8</v>
+      </c>
+      <c r="C6" s="5">
+        <v>290855.8</v>
+      </c>
+      <c r="D6" s="5">
+        <v>290855.8</v>
+      </c>
+      <c r="E6" s="5">
+        <v>290855.8</v>
+      </c>
+      <c r="F6" s="5">
+        <v>290855.8</v>
+      </c>
+      <c r="G6" s="5">
+        <v>290855.8</v>
+      </c>
+      <c r="H6" s="5">
+        <v>290855.8</v>
+      </c>
+      <c r="I6" s="5">
+        <v>290855.8</v>
+      </c>
+      <c r="J6" s="5">
+        <v>290855.8</v>
+      </c>
+      <c r="K6" s="5">
+        <v>290855.8</v>
+      </c>
+      <c r="L6" s="5">
+        <v>290855.8</v>
+      </c>
+      <c r="M6" s="5">
+        <v>290855.8</v>
+      </c>
+      <c r="N6" s="5">
+        <v>290855.8</v>
+      </c>
+      <c r="O6" s="5">
+        <v>290855.8</v>
+      </c>
+      <c r="P6" s="5">
+        <v>290855.8</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>290855.8</v>
+      </c>
+      <c r="R6" s="5">
+        <v>290855.8</v>
+      </c>
+      <c r="S6" s="5">
+        <v>290855.8</v>
+      </c>
+      <c r="T6" s="5">
+        <v>290855.8</v>
+      </c>
+      <c r="U6" s="5">
+        <v>290855.8</v>
+      </c>
+      <c r="V6" s="5">
+        <v>290855.8</v>
+      </c>
+      <c r="W6" s="5">
+        <v>290855.8</v>
+      </c>
+      <c r="X6" s="5">
+        <v>290855.8</v>
+      </c>
+      <c r="Y6" s="5">
+        <v>290855.8</v>
+      </c>
+      <c r="Z6" s="5">
+        <v>290855.8</v>
+      </c>
+      <c r="AA6" s="5">
+        <v>290855.8</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="C7" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="D7" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="E7" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="F7" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="G7" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="H7" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="I7" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="J7" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="K7" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="L7" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="M7" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="N7" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="O7" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="P7" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="Q7" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="R7" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="S7" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="T7" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="U7" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="V7" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="W7" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="X7" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="Y7" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="Z7" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="AA7" s="23">
-        <v>0.01</v>
+      <c r="A7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="5">
+        <v>389609</v>
+      </c>
+      <c r="C7" s="5">
+        <v>389609</v>
+      </c>
+      <c r="D7" s="5">
+        <v>389609</v>
+      </c>
+      <c r="E7" s="5">
+        <v>389609</v>
+      </c>
+      <c r="F7" s="5">
+        <v>389609</v>
+      </c>
+      <c r="G7" s="5">
+        <v>389609</v>
+      </c>
+      <c r="H7" s="5">
+        <v>389609</v>
+      </c>
+      <c r="I7" s="5">
+        <v>389609</v>
+      </c>
+      <c r="J7" s="5">
+        <v>389609</v>
+      </c>
+      <c r="K7" s="5">
+        <v>389609</v>
+      </c>
+      <c r="L7" s="5">
+        <v>389609</v>
+      </c>
+      <c r="M7" s="5">
+        <v>389609</v>
+      </c>
+      <c r="N7" s="5">
+        <v>389609</v>
+      </c>
+      <c r="O7" s="5">
+        <v>389609</v>
+      </c>
+      <c r="P7" s="5">
+        <v>389609</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>389609</v>
+      </c>
+      <c r="R7" s="5">
+        <v>389609</v>
+      </c>
+      <c r="S7" s="5">
+        <v>389609</v>
+      </c>
+      <c r="T7" s="5">
+        <v>389609</v>
+      </c>
+      <c r="U7" s="5">
+        <v>389609</v>
+      </c>
+      <c r="V7" s="5">
+        <v>389609</v>
+      </c>
+      <c r="W7" s="5">
+        <v>389609</v>
+      </c>
+      <c r="X7" s="5">
+        <v>389609</v>
+      </c>
+      <c r="Y7" s="5">
+        <v>389609</v>
+      </c>
+      <c r="Z7" s="5">
+        <v>389609</v>
+      </c>
+      <c r="AA7" s="5">
+        <v>389609</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="C8" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="D8" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="E8" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="F8" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="G8" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="H8" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="I8" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="J8" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="K8" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="L8" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="M8" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="N8" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="O8" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="P8" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="Q8" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="R8" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="S8" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="T8" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="U8" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="V8" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="W8" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="X8" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="Y8" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="Z8" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="AA8" s="23">
-        <v>0.01</v>
+      <c r="A8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="5">
+        <v>126638.8</v>
+      </c>
+      <c r="C8" s="5">
+        <v>126638.8</v>
+      </c>
+      <c r="D8" s="5">
+        <v>126638.8</v>
+      </c>
+      <c r="E8" s="5">
+        <v>126638.8</v>
+      </c>
+      <c r="F8" s="5">
+        <v>126638.8</v>
+      </c>
+      <c r="G8" s="5">
+        <v>126638.8</v>
+      </c>
+      <c r="H8" s="5">
+        <v>126638.8</v>
+      </c>
+      <c r="I8" s="5">
+        <v>126638.8</v>
+      </c>
+      <c r="J8" s="5">
+        <v>126638.8</v>
+      </c>
+      <c r="K8" s="5">
+        <v>126638.8</v>
+      </c>
+      <c r="L8" s="5">
+        <v>126638.8</v>
+      </c>
+      <c r="M8" s="5">
+        <v>126638.8</v>
+      </c>
+      <c r="N8" s="5">
+        <v>126638.8</v>
+      </c>
+      <c r="O8" s="5">
+        <v>126638.8</v>
+      </c>
+      <c r="P8" s="5">
+        <v>126638.8</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>126638.8</v>
+      </c>
+      <c r="R8" s="5">
+        <v>126638.8</v>
+      </c>
+      <c r="S8" s="5">
+        <v>126638.8</v>
+      </c>
+      <c r="T8" s="5">
+        <v>126638.8</v>
+      </c>
+      <c r="U8" s="5">
+        <v>126638.8</v>
+      </c>
+      <c r="V8" s="5">
+        <v>126638.8</v>
+      </c>
+      <c r="W8" s="5">
+        <v>126638.8</v>
+      </c>
+      <c r="X8" s="5">
+        <v>126638.8</v>
+      </c>
+      <c r="Y8" s="5">
+        <v>126638.8</v>
+      </c>
+      <c r="Z8" s="5">
+        <v>126638.8</v>
+      </c>
+      <c r="AA8" s="5">
+        <v>126638.8</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" s="23">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="C9" s="23">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="D9" s="23">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="E9" s="23">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="F9" s="23">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="G9" s="23">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="H9" s="23">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="I9" s="23">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="J9" s="23">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="K9" s="23">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="L9" s="23">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="M9" s="23">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="N9" s="23">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="O9" s="23">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="P9" s="23">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="Q9" s="23">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="R9" s="23">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="S9" s="23">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="T9" s="23">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="U9" s="23">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="V9" s="23">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="W9" s="23">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="X9" s="23">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="Y9" s="23">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="Z9" s="23">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="AA9" s="23">
-        <v>1.1399999999999999</v>
+      <c r="A9" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="5">
+        <v>290855.8</v>
+      </c>
+      <c r="C9" s="5">
+        <v>290855.8</v>
+      </c>
+      <c r="D9" s="5">
+        <v>290855.8</v>
+      </c>
+      <c r="E9" s="5">
+        <v>290855.8</v>
+      </c>
+      <c r="F9" s="5">
+        <v>290855.8</v>
+      </c>
+      <c r="G9" s="5">
+        <v>290855.8</v>
+      </c>
+      <c r="H9" s="5">
+        <v>290855.8</v>
+      </c>
+      <c r="I9" s="5">
+        <v>290855.8</v>
+      </c>
+      <c r="J9" s="5">
+        <v>290855.8</v>
+      </c>
+      <c r="K9" s="5">
+        <v>290855.8</v>
+      </c>
+      <c r="L9" s="5">
+        <v>290855.8</v>
+      </c>
+      <c r="M9" s="5">
+        <v>290855.8</v>
+      </c>
+      <c r="N9" s="5">
+        <v>290855.8</v>
+      </c>
+      <c r="O9" s="5">
+        <v>290855.8</v>
+      </c>
+      <c r="P9" s="5">
+        <v>290855.8</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>290855.8</v>
+      </c>
+      <c r="R9" s="5">
+        <v>290855.8</v>
+      </c>
+      <c r="S9" s="5">
+        <v>290855.8</v>
+      </c>
+      <c r="T9" s="5">
+        <v>290855.8</v>
+      </c>
+      <c r="U9" s="5">
+        <v>290855.8</v>
+      </c>
+      <c r="V9" s="5">
+        <v>290855.8</v>
+      </c>
+      <c r="W9" s="5">
+        <v>290855.8</v>
+      </c>
+      <c r="X9" s="5">
+        <v>290855.8</v>
+      </c>
+      <c r="Y9" s="5">
+        <v>290855.8</v>
+      </c>
+      <c r="Z9" s="5">
+        <v>290855.8</v>
+      </c>
+      <c r="AA9" s="5">
+        <v>290855.8</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="C10" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="D10" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="E10" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="F10" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="G10" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="H10" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="I10" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="J10" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="K10" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="L10" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="M10" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="N10" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="O10" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="P10" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="Q10" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="R10" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="S10" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="T10" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="U10" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="V10" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="W10" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="X10" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="Y10" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="Z10" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="AA10" s="23">
-        <v>0.01</v>
+      <c r="A10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="5">
+        <v>389609</v>
+      </c>
+      <c r="C10" s="5">
+        <v>389609</v>
+      </c>
+      <c r="D10" s="5">
+        <v>389609</v>
+      </c>
+      <c r="E10" s="5">
+        <v>389609</v>
+      </c>
+      <c r="F10" s="5">
+        <v>389609</v>
+      </c>
+      <c r="G10" s="5">
+        <v>389609</v>
+      </c>
+      <c r="H10" s="5">
+        <v>389609</v>
+      </c>
+      <c r="I10" s="5">
+        <v>389609</v>
+      </c>
+      <c r="J10" s="5">
+        <v>389609</v>
+      </c>
+      <c r="K10" s="5">
+        <v>389609</v>
+      </c>
+      <c r="L10" s="5">
+        <v>389609</v>
+      </c>
+      <c r="M10" s="5">
+        <v>389609</v>
+      </c>
+      <c r="N10" s="5">
+        <v>389609</v>
+      </c>
+      <c r="O10" s="5">
+        <v>389609</v>
+      </c>
+      <c r="P10" s="5">
+        <v>389609</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>389609</v>
+      </c>
+      <c r="R10" s="5">
+        <v>389609</v>
+      </c>
+      <c r="S10" s="5">
+        <v>389609</v>
+      </c>
+      <c r="T10" s="5">
+        <v>389609</v>
+      </c>
+      <c r="U10" s="5">
+        <v>389609</v>
+      </c>
+      <c r="V10" s="5">
+        <v>389609</v>
+      </c>
+      <c r="W10" s="5">
+        <v>389609</v>
+      </c>
+      <c r="X10" s="5">
+        <v>389609</v>
+      </c>
+      <c r="Y10" s="5">
+        <v>389609</v>
+      </c>
+      <c r="Z10" s="5">
+        <v>389609</v>
+      </c>
+      <c r="AA10" s="5">
+        <v>389609</v>
       </c>
     </row>
   </sheetData>
@@ -3277,11 +3266,12 @@
   <dimension ref="A1:AA10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A10"/>
+      <selection activeCell="E17" sqref="E17:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="27" width="9.83203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -3371,7 +3361,7 @@
     </row>
     <row r="2" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B2" s="3">
         <v>0</v>
@@ -3454,7 +3444,7 @@
     </row>
     <row r="3" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B3" s="3">
         <v>0</v>
@@ -3537,7 +3527,7 @@
     </row>
     <row r="4" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B4" s="3">
         <v>0</v>
@@ -3620,7 +3610,7 @@
     </row>
     <row r="5" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -3703,7 +3693,7 @@
     </row>
     <row r="6" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B6" s="3">
         <v>0</v>
@@ -3786,7 +3776,7 @@
     </row>
     <row r="7" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="B7" s="3">
         <v>0</v>
@@ -3869,7 +3859,7 @@
     </row>
     <row r="8" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
@@ -3952,7 +3942,7 @@
     </row>
     <row r="9" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B9" s="3">
         <v>0</v>
@@ -4035,7 +4025,7 @@
     </row>
     <row r="10" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B10" s="3">
         <v>0</v>
@@ -4128,10 +4118,13 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -4143,7 +4136,7 @@
     </row>
     <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B2">
         <v>2000</v>
@@ -4151,7 +4144,7 @@
     </row>
     <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B3">
         <v>2000</v>
@@ -4159,7 +4152,7 @@
     </row>
     <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B4">
         <v>2000</v>
@@ -4167,7 +4160,7 @@
     </row>
     <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B5">
         <v>2000</v>
@@ -4175,7 +4168,7 @@
     </row>
     <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B6">
         <v>2000</v>
@@ -4183,7 +4176,7 @@
     </row>
     <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="B7">
         <v>2000</v>
@@ -4191,7 +4184,7 @@
     </row>
     <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B8">
         <v>2000</v>
@@ -4199,7 +4192,7 @@
     </row>
     <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B9">
         <v>2000</v>
@@ -4207,7 +4200,7 @@
     </row>
     <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B10">
         <v>2000</v>
@@ -4222,15 +4215,15 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A811D9-2602-4FD1-8BF7-F55E2D4AA43D}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="D22" sqref="D22:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" customWidth="1"/>
     <col min="2" max="2" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4244,7 +4237,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B2">
         <v>2000</v>
@@ -4252,7 +4245,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B3">
         <v>2000</v>
@@ -4260,7 +4253,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B4">
         <v>2000</v>
@@ -4268,7 +4261,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B5">
         <v>2000</v>
@@ -4276,7 +4269,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B6">
         <v>2000</v>
@@ -4284,7 +4277,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B7">
         <v>2000</v>
@@ -4292,7 +4285,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B8">
         <v>2000</v>
@@ -4300,7 +4293,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B9">
         <v>2000</v>
@@ -4308,7 +4301,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B10">
         <v>2000</v>
@@ -4316,7 +4309,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B11">
         <v>2000</v>
@@ -4324,7 +4317,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B12">
         <v>2000</v>
@@ -4332,33 +4325,9 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B13">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>79</v>
-      </c>
-      <c r="B14">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B15">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>81</v>
-      </c>
-      <c r="B16">
         <v>2000</v>
       </c>
     </row>
@@ -4371,10 +4340,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{251D8908-2320-4E41-AC8F-86BD7BF58C9B}">
-  <dimension ref="A1:AA16"/>
+  <dimension ref="A1:AA13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4467,1246 +4436,997 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2">
-        <v>6386</v>
-      </c>
-      <c r="C2">
-        <v>6386</v>
-      </c>
-      <c r="D2">
-        <v>6386</v>
-      </c>
-      <c r="E2">
-        <v>6386</v>
-      </c>
-      <c r="F2">
-        <v>6386</v>
-      </c>
-      <c r="G2">
-        <v>6386</v>
-      </c>
-      <c r="H2">
-        <v>6386</v>
-      </c>
-      <c r="I2">
-        <v>6386</v>
-      </c>
-      <c r="J2">
-        <v>6386</v>
-      </c>
-      <c r="K2">
-        <v>6386</v>
-      </c>
-      <c r="L2">
-        <v>6386</v>
-      </c>
-      <c r="M2">
-        <v>6386</v>
-      </c>
-      <c r="N2">
-        <v>6386</v>
-      </c>
-      <c r="O2">
-        <v>6386</v>
-      </c>
-      <c r="P2">
-        <v>6386</v>
-      </c>
-      <c r="Q2">
-        <v>6386</v>
-      </c>
-      <c r="R2">
-        <v>6386</v>
-      </c>
-      <c r="S2">
-        <v>6386</v>
-      </c>
-      <c r="T2">
-        <v>6386</v>
-      </c>
-      <c r="U2">
-        <v>6386</v>
-      </c>
-      <c r="V2">
-        <v>6386</v>
-      </c>
-      <c r="W2">
-        <v>6386</v>
-      </c>
-      <c r="X2">
-        <v>6386</v>
-      </c>
-      <c r="Y2">
-        <v>6386</v>
-      </c>
-      <c r="Z2">
-        <v>6386</v>
-      </c>
-      <c r="AA2">
-        <v>6386</v>
+        <v>57</v>
+      </c>
+      <c r="B2" s="17">
+        <v>16810</v>
+      </c>
+      <c r="C2" s="17">
+        <v>16810</v>
+      </c>
+      <c r="D2" s="17">
+        <v>16810</v>
+      </c>
+      <c r="E2" s="17">
+        <v>16810</v>
+      </c>
+      <c r="F2" s="17">
+        <v>16810</v>
+      </c>
+      <c r="G2" s="17">
+        <v>16810</v>
+      </c>
+      <c r="H2" s="17">
+        <v>16810</v>
+      </c>
+      <c r="I2" s="17">
+        <v>16810</v>
+      </c>
+      <c r="J2" s="17">
+        <v>16810</v>
+      </c>
+      <c r="K2" s="17">
+        <v>16810</v>
+      </c>
+      <c r="L2" s="17">
+        <v>16810</v>
+      </c>
+      <c r="M2" s="17">
+        <v>16810</v>
+      </c>
+      <c r="N2" s="17">
+        <v>16810</v>
+      </c>
+      <c r="O2" s="17">
+        <v>16810</v>
+      </c>
+      <c r="P2" s="17">
+        <v>16810</v>
+      </c>
+      <c r="Q2" s="17">
+        <v>16810</v>
+      </c>
+      <c r="R2" s="17">
+        <v>16810</v>
+      </c>
+      <c r="S2" s="17">
+        <v>16810</v>
+      </c>
+      <c r="T2" s="17">
+        <v>16810</v>
+      </c>
+      <c r="U2" s="17">
+        <v>16810</v>
+      </c>
+      <c r="V2" s="17">
+        <v>16810</v>
+      </c>
+      <c r="W2" s="17">
+        <v>16810</v>
+      </c>
+      <c r="X2" s="17">
+        <v>16810</v>
+      </c>
+      <c r="Y2" s="17">
+        <v>16810</v>
+      </c>
+      <c r="Z2" s="17">
+        <v>16810</v>
+      </c>
+      <c r="AA2" s="17">
+        <v>16810</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3">
-        <v>16810</v>
-      </c>
-      <c r="C3">
-        <v>16810</v>
-      </c>
-      <c r="D3">
-        <v>16810</v>
-      </c>
-      <c r="E3">
-        <v>16810</v>
-      </c>
-      <c r="F3">
-        <v>16810</v>
-      </c>
-      <c r="G3">
-        <v>16810</v>
-      </c>
-      <c r="H3">
-        <v>16810</v>
-      </c>
-      <c r="I3">
-        <v>16810</v>
-      </c>
-      <c r="J3">
-        <v>16810</v>
-      </c>
-      <c r="K3">
-        <v>16810</v>
-      </c>
-      <c r="L3">
-        <v>16810</v>
-      </c>
-      <c r="M3">
-        <v>16810</v>
-      </c>
-      <c r="N3">
-        <v>16810</v>
-      </c>
-      <c r="O3">
-        <v>16810</v>
-      </c>
-      <c r="P3">
-        <v>16810</v>
-      </c>
-      <c r="Q3">
-        <v>16810</v>
-      </c>
-      <c r="R3">
-        <v>16810</v>
-      </c>
-      <c r="S3">
-        <v>16810</v>
-      </c>
-      <c r="T3">
-        <v>16810</v>
-      </c>
-      <c r="U3">
-        <v>16810</v>
-      </c>
-      <c r="V3">
-        <v>16810</v>
-      </c>
-      <c r="W3">
-        <v>16810</v>
-      </c>
-      <c r="X3">
-        <v>16810</v>
-      </c>
-      <c r="Y3">
-        <v>16810</v>
-      </c>
-      <c r="Z3">
-        <v>16810</v>
-      </c>
-      <c r="AA3">
-        <v>16810</v>
+        <v>58</v>
+      </c>
+      <c r="B3" s="17">
+        <v>6810</v>
+      </c>
+      <c r="C3" s="17">
+        <v>6810</v>
+      </c>
+      <c r="D3" s="17">
+        <v>6810</v>
+      </c>
+      <c r="E3" s="17">
+        <v>6810</v>
+      </c>
+      <c r="F3" s="17">
+        <v>6810</v>
+      </c>
+      <c r="G3" s="17">
+        <v>6810</v>
+      </c>
+      <c r="H3" s="17">
+        <v>6810</v>
+      </c>
+      <c r="I3" s="17">
+        <v>6810</v>
+      </c>
+      <c r="J3" s="17">
+        <v>6810</v>
+      </c>
+      <c r="K3" s="17">
+        <v>6810</v>
+      </c>
+      <c r="L3" s="17">
+        <v>6810</v>
+      </c>
+      <c r="M3" s="17">
+        <v>6810</v>
+      </c>
+      <c r="N3" s="17">
+        <v>6810</v>
+      </c>
+      <c r="O3" s="17">
+        <v>6810</v>
+      </c>
+      <c r="P3" s="17">
+        <v>6810</v>
+      </c>
+      <c r="Q3" s="17">
+        <v>6810</v>
+      </c>
+      <c r="R3" s="17">
+        <v>6810</v>
+      </c>
+      <c r="S3" s="17">
+        <v>6810</v>
+      </c>
+      <c r="T3" s="17">
+        <v>6810</v>
+      </c>
+      <c r="U3" s="17">
+        <v>6810</v>
+      </c>
+      <c r="V3" s="17">
+        <v>6810</v>
+      </c>
+      <c r="W3" s="17">
+        <v>6810</v>
+      </c>
+      <c r="X3" s="17">
+        <v>6810</v>
+      </c>
+      <c r="Y3" s="17">
+        <v>6810</v>
+      </c>
+      <c r="Z3" s="17">
+        <v>6810</v>
+      </c>
+      <c r="AA3" s="17">
+        <v>6810</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B4">
-        <v>6810</v>
-      </c>
-      <c r="C4">
-        <v>6810</v>
-      </c>
-      <c r="D4">
-        <v>6810</v>
-      </c>
-      <c r="E4">
-        <v>6810</v>
-      </c>
-      <c r="F4">
-        <v>6810</v>
-      </c>
-      <c r="G4">
-        <v>6810</v>
-      </c>
-      <c r="H4">
-        <v>6810</v>
-      </c>
-      <c r="I4">
-        <v>6810</v>
-      </c>
-      <c r="J4">
-        <v>6810</v>
-      </c>
-      <c r="K4">
-        <v>6810</v>
-      </c>
-      <c r="L4">
-        <v>6810</v>
-      </c>
-      <c r="M4">
-        <v>6810</v>
-      </c>
-      <c r="N4">
-        <v>6810</v>
-      </c>
-      <c r="O4">
-        <v>6810</v>
-      </c>
-      <c r="P4">
-        <v>6810</v>
-      </c>
-      <c r="Q4">
-        <v>6810</v>
-      </c>
-      <c r="R4">
-        <v>6810</v>
-      </c>
-      <c r="S4">
-        <v>6810</v>
-      </c>
-      <c r="T4">
-        <v>6810</v>
-      </c>
-      <c r="U4">
-        <v>6810</v>
-      </c>
-      <c r="V4">
-        <v>6810</v>
-      </c>
-      <c r="W4">
-        <v>6810</v>
-      </c>
-      <c r="X4">
-        <v>6810</v>
-      </c>
-      <c r="Y4">
-        <v>6810</v>
-      </c>
-      <c r="Z4">
-        <v>6810</v>
-      </c>
-      <c r="AA4">
-        <v>6810</v>
+        <v>59</v>
+      </c>
+      <c r="B4" s="17">
+        <v>0</v>
+      </c>
+      <c r="C4" s="17">
+        <v>0</v>
+      </c>
+      <c r="D4" s="17">
+        <v>0</v>
+      </c>
+      <c r="E4" s="17">
+        <v>0</v>
+      </c>
+      <c r="F4" s="17">
+        <v>0</v>
+      </c>
+      <c r="G4" s="17">
+        <v>0</v>
+      </c>
+      <c r="H4" s="17">
+        <v>0</v>
+      </c>
+      <c r="I4" s="17">
+        <v>0</v>
+      </c>
+      <c r="J4" s="17">
+        <v>0</v>
+      </c>
+      <c r="K4" s="17">
+        <v>0</v>
+      </c>
+      <c r="L4" s="17">
+        <v>0</v>
+      </c>
+      <c r="M4" s="17">
+        <v>0</v>
+      </c>
+      <c r="N4" s="17">
+        <v>0</v>
+      </c>
+      <c r="O4" s="17">
+        <v>0</v>
+      </c>
+      <c r="P4" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="17">
+        <v>0</v>
+      </c>
+      <c r="R4" s="17">
+        <v>0</v>
+      </c>
+      <c r="S4" s="17">
+        <v>0</v>
+      </c>
+      <c r="T4" s="17">
+        <v>0</v>
+      </c>
+      <c r="U4" s="17">
+        <v>0</v>
+      </c>
+      <c r="V4" s="17">
+        <v>0</v>
+      </c>
+      <c r="W4" s="17">
+        <v>0</v>
+      </c>
+      <c r="X4" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="17">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
+        <v>60</v>
+      </c>
+      <c r="B5" s="17">
+        <v>0</v>
+      </c>
+      <c r="C5" s="17">
+        <v>0</v>
+      </c>
+      <c r="D5" s="17">
+        <v>0</v>
+      </c>
+      <c r="E5" s="17">
+        <v>0</v>
+      </c>
+      <c r="F5" s="17">
+        <v>0</v>
+      </c>
+      <c r="G5" s="17">
+        <v>0</v>
+      </c>
+      <c r="H5" s="17">
+        <v>0</v>
+      </c>
+      <c r="I5" s="17">
+        <v>0</v>
+      </c>
+      <c r="J5" s="17">
+        <v>0</v>
+      </c>
+      <c r="K5" s="17">
+        <v>0</v>
+      </c>
+      <c r="L5" s="17">
+        <v>0</v>
+      </c>
+      <c r="M5" s="17">
+        <v>0</v>
+      </c>
+      <c r="N5" s="17">
+        <v>0</v>
+      </c>
+      <c r="O5" s="17">
+        <v>0</v>
+      </c>
+      <c r="P5" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="17">
+        <v>0</v>
+      </c>
+      <c r="R5" s="17">
+        <v>0</v>
+      </c>
+      <c r="S5" s="17">
+        <v>0</v>
+      </c>
+      <c r="T5" s="17">
+        <v>0</v>
+      </c>
+      <c r="U5" s="17">
+        <v>0</v>
+      </c>
+      <c r="V5" s="17">
+        <v>0</v>
+      </c>
+      <c r="W5" s="17">
+        <v>0</v>
+      </c>
+      <c r="X5" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
+        <v>61</v>
+      </c>
+      <c r="B6" s="17">
+        <v>0</v>
+      </c>
+      <c r="C6" s="17">
+        <v>0</v>
+      </c>
+      <c r="D6" s="17">
+        <v>0</v>
+      </c>
+      <c r="E6" s="17">
+        <v>0</v>
+      </c>
+      <c r="F6" s="17">
+        <v>0</v>
+      </c>
+      <c r="G6" s="17">
+        <v>0</v>
+      </c>
+      <c r="H6" s="17">
+        <v>0</v>
+      </c>
+      <c r="I6" s="17">
+        <v>0</v>
+      </c>
+      <c r="J6" s="17">
+        <v>0</v>
+      </c>
+      <c r="K6" s="17">
+        <v>0</v>
+      </c>
+      <c r="L6" s="17">
+        <v>0</v>
+      </c>
+      <c r="M6" s="17">
+        <v>0</v>
+      </c>
+      <c r="N6" s="17">
+        <v>0</v>
+      </c>
+      <c r="O6" s="17">
+        <v>0</v>
+      </c>
+      <c r="P6" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="17">
+        <v>0</v>
+      </c>
+      <c r="R6" s="17">
+        <v>0</v>
+      </c>
+      <c r="S6" s="17">
+        <v>0</v>
+      </c>
+      <c r="T6" s="17">
+        <v>0</v>
+      </c>
+      <c r="U6" s="17">
+        <v>0</v>
+      </c>
+      <c r="V6" s="17">
+        <v>0</v>
+      </c>
+      <c r="W6" s="17">
+        <v>0</v>
+      </c>
+      <c r="X6" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
+        <v>62</v>
+      </c>
+      <c r="B7" s="17">
+        <v>3611</v>
+      </c>
+      <c r="C7" s="17">
+        <v>3611</v>
+      </c>
+      <c r="D7" s="17">
+        <v>3611</v>
+      </c>
+      <c r="E7" s="17">
+        <v>3611</v>
+      </c>
+      <c r="F7" s="17">
+        <v>3611</v>
+      </c>
+      <c r="G7" s="17">
+        <v>3611</v>
+      </c>
+      <c r="H7" s="17">
+        <v>3611</v>
+      </c>
+      <c r="I7" s="17">
+        <v>3611</v>
+      </c>
+      <c r="J7" s="17">
+        <v>3611</v>
+      </c>
+      <c r="K7" s="17">
+        <v>3611</v>
+      </c>
+      <c r="L7" s="17">
+        <v>3611</v>
+      </c>
+      <c r="M7" s="17">
+        <v>3611</v>
+      </c>
+      <c r="N7" s="17">
+        <v>3611</v>
+      </c>
+      <c r="O7" s="17">
+        <v>3611</v>
+      </c>
+      <c r="P7" s="17">
+        <v>3611</v>
+      </c>
+      <c r="Q7" s="17">
+        <v>3611</v>
+      </c>
+      <c r="R7" s="17">
+        <v>3611</v>
+      </c>
+      <c r="S7" s="17">
+        <v>3611</v>
+      </c>
+      <c r="T7" s="17">
+        <v>3611</v>
+      </c>
+      <c r="U7" s="17">
+        <v>3611</v>
+      </c>
+      <c r="V7" s="17">
+        <v>3611</v>
+      </c>
+      <c r="W7" s="17">
+        <v>3611</v>
+      </c>
+      <c r="X7" s="17">
+        <v>3611</v>
+      </c>
+      <c r="Y7" s="17">
+        <v>3611</v>
+      </c>
+      <c r="Z7" s="17">
+        <v>3611</v>
+      </c>
+      <c r="AA7" s="17">
+        <v>3611</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B8">
-        <v>3611</v>
-      </c>
-      <c r="C8">
-        <v>3611</v>
-      </c>
-      <c r="D8">
-        <v>3611</v>
-      </c>
-      <c r="E8">
-        <v>3611</v>
-      </c>
-      <c r="F8">
-        <v>3611</v>
-      </c>
-      <c r="G8">
-        <v>3611</v>
-      </c>
-      <c r="H8">
-        <v>3611</v>
-      </c>
-      <c r="I8">
-        <v>3611</v>
-      </c>
-      <c r="J8">
-        <v>3611</v>
-      </c>
-      <c r="K8">
-        <v>3611</v>
-      </c>
-      <c r="L8">
-        <v>3611</v>
-      </c>
-      <c r="M8">
-        <v>3611</v>
-      </c>
-      <c r="N8">
-        <v>3611</v>
-      </c>
-      <c r="O8">
-        <v>3611</v>
-      </c>
-      <c r="P8">
-        <v>3611</v>
-      </c>
-      <c r="Q8">
-        <v>3611</v>
-      </c>
-      <c r="R8">
-        <v>3611</v>
-      </c>
-      <c r="S8">
-        <v>3611</v>
-      </c>
-      <c r="T8">
-        <v>3611</v>
-      </c>
-      <c r="U8">
-        <v>3611</v>
-      </c>
-      <c r="V8">
-        <v>3611</v>
-      </c>
-      <c r="W8">
-        <v>3611</v>
-      </c>
-      <c r="X8">
-        <v>3611</v>
-      </c>
-      <c r="Y8">
-        <v>3611</v>
-      </c>
-      <c r="Z8">
-        <v>3611</v>
-      </c>
-      <c r="AA8">
-        <v>3611</v>
+        <v>74</v>
+      </c>
+      <c r="B8" s="20">
+        <v>541667</v>
+      </c>
+      <c r="C8" s="20">
+        <v>541667</v>
+      </c>
+      <c r="D8" s="20">
+        <v>541667</v>
+      </c>
+      <c r="E8" s="20">
+        <v>541667</v>
+      </c>
+      <c r="F8" s="20">
+        <v>541667</v>
+      </c>
+      <c r="G8" s="20">
+        <v>541667</v>
+      </c>
+      <c r="H8" s="20">
+        <v>541667</v>
+      </c>
+      <c r="I8" s="20">
+        <v>541667</v>
+      </c>
+      <c r="J8" s="20">
+        <v>541667</v>
+      </c>
+      <c r="K8" s="20">
+        <v>541667</v>
+      </c>
+      <c r="L8" s="20">
+        <v>541667</v>
+      </c>
+      <c r="M8" s="20">
+        <v>541667</v>
+      </c>
+      <c r="N8" s="20">
+        <v>541667</v>
+      </c>
+      <c r="O8" s="20">
+        <v>541667</v>
+      </c>
+      <c r="P8" s="20">
+        <v>541667</v>
+      </c>
+      <c r="Q8" s="20">
+        <v>541667</v>
+      </c>
+      <c r="R8" s="20">
+        <v>541667</v>
+      </c>
+      <c r="S8" s="20">
+        <v>541667</v>
+      </c>
+      <c r="T8" s="20">
+        <v>541667</v>
+      </c>
+      <c r="U8" s="20">
+        <v>541667</v>
+      </c>
+      <c r="V8" s="20">
+        <v>541667</v>
+      </c>
+      <c r="W8" s="20">
+        <v>541667</v>
+      </c>
+      <c r="X8" s="20">
+        <v>541667</v>
+      </c>
+      <c r="Y8" s="20">
+        <v>541667</v>
+      </c>
+      <c r="Z8" s="20">
+        <v>541667</v>
+      </c>
+      <c r="AA8" s="20">
+        <v>541667</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B9" s="20">
-        <v>6386</v>
+        <v>50750</v>
       </c>
       <c r="C9" s="20">
-        <v>6386</v>
+        <v>50750</v>
       </c>
       <c r="D9" s="20">
-        <v>6386</v>
+        <v>50750</v>
       </c>
       <c r="E9" s="20">
-        <v>6386</v>
+        <v>50750</v>
       </c>
       <c r="F9" s="20">
-        <v>6386</v>
+        <v>50750</v>
       </c>
       <c r="G9" s="20">
-        <v>6386</v>
+        <v>50750</v>
       </c>
       <c r="H9" s="20">
-        <v>6386</v>
+        <v>50750</v>
       </c>
       <c r="I9" s="20">
-        <v>6386</v>
+        <v>50750</v>
       </c>
       <c r="J9" s="20">
-        <v>6386</v>
+        <v>50750</v>
       </c>
       <c r="K9" s="20">
-        <v>6386</v>
+        <v>50750</v>
       </c>
       <c r="L9" s="20">
-        <v>6386</v>
+        <v>50750</v>
       </c>
       <c r="M9" s="20">
-        <v>6386</v>
+        <v>50750</v>
       </c>
       <c r="N9" s="20">
-        <v>6386</v>
+        <v>50750</v>
       </c>
       <c r="O9" s="20">
-        <v>6386</v>
+        <v>50750</v>
       </c>
       <c r="P9" s="20">
-        <v>6386</v>
+        <v>50750</v>
       </c>
       <c r="Q9" s="20">
-        <v>6386</v>
+        <v>50750</v>
       </c>
       <c r="R9" s="20">
-        <v>6386</v>
+        <v>50750</v>
       </c>
       <c r="S9" s="20">
-        <v>6386</v>
+        <v>50750</v>
       </c>
       <c r="T9" s="20">
-        <v>6386</v>
+        <v>50750</v>
       </c>
       <c r="U9" s="20">
-        <v>6386</v>
+        <v>50750</v>
       </c>
       <c r="V9" s="20">
-        <v>6386</v>
+        <v>50750</v>
       </c>
       <c r="W9" s="20">
-        <v>6386</v>
+        <v>50750</v>
       </c>
       <c r="X9" s="20">
-        <v>6386</v>
+        <v>50750</v>
       </c>
       <c r="Y9" s="20">
-        <v>6386</v>
+        <v>50750</v>
       </c>
       <c r="Z9" s="20">
-        <v>6386</v>
+        <v>50750</v>
       </c>
       <c r="AA9" s="20">
-        <v>6386</v>
+        <v>50750</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B10" s="20">
-        <v>54166</v>
+        <v>4000</v>
       </c>
       <c r="C10" s="20">
-        <v>54166</v>
+        <v>4000</v>
       </c>
       <c r="D10" s="20">
-        <v>54166</v>
+        <v>4000</v>
       </c>
       <c r="E10" s="20">
-        <v>54166</v>
+        <v>4000</v>
       </c>
       <c r="F10" s="20">
-        <v>54166</v>
+        <v>4000</v>
       </c>
       <c r="G10" s="20">
-        <v>54166</v>
+        <v>4000</v>
       </c>
       <c r="H10" s="20">
-        <v>54166</v>
+        <v>4000</v>
       </c>
       <c r="I10" s="20">
-        <v>54166</v>
+        <v>4000</v>
       </c>
       <c r="J10" s="20">
-        <v>54166</v>
+        <v>4000</v>
       </c>
       <c r="K10" s="20">
-        <v>54166</v>
+        <v>4000</v>
       </c>
       <c r="L10" s="20">
-        <v>54166</v>
+        <v>4000</v>
       </c>
       <c r="M10" s="20">
-        <v>54166</v>
+        <v>4000</v>
       </c>
       <c r="N10" s="20">
-        <v>54166</v>
+        <v>4000</v>
       </c>
       <c r="O10" s="20">
-        <v>54166</v>
+        <v>4000</v>
       </c>
       <c r="P10" s="20">
-        <v>54166</v>
+        <v>4000</v>
       </c>
       <c r="Q10" s="20">
-        <v>54166</v>
+        <v>4000</v>
       </c>
       <c r="R10" s="20">
-        <v>54166</v>
+        <v>4000</v>
       </c>
       <c r="S10" s="20">
-        <v>54166</v>
+        <v>4000</v>
       </c>
       <c r="T10" s="20">
-        <v>54166</v>
+        <v>4000</v>
       </c>
       <c r="U10" s="20">
-        <v>54166</v>
+        <v>4000</v>
       </c>
       <c r="V10" s="20">
-        <v>54166</v>
+        <v>4000</v>
       </c>
       <c r="W10" s="20">
-        <v>54166</v>
+        <v>4000</v>
       </c>
       <c r="X10" s="20">
-        <v>54166</v>
+        <v>4000</v>
       </c>
       <c r="Y10" s="20">
-        <v>54166</v>
+        <v>4000</v>
       </c>
       <c r="Z10" s="20">
-        <v>54166</v>
+        <v>4000</v>
       </c>
       <c r="AA10" s="20">
-        <v>54166</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B11" s="20">
-        <v>50750</v>
+        <v>3611</v>
       </c>
       <c r="C11" s="20">
-        <v>50750</v>
+        <v>3611</v>
       </c>
       <c r="D11" s="20">
-        <v>50750</v>
+        <v>3611</v>
       </c>
       <c r="E11" s="20">
-        <v>50750</v>
+        <v>3611</v>
       </c>
       <c r="F11" s="20">
-        <v>50750</v>
+        <v>3611</v>
       </c>
       <c r="G11" s="20">
-        <v>50750</v>
+        <v>3611</v>
       </c>
       <c r="H11" s="20">
-        <v>50750</v>
+        <v>3611</v>
       </c>
       <c r="I11" s="20">
-        <v>50750</v>
+        <v>3611</v>
       </c>
       <c r="J11" s="20">
-        <v>50750</v>
+        <v>3611</v>
       </c>
       <c r="K11" s="20">
-        <v>50750</v>
+        <v>3611</v>
       </c>
       <c r="L11" s="20">
-        <v>50750</v>
+        <v>3611</v>
       </c>
       <c r="M11" s="20">
-        <v>50750</v>
+        <v>3611</v>
       </c>
       <c r="N11" s="20">
-        <v>50750</v>
+        <v>3611</v>
       </c>
       <c r="O11" s="20">
-        <v>50750</v>
+        <v>3611</v>
       </c>
       <c r="P11" s="20">
-        <v>50750</v>
+        <v>3611</v>
       </c>
       <c r="Q11" s="20">
-        <v>50750</v>
+        <v>3611</v>
       </c>
       <c r="R11" s="20">
-        <v>50750</v>
+        <v>3611</v>
       </c>
       <c r="S11" s="20">
-        <v>50750</v>
+        <v>3611</v>
       </c>
       <c r="T11" s="20">
-        <v>50750</v>
+        <v>3611</v>
       </c>
       <c r="U11" s="20">
-        <v>50750</v>
+        <v>3611</v>
       </c>
       <c r="V11" s="20">
-        <v>50750</v>
+        <v>3611</v>
       </c>
       <c r="W11" s="20">
-        <v>50750</v>
+        <v>3611</v>
       </c>
       <c r="X11" s="20">
-        <v>50750</v>
+        <v>3611</v>
       </c>
       <c r="Y11" s="20">
-        <v>50750</v>
+        <v>3611</v>
       </c>
       <c r="Z11" s="20">
-        <v>50750</v>
+        <v>3611</v>
       </c>
       <c r="AA11" s="20">
-        <v>50750</v>
+        <v>3611</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B12" s="20">
-        <v>4000</v>
+        <v>50750</v>
       </c>
       <c r="C12" s="20">
-        <v>4000</v>
+        <v>50750</v>
       </c>
       <c r="D12" s="20">
-        <v>4000</v>
+        <v>50750</v>
       </c>
       <c r="E12" s="20">
-        <v>4000</v>
+        <v>50750</v>
       </c>
       <c r="F12" s="20">
-        <v>4000</v>
+        <v>50750</v>
       </c>
       <c r="G12" s="20">
-        <v>4000</v>
+        <v>50750</v>
       </c>
       <c r="H12" s="20">
-        <v>4000</v>
+        <v>50750</v>
       </c>
       <c r="I12" s="20">
-        <v>4000</v>
+        <v>50750</v>
       </c>
       <c r="J12" s="20">
-        <v>4000</v>
+        <v>50750</v>
       </c>
       <c r="K12" s="20">
-        <v>4000</v>
+        <v>50750</v>
       </c>
       <c r="L12" s="20">
-        <v>4000</v>
+        <v>50750</v>
       </c>
       <c r="M12" s="20">
-        <v>4000</v>
+        <v>50750</v>
       </c>
       <c r="N12" s="20">
-        <v>4000</v>
+        <v>50750</v>
       </c>
       <c r="O12" s="20">
-        <v>4000</v>
+        <v>50750</v>
       </c>
       <c r="P12" s="20">
-        <v>4000</v>
+        <v>50750</v>
       </c>
       <c r="Q12" s="20">
-        <v>4000</v>
+        <v>50750</v>
       </c>
       <c r="R12" s="20">
-        <v>4000</v>
+        <v>50750</v>
       </c>
       <c r="S12" s="20">
-        <v>4000</v>
+        <v>50750</v>
       </c>
       <c r="T12" s="20">
-        <v>4000</v>
+        <v>50750</v>
       </c>
       <c r="U12" s="20">
-        <v>4000</v>
+        <v>50750</v>
       </c>
       <c r="V12" s="20">
-        <v>4000</v>
+        <v>50750</v>
       </c>
       <c r="W12" s="20">
-        <v>4000</v>
+        <v>50750</v>
       </c>
       <c r="X12" s="20">
-        <v>4000</v>
+        <v>50750</v>
       </c>
       <c r="Y12" s="20">
-        <v>4000</v>
+        <v>50750</v>
       </c>
       <c r="Z12" s="20">
-        <v>4000</v>
+        <v>50750</v>
       </c>
       <c r="AA12" s="20">
-        <v>4000</v>
+        <v>50750</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B13" s="20">
-        <v>6386</v>
+        <v>4000</v>
       </c>
       <c r="C13" s="20">
-        <v>6386</v>
+        <v>4000</v>
       </c>
       <c r="D13" s="20">
-        <v>6386</v>
+        <v>4000</v>
       </c>
       <c r="E13" s="20">
-        <v>6386</v>
+        <v>4000</v>
       </c>
       <c r="F13" s="20">
-        <v>6386</v>
+        <v>4000</v>
       </c>
       <c r="G13" s="20">
-        <v>6386</v>
+        <v>4000</v>
       </c>
       <c r="H13" s="20">
-        <v>6386</v>
+        <v>4000</v>
       </c>
       <c r="I13" s="20">
-        <v>6386</v>
+        <v>4000</v>
       </c>
       <c r="J13" s="20">
-        <v>6386</v>
+        <v>4000</v>
       </c>
       <c r="K13" s="20">
-        <v>6386</v>
+        <v>4000</v>
       </c>
       <c r="L13" s="20">
-        <v>6386</v>
+        <v>4000</v>
       </c>
       <c r="M13" s="20">
-        <v>6386</v>
+        <v>4000</v>
       </c>
       <c r="N13" s="20">
-        <v>6386</v>
+        <v>4000</v>
       </c>
       <c r="O13" s="20">
-        <v>6386</v>
+        <v>4000</v>
       </c>
       <c r="P13" s="20">
-        <v>6386</v>
+        <v>4000</v>
       </c>
       <c r="Q13" s="20">
-        <v>6386</v>
+        <v>4000</v>
       </c>
       <c r="R13" s="20">
-        <v>6386</v>
+        <v>4000</v>
       </c>
       <c r="S13" s="20">
-        <v>6386</v>
+        <v>4000</v>
       </c>
       <c r="T13" s="20">
-        <v>6386</v>
+        <v>4000</v>
       </c>
       <c r="U13" s="20">
-        <v>6386</v>
+        <v>4000</v>
       </c>
       <c r="V13" s="20">
-        <v>6386</v>
+        <v>4000</v>
       </c>
       <c r="W13" s="20">
-        <v>6386</v>
+        <v>4000</v>
       </c>
       <c r="X13" s="20">
-        <v>6386</v>
+        <v>4000</v>
       </c>
       <c r="Y13" s="20">
-        <v>6386</v>
+        <v>4000</v>
       </c>
       <c r="Z13" s="20">
-        <v>6386</v>
+        <v>4000</v>
       </c>
       <c r="AA13" s="20">
-        <v>6386</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>79</v>
-      </c>
-      <c r="B14" s="20">
-        <v>3611</v>
-      </c>
-      <c r="C14" s="20">
-        <v>3611</v>
-      </c>
-      <c r="D14" s="20">
-        <v>3611</v>
-      </c>
-      <c r="E14" s="20">
-        <v>3611</v>
-      </c>
-      <c r="F14" s="20">
-        <v>3611</v>
-      </c>
-      <c r="G14" s="20">
-        <v>3611</v>
-      </c>
-      <c r="H14" s="20">
-        <v>3611</v>
-      </c>
-      <c r="I14" s="20">
-        <v>3611</v>
-      </c>
-      <c r="J14" s="20">
-        <v>3611</v>
-      </c>
-      <c r="K14" s="20">
-        <v>3611</v>
-      </c>
-      <c r="L14" s="20">
-        <v>3611</v>
-      </c>
-      <c r="M14" s="20">
-        <v>3611</v>
-      </c>
-      <c r="N14" s="20">
-        <v>3611</v>
-      </c>
-      <c r="O14" s="20">
-        <v>3611</v>
-      </c>
-      <c r="P14" s="20">
-        <v>3611</v>
-      </c>
-      <c r="Q14" s="20">
-        <v>3611</v>
-      </c>
-      <c r="R14" s="20">
-        <v>3611</v>
-      </c>
-      <c r="S14" s="20">
-        <v>3611</v>
-      </c>
-      <c r="T14" s="20">
-        <v>3611</v>
-      </c>
-      <c r="U14" s="20">
-        <v>3611</v>
-      </c>
-      <c r="V14" s="20">
-        <v>3611</v>
-      </c>
-      <c r="W14" s="20">
-        <v>3611</v>
-      </c>
-      <c r="X14" s="20">
-        <v>3611</v>
-      </c>
-      <c r="Y14" s="20">
-        <v>3611</v>
-      </c>
-      <c r="Z14" s="20">
-        <v>3611</v>
-      </c>
-      <c r="AA14" s="20">
-        <v>3611</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B15" s="20">
-        <v>50750</v>
-      </c>
-      <c r="C15" s="20">
-        <v>50750</v>
-      </c>
-      <c r="D15" s="20">
-        <v>50750</v>
-      </c>
-      <c r="E15" s="20">
-        <v>50750</v>
-      </c>
-      <c r="F15" s="20">
-        <v>50750</v>
-      </c>
-      <c r="G15" s="20">
-        <v>50750</v>
-      </c>
-      <c r="H15" s="20">
-        <v>50750</v>
-      </c>
-      <c r="I15" s="20">
-        <v>50750</v>
-      </c>
-      <c r="J15" s="20">
-        <v>50750</v>
-      </c>
-      <c r="K15" s="20">
-        <v>50750</v>
-      </c>
-      <c r="L15" s="20">
-        <v>50750</v>
-      </c>
-      <c r="M15" s="20">
-        <v>50750</v>
-      </c>
-      <c r="N15" s="20">
-        <v>50750</v>
-      </c>
-      <c r="O15" s="20">
-        <v>50750</v>
-      </c>
-      <c r="P15" s="20">
-        <v>50750</v>
-      </c>
-      <c r="Q15" s="20">
-        <v>50750</v>
-      </c>
-      <c r="R15" s="20">
-        <v>50750</v>
-      </c>
-      <c r="S15" s="20">
-        <v>50750</v>
-      </c>
-      <c r="T15" s="20">
-        <v>50750</v>
-      </c>
-      <c r="U15" s="20">
-        <v>50750</v>
-      </c>
-      <c r="V15" s="20">
-        <v>50750</v>
-      </c>
-      <c r="W15" s="20">
-        <v>50750</v>
-      </c>
-      <c r="X15" s="20">
-        <v>50750</v>
-      </c>
-      <c r="Y15" s="20">
-        <v>50750</v>
-      </c>
-      <c r="Z15" s="20">
-        <v>50750</v>
-      </c>
-      <c r="AA15" s="20">
-        <v>50750</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>81</v>
-      </c>
-      <c r="B16" s="20">
-        <v>4000</v>
-      </c>
-      <c r="C16" s="20">
-        <v>4000</v>
-      </c>
-      <c r="D16" s="20">
-        <v>4000</v>
-      </c>
-      <c r="E16" s="20">
-        <v>4000</v>
-      </c>
-      <c r="F16" s="20">
-        <v>4000</v>
-      </c>
-      <c r="G16" s="20">
-        <v>4000</v>
-      </c>
-      <c r="H16" s="20">
-        <v>4000</v>
-      </c>
-      <c r="I16" s="20">
-        <v>4000</v>
-      </c>
-      <c r="J16" s="20">
-        <v>4000</v>
-      </c>
-      <c r="K16" s="20">
-        <v>4000</v>
-      </c>
-      <c r="L16" s="20">
-        <v>4000</v>
-      </c>
-      <c r="M16" s="20">
-        <v>4000</v>
-      </c>
-      <c r="N16" s="20">
-        <v>4000</v>
-      </c>
-      <c r="O16" s="20">
-        <v>4000</v>
-      </c>
-      <c r="P16" s="20">
-        <v>4000</v>
-      </c>
-      <c r="Q16" s="20">
-        <v>4000</v>
-      </c>
-      <c r="R16" s="20">
-        <v>4000</v>
-      </c>
-      <c r="S16" s="20">
-        <v>4000</v>
-      </c>
-      <c r="T16" s="20">
-        <v>4000</v>
-      </c>
-      <c r="U16" s="20">
-        <v>4000</v>
-      </c>
-      <c r="V16" s="20">
-        <v>4000</v>
-      </c>
-      <c r="W16" s="20">
-        <v>4000</v>
-      </c>
-      <c r="X16" s="20">
-        <v>4000</v>
-      </c>
-      <c r="Y16" s="20">
-        <v>4000</v>
-      </c>
-      <c r="Z16" s="20">
-        <v>4000</v>
-      </c>
-      <c r="AA16" s="20">
         <v>4000</v>
       </c>
     </row>
@@ -5719,15 +5439,15 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DC1A385-697C-4C01-B126-79A22BD0CC72}">
-  <dimension ref="A1:AA16"/>
+  <dimension ref="A1:AA15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A16"/>
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.83203125" customWidth="1"/>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5814,1250 +5534,1004 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B2">
-        <v>11.88</v>
+        <v>13.97</v>
       </c>
       <c r="C2">
-        <v>11.88</v>
+        <v>13.97</v>
       </c>
       <c r="D2">
-        <v>11.88</v>
+        <v>13.97</v>
       </c>
       <c r="E2">
-        <v>11.88</v>
+        <v>13.97</v>
       </c>
       <c r="F2">
-        <v>11.88</v>
+        <v>13.97</v>
       </c>
       <c r="G2">
-        <v>11.88</v>
+        <v>13.97</v>
       </c>
       <c r="H2">
-        <v>11.88</v>
+        <v>13.97</v>
       </c>
       <c r="I2">
-        <v>11.88</v>
+        <v>13.97</v>
       </c>
       <c r="J2">
-        <v>11.88</v>
+        <v>13.97</v>
       </c>
       <c r="K2">
-        <v>11.88</v>
+        <v>13.97</v>
       </c>
       <c r="L2">
-        <v>11.88</v>
+        <v>13.97</v>
       </c>
       <c r="M2">
-        <v>11.88</v>
+        <v>13.97</v>
       </c>
       <c r="N2">
-        <v>11.88</v>
+        <v>13.97</v>
       </c>
       <c r="O2">
-        <v>11.88</v>
+        <v>13.97</v>
       </c>
       <c r="P2">
-        <v>11.88</v>
+        <v>13.97</v>
       </c>
       <c r="Q2">
-        <v>11.88</v>
+        <v>13.97</v>
       </c>
       <c r="R2">
-        <v>11.88</v>
+        <v>13.97</v>
       </c>
       <c r="S2">
-        <v>11.88</v>
+        <v>13.97</v>
       </c>
       <c r="T2">
-        <v>11.88</v>
+        <v>13.97</v>
       </c>
       <c r="U2">
-        <v>11.88</v>
+        <v>13.97</v>
       </c>
       <c r="V2">
-        <v>11.88</v>
+        <v>13.97</v>
       </c>
       <c r="W2">
-        <v>11.88</v>
+        <v>13.97</v>
       </c>
       <c r="X2">
-        <v>11.88</v>
+        <v>13.97</v>
       </c>
       <c r="Y2">
-        <v>11.88</v>
+        <v>13.97</v>
       </c>
       <c r="Z2">
-        <v>11.88</v>
+        <v>13.97</v>
       </c>
       <c r="AA2">
-        <v>11.88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>13.97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B3">
-        <v>4.75</v>
+        <v>13.97</v>
       </c>
       <c r="C3">
-        <v>4.75</v>
+        <v>13.97</v>
       </c>
       <c r="D3">
-        <v>4.75</v>
+        <v>13.97</v>
       </c>
       <c r="E3">
-        <v>4.75</v>
+        <v>13.97</v>
       </c>
       <c r="F3">
-        <v>4.75</v>
+        <v>13.97</v>
       </c>
       <c r="G3">
-        <v>4.75</v>
+        <v>13.97</v>
       </c>
       <c r="H3">
-        <v>4.75</v>
+        <v>13.97</v>
       </c>
       <c r="I3">
-        <v>4.75</v>
+        <v>13.97</v>
       </c>
       <c r="J3">
-        <v>4.75</v>
+        <v>13.97</v>
       </c>
       <c r="K3">
-        <v>4.75</v>
+        <v>13.97</v>
       </c>
       <c r="L3">
-        <v>4.75</v>
+        <v>13.97</v>
       </c>
       <c r="M3">
-        <v>4.75</v>
+        <v>13.97</v>
       </c>
       <c r="N3">
-        <v>4.75</v>
+        <v>13.97</v>
       </c>
       <c r="O3">
-        <v>4.75</v>
+        <v>13.97</v>
       </c>
       <c r="P3">
-        <v>4.75</v>
+        <v>13.97</v>
       </c>
       <c r="Q3">
-        <v>4.75</v>
+        <v>13.97</v>
       </c>
       <c r="R3">
-        <v>4.75</v>
+        <v>13.97</v>
       </c>
       <c r="S3">
-        <v>4.75</v>
+        <v>13.97</v>
       </c>
       <c r="T3">
-        <v>4.75</v>
+        <v>13.97</v>
       </c>
       <c r="U3">
-        <v>4.75</v>
+        <v>13.97</v>
       </c>
       <c r="V3">
-        <v>4.75</v>
+        <v>13.97</v>
       </c>
       <c r="W3">
-        <v>4.75</v>
+        <v>13.97</v>
       </c>
       <c r="X3">
-        <v>4.75</v>
+        <v>13.97</v>
       </c>
       <c r="Y3">
-        <v>4.75</v>
+        <v>13.97</v>
       </c>
       <c r="Z3">
-        <v>4.75</v>
+        <v>13.97</v>
       </c>
       <c r="AA3">
-        <v>4.75</v>
+        <v>13.97</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B4">
-        <v>1.35</v>
+        <v>13.97</v>
       </c>
       <c r="C4">
-        <v>1.35</v>
+        <v>13.97</v>
       </c>
       <c r="D4">
-        <v>1.35</v>
+        <v>13.97</v>
       </c>
       <c r="E4">
-        <v>1.35</v>
+        <v>13.97</v>
       </c>
       <c r="F4">
-        <v>1.35</v>
+        <v>13.97</v>
       </c>
       <c r="G4">
-        <v>1.35</v>
+        <v>13.97</v>
       </c>
       <c r="H4">
-        <v>1.35</v>
+        <v>13.97</v>
       </c>
       <c r="I4">
-        <v>1.35</v>
+        <v>13.97</v>
       </c>
       <c r="J4">
-        <v>1.35</v>
+        <v>13.97</v>
       </c>
       <c r="K4">
-        <v>1.35</v>
+        <v>13.97</v>
       </c>
       <c r="L4">
-        <v>1.35</v>
+        <v>13.97</v>
       </c>
       <c r="M4">
-        <v>1.35</v>
+        <v>13.97</v>
       </c>
       <c r="N4">
-        <v>1.35</v>
+        <v>13.97</v>
       </c>
       <c r="O4">
-        <v>1.35</v>
+        <v>13.97</v>
       </c>
       <c r="P4">
-        <v>1.35</v>
+        <v>13.97</v>
       </c>
       <c r="Q4">
-        <v>1.35</v>
+        <v>13.97</v>
       </c>
       <c r="R4">
-        <v>1.35</v>
+        <v>13.97</v>
       </c>
       <c r="S4">
-        <v>1.35</v>
+        <v>13.97</v>
       </c>
       <c r="T4">
-        <v>1.35</v>
+        <v>13.97</v>
       </c>
       <c r="U4">
-        <v>1.35</v>
+        <v>13.97</v>
       </c>
       <c r="V4">
-        <v>1.35</v>
+        <v>13.97</v>
       </c>
       <c r="W4">
-        <v>1.35</v>
+        <v>13.97</v>
       </c>
       <c r="X4">
-        <v>1.35</v>
+        <v>13.97</v>
       </c>
       <c r="Y4">
-        <v>1.35</v>
+        <v>13.97</v>
       </c>
       <c r="Z4">
-        <v>1.35</v>
+        <v>13.97</v>
       </c>
       <c r="AA4">
-        <v>1.35</v>
+        <v>13.97</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B5">
-        <v>5.23</v>
+        <v>13.97</v>
       </c>
       <c r="C5">
-        <v>5.23</v>
+        <v>13.97</v>
       </c>
       <c r="D5">
-        <v>5.23</v>
+        <v>13.97</v>
       </c>
       <c r="E5">
-        <v>5.23</v>
+        <v>13.97</v>
       </c>
       <c r="F5">
-        <v>5.23</v>
+        <v>13.97</v>
       </c>
       <c r="G5">
-        <v>5.23</v>
+        <v>13.97</v>
       </c>
       <c r="H5">
-        <v>5.23</v>
+        <v>13.97</v>
       </c>
       <c r="I5">
-        <v>5.23</v>
+        <v>13.97</v>
       </c>
       <c r="J5">
-        <v>5.23</v>
+        <v>13.97</v>
       </c>
       <c r="K5">
-        <v>5.23</v>
+        <v>13.97</v>
       </c>
       <c r="L5">
-        <v>5.23</v>
+        <v>13.97</v>
       </c>
       <c r="M5">
-        <v>5.23</v>
+        <v>13.97</v>
       </c>
       <c r="N5">
-        <v>5.23</v>
+        <v>13.97</v>
       </c>
       <c r="O5">
-        <v>5.23</v>
+        <v>13.97</v>
       </c>
       <c r="P5">
-        <v>5.23</v>
+        <v>13.97</v>
       </c>
       <c r="Q5">
-        <v>5.23</v>
+        <v>13.97</v>
       </c>
       <c r="R5">
-        <v>5.23</v>
+        <v>13.97</v>
       </c>
       <c r="S5">
-        <v>5.23</v>
+        <v>13.97</v>
       </c>
       <c r="T5">
-        <v>5.23</v>
+        <v>13.97</v>
       </c>
       <c r="U5">
-        <v>5.23</v>
+        <v>13.97</v>
       </c>
       <c r="V5">
-        <v>5.23</v>
+        <v>13.97</v>
       </c>
       <c r="W5">
-        <v>5.23</v>
+        <v>13.97</v>
       </c>
       <c r="X5">
-        <v>5.23</v>
+        <v>13.97</v>
       </c>
       <c r="Y5">
-        <v>5.23</v>
+        <v>13.97</v>
       </c>
       <c r="Z5">
-        <v>5.23</v>
+        <v>13.97</v>
       </c>
       <c r="AA5">
-        <v>5.23</v>
+        <v>13.97</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B6">
-        <v>1.59</v>
+        <v>13.97</v>
       </c>
       <c r="C6">
-        <v>1.59</v>
+        <v>13.97</v>
       </c>
       <c r="D6">
-        <v>1.59</v>
+        <v>13.97</v>
       </c>
       <c r="E6">
-        <v>1.59</v>
+        <v>13.97</v>
       </c>
       <c r="F6">
-        <v>1.59</v>
+        <v>13.97</v>
       </c>
       <c r="G6">
-        <v>1.59</v>
+        <v>13.97</v>
       </c>
       <c r="H6">
-        <v>1.59</v>
+        <v>13.97</v>
       </c>
       <c r="I6">
-        <v>1.59</v>
+        <v>13.97</v>
       </c>
       <c r="J6">
-        <v>1.59</v>
+        <v>13.97</v>
       </c>
       <c r="K6">
-        <v>1.59</v>
+        <v>13.97</v>
       </c>
       <c r="L6">
-        <v>1.59</v>
+        <v>13.97</v>
       </c>
       <c r="M6">
-        <v>1.59</v>
+        <v>13.97</v>
       </c>
       <c r="N6">
-        <v>1.59</v>
+        <v>13.97</v>
       </c>
       <c r="O6">
-        <v>1.59</v>
+        <v>13.97</v>
       </c>
       <c r="P6">
-        <v>1.59</v>
+        <v>13.97</v>
       </c>
       <c r="Q6">
-        <v>1.59</v>
+        <v>13.97</v>
       </c>
       <c r="R6">
-        <v>1.59</v>
+        <v>13.97</v>
       </c>
       <c r="S6">
-        <v>1.59</v>
+        <v>13.97</v>
       </c>
       <c r="T6">
-        <v>1.59</v>
+        <v>13.97</v>
       </c>
       <c r="U6">
-        <v>1.59</v>
+        <v>13.97</v>
       </c>
       <c r="V6">
-        <v>1.59</v>
+        <v>13.97</v>
       </c>
       <c r="W6">
-        <v>1.59</v>
+        <v>13.97</v>
       </c>
       <c r="X6">
-        <v>1.59</v>
+        <v>13.97</v>
       </c>
       <c r="Y6">
-        <v>1.59</v>
+        <v>13.97</v>
       </c>
       <c r="Z6">
-        <v>1.59</v>
+        <v>13.97</v>
       </c>
       <c r="AA6">
-        <v>1.59</v>
+        <v>13.97</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B7">
-        <v>0.82</v>
+        <v>13.97</v>
       </c>
       <c r="C7">
-        <v>0.82</v>
+        <v>13.97</v>
       </c>
       <c r="D7">
-        <v>0.82</v>
+        <v>13.97</v>
       </c>
       <c r="E7">
-        <v>0.82</v>
+        <v>13.97</v>
       </c>
       <c r="F7">
-        <v>0.82</v>
+        <v>13.97</v>
       </c>
       <c r="G7">
-        <v>0.82</v>
+        <v>13.97</v>
       </c>
       <c r="H7">
-        <v>0.82</v>
+        <v>13.97</v>
       </c>
       <c r="I7">
-        <v>0.82</v>
+        <v>13.97</v>
       </c>
       <c r="J7">
-        <v>0.82</v>
+        <v>13.97</v>
       </c>
       <c r="K7">
-        <v>0.82</v>
+        <v>13.97</v>
       </c>
       <c r="L7">
-        <v>0.82</v>
+        <v>13.97</v>
       </c>
       <c r="M7">
-        <v>0.82</v>
+        <v>13.97</v>
       </c>
       <c r="N7">
-        <v>0.82</v>
+        <v>13.97</v>
       </c>
       <c r="O7">
-        <v>0.82</v>
+        <v>13.97</v>
       </c>
       <c r="P7">
-        <v>0.82</v>
+        <v>13.97</v>
       </c>
       <c r="Q7">
-        <v>0.82</v>
+        <v>13.97</v>
       </c>
       <c r="R7">
-        <v>0.82</v>
+        <v>13.97</v>
       </c>
       <c r="S7">
-        <v>0.82</v>
+        <v>13.97</v>
       </c>
       <c r="T7">
-        <v>0.82</v>
+        <v>13.97</v>
       </c>
       <c r="U7">
-        <v>0.82</v>
+        <v>13.97</v>
       </c>
       <c r="V7">
-        <v>0.82</v>
+        <v>13.97</v>
       </c>
       <c r="W7">
-        <v>0.82</v>
+        <v>13.97</v>
       </c>
       <c r="X7">
-        <v>0.82</v>
+        <v>13.97</v>
       </c>
       <c r="Y7">
-        <v>0.82</v>
+        <v>13.97</v>
       </c>
       <c r="Z7">
-        <v>0.82</v>
+        <v>13.97</v>
       </c>
       <c r="AA7">
-        <v>0.82</v>
+        <v>13.97</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B8">
-        <v>0.23</v>
+        <v>13.97</v>
       </c>
       <c r="C8">
-        <v>0.23</v>
+        <v>13.97</v>
       </c>
       <c r="D8">
-        <v>0.23</v>
+        <v>13.97</v>
       </c>
       <c r="E8">
-        <v>0.23</v>
+        <v>13.97</v>
       </c>
       <c r="F8">
-        <v>0.23</v>
+        <v>13.97</v>
       </c>
       <c r="G8">
-        <v>0.23</v>
+        <v>13.97</v>
       </c>
       <c r="H8">
-        <v>0.23</v>
+        <v>13.97</v>
       </c>
       <c r="I8">
-        <v>0.23</v>
+        <v>13.97</v>
       </c>
       <c r="J8">
-        <v>0.23</v>
+        <v>13.97</v>
       </c>
       <c r="K8">
-        <v>0.23</v>
+        <v>13.97</v>
       </c>
       <c r="L8">
-        <v>0.23</v>
+        <v>13.97</v>
       </c>
       <c r="M8">
-        <v>0.23</v>
+        <v>13.97</v>
       </c>
       <c r="N8">
-        <v>0.23</v>
+        <v>13.97</v>
       </c>
       <c r="O8">
-        <v>0.23</v>
+        <v>13.97</v>
       </c>
       <c r="P8">
-        <v>0.23</v>
+        <v>13.97</v>
       </c>
       <c r="Q8">
-        <v>0.23</v>
+        <v>13.97</v>
       </c>
       <c r="R8">
-        <v>0.23</v>
+        <v>13.97</v>
       </c>
       <c r="S8">
-        <v>0.23</v>
+        <v>13.97</v>
       </c>
       <c r="T8">
-        <v>0.23</v>
+        <v>13.97</v>
       </c>
       <c r="U8">
-        <v>0.23</v>
+        <v>13.97</v>
       </c>
       <c r="V8">
-        <v>0.23</v>
+        <v>13.97</v>
       </c>
       <c r="W8">
-        <v>0.23</v>
+        <v>13.97</v>
       </c>
       <c r="X8">
-        <v>0.23</v>
+        <v>13.97</v>
       </c>
       <c r="Y8">
-        <v>0.23</v>
+        <v>13.97</v>
       </c>
       <c r="Z8">
-        <v>0.23</v>
+        <v>13.97</v>
       </c>
       <c r="AA8">
-        <v>0.23</v>
+        <v>13.97</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B9">
-        <v>0.80999999999999994</v>
+        <v>13.97</v>
       </c>
       <c r="C9">
-        <v>0.80999999999999994</v>
+        <v>13.97</v>
       </c>
       <c r="D9">
-        <v>0.80999999999999994</v>
+        <v>13.97</v>
       </c>
       <c r="E9">
-        <v>0.80999999999999994</v>
+        <v>13.97</v>
       </c>
       <c r="F9">
-        <v>0.80999999999999994</v>
+        <v>13.97</v>
       </c>
       <c r="G9">
-        <v>0.80999999999999994</v>
+        <v>13.97</v>
       </c>
       <c r="H9">
-        <v>0.80999999999999994</v>
+        <v>13.97</v>
       </c>
       <c r="I9">
-        <v>0.80999999999999994</v>
+        <v>13.97</v>
       </c>
       <c r="J9">
-        <v>0.80999999999999994</v>
+        <v>13.97</v>
       </c>
       <c r="K9">
-        <v>0.80999999999999994</v>
+        <v>13.97</v>
       </c>
       <c r="L9">
-        <v>0.80999999999999994</v>
+        <v>13.97</v>
       </c>
       <c r="M9">
-        <v>0.80999999999999994</v>
+        <v>13.97</v>
       </c>
       <c r="N9">
-        <v>0.80999999999999994</v>
+        <v>13.97</v>
       </c>
       <c r="O9">
-        <v>0.80999999999999994</v>
+        <v>13.97</v>
       </c>
       <c r="P9">
-        <v>0.80999999999999994</v>
+        <v>13.97</v>
       </c>
       <c r="Q9">
-        <v>0.80999999999999994</v>
+        <v>13.97</v>
       </c>
       <c r="R9">
-        <v>0.80999999999999994</v>
+        <v>13.97</v>
       </c>
       <c r="S9">
-        <v>0.80999999999999994</v>
+        <v>13.97</v>
       </c>
       <c r="T9">
-        <v>0.80999999999999994</v>
+        <v>13.97</v>
       </c>
       <c r="U9">
-        <v>0.80999999999999994</v>
+        <v>13.97</v>
       </c>
       <c r="V9">
-        <v>0.80999999999999994</v>
+        <v>13.97</v>
       </c>
       <c r="W9">
-        <v>0.80999999999999994</v>
+        <v>13.97</v>
       </c>
       <c r="X9">
-        <v>0.80999999999999994</v>
+        <v>13.97</v>
       </c>
       <c r="Y9">
-        <v>0.80999999999999994</v>
+        <v>13.97</v>
       </c>
       <c r="Z9">
-        <v>0.80999999999999994</v>
+        <v>13.97</v>
       </c>
       <c r="AA9">
-        <v>0.80999999999999994</v>
+        <v>13.97</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B10">
-        <v>8.76</v>
+        <v>13.97</v>
       </c>
       <c r="C10">
-        <v>8.76</v>
+        <v>13.97</v>
       </c>
       <c r="D10">
-        <v>8.76</v>
+        <v>13.97</v>
       </c>
       <c r="E10">
-        <v>8.76</v>
+        <v>13.97</v>
       </c>
       <c r="F10">
-        <v>8.76</v>
+        <v>13.97</v>
       </c>
       <c r="G10">
-        <v>8.76</v>
+        <v>13.97</v>
       </c>
       <c r="H10">
-        <v>8.76</v>
+        <v>13.97</v>
       </c>
       <c r="I10">
-        <v>8.76</v>
+        <v>13.97</v>
       </c>
       <c r="J10">
-        <v>8.76</v>
+        <v>13.97</v>
       </c>
       <c r="K10">
-        <v>8.76</v>
+        <v>13.97</v>
       </c>
       <c r="L10">
-        <v>8.76</v>
+        <v>13.97</v>
       </c>
       <c r="M10">
-        <v>8.76</v>
+        <v>13.97</v>
       </c>
       <c r="N10">
-        <v>8.76</v>
+        <v>13.97</v>
       </c>
       <c r="O10">
-        <v>8.76</v>
+        <v>13.97</v>
       </c>
       <c r="P10">
-        <v>8.76</v>
+        <v>13.97</v>
       </c>
       <c r="Q10">
-        <v>8.76</v>
+        <v>13.97</v>
       </c>
       <c r="R10">
-        <v>8.76</v>
+        <v>13.97</v>
       </c>
       <c r="S10">
-        <v>8.76</v>
+        <v>13.97</v>
       </c>
       <c r="T10">
-        <v>8.76</v>
+        <v>13.97</v>
       </c>
       <c r="U10">
-        <v>8.76</v>
+        <v>13.97</v>
       </c>
       <c r="V10">
-        <v>8.76</v>
+        <v>13.97</v>
       </c>
       <c r="W10">
-        <v>8.76</v>
+        <v>13.97</v>
       </c>
       <c r="X10">
-        <v>8.76</v>
+        <v>13.97</v>
       </c>
       <c r="Y10">
-        <v>8.76</v>
+        <v>13.97</v>
       </c>
       <c r="Z10">
-        <v>8.76</v>
+        <v>13.97</v>
       </c>
       <c r="AA10">
-        <v>8.76</v>
+        <v>13.97</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B11">
-        <v>5.99</v>
+        <v>13.97</v>
       </c>
       <c r="C11">
-        <v>5.99</v>
+        <v>13.97</v>
       </c>
       <c r="D11">
-        <v>5.99</v>
+        <v>13.97</v>
       </c>
       <c r="E11">
-        <v>5.99</v>
+        <v>13.97</v>
       </c>
       <c r="F11">
-        <v>5.99</v>
+        <v>13.97</v>
       </c>
       <c r="G11">
-        <v>5.99</v>
+        <v>13.97</v>
       </c>
       <c r="H11">
-        <v>5.99</v>
+        <v>13.97</v>
       </c>
       <c r="I11">
-        <v>5.99</v>
+        <v>13.97</v>
       </c>
       <c r="J11">
-        <v>5.99</v>
+        <v>13.97</v>
       </c>
       <c r="K11">
-        <v>5.99</v>
+        <v>13.97</v>
       </c>
       <c r="L11">
-        <v>5.99</v>
+        <v>13.97</v>
       </c>
       <c r="M11">
-        <v>5.99</v>
+        <v>13.97</v>
       </c>
       <c r="N11">
-        <v>5.99</v>
+        <v>13.97</v>
       </c>
       <c r="O11">
-        <v>5.99</v>
+        <v>13.97</v>
       </c>
       <c r="P11">
-        <v>5.99</v>
+        <v>13.97</v>
       </c>
       <c r="Q11">
-        <v>5.99</v>
+        <v>13.97</v>
       </c>
       <c r="R11">
-        <v>5.99</v>
+        <v>13.97</v>
       </c>
       <c r="S11">
-        <v>5.99</v>
+        <v>13.97</v>
       </c>
       <c r="T11">
-        <v>5.99</v>
+        <v>13.97</v>
       </c>
       <c r="U11">
-        <v>5.99</v>
+        <v>13.97</v>
       </c>
       <c r="V11">
-        <v>5.99</v>
+        <v>13.97</v>
       </c>
       <c r="W11">
-        <v>5.99</v>
+        <v>13.97</v>
       </c>
       <c r="X11">
-        <v>5.99</v>
+        <v>13.97</v>
       </c>
       <c r="Y11">
-        <v>5.99</v>
+        <v>13.97</v>
       </c>
       <c r="Z11">
-        <v>5.99</v>
+        <v>13.97</v>
       </c>
       <c r="AA11">
-        <v>5.99</v>
+        <v>13.97</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B12">
-        <v>0.31</v>
+        <v>13.97</v>
       </c>
       <c r="C12">
-        <v>0.31</v>
+        <v>13.97</v>
       </c>
       <c r="D12">
-        <v>0.31</v>
+        <v>13.97</v>
       </c>
       <c r="E12">
-        <v>0.31</v>
+        <v>13.97</v>
       </c>
       <c r="F12">
-        <v>0.31</v>
+        <v>13.97</v>
       </c>
       <c r="G12">
-        <v>0.31</v>
+        <v>13.97</v>
       </c>
       <c r="H12">
-        <v>0.31</v>
+        <v>13.97</v>
       </c>
       <c r="I12">
-        <v>0.31</v>
+        <v>13.97</v>
       </c>
       <c r="J12">
-        <v>0.31</v>
+        <v>13.97</v>
       </c>
       <c r="K12">
-        <v>0.31</v>
+        <v>13.97</v>
       </c>
       <c r="L12">
-        <v>0.31</v>
+        <v>13.97</v>
       </c>
       <c r="M12">
-        <v>0.31</v>
+        <v>13.97</v>
       </c>
       <c r="N12">
-        <v>0.31</v>
+        <v>13.97</v>
       </c>
       <c r="O12">
-        <v>0.31</v>
+        <v>13.97</v>
       </c>
       <c r="P12">
-        <v>0.31</v>
+        <v>13.97</v>
       </c>
       <c r="Q12">
-        <v>0.31</v>
+        <v>13.97</v>
       </c>
       <c r="R12">
-        <v>0.31</v>
+        <v>13.97</v>
       </c>
       <c r="S12">
-        <v>0.31</v>
+        <v>13.97</v>
       </c>
       <c r="T12">
-        <v>0.31</v>
+        <v>13.97</v>
       </c>
       <c r="U12">
-        <v>0.31</v>
+        <v>13.97</v>
       </c>
       <c r="V12">
-        <v>0.31</v>
+        <v>13.97</v>
       </c>
       <c r="W12">
-        <v>0.31</v>
+        <v>13.97</v>
       </c>
       <c r="X12">
-        <v>0.31</v>
+        <v>13.97</v>
       </c>
       <c r="Y12">
-        <v>0.31</v>
+        <v>13.97</v>
       </c>
       <c r="Z12">
-        <v>0.31</v>
+        <v>13.97</v>
       </c>
       <c r="AA12">
-        <v>0.31</v>
+        <v>13.97</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B13">
-        <v>0.54</v>
+        <v>13.97</v>
       </c>
       <c r="C13">
-        <v>0.54</v>
+        <v>13.97</v>
       </c>
       <c r="D13">
-        <v>0.54</v>
+        <v>13.97</v>
       </c>
       <c r="E13">
-        <v>0.54</v>
+        <v>13.97</v>
       </c>
       <c r="F13">
-        <v>0.54</v>
+        <v>13.97</v>
       </c>
       <c r="G13">
-        <v>0.54</v>
+        <v>13.97</v>
       </c>
       <c r="H13">
-        <v>0.54</v>
+        <v>13.97</v>
       </c>
       <c r="I13">
-        <v>0.54</v>
+        <v>13.97</v>
       </c>
       <c r="J13">
-        <v>0.54</v>
+        <v>13.97</v>
       </c>
       <c r="K13">
-        <v>0.54</v>
+        <v>13.97</v>
       </c>
       <c r="L13">
-        <v>0.54</v>
+        <v>13.97</v>
       </c>
       <c r="M13">
-        <v>0.54</v>
+        <v>13.97</v>
       </c>
       <c r="N13">
-        <v>0.54</v>
+        <v>13.97</v>
       </c>
       <c r="O13">
-        <v>0.54</v>
+        <v>13.97</v>
       </c>
       <c r="P13">
-        <v>0.54</v>
+        <v>13.97</v>
       </c>
       <c r="Q13">
-        <v>0.54</v>
+        <v>13.97</v>
       </c>
       <c r="R13">
-        <v>0.54</v>
+        <v>13.97</v>
       </c>
       <c r="S13">
-        <v>0.54</v>
+        <v>13.97</v>
       </c>
       <c r="T13">
-        <v>0.54</v>
+        <v>13.97</v>
       </c>
       <c r="U13">
-        <v>0.54</v>
+        <v>13.97</v>
       </c>
       <c r="V13">
-        <v>0.54</v>
+        <v>13.97</v>
       </c>
       <c r="W13">
-        <v>0.54</v>
+        <v>13.97</v>
       </c>
       <c r="X13">
-        <v>0.54</v>
+        <v>13.97</v>
       </c>
       <c r="Y13">
-        <v>0.54</v>
+        <v>13.97</v>
       </c>
       <c r="Z13">
-        <v>0.54</v>
+        <v>13.97</v>
       </c>
       <c r="AA13">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>79</v>
-      </c>
-      <c r="B14">
-        <v>1.48</v>
-      </c>
-      <c r="C14">
-        <v>1.48</v>
-      </c>
-      <c r="D14">
-        <v>1.48</v>
-      </c>
-      <c r="E14">
-        <v>1.48</v>
-      </c>
-      <c r="F14">
-        <v>1.48</v>
-      </c>
-      <c r="G14">
-        <v>1.48</v>
-      </c>
-      <c r="H14">
-        <v>1.48</v>
-      </c>
-      <c r="I14">
-        <v>1.48</v>
-      </c>
-      <c r="J14">
-        <v>1.48</v>
-      </c>
-      <c r="K14">
-        <v>1.48</v>
-      </c>
-      <c r="L14">
-        <v>1.48</v>
-      </c>
-      <c r="M14">
-        <v>1.48</v>
-      </c>
-      <c r="N14">
-        <v>1.48</v>
-      </c>
-      <c r="O14">
-        <v>1.48</v>
-      </c>
-      <c r="P14">
-        <v>1.48</v>
-      </c>
-      <c r="Q14">
-        <v>1.48</v>
-      </c>
-      <c r="R14">
-        <v>1.48</v>
-      </c>
-      <c r="S14">
-        <v>1.48</v>
-      </c>
-      <c r="T14">
-        <v>1.48</v>
-      </c>
-      <c r="U14">
-        <v>1.48</v>
-      </c>
-      <c r="V14">
-        <v>1.48</v>
-      </c>
-      <c r="W14">
-        <v>1.48</v>
-      </c>
-      <c r="X14">
-        <v>1.48</v>
-      </c>
-      <c r="Y14">
-        <v>1.48</v>
-      </c>
-      <c r="Z14">
-        <v>1.48</v>
-      </c>
-      <c r="AA14">
-        <v>1.48</v>
+        <v>13.97</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B15">
-        <v>2.29</v>
-      </c>
-      <c r="C15">
-        <v>2.29</v>
-      </c>
-      <c r="D15">
-        <v>2.29</v>
-      </c>
-      <c r="E15">
-        <v>2.29</v>
-      </c>
-      <c r="F15">
-        <v>2.29</v>
-      </c>
-      <c r="G15">
-        <v>2.29</v>
-      </c>
-      <c r="H15">
-        <v>2.29</v>
-      </c>
-      <c r="I15">
-        <v>2.29</v>
-      </c>
-      <c r="J15">
-        <v>2.29</v>
-      </c>
-      <c r="K15">
-        <v>2.29</v>
-      </c>
-      <c r="L15">
-        <v>2.29</v>
-      </c>
-      <c r="M15">
-        <v>2.29</v>
-      </c>
-      <c r="N15">
-        <v>2.29</v>
-      </c>
-      <c r="O15">
-        <v>2.29</v>
-      </c>
-      <c r="P15">
-        <v>2.29</v>
-      </c>
-      <c r="Q15">
-        <v>2.29</v>
-      </c>
-      <c r="R15">
-        <v>2.29</v>
-      </c>
-      <c r="S15">
-        <v>2.29</v>
-      </c>
-      <c r="T15">
-        <v>2.29</v>
-      </c>
-      <c r="U15">
-        <v>2.29</v>
-      </c>
-      <c r="V15">
-        <v>2.29</v>
-      </c>
-      <c r="W15">
-        <v>2.29</v>
-      </c>
-      <c r="X15">
-        <v>2.29</v>
-      </c>
-      <c r="Y15">
-        <v>2.29</v>
-      </c>
-      <c r="Z15">
-        <v>2.29</v>
-      </c>
-      <c r="AA15">
-        <v>2.29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>81</v>
-      </c>
-      <c r="B16">
-        <v>0.31</v>
-      </c>
-      <c r="C16">
-        <v>0.31</v>
-      </c>
-      <c r="D16">
-        <v>0.31</v>
-      </c>
-      <c r="E16">
-        <v>0.31</v>
-      </c>
-      <c r="F16">
-        <v>0.31</v>
-      </c>
-      <c r="G16">
-        <v>0.31</v>
-      </c>
-      <c r="H16">
-        <v>0.31</v>
-      </c>
-      <c r="I16">
-        <v>0.31</v>
-      </c>
-      <c r="J16">
-        <v>0.31</v>
-      </c>
-      <c r="K16">
-        <v>0.31</v>
-      </c>
-      <c r="L16">
-        <v>0.31</v>
-      </c>
-      <c r="M16">
-        <v>0.31</v>
-      </c>
-      <c r="N16">
-        <v>0.31</v>
-      </c>
-      <c r="O16">
-        <v>0.31</v>
-      </c>
-      <c r="P16">
-        <v>0.31</v>
-      </c>
-      <c r="Q16">
-        <v>0.31</v>
-      </c>
-      <c r="R16">
-        <v>0.31</v>
-      </c>
-      <c r="S16">
-        <v>0.31</v>
-      </c>
-      <c r="T16">
-        <v>0.31</v>
-      </c>
-      <c r="U16">
-        <v>0.31</v>
-      </c>
-      <c r="V16">
-        <v>0.31</v>
-      </c>
-      <c r="W16">
-        <v>0.31</v>
-      </c>
-      <c r="X16">
-        <v>0.31</v>
-      </c>
-      <c r="Y16">
-        <v>0.31</v>
-      </c>
-      <c r="Z16">
-        <v>0.31</v>
-      </c>
-      <c r="AA16">
-        <v>0.31</v>
-      </c>
+      <c r="B15" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -7068,10 +6542,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8A5865B-B011-402F-A09D-739FDD6B0E90}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView zoomScale="124" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7105,18 +6579,17 @@
         <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C2" s="14">
-        <v>0.46</v>
+        <v>1</v>
       </c>
       <c r="D2" s="14">
-        <v>0.46</v>
+        <v>0.34</v>
       </c>
       <c r="E2" s="14">
         <v>2000</v>
       </c>
-      <c r="F2" s="14"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -7124,13 +6597,13 @@
         <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C3" s="14">
-        <v>0.184</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="D3" s="14">
-        <v>0.184</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="E3" s="14">
         <v>2000</v>
@@ -7142,13 +6615,13 @@
         <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C4" s="14">
-        <v>5.1999999999999998E-2</v>
+        <v>0.374</v>
       </c>
       <c r="D4" s="14">
-        <v>5.1999999999999998E-2</v>
+        <v>0.374</v>
       </c>
       <c r="E4" s="14">
         <v>2000</v>
@@ -7160,13 +6633,13 @@
         <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C5" s="14">
-        <v>0.20200000000000001</v>
+        <v>0.114</v>
       </c>
       <c r="D5" s="14">
-        <v>0.20200000000000001</v>
+        <v>0.114</v>
       </c>
       <c r="E5" s="14">
         <v>2000</v>
@@ -7178,13 +6651,13 @@
         <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C6" s="14">
-        <v>6.2E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="D6" s="14">
-        <v>6.2E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="E6" s="14">
         <v>2000</v>
@@ -7196,101 +6669,99 @@
         <v>53</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C7" s="14">
-        <v>3.2000000000000001E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="D7" s="14">
-        <v>3.2000000000000001E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="E7" s="14">
         <v>2000</v>
       </c>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
-        <v>53</v>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
+        <v>66</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C8" s="14">
-        <v>8.9999999999999993E-3</v>
+        <v>1</v>
       </c>
       <c r="D8" s="14">
-        <v>8.9999999999999993E-3</v>
+        <v>0.58199999999999996</v>
       </c>
       <c r="E8" s="14">
         <v>2000</v>
       </c>
-      <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" s="14">
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="D9" s="14">
-        <v>5.0999999999999997E-2</v>
+        <v>75</v>
+      </c>
+      <c r="C9">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="D9">
+        <v>0.39800000000000002</v>
       </c>
       <c r="E9" s="14">
         <v>2000</v>
       </c>
-      <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" s="14">
-        <v>0.55200000000000005</v>
-      </c>
-      <c r="D10" s="14">
-        <v>0.55200000000000005</v>
+        <v>76</v>
+      </c>
+      <c r="C10">
+        <v>0.02</v>
+      </c>
+      <c r="D10">
+        <v>0.02</v>
       </c>
       <c r="E10" s="14">
         <v>2000</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="14" t="s">
+      <c r="A11" t="s">
         <v>54</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C11">
-        <v>0.377</v>
+        <v>0.36299999999999999</v>
       </c>
       <c r="D11">
-        <v>0.377</v>
+        <v>0.36299999999999999</v>
       </c>
       <c r="E11" s="14">
         <v>2000</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="14" t="s">
+      <c r="A12" t="s">
         <v>54</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C12">
-        <v>0.02</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>0.02</v>
+        <v>0.56100000000000005</v>
       </c>
       <c r="E12" s="14">
         <v>2000</v>
@@ -7298,69 +6769,18 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C13">
-        <v>0.11700000000000001</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="D13">
-        <v>0.11700000000000001</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="E13" s="14">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14">
-        <v>0.32</v>
-      </c>
-      <c r="D14">
-        <v>0.32</v>
-      </c>
-      <c r="E14" s="14">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" t="s">
-        <v>80</v>
-      </c>
-      <c r="C15">
-        <v>0.496</v>
-      </c>
-      <c r="D15">
-        <v>0.496</v>
-      </c>
-      <c r="E15" s="14">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" t="s">
-        <v>81</v>
-      </c>
-      <c r="C16">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="D16">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="E16" s="14">
         <v>2000</v>
       </c>
     </row>
@@ -7375,15 +6795,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B80F836-AAFA-4D20-813C-A31BE68F85E1}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.5" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.1640625" customWidth="1"/>
+    <col min="3" max="3" width="90.5" customWidth="1"/>
     <col min="4" max="4" width="58.1640625" customWidth="1"/>
     <col min="5" max="5" width="30.83203125" customWidth="1"/>
     <col min="6" max="6" width="21.1640625" customWidth="1"/>
@@ -7426,22 +6846,22 @@
         <v>53</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G2" s="11">
         <v>4722000</v>
       </c>
       <c r="H2" s="13">
-        <v>2013</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -7452,22 +6872,22 @@
         <v>53</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G3" s="11">
         <v>4237000</v>
       </c>
       <c r="H3" s="13">
-        <v>2016</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -7478,22 +6898,22 @@
         <v>53</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G4" s="11">
         <v>4128000</v>
       </c>
       <c r="H4" s="13">
-        <v>2017</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -7504,22 +6924,22 @@
         <v>53</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G5" s="11">
         <v>4127000</v>
       </c>
       <c r="H5" s="13">
-        <v>2020</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -7530,22 +6950,22 @@
         <v>53</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G6" s="11">
         <v>4000000</v>
       </c>
       <c r="H6" s="13">
-        <v>2010</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -7556,22 +6976,22 @@
         <v>53</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G7" s="11">
         <v>4000000</v>
       </c>
       <c r="H7" s="13">
-        <v>2010</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -7582,22 +7002,22 @@
         <v>53</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G8" s="11">
         <v>4000000</v>
       </c>
       <c r="H8" s="13">
-        <v>2013</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -7608,22 +7028,22 @@
         <v>53</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G9" s="11">
         <v>3804000</v>
       </c>
       <c r="H9" s="13">
-        <v>2024</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -7634,22 +7054,22 @@
         <v>53</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G10" s="11">
         <v>3624000</v>
       </c>
       <c r="H10" s="13">
-        <v>2022</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -7660,22 +7080,22 @@
         <v>53</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G11" s="11">
         <v>3239000</v>
       </c>
       <c r="H11" s="13">
-        <v>2005</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -7686,22 +7106,22 @@
         <v>53</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G12" s="11">
         <v>1914000</v>
       </c>
       <c r="H12" s="13">
-        <v>2015</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -7712,22 +7132,22 @@
         <v>53</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G13" s="11">
         <v>1683000</v>
       </c>
       <c r="H13" s="13">
-        <v>2010</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -7738,22 +7158,22 @@
         <v>53</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G14" s="11">
         <v>1280000</v>
       </c>
       <c r="H14" s="13">
-        <v>2010</v>
+        <v>2000</v>
       </c>
     </row>
   </sheetData>
@@ -7765,10 +7185,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20EB8FDB-F47B-40C2-8266-6700BCAB2D8C}">
-  <dimension ref="A1:AA16"/>
+  <dimension ref="A1:AA14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7862,7 +7282,7 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B2" s="19">
         <v>0</v>
@@ -7945,7 +7365,7 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B3" s="19">
         <v>0</v>
@@ -8028,7 +7448,7 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B4" s="19">
         <v>9.5000000000000001E-2</v>
@@ -8111,7 +7531,7 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B5" s="19">
         <v>0.26</v>
@@ -8194,7 +7614,7 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="B6" s="19">
         <v>4.3999999999999997E-2</v>
@@ -8277,7 +7697,7 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B7" s="19">
         <v>0.192</v>
@@ -8360,7 +7780,7 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B8" s="19">
         <v>5.5E-2</v>
@@ -8695,82 +8115,82 @@
         <v>77</v>
       </c>
       <c r="B12" s="19">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="C12" s="19">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="D12" s="19">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="E12" s="19">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="F12" s="19">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="G12" s="19">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="H12" s="19">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="I12" s="19">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="J12" s="19">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="K12" s="19">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="L12" s="19">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="M12" s="19">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="N12" s="19">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="O12" s="19">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="P12" s="19">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="Q12" s="19">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="R12" s="19">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="S12" s="19">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="T12" s="19">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="U12" s="19">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="V12" s="19">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="W12" s="19">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="X12" s="19">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="Y12" s="19">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="Z12" s="19">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="AA12" s="19">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
@@ -8861,247 +8281,81 @@
         <v>79</v>
       </c>
       <c r="B14" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="C14" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="D14" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="E14" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="F14" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="G14" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="H14" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="I14" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="J14" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="K14" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="L14" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="M14" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="N14" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="O14" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="P14" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="R14" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="S14" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="T14" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="U14" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="V14" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="W14" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="X14" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="Y14" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="AA14" s="19">
-        <v>5.5E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B15" s="19">
-        <v>0</v>
-      </c>
-      <c r="C15" s="19">
-        <v>0</v>
-      </c>
-      <c r="D15" s="19">
-        <v>0</v>
-      </c>
-      <c r="E15" s="19">
-        <v>0</v>
-      </c>
-      <c r="F15" s="19">
-        <v>0</v>
-      </c>
-      <c r="G15" s="19">
-        <v>0</v>
-      </c>
-      <c r="H15" s="19">
-        <v>0</v>
-      </c>
-      <c r="I15" s="19">
-        <v>0</v>
-      </c>
-      <c r="J15" s="19">
-        <v>0</v>
-      </c>
-      <c r="K15" s="19">
-        <v>0</v>
-      </c>
-      <c r="L15" s="19">
-        <v>0</v>
-      </c>
-      <c r="M15" s="19">
-        <v>0</v>
-      </c>
-      <c r="N15" s="19">
-        <v>0</v>
-      </c>
-      <c r="O15" s="19">
-        <v>0</v>
-      </c>
-      <c r="P15" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="19">
-        <v>0</v>
-      </c>
-      <c r="R15" s="19">
-        <v>0</v>
-      </c>
-      <c r="S15" s="19">
-        <v>0</v>
-      </c>
-      <c r="T15" s="19">
-        <v>0</v>
-      </c>
-      <c r="U15" s="19">
-        <v>0</v>
-      </c>
-      <c r="V15" s="19">
-        <v>0</v>
-      </c>
-      <c r="W15" s="19">
-        <v>0</v>
-      </c>
-      <c r="X15" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="19">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="19">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>81</v>
-      </c>
-      <c r="B16" s="19">
-        <v>0</v>
-      </c>
-      <c r="C16" s="19">
-        <v>0</v>
-      </c>
-      <c r="D16" s="19">
-        <v>0</v>
-      </c>
-      <c r="E16" s="19">
-        <v>0</v>
-      </c>
-      <c r="F16" s="19">
-        <v>0</v>
-      </c>
-      <c r="G16" s="19">
-        <v>0</v>
-      </c>
-      <c r="H16" s="19">
-        <v>0</v>
-      </c>
-      <c r="I16" s="19">
-        <v>0</v>
-      </c>
-      <c r="J16" s="19">
-        <v>0</v>
-      </c>
-      <c r="K16" s="19">
-        <v>0</v>
-      </c>
-      <c r="L16" s="19">
-        <v>0</v>
-      </c>
-      <c r="M16" s="19">
-        <v>0</v>
-      </c>
-      <c r="N16" s="19">
-        <v>0</v>
-      </c>
-      <c r="O16" s="19">
-        <v>0</v>
-      </c>
-      <c r="P16" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="19">
-        <v>0</v>
-      </c>
-      <c r="R16" s="19">
-        <v>0</v>
-      </c>
-      <c r="S16" s="19">
-        <v>0</v>
-      </c>
-      <c r="T16" s="19">
-        <v>0</v>
-      </c>
-      <c r="U16" s="19">
-        <v>0</v>
-      </c>
-      <c r="V16" s="19">
-        <v>0</v>
-      </c>
-      <c r="W16" s="19">
-        <v>0</v>
-      </c>
-      <c r="X16" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="19">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="19">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="19">
         <v>0</v>
       </c>
     </row>
@@ -9117,7 +8371,7 @@
   <dimension ref="A1:AA30"/>
   <sheetViews>
     <sheetView zoomScale="120" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D13" sqref="C13:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9294,7 +8548,7 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="B3" s="17">
         <v>1031827.99</v>
@@ -9377,7 +8631,7 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" s="17">
         <v>310283.40000000002</v>
@@ -9751,7 +9005,7 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="B3">
         <v>161627.91</v>
@@ -9834,7 +9088,7 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4">
         <v>86076.23</v>
@@ -10104,7 +9358,7 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="B3">
         <v>275644</v>
@@ -10187,7 +9441,7 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4">
         <v>185299.77</v>
@@ -10314,7 +9568,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="B3">
         <v>20</v>
@@ -10325,7 +9579,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4">
         <v>20</v>
@@ -10526,20 +9780,20 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E46CCB1-2754-42FA-B5C9-8DABA83A320C}">
-  <dimension ref="A1:AA2"/>
+  <dimension ref="A1:AA3"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="17" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.1640625" customWidth="1"/>
+    <col min="23" max="27" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="16" x14ac:dyDescent="0.2">
@@ -10629,84 +9883,87 @@
       <c r="A2" t="s">
         <v>30</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="17">
         <v>920000000</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="17">
         <v>920000000</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="17">
         <v>920000000</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="17">
         <v>920000000</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="17">
         <v>920000000</v>
       </c>
-      <c r="G2">
-        <v>650000000</v>
-      </c>
-      <c r="H2">
-        <v>650000000</v>
-      </c>
-      <c r="I2">
-        <v>650000000</v>
-      </c>
-      <c r="J2">
-        <v>650000000</v>
-      </c>
-      <c r="K2">
-        <v>650000000</v>
-      </c>
-      <c r="L2">
-        <v>650000000</v>
-      </c>
-      <c r="M2">
+      <c r="G2" s="17">
         <v>600000000</v>
       </c>
-      <c r="N2">
+      <c r="H2" s="17">
         <v>600000000</v>
       </c>
-      <c r="O2">
+      <c r="I2" s="17">
         <v>600000000</v>
       </c>
-      <c r="P2">
+      <c r="J2" s="17">
         <v>600000000</v>
       </c>
-      <c r="Q2">
+      <c r="K2" s="17">
         <v>600000000</v>
       </c>
-      <c r="R2">
+      <c r="L2" s="17">
+        <v>600000000</v>
+      </c>
+      <c r="M2" s="17">
+        <v>600000000</v>
+      </c>
+      <c r="N2" s="17">
+        <v>600000000</v>
+      </c>
+      <c r="O2" s="17">
+        <v>600000000</v>
+      </c>
+      <c r="P2" s="17">
+        <v>600000000</v>
+      </c>
+      <c r="Q2" s="17">
+        <v>600000000</v>
+      </c>
+      <c r="R2" s="17">
         <v>30000000</v>
       </c>
-      <c r="S2">
+      <c r="S2" s="17">
         <v>30000000</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="17">
         <v>30000000</v>
       </c>
-      <c r="U2">
+      <c r="U2" s="17">
         <v>30000000</v>
       </c>
-      <c r="V2">
+      <c r="V2" s="17">
         <v>30000000</v>
       </c>
-      <c r="W2">
-        <v>30000000</v>
-      </c>
-      <c r="X2">
-        <v>30000000</v>
-      </c>
-      <c r="Y2">
-        <v>30000000</v>
-      </c>
-      <c r="Z2">
-        <v>30000000</v>
-      </c>
-      <c r="AA2">
-        <v>30000000</v>
-      </c>
+      <c r="W2" s="17">
+        <v>92000000</v>
+      </c>
+      <c r="X2" s="17">
+        <v>92000000</v>
+      </c>
+      <c r="Y2" s="17">
+        <v>92000000</v>
+      </c>
+      <c r="Z2" s="17">
+        <v>92000000</v>
+      </c>
+      <c r="AA2" s="17">
+        <v>92000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="G3" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/database/steel_data.xlsx
+++ b/database/steel_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinsupark/jinsu-coding/macc_steel/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9436CD-71E9-9045-A735-D4958831A20C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B702DC8-719E-3F4E-8F42-E53E035D74DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="775" activeTab="1" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19200" windowHeight="21100" tabRatio="775" activeTab="5" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="18" r:id="rId1"/>
@@ -352,7 +352,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -441,6 +441,11 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -465,7 +470,7 @@
     </xf>
     <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -524,6 +529,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
@@ -6795,8 +6801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B80F836-AAFA-4D20-813C-A31BE68F85E1}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6860,8 +6866,8 @@
       <c r="G2" s="11">
         <v>4722000</v>
       </c>
-      <c r="H2" s="13">
-        <v>2000</v>
+      <c r="H2" s="24">
+        <v>2013</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -6886,8 +6892,8 @@
       <c r="G3" s="11">
         <v>4237000</v>
       </c>
-      <c r="H3" s="13">
-        <v>2000</v>
+      <c r="H3" s="24">
+        <v>2016</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -6912,8 +6918,8 @@
       <c r="G4" s="11">
         <v>4128000</v>
       </c>
-      <c r="H4" s="13">
-        <v>2000</v>
+      <c r="H4" s="24">
+        <v>2017</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -6938,8 +6944,8 @@
       <c r="G5" s="11">
         <v>4127000</v>
       </c>
-      <c r="H5" s="13">
-        <v>2000</v>
+      <c r="H5" s="24">
+        <v>2020</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -6964,8 +6970,8 @@
       <c r="G6" s="11">
         <v>4000000</v>
       </c>
-      <c r="H6" s="13">
-        <v>2000</v>
+      <c r="H6" s="24">
+        <v>2010</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -6990,8 +6996,8 @@
       <c r="G7" s="11">
         <v>4000000</v>
       </c>
-      <c r="H7" s="13">
-        <v>2000</v>
+      <c r="H7" s="24">
+        <v>2010</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -7016,8 +7022,8 @@
       <c r="G8" s="11">
         <v>4000000</v>
       </c>
-      <c r="H8" s="13">
-        <v>2000</v>
+      <c r="H8" s="24">
+        <v>2013</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -7042,8 +7048,8 @@
       <c r="G9" s="11">
         <v>3804000</v>
       </c>
-      <c r="H9" s="13">
-        <v>2000</v>
+      <c r="H9" s="24">
+        <v>2020</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -7068,8 +7074,8 @@
       <c r="G10" s="11">
         <v>3624000</v>
       </c>
-      <c r="H10" s="13">
-        <v>2000</v>
+      <c r="H10" s="24">
+        <v>2022</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -7094,8 +7100,8 @@
       <c r="G11" s="11">
         <v>3239000</v>
       </c>
-      <c r="H11" s="13">
-        <v>2000</v>
+      <c r="H11" s="24">
+        <v>2006</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -7120,8 +7126,8 @@
       <c r="G12" s="11">
         <v>1914000</v>
       </c>
-      <c r="H12" s="13">
-        <v>2000</v>
+      <c r="H12" s="24">
+        <v>2015</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -7146,8 +7152,8 @@
       <c r="G13" s="11">
         <v>1683000</v>
       </c>
-      <c r="H13" s="13">
-        <v>2000</v>
+      <c r="H13" s="24">
+        <v>2010</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -7172,8 +7178,8 @@
       <c r="G14" s="11">
         <v>1280000</v>
       </c>
-      <c r="H14" s="13">
-        <v>2000</v>
+      <c r="H14" s="24">
+        <v>2010</v>
       </c>
     </row>
   </sheetData>
@@ -9533,7 +9539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED5339A0-3D98-43CE-86F7-53EF60721306}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -9574,7 +9580,7 @@
         <v>20</v>
       </c>
       <c r="C3">
-        <v>2020</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">

--- a/database/steel_data.xlsx
+++ b/database/steel_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinsupark/jinsu-coding/macc_steel/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B702DC8-719E-3F4E-8F42-E53E035D74DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89BDE68-6F5F-644D-B06D-3ED460048317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19200" windowHeight="21100" tabRatio="775" activeTab="5" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="775" firstSheet="5" activeTab="7" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="18" r:id="rId1"/>
@@ -2420,7 +2420,7 @@
   <dimension ref="A1:AA10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection sqref="A1:AA10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4349,7 +4349,7 @@
   <dimension ref="A1:AA13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4942,83 +4942,83 @@
       <c r="A8" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="20">
-        <v>541667</v>
-      </c>
-      <c r="C8" s="20">
-        <v>541667</v>
-      </c>
-      <c r="D8" s="20">
-        <v>541667</v>
-      </c>
-      <c r="E8" s="20">
-        <v>541667</v>
-      </c>
-      <c r="F8" s="20">
-        <v>541667</v>
-      </c>
-      <c r="G8" s="20">
-        <v>541667</v>
-      </c>
-      <c r="H8" s="20">
-        <v>541667</v>
-      </c>
-      <c r="I8" s="20">
-        <v>541667</v>
-      </c>
-      <c r="J8" s="20">
-        <v>541667</v>
-      </c>
-      <c r="K8" s="20">
-        <v>541667</v>
-      </c>
-      <c r="L8" s="20">
-        <v>541667</v>
-      </c>
-      <c r="M8" s="20">
-        <v>541667</v>
-      </c>
-      <c r="N8" s="20">
-        <v>541667</v>
-      </c>
-      <c r="O8" s="20">
-        <v>541667</v>
-      </c>
-      <c r="P8" s="20">
-        <v>541667</v>
-      </c>
-      <c r="Q8" s="20">
-        <v>541667</v>
-      </c>
-      <c r="R8" s="20">
-        <v>541667</v>
-      </c>
-      <c r="S8" s="20">
-        <v>541667</v>
-      </c>
-      <c r="T8" s="20">
-        <v>541667</v>
-      </c>
-      <c r="U8" s="20">
-        <v>541667</v>
-      </c>
-      <c r="V8" s="20">
-        <v>541667</v>
-      </c>
-      <c r="W8" s="20">
-        <v>541667</v>
-      </c>
-      <c r="X8" s="20">
-        <v>541667</v>
-      </c>
-      <c r="Y8" s="20">
-        <v>541667</v>
-      </c>
-      <c r="Z8" s="20">
-        <v>541667</v>
-      </c>
-      <c r="AA8" s="20">
-        <v>541667</v>
+      <c r="B8" s="17">
+        <v>90716.67</v>
+      </c>
+      <c r="C8" s="17">
+        <v>89675</v>
+      </c>
+      <c r="D8" s="17">
+        <v>87975</v>
+      </c>
+      <c r="E8" s="17">
+        <v>89741.67</v>
+      </c>
+      <c r="F8" s="17">
+        <v>89800</v>
+      </c>
+      <c r="G8" s="17">
+        <v>86400</v>
+      </c>
+      <c r="H8" s="17">
+        <v>83208.33</v>
+      </c>
+      <c r="I8" s="17">
+        <v>80783.33</v>
+      </c>
+      <c r="J8" s="17">
+        <v>78908.33</v>
+      </c>
+      <c r="K8" s="17">
+        <v>78433.33</v>
+      </c>
+      <c r="L8" s="17">
+        <v>77441.67</v>
+      </c>
+      <c r="M8" s="17">
+        <v>76391.67</v>
+      </c>
+      <c r="N8" s="17">
+        <v>71533.33</v>
+      </c>
+      <c r="O8" s="17">
+        <v>68441.67</v>
+      </c>
+      <c r="P8" s="17">
+        <v>65491.67</v>
+      </c>
+      <c r="Q8" s="17">
+        <v>62683.33</v>
+      </c>
+      <c r="R8" s="17">
+        <v>60000</v>
+      </c>
+      <c r="S8" s="17">
+        <v>57441.67</v>
+      </c>
+      <c r="T8" s="17">
+        <v>55000</v>
+      </c>
+      <c r="U8" s="17">
+        <v>52666.67</v>
+      </c>
+      <c r="V8" s="17">
+        <v>50441.67</v>
+      </c>
+      <c r="W8" s="17">
+        <v>48316.67</v>
+      </c>
+      <c r="X8" s="17">
+        <v>46275</v>
+      </c>
+      <c r="Y8" s="17">
+        <v>44325</v>
+      </c>
+      <c r="Z8" s="17">
+        <v>42458.33</v>
+      </c>
+      <c r="AA8" s="17">
+        <v>40675</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
@@ -6801,19 +6801,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B80F836-AAFA-4D20-813C-A31BE68F85E1}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.5" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" customWidth="1"/>
     <col min="3" max="3" width="90.5" customWidth="1"/>
     <col min="4" max="4" width="58.1640625" customWidth="1"/>
     <col min="5" max="5" width="30.83203125" customWidth="1"/>
     <col min="6" max="6" width="21.1640625" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -8377,7 +8377,7 @@
   <dimension ref="A1:AA30"/>
   <sheetViews>
     <sheetView zoomScale="120" workbookViewId="0">
-      <selection activeCell="D13" sqref="C13:D14"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9539,8 +9539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED5339A0-3D98-43CE-86F7-53EF60721306}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9788,18 +9788,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E46CCB1-2754-42FA-B5C9-8DABA83A320C}">
   <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="17" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="18" max="21" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="9.1640625" customWidth="1"/>
-    <col min="23" max="27" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="27" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="16" x14ac:dyDescent="0.2">
@@ -9890,82 +9892,82 @@
         <v>30</v>
       </c>
       <c r="B2" s="17">
-        <v>920000000</v>
+        <v>120000000</v>
       </c>
       <c r="C2" s="17">
-        <v>920000000</v>
+        <v>120000000</v>
       </c>
       <c r="D2" s="17">
-        <v>920000000</v>
+        <v>120000000</v>
       </c>
       <c r="E2" s="17">
-        <v>920000000</v>
+        <v>120000000</v>
       </c>
       <c r="F2" s="17">
-        <v>920000000</v>
+        <v>120000000</v>
       </c>
       <c r="G2" s="17">
-        <v>600000000</v>
+        <v>120000000</v>
       </c>
       <c r="H2" s="17">
-        <v>600000000</v>
+        <v>120000000</v>
       </c>
       <c r="I2" s="17">
-        <v>600000000</v>
+        <v>120000000</v>
       </c>
       <c r="J2" s="17">
-        <v>600000000</v>
+        <v>120000000</v>
       </c>
       <c r="K2" s="17">
-        <v>600000000</v>
+        <v>120000000</v>
       </c>
       <c r="L2" s="17">
-        <v>600000000</v>
+        <v>120000000</v>
       </c>
       <c r="M2" s="17">
-        <v>600000000</v>
+        <v>120000000</v>
       </c>
       <c r="N2" s="17">
-        <v>600000000</v>
+        <v>120000000</v>
       </c>
       <c r="O2" s="17">
-        <v>600000000</v>
+        <v>120000000</v>
       </c>
       <c r="P2" s="17">
-        <v>600000000</v>
+        <v>120000000</v>
       </c>
       <c r="Q2" s="17">
-        <v>600000000</v>
+        <v>120000000</v>
       </c>
       <c r="R2" s="17">
-        <v>30000000</v>
+        <v>120000000</v>
       </c>
       <c r="S2" s="17">
-        <v>30000000</v>
+        <v>120000000</v>
       </c>
       <c r="T2" s="17">
-        <v>30000000</v>
+        <v>120000000</v>
       </c>
       <c r="U2" s="17">
-        <v>30000000</v>
+        <v>120000000</v>
       </c>
       <c r="V2" s="17">
-        <v>30000000</v>
+        <v>120000000</v>
       </c>
       <c r="W2" s="17">
-        <v>92000000</v>
+        <v>120000000</v>
       </c>
       <c r="X2" s="17">
-        <v>92000000</v>
+        <v>120000000</v>
       </c>
       <c r="Y2" s="17">
-        <v>92000000</v>
+        <v>120000000</v>
       </c>
       <c r="Z2" s="17">
-        <v>92000000</v>
+        <v>120000000</v>
       </c>
       <c r="AA2" s="17">
-        <v>92000000</v>
+        <v>120000000</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">

--- a/database/steel_data.xlsx
+++ b/database/steel_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinsupark/jinsu-coding/macc_steel/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89BDE68-6F5F-644D-B06D-3ED460048317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8752ED3D-7A06-F24B-B0EB-54720E4F73B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="775" firstSheet="5" activeTab="7" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="775" firstSheet="6" activeTab="7" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="18" r:id="rId1"/>
@@ -21,17 +21,17 @@
     <sheet name="technology" sheetId="19" r:id="rId6"/>
     <sheet name="carbonprice" sheetId="25" r:id="rId7"/>
     <sheet name="emission" sheetId="23" r:id="rId8"/>
-    <sheet name="emission_system" sheetId="24" r:id="rId9"/>
-    <sheet name="technology_ei" sheetId="21" r:id="rId10"/>
-    <sheet name="material_efficiency" sheetId="17" r:id="rId11"/>
-    <sheet name="technology_material_pairs" sheetId="6" r:id="rId12"/>
-    <sheet name="material_cost" sheetId="11" r:id="rId13"/>
-    <sheet name="material_emission" sheetId="12" r:id="rId14"/>
-    <sheet name="material_introduction" sheetId="27" r:id="rId15"/>
-    <sheet name="fuel_introduction" sheetId="26" r:id="rId16"/>
-    <sheet name="fuel_cost" sheetId="8" r:id="rId17"/>
-    <sheet name="fuel_efficiency" sheetId="16" r:id="rId18"/>
-    <sheet name="technology_fuel_pairs" sheetId="5" r:id="rId19"/>
+    <sheet name="technology_fuel_pairs" sheetId="5" r:id="rId9"/>
+    <sheet name="emission_system" sheetId="24" r:id="rId10"/>
+    <sheet name="technology_ei" sheetId="21" r:id="rId11"/>
+    <sheet name="material_efficiency" sheetId="17" r:id="rId12"/>
+    <sheet name="technology_material_pairs" sheetId="6" r:id="rId13"/>
+    <sheet name="material_cost" sheetId="11" r:id="rId14"/>
+    <sheet name="material_emission" sheetId="12" r:id="rId15"/>
+    <sheet name="material_introduction" sheetId="27" r:id="rId16"/>
+    <sheet name="fuel_introduction" sheetId="26" r:id="rId17"/>
+    <sheet name="fuel_cost" sheetId="8" r:id="rId18"/>
+    <sheet name="fuel_efficiency" sheetId="16" r:id="rId19"/>
     <sheet name="fuel_emission" sheetId="10" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -470,7 +470,7 @@
     </xf>
     <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -530,6 +530,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
@@ -1010,6 +1011,1189 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E683ACB1-236C-41D9-AD28-376C61929EF9}">
+  <dimension ref="A1:AA14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="17.83203125" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>2025</v>
+      </c>
+      <c r="C1">
+        <v>2026</v>
+      </c>
+      <c r="D1">
+        <v>2027</v>
+      </c>
+      <c r="E1">
+        <v>2028</v>
+      </c>
+      <c r="F1">
+        <v>2029</v>
+      </c>
+      <c r="G1">
+        <v>2030</v>
+      </c>
+      <c r="H1">
+        <v>2031</v>
+      </c>
+      <c r="I1">
+        <v>2032</v>
+      </c>
+      <c r="J1">
+        <v>2033</v>
+      </c>
+      <c r="K1">
+        <v>2034</v>
+      </c>
+      <c r="L1">
+        <v>2035</v>
+      </c>
+      <c r="M1">
+        <v>2036</v>
+      </c>
+      <c r="N1">
+        <v>2037</v>
+      </c>
+      <c r="O1">
+        <v>2038</v>
+      </c>
+      <c r="P1">
+        <v>2039</v>
+      </c>
+      <c r="Q1">
+        <v>2040</v>
+      </c>
+      <c r="R1">
+        <v>2041</v>
+      </c>
+      <c r="S1">
+        <v>2042</v>
+      </c>
+      <c r="T1">
+        <v>2043</v>
+      </c>
+      <c r="U1">
+        <v>2044</v>
+      </c>
+      <c r="V1">
+        <v>2045</v>
+      </c>
+      <c r="W1">
+        <v>2046</v>
+      </c>
+      <c r="X1">
+        <v>2047</v>
+      </c>
+      <c r="Y1">
+        <v>2048</v>
+      </c>
+      <c r="Z1">
+        <v>2049</v>
+      </c>
+      <c r="AA1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2">
+        <v>99999999</v>
+      </c>
+      <c r="C2">
+        <v>99999999</v>
+      </c>
+      <c r="D2">
+        <v>99999999</v>
+      </c>
+      <c r="E2">
+        <v>99999999</v>
+      </c>
+      <c r="F2">
+        <v>99999999</v>
+      </c>
+      <c r="G2">
+        <v>99999999</v>
+      </c>
+      <c r="H2">
+        <v>99999999</v>
+      </c>
+      <c r="I2">
+        <v>99999999</v>
+      </c>
+      <c r="J2">
+        <v>99999999</v>
+      </c>
+      <c r="K2">
+        <v>99999999</v>
+      </c>
+      <c r="L2">
+        <v>99999999</v>
+      </c>
+      <c r="M2">
+        <v>99999999</v>
+      </c>
+      <c r="N2">
+        <v>99999999</v>
+      </c>
+      <c r="O2">
+        <v>99999999</v>
+      </c>
+      <c r="P2">
+        <v>99999999</v>
+      </c>
+      <c r="Q2">
+        <v>99999999</v>
+      </c>
+      <c r="R2">
+        <v>99999999</v>
+      </c>
+      <c r="S2">
+        <v>99999999</v>
+      </c>
+      <c r="T2">
+        <v>99999999</v>
+      </c>
+      <c r="U2">
+        <v>99999999</v>
+      </c>
+      <c r="V2">
+        <v>99999999</v>
+      </c>
+      <c r="W2">
+        <v>99999999</v>
+      </c>
+      <c r="X2">
+        <v>99999999</v>
+      </c>
+      <c r="Y2">
+        <v>99999999</v>
+      </c>
+      <c r="Z2">
+        <v>99999999</v>
+      </c>
+      <c r="AA2">
+        <v>99999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3">
+        <v>99999999</v>
+      </c>
+      <c r="C3">
+        <v>99999999</v>
+      </c>
+      <c r="D3">
+        <v>99999999</v>
+      </c>
+      <c r="E3">
+        <v>99999999</v>
+      </c>
+      <c r="F3">
+        <v>99999999</v>
+      </c>
+      <c r="G3">
+        <v>99999999</v>
+      </c>
+      <c r="H3">
+        <v>99999999</v>
+      </c>
+      <c r="I3">
+        <v>99999999</v>
+      </c>
+      <c r="J3">
+        <v>99999999</v>
+      </c>
+      <c r="K3">
+        <v>99999999</v>
+      </c>
+      <c r="L3">
+        <v>99999999</v>
+      </c>
+      <c r="M3">
+        <v>99999999</v>
+      </c>
+      <c r="N3">
+        <v>99999999</v>
+      </c>
+      <c r="O3">
+        <v>99999999</v>
+      </c>
+      <c r="P3">
+        <v>99999999</v>
+      </c>
+      <c r="Q3">
+        <v>99999999</v>
+      </c>
+      <c r="R3">
+        <v>99999999</v>
+      </c>
+      <c r="S3">
+        <v>99999999</v>
+      </c>
+      <c r="T3">
+        <v>99999999</v>
+      </c>
+      <c r="U3">
+        <v>99999999</v>
+      </c>
+      <c r="V3">
+        <v>99999999</v>
+      </c>
+      <c r="W3">
+        <v>99999999</v>
+      </c>
+      <c r="X3">
+        <v>99999999</v>
+      </c>
+      <c r="Y3">
+        <v>99999999</v>
+      </c>
+      <c r="Z3">
+        <v>99999999</v>
+      </c>
+      <c r="AA3">
+        <v>99999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4">
+        <v>99999999</v>
+      </c>
+      <c r="C4">
+        <v>99999999</v>
+      </c>
+      <c r="D4">
+        <v>99999999</v>
+      </c>
+      <c r="E4">
+        <v>99999999</v>
+      </c>
+      <c r="F4">
+        <v>99999999</v>
+      </c>
+      <c r="G4">
+        <v>99999999</v>
+      </c>
+      <c r="H4">
+        <v>99999999</v>
+      </c>
+      <c r="I4">
+        <v>99999999</v>
+      </c>
+      <c r="J4">
+        <v>99999999</v>
+      </c>
+      <c r="K4">
+        <v>99999999</v>
+      </c>
+      <c r="L4">
+        <v>99999999</v>
+      </c>
+      <c r="M4">
+        <v>99999999</v>
+      </c>
+      <c r="N4">
+        <v>99999999</v>
+      </c>
+      <c r="O4">
+        <v>99999999</v>
+      </c>
+      <c r="P4">
+        <v>99999999</v>
+      </c>
+      <c r="Q4">
+        <v>99999999</v>
+      </c>
+      <c r="R4">
+        <v>99999999</v>
+      </c>
+      <c r="S4">
+        <v>99999999</v>
+      </c>
+      <c r="T4">
+        <v>99999999</v>
+      </c>
+      <c r="U4">
+        <v>99999999</v>
+      </c>
+      <c r="V4">
+        <v>99999999</v>
+      </c>
+      <c r="W4">
+        <v>99999999</v>
+      </c>
+      <c r="X4">
+        <v>99999999</v>
+      </c>
+      <c r="Y4">
+        <v>99999999</v>
+      </c>
+      <c r="Z4">
+        <v>99999999</v>
+      </c>
+      <c r="AA4">
+        <v>99999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5">
+        <v>99999999</v>
+      </c>
+      <c r="C5">
+        <v>99999999</v>
+      </c>
+      <c r="D5">
+        <v>99999999</v>
+      </c>
+      <c r="E5">
+        <v>99999999</v>
+      </c>
+      <c r="F5">
+        <v>99999999</v>
+      </c>
+      <c r="G5">
+        <v>99999999</v>
+      </c>
+      <c r="H5">
+        <v>99999999</v>
+      </c>
+      <c r="I5">
+        <v>99999999</v>
+      </c>
+      <c r="J5">
+        <v>99999999</v>
+      </c>
+      <c r="K5">
+        <v>99999999</v>
+      </c>
+      <c r="L5">
+        <v>99999999</v>
+      </c>
+      <c r="M5">
+        <v>99999999</v>
+      </c>
+      <c r="N5">
+        <v>99999999</v>
+      </c>
+      <c r="O5">
+        <v>99999999</v>
+      </c>
+      <c r="P5">
+        <v>99999999</v>
+      </c>
+      <c r="Q5">
+        <v>99999999</v>
+      </c>
+      <c r="R5">
+        <v>99999999</v>
+      </c>
+      <c r="S5">
+        <v>99999999</v>
+      </c>
+      <c r="T5">
+        <v>99999999</v>
+      </c>
+      <c r="U5">
+        <v>99999999</v>
+      </c>
+      <c r="V5">
+        <v>99999999</v>
+      </c>
+      <c r="W5">
+        <v>99999999</v>
+      </c>
+      <c r="X5">
+        <v>99999999</v>
+      </c>
+      <c r="Y5">
+        <v>99999999</v>
+      </c>
+      <c r="Z5">
+        <v>99999999</v>
+      </c>
+      <c r="AA5">
+        <v>99999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6">
+        <v>99999999</v>
+      </c>
+      <c r="C6">
+        <v>99999999</v>
+      </c>
+      <c r="D6">
+        <v>99999999</v>
+      </c>
+      <c r="E6">
+        <v>99999999</v>
+      </c>
+      <c r="F6">
+        <v>99999999</v>
+      </c>
+      <c r="G6">
+        <v>99999999</v>
+      </c>
+      <c r="H6">
+        <v>99999999</v>
+      </c>
+      <c r="I6">
+        <v>99999999</v>
+      </c>
+      <c r="J6">
+        <v>99999999</v>
+      </c>
+      <c r="K6">
+        <v>99999999</v>
+      </c>
+      <c r="L6">
+        <v>99999999</v>
+      </c>
+      <c r="M6">
+        <v>99999999</v>
+      </c>
+      <c r="N6">
+        <v>99999999</v>
+      </c>
+      <c r="O6">
+        <v>99999999</v>
+      </c>
+      <c r="P6">
+        <v>99999999</v>
+      </c>
+      <c r="Q6">
+        <v>99999999</v>
+      </c>
+      <c r="R6">
+        <v>99999999</v>
+      </c>
+      <c r="S6">
+        <v>99999999</v>
+      </c>
+      <c r="T6">
+        <v>99999999</v>
+      </c>
+      <c r="U6">
+        <v>99999999</v>
+      </c>
+      <c r="V6">
+        <v>99999999</v>
+      </c>
+      <c r="W6">
+        <v>99999999</v>
+      </c>
+      <c r="X6">
+        <v>99999999</v>
+      </c>
+      <c r="Y6">
+        <v>99999999</v>
+      </c>
+      <c r="Z6">
+        <v>99999999</v>
+      </c>
+      <c r="AA6">
+        <v>99999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7">
+        <v>99999999</v>
+      </c>
+      <c r="C7">
+        <v>99999999</v>
+      </c>
+      <c r="D7">
+        <v>99999999</v>
+      </c>
+      <c r="E7">
+        <v>99999999</v>
+      </c>
+      <c r="F7">
+        <v>99999999</v>
+      </c>
+      <c r="G7">
+        <v>99999999</v>
+      </c>
+      <c r="H7">
+        <v>99999999</v>
+      </c>
+      <c r="I7">
+        <v>99999999</v>
+      </c>
+      <c r="J7">
+        <v>99999999</v>
+      </c>
+      <c r="K7">
+        <v>99999999</v>
+      </c>
+      <c r="L7">
+        <v>99999999</v>
+      </c>
+      <c r="M7">
+        <v>99999999</v>
+      </c>
+      <c r="N7">
+        <v>99999999</v>
+      </c>
+      <c r="O7">
+        <v>99999999</v>
+      </c>
+      <c r="P7">
+        <v>99999999</v>
+      </c>
+      <c r="Q7">
+        <v>99999999</v>
+      </c>
+      <c r="R7">
+        <v>99999999</v>
+      </c>
+      <c r="S7">
+        <v>99999999</v>
+      </c>
+      <c r="T7">
+        <v>99999999</v>
+      </c>
+      <c r="U7">
+        <v>99999999</v>
+      </c>
+      <c r="V7">
+        <v>99999999</v>
+      </c>
+      <c r="W7">
+        <v>99999999</v>
+      </c>
+      <c r="X7">
+        <v>99999999</v>
+      </c>
+      <c r="Y7">
+        <v>99999999</v>
+      </c>
+      <c r="Z7">
+        <v>99999999</v>
+      </c>
+      <c r="AA7">
+        <v>99999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8">
+        <v>99999999</v>
+      </c>
+      <c r="C8">
+        <v>99999999</v>
+      </c>
+      <c r="D8">
+        <v>99999999</v>
+      </c>
+      <c r="E8">
+        <v>99999999</v>
+      </c>
+      <c r="F8">
+        <v>99999999</v>
+      </c>
+      <c r="G8">
+        <v>99999999</v>
+      </c>
+      <c r="H8">
+        <v>99999999</v>
+      </c>
+      <c r="I8">
+        <v>99999999</v>
+      </c>
+      <c r="J8">
+        <v>99999999</v>
+      </c>
+      <c r="K8">
+        <v>99999999</v>
+      </c>
+      <c r="L8">
+        <v>99999999</v>
+      </c>
+      <c r="M8">
+        <v>99999999</v>
+      </c>
+      <c r="N8">
+        <v>99999999</v>
+      </c>
+      <c r="O8">
+        <v>99999999</v>
+      </c>
+      <c r="P8">
+        <v>99999999</v>
+      </c>
+      <c r="Q8">
+        <v>99999999</v>
+      </c>
+      <c r="R8">
+        <v>99999999</v>
+      </c>
+      <c r="S8">
+        <v>99999999</v>
+      </c>
+      <c r="T8">
+        <v>99999999</v>
+      </c>
+      <c r="U8">
+        <v>99999999</v>
+      </c>
+      <c r="V8">
+        <v>99999999</v>
+      </c>
+      <c r="W8">
+        <v>99999999</v>
+      </c>
+      <c r="X8">
+        <v>99999999</v>
+      </c>
+      <c r="Y8">
+        <v>99999999</v>
+      </c>
+      <c r="Z8">
+        <v>99999999</v>
+      </c>
+      <c r="AA8">
+        <v>99999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9">
+        <v>99999999</v>
+      </c>
+      <c r="C9">
+        <v>99999999</v>
+      </c>
+      <c r="D9">
+        <v>99999999</v>
+      </c>
+      <c r="E9">
+        <v>99999999</v>
+      </c>
+      <c r="F9">
+        <v>99999999</v>
+      </c>
+      <c r="G9">
+        <v>99999999</v>
+      </c>
+      <c r="H9">
+        <v>99999999</v>
+      </c>
+      <c r="I9">
+        <v>99999999</v>
+      </c>
+      <c r="J9">
+        <v>99999999</v>
+      </c>
+      <c r="K9">
+        <v>99999999</v>
+      </c>
+      <c r="L9">
+        <v>99999999</v>
+      </c>
+      <c r="M9">
+        <v>99999999</v>
+      </c>
+      <c r="N9">
+        <v>99999999</v>
+      </c>
+      <c r="O9">
+        <v>99999999</v>
+      </c>
+      <c r="P9">
+        <v>99999999</v>
+      </c>
+      <c r="Q9">
+        <v>99999999</v>
+      </c>
+      <c r="R9">
+        <v>99999999</v>
+      </c>
+      <c r="S9">
+        <v>99999999</v>
+      </c>
+      <c r="T9">
+        <v>99999999</v>
+      </c>
+      <c r="U9">
+        <v>99999999</v>
+      </c>
+      <c r="V9">
+        <v>99999999</v>
+      </c>
+      <c r="W9">
+        <v>99999999</v>
+      </c>
+      <c r="X9">
+        <v>99999999</v>
+      </c>
+      <c r="Y9">
+        <v>99999999</v>
+      </c>
+      <c r="Z9">
+        <v>99999999</v>
+      </c>
+      <c r="AA9">
+        <v>99999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10">
+        <v>99999999</v>
+      </c>
+      <c r="C10">
+        <v>99999999</v>
+      </c>
+      <c r="D10">
+        <v>99999999</v>
+      </c>
+      <c r="E10">
+        <v>99999999</v>
+      </c>
+      <c r="F10">
+        <v>99999999</v>
+      </c>
+      <c r="G10">
+        <v>99999999</v>
+      </c>
+      <c r="H10">
+        <v>99999999</v>
+      </c>
+      <c r="I10">
+        <v>99999999</v>
+      </c>
+      <c r="J10">
+        <v>99999999</v>
+      </c>
+      <c r="K10">
+        <v>99999999</v>
+      </c>
+      <c r="L10">
+        <v>99999999</v>
+      </c>
+      <c r="M10">
+        <v>99999999</v>
+      </c>
+      <c r="N10">
+        <v>99999999</v>
+      </c>
+      <c r="O10">
+        <v>99999999</v>
+      </c>
+      <c r="P10">
+        <v>99999999</v>
+      </c>
+      <c r="Q10">
+        <v>99999999</v>
+      </c>
+      <c r="R10">
+        <v>99999999</v>
+      </c>
+      <c r="S10">
+        <v>99999999</v>
+      </c>
+      <c r="T10">
+        <v>99999999</v>
+      </c>
+      <c r="U10">
+        <v>99999999</v>
+      </c>
+      <c r="V10">
+        <v>99999999</v>
+      </c>
+      <c r="W10">
+        <v>99999999</v>
+      </c>
+      <c r="X10">
+        <v>99999999</v>
+      </c>
+      <c r="Y10">
+        <v>99999999</v>
+      </c>
+      <c r="Z10">
+        <v>99999999</v>
+      </c>
+      <c r="AA10">
+        <v>99999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11">
+        <v>99999999</v>
+      </c>
+      <c r="C11">
+        <v>99999999</v>
+      </c>
+      <c r="D11">
+        <v>99999999</v>
+      </c>
+      <c r="E11">
+        <v>99999999</v>
+      </c>
+      <c r="F11">
+        <v>99999999</v>
+      </c>
+      <c r="G11">
+        <v>99999999</v>
+      </c>
+      <c r="H11">
+        <v>99999999</v>
+      </c>
+      <c r="I11">
+        <v>99999999</v>
+      </c>
+      <c r="J11">
+        <v>99999999</v>
+      </c>
+      <c r="K11">
+        <v>99999999</v>
+      </c>
+      <c r="L11">
+        <v>99999999</v>
+      </c>
+      <c r="M11">
+        <v>99999999</v>
+      </c>
+      <c r="N11">
+        <v>99999999</v>
+      </c>
+      <c r="O11">
+        <v>99999999</v>
+      </c>
+      <c r="P11">
+        <v>99999999</v>
+      </c>
+      <c r="Q11">
+        <v>99999999</v>
+      </c>
+      <c r="R11">
+        <v>99999999</v>
+      </c>
+      <c r="S11">
+        <v>99999999</v>
+      </c>
+      <c r="T11">
+        <v>99999999</v>
+      </c>
+      <c r="U11">
+        <v>99999999</v>
+      </c>
+      <c r="V11">
+        <v>99999999</v>
+      </c>
+      <c r="W11">
+        <v>99999999</v>
+      </c>
+      <c r="X11">
+        <v>99999999</v>
+      </c>
+      <c r="Y11">
+        <v>99999999</v>
+      </c>
+      <c r="Z11">
+        <v>99999999</v>
+      </c>
+      <c r="AA11">
+        <v>99999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12">
+        <v>99999999</v>
+      </c>
+      <c r="C12">
+        <v>99999999</v>
+      </c>
+      <c r="D12">
+        <v>99999999</v>
+      </c>
+      <c r="E12">
+        <v>99999999</v>
+      </c>
+      <c r="F12">
+        <v>99999999</v>
+      </c>
+      <c r="G12">
+        <v>99999999</v>
+      </c>
+      <c r="H12">
+        <v>99999999</v>
+      </c>
+      <c r="I12">
+        <v>99999999</v>
+      </c>
+      <c r="J12">
+        <v>99999999</v>
+      </c>
+      <c r="K12">
+        <v>99999999</v>
+      </c>
+      <c r="L12">
+        <v>99999999</v>
+      </c>
+      <c r="M12">
+        <v>99999999</v>
+      </c>
+      <c r="N12">
+        <v>99999999</v>
+      </c>
+      <c r="O12">
+        <v>99999999</v>
+      </c>
+      <c r="P12">
+        <v>99999999</v>
+      </c>
+      <c r="Q12">
+        <v>99999999</v>
+      </c>
+      <c r="R12">
+        <v>99999999</v>
+      </c>
+      <c r="S12">
+        <v>99999999</v>
+      </c>
+      <c r="T12">
+        <v>99999999</v>
+      </c>
+      <c r="U12">
+        <v>99999999</v>
+      </c>
+      <c r="V12">
+        <v>99999999</v>
+      </c>
+      <c r="W12">
+        <v>99999999</v>
+      </c>
+      <c r="X12">
+        <v>99999999</v>
+      </c>
+      <c r="Y12">
+        <v>99999999</v>
+      </c>
+      <c r="Z12">
+        <v>99999999</v>
+      </c>
+      <c r="AA12">
+        <v>99999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13">
+        <v>99999999</v>
+      </c>
+      <c r="C13">
+        <v>99999999</v>
+      </c>
+      <c r="D13">
+        <v>99999999</v>
+      </c>
+      <c r="E13">
+        <v>99999999</v>
+      </c>
+      <c r="F13">
+        <v>99999999</v>
+      </c>
+      <c r="G13">
+        <v>99999999</v>
+      </c>
+      <c r="H13">
+        <v>99999999</v>
+      </c>
+      <c r="I13">
+        <v>99999999</v>
+      </c>
+      <c r="J13">
+        <v>99999999</v>
+      </c>
+      <c r="K13">
+        <v>99999999</v>
+      </c>
+      <c r="L13">
+        <v>99999999</v>
+      </c>
+      <c r="M13">
+        <v>99999999</v>
+      </c>
+      <c r="N13">
+        <v>99999999</v>
+      </c>
+      <c r="O13">
+        <v>99999999</v>
+      </c>
+      <c r="P13">
+        <v>99999999</v>
+      </c>
+      <c r="Q13">
+        <v>99999999</v>
+      </c>
+      <c r="R13">
+        <v>99999999</v>
+      </c>
+      <c r="S13">
+        <v>99999999</v>
+      </c>
+      <c r="T13">
+        <v>99999999</v>
+      </c>
+      <c r="U13">
+        <v>99999999</v>
+      </c>
+      <c r="V13">
+        <v>99999999</v>
+      </c>
+      <c r="W13">
+        <v>99999999</v>
+      </c>
+      <c r="X13">
+        <v>99999999</v>
+      </c>
+      <c r="Y13">
+        <v>99999999</v>
+      </c>
+      <c r="Z13">
+        <v>99999999</v>
+      </c>
+      <c r="AA13">
+        <v>99999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14">
+        <v>99999999</v>
+      </c>
+      <c r="C14">
+        <v>99999999</v>
+      </c>
+      <c r="D14">
+        <v>99999999</v>
+      </c>
+      <c r="E14">
+        <v>99999999</v>
+      </c>
+      <c r="F14">
+        <v>99999999</v>
+      </c>
+      <c r="G14">
+        <v>99999999</v>
+      </c>
+      <c r="H14">
+        <v>99999999</v>
+      </c>
+      <c r="I14">
+        <v>99999999</v>
+      </c>
+      <c r="J14">
+        <v>99999999</v>
+      </c>
+      <c r="K14">
+        <v>99999999</v>
+      </c>
+      <c r="L14">
+        <v>99999999</v>
+      </c>
+      <c r="M14">
+        <v>99999999</v>
+      </c>
+      <c r="N14">
+        <v>99999999</v>
+      </c>
+      <c r="O14">
+        <v>99999999</v>
+      </c>
+      <c r="P14">
+        <v>99999999</v>
+      </c>
+      <c r="Q14">
+        <v>99999999</v>
+      </c>
+      <c r="R14">
+        <v>99999999</v>
+      </c>
+      <c r="S14">
+        <v>99999999</v>
+      </c>
+      <c r="T14">
+        <v>99999999</v>
+      </c>
+      <c r="U14">
+        <v>99999999</v>
+      </c>
+      <c r="V14">
+        <v>99999999</v>
+      </c>
+      <c r="W14">
+        <v>99999999</v>
+      </c>
+      <c r="X14">
+        <v>99999999</v>
+      </c>
+      <c r="Y14">
+        <v>99999999</v>
+      </c>
+      <c r="Z14">
+        <v>99999999</v>
+      </c>
+      <c r="AA14">
+        <v>99999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F464A74C-C8AE-4B5D-B335-B05DB5565181}">
   <dimension ref="A1:AA4"/>
   <sheetViews>
@@ -1361,7 +2545,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3CF035B-C14B-46B7-A841-579E94220A37}">
   <dimension ref="A1:AA10"/>
   <sheetViews>
@@ -2211,7 +3395,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83A8B42D-00EB-470C-A0D2-7C21A6CB877B}">
   <dimension ref="A1:F13"/>
   <sheetViews>
@@ -2415,7 +3599,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9059A3E3-467F-433B-AAF0-DA415330A29D}">
   <dimension ref="A1:AA10"/>
   <sheetViews>
@@ -3267,7 +4451,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A95E18AD-1C92-4B5C-962D-792F4AC09175}">
   <dimension ref="A1:AA10"/>
   <sheetViews>
@@ -4119,7 +5303,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{410A1906-5A3B-4FF2-8752-8FE09D0C1871}">
   <dimension ref="A1:B10"/>
   <sheetViews>
@@ -4219,7 +5403,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A811D9-2602-4FD1-8BF7-F55E2D4AA43D}">
   <dimension ref="A1:B13"/>
   <sheetViews>
@@ -4344,12 +5528,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{251D8908-2320-4E41-AC8F-86BD7BF58C9B}">
   <dimension ref="A1:AA13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5026,82 +6210,82 @@
         <v>75</v>
       </c>
       <c r="B9" s="20">
-        <v>50750</v>
+        <v>19850</v>
       </c>
       <c r="C9" s="20">
-        <v>50750</v>
+        <v>19850</v>
       </c>
       <c r="D9" s="20">
-        <v>50750</v>
+        <v>19850</v>
       </c>
       <c r="E9" s="20">
-        <v>50750</v>
+        <v>19850</v>
       </c>
       <c r="F9" s="20">
-        <v>50750</v>
+        <v>19850</v>
       </c>
       <c r="G9" s="20">
-        <v>50750</v>
+        <v>19850</v>
       </c>
       <c r="H9" s="20">
-        <v>50750</v>
+        <v>19850</v>
       </c>
       <c r="I9" s="20">
-        <v>50750</v>
+        <v>19850</v>
       </c>
       <c r="J9" s="20">
-        <v>50750</v>
+        <v>19850</v>
       </c>
       <c r="K9" s="20">
-        <v>50750</v>
+        <v>19850</v>
       </c>
       <c r="L9" s="20">
-        <v>50750</v>
+        <v>19850</v>
       </c>
       <c r="M9" s="20">
-        <v>50750</v>
+        <v>19850</v>
       </c>
       <c r="N9" s="20">
-        <v>50750</v>
+        <v>19850</v>
       </c>
       <c r="O9" s="20">
-        <v>50750</v>
+        <v>19850</v>
       </c>
       <c r="P9" s="20">
-        <v>50750</v>
+        <v>19850</v>
       </c>
       <c r="Q9" s="20">
-        <v>50750</v>
+        <v>19850</v>
       </c>
       <c r="R9" s="20">
-        <v>50750</v>
+        <v>19850</v>
       </c>
       <c r="S9" s="20">
-        <v>50750</v>
+        <v>19850</v>
       </c>
       <c r="T9" s="20">
-        <v>50750</v>
+        <v>19850</v>
       </c>
       <c r="U9" s="20">
-        <v>50750</v>
+        <v>19850</v>
       </c>
       <c r="V9" s="20">
-        <v>50750</v>
+        <v>19850</v>
       </c>
       <c r="W9" s="20">
-        <v>50750</v>
+        <v>19850</v>
       </c>
       <c r="X9" s="20">
-        <v>50750</v>
+        <v>19850</v>
       </c>
       <c r="Y9" s="20">
-        <v>50750</v>
+        <v>19850</v>
       </c>
       <c r="Z9" s="20">
-        <v>50750</v>
+        <v>19850</v>
       </c>
       <c r="AA9" s="20">
-        <v>50750</v>
+        <v>19850</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
@@ -5443,7 +6627,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DC1A385-697C-4C01-B126-79A22BD0CC72}">
   <dimension ref="A1:AA15"/>
   <sheetViews>
@@ -6538,257 +7722,6 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B15" s="22"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8A5865B-B011-402F-A09D-739FDD6B0E90}">
-  <dimension ref="A1:H13"/>
-  <sheetViews>
-    <sheetView zoomScale="124" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="8" max="10" width="26" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="14"/>
-    </row>
-    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="14">
-        <v>1</v>
-      </c>
-      <c r="D2" s="14">
-        <v>0.34</v>
-      </c>
-      <c r="E2" s="14">
-        <v>2000</v>
-      </c>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="14">
-        <v>9.7000000000000003E-2</v>
-      </c>
-      <c r="D3" s="14">
-        <v>9.7000000000000003E-2</v>
-      </c>
-      <c r="E3" s="14">
-        <v>2000</v>
-      </c>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="14">
-        <v>0.374</v>
-      </c>
-      <c r="D4" s="14">
-        <v>0.374</v>
-      </c>
-      <c r="E4" s="14">
-        <v>2000</v>
-      </c>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="14">
-        <v>0.114</v>
-      </c>
-      <c r="D5" s="14">
-        <v>0.114</v>
-      </c>
-      <c r="E5" s="14">
-        <v>2000</v>
-      </c>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="14">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="D6" s="14">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="E6" s="14">
-        <v>2000</v>
-      </c>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="14">
-        <v>1.6E-2</v>
-      </c>
-      <c r="D7" s="14">
-        <v>1.6E-2</v>
-      </c>
-      <c r="E7" s="14">
-        <v>2000</v>
-      </c>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" s="14">
-        <v>1</v>
-      </c>
-      <c r="D8" s="14">
-        <v>0.58199999999999996</v>
-      </c>
-      <c r="E8" s="14">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9">
-        <v>0.39800000000000002</v>
-      </c>
-      <c r="D9">
-        <v>0.39800000000000002</v>
-      </c>
-      <c r="E9" s="14">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10">
-        <v>0.02</v>
-      </c>
-      <c r="D10">
-        <v>0.02</v>
-      </c>
-      <c r="E10" s="14">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11">
-        <v>0.36299999999999999</v>
-      </c>
-      <c r="D11">
-        <v>0.36299999999999999</v>
-      </c>
-      <c r="E11" s="14">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>0.56100000000000005</v>
-      </c>
-      <c r="E12" s="14">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="D13">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="E13" s="14">
-        <v>2000</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -7194,7 +8127,7 @@
   <dimension ref="A1:AA14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8377,7 +9310,7 @@
   <dimension ref="A1:AA30"/>
   <sheetViews>
     <sheetView zoomScale="120" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8474,82 +9407,82 @@
         <v>53</v>
       </c>
       <c r="B2" s="17">
-        <v>1576314.5</v>
+        <v>500700</v>
       </c>
       <c r="C2" s="17">
-        <v>1576314.5</v>
+        <v>500700</v>
       </c>
       <c r="D2" s="17">
-        <v>1576314.5</v>
+        <v>500700</v>
       </c>
       <c r="E2" s="17">
-        <v>1576314.5</v>
+        <v>500700</v>
       </c>
       <c r="F2" s="17">
-        <v>1576314.5</v>
+        <v>500700</v>
       </c>
       <c r="G2" s="17">
-        <v>1576314.5</v>
+        <v>500700</v>
       </c>
       <c r="H2" s="17">
-        <v>1576314.5</v>
+        <v>500700</v>
       </c>
       <c r="I2" s="17">
-        <v>1576314.5</v>
+        <v>500700</v>
       </c>
       <c r="J2" s="17">
-        <v>1576314.5</v>
+        <v>500700</v>
       </c>
       <c r="K2" s="17">
-        <v>1576314.5</v>
+        <v>500700</v>
       </c>
       <c r="L2" s="17">
-        <v>1576314.5</v>
+        <v>500700</v>
       </c>
       <c r="M2" s="17">
-        <v>1576314.5</v>
+        <v>500700</v>
       </c>
       <c r="N2" s="17">
-        <v>1576314.5</v>
+        <v>500700</v>
       </c>
       <c r="O2" s="17">
-        <v>1576314.5</v>
+        <v>500700</v>
       </c>
       <c r="P2" s="17">
-        <v>1576314.5</v>
+        <v>500700</v>
       </c>
       <c r="Q2" s="17">
-        <v>1576314.5</v>
+        <v>500700</v>
       </c>
       <c r="R2" s="17">
-        <v>1576314.5</v>
+        <v>500700</v>
       </c>
       <c r="S2" s="17">
-        <v>1576314.5</v>
+        <v>500700</v>
       </c>
       <c r="T2" s="17">
-        <v>1576314.5</v>
+        <v>500700</v>
       </c>
       <c r="U2" s="17">
-        <v>1576314.5</v>
+        <v>500700</v>
       </c>
       <c r="V2" s="17">
-        <v>1576314.5</v>
+        <v>500700</v>
       </c>
       <c r="W2" s="17">
-        <v>1576314.5</v>
+        <v>500700</v>
       </c>
       <c r="X2" s="17">
-        <v>1576314.5</v>
+        <v>500700</v>
       </c>
       <c r="Y2" s="17">
-        <v>1576314.5</v>
+        <v>500700</v>
       </c>
       <c r="Z2" s="17">
-        <v>1576314.5</v>
+        <v>500700</v>
       </c>
       <c r="AA2" s="17">
-        <v>1576314.5</v>
+        <v>500700</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
@@ -8557,82 +9490,82 @@
         <v>66</v>
       </c>
       <c r="B3" s="17">
-        <v>1031827.99</v>
+        <v>1100000</v>
       </c>
       <c r="C3" s="17">
-        <v>1031827.99</v>
+        <v>1100000</v>
       </c>
       <c r="D3" s="17">
-        <v>1031827.99</v>
+        <v>1100000</v>
       </c>
       <c r="E3" s="17">
-        <v>1031827.99</v>
+        <v>1100000</v>
       </c>
       <c r="F3" s="17">
-        <v>1031827.99</v>
+        <v>1100000</v>
       </c>
       <c r="G3" s="17">
-        <v>1031827.99</v>
+        <v>1100000</v>
       </c>
       <c r="H3" s="17">
-        <v>1031827.99</v>
+        <v>1100000</v>
       </c>
       <c r="I3" s="17">
-        <v>1031827.99</v>
+        <v>1100000</v>
       </c>
       <c r="J3" s="17">
-        <v>1031827.99</v>
+        <v>1100000</v>
       </c>
       <c r="K3" s="17">
-        <v>1031827.99</v>
+        <v>1100000</v>
       </c>
       <c r="L3" s="17">
-        <v>1031827.99</v>
+        <v>1100000</v>
       </c>
       <c r="M3" s="17">
-        <v>1031827.99</v>
+        <v>1100000</v>
       </c>
       <c r="N3" s="17">
-        <v>1031827.99</v>
+        <v>1100000</v>
       </c>
       <c r="O3" s="17">
-        <v>1031827.99</v>
+        <v>1100000</v>
       </c>
       <c r="P3" s="17">
-        <v>1031827.99</v>
+        <v>1100000</v>
       </c>
       <c r="Q3" s="17">
-        <v>1031827.99</v>
+        <v>1100000</v>
       </c>
       <c r="R3" s="17">
-        <v>1031827.99</v>
+        <v>1100000</v>
       </c>
       <c r="S3" s="17">
-        <v>1031827.99</v>
+        <v>1100000</v>
       </c>
       <c r="T3" s="17">
-        <v>1031827.99</v>
+        <v>1100000</v>
       </c>
       <c r="U3" s="17">
-        <v>1031827.99</v>
+        <v>1100000</v>
       </c>
       <c r="V3" s="17">
-        <v>1031827.99</v>
+        <v>1100000</v>
       </c>
       <c r="W3" s="17">
-        <v>1031827.99</v>
+        <v>1100000</v>
       </c>
       <c r="X3" s="17">
-        <v>1031827.99</v>
+        <v>1100000</v>
       </c>
       <c r="Y3" s="17">
-        <v>1031827.99</v>
+        <v>1100000</v>
       </c>
       <c r="Z3" s="17">
-        <v>1031827.99</v>
+        <v>1100000</v>
       </c>
       <c r="AA3" s="17">
-        <v>1031827.99</v>
+        <v>1100000</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
@@ -8640,82 +9573,82 @@
         <v>54</v>
       </c>
       <c r="B4" s="17">
-        <v>310283.40000000002</v>
+        <v>400000</v>
       </c>
       <c r="C4" s="17">
-        <v>310283.40000000002</v>
+        <v>400000</v>
       </c>
       <c r="D4" s="17">
-        <v>310283.40000000002</v>
+        <v>400000</v>
       </c>
       <c r="E4" s="17">
-        <v>310283.40000000002</v>
+        <v>400000</v>
       </c>
       <c r="F4" s="17">
-        <v>310283.40000000002</v>
+        <v>400000</v>
       </c>
       <c r="G4" s="17">
-        <v>310283.40000000002</v>
+        <v>400000</v>
       </c>
       <c r="H4" s="17">
-        <v>310283.40000000002</v>
+        <v>400000</v>
       </c>
       <c r="I4" s="17">
-        <v>310283.40000000002</v>
+        <v>400000</v>
       </c>
       <c r="J4" s="17">
-        <v>310283.40000000002</v>
+        <v>400000</v>
       </c>
       <c r="K4" s="17">
-        <v>310283.40000000002</v>
+        <v>400000</v>
       </c>
       <c r="L4" s="17">
-        <v>310283.40000000002</v>
+        <v>400000</v>
       </c>
       <c r="M4" s="17">
-        <v>310283.40000000002</v>
+        <v>400000</v>
       </c>
       <c r="N4" s="17">
-        <v>310283.40000000002</v>
+        <v>400000</v>
       </c>
       <c r="O4" s="17">
-        <v>310283.40000000002</v>
+        <v>400000</v>
       </c>
       <c r="P4" s="17">
-        <v>310283.40000000002</v>
+        <v>400000</v>
       </c>
       <c r="Q4" s="17">
-        <v>310283.40000000002</v>
+        <v>400000</v>
       </c>
       <c r="R4" s="17">
-        <v>310283.40000000002</v>
+        <v>400000</v>
       </c>
       <c r="S4" s="17">
-        <v>310283.40000000002</v>
+        <v>400000</v>
       </c>
       <c r="T4" s="17">
-        <v>310283.40000000002</v>
+        <v>400000</v>
       </c>
       <c r="U4" s="17">
-        <v>310283.40000000002</v>
+        <v>400000</v>
       </c>
       <c r="V4" s="17">
-        <v>310283.40000000002</v>
+        <v>400000</v>
       </c>
       <c r="W4" s="17">
-        <v>310283.40000000002</v>
+        <v>400000</v>
       </c>
       <c r="X4" s="17">
-        <v>310283.40000000002</v>
+        <v>400000</v>
       </c>
       <c r="Y4" s="17">
-        <v>310283.40000000002</v>
+        <v>400000</v>
       </c>
       <c r="Z4" s="17">
-        <v>310283.40000000002</v>
+        <v>400000</v>
       </c>
       <c r="AA4" s="17">
-        <v>310283.40000000002</v>
+        <v>400000</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
@@ -8835,7 +9768,7 @@
   <dimension ref="A1:AA4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8930,82 +9863,82 @@
       <c r="A2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="17">
         <v>177308.78</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="17">
         <v>177308.78</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="17">
         <v>177308.78</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="17">
         <v>177308.78</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="17">
         <v>177308.78</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="17">
         <v>177308.78</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="17">
         <v>177308.78</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="17">
         <v>177308.78</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="17">
         <v>177308.78</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="17">
         <v>177308.78</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="17">
         <v>177308.78</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M2" s="17">
         <v>177308.78</v>
       </c>
-      <c r="N2" s="3">
+      <c r="N2" s="17">
         <v>177308.78</v>
       </c>
-      <c r="O2" s="3">
+      <c r="O2" s="17">
         <v>177308.78</v>
       </c>
-      <c r="P2" s="3">
+      <c r="P2" s="17">
         <v>177308.78</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="Q2" s="17">
         <v>177308.78</v>
       </c>
-      <c r="R2" s="3">
+      <c r="R2" s="17">
         <v>177308.78</v>
       </c>
-      <c r="S2" s="3">
+      <c r="S2" s="17">
         <v>177308.78</v>
       </c>
-      <c r="T2" s="3">
+      <c r="T2" s="17">
         <v>177308.78</v>
       </c>
-      <c r="U2" s="3">
+      <c r="U2" s="17">
         <v>177308.78</v>
       </c>
-      <c r="V2" s="3">
+      <c r="V2" s="17">
         <v>177308.78</v>
       </c>
-      <c r="W2" s="3">
+      <c r="W2" s="17">
         <v>177308.78</v>
       </c>
-      <c r="X2" s="3">
+      <c r="X2" s="17">
         <v>177308.78</v>
       </c>
-      <c r="Y2" s="3">
+      <c r="Y2" s="17">
         <v>177308.78</v>
       </c>
-      <c r="Z2" s="3">
+      <c r="Z2" s="17">
         <v>177308.78</v>
       </c>
-      <c r="AA2" s="3">
+      <c r="AA2" s="17">
         <v>177308.78</v>
       </c>
     </row>
@@ -9013,165 +9946,191 @@
       <c r="A3" t="s">
         <v>66</v>
       </c>
-      <c r="B3">
-        <v>161627.91</v>
-      </c>
-      <c r="C3">
-        <v>161627.91</v>
-      </c>
-      <c r="D3">
-        <v>161627.91</v>
-      </c>
-      <c r="E3">
-        <v>161627.91</v>
-      </c>
-      <c r="F3">
-        <v>161627.91</v>
-      </c>
-      <c r="G3">
-        <v>161627.91</v>
-      </c>
-      <c r="H3">
-        <v>161627.91</v>
-      </c>
-      <c r="I3">
-        <v>161627.91</v>
-      </c>
-      <c r="J3">
-        <v>161627.91</v>
-      </c>
-      <c r="K3">
-        <v>161627.91</v>
-      </c>
-      <c r="L3">
-        <v>161627.91</v>
-      </c>
-      <c r="M3">
-        <v>161627.91</v>
-      </c>
-      <c r="N3">
-        <v>161627.91</v>
-      </c>
-      <c r="O3">
-        <v>161627.91</v>
-      </c>
-      <c r="P3">
-        <v>161627.91</v>
-      </c>
-      <c r="Q3">
-        <v>161627.91</v>
-      </c>
-      <c r="R3">
-        <v>161627.91</v>
-      </c>
-      <c r="S3">
-        <v>161627.91</v>
-      </c>
-      <c r="T3">
-        <v>161627.91</v>
-      </c>
-      <c r="U3">
-        <v>161627.91</v>
-      </c>
-      <c r="V3">
-        <v>161627.91</v>
-      </c>
-      <c r="W3">
-        <v>161627.91</v>
-      </c>
-      <c r="X3">
-        <v>161627.91</v>
-      </c>
-      <c r="Y3">
-        <v>161627.91</v>
-      </c>
-      <c r="Z3">
-        <v>161627.91</v>
-      </c>
-      <c r="AA3">
-        <v>161627.91</v>
+      <c r="B3" s="17">
+        <f>B2*2</f>
+        <v>354617.56</v>
+      </c>
+      <c r="C3" s="17">
+        <f t="shared" ref="C3:AA3" si="0">C2*2</f>
+        <v>354617.56</v>
+      </c>
+      <c r="D3" s="17">
+        <f t="shared" si="0"/>
+        <v>354617.56</v>
+      </c>
+      <c r="E3" s="17">
+        <f t="shared" si="0"/>
+        <v>354617.56</v>
+      </c>
+      <c r="F3" s="17">
+        <f t="shared" si="0"/>
+        <v>354617.56</v>
+      </c>
+      <c r="G3" s="17">
+        <f t="shared" si="0"/>
+        <v>354617.56</v>
+      </c>
+      <c r="H3" s="17">
+        <f t="shared" si="0"/>
+        <v>354617.56</v>
+      </c>
+      <c r="I3" s="17">
+        <f t="shared" si="0"/>
+        <v>354617.56</v>
+      </c>
+      <c r="J3" s="17">
+        <f t="shared" si="0"/>
+        <v>354617.56</v>
+      </c>
+      <c r="K3" s="17">
+        <f t="shared" si="0"/>
+        <v>354617.56</v>
+      </c>
+      <c r="L3" s="17">
+        <f t="shared" si="0"/>
+        <v>354617.56</v>
+      </c>
+      <c r="M3" s="17">
+        <f t="shared" si="0"/>
+        <v>354617.56</v>
+      </c>
+      <c r="N3" s="17">
+        <f t="shared" si="0"/>
+        <v>354617.56</v>
+      </c>
+      <c r="O3" s="17">
+        <f t="shared" si="0"/>
+        <v>354617.56</v>
+      </c>
+      <c r="P3" s="17">
+        <f t="shared" si="0"/>
+        <v>354617.56</v>
+      </c>
+      <c r="Q3" s="17">
+        <f t="shared" si="0"/>
+        <v>354617.56</v>
+      </c>
+      <c r="R3" s="17">
+        <f t="shared" si="0"/>
+        <v>354617.56</v>
+      </c>
+      <c r="S3" s="17">
+        <f t="shared" si="0"/>
+        <v>354617.56</v>
+      </c>
+      <c r="T3" s="17">
+        <f t="shared" si="0"/>
+        <v>354617.56</v>
+      </c>
+      <c r="U3" s="17">
+        <f t="shared" si="0"/>
+        <v>354617.56</v>
+      </c>
+      <c r="V3" s="17">
+        <f t="shared" si="0"/>
+        <v>354617.56</v>
+      </c>
+      <c r="W3" s="17">
+        <f t="shared" si="0"/>
+        <v>354617.56</v>
+      </c>
+      <c r="X3" s="17">
+        <f t="shared" si="0"/>
+        <v>354617.56</v>
+      </c>
+      <c r="Y3" s="17">
+        <f t="shared" si="0"/>
+        <v>354617.56</v>
+      </c>
+      <c r="Z3" s="17">
+        <f t="shared" si="0"/>
+        <v>354617.56</v>
+      </c>
+      <c r="AA3" s="17">
+        <f t="shared" si="0"/>
+        <v>354617.56</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>54</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="17">
         <v>86076.23</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="17">
         <v>86076.23</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="17">
         <v>86076.23</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="17">
         <v>86076.23</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="17">
         <v>86076.23</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="17">
         <v>86076.23</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="17">
         <v>86076.23</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="17">
         <v>86076.23</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="17">
         <v>86076.23</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="17">
         <v>86076.23</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="17">
         <v>86076.23</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="17">
         <v>86076.23</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="17">
         <v>86076.23</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="17">
         <v>86076.23</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="17">
         <v>86076.23</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="17">
         <v>86076.23</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="17">
         <v>86076.23</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="17">
         <v>86076.23</v>
       </c>
-      <c r="T4">
+      <c r="T4" s="17">
         <v>86076.23</v>
       </c>
-      <c r="U4">
+      <c r="U4" s="17">
         <v>86076.23</v>
       </c>
-      <c r="V4">
+      <c r="V4" s="17">
         <v>86076.23</v>
       </c>
-      <c r="W4">
+      <c r="W4" s="17">
         <v>86076.23</v>
       </c>
-      <c r="X4">
+      <c r="X4" s="17">
         <v>86076.23</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" s="17">
         <v>86076.23</v>
       </c>
-      <c r="Z4">
+      <c r="Z4" s="17">
         <v>86076.23</v>
       </c>
-      <c r="AA4">
+      <c r="AA4" s="17">
         <v>86076.23</v>
       </c>
     </row>
@@ -9187,7 +10146,7 @@
   <dimension ref="A1:AA4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9283,82 +10242,82 @@
       <c r="A2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="17">
         <v>421098.9</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="17">
         <v>421098.9</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="17">
         <v>421098.9</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="17">
         <v>421098.9</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="17">
         <v>421098.9</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="17">
         <v>421098.9</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="17">
         <v>421098.9</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="17">
         <v>421098.9</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="17">
         <v>421098.9</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="17">
         <v>421098.9</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="17">
         <v>421098.9</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M2" s="17">
         <v>421098.9</v>
       </c>
-      <c r="N2" s="3">
+      <c r="N2" s="17">
         <v>421098.9</v>
       </c>
-      <c r="O2" s="3">
+      <c r="O2" s="17">
         <v>421098.9</v>
       </c>
-      <c r="P2" s="3">
+      <c r="P2" s="17">
         <v>421098.9</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="Q2" s="17">
         <v>421098.9</v>
       </c>
-      <c r="R2" s="3">
+      <c r="R2" s="17">
         <v>421098.9</v>
       </c>
-      <c r="S2" s="3">
+      <c r="S2" s="17">
         <v>421098.9</v>
       </c>
-      <c r="T2" s="3">
+      <c r="T2" s="17">
         <v>421098.9</v>
       </c>
-      <c r="U2" s="3">
+      <c r="U2" s="17">
         <v>421098.9</v>
       </c>
-      <c r="V2" s="3">
+      <c r="V2" s="17">
         <v>421098.9</v>
       </c>
-      <c r="W2" s="3">
+      <c r="W2" s="17">
         <v>421098.9</v>
       </c>
-      <c r="X2" s="3">
+      <c r="X2" s="17">
         <v>421098.9</v>
       </c>
-      <c r="Y2" s="3">
+      <c r="Y2" s="17">
         <v>421098.9</v>
       </c>
-      <c r="Z2" s="3">
+      <c r="Z2" s="17">
         <v>421098.9</v>
       </c>
-      <c r="AA2" s="3">
+      <c r="AA2" s="17">
         <v>421098.9</v>
       </c>
     </row>
@@ -9366,165 +10325,191 @@
       <c r="A3" t="s">
         <v>66</v>
       </c>
-      <c r="B3">
-        <v>275644</v>
-      </c>
-      <c r="C3">
-        <v>275644</v>
-      </c>
-      <c r="D3">
-        <v>275644</v>
-      </c>
-      <c r="E3">
-        <v>275644</v>
-      </c>
-      <c r="F3">
-        <v>275644</v>
-      </c>
-      <c r="G3">
-        <v>275644</v>
-      </c>
-      <c r="H3">
-        <v>275644</v>
-      </c>
-      <c r="I3">
-        <v>275644</v>
-      </c>
-      <c r="J3">
-        <v>275644</v>
-      </c>
-      <c r="K3">
-        <v>275644</v>
-      </c>
-      <c r="L3">
-        <v>275644</v>
-      </c>
-      <c r="M3">
-        <v>275644</v>
-      </c>
-      <c r="N3">
-        <v>275644</v>
-      </c>
-      <c r="O3">
-        <v>275644</v>
-      </c>
-      <c r="P3">
-        <v>275644</v>
-      </c>
-      <c r="Q3">
-        <v>275644</v>
-      </c>
-      <c r="R3">
-        <v>275644</v>
-      </c>
-      <c r="S3">
-        <v>275644</v>
-      </c>
-      <c r="T3">
-        <v>275644</v>
-      </c>
-      <c r="U3">
-        <v>275644</v>
-      </c>
-      <c r="V3">
-        <v>275644</v>
-      </c>
-      <c r="W3">
-        <v>275644</v>
-      </c>
-      <c r="X3">
-        <v>275644</v>
-      </c>
-      <c r="Y3">
-        <v>275644</v>
-      </c>
-      <c r="Z3">
-        <v>275644</v>
-      </c>
-      <c r="AA3">
-        <v>275644</v>
+      <c r="B3" s="17">
+        <f>B2*2</f>
+        <v>842197.8</v>
+      </c>
+      <c r="C3" s="17">
+        <f t="shared" ref="C3:AA3" si="0">C2*2</f>
+        <v>842197.8</v>
+      </c>
+      <c r="D3" s="17">
+        <f t="shared" si="0"/>
+        <v>842197.8</v>
+      </c>
+      <c r="E3" s="17">
+        <f t="shared" si="0"/>
+        <v>842197.8</v>
+      </c>
+      <c r="F3" s="17">
+        <f t="shared" si="0"/>
+        <v>842197.8</v>
+      </c>
+      <c r="G3" s="17">
+        <f t="shared" si="0"/>
+        <v>842197.8</v>
+      </c>
+      <c r="H3" s="17">
+        <f t="shared" si="0"/>
+        <v>842197.8</v>
+      </c>
+      <c r="I3" s="17">
+        <f t="shared" si="0"/>
+        <v>842197.8</v>
+      </c>
+      <c r="J3" s="17">
+        <f t="shared" si="0"/>
+        <v>842197.8</v>
+      </c>
+      <c r="K3" s="17">
+        <f t="shared" si="0"/>
+        <v>842197.8</v>
+      </c>
+      <c r="L3" s="17">
+        <f t="shared" si="0"/>
+        <v>842197.8</v>
+      </c>
+      <c r="M3" s="17">
+        <f t="shared" si="0"/>
+        <v>842197.8</v>
+      </c>
+      <c r="N3" s="17">
+        <f t="shared" si="0"/>
+        <v>842197.8</v>
+      </c>
+      <c r="O3" s="17">
+        <f t="shared" si="0"/>
+        <v>842197.8</v>
+      </c>
+      <c r="P3" s="17">
+        <f t="shared" si="0"/>
+        <v>842197.8</v>
+      </c>
+      <c r="Q3" s="17">
+        <f t="shared" si="0"/>
+        <v>842197.8</v>
+      </c>
+      <c r="R3" s="17">
+        <f t="shared" si="0"/>
+        <v>842197.8</v>
+      </c>
+      <c r="S3" s="17">
+        <f t="shared" si="0"/>
+        <v>842197.8</v>
+      </c>
+      <c r="T3" s="17">
+        <f t="shared" si="0"/>
+        <v>842197.8</v>
+      </c>
+      <c r="U3" s="17">
+        <f t="shared" si="0"/>
+        <v>842197.8</v>
+      </c>
+      <c r="V3" s="17">
+        <f t="shared" si="0"/>
+        <v>842197.8</v>
+      </c>
+      <c r="W3" s="17">
+        <f t="shared" si="0"/>
+        <v>842197.8</v>
+      </c>
+      <c r="X3" s="17">
+        <f t="shared" si="0"/>
+        <v>842197.8</v>
+      </c>
+      <c r="Y3" s="17">
+        <f t="shared" si="0"/>
+        <v>842197.8</v>
+      </c>
+      <c r="Z3" s="17">
+        <f t="shared" si="0"/>
+        <v>842197.8</v>
+      </c>
+      <c r="AA3" s="17">
+        <f t="shared" si="0"/>
+        <v>842197.8</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>54</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="17">
         <v>185299.77</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="17">
         <v>185299.77</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="17">
         <v>185299.77</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="17">
         <v>185299.77</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="17">
         <v>185299.77</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="17">
         <v>185299.77</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="17">
         <v>185299.77</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="17">
         <v>185299.77</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="17">
         <v>185299.77</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="17">
         <v>185299.77</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="17">
         <v>185299.77</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="17">
         <v>185299.77</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="17">
         <v>185299.77</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="17">
         <v>185299.77</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="17">
         <v>185299.77</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="17">
         <v>185299.77</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="17">
         <v>185299.77</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="17">
         <v>185299.77</v>
       </c>
-      <c r="T4">
+      <c r="T4" s="17">
         <v>185299.77</v>
       </c>
-      <c r="U4">
+      <c r="U4" s="17">
         <v>185299.77</v>
       </c>
-      <c r="V4">
+      <c r="V4" s="17">
         <v>185299.77</v>
       </c>
-      <c r="W4">
+      <c r="W4" s="17">
         <v>185299.77</v>
       </c>
-      <c r="X4">
+      <c r="X4" s="17">
         <v>185299.77</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" s="17">
         <v>185299.77</v>
       </c>
-      <c r="Z4">
+      <c r="Z4" s="17">
         <v>185299.77</v>
       </c>
-      <c r="AA4">
+      <c r="AA4" s="17">
         <v>185299.77</v>
       </c>
     </row>
@@ -9540,7 +10525,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9789,7 +10774,7 @@
   <dimension ref="A1:AA3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="W6" sqref="W6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9891,83 +10876,83 @@
       <c r="A2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="17">
-        <v>120000000</v>
-      </c>
-      <c r="C2" s="17">
-        <v>120000000</v>
-      </c>
-      <c r="D2" s="17">
-        <v>120000000</v>
-      </c>
-      <c r="E2" s="17">
-        <v>120000000</v>
-      </c>
-      <c r="F2" s="17">
-        <v>120000000</v>
-      </c>
-      <c r="G2" s="17">
-        <v>120000000</v>
-      </c>
-      <c r="H2" s="17">
-        <v>120000000</v>
-      </c>
-      <c r="I2" s="17">
-        <v>120000000</v>
-      </c>
-      <c r="J2" s="17">
-        <v>120000000</v>
-      </c>
-      <c r="K2" s="17">
-        <v>120000000</v>
-      </c>
-      <c r="L2" s="17">
-        <v>120000000</v>
-      </c>
-      <c r="M2" s="17">
-        <v>120000000</v>
-      </c>
-      <c r="N2" s="17">
-        <v>120000000</v>
-      </c>
-      <c r="O2" s="17">
-        <v>120000000</v>
-      </c>
-      <c r="P2" s="17">
-        <v>120000000</v>
-      </c>
-      <c r="Q2" s="17">
-        <v>120000000</v>
-      </c>
-      <c r="R2" s="17">
-        <v>120000000</v>
-      </c>
-      <c r="S2" s="17">
-        <v>120000000</v>
-      </c>
-      <c r="T2" s="17">
-        <v>120000000</v>
-      </c>
-      <c r="U2" s="17">
-        <v>120000000</v>
-      </c>
-      <c r="V2" s="17">
-        <v>120000000</v>
-      </c>
-      <c r="W2" s="17">
-        <v>120000000</v>
-      </c>
-      <c r="X2" s="17">
-        <v>120000000</v>
-      </c>
-      <c r="Y2" s="17">
-        <v>120000000</v>
-      </c>
-      <c r="Z2" s="17">
-        <v>120000000</v>
-      </c>
-      <c r="AA2" s="17">
-        <v>120000000</v>
+      <c r="B2" s="25">
+        <v>300000000</v>
+      </c>
+      <c r="C2" s="25">
+        <v>300000000</v>
+      </c>
+      <c r="D2" s="25">
+        <v>300000000</v>
+      </c>
+      <c r="E2" s="25">
+        <v>300000000</v>
+      </c>
+      <c r="F2" s="25">
+        <v>300000000</v>
+      </c>
+      <c r="G2" s="25">
+        <v>300000000</v>
+      </c>
+      <c r="H2" s="25">
+        <v>300000000</v>
+      </c>
+      <c r="I2" s="25">
+        <v>300000000</v>
+      </c>
+      <c r="J2" s="25">
+        <v>300000000</v>
+      </c>
+      <c r="K2" s="25">
+        <v>300000000</v>
+      </c>
+      <c r="L2" s="25">
+        <v>300000000</v>
+      </c>
+      <c r="M2" s="25">
+        <v>300000000</v>
+      </c>
+      <c r="N2" s="25">
+        <v>300000000</v>
+      </c>
+      <c r="O2" s="25">
+        <v>300000000</v>
+      </c>
+      <c r="P2" s="25">
+        <v>300000000</v>
+      </c>
+      <c r="Q2" s="25">
+        <v>300000000</v>
+      </c>
+      <c r="R2" s="25">
+        <v>300000000</v>
+      </c>
+      <c r="S2" s="25">
+        <v>300000000</v>
+      </c>
+      <c r="T2" s="25">
+        <v>300000000</v>
+      </c>
+      <c r="U2" s="25">
+        <v>300000000</v>
+      </c>
+      <c r="V2" s="25">
+        <v>300000000</v>
+      </c>
+      <c r="W2" s="25">
+        <v>300000000</v>
+      </c>
+      <c r="X2" s="25">
+        <v>300000000</v>
+      </c>
+      <c r="Y2" s="25">
+        <v>300000000</v>
+      </c>
+      <c r="Z2" s="25">
+        <v>300000000</v>
+      </c>
+      <c r="AA2" s="25">
+        <v>300000000</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
@@ -9981,1179 +10966,247 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E683ACB1-236C-41D9-AD28-376C61929EF9}">
-  <dimension ref="A1:AA14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8A5865B-B011-402F-A09D-739FDD6B0E90}">
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+    <sheetView zoomScale="124" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="17.83203125" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="8" max="10" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>2025</v>
-      </c>
-      <c r="C1">
-        <v>2026</v>
-      </c>
-      <c r="D1">
-        <v>2027</v>
-      </c>
-      <c r="E1">
-        <v>2028</v>
-      </c>
-      <c r="F1">
-        <v>2029</v>
-      </c>
-      <c r="G1">
-        <v>2030</v>
-      </c>
-      <c r="H1">
-        <v>2031</v>
-      </c>
-      <c r="I1">
-        <v>2032</v>
-      </c>
-      <c r="J1">
-        <v>2033</v>
-      </c>
-      <c r="K1">
-        <v>2034</v>
-      </c>
-      <c r="L1">
-        <v>2035</v>
-      </c>
-      <c r="M1">
-        <v>2036</v>
-      </c>
-      <c r="N1">
-        <v>2037</v>
-      </c>
-      <c r="O1">
-        <v>2038</v>
-      </c>
-      <c r="P1">
-        <v>2039</v>
-      </c>
-      <c r="Q1">
-        <v>2040</v>
-      </c>
-      <c r="R1">
-        <v>2041</v>
-      </c>
-      <c r="S1">
-        <v>2042</v>
-      </c>
-      <c r="T1">
-        <v>2043</v>
-      </c>
-      <c r="U1">
-        <v>2044</v>
-      </c>
-      <c r="V1">
-        <v>2045</v>
-      </c>
-      <c r="W1">
-        <v>2046</v>
-      </c>
-      <c r="X1">
-        <v>2047</v>
-      </c>
-      <c r="Y1">
-        <v>2048</v>
-      </c>
-      <c r="Z1">
-        <v>2049</v>
-      </c>
-      <c r="AA1">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2">
-        <v>99999999</v>
-      </c>
-      <c r="C2">
-        <v>99999999</v>
-      </c>
-      <c r="D2">
-        <v>99999999</v>
-      </c>
-      <c r="E2">
-        <v>99999999</v>
-      </c>
-      <c r="F2">
-        <v>99999999</v>
-      </c>
-      <c r="G2">
-        <v>99999999</v>
-      </c>
-      <c r="H2">
-        <v>99999999</v>
-      </c>
-      <c r="I2">
-        <v>99999999</v>
-      </c>
-      <c r="J2">
-        <v>99999999</v>
-      </c>
-      <c r="K2">
-        <v>99999999</v>
-      </c>
-      <c r="L2">
-        <v>99999999</v>
-      </c>
-      <c r="M2">
-        <v>99999999</v>
-      </c>
-      <c r="N2">
-        <v>99999999</v>
-      </c>
-      <c r="O2">
-        <v>99999999</v>
-      </c>
-      <c r="P2">
-        <v>99999999</v>
-      </c>
-      <c r="Q2">
-        <v>99999999</v>
-      </c>
-      <c r="R2">
-        <v>99999999</v>
-      </c>
-      <c r="S2">
-        <v>99999999</v>
-      </c>
-      <c r="T2">
-        <v>99999999</v>
-      </c>
-      <c r="U2">
-        <v>99999999</v>
-      </c>
-      <c r="V2">
-        <v>99999999</v>
-      </c>
-      <c r="W2">
-        <v>99999999</v>
-      </c>
-      <c r="X2">
-        <v>99999999</v>
-      </c>
-      <c r="Y2">
-        <v>99999999</v>
-      </c>
-      <c r="Z2">
-        <v>99999999</v>
-      </c>
-      <c r="AA2">
-        <v>99999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3">
-        <v>99999999</v>
-      </c>
-      <c r="C3">
-        <v>99999999</v>
-      </c>
-      <c r="D3">
-        <v>99999999</v>
-      </c>
-      <c r="E3">
-        <v>99999999</v>
-      </c>
-      <c r="F3">
-        <v>99999999</v>
-      </c>
-      <c r="G3">
-        <v>99999999</v>
-      </c>
-      <c r="H3">
-        <v>99999999</v>
-      </c>
-      <c r="I3">
-        <v>99999999</v>
-      </c>
-      <c r="J3">
-        <v>99999999</v>
-      </c>
-      <c r="K3">
-        <v>99999999</v>
-      </c>
-      <c r="L3">
-        <v>99999999</v>
-      </c>
-      <c r="M3">
-        <v>99999999</v>
-      </c>
-      <c r="N3">
-        <v>99999999</v>
-      </c>
-      <c r="O3">
-        <v>99999999</v>
-      </c>
-      <c r="P3">
-        <v>99999999</v>
-      </c>
-      <c r="Q3">
-        <v>99999999</v>
-      </c>
-      <c r="R3">
-        <v>99999999</v>
-      </c>
-      <c r="S3">
-        <v>99999999</v>
-      </c>
-      <c r="T3">
-        <v>99999999</v>
-      </c>
-      <c r="U3">
-        <v>99999999</v>
-      </c>
-      <c r="V3">
-        <v>99999999</v>
-      </c>
-      <c r="W3">
-        <v>99999999</v>
-      </c>
-      <c r="X3">
-        <v>99999999</v>
-      </c>
-      <c r="Y3">
-        <v>99999999</v>
-      </c>
-      <c r="Z3">
-        <v>99999999</v>
-      </c>
-      <c r="AA3">
-        <v>99999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4">
-        <v>99999999</v>
-      </c>
-      <c r="C4">
-        <v>99999999</v>
-      </c>
-      <c r="D4">
-        <v>99999999</v>
-      </c>
-      <c r="E4">
-        <v>99999999</v>
-      </c>
-      <c r="F4">
-        <v>99999999</v>
-      </c>
-      <c r="G4">
-        <v>99999999</v>
-      </c>
-      <c r="H4">
-        <v>99999999</v>
-      </c>
-      <c r="I4">
-        <v>99999999</v>
-      </c>
-      <c r="J4">
-        <v>99999999</v>
-      </c>
-      <c r="K4">
-        <v>99999999</v>
-      </c>
-      <c r="L4">
-        <v>99999999</v>
-      </c>
-      <c r="M4">
-        <v>99999999</v>
-      </c>
-      <c r="N4">
-        <v>99999999</v>
-      </c>
-      <c r="O4">
-        <v>99999999</v>
-      </c>
-      <c r="P4">
-        <v>99999999</v>
-      </c>
-      <c r="Q4">
-        <v>99999999</v>
-      </c>
-      <c r="R4">
-        <v>99999999</v>
-      </c>
-      <c r="S4">
-        <v>99999999</v>
-      </c>
-      <c r="T4">
-        <v>99999999</v>
-      </c>
-      <c r="U4">
-        <v>99999999</v>
-      </c>
-      <c r="V4">
-        <v>99999999</v>
-      </c>
-      <c r="W4">
-        <v>99999999</v>
-      </c>
-      <c r="X4">
-        <v>99999999</v>
-      </c>
-      <c r="Y4">
-        <v>99999999</v>
-      </c>
-      <c r="Z4">
-        <v>99999999</v>
-      </c>
-      <c r="AA4">
-        <v>99999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5">
-        <v>99999999</v>
-      </c>
-      <c r="C5">
-        <v>99999999</v>
-      </c>
-      <c r="D5">
-        <v>99999999</v>
-      </c>
-      <c r="E5">
-        <v>99999999</v>
-      </c>
-      <c r="F5">
-        <v>99999999</v>
-      </c>
-      <c r="G5">
-        <v>99999999</v>
-      </c>
-      <c r="H5">
-        <v>99999999</v>
-      </c>
-      <c r="I5">
-        <v>99999999</v>
-      </c>
-      <c r="J5">
-        <v>99999999</v>
-      </c>
-      <c r="K5">
-        <v>99999999</v>
-      </c>
-      <c r="L5">
-        <v>99999999</v>
-      </c>
-      <c r="M5">
-        <v>99999999</v>
-      </c>
-      <c r="N5">
-        <v>99999999</v>
-      </c>
-      <c r="O5">
-        <v>99999999</v>
-      </c>
-      <c r="P5">
-        <v>99999999</v>
-      </c>
-      <c r="Q5">
-        <v>99999999</v>
-      </c>
-      <c r="R5">
-        <v>99999999</v>
-      </c>
-      <c r="S5">
-        <v>99999999</v>
-      </c>
-      <c r="T5">
-        <v>99999999</v>
-      </c>
-      <c r="U5">
-        <v>99999999</v>
-      </c>
-      <c r="V5">
-        <v>99999999</v>
-      </c>
-      <c r="W5">
-        <v>99999999</v>
-      </c>
-      <c r="X5">
-        <v>99999999</v>
-      </c>
-      <c r="Y5">
-        <v>99999999</v>
-      </c>
-      <c r="Z5">
-        <v>99999999</v>
-      </c>
-      <c r="AA5">
-        <v>99999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6">
-        <v>99999999</v>
-      </c>
-      <c r="C6">
-        <v>99999999</v>
-      </c>
-      <c r="D6">
-        <v>99999999</v>
-      </c>
-      <c r="E6">
-        <v>99999999</v>
-      </c>
-      <c r="F6">
-        <v>99999999</v>
-      </c>
-      <c r="G6">
-        <v>99999999</v>
-      </c>
-      <c r="H6">
-        <v>99999999</v>
-      </c>
-      <c r="I6">
-        <v>99999999</v>
-      </c>
-      <c r="J6">
-        <v>99999999</v>
-      </c>
-      <c r="K6">
-        <v>99999999</v>
-      </c>
-      <c r="L6">
-        <v>99999999</v>
-      </c>
-      <c r="M6">
-        <v>99999999</v>
-      </c>
-      <c r="N6">
-        <v>99999999</v>
-      </c>
-      <c r="O6">
-        <v>99999999</v>
-      </c>
-      <c r="P6">
-        <v>99999999</v>
-      </c>
-      <c r="Q6">
-        <v>99999999</v>
-      </c>
-      <c r="R6">
-        <v>99999999</v>
-      </c>
-      <c r="S6">
-        <v>99999999</v>
-      </c>
-      <c r="T6">
-        <v>99999999</v>
-      </c>
-      <c r="U6">
-        <v>99999999</v>
-      </c>
-      <c r="V6">
-        <v>99999999</v>
-      </c>
-      <c r="W6">
-        <v>99999999</v>
-      </c>
-      <c r="X6">
-        <v>99999999</v>
-      </c>
-      <c r="Y6">
-        <v>99999999</v>
-      </c>
-      <c r="Z6">
-        <v>99999999</v>
-      </c>
-      <c r="AA6">
-        <v>99999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7">
-        <v>99999999</v>
-      </c>
-      <c r="C7">
-        <v>99999999</v>
-      </c>
-      <c r="D7">
-        <v>99999999</v>
-      </c>
-      <c r="E7">
-        <v>99999999</v>
-      </c>
-      <c r="F7">
-        <v>99999999</v>
-      </c>
-      <c r="G7">
-        <v>99999999</v>
-      </c>
-      <c r="H7">
-        <v>99999999</v>
-      </c>
-      <c r="I7">
-        <v>99999999</v>
-      </c>
-      <c r="J7">
-        <v>99999999</v>
-      </c>
-      <c r="K7">
-        <v>99999999</v>
-      </c>
-      <c r="L7">
-        <v>99999999</v>
-      </c>
-      <c r="M7">
-        <v>99999999</v>
-      </c>
-      <c r="N7">
-        <v>99999999</v>
-      </c>
-      <c r="O7">
-        <v>99999999</v>
-      </c>
-      <c r="P7">
-        <v>99999999</v>
-      </c>
-      <c r="Q7">
-        <v>99999999</v>
-      </c>
-      <c r="R7">
-        <v>99999999</v>
-      </c>
-      <c r="S7">
-        <v>99999999</v>
-      </c>
-      <c r="T7">
-        <v>99999999</v>
-      </c>
-      <c r="U7">
-        <v>99999999</v>
-      </c>
-      <c r="V7">
-        <v>99999999</v>
-      </c>
-      <c r="W7">
-        <v>99999999</v>
-      </c>
-      <c r="X7">
-        <v>99999999</v>
-      </c>
-      <c r="Y7">
-        <v>99999999</v>
-      </c>
-      <c r="Z7">
-        <v>99999999</v>
-      </c>
-      <c r="AA7">
-        <v>99999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8">
-        <v>99999999</v>
-      </c>
-      <c r="C8">
-        <v>99999999</v>
-      </c>
-      <c r="D8">
-        <v>99999999</v>
-      </c>
-      <c r="E8">
-        <v>99999999</v>
-      </c>
-      <c r="F8">
-        <v>99999999</v>
-      </c>
-      <c r="G8">
-        <v>99999999</v>
-      </c>
-      <c r="H8">
-        <v>99999999</v>
-      </c>
-      <c r="I8">
-        <v>99999999</v>
-      </c>
-      <c r="J8">
-        <v>99999999</v>
-      </c>
-      <c r="K8">
-        <v>99999999</v>
-      </c>
-      <c r="L8">
-        <v>99999999</v>
-      </c>
-      <c r="M8">
-        <v>99999999</v>
-      </c>
-      <c r="N8">
-        <v>99999999</v>
-      </c>
-      <c r="O8">
-        <v>99999999</v>
-      </c>
-      <c r="P8">
-        <v>99999999</v>
-      </c>
-      <c r="Q8">
-        <v>99999999</v>
-      </c>
-      <c r="R8">
-        <v>99999999</v>
-      </c>
-      <c r="S8">
-        <v>99999999</v>
-      </c>
-      <c r="T8">
-        <v>99999999</v>
-      </c>
-      <c r="U8">
-        <v>99999999</v>
-      </c>
-      <c r="V8">
-        <v>99999999</v>
-      </c>
-      <c r="W8">
-        <v>99999999</v>
-      </c>
-      <c r="X8">
-        <v>99999999</v>
-      </c>
-      <c r="Y8">
-        <v>99999999</v>
-      </c>
-      <c r="Z8">
-        <v>99999999</v>
-      </c>
-      <c r="AA8">
-        <v>99999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9">
-        <v>99999999</v>
+    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="14"/>
+    </row>
+    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="14">
+        <v>1</v>
+      </c>
+      <c r="D2" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="E2" s="14">
+        <v>2000</v>
+      </c>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="D3" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="E3" s="14">
+        <v>2000</v>
+      </c>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="D4" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="E4" s="14">
+        <v>2000</v>
+      </c>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="D5" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="E5" s="14">
+        <v>2000</v>
+      </c>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="D6" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="E6" s="14">
+        <v>2000</v>
+      </c>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="D7" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="E7" s="14">
+        <v>2000</v>
+      </c>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="14">
+        <v>1</v>
+      </c>
+      <c r="D8" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="E8" s="14">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" t="s">
+        <v>75</v>
       </c>
       <c r="C9">
-        <v>99999999</v>
-      </c>
-      <c r="D9">
-        <v>99999999</v>
-      </c>
-      <c r="E9">
-        <v>99999999</v>
-      </c>
-      <c r="F9">
-        <v>99999999</v>
-      </c>
-      <c r="G9">
-        <v>99999999</v>
-      </c>
-      <c r="H9">
-        <v>99999999</v>
-      </c>
-      <c r="I9">
-        <v>99999999</v>
-      </c>
-      <c r="J9">
-        <v>99999999</v>
-      </c>
-      <c r="K9">
-        <v>99999999</v>
-      </c>
-      <c r="L9">
-        <v>99999999</v>
-      </c>
-      <c r="M9">
-        <v>99999999</v>
-      </c>
-      <c r="N9">
-        <v>99999999</v>
-      </c>
-      <c r="O9">
-        <v>99999999</v>
-      </c>
-      <c r="P9">
-        <v>99999999</v>
-      </c>
-      <c r="Q9">
-        <v>99999999</v>
-      </c>
-      <c r="R9">
-        <v>99999999</v>
-      </c>
-      <c r="S9">
-        <v>99999999</v>
-      </c>
-      <c r="T9">
-        <v>99999999</v>
-      </c>
-      <c r="U9">
-        <v>99999999</v>
-      </c>
-      <c r="V9">
-        <v>99999999</v>
-      </c>
-      <c r="W9">
-        <v>99999999</v>
-      </c>
-      <c r="X9">
-        <v>99999999</v>
-      </c>
-      <c r="Y9">
-        <v>99999999</v>
-      </c>
-      <c r="Z9">
-        <v>99999999</v>
-      </c>
-      <c r="AA9">
-        <v>99999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10">
-        <v>99999999</v>
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="D9" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="E9" s="14">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" t="s">
+        <v>76</v>
       </c>
       <c r="C10">
-        <v>99999999</v>
-      </c>
-      <c r="D10">
-        <v>99999999</v>
-      </c>
-      <c r="E10">
-        <v>99999999</v>
-      </c>
-      <c r="F10">
-        <v>99999999</v>
-      </c>
-      <c r="G10">
-        <v>99999999</v>
-      </c>
-      <c r="H10">
-        <v>99999999</v>
-      </c>
-      <c r="I10">
-        <v>99999999</v>
-      </c>
-      <c r="J10">
-        <v>99999999</v>
-      </c>
-      <c r="K10">
-        <v>99999999</v>
-      </c>
-      <c r="L10">
-        <v>99999999</v>
-      </c>
-      <c r="M10">
-        <v>99999999</v>
-      </c>
-      <c r="N10">
-        <v>99999999</v>
-      </c>
-      <c r="O10">
-        <v>99999999</v>
-      </c>
-      <c r="P10">
-        <v>99999999</v>
-      </c>
-      <c r="Q10">
-        <v>99999999</v>
-      </c>
-      <c r="R10">
-        <v>99999999</v>
-      </c>
-      <c r="S10">
-        <v>99999999</v>
-      </c>
-      <c r="T10">
-        <v>99999999</v>
-      </c>
-      <c r="U10">
-        <v>99999999</v>
-      </c>
-      <c r="V10">
-        <v>99999999</v>
-      </c>
-      <c r="W10">
-        <v>99999999</v>
-      </c>
-      <c r="X10">
-        <v>99999999</v>
-      </c>
-      <c r="Y10">
-        <v>99999999</v>
-      </c>
-      <c r="Z10">
-        <v>99999999</v>
-      </c>
-      <c r="AA10">
-        <v>99999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11">
-        <v>99999999</v>
+        <v>0.02</v>
+      </c>
+      <c r="D10" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="E10" s="14">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
+        <v>77</v>
       </c>
       <c r="C11">
-        <v>99999999</v>
-      </c>
-      <c r="D11">
-        <v>99999999</v>
-      </c>
-      <c r="E11">
-        <v>99999999</v>
-      </c>
-      <c r="F11">
-        <v>99999999</v>
-      </c>
-      <c r="G11">
-        <v>99999999</v>
-      </c>
-      <c r="H11">
-        <v>99999999</v>
-      </c>
-      <c r="I11">
-        <v>99999999</v>
-      </c>
-      <c r="J11">
-        <v>99999999</v>
-      </c>
-      <c r="K11">
-        <v>99999999</v>
-      </c>
-      <c r="L11">
-        <v>99999999</v>
-      </c>
-      <c r="M11">
-        <v>99999999</v>
-      </c>
-      <c r="N11">
-        <v>99999999</v>
-      </c>
-      <c r="O11">
-        <v>99999999</v>
-      </c>
-      <c r="P11">
-        <v>99999999</v>
-      </c>
-      <c r="Q11">
-        <v>99999999</v>
-      </c>
-      <c r="R11">
-        <v>99999999</v>
-      </c>
-      <c r="S11">
-        <v>99999999</v>
-      </c>
-      <c r="T11">
-        <v>99999999</v>
-      </c>
-      <c r="U11">
-        <v>99999999</v>
-      </c>
-      <c r="V11">
-        <v>99999999</v>
-      </c>
-      <c r="W11">
-        <v>99999999</v>
-      </c>
-      <c r="X11">
-        <v>99999999</v>
-      </c>
-      <c r="Y11">
-        <v>99999999</v>
-      </c>
-      <c r="Z11">
-        <v>99999999</v>
-      </c>
-      <c r="AA11">
-        <v>99999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12">
-        <v>99999999</v>
+        <v>0.5</v>
+      </c>
+      <c r="D11" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="E11" s="14">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" t="s">
+        <v>78</v>
       </c>
       <c r="C12">
-        <v>99999999</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>99999999</v>
-      </c>
-      <c r="E12">
-        <v>99999999</v>
-      </c>
-      <c r="F12">
-        <v>99999999</v>
-      </c>
-      <c r="G12">
-        <v>99999999</v>
-      </c>
-      <c r="H12">
-        <v>99999999</v>
-      </c>
-      <c r="I12">
-        <v>99999999</v>
-      </c>
-      <c r="J12">
-        <v>99999999</v>
-      </c>
-      <c r="K12">
-        <v>99999999</v>
-      </c>
-      <c r="L12">
-        <v>99999999</v>
-      </c>
-      <c r="M12">
-        <v>99999999</v>
-      </c>
-      <c r="N12">
-        <v>99999999</v>
-      </c>
-      <c r="O12">
-        <v>99999999</v>
-      </c>
-      <c r="P12">
-        <v>99999999</v>
-      </c>
-      <c r="Q12">
-        <v>99999999</v>
-      </c>
-      <c r="R12">
-        <v>99999999</v>
-      </c>
-      <c r="S12">
-        <v>99999999</v>
-      </c>
-      <c r="T12">
-        <v>99999999</v>
-      </c>
-      <c r="U12">
-        <v>99999999</v>
-      </c>
-      <c r="V12">
-        <v>99999999</v>
-      </c>
-      <c r="W12">
-        <v>99999999</v>
-      </c>
-      <c r="X12">
-        <v>99999999</v>
-      </c>
-      <c r="Y12">
-        <v>99999999</v>
-      </c>
-      <c r="Z12">
-        <v>99999999</v>
-      </c>
-      <c r="AA12">
-        <v>99999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13">
-        <v>99999999</v>
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="14">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" t="s">
+        <v>79</v>
       </c>
       <c r="C13">
-        <v>99999999</v>
-      </c>
-      <c r="D13">
-        <v>99999999</v>
-      </c>
-      <c r="E13">
-        <v>99999999</v>
-      </c>
-      <c r="F13">
-        <v>99999999</v>
-      </c>
-      <c r="G13">
-        <v>99999999</v>
-      </c>
-      <c r="H13">
-        <v>99999999</v>
-      </c>
-      <c r="I13">
-        <v>99999999</v>
-      </c>
-      <c r="J13">
-        <v>99999999</v>
-      </c>
-      <c r="K13">
-        <v>99999999</v>
-      </c>
-      <c r="L13">
-        <v>99999999</v>
-      </c>
-      <c r="M13">
-        <v>99999999</v>
-      </c>
-      <c r="N13">
-        <v>99999999</v>
-      </c>
-      <c r="O13">
-        <v>99999999</v>
-      </c>
-      <c r="P13">
-        <v>99999999</v>
-      </c>
-      <c r="Q13">
-        <v>99999999</v>
-      </c>
-      <c r="R13">
-        <v>99999999</v>
-      </c>
-      <c r="S13">
-        <v>99999999</v>
-      </c>
-      <c r="T13">
-        <v>99999999</v>
-      </c>
-      <c r="U13">
-        <v>99999999</v>
-      </c>
-      <c r="V13">
-        <v>99999999</v>
-      </c>
-      <c r="W13">
-        <v>99999999</v>
-      </c>
-      <c r="X13">
-        <v>99999999</v>
-      </c>
-      <c r="Y13">
-        <v>99999999</v>
-      </c>
-      <c r="Z13">
-        <v>99999999</v>
-      </c>
-      <c r="AA13">
-        <v>99999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14">
-        <v>99999999</v>
-      </c>
-      <c r="C14">
-        <v>99999999</v>
-      </c>
-      <c r="D14">
-        <v>99999999</v>
-      </c>
-      <c r="E14">
-        <v>99999999</v>
-      </c>
-      <c r="F14">
-        <v>99999999</v>
-      </c>
-      <c r="G14">
-        <v>99999999</v>
-      </c>
-      <c r="H14">
-        <v>99999999</v>
-      </c>
-      <c r="I14">
-        <v>99999999</v>
-      </c>
-      <c r="J14">
-        <v>99999999</v>
-      </c>
-      <c r="K14">
-        <v>99999999</v>
-      </c>
-      <c r="L14">
-        <v>99999999</v>
-      </c>
-      <c r="M14">
-        <v>99999999</v>
-      </c>
-      <c r="N14">
-        <v>99999999</v>
-      </c>
-      <c r="O14">
-        <v>99999999</v>
-      </c>
-      <c r="P14">
-        <v>99999999</v>
-      </c>
-      <c r="Q14">
-        <v>99999999</v>
-      </c>
-      <c r="R14">
-        <v>99999999</v>
-      </c>
-      <c r="S14">
-        <v>99999999</v>
-      </c>
-      <c r="T14">
-        <v>99999999</v>
-      </c>
-      <c r="U14">
-        <v>99999999</v>
-      </c>
-      <c r="V14">
-        <v>99999999</v>
-      </c>
-      <c r="W14">
-        <v>99999999</v>
-      </c>
-      <c r="X14">
-        <v>99999999</v>
-      </c>
-      <c r="Y14">
-        <v>99999999</v>
-      </c>
-      <c r="Z14">
-        <v>99999999</v>
-      </c>
-      <c r="AA14">
-        <v>99999999</v>
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="D13" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="E13" s="14">
+        <v>2000</v>
       </c>
     </row>
   </sheetData>

--- a/database/steel_data.xlsx
+++ b/database/steel_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\PLANiT\github\Costoptimal_steelsystem\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{324DA235-6FB3-499D-A63C-C6C9763C2A6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6B21F0-D780-4CBD-8781-82CFD3917F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3708" yWindow="2652" windowWidth="30852" windowHeight="18948" tabRatio="775" activeTab="7" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
+    <workbookView xWindow="5520" yWindow="4548" windowWidth="30852" windowHeight="18948" tabRatio="775" activeTab="7" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="18" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="81">
   <si>
     <t>system</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -263,9 +263,6 @@
   </si>
   <si>
     <t>0.81, 0.19</t>
-  </si>
-  <si>
-    <t>Met coal_BB</t>
   </si>
   <si>
     <t>Coke_BB</t>
@@ -1016,7 +1013,7 @@
   <dimension ref="A1:AA14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:AA14"/>
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
@@ -1113,82 +1110,82 @@
         <v>40</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>99999999</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="19.2">
@@ -1196,82 +1193,82 @@
         <v>41</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>99999999</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="19.2">
@@ -1279,82 +1276,82 @@
         <v>42</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>99999999</v>
       </c>
     </row>
     <row r="5" spans="1:27">
@@ -1362,82 +1359,82 @@
         <v>43</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>99999999</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="19.2">
@@ -1445,82 +1442,82 @@
         <v>44</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>99999999</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="19.2">
@@ -1528,82 +1525,82 @@
         <v>45</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>99999999</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="19.2">
@@ -1611,82 +1608,82 @@
         <v>46</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>99999999</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="19.2">
@@ -1694,82 +1691,82 @@
         <v>47</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>99999999</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="19.2">
@@ -1777,82 +1774,82 @@
         <v>48</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="Y10">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>99999999</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -1860,82 +1857,82 @@
         <v>49</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="AA11">
-        <v>0</v>
+        <v>99999999</v>
       </c>
     </row>
     <row r="12" spans="1:27">
@@ -1943,82 +1940,82 @@
         <v>50</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="Y12">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="AA12">
-        <v>0</v>
+        <v>99999999</v>
       </c>
     </row>
     <row r="13" spans="1:27" ht="19.2">
@@ -2026,82 +2023,82 @@
         <v>51</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="X13">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="Y13">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="Z13">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="AA13">
-        <v>0</v>
+        <v>99999999</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="19.2">
@@ -2109,82 +2106,82 @@
         <v>52</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="X14">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="Y14">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="Z14">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="AA14">
-        <v>0</v>
+        <v>99999999</v>
       </c>
     </row>
   </sheetData>
@@ -2375,7 +2372,7 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -2644,7 +2641,7 @@
     </row>
     <row r="2" spans="1:27">
       <c r="A2" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2727,7 +2724,7 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -2810,7 +2807,7 @@
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -2893,7 +2890,7 @@
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -2976,7 +2973,7 @@
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -3059,7 +3056,7 @@
     </row>
     <row r="7" spans="1:27">
       <c r="A7" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -3142,7 +3139,7 @@
     </row>
     <row r="8" spans="1:27">
       <c r="A8" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -3225,7 +3222,7 @@
     </row>
     <row r="9" spans="1:27">
       <c r="A9" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -3308,7 +3305,7 @@
     </row>
     <row r="10" spans="1:27">
       <c r="A10" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -3401,7 +3398,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView zoomScale="107" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
@@ -3436,7 +3433,7 @@
         <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C2" s="14">
         <v>1</v>
@@ -3453,7 +3450,7 @@
         <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3" s="14">
         <v>0.3</v>
@@ -3470,7 +3467,7 @@
         <v>53</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C4" s="14">
         <v>0.01</v>
@@ -3484,10 +3481,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" s="14">
         <v>0.01</v>
@@ -3501,10 +3498,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C6" s="14">
         <v>0.3</v>
@@ -3518,10 +3515,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C7" s="14">
         <v>1</v>
@@ -3538,7 +3535,7 @@
         <v>54</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C8" s="14">
         <v>0.01</v>
@@ -3555,7 +3552,7 @@
         <v>54</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C9" s="14">
         <v>1</v>
@@ -3572,7 +3569,7 @@
         <v>54</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C10" s="14">
         <v>0.01</v>
@@ -3700,7 +3697,7 @@
     </row>
     <row r="2" spans="1:27">
       <c r="A2" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" s="5">
         <v>126638.8</v>
@@ -3783,7 +3780,7 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3" s="5">
         <v>290855.8</v>
@@ -3866,7 +3863,7 @@
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B4" s="5">
         <v>389609</v>
@@ -3949,7 +3946,7 @@
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B5" s="5">
         <v>126638.8</v>
@@ -4032,7 +4029,7 @@
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B6" s="5">
         <v>290855.8</v>
@@ -4115,7 +4112,7 @@
     </row>
     <row r="7" spans="1:27">
       <c r="A7" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B7" s="5">
         <v>389609</v>
@@ -4198,7 +4195,7 @@
     </row>
     <row r="8" spans="1:27" ht="34.799999999999997">
       <c r="A8" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B8" s="5">
         <v>126638.8</v>
@@ -4281,7 +4278,7 @@
     </row>
     <row r="9" spans="1:27">
       <c r="A9" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B9" s="5">
         <v>290855.8</v>
@@ -4364,7 +4361,7 @@
     </row>
     <row r="10" spans="1:27">
       <c r="A10" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B10" s="5">
         <v>389609</v>
@@ -4552,7 +4549,7 @@
     </row>
     <row r="2" spans="1:27">
       <c r="A2" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" s="3">
         <v>0</v>
@@ -4635,7 +4632,7 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3" s="3">
         <v>0</v>
@@ -4718,7 +4715,7 @@
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B4" s="3">
         <v>0</v>
@@ -4801,7 +4798,7 @@
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -4884,7 +4881,7 @@
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B6" s="3">
         <v>0</v>
@@ -4967,7 +4964,7 @@
     </row>
     <row r="7" spans="1:27">
       <c r="A7" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B7" s="3">
         <v>0</v>
@@ -5050,7 +5047,7 @@
     </row>
     <row r="8" spans="1:27" ht="34.799999999999997">
       <c r="A8" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
@@ -5133,7 +5130,7 @@
     </row>
     <row r="9" spans="1:27">
       <c r="A9" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B9" s="3">
         <v>0</v>
@@ -5216,7 +5213,7 @@
     </row>
     <row r="10" spans="1:27">
       <c r="A10" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B10" s="3">
         <v>0</v>
@@ -5327,7 +5324,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2">
         <v>2000</v>
@@ -5335,7 +5332,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3">
         <v>2000</v>
@@ -5343,7 +5340,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B4">
         <v>2000</v>
@@ -5351,7 +5348,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B5">
         <v>2000</v>
@@ -5359,7 +5356,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B6">
         <v>2000</v>
@@ -5367,7 +5364,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B7">
         <v>2000</v>
@@ -5375,7 +5372,7 @@
     </row>
     <row r="8" spans="1:2" ht="34.799999999999997">
       <c r="A8" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B8">
         <v>2000</v>
@@ -5383,7 +5380,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B9">
         <v>2000</v>
@@ -5391,7 +5388,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B10">
         <v>2000</v>
@@ -5428,7 +5425,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2">
         <v>2000</v>
@@ -5436,7 +5433,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3">
         <v>2000</v>
@@ -5444,7 +5441,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4">
         <v>2000</v>
@@ -5452,7 +5449,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5">
         <v>2000</v>
@@ -5460,7 +5457,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B6">
         <v>2000</v>
@@ -5468,7 +5465,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7">
         <v>2000</v>
@@ -5476,7 +5473,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B8">
         <v>2000</v>
@@ -5484,7 +5481,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B9">
         <v>2000</v>
@@ -5492,7 +5489,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B10">
         <v>2000</v>
@@ -5500,7 +5497,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B11">
         <v>2000</v>
@@ -5508,7 +5505,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B12">
         <v>2000</v>
@@ -5516,7 +5513,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B13">
         <v>2000</v>
@@ -5627,7 +5624,7 @@
     </row>
     <row r="2" spans="1:27">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" s="17">
         <v>16810</v>
@@ -5710,7 +5707,7 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" s="17">
         <v>6810</v>
@@ -5793,7 +5790,7 @@
     </row>
     <row r="4" spans="1:27">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="17">
         <v>0</v>
@@ -5876,7 +5873,7 @@
     </row>
     <row r="5" spans="1:27">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5" s="17">
         <v>0</v>
@@ -5959,7 +5956,7 @@
     </row>
     <row r="6" spans="1:27">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B6" s="17">
         <v>0</v>
@@ -6042,7 +6039,7 @@
     </row>
     <row r="7" spans="1:27">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" s="17">
         <v>3611</v>
@@ -6125,7 +6122,7 @@
     </row>
     <row r="8" spans="1:27">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B8" s="17">
         <v>90716.67</v>
@@ -6208,7 +6205,7 @@
     </row>
     <row r="9" spans="1:27">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B9" s="20">
         <v>19850</v>
@@ -6291,7 +6288,7 @@
     </row>
     <row r="10" spans="1:27">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B10" s="20">
         <v>4000</v>
@@ -6374,7 +6371,7 @@
     </row>
     <row r="11" spans="1:27">
       <c r="A11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B11" s="20">
         <v>3611</v>
@@ -6457,7 +6454,7 @@
     </row>
     <row r="12" spans="1:27">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B12" s="20">
         <v>50750</v>
@@ -6540,7 +6537,7 @@
     </row>
     <row r="13" spans="1:27">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B13" s="20">
         <v>4000</v>
@@ -6633,7 +6630,7 @@
   <dimension ref="A1:AA15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
@@ -6727,7 +6724,7 @@
     </row>
     <row r="2" spans="1:27" ht="18" customHeight="1">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2">
         <v>13.97</v>
@@ -6810,7 +6807,7 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3">
         <v>13.97</v>
@@ -6893,7 +6890,7 @@
     </row>
     <row r="4" spans="1:27">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4">
         <v>13.97</v>
@@ -6976,7 +6973,7 @@
     </row>
     <row r="5" spans="1:27">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5">
         <v>13.97</v>
@@ -7059,7 +7056,7 @@
     </row>
     <row r="6" spans="1:27">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B6">
         <v>13.97</v>
@@ -7142,7 +7139,7 @@
     </row>
     <row r="7" spans="1:27">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7">
         <v>13.97</v>
@@ -7225,7 +7222,7 @@
     </row>
     <row r="8" spans="1:27">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B8">
         <v>13.97</v>
@@ -7308,7 +7305,7 @@
     </row>
     <row r="9" spans="1:27">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B9">
         <v>13.97</v>
@@ -7391,7 +7388,7 @@
     </row>
     <row r="10" spans="1:27">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B10">
         <v>13.97</v>
@@ -7474,7 +7471,7 @@
     </row>
     <row r="11" spans="1:27">
       <c r="A11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B11">
         <v>13.97</v>
@@ -7557,7 +7554,7 @@
     </row>
     <row r="12" spans="1:27">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B12">
         <v>13.97</v>
@@ -7640,7 +7637,7 @@
     </row>
     <row r="13" spans="1:27">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B13">
         <v>13.97</v>
@@ -7733,10 +7730,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B80F836-AAFA-4D20-813C-A31BE68F85E1}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L17" sqref="I1:L17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
@@ -7786,13 +7783,13 @@
         <v>53</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>55</v>
@@ -7812,13 +7809,13 @@
         <v>53</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>55</v>
@@ -7832,288 +7829,80 @@
     </row>
     <row r="4" spans="1:8" ht="34.799999999999997">
       <c r="A4" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>55</v>
       </c>
       <c r="G4" s="11">
-        <v>4128000</v>
+        <v>4127000</v>
       </c>
       <c r="H4" s="24">
-        <v>2017</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="34.799999999999997">
       <c r="A5" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>55</v>
       </c>
       <c r="G5" s="11">
-        <v>4127000</v>
+        <v>3624000</v>
       </c>
       <c r="H5" s="24">
-        <v>2020</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="34.799999999999997">
       <c r="A6" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>55</v>
       </c>
       <c r="G6" s="11">
-        <v>4000000</v>
+        <v>3239000</v>
       </c>
       <c r="H6" s="24">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="34.799999999999997">
-      <c r="A7" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G7" s="11">
-        <v>4000000</v>
-      </c>
-      <c r="H7" s="24">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="34.799999999999997">
-      <c r="A8" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G8" s="11">
-        <v>4000000</v>
-      </c>
-      <c r="H8" s="24">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="34.799999999999997">
-      <c r="A9" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" s="11">
-        <v>3804000</v>
-      </c>
-      <c r="H9" s="24">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="34.799999999999997">
-      <c r="A10" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" s="11">
-        <v>3624000</v>
-      </c>
-      <c r="H10" s="24">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="34.799999999999997">
-      <c r="A11" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" s="11">
-        <v>3239000</v>
-      </c>
-      <c r="H11" s="24">
         <v>2006</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="34.799999999999997">
-      <c r="A12" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G12" s="11">
-        <v>1914000</v>
-      </c>
-      <c r="H12" s="24">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="34.799999999999997">
-      <c r="A13" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G13" s="11">
-        <v>1683000</v>
-      </c>
-      <c r="H13" s="24">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="34.799999999999997">
-      <c r="A14" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G14" s="11">
-        <v>1280000</v>
-      </c>
-      <c r="H14" s="24">
-        <v>2010</v>
       </c>
     </row>
   </sheetData>
@@ -8125,21 +7914,19 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20EB8FDB-F47B-40C2-8266-6700BCAB2D8C}">
-  <dimension ref="A1:AF19"/>
+  <dimension ref="A1:AA13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="21.296875" customWidth="1"/>
     <col min="2" max="2" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.796875" customWidth="1"/>
-    <col min="32" max="32" width="9.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:27">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -8221,596 +8008,589 @@
       <c r="AA1">
         <v>2050</v>
       </c>
-      <c r="AF1" s="11"/>
-    </row>
-    <row r="2" spans="1:32">
+    </row>
+    <row r="2" spans="1:27">
       <c r="A2" t="s">
         <v>56</v>
       </c>
       <c r="B2" s="19">
-        <v>9.4E-2</v>
+        <v>0.107</v>
       </c>
       <c r="C2" s="19">
-        <v>9.4E-2</v>
+        <v>0.107</v>
       </c>
       <c r="D2" s="19">
-        <v>9.4E-2</v>
+        <v>0.107</v>
       </c>
       <c r="E2" s="19">
-        <v>9.4E-2</v>
+        <v>0.107</v>
       </c>
       <c r="F2" s="19">
-        <v>9.4E-2</v>
+        <v>0.107</v>
       </c>
       <c r="G2" s="19">
-        <v>9.4E-2</v>
+        <v>0.107</v>
       </c>
       <c r="H2" s="19">
-        <v>9.4E-2</v>
+        <v>0.107</v>
       </c>
       <c r="I2" s="19">
-        <v>9.4E-2</v>
+        <v>0.107</v>
       </c>
       <c r="J2" s="19">
-        <v>9.4E-2</v>
+        <v>0.107</v>
       </c>
       <c r="K2" s="19">
-        <v>9.4E-2</v>
+        <v>0.107</v>
       </c>
       <c r="L2" s="19">
-        <v>9.4E-2</v>
+        <v>0.107</v>
       </c>
       <c r="M2" s="19">
-        <v>9.4E-2</v>
+        <v>0.107</v>
       </c>
       <c r="N2" s="19">
-        <v>9.4E-2</v>
+        <v>0.107</v>
       </c>
       <c r="O2" s="19">
-        <v>9.4E-2</v>
+        <v>0.107</v>
       </c>
       <c r="P2" s="19">
-        <v>9.4E-2</v>
+        <v>0.107</v>
       </c>
       <c r="Q2" s="19">
-        <v>9.4E-2</v>
+        <v>0.107</v>
       </c>
       <c r="R2" s="19">
-        <v>9.4E-2</v>
+        <v>0.107</v>
       </c>
       <c r="S2" s="19">
-        <v>9.4E-2</v>
+        <v>0.107</v>
       </c>
       <c r="T2" s="19">
-        <v>9.4E-2</v>
+        <v>0.107</v>
       </c>
       <c r="U2" s="19">
-        <v>9.4E-2</v>
+        <v>0.107</v>
       </c>
       <c r="V2" s="19">
-        <v>9.4E-2</v>
+        <v>0.107</v>
       </c>
       <c r="W2" s="19">
-        <v>9.4E-2</v>
+        <v>0.107</v>
       </c>
       <c r="X2" s="19">
-        <v>9.4E-2</v>
+        <v>0.107</v>
       </c>
       <c r="Y2" s="19">
-        <v>9.4E-2</v>
+        <v>0.107</v>
       </c>
       <c r="Z2" s="19">
-        <v>9.4E-2</v>
+        <v>0.107</v>
       </c>
       <c r="AA2" s="19">
-        <v>9.4E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32">
+        <v>0.107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
       <c r="A3" t="s">
         <v>57</v>
       </c>
       <c r="B3" s="19">
-        <v>0.108</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="C3" s="19">
-        <v>0.108</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="D3" s="19">
-        <v>0.108</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="E3" s="19">
-        <v>0.108</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="F3" s="19">
-        <v>0.108</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="G3" s="19">
-        <v>0.108</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="H3" s="19">
-        <v>0.108</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I3" s="19">
-        <v>0.108</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="J3" s="19">
-        <v>0.108</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="K3" s="19">
-        <v>0.108</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="L3" s="19">
-        <v>0.108</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="M3" s="19">
-        <v>0.108</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="N3" s="19">
-        <v>0.108</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="O3" s="19">
-        <v>0.108</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="P3" s="19">
-        <v>0.108</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="Q3" s="19">
-        <v>0.108</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="R3" s="19">
-        <v>0.108</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="S3" s="19">
-        <v>0.108</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="T3" s="19">
-        <v>0.108</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="U3" s="19">
-        <v>0.108</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="V3" s="19">
-        <v>0.108</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="W3" s="19">
-        <v>0.108</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="X3" s="19">
-        <v>0.108</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="Y3" s="19">
-        <v>0.108</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="Z3" s="19">
-        <v>0.108</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="AA3" s="19">
-        <v>0.108</v>
-      </c>
-      <c r="AC3" s="19"/>
-    </row>
-    <row r="4" spans="1:32">
+        <v>9.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
       <c r="A4" t="s">
         <v>58</v>
       </c>
       <c r="B4" s="19">
-        <v>9.1999999999999998E-2</v>
+        <v>0.26</v>
       </c>
       <c r="C4" s="19">
-        <v>9.1999999999999998E-2</v>
+        <v>0.26</v>
       </c>
       <c r="D4" s="19">
-        <v>9.1999999999999998E-2</v>
+        <v>0.26</v>
       </c>
       <c r="E4" s="19">
-        <v>9.1999999999999998E-2</v>
+        <v>0.26</v>
       </c>
       <c r="F4" s="19">
-        <v>9.1999999999999998E-2</v>
+        <v>0.26</v>
       </c>
       <c r="G4" s="19">
-        <v>9.1999999999999998E-2</v>
+        <v>0.26</v>
       </c>
       <c r="H4" s="19">
-        <v>9.1999999999999998E-2</v>
+        <v>0.26</v>
       </c>
       <c r="I4" s="19">
-        <v>9.1999999999999998E-2</v>
+        <v>0.26</v>
       </c>
       <c r="J4" s="19">
-        <v>9.1999999999999998E-2</v>
+        <v>0.26</v>
       </c>
       <c r="K4" s="19">
-        <v>9.1999999999999998E-2</v>
+        <v>0.26</v>
       </c>
       <c r="L4" s="19">
-        <v>9.1999999999999998E-2</v>
+        <v>0.26</v>
       </c>
       <c r="M4" s="19">
-        <v>9.1999999999999998E-2</v>
+        <v>0.26</v>
       </c>
       <c r="N4" s="19">
-        <v>9.1999999999999998E-2</v>
+        <v>0.26</v>
       </c>
       <c r="O4" s="19">
-        <v>9.1999999999999998E-2</v>
+        <v>0.26</v>
       </c>
       <c r="P4" s="19">
-        <v>9.1999999999999998E-2</v>
+        <v>0.26</v>
       </c>
       <c r="Q4" s="19">
-        <v>9.1999999999999998E-2</v>
+        <v>0.26</v>
       </c>
       <c r="R4" s="19">
-        <v>9.1999999999999998E-2</v>
+        <v>0.26</v>
       </c>
       <c r="S4" s="19">
-        <v>9.1999999999999998E-2</v>
+        <v>0.26</v>
       </c>
       <c r="T4" s="19">
-        <v>9.1999999999999998E-2</v>
+        <v>0.26</v>
       </c>
       <c r="U4" s="19">
-        <v>9.1999999999999998E-2</v>
+        <v>0.26</v>
       </c>
       <c r="V4" s="19">
-        <v>9.1999999999999998E-2</v>
+        <v>0.26</v>
       </c>
       <c r="W4" s="19">
-        <v>9.1999999999999998E-2</v>
+        <v>0.26</v>
       </c>
       <c r="X4" s="19">
-        <v>9.1999999999999998E-2</v>
+        <v>0.26</v>
       </c>
       <c r="Y4" s="19">
-        <v>9.1999999999999998E-2</v>
+        <v>0.26</v>
       </c>
       <c r="Z4" s="19">
-        <v>9.1999999999999998E-2</v>
+        <v>0.26</v>
       </c>
       <c r="AA4" s="19">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="AC4" s="19"/>
-    </row>
-    <row r="5" spans="1:32">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
       <c r="A5" t="s">
         <v>59</v>
       </c>
       <c r="B5" s="19">
-        <v>0.27</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="C5" s="19">
-        <v>0.27</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="D5" s="19">
-        <v>0.27</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="E5" s="19">
-        <v>0.27</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="F5" s="19">
-        <v>0.27</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="G5" s="19">
-        <v>0.27</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="H5" s="19">
-        <v>0.27</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="I5" s="19">
-        <v>0.27</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="J5" s="19">
-        <v>0.27</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="K5" s="19">
-        <v>0.27</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="L5" s="19">
-        <v>0.27</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="M5" s="19">
-        <v>0.27</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="N5" s="19">
-        <v>0.27</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="O5" s="19">
-        <v>0.27</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="P5" s="19">
-        <v>0.27</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="Q5" s="19">
-        <v>0.27</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="R5" s="19">
-        <v>0.27</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="S5" s="19">
-        <v>0.27</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="T5" s="19">
-        <v>0.27</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="U5" s="19">
-        <v>0.27</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="V5" s="19">
-        <v>0.27</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="W5" s="19">
-        <v>0.27</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="X5" s="19">
-        <v>0.27</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="Y5" s="19">
-        <v>0.27</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="Z5" s="19">
-        <v>0.27</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="AA5" s="19">
-        <v>0.27</v>
-      </c>
-      <c r="AC5" s="19"/>
-    </row>
-    <row r="6" spans="1:32">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
       <c r="A6" t="s">
         <v>60</v>
       </c>
       <c r="B6" s="19">
-        <v>0.24</v>
+        <v>0.192</v>
       </c>
       <c r="C6" s="19">
-        <v>0.24</v>
+        <v>0.192</v>
       </c>
       <c r="D6" s="19">
-        <v>0.24</v>
+        <v>0.192</v>
       </c>
       <c r="E6" s="19">
-        <v>0.24</v>
+        <v>0.192</v>
       </c>
       <c r="F6" s="19">
-        <v>0.24</v>
+        <v>0.192</v>
       </c>
       <c r="G6" s="19">
-        <v>0.24</v>
+        <v>0.192</v>
       </c>
       <c r="H6" s="19">
-        <v>0.24</v>
+        <v>0.192</v>
       </c>
       <c r="I6" s="19">
-        <v>0.24</v>
+        <v>0.192</v>
       </c>
       <c r="J6" s="19">
-        <v>0.24</v>
+        <v>0.192</v>
       </c>
       <c r="K6" s="19">
-        <v>0.24</v>
+        <v>0.192</v>
       </c>
       <c r="L6" s="19">
-        <v>0.24</v>
+        <v>0.192</v>
       </c>
       <c r="M6" s="19">
-        <v>0.24</v>
+        <v>0.192</v>
       </c>
       <c r="N6" s="19">
-        <v>0.24</v>
+        <v>0.192</v>
       </c>
       <c r="O6" s="19">
-        <v>0.24</v>
+        <v>0.192</v>
       </c>
       <c r="P6" s="19">
-        <v>0.24</v>
+        <v>0.192</v>
       </c>
       <c r="Q6" s="19">
-        <v>0.24</v>
+        <v>0.192</v>
       </c>
       <c r="R6" s="19">
-        <v>0.24</v>
+        <v>0.192</v>
       </c>
       <c r="S6" s="19">
-        <v>0.24</v>
+        <v>0.192</v>
       </c>
       <c r="T6" s="19">
-        <v>0.24</v>
+        <v>0.192</v>
       </c>
       <c r="U6" s="19">
-        <v>0.24</v>
+        <v>0.192</v>
       </c>
       <c r="V6" s="19">
-        <v>0.24</v>
+        <v>0.192</v>
       </c>
       <c r="W6" s="19">
-        <v>0.24</v>
+        <v>0.192</v>
       </c>
       <c r="X6" s="19">
-        <v>0.24</v>
+        <v>0.192</v>
       </c>
       <c r="Y6" s="19">
-        <v>0.24</v>
+        <v>0.192</v>
       </c>
       <c r="Z6" s="19">
-        <v>0.24</v>
+        <v>0.192</v>
       </c>
       <c r="AA6" s="19">
-        <v>0.24</v>
-      </c>
-      <c r="AC6" s="19"/>
-    </row>
-    <row r="7" spans="1:32">
+        <v>0.192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
       <c r="A7" t="s">
         <v>61</v>
       </c>
       <c r="B7" s="19">
-        <v>0.22</v>
+        <v>5.5E-2</v>
       </c>
       <c r="C7" s="19">
-        <v>0.22</v>
+        <v>5.5E-2</v>
       </c>
       <c r="D7" s="19">
-        <v>0.22</v>
+        <v>5.5E-2</v>
       </c>
       <c r="E7" s="19">
-        <v>0.22</v>
+        <v>5.5E-2</v>
       </c>
       <c r="F7" s="19">
-        <v>0.22</v>
+        <v>5.5E-2</v>
       </c>
       <c r="G7" s="19">
-        <v>0.22</v>
+        <v>5.5E-2</v>
       </c>
       <c r="H7" s="19">
-        <v>0.22</v>
+        <v>5.5E-2</v>
       </c>
       <c r="I7" s="19">
-        <v>0.22</v>
+        <v>5.5E-2</v>
       </c>
       <c r="J7" s="19">
-        <v>0.22</v>
+        <v>5.5E-2</v>
       </c>
       <c r="K7" s="19">
-        <v>0.22</v>
+        <v>5.5E-2</v>
       </c>
       <c r="L7" s="19">
-        <v>0.22</v>
+        <v>5.5E-2</v>
       </c>
       <c r="M7" s="19">
-        <v>0.22</v>
+        <v>5.5E-2</v>
       </c>
       <c r="N7" s="19">
-        <v>0.22</v>
+        <v>5.5E-2</v>
       </c>
       <c r="O7" s="19">
-        <v>0.22</v>
+        <v>5.5E-2</v>
       </c>
       <c r="P7" s="19">
-        <v>0.22</v>
+        <v>5.5E-2</v>
       </c>
       <c r="Q7" s="19">
-        <v>0.22</v>
+        <v>5.5E-2</v>
       </c>
       <c r="R7" s="19">
-        <v>0.22</v>
+        <v>5.5E-2</v>
       </c>
       <c r="S7" s="19">
-        <v>0.22</v>
+        <v>5.5E-2</v>
       </c>
       <c r="T7" s="19">
-        <v>0.22</v>
+        <v>5.5E-2</v>
       </c>
       <c r="U7" s="19">
-        <v>0.22</v>
+        <v>5.5E-2</v>
       </c>
       <c r="V7" s="19">
-        <v>0.22</v>
+        <v>5.5E-2</v>
       </c>
       <c r="W7" s="19">
-        <v>0.22</v>
+        <v>5.5E-2</v>
       </c>
       <c r="X7" s="19">
-        <v>0.22</v>
+        <v>5.5E-2</v>
       </c>
       <c r="Y7" s="19">
-        <v>0.22</v>
+        <v>5.5E-2</v>
       </c>
       <c r="Z7" s="19">
-        <v>0.22</v>
+        <v>5.5E-2</v>
       </c>
       <c r="AA7" s="19">
-        <v>0.22</v>
-      </c>
-      <c r="AC7" s="19"/>
-    </row>
-    <row r="8" spans="1:32">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="B8" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="C8" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="D8" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="E8" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="F8" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="G8" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="H8" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="I8" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="J8" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="K8" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="L8" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="M8" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="N8" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="O8" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="P8" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="R8" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="S8" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="T8" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="U8" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="V8" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="W8" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="X8" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="Y8" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="AA8" s="19">
-        <v>5.5E-2</v>
-      </c>
-      <c r="AC8" s="19"/>
-    </row>
-    <row r="9" spans="1:32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
       <c r="A9" t="s">
         <v>74</v>
       </c>
@@ -8893,7 +8673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32">
+    <row r="10" spans="1:27">
       <c r="A10" t="s">
         <v>75</v>
       </c>
@@ -8976,173 +8756,173 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32">
+    <row r="11" spans="1:27">
       <c r="A11" t="s">
         <v>76</v>
       </c>
       <c r="B11" s="19">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="C11" s="19">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="D11" s="19">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="E11" s="19">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="F11" s="19">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="G11" s="19">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="H11" s="19">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="I11" s="19">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="J11" s="19">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="K11" s="19">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="L11" s="19">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="M11" s="19">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="N11" s="19">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="O11" s="19">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="P11" s="19">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="Q11" s="19">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="R11" s="19">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="S11" s="19">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="T11" s="19">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="U11" s="19">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="V11" s="19">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="W11" s="19">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="X11" s="19">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="Y11" s="19">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="Z11" s="19">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="AA11" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
       <c r="A12" t="s">
         <v>77</v>
       </c>
       <c r="B12" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="C12" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="D12" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="E12" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="F12" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="G12" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="H12" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="I12" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="J12" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="K12" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="L12" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="M12" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="N12" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="O12" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="P12" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="R12" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="S12" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="T12" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="U12" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="V12" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="W12" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="X12" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="Y12" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="AA12" s="19">
-        <v>5.5E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
       <c r="A13" t="s">
         <v>78</v>
       </c>
@@ -9224,93 +9004,6 @@
       <c r="AA13" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:32">
-      <c r="A14" t="s">
-        <v>79</v>
-      </c>
-      <c r="B14" s="19">
-        <v>0</v>
-      </c>
-      <c r="C14" s="19">
-        <v>0</v>
-      </c>
-      <c r="D14" s="19">
-        <v>0</v>
-      </c>
-      <c r="E14" s="19">
-        <v>0</v>
-      </c>
-      <c r="F14" s="19">
-        <v>0</v>
-      </c>
-      <c r="G14" s="19">
-        <v>0</v>
-      </c>
-      <c r="H14" s="19">
-        <v>0</v>
-      </c>
-      <c r="I14" s="19">
-        <v>0</v>
-      </c>
-      <c r="J14" s="19">
-        <v>0</v>
-      </c>
-      <c r="K14" s="19">
-        <v>0</v>
-      </c>
-      <c r="L14" s="19">
-        <v>0</v>
-      </c>
-      <c r="M14" s="19">
-        <v>0</v>
-      </c>
-      <c r="N14" s="19">
-        <v>0</v>
-      </c>
-      <c r="O14" s="19">
-        <v>0</v>
-      </c>
-      <c r="P14" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="19">
-        <v>0</v>
-      </c>
-      <c r="R14" s="19">
-        <v>0</v>
-      </c>
-      <c r="S14" s="19">
-        <v>0</v>
-      </c>
-      <c r="T14" s="19">
-        <v>0</v>
-      </c>
-      <c r="U14" s="19">
-        <v>0</v>
-      </c>
-      <c r="V14" s="19">
-        <v>0</v>
-      </c>
-      <c r="W14" s="19">
-        <v>0</v>
-      </c>
-      <c r="X14" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="19">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="19">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4">
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -9324,7 +9017,7 @@
   <dimension ref="A1:AA30"/>
   <sheetViews>
     <sheetView zoomScale="120" workbookViewId="0">
-      <selection sqref="A1:D4"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
@@ -9501,7 +9194,7 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B3" s="17">
         <v>1100000</v>
@@ -9958,7 +9651,7 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B3" s="17">
         <f>B2*2</f>
@@ -10337,7 +10030,7 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B3" s="17">
         <f>B2*2</f>
@@ -10573,7 +10266,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B3">
         <v>20</v>
@@ -10787,8 +10480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E46CCB1-2754-42FA-B5C9-8DABA83A320C}">
   <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:AA2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="AA3" sqref="AA3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
@@ -10798,7 +10491,7 @@
     <col min="7" max="7" width="14.69921875" bestFit="1" customWidth="1"/>
     <col min="8" max="17" width="12.19921875" bestFit="1" customWidth="1"/>
     <col min="18" max="21" width="11.19921875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.19921875" customWidth="1"/>
+    <col min="22" max="22" width="10.19921875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="11.19921875" bestFit="1" customWidth="1"/>
     <col min="24" max="27" width="12.19921875" bestFit="1" customWidth="1"/>
   </cols>
@@ -10891,82 +10584,106 @@
         <v>30</v>
       </c>
       <c r="B2" s="25">
-        <v>150000000</v>
+        <v>60000000</v>
       </c>
       <c r="C2" s="25">
-        <v>150000000</v>
+        <f>B2</f>
+        <v>60000000</v>
       </c>
       <c r="D2" s="25">
-        <v>150000000</v>
+        <f t="shared" ref="D2:F2" si="0">C2</f>
+        <v>60000000</v>
       </c>
       <c r="E2" s="25">
-        <v>150000000</v>
+        <f t="shared" si="0"/>
+        <v>60000000</v>
       </c>
       <c r="F2" s="25">
-        <v>150000000</v>
+        <f t="shared" si="0"/>
+        <v>60000000</v>
       </c>
       <c r="G2" s="25">
-        <v>150000000</v>
+        <f>F2*0.9</f>
+        <v>54000000</v>
       </c>
       <c r="H2" s="25">
-        <v>150000000</v>
+        <f>G2</f>
+        <v>54000000</v>
       </c>
       <c r="I2" s="25">
-        <v>150000000</v>
+        <f t="shared" ref="I2:P2" si="1">H2</f>
+        <v>54000000</v>
       </c>
       <c r="J2" s="25">
-        <v>150000000</v>
+        <f t="shared" si="1"/>
+        <v>54000000</v>
       </c>
       <c r="K2" s="25">
-        <v>150000000</v>
+        <f t="shared" si="1"/>
+        <v>54000000</v>
       </c>
       <c r="L2" s="25">
-        <v>150000000</v>
+        <f t="shared" si="1"/>
+        <v>54000000</v>
       </c>
       <c r="M2" s="25">
-        <v>150000000</v>
+        <f t="shared" si="1"/>
+        <v>54000000</v>
       </c>
       <c r="N2" s="25">
-        <v>150000000</v>
+        <f t="shared" si="1"/>
+        <v>54000000</v>
       </c>
       <c r="O2" s="25">
-        <v>150000000</v>
+        <f t="shared" si="1"/>
+        <v>54000000</v>
       </c>
       <c r="P2" s="25">
-        <v>150000000</v>
+        <f t="shared" si="1"/>
+        <v>54000000</v>
       </c>
       <c r="Q2" s="25">
-        <v>150000000</v>
+        <f>B2*0.5</f>
+        <v>30000000</v>
       </c>
       <c r="R2" s="25">
-        <v>150000000</v>
+        <f>Q2</f>
+        <v>30000000</v>
       </c>
       <c r="S2" s="25">
-        <v>150000000</v>
+        <f t="shared" ref="S2:Z2" si="2">R2</f>
+        <v>30000000</v>
       </c>
       <c r="T2" s="25">
-        <v>150000000</v>
+        <f t="shared" si="2"/>
+        <v>30000000</v>
       </c>
       <c r="U2" s="25">
-        <v>150000000</v>
+        <f t="shared" si="2"/>
+        <v>30000000</v>
       </c>
       <c r="V2" s="25">
-        <v>150000000</v>
+        <f t="shared" si="2"/>
+        <v>30000000</v>
       </c>
       <c r="W2" s="25">
-        <v>150000000</v>
+        <f t="shared" si="2"/>
+        <v>30000000</v>
       </c>
       <c r="X2" s="25">
-        <v>150000000</v>
+        <f t="shared" si="2"/>
+        <v>30000000</v>
       </c>
       <c r="Y2" s="25">
-        <v>150000000</v>
+        <f t="shared" si="2"/>
+        <v>30000000</v>
       </c>
       <c r="Z2" s="25">
-        <v>150000000</v>
+        <f t="shared" si="2"/>
+        <v>30000000</v>
       </c>
       <c r="AA2" s="25">
-        <v>150000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:27">
@@ -10984,7 +10701,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView zoomScale="124" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
@@ -11018,13 +10735,13 @@
         <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" s="14">
         <v>1</v>
       </c>
       <c r="D2" s="14">
-        <v>0.34</v>
+        <v>0.2</v>
       </c>
       <c r="E2" s="14">
         <v>2000</v>
@@ -11036,7 +10753,7 @@
         <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3" s="14">
         <v>0.1</v>
@@ -11054,7 +10771,7 @@
         <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4" s="14">
         <v>0.4</v>
@@ -11072,7 +10789,7 @@
         <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C5" s="14">
         <v>0.1</v>
@@ -11090,7 +10807,7 @@
         <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6" s="14">
         <v>5.8999999999999997E-2</v>
@@ -11108,7 +10825,7 @@
         <v>53</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C7" s="14">
         <v>0.1</v>
@@ -11123,16 +10840,16 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C8" s="14">
         <v>1</v>
       </c>
       <c r="D8" s="14">
-        <v>0.34</v>
+        <v>0.5</v>
       </c>
       <c r="E8" s="14">
         <v>2000</v>
@@ -11140,10 +10857,10 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C9">
         <v>0.39800000000000002</v>
@@ -11157,10 +10874,10 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C10">
         <v>0.02</v>
@@ -11177,7 +10894,7 @@
         <v>54</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C11">
         <v>0.5</v>
@@ -11194,13 +10911,13 @@
         <v>54</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
-      <c r="D12" s="14">
-        <v>0.34</v>
+      <c r="D12">
+        <v>0.5</v>
       </c>
       <c r="E12" s="14">
         <v>2000</v>
@@ -11211,7 +10928,7 @@
         <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C13">
         <v>7.5999999999999998E-2</v>

--- a/database/steel_data.xlsx
+++ b/database/steel_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\PLANiT\github\Costoptimal_steelsystem\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6B21F0-D780-4CBD-8781-82CFD3917F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{324DA235-6FB3-499D-A63C-C6C9763C2A6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5520" yWindow="4548" windowWidth="30852" windowHeight="18948" tabRatio="775" activeTab="7" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
+    <workbookView xWindow="3708" yWindow="2652" windowWidth="30852" windowHeight="18948" tabRatio="775" activeTab="7" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="18" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="82">
   <si>
     <t>system</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -263,6 +263,9 @@
   </si>
   <si>
     <t>0.81, 0.19</t>
+  </si>
+  <si>
+    <t>Met coal_BB</t>
   </si>
   <si>
     <t>Coke_BB</t>
@@ -1013,7 +1016,7 @@
   <dimension ref="A1:AA14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+      <selection activeCell="B2" sqref="B2:AA14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
@@ -1110,82 +1113,82 @@
         <v>40</v>
       </c>
       <c r="B2">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>99999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="19.2">
@@ -1193,82 +1196,82 @@
         <v>41</v>
       </c>
       <c r="B3">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>99999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="19.2">
@@ -1276,82 +1279,82 @@
         <v>42</v>
       </c>
       <c r="B4">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>99999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:27">
@@ -1359,82 +1362,82 @@
         <v>43</v>
       </c>
       <c r="B5">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>99999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="19.2">
@@ -1442,82 +1445,82 @@
         <v>44</v>
       </c>
       <c r="B6">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>99999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="19.2">
@@ -1525,82 +1528,82 @@
         <v>45</v>
       </c>
       <c r="B7">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="S7">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="V7">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="W7">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="Y7">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="Z7">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <v>99999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="19.2">
@@ -1608,82 +1611,82 @@
         <v>46</v>
       </c>
       <c r="B8">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="S8">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="U8">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="V8">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="W8">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="Y8">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="Z8">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="AA8">
-        <v>99999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="19.2">
@@ -1691,82 +1694,82 @@
         <v>47</v>
       </c>
       <c r="B9">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="S9">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="V9">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="W9">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="Y9">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="Z9">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>99999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="19.2">
@@ -1774,82 +1777,82 @@
         <v>48</v>
       </c>
       <c r="B10">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="S10">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="U10">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="V10">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="Y10">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="Z10">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>99999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -1857,82 +1860,82 @@
         <v>49</v>
       </c>
       <c r="B11">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="S11">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="U11">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="V11">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="W11">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="Y11">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="Z11">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="AA11">
-        <v>99999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:27">
@@ -1940,82 +1943,82 @@
         <v>50</v>
       </c>
       <c r="B12">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="R12">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="S12">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="T12">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="U12">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="V12">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="W12">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="Y12">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="Z12">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="AA12">
-        <v>99999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:27" ht="19.2">
@@ -2023,82 +2026,82 @@
         <v>51</v>
       </c>
       <c r="B13">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="R13">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="S13">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="T13">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="U13">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="V13">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="W13">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="X13">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="Y13">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="Z13">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="AA13">
-        <v>99999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="19.2">
@@ -2106,82 +2109,82 @@
         <v>52</v>
       </c>
       <c r="B14">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="R14">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="S14">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="U14">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="V14">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="W14">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="X14">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="Y14">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="Z14">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="AA14">
-        <v>99999999</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2372,7 +2375,7 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -2641,7 +2644,7 @@
     </row>
     <row r="2" spans="1:27">
       <c r="A2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2724,7 +2727,7 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -2807,7 +2810,7 @@
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -2890,7 +2893,7 @@
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -2973,7 +2976,7 @@
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -3056,7 +3059,7 @@
     </row>
     <row r="7" spans="1:27">
       <c r="A7" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -3139,7 +3142,7 @@
     </row>
     <row r="8" spans="1:27">
       <c r="A8" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -3222,7 +3225,7 @@
     </row>
     <row r="9" spans="1:27">
       <c r="A9" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -3305,7 +3308,7 @@
     </row>
     <row r="10" spans="1:27">
       <c r="A10" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -3398,7 +3401,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView zoomScale="107" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
@@ -3433,7 +3436,7 @@
         <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C2" s="14">
         <v>1</v>
@@ -3450,7 +3453,7 @@
         <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C3" s="14">
         <v>0.3</v>
@@ -3467,7 +3470,7 @@
         <v>53</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C4" s="14">
         <v>0.01</v>
@@ -3481,10 +3484,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C5" s="14">
         <v>0.01</v>
@@ -3498,10 +3501,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C6" s="14">
         <v>0.3</v>
@@ -3515,10 +3518,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C7" s="14">
         <v>1</v>
@@ -3535,7 +3538,7 @@
         <v>54</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C8" s="14">
         <v>0.01</v>
@@ -3552,7 +3555,7 @@
         <v>54</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C9" s="14">
         <v>1</v>
@@ -3569,7 +3572,7 @@
         <v>54</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C10" s="14">
         <v>0.01</v>
@@ -3697,7 +3700,7 @@
     </row>
     <row r="2" spans="1:27">
       <c r="A2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B2" s="5">
         <v>126638.8</v>
@@ -3780,7 +3783,7 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B3" s="5">
         <v>290855.8</v>
@@ -3863,7 +3866,7 @@
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B4" s="5">
         <v>389609</v>
@@ -3946,7 +3949,7 @@
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B5" s="5">
         <v>126638.8</v>
@@ -4029,7 +4032,7 @@
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B6" s="5">
         <v>290855.8</v>
@@ -4112,7 +4115,7 @@
     </row>
     <row r="7" spans="1:27">
       <c r="A7" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B7" s="5">
         <v>389609</v>
@@ -4195,7 +4198,7 @@
     </row>
     <row r="8" spans="1:27" ht="34.799999999999997">
       <c r="A8" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B8" s="5">
         <v>126638.8</v>
@@ -4278,7 +4281,7 @@
     </row>
     <row r="9" spans="1:27">
       <c r="A9" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="5">
         <v>290855.8</v>
@@ -4361,7 +4364,7 @@
     </row>
     <row r="10" spans="1:27">
       <c r="A10" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B10" s="5">
         <v>389609</v>
@@ -4549,7 +4552,7 @@
     </row>
     <row r="2" spans="1:27">
       <c r="A2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B2" s="3">
         <v>0</v>
@@ -4632,7 +4635,7 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B3" s="3">
         <v>0</v>
@@ -4715,7 +4718,7 @@
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B4" s="3">
         <v>0</v>
@@ -4798,7 +4801,7 @@
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -4881,7 +4884,7 @@
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B6" s="3">
         <v>0</v>
@@ -4964,7 +4967,7 @@
     </row>
     <row r="7" spans="1:27">
       <c r="A7" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B7" s="3">
         <v>0</v>
@@ -5047,7 +5050,7 @@
     </row>
     <row r="8" spans="1:27" ht="34.799999999999997">
       <c r="A8" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
@@ -5130,7 +5133,7 @@
     </row>
     <row r="9" spans="1:27">
       <c r="A9" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="3">
         <v>0</v>
@@ -5213,7 +5216,7 @@
     </row>
     <row r="10" spans="1:27">
       <c r="A10" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B10" s="3">
         <v>0</v>
@@ -5324,7 +5327,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B2">
         <v>2000</v>
@@ -5332,7 +5335,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B3">
         <v>2000</v>
@@ -5340,7 +5343,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B4">
         <v>2000</v>
@@ -5348,7 +5351,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B5">
         <v>2000</v>
@@ -5356,7 +5359,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B6">
         <v>2000</v>
@@ -5364,7 +5367,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B7">
         <v>2000</v>
@@ -5372,7 +5375,7 @@
     </row>
     <row r="8" spans="1:2" ht="34.799999999999997">
       <c r="A8" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B8">
         <v>2000</v>
@@ -5380,7 +5383,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9">
         <v>2000</v>
@@ -5388,7 +5391,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B10">
         <v>2000</v>
@@ -5425,7 +5428,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B2">
         <v>2000</v>
@@ -5433,7 +5436,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B3">
         <v>2000</v>
@@ -5441,7 +5444,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B4">
         <v>2000</v>
@@ -5449,7 +5452,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B5">
         <v>2000</v>
@@ -5457,7 +5460,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B6">
         <v>2000</v>
@@ -5465,7 +5468,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B7">
         <v>2000</v>
@@ -5473,7 +5476,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B8">
         <v>2000</v>
@@ -5481,7 +5484,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B9">
         <v>2000</v>
@@ -5489,7 +5492,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B10">
         <v>2000</v>
@@ -5497,7 +5500,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B11">
         <v>2000</v>
@@ -5505,7 +5508,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B12">
         <v>2000</v>
@@ -5513,7 +5516,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B13">
         <v>2000</v>
@@ -5624,7 +5627,7 @@
     </row>
     <row r="2" spans="1:27">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B2" s="17">
         <v>16810</v>
@@ -5707,7 +5710,7 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B3" s="17">
         <v>6810</v>
@@ -5790,7 +5793,7 @@
     </row>
     <row r="4" spans="1:27">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B4" s="17">
         <v>0</v>
@@ -5873,7 +5876,7 @@
     </row>
     <row r="5" spans="1:27">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B5" s="17">
         <v>0</v>
@@ -5956,7 +5959,7 @@
     </row>
     <row r="6" spans="1:27">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B6" s="17">
         <v>0</v>
@@ -6039,7 +6042,7 @@
     </row>
     <row r="7" spans="1:27">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B7" s="17">
         <v>3611</v>
@@ -6122,7 +6125,7 @@
     </row>
     <row r="8" spans="1:27">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B8" s="17">
         <v>90716.67</v>
@@ -6205,7 +6208,7 @@
     </row>
     <row r="9" spans="1:27">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B9" s="20">
         <v>19850</v>
@@ -6288,7 +6291,7 @@
     </row>
     <row r="10" spans="1:27">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B10" s="20">
         <v>4000</v>
@@ -6371,7 +6374,7 @@
     </row>
     <row r="11" spans="1:27">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B11" s="20">
         <v>3611</v>
@@ -6454,7 +6457,7 @@
     </row>
     <row r="12" spans="1:27">
       <c r="A12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B12" s="20">
         <v>50750</v>
@@ -6537,7 +6540,7 @@
     </row>
     <row r="13" spans="1:27">
       <c r="A13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B13" s="20">
         <v>4000</v>
@@ -6630,7 +6633,7 @@
   <dimension ref="A1:AA15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
@@ -6724,7 +6727,7 @@
     </row>
     <row r="2" spans="1:27" ht="18" customHeight="1">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B2">
         <v>13.97</v>
@@ -6807,7 +6810,7 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B3">
         <v>13.97</v>
@@ -6890,7 +6893,7 @@
     </row>
     <row r="4" spans="1:27">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B4">
         <v>13.97</v>
@@ -6973,7 +6976,7 @@
     </row>
     <row r="5" spans="1:27">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B5">
         <v>13.97</v>
@@ -7056,7 +7059,7 @@
     </row>
     <row r="6" spans="1:27">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B6">
         <v>13.97</v>
@@ -7139,7 +7142,7 @@
     </row>
     <row r="7" spans="1:27">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B7">
         <v>13.97</v>
@@ -7222,7 +7225,7 @@
     </row>
     <row r="8" spans="1:27">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B8">
         <v>13.97</v>
@@ -7305,7 +7308,7 @@
     </row>
     <row r="9" spans="1:27">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B9">
         <v>13.97</v>
@@ -7388,7 +7391,7 @@
     </row>
     <row r="10" spans="1:27">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B10">
         <v>13.97</v>
@@ -7471,7 +7474,7 @@
     </row>
     <row r="11" spans="1:27">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B11">
         <v>13.97</v>
@@ -7554,7 +7557,7 @@
     </row>
     <row r="12" spans="1:27">
       <c r="A12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B12">
         <v>13.97</v>
@@ -7637,7 +7640,7 @@
     </row>
     <row r="13" spans="1:27">
       <c r="A13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B13">
         <v>13.97</v>
@@ -7730,10 +7733,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B80F836-AAFA-4D20-813C-A31BE68F85E1}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L17" sqref="I1:L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
@@ -7783,13 +7786,13 @@
         <v>53</v>
       </c>
       <c r="C2" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>79</v>
-      </c>
       <c r="E2" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>55</v>
@@ -7809,13 +7812,13 @@
         <v>53</v>
       </c>
       <c r="C3" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>79</v>
-      </c>
       <c r="E3" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>55</v>
@@ -7829,80 +7832,288 @@
     </row>
     <row r="4" spans="1:8" ht="34.799999999999997">
       <c r="A4" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C4" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>79</v>
-      </c>
       <c r="E4" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>55</v>
       </c>
       <c r="G4" s="11">
-        <v>4127000</v>
+        <v>4128000</v>
       </c>
       <c r="H4" s="24">
-        <v>2020</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="34.799999999999997">
       <c r="A5" s="11" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C5" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>79</v>
-      </c>
       <c r="E5" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>55</v>
       </c>
       <c r="G5" s="11">
-        <v>3624000</v>
+        <v>4127000</v>
       </c>
       <c r="H5" s="24">
-        <v>2022</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="34.799999999999997">
       <c r="A6" s="11" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C6" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>79</v>
-      </c>
       <c r="E6" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>55</v>
       </c>
       <c r="G6" s="11">
+        <v>4000000</v>
+      </c>
+      <c r="H6" s="24">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="34.799999999999997">
+      <c r="A7" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="11">
+        <v>4000000</v>
+      </c>
+      <c r="H7" s="24">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="34.799999999999997">
+      <c r="A8" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="11">
+        <v>4000000</v>
+      </c>
+      <c r="H8" s="24">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="34.799999999999997">
+      <c r="A9" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="11">
+        <v>3804000</v>
+      </c>
+      <c r="H9" s="24">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="34.799999999999997">
+      <c r="A10" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="11">
+        <v>3624000</v>
+      </c>
+      <c r="H10" s="24">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="34.799999999999997">
+      <c r="A11" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="11">
         <v>3239000</v>
       </c>
-      <c r="H6" s="24">
+      <c r="H11" s="24">
         <v>2006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="34.799999999999997">
+      <c r="A12" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="11">
+        <v>1914000</v>
+      </c>
+      <c r="H12" s="24">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="34.799999999999997">
+      <c r="A13" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" s="11">
+        <v>1683000</v>
+      </c>
+      <c r="H13" s="24">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="34.799999999999997">
+      <c r="A14" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" s="11">
+        <v>1280000</v>
+      </c>
+      <c r="H14" s="24">
+        <v>2010</v>
       </c>
     </row>
   </sheetData>
@@ -7914,19 +8125,21 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20EB8FDB-F47B-40C2-8266-6700BCAB2D8C}">
-  <dimension ref="A1:AA13"/>
+  <dimension ref="A1:AF19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="21.296875" customWidth="1"/>
     <col min="2" max="2" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.796875" customWidth="1"/>
+    <col min="32" max="32" width="9.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:32">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -8008,589 +8221,596 @@
       <c r="AA1">
         <v>2050</v>
       </c>
-    </row>
-    <row r="2" spans="1:27">
+      <c r="AF1" s="11"/>
+    </row>
+    <row r="2" spans="1:32">
       <c r="A2" t="s">
         <v>56</v>
       </c>
       <c r="B2" s="19">
-        <v>0.107</v>
+        <v>9.4E-2</v>
       </c>
       <c r="C2" s="19">
-        <v>0.107</v>
+        <v>9.4E-2</v>
       </c>
       <c r="D2" s="19">
-        <v>0.107</v>
+        <v>9.4E-2</v>
       </c>
       <c r="E2" s="19">
-        <v>0.107</v>
+        <v>9.4E-2</v>
       </c>
       <c r="F2" s="19">
-        <v>0.107</v>
+        <v>9.4E-2</v>
       </c>
       <c r="G2" s="19">
-        <v>0.107</v>
+        <v>9.4E-2</v>
       </c>
       <c r="H2" s="19">
-        <v>0.107</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I2" s="19">
-        <v>0.107</v>
+        <v>9.4E-2</v>
       </c>
       <c r="J2" s="19">
-        <v>0.107</v>
+        <v>9.4E-2</v>
       </c>
       <c r="K2" s="19">
-        <v>0.107</v>
+        <v>9.4E-2</v>
       </c>
       <c r="L2" s="19">
-        <v>0.107</v>
+        <v>9.4E-2</v>
       </c>
       <c r="M2" s="19">
-        <v>0.107</v>
+        <v>9.4E-2</v>
       </c>
       <c r="N2" s="19">
-        <v>0.107</v>
+        <v>9.4E-2</v>
       </c>
       <c r="O2" s="19">
-        <v>0.107</v>
+        <v>9.4E-2</v>
       </c>
       <c r="P2" s="19">
-        <v>0.107</v>
+        <v>9.4E-2</v>
       </c>
       <c r="Q2" s="19">
-        <v>0.107</v>
+        <v>9.4E-2</v>
       </c>
       <c r="R2" s="19">
-        <v>0.107</v>
+        <v>9.4E-2</v>
       </c>
       <c r="S2" s="19">
-        <v>0.107</v>
+        <v>9.4E-2</v>
       </c>
       <c r="T2" s="19">
-        <v>0.107</v>
+        <v>9.4E-2</v>
       </c>
       <c r="U2" s="19">
-        <v>0.107</v>
+        <v>9.4E-2</v>
       </c>
       <c r="V2" s="19">
-        <v>0.107</v>
+        <v>9.4E-2</v>
       </c>
       <c r="W2" s="19">
-        <v>0.107</v>
+        <v>9.4E-2</v>
       </c>
       <c r="X2" s="19">
-        <v>0.107</v>
+        <v>9.4E-2</v>
       </c>
       <c r="Y2" s="19">
-        <v>0.107</v>
+        <v>9.4E-2</v>
       </c>
       <c r="Z2" s="19">
-        <v>0.107</v>
+        <v>9.4E-2</v>
       </c>
       <c r="AA2" s="19">
-        <v>0.107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27">
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32">
       <c r="A3" t="s">
         <v>57</v>
       </c>
       <c r="B3" s="19">
-        <v>9.5000000000000001E-2</v>
+        <v>0.108</v>
       </c>
       <c r="C3" s="19">
-        <v>9.5000000000000001E-2</v>
+        <v>0.108</v>
       </c>
       <c r="D3" s="19">
-        <v>9.5000000000000001E-2</v>
+        <v>0.108</v>
       </c>
       <c r="E3" s="19">
-        <v>9.5000000000000001E-2</v>
+        <v>0.108</v>
       </c>
       <c r="F3" s="19">
-        <v>9.5000000000000001E-2</v>
+        <v>0.108</v>
       </c>
       <c r="G3" s="19">
-        <v>9.5000000000000001E-2</v>
+        <v>0.108</v>
       </c>
       <c r="H3" s="19">
-        <v>9.5000000000000001E-2</v>
+        <v>0.108</v>
       </c>
       <c r="I3" s="19">
-        <v>9.5000000000000001E-2</v>
+        <v>0.108</v>
       </c>
       <c r="J3" s="19">
-        <v>9.5000000000000001E-2</v>
+        <v>0.108</v>
       </c>
       <c r="K3" s="19">
-        <v>9.5000000000000001E-2</v>
+        <v>0.108</v>
       </c>
       <c r="L3" s="19">
-        <v>9.5000000000000001E-2</v>
+        <v>0.108</v>
       </c>
       <c r="M3" s="19">
-        <v>9.5000000000000001E-2</v>
+        <v>0.108</v>
       </c>
       <c r="N3" s="19">
-        <v>9.5000000000000001E-2</v>
+        <v>0.108</v>
       </c>
       <c r="O3" s="19">
-        <v>9.5000000000000001E-2</v>
+        <v>0.108</v>
       </c>
       <c r="P3" s="19">
-        <v>9.5000000000000001E-2</v>
+        <v>0.108</v>
       </c>
       <c r="Q3" s="19">
-        <v>9.5000000000000001E-2</v>
+        <v>0.108</v>
       </c>
       <c r="R3" s="19">
-        <v>9.5000000000000001E-2</v>
+        <v>0.108</v>
       </c>
       <c r="S3" s="19">
-        <v>9.5000000000000001E-2</v>
+        <v>0.108</v>
       </c>
       <c r="T3" s="19">
-        <v>9.5000000000000001E-2</v>
+        <v>0.108</v>
       </c>
       <c r="U3" s="19">
-        <v>9.5000000000000001E-2</v>
+        <v>0.108</v>
       </c>
       <c r="V3" s="19">
-        <v>9.5000000000000001E-2</v>
+        <v>0.108</v>
       </c>
       <c r="W3" s="19">
-        <v>9.5000000000000001E-2</v>
+        <v>0.108</v>
       </c>
       <c r="X3" s="19">
-        <v>9.5000000000000001E-2</v>
+        <v>0.108</v>
       </c>
       <c r="Y3" s="19">
-        <v>9.5000000000000001E-2</v>
+        <v>0.108</v>
       </c>
       <c r="Z3" s="19">
-        <v>9.5000000000000001E-2</v>
+        <v>0.108</v>
       </c>
       <c r="AA3" s="19">
-        <v>9.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27">
+        <v>0.108</v>
+      </c>
+      <c r="AC3" s="19"/>
+    </row>
+    <row r="4" spans="1:32">
       <c r="A4" t="s">
         <v>58</v>
       </c>
       <c r="B4" s="19">
-        <v>0.26</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="C4" s="19">
-        <v>0.26</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="D4" s="19">
-        <v>0.26</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="E4" s="19">
-        <v>0.26</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="F4" s="19">
-        <v>0.26</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="G4" s="19">
-        <v>0.26</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="H4" s="19">
-        <v>0.26</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="I4" s="19">
-        <v>0.26</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="J4" s="19">
-        <v>0.26</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="K4" s="19">
-        <v>0.26</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="L4" s="19">
-        <v>0.26</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="M4" s="19">
-        <v>0.26</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="N4" s="19">
-        <v>0.26</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="O4" s="19">
-        <v>0.26</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="P4" s="19">
-        <v>0.26</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="Q4" s="19">
-        <v>0.26</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="R4" s="19">
-        <v>0.26</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="S4" s="19">
-        <v>0.26</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="T4" s="19">
-        <v>0.26</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="U4" s="19">
-        <v>0.26</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="V4" s="19">
-        <v>0.26</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="W4" s="19">
-        <v>0.26</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="X4" s="19">
-        <v>0.26</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="Y4" s="19">
-        <v>0.26</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="Z4" s="19">
-        <v>0.26</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="AA4" s="19">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="AC4" s="19"/>
+    </row>
+    <row r="5" spans="1:32">
       <c r="A5" t="s">
         <v>59</v>
       </c>
       <c r="B5" s="19">
-        <v>4.3999999999999997E-2</v>
+        <v>0.27</v>
       </c>
       <c r="C5" s="19">
-        <v>4.3999999999999997E-2</v>
+        <v>0.27</v>
       </c>
       <c r="D5" s="19">
-        <v>4.3999999999999997E-2</v>
+        <v>0.27</v>
       </c>
       <c r="E5" s="19">
-        <v>4.3999999999999997E-2</v>
+        <v>0.27</v>
       </c>
       <c r="F5" s="19">
-        <v>4.3999999999999997E-2</v>
+        <v>0.27</v>
       </c>
       <c r="G5" s="19">
-        <v>4.3999999999999997E-2</v>
+        <v>0.27</v>
       </c>
       <c r="H5" s="19">
-        <v>4.3999999999999997E-2</v>
+        <v>0.27</v>
       </c>
       <c r="I5" s="19">
-        <v>4.3999999999999997E-2</v>
+        <v>0.27</v>
       </c>
       <c r="J5" s="19">
-        <v>4.3999999999999997E-2</v>
+        <v>0.27</v>
       </c>
       <c r="K5" s="19">
-        <v>4.3999999999999997E-2</v>
+        <v>0.27</v>
       </c>
       <c r="L5" s="19">
-        <v>4.3999999999999997E-2</v>
+        <v>0.27</v>
       </c>
       <c r="M5" s="19">
-        <v>4.3999999999999997E-2</v>
+        <v>0.27</v>
       </c>
       <c r="N5" s="19">
-        <v>4.3999999999999997E-2</v>
+        <v>0.27</v>
       </c>
       <c r="O5" s="19">
-        <v>4.3999999999999997E-2</v>
+        <v>0.27</v>
       </c>
       <c r="P5" s="19">
-        <v>4.3999999999999997E-2</v>
+        <v>0.27</v>
       </c>
       <c r="Q5" s="19">
-        <v>4.3999999999999997E-2</v>
+        <v>0.27</v>
       </c>
       <c r="R5" s="19">
-        <v>4.3999999999999997E-2</v>
+        <v>0.27</v>
       </c>
       <c r="S5" s="19">
-        <v>4.3999999999999997E-2</v>
+        <v>0.27</v>
       </c>
       <c r="T5" s="19">
-        <v>4.3999999999999997E-2</v>
+        <v>0.27</v>
       </c>
       <c r="U5" s="19">
-        <v>4.3999999999999997E-2</v>
+        <v>0.27</v>
       </c>
       <c r="V5" s="19">
-        <v>4.3999999999999997E-2</v>
+        <v>0.27</v>
       </c>
       <c r="W5" s="19">
-        <v>4.3999999999999997E-2</v>
+        <v>0.27</v>
       </c>
       <c r="X5" s="19">
-        <v>4.3999999999999997E-2</v>
+        <v>0.27</v>
       </c>
       <c r="Y5" s="19">
-        <v>4.3999999999999997E-2</v>
+        <v>0.27</v>
       </c>
       <c r="Z5" s="19">
-        <v>4.3999999999999997E-2</v>
+        <v>0.27</v>
       </c>
       <c r="AA5" s="19">
-        <v>4.3999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27">
+        <v>0.27</v>
+      </c>
+      <c r="AC5" s="19"/>
+    </row>
+    <row r="6" spans="1:32">
       <c r="A6" t="s">
         <v>60</v>
       </c>
       <c r="B6" s="19">
-        <v>0.192</v>
+        <v>0.24</v>
       </c>
       <c r="C6" s="19">
-        <v>0.192</v>
+        <v>0.24</v>
       </c>
       <c r="D6" s="19">
-        <v>0.192</v>
+        <v>0.24</v>
       </c>
       <c r="E6" s="19">
-        <v>0.192</v>
+        <v>0.24</v>
       </c>
       <c r="F6" s="19">
-        <v>0.192</v>
+        <v>0.24</v>
       </c>
       <c r="G6" s="19">
-        <v>0.192</v>
+        <v>0.24</v>
       </c>
       <c r="H6" s="19">
-        <v>0.192</v>
+        <v>0.24</v>
       </c>
       <c r="I6" s="19">
-        <v>0.192</v>
+        <v>0.24</v>
       </c>
       <c r="J6" s="19">
-        <v>0.192</v>
+        <v>0.24</v>
       </c>
       <c r="K6" s="19">
-        <v>0.192</v>
+        <v>0.24</v>
       </c>
       <c r="L6" s="19">
-        <v>0.192</v>
+        <v>0.24</v>
       </c>
       <c r="M6" s="19">
-        <v>0.192</v>
+        <v>0.24</v>
       </c>
       <c r="N6" s="19">
-        <v>0.192</v>
+        <v>0.24</v>
       </c>
       <c r="O6" s="19">
-        <v>0.192</v>
+        <v>0.24</v>
       </c>
       <c r="P6" s="19">
-        <v>0.192</v>
+        <v>0.24</v>
       </c>
       <c r="Q6" s="19">
-        <v>0.192</v>
+        <v>0.24</v>
       </c>
       <c r="R6" s="19">
-        <v>0.192</v>
+        <v>0.24</v>
       </c>
       <c r="S6" s="19">
-        <v>0.192</v>
+        <v>0.24</v>
       </c>
       <c r="T6" s="19">
-        <v>0.192</v>
+        <v>0.24</v>
       </c>
       <c r="U6" s="19">
-        <v>0.192</v>
+        <v>0.24</v>
       </c>
       <c r="V6" s="19">
-        <v>0.192</v>
+        <v>0.24</v>
       </c>
       <c r="W6" s="19">
-        <v>0.192</v>
+        <v>0.24</v>
       </c>
       <c r="X6" s="19">
-        <v>0.192</v>
+        <v>0.24</v>
       </c>
       <c r="Y6" s="19">
-        <v>0.192</v>
+        <v>0.24</v>
       </c>
       <c r="Z6" s="19">
-        <v>0.192</v>
+        <v>0.24</v>
       </c>
       <c r="AA6" s="19">
-        <v>0.192</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27">
+        <v>0.24</v>
+      </c>
+      <c r="AC6" s="19"/>
+    </row>
+    <row r="7" spans="1:32">
       <c r="A7" t="s">
         <v>61</v>
       </c>
       <c r="B7" s="19">
+        <v>0.22</v>
+      </c>
+      <c r="C7" s="19">
+        <v>0.22</v>
+      </c>
+      <c r="D7" s="19">
+        <v>0.22</v>
+      </c>
+      <c r="E7" s="19">
+        <v>0.22</v>
+      </c>
+      <c r="F7" s="19">
+        <v>0.22</v>
+      </c>
+      <c r="G7" s="19">
+        <v>0.22</v>
+      </c>
+      <c r="H7" s="19">
+        <v>0.22</v>
+      </c>
+      <c r="I7" s="19">
+        <v>0.22</v>
+      </c>
+      <c r="J7" s="19">
+        <v>0.22</v>
+      </c>
+      <c r="K7" s="19">
+        <v>0.22</v>
+      </c>
+      <c r="L7" s="19">
+        <v>0.22</v>
+      </c>
+      <c r="M7" s="19">
+        <v>0.22</v>
+      </c>
+      <c r="N7" s="19">
+        <v>0.22</v>
+      </c>
+      <c r="O7" s="19">
+        <v>0.22</v>
+      </c>
+      <c r="P7" s="19">
+        <v>0.22</v>
+      </c>
+      <c r="Q7" s="19">
+        <v>0.22</v>
+      </c>
+      <c r="R7" s="19">
+        <v>0.22</v>
+      </c>
+      <c r="S7" s="19">
+        <v>0.22</v>
+      </c>
+      <c r="T7" s="19">
+        <v>0.22</v>
+      </c>
+      <c r="U7" s="19">
+        <v>0.22</v>
+      </c>
+      <c r="V7" s="19">
+        <v>0.22</v>
+      </c>
+      <c r="W7" s="19">
+        <v>0.22</v>
+      </c>
+      <c r="X7" s="19">
+        <v>0.22</v>
+      </c>
+      <c r="Y7" s="19">
+        <v>0.22</v>
+      </c>
+      <c r="Z7" s="19">
+        <v>0.22</v>
+      </c>
+      <c r="AA7" s="19">
+        <v>0.22</v>
+      </c>
+      <c r="AC7" s="19"/>
+    </row>
+    <row r="8" spans="1:32">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="19">
         <v>5.5E-2</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C8" s="19">
         <v>5.5E-2</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D8" s="19">
         <v>5.5E-2</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E8" s="19">
         <v>5.5E-2</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F8" s="19">
         <v>5.5E-2</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G8" s="19">
         <v>5.5E-2</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H8" s="19">
         <v>5.5E-2</v>
       </c>
-      <c r="I7" s="19">
+      <c r="I8" s="19">
         <v>5.5E-2</v>
       </c>
-      <c r="J7" s="19">
+      <c r="J8" s="19">
         <v>5.5E-2</v>
       </c>
-      <c r="K7" s="19">
+      <c r="K8" s="19">
         <v>5.5E-2</v>
       </c>
-      <c r="L7" s="19">
+      <c r="L8" s="19">
         <v>5.5E-2</v>
       </c>
-      <c r="M7" s="19">
+      <c r="M8" s="19">
         <v>5.5E-2</v>
       </c>
-      <c r="N7" s="19">
+      <c r="N8" s="19">
         <v>5.5E-2</v>
       </c>
-      <c r="O7" s="19">
+      <c r="O8" s="19">
         <v>5.5E-2</v>
       </c>
-      <c r="P7" s="19">
+      <c r="P8" s="19">
         <v>5.5E-2</v>
       </c>
-      <c r="Q7" s="19">
+      <c r="Q8" s="19">
         <v>5.5E-2</v>
       </c>
-      <c r="R7" s="19">
+      <c r="R8" s="19">
         <v>5.5E-2</v>
       </c>
-      <c r="S7" s="19">
+      <c r="S8" s="19">
         <v>5.5E-2</v>
       </c>
-      <c r="T7" s="19">
+      <c r="T8" s="19">
         <v>5.5E-2</v>
       </c>
-      <c r="U7" s="19">
+      <c r="U8" s="19">
         <v>5.5E-2</v>
       </c>
-      <c r="V7" s="19">
+      <c r="V8" s="19">
         <v>5.5E-2</v>
       </c>
-      <c r="W7" s="19">
+      <c r="W8" s="19">
         <v>5.5E-2</v>
       </c>
-      <c r="X7" s="19">
+      <c r="X8" s="19">
         <v>5.5E-2</v>
       </c>
-      <c r="Y7" s="19">
+      <c r="Y8" s="19">
         <v>5.5E-2</v>
       </c>
-      <c r="Z7" s="19">
+      <c r="Z8" s="19">
         <v>5.5E-2</v>
       </c>
-      <c r="AA7" s="19">
+      <c r="AA8" s="19">
         <v>5.5E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:27">
-      <c r="A8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B8" s="19">
-        <v>0</v>
-      </c>
-      <c r="C8" s="19">
-        <v>0</v>
-      </c>
-      <c r="D8" s="19">
-        <v>0</v>
-      </c>
-      <c r="E8" s="19">
-        <v>0</v>
-      </c>
-      <c r="F8" s="19">
-        <v>0</v>
-      </c>
-      <c r="G8" s="19">
-        <v>0</v>
-      </c>
-      <c r="H8" s="19">
-        <v>0</v>
-      </c>
-      <c r="I8" s="19">
-        <v>0</v>
-      </c>
-      <c r="J8" s="19">
-        <v>0</v>
-      </c>
-      <c r="K8" s="19">
-        <v>0</v>
-      </c>
-      <c r="L8" s="19">
-        <v>0</v>
-      </c>
-      <c r="M8" s="19">
-        <v>0</v>
-      </c>
-      <c r="N8" s="19">
-        <v>0</v>
-      </c>
-      <c r="O8" s="19">
-        <v>0</v>
-      </c>
-      <c r="P8" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="19">
-        <v>0</v>
-      </c>
-      <c r="R8" s="19">
-        <v>0</v>
-      </c>
-      <c r="S8" s="19">
-        <v>0</v>
-      </c>
-      <c r="T8" s="19">
-        <v>0</v>
-      </c>
-      <c r="U8" s="19">
-        <v>0</v>
-      </c>
-      <c r="V8" s="19">
-        <v>0</v>
-      </c>
-      <c r="W8" s="19">
-        <v>0</v>
-      </c>
-      <c r="X8" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="19">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="19">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27">
+      <c r="AC8" s="19"/>
+    </row>
+    <row r="9" spans="1:32">
       <c r="A9" t="s">
         <v>74</v>
       </c>
@@ -8673,7 +8893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:32">
       <c r="A10" t="s">
         <v>75</v>
       </c>
@@ -8756,173 +8976,173 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:32">
       <c r="A11" t="s">
         <v>76</v>
       </c>
       <c r="B11" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="C11" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="D11" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="E11" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="F11" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="G11" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="H11" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="I11" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="J11" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="K11" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="L11" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="M11" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="N11" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="O11" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="P11" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="R11" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="S11" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="T11" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="U11" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="V11" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="W11" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="X11" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="Y11" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="AA11" s="19">
-        <v>5.5E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32">
       <c r="A12" t="s">
         <v>77</v>
       </c>
       <c r="B12" s="19">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="C12" s="19">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="D12" s="19">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="E12" s="19">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="F12" s="19">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="G12" s="19">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="H12" s="19">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="I12" s="19">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="J12" s="19">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="K12" s="19">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="L12" s="19">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="M12" s="19">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="N12" s="19">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="O12" s="19">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="P12" s="19">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="Q12" s="19">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="R12" s="19">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="S12" s="19">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="T12" s="19">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="U12" s="19">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="V12" s="19">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="W12" s="19">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="X12" s="19">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="Y12" s="19">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="Z12" s="19">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="AA12" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32">
       <c r="A13" t="s">
         <v>78</v>
       </c>
@@ -9004,6 +9224,93 @@
       <c r="AA13" s="19">
         <v>0</v>
       </c>
+    </row>
+    <row r="14" spans="1:32">
+      <c r="A14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="19">
+        <v>0</v>
+      </c>
+      <c r="C14" s="19">
+        <v>0</v>
+      </c>
+      <c r="D14" s="19">
+        <v>0</v>
+      </c>
+      <c r="E14" s="19">
+        <v>0</v>
+      </c>
+      <c r="F14" s="19">
+        <v>0</v>
+      </c>
+      <c r="G14" s="19">
+        <v>0</v>
+      </c>
+      <c r="H14" s="19">
+        <v>0</v>
+      </c>
+      <c r="I14" s="19">
+        <v>0</v>
+      </c>
+      <c r="J14" s="19">
+        <v>0</v>
+      </c>
+      <c r="K14" s="19">
+        <v>0</v>
+      </c>
+      <c r="L14" s="19">
+        <v>0</v>
+      </c>
+      <c r="M14" s="19">
+        <v>0</v>
+      </c>
+      <c r="N14" s="19">
+        <v>0</v>
+      </c>
+      <c r="O14" s="19">
+        <v>0</v>
+      </c>
+      <c r="P14" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="19">
+        <v>0</v>
+      </c>
+      <c r="R14" s="19">
+        <v>0</v>
+      </c>
+      <c r="S14" s="19">
+        <v>0</v>
+      </c>
+      <c r="T14" s="19">
+        <v>0</v>
+      </c>
+      <c r="U14" s="19">
+        <v>0</v>
+      </c>
+      <c r="V14" s="19">
+        <v>0</v>
+      </c>
+      <c r="W14" s="19">
+        <v>0</v>
+      </c>
+      <c r="X14" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="19">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4">
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -9017,7 +9324,7 @@
   <dimension ref="A1:AA30"/>
   <sheetViews>
     <sheetView zoomScale="120" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
@@ -9194,7 +9501,7 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B3" s="17">
         <v>1100000</v>
@@ -9651,7 +9958,7 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B3" s="17">
         <f>B2*2</f>
@@ -10030,7 +10337,7 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B3" s="17">
         <f>B2*2</f>
@@ -10266,7 +10573,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B3">
         <v>20</v>
@@ -10480,8 +10787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E46CCB1-2754-42FA-B5C9-8DABA83A320C}">
   <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="AA3" sqref="AA3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
@@ -10491,7 +10798,7 @@
     <col min="7" max="7" width="14.69921875" bestFit="1" customWidth="1"/>
     <col min="8" max="17" width="12.19921875" bestFit="1" customWidth="1"/>
     <col min="18" max="21" width="11.19921875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.19921875" customWidth="1"/>
     <col min="23" max="23" width="11.19921875" bestFit="1" customWidth="1"/>
     <col min="24" max="27" width="12.19921875" bestFit="1" customWidth="1"/>
   </cols>
@@ -10584,106 +10891,82 @@
         <v>30</v>
       </c>
       <c r="B2" s="25">
-        <v>60000000</v>
+        <v>150000000</v>
       </c>
       <c r="C2" s="25">
-        <f>B2</f>
-        <v>60000000</v>
+        <v>150000000</v>
       </c>
       <c r="D2" s="25">
-        <f t="shared" ref="D2:F2" si="0">C2</f>
-        <v>60000000</v>
+        <v>150000000</v>
       </c>
       <c r="E2" s="25">
-        <f t="shared" si="0"/>
-        <v>60000000</v>
+        <v>150000000</v>
       </c>
       <c r="F2" s="25">
-        <f t="shared" si="0"/>
-        <v>60000000</v>
+        <v>150000000</v>
       </c>
       <c r="G2" s="25">
-        <f>F2*0.9</f>
-        <v>54000000</v>
+        <v>150000000</v>
       </c>
       <c r="H2" s="25">
-        <f>G2</f>
-        <v>54000000</v>
+        <v>150000000</v>
       </c>
       <c r="I2" s="25">
-        <f t="shared" ref="I2:P2" si="1">H2</f>
-        <v>54000000</v>
+        <v>150000000</v>
       </c>
       <c r="J2" s="25">
-        <f t="shared" si="1"/>
-        <v>54000000</v>
+        <v>150000000</v>
       </c>
       <c r="K2" s="25">
-        <f t="shared" si="1"/>
-        <v>54000000</v>
+        <v>150000000</v>
       </c>
       <c r="L2" s="25">
-        <f t="shared" si="1"/>
-        <v>54000000</v>
+        <v>150000000</v>
       </c>
       <c r="M2" s="25">
-        <f t="shared" si="1"/>
-        <v>54000000</v>
+        <v>150000000</v>
       </c>
       <c r="N2" s="25">
-        <f t="shared" si="1"/>
-        <v>54000000</v>
+        <v>150000000</v>
       </c>
       <c r="O2" s="25">
-        <f t="shared" si="1"/>
-        <v>54000000</v>
+        <v>150000000</v>
       </c>
       <c r="P2" s="25">
-        <f t="shared" si="1"/>
-        <v>54000000</v>
+        <v>150000000</v>
       </c>
       <c r="Q2" s="25">
-        <f>B2*0.5</f>
-        <v>30000000</v>
+        <v>150000000</v>
       </c>
       <c r="R2" s="25">
-        <f>Q2</f>
-        <v>30000000</v>
+        <v>150000000</v>
       </c>
       <c r="S2" s="25">
-        <f t="shared" ref="S2:Z2" si="2">R2</f>
-        <v>30000000</v>
+        <v>150000000</v>
       </c>
       <c r="T2" s="25">
-        <f t="shared" si="2"/>
-        <v>30000000</v>
+        <v>150000000</v>
       </c>
       <c r="U2" s="25">
-        <f t="shared" si="2"/>
-        <v>30000000</v>
+        <v>150000000</v>
       </c>
       <c r="V2" s="25">
-        <f t="shared" si="2"/>
-        <v>30000000</v>
+        <v>150000000</v>
       </c>
       <c r="W2" s="25">
-        <f t="shared" si="2"/>
-        <v>30000000</v>
+        <v>150000000</v>
       </c>
       <c r="X2" s="25">
-        <f t="shared" si="2"/>
-        <v>30000000</v>
+        <v>150000000</v>
       </c>
       <c r="Y2" s="25">
-        <f t="shared" si="2"/>
-        <v>30000000</v>
+        <v>150000000</v>
       </c>
       <c r="Z2" s="25">
-        <f t="shared" si="2"/>
-        <v>30000000</v>
+        <v>150000000</v>
       </c>
       <c r="AA2" s="25">
-        <v>0</v>
+        <v>150000000</v>
       </c>
     </row>
     <row r="3" spans="1:27">
@@ -10701,7 +10984,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView zoomScale="124" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
@@ -10735,13 +11018,13 @@
         <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C2" s="14">
         <v>1</v>
       </c>
       <c r="D2" s="14">
-        <v>0.2</v>
+        <v>0.34</v>
       </c>
       <c r="E2" s="14">
         <v>2000</v>
@@ -10753,7 +11036,7 @@
         <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C3" s="14">
         <v>0.1</v>
@@ -10771,7 +11054,7 @@
         <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C4" s="14">
         <v>0.4</v>
@@ -10789,7 +11072,7 @@
         <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C5" s="14">
         <v>0.1</v>
@@ -10807,7 +11090,7 @@
         <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C6" s="14">
         <v>5.8999999999999997E-2</v>
@@ -10825,7 +11108,7 @@
         <v>53</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C7" s="14">
         <v>0.1</v>
@@ -10840,16 +11123,16 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C8" s="14">
         <v>1</v>
       </c>
       <c r="D8" s="14">
-        <v>0.5</v>
+        <v>0.34</v>
       </c>
       <c r="E8" s="14">
         <v>2000</v>
@@ -10857,10 +11140,10 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C9">
         <v>0.39800000000000002</v>
@@ -10874,10 +11157,10 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C10">
         <v>0.02</v>
@@ -10894,7 +11177,7 @@
         <v>54</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C11">
         <v>0.5</v>
@@ -10911,13 +11194,13 @@
         <v>54</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
-      <c r="D12">
-        <v>0.5</v>
+      <c r="D12" s="14">
+        <v>0.34</v>
       </c>
       <c r="E12" s="14">
         <v>2000</v>
@@ -10928,7 +11211,7 @@
         <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C13">
         <v>7.5999999999999998E-2</v>

--- a/database/steel_data.xlsx
+++ b/database/steel_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\PLANiT\github\Costoptimal_steelsystem\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{324DA235-6FB3-499D-A63C-C6C9763C2A6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AED3C01-8B60-44E8-9BBF-92A0351D1D6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3708" yWindow="2652" windowWidth="30852" windowHeight="18948" tabRatio="775" activeTab="7" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
+    <workbookView xWindow="10380" yWindow="3012" windowWidth="28056" windowHeight="18948" tabRatio="775" firstSheet="10" activeTab="18" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="18" r:id="rId1"/>
@@ -22,17 +22,16 @@
     <sheet name="carbonprice" sheetId="25" r:id="rId7"/>
     <sheet name="emission" sheetId="23" r:id="rId8"/>
     <sheet name="technology_fuel_pairs" sheetId="5" r:id="rId9"/>
-    <sheet name="emission_system" sheetId="24" r:id="rId10"/>
-    <sheet name="technology_ei" sheetId="21" r:id="rId11"/>
-    <sheet name="material_efficiency" sheetId="17" r:id="rId12"/>
-    <sheet name="technology_material_pairs" sheetId="6" r:id="rId13"/>
-    <sheet name="material_cost" sheetId="11" r:id="rId14"/>
-    <sheet name="material_emission" sheetId="12" r:id="rId15"/>
-    <sheet name="material_introduction" sheetId="27" r:id="rId16"/>
-    <sheet name="fuel_introduction" sheetId="26" r:id="rId17"/>
-    <sheet name="fuel_cost" sheetId="8" r:id="rId18"/>
-    <sheet name="fuel_efficiency" sheetId="16" r:id="rId19"/>
-    <sheet name="fuel_emission" sheetId="10" r:id="rId20"/>
+    <sheet name="technology_ei" sheetId="21" r:id="rId10"/>
+    <sheet name="material_efficiency" sheetId="17" r:id="rId11"/>
+    <sheet name="technology_material_pairs" sheetId="6" r:id="rId12"/>
+    <sheet name="material_cost" sheetId="11" r:id="rId13"/>
+    <sheet name="material_emission" sheetId="12" r:id="rId14"/>
+    <sheet name="material_introduction" sheetId="27" r:id="rId15"/>
+    <sheet name="fuel_introduction" sheetId="26" r:id="rId16"/>
+    <sheet name="fuel_cost" sheetId="8" r:id="rId17"/>
+    <sheet name="fuel_efficiency" sheetId="16" r:id="rId18"/>
+    <sheet name="fuel_emission" sheetId="10" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -55,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="74">
   <si>
     <t>system</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -223,37 +222,13 @@
     <t>Gwangyang BF5</t>
   </si>
   <si>
-    <t>Pohang BF3</t>
-  </si>
-  <si>
     <t>Gwangyang BF3</t>
-  </si>
-  <si>
-    <t>HyundaiBF1</t>
-  </si>
-  <si>
-    <t>HyundaiBF2</t>
-  </si>
-  <si>
-    <t>HyundaiBF3</t>
-  </si>
-  <si>
-    <t>Pohang BF4</t>
   </si>
   <si>
     <t>Gwangyang BF4</t>
   </si>
   <si>
     <t>Gwangyang BF2</t>
-  </si>
-  <si>
-    <t>Pohang BF2</t>
-  </si>
-  <si>
-    <t>Pohang FNX3</t>
-  </si>
-  <si>
-    <t>Pohang FNX2</t>
   </si>
   <si>
     <t>BAT BF-BOF</t>
@@ -340,7 +315,8 @@
     <t>0.34, 0.097, 0.374, 0.114, 0.059, 0.016</t>
   </si>
   <si>
-    <t>Coke_BB, Thermal coal_BB, BF gas_BB, COG_BB, BOF gas_BB, Natural gas_BB, Hydrogen_BB, Electricity_BB, Steam_BB</t>
+    <t>Coke_BB, Thermal coal_BB, BF gas_BB, COG_BB, BOF gas_BB, Natural gas_BB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -352,7 +328,7 @@
     <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="0.0"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -376,37 +352,6 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="4"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -469,9 +414,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -491,26 +436,19 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -521,16 +459,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1012,1194 +947,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E683ACB1-236C-41D9-AD28-376C61929EF9}">
-  <dimension ref="A1:AA14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:AA14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
-  <cols>
-    <col min="1" max="2" width="17.796875" customWidth="1"/>
-    <col min="3" max="3" width="9.296875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:27">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>2025</v>
-      </c>
-      <c r="C1">
-        <v>2026</v>
-      </c>
-      <c r="D1">
-        <v>2027</v>
-      </c>
-      <c r="E1">
-        <v>2028</v>
-      </c>
-      <c r="F1">
-        <v>2029</v>
-      </c>
-      <c r="G1">
-        <v>2030</v>
-      </c>
-      <c r="H1">
-        <v>2031</v>
-      </c>
-      <c r="I1">
-        <v>2032</v>
-      </c>
-      <c r="J1">
-        <v>2033</v>
-      </c>
-      <c r="K1">
-        <v>2034</v>
-      </c>
-      <c r="L1">
-        <v>2035</v>
-      </c>
-      <c r="M1">
-        <v>2036</v>
-      </c>
-      <c r="N1">
-        <v>2037</v>
-      </c>
-      <c r="O1">
-        <v>2038</v>
-      </c>
-      <c r="P1">
-        <v>2039</v>
-      </c>
-      <c r="Q1">
-        <v>2040</v>
-      </c>
-      <c r="R1">
-        <v>2041</v>
-      </c>
-      <c r="S1">
-        <v>2042</v>
-      </c>
-      <c r="T1">
-        <v>2043</v>
-      </c>
-      <c r="U1">
-        <v>2044</v>
-      </c>
-      <c r="V1">
-        <v>2045</v>
-      </c>
-      <c r="W1">
-        <v>2046</v>
-      </c>
-      <c r="X1">
-        <v>2047</v>
-      </c>
-      <c r="Y1">
-        <v>2048</v>
-      </c>
-      <c r="Z1">
-        <v>2049</v>
-      </c>
-      <c r="AA1">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27">
-      <c r="A2" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" ht="19.2">
-      <c r="A3" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" ht="19.2">
-      <c r="A4" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27">
-      <c r="A5" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" ht="19.2">
-      <c r="A6" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" ht="19.2">
-      <c r="A7" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" ht="19.2">
-      <c r="A8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" ht="19.2">
-      <c r="A9" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" ht="19.2">
-      <c r="A10" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27">
-      <c r="A11" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
-      <c r="Y11">
-        <v>0</v>
-      </c>
-      <c r="Z11">
-        <v>0</v>
-      </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27">
-      <c r="A12" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" ht="19.2">
-      <c r="A13" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
-      <c r="X13">
-        <v>0</v>
-      </c>
-      <c r="Y13">
-        <v>0</v>
-      </c>
-      <c r="Z13">
-        <v>0</v>
-      </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" ht="19.2">
-      <c r="A14" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
-      <c r="X14">
-        <v>0</v>
-      </c>
-      <c r="Y14">
-        <v>0</v>
-      </c>
-      <c r="Z14">
-        <v>0</v>
-      </c>
-      <c r="AA14">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F464A74C-C8AE-4B5D-B335-B05DB5565181}">
   <dimension ref="A1:AA4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A5" sqref="A5:XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
@@ -2292,7 +1044,7 @@
     </row>
     <row r="2" spans="1:27">
       <c r="A2" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2375,7 +1127,7 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -2458,7 +1210,7 @@
     </row>
     <row r="4" spans="1:27">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -2546,12 +1298,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3CF035B-C14B-46B7-A841-579E94220A37}">
   <dimension ref="A1:AA10"/>
   <sheetViews>
-    <sheetView zoomScale="112" zoomScaleNormal="47" workbookViewId="0">
-      <selection activeCell="W13" sqref="V13:W13"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T45" sqref="T45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
@@ -2644,7 +1396,7 @@
     </row>
     <row r="2" spans="1:27">
       <c r="A2" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2727,7 +1479,7 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -2810,7 +1562,7 @@
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -2893,7 +1645,7 @@
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -2976,7 +1728,7 @@
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -3059,7 +1811,7 @@
     </row>
     <row r="7" spans="1:27">
       <c r="A7" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -3142,7 +1894,7 @@
     </row>
     <row r="8" spans="1:27">
       <c r="A8" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -3225,7 +1977,7 @@
     </row>
     <row r="9" spans="1:27">
       <c r="A9" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -3308,7 +2060,7 @@
     </row>
     <row r="10" spans="1:27">
       <c r="A10" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -3396,12 +2148,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83A8B42D-00EB-470C-A0D2-7C21A6CB877B}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView zoomScale="107" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="A11" sqref="A11:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
@@ -3414,184 +2166,175 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="14"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="16" t="s">
-        <v>53</v>
+      <c r="A2" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="9">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9">
+        <v>0</v>
+      </c>
+      <c r="E2" s="9">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0</v>
+      </c>
+      <c r="E3" s="9">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="14">
-        <v>1</v>
-      </c>
-      <c r="D2" s="14">
-        <v>0</v>
-      </c>
-      <c r="E2" s="14">
+      <c r="C5" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0</v>
+      </c>
+      <c r="E5" s="9">
         <v>2000</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="6" spans="1:6">
+      <c r="A6" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="14">
-        <v>0.3</v>
-      </c>
-      <c r="D3" s="14">
-        <v>0</v>
-      </c>
-      <c r="E3" s="14">
+      <c r="C7" s="9">
+        <v>1</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9">
         <v>2000</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="14">
+    <row r="8" spans="1:6" ht="34.799999999999997">
+      <c r="A8" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="9">
         <v>0.01</v>
       </c>
-      <c r="D4" s="14">
-        <v>0</v>
-      </c>
-      <c r="E4" s="14">
+      <c r="D8" s="9">
+        <v>0</v>
+      </c>
+      <c r="E8" s="9">
         <v>2000</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="14">
+    <row r="9" spans="1:6">
+      <c r="A9" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="9">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="9">
         <v>0.01</v>
       </c>
-      <c r="D5" s="14">
-        <v>0</v>
-      </c>
-      <c r="E5" s="14">
+      <c r="D10" s="9">
+        <v>0</v>
+      </c>
+      <c r="E10" s="9">
         <v>2000</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="14">
-        <v>0.3</v>
-      </c>
-      <c r="D6" s="14">
-        <v>0</v>
-      </c>
-      <c r="E6" s="14">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" s="14">
-        <v>1</v>
-      </c>
-      <c r="D7" s="14">
-        <v>0</v>
-      </c>
-      <c r="E7" s="14">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="34.799999999999997">
-      <c r="A8" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="14">
-        <v>0.01</v>
-      </c>
-      <c r="D8" s="14">
-        <v>0</v>
-      </c>
-      <c r="E8" s="14">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="14">
-        <v>1</v>
-      </c>
-      <c r="D9" s="14">
-        <v>0</v>
-      </c>
-      <c r="E9" s="14">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="14">
-        <v>0.01</v>
-      </c>
-      <c r="D10" s="14">
-        <v>0</v>
-      </c>
-      <c r="E10" s="14">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="B11" s="2"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="B12" s="2"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="B13" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3600,12 +2343,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9059A3E3-467F-433B-AAF0-DA415330A29D}">
   <dimension ref="A1:AA10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:AA10"/>
+      <selection activeCell="A11" sqref="A11:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
@@ -3700,7 +2443,7 @@
     </row>
     <row r="2" spans="1:27">
       <c r="A2" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B2" s="5">
         <v>126638.8</v>
@@ -3783,7 +2526,7 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B3" s="5">
         <v>290855.8</v>
@@ -3866,7 +2609,7 @@
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B4" s="5">
         <v>389609</v>
@@ -3949,7 +2692,7 @@
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B5" s="5">
         <v>126638.8</v>
@@ -4032,7 +2775,7 @@
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B6" s="5">
         <v>290855.8</v>
@@ -4115,7 +2858,7 @@
     </row>
     <row r="7" spans="1:27">
       <c r="A7" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B7" s="5">
         <v>389609</v>
@@ -4198,7 +2941,7 @@
     </row>
     <row r="8" spans="1:27" ht="34.799999999999997">
       <c r="A8" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B8" s="5">
         <v>126638.8</v>
@@ -4281,7 +3024,7 @@
     </row>
     <row r="9" spans="1:27">
       <c r="A9" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B9" s="5">
         <v>290855.8</v>
@@ -4364,7 +3107,7 @@
     </row>
     <row r="10" spans="1:27">
       <c r="A10" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B10" s="5">
         <v>389609</v>
@@ -4452,12 +3195,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A95E18AD-1C92-4B5C-962D-792F4AC09175}">
   <dimension ref="A1:AA10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17:F17"/>
+      <selection activeCell="A11" sqref="A11:XFD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
@@ -4552,7 +3295,7 @@
     </row>
     <row r="2" spans="1:27">
       <c r="A2" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B2" s="3">
         <v>0</v>
@@ -4635,7 +3378,7 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B3" s="3">
         <v>0</v>
@@ -4718,7 +3461,7 @@
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B4" s="3">
         <v>0</v>
@@ -4801,7 +3544,7 @@
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -4884,7 +3627,7 @@
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B6" s="3">
         <v>0</v>
@@ -4967,7 +3710,7 @@
     </row>
     <row r="7" spans="1:27">
       <c r="A7" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B7" s="3">
         <v>0</v>
@@ -5050,7 +3793,7 @@
     </row>
     <row r="8" spans="1:27" ht="34.799999999999997">
       <c r="A8" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
@@ -5133,7 +3876,7 @@
     </row>
     <row r="9" spans="1:27">
       <c r="A9" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B9" s="3">
         <v>0</v>
@@ -5216,7 +3959,7 @@
     </row>
     <row r="10" spans="1:27">
       <c r="A10" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B10" s="3">
         <v>0</v>
@@ -5304,7 +4047,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{410A1906-5A3B-4FF2-8752-8FE09D0C1871}">
   <dimension ref="A1:B10"/>
   <sheetViews>
@@ -5327,7 +4070,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B2">
         <v>2000</v>
@@ -5335,7 +4078,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B3">
         <v>2000</v>
@@ -5343,7 +4086,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B4">
         <v>2000</v>
@@ -5351,7 +4094,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B5">
         <v>2000</v>
@@ -5359,7 +4102,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B6">
         <v>2000</v>
@@ -5367,7 +4110,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B7">
         <v>2000</v>
@@ -5375,7 +4118,7 @@
     </row>
     <row r="8" spans="1:2" ht="34.799999999999997">
       <c r="A8" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B8">
         <v>2000</v>
@@ -5383,7 +4126,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B9">
         <v>2000</v>
@@ -5391,7 +4134,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B10">
         <v>2000</v>
@@ -5404,7 +4147,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A811D9-2602-4FD1-8BF7-F55E2D4AA43D}">
   <dimension ref="A1:B13"/>
   <sheetViews>
@@ -5428,7 +4171,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B2">
         <v>2000</v>
@@ -5436,7 +4179,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B3">
         <v>2000</v>
@@ -5444,7 +4187,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B4">
         <v>2000</v>
@@ -5452,7 +4195,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B5">
         <v>2000</v>
@@ -5460,7 +4203,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B6">
         <v>2000</v>
@@ -5468,7 +4211,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B7">
         <v>2000</v>
@@ -5476,7 +4219,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B8">
         <v>2000</v>
@@ -5484,7 +4227,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B9">
         <v>2000</v>
@@ -5492,7 +4235,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B10">
         <v>2000</v>
@@ -5500,7 +4243,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B11">
         <v>2000</v>
@@ -5508,7 +4251,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B12">
         <v>2000</v>
@@ -5516,7 +4259,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B13">
         <v>2000</v>
@@ -5529,11 +4272,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{251D8908-2320-4E41-AC8F-86BD7BF58C9B}">
   <dimension ref="A1:AA13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
@@ -5627,997 +4370,997 @@
     </row>
     <row r="2" spans="1:27">
       <c r="A2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="17">
+        <v>49</v>
+      </c>
+      <c r="B2" s="12">
         <v>16810</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="12">
         <v>16810</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="12">
         <v>16810</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="12">
         <v>16810</v>
       </c>
-      <c r="F2" s="17">
+      <c r="F2" s="12">
         <v>16810</v>
       </c>
-      <c r="G2" s="17">
+      <c r="G2" s="12">
         <v>16810</v>
       </c>
-      <c r="H2" s="17">
+      <c r="H2" s="12">
         <v>16810</v>
       </c>
-      <c r="I2" s="17">
+      <c r="I2" s="12">
         <v>16810</v>
       </c>
-      <c r="J2" s="17">
+      <c r="J2" s="12">
         <v>16810</v>
       </c>
-      <c r="K2" s="17">
+      <c r="K2" s="12">
         <v>16810</v>
       </c>
-      <c r="L2" s="17">
+      <c r="L2" s="12">
         <v>16810</v>
       </c>
-      <c r="M2" s="17">
+      <c r="M2" s="12">
         <v>16810</v>
       </c>
-      <c r="N2" s="17">
+      <c r="N2" s="12">
         <v>16810</v>
       </c>
-      <c r="O2" s="17">
+      <c r="O2" s="12">
         <v>16810</v>
       </c>
-      <c r="P2" s="17">
+      <c r="P2" s="12">
         <v>16810</v>
       </c>
-      <c r="Q2" s="17">
+      <c r="Q2" s="12">
         <v>16810</v>
       </c>
-      <c r="R2" s="17">
+      <c r="R2" s="12">
         <v>16810</v>
       </c>
-      <c r="S2" s="17">
+      <c r="S2" s="12">
         <v>16810</v>
       </c>
-      <c r="T2" s="17">
+      <c r="T2" s="12">
         <v>16810</v>
       </c>
-      <c r="U2" s="17">
+      <c r="U2" s="12">
         <v>16810</v>
       </c>
-      <c r="V2" s="17">
+      <c r="V2" s="12">
         <v>16810</v>
       </c>
-      <c r="W2" s="17">
+      <c r="W2" s="12">
         <v>16810</v>
       </c>
-      <c r="X2" s="17">
+      <c r="X2" s="12">
         <v>16810</v>
       </c>
-      <c r="Y2" s="17">
+      <c r="Y2" s="12">
         <v>16810</v>
       </c>
-      <c r="Z2" s="17">
+      <c r="Z2" s="12">
         <v>16810</v>
       </c>
-      <c r="AA2" s="17">
+      <c r="AA2" s="12">
         <v>16810</v>
       </c>
     </row>
     <row r="3" spans="1:27">
       <c r="A3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="17">
+        <v>50</v>
+      </c>
+      <c r="B3" s="12">
         <v>6810</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="12">
         <v>6810</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="12">
         <v>6810</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="12">
         <v>6810</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="12">
         <v>6810</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="12">
         <v>6810</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="12">
         <v>6810</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="12">
         <v>6810</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J3" s="12">
         <v>6810</v>
       </c>
-      <c r="K3" s="17">
+      <c r="K3" s="12">
         <v>6810</v>
       </c>
-      <c r="L3" s="17">
+      <c r="L3" s="12">
         <v>6810</v>
       </c>
-      <c r="M3" s="17">
+      <c r="M3" s="12">
         <v>6810</v>
       </c>
-      <c r="N3" s="17">
+      <c r="N3" s="12">
         <v>6810</v>
       </c>
-      <c r="O3" s="17">
+      <c r="O3" s="12">
         <v>6810</v>
       </c>
-      <c r="P3" s="17">
+      <c r="P3" s="12">
         <v>6810</v>
       </c>
-      <c r="Q3" s="17">
+      <c r="Q3" s="12">
         <v>6810</v>
       </c>
-      <c r="R3" s="17">
+      <c r="R3" s="12">
         <v>6810</v>
       </c>
-      <c r="S3" s="17">
+      <c r="S3" s="12">
         <v>6810</v>
       </c>
-      <c r="T3" s="17">
+      <c r="T3" s="12">
         <v>6810</v>
       </c>
-      <c r="U3" s="17">
+      <c r="U3" s="12">
         <v>6810</v>
       </c>
-      <c r="V3" s="17">
+      <c r="V3" s="12">
         <v>6810</v>
       </c>
-      <c r="W3" s="17">
+      <c r="W3" s="12">
         <v>6810</v>
       </c>
-      <c r="X3" s="17">
+      <c r="X3" s="12">
         <v>6810</v>
       </c>
-      <c r="Y3" s="17">
+      <c r="Y3" s="12">
         <v>6810</v>
       </c>
-      <c r="Z3" s="17">
+      <c r="Z3" s="12">
         <v>6810</v>
       </c>
-      <c r="AA3" s="17">
+      <c r="AA3" s="12">
         <v>6810</v>
       </c>
     </row>
     <row r="4" spans="1:27">
       <c r="A4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="17">
-        <v>0</v>
-      </c>
-      <c r="C4" s="17">
-        <v>0</v>
-      </c>
-      <c r="D4" s="17">
-        <v>0</v>
-      </c>
-      <c r="E4" s="17">
-        <v>0</v>
-      </c>
-      <c r="F4" s="17">
-        <v>0</v>
-      </c>
-      <c r="G4" s="17">
-        <v>0</v>
-      </c>
-      <c r="H4" s="17">
-        <v>0</v>
-      </c>
-      <c r="I4" s="17">
-        <v>0</v>
-      </c>
-      <c r="J4" s="17">
-        <v>0</v>
-      </c>
-      <c r="K4" s="17">
-        <v>0</v>
-      </c>
-      <c r="L4" s="17">
-        <v>0</v>
-      </c>
-      <c r="M4" s="17">
-        <v>0</v>
-      </c>
-      <c r="N4" s="17">
-        <v>0</v>
-      </c>
-      <c r="O4" s="17">
-        <v>0</v>
-      </c>
-      <c r="P4" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="17">
-        <v>0</v>
-      </c>
-      <c r="R4" s="17">
-        <v>0</v>
-      </c>
-      <c r="S4" s="17">
-        <v>0</v>
-      </c>
-      <c r="T4" s="17">
-        <v>0</v>
-      </c>
-      <c r="U4" s="17">
-        <v>0</v>
-      </c>
-      <c r="V4" s="17">
-        <v>0</v>
-      </c>
-      <c r="W4" s="17">
-        <v>0</v>
-      </c>
-      <c r="X4" s="17">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="17">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="17">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="17">
+        <v>51</v>
+      </c>
+      <c r="B4" s="12">
+        <v>0</v>
+      </c>
+      <c r="C4" s="12">
+        <v>0</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0</v>
+      </c>
+      <c r="F4" s="12">
+        <v>0</v>
+      </c>
+      <c r="G4" s="12">
+        <v>0</v>
+      </c>
+      <c r="H4" s="12">
+        <v>0</v>
+      </c>
+      <c r="I4" s="12">
+        <v>0</v>
+      </c>
+      <c r="J4" s="12">
+        <v>0</v>
+      </c>
+      <c r="K4" s="12">
+        <v>0</v>
+      </c>
+      <c r="L4" s="12">
+        <v>0</v>
+      </c>
+      <c r="M4" s="12">
+        <v>0</v>
+      </c>
+      <c r="N4" s="12">
+        <v>0</v>
+      </c>
+      <c r="O4" s="12">
+        <v>0</v>
+      </c>
+      <c r="P4" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="12">
+        <v>0</v>
+      </c>
+      <c r="R4" s="12">
+        <v>0</v>
+      </c>
+      <c r="S4" s="12">
+        <v>0</v>
+      </c>
+      <c r="T4" s="12">
+        <v>0</v>
+      </c>
+      <c r="U4" s="12">
+        <v>0</v>
+      </c>
+      <c r="V4" s="12">
+        <v>0</v>
+      </c>
+      <c r="W4" s="12">
+        <v>0</v>
+      </c>
+      <c r="X4" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:27">
       <c r="A5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" s="17">
-        <v>0</v>
-      </c>
-      <c r="C5" s="17">
-        <v>0</v>
-      </c>
-      <c r="D5" s="17">
-        <v>0</v>
-      </c>
-      <c r="E5" s="17">
-        <v>0</v>
-      </c>
-      <c r="F5" s="17">
-        <v>0</v>
-      </c>
-      <c r="G5" s="17">
-        <v>0</v>
-      </c>
-      <c r="H5" s="17">
-        <v>0</v>
-      </c>
-      <c r="I5" s="17">
-        <v>0</v>
-      </c>
-      <c r="J5" s="17">
-        <v>0</v>
-      </c>
-      <c r="K5" s="17">
-        <v>0</v>
-      </c>
-      <c r="L5" s="17">
-        <v>0</v>
-      </c>
-      <c r="M5" s="17">
-        <v>0</v>
-      </c>
-      <c r="N5" s="17">
-        <v>0</v>
-      </c>
-      <c r="O5" s="17">
-        <v>0</v>
-      </c>
-      <c r="P5" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="17">
-        <v>0</v>
-      </c>
-      <c r="R5" s="17">
-        <v>0</v>
-      </c>
-      <c r="S5" s="17">
-        <v>0</v>
-      </c>
-      <c r="T5" s="17">
-        <v>0</v>
-      </c>
-      <c r="U5" s="17">
-        <v>0</v>
-      </c>
-      <c r="V5" s="17">
-        <v>0</v>
-      </c>
-      <c r="W5" s="17">
-        <v>0</v>
-      </c>
-      <c r="X5" s="17">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="17">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="17">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="17">
+        <v>52</v>
+      </c>
+      <c r="B5" s="12">
+        <v>0</v>
+      </c>
+      <c r="C5" s="12">
+        <v>0</v>
+      </c>
+      <c r="D5" s="12">
+        <v>0</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0</v>
+      </c>
+      <c r="H5" s="12">
+        <v>0</v>
+      </c>
+      <c r="I5" s="12">
+        <v>0</v>
+      </c>
+      <c r="J5" s="12">
+        <v>0</v>
+      </c>
+      <c r="K5" s="12">
+        <v>0</v>
+      </c>
+      <c r="L5" s="12">
+        <v>0</v>
+      </c>
+      <c r="M5" s="12">
+        <v>0</v>
+      </c>
+      <c r="N5" s="12">
+        <v>0</v>
+      </c>
+      <c r="O5" s="12">
+        <v>0</v>
+      </c>
+      <c r="P5" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="12">
+        <v>0</v>
+      </c>
+      <c r="R5" s="12">
+        <v>0</v>
+      </c>
+      <c r="S5" s="12">
+        <v>0</v>
+      </c>
+      <c r="T5" s="12">
+        <v>0</v>
+      </c>
+      <c r="U5" s="12">
+        <v>0</v>
+      </c>
+      <c r="V5" s="12">
+        <v>0</v>
+      </c>
+      <c r="W5" s="12">
+        <v>0</v>
+      </c>
+      <c r="X5" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:27">
       <c r="A6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" s="17">
-        <v>0</v>
-      </c>
-      <c r="C6" s="17">
-        <v>0</v>
-      </c>
-      <c r="D6" s="17">
-        <v>0</v>
-      </c>
-      <c r="E6" s="17">
-        <v>0</v>
-      </c>
-      <c r="F6" s="17">
-        <v>0</v>
-      </c>
-      <c r="G6" s="17">
-        <v>0</v>
-      </c>
-      <c r="H6" s="17">
-        <v>0</v>
-      </c>
-      <c r="I6" s="17">
-        <v>0</v>
-      </c>
-      <c r="J6" s="17">
-        <v>0</v>
-      </c>
-      <c r="K6" s="17">
-        <v>0</v>
-      </c>
-      <c r="L6" s="17">
-        <v>0</v>
-      </c>
-      <c r="M6" s="17">
-        <v>0</v>
-      </c>
-      <c r="N6" s="17">
-        <v>0</v>
-      </c>
-      <c r="O6" s="17">
-        <v>0</v>
-      </c>
-      <c r="P6" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="17">
-        <v>0</v>
-      </c>
-      <c r="R6" s="17">
-        <v>0</v>
-      </c>
-      <c r="S6" s="17">
-        <v>0</v>
-      </c>
-      <c r="T6" s="17">
-        <v>0</v>
-      </c>
-      <c r="U6" s="17">
-        <v>0</v>
-      </c>
-      <c r="V6" s="17">
-        <v>0</v>
-      </c>
-      <c r="W6" s="17">
-        <v>0</v>
-      </c>
-      <c r="X6" s="17">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="17">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="17">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="17">
+        <v>53</v>
+      </c>
+      <c r="B6" s="12">
+        <v>0</v>
+      </c>
+      <c r="C6" s="12">
+        <v>0</v>
+      </c>
+      <c r="D6" s="12">
+        <v>0</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0</v>
+      </c>
+      <c r="F6" s="12">
+        <v>0</v>
+      </c>
+      <c r="G6" s="12">
+        <v>0</v>
+      </c>
+      <c r="H6" s="12">
+        <v>0</v>
+      </c>
+      <c r="I6" s="12">
+        <v>0</v>
+      </c>
+      <c r="J6" s="12">
+        <v>0</v>
+      </c>
+      <c r="K6" s="12">
+        <v>0</v>
+      </c>
+      <c r="L6" s="12">
+        <v>0</v>
+      </c>
+      <c r="M6" s="12">
+        <v>0</v>
+      </c>
+      <c r="N6" s="12">
+        <v>0</v>
+      </c>
+      <c r="O6" s="12">
+        <v>0</v>
+      </c>
+      <c r="P6" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="12">
+        <v>0</v>
+      </c>
+      <c r="R6" s="12">
+        <v>0</v>
+      </c>
+      <c r="S6" s="12">
+        <v>0</v>
+      </c>
+      <c r="T6" s="12">
+        <v>0</v>
+      </c>
+      <c r="U6" s="12">
+        <v>0</v>
+      </c>
+      <c r="V6" s="12">
+        <v>0</v>
+      </c>
+      <c r="W6" s="12">
+        <v>0</v>
+      </c>
+      <c r="X6" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:27">
       <c r="A7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="17">
+        <v>54</v>
+      </c>
+      <c r="B7" s="12">
         <v>3611</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="12">
         <v>3611</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="12">
         <v>3611</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="12">
         <v>3611</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="12">
         <v>3611</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="12">
         <v>3611</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="12">
         <v>3611</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I7" s="12">
         <v>3611</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J7" s="12">
         <v>3611</v>
       </c>
-      <c r="K7" s="17">
+      <c r="K7" s="12">
         <v>3611</v>
       </c>
-      <c r="L7" s="17">
+      <c r="L7" s="12">
         <v>3611</v>
       </c>
-      <c r="M7" s="17">
+      <c r="M7" s="12">
         <v>3611</v>
       </c>
-      <c r="N7" s="17">
+      <c r="N7" s="12">
         <v>3611</v>
       </c>
-      <c r="O7" s="17">
+      <c r="O7" s="12">
         <v>3611</v>
       </c>
-      <c r="P7" s="17">
+      <c r="P7" s="12">
         <v>3611</v>
       </c>
-      <c r="Q7" s="17">
+      <c r="Q7" s="12">
         <v>3611</v>
       </c>
-      <c r="R7" s="17">
+      <c r="R7" s="12">
         <v>3611</v>
       </c>
-      <c r="S7" s="17">
+      <c r="S7" s="12">
         <v>3611</v>
       </c>
-      <c r="T7" s="17">
+      <c r="T7" s="12">
         <v>3611</v>
       </c>
-      <c r="U7" s="17">
+      <c r="U7" s="12">
         <v>3611</v>
       </c>
-      <c r="V7" s="17">
+      <c r="V7" s="12">
         <v>3611</v>
       </c>
-      <c r="W7" s="17">
+      <c r="W7" s="12">
         <v>3611</v>
       </c>
-      <c r="X7" s="17">
+      <c r="X7" s="12">
         <v>3611</v>
       </c>
-      <c r="Y7" s="17">
+      <c r="Y7" s="12">
         <v>3611</v>
       </c>
-      <c r="Z7" s="17">
+      <c r="Z7" s="12">
         <v>3611</v>
       </c>
-      <c r="AA7" s="17">
+      <c r="AA7" s="12">
         <v>3611</v>
       </c>
     </row>
     <row r="8" spans="1:27">
       <c r="A8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" s="17">
+        <v>66</v>
+      </c>
+      <c r="B8" s="12">
         <v>90716.67</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="12">
         <v>89675</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="12">
         <v>87975</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="12">
         <v>89741.67</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="12">
         <v>89800</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="12">
         <v>86400</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="12">
         <v>83208.33</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="12">
         <v>80783.33</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8" s="12">
         <v>78908.33</v>
       </c>
-      <c r="K8" s="17">
+      <c r="K8" s="12">
         <v>78433.33</v>
       </c>
-      <c r="L8" s="17">
+      <c r="L8" s="12">
         <v>77441.67</v>
       </c>
-      <c r="M8" s="17">
+      <c r="M8" s="12">
         <v>76391.67</v>
       </c>
-      <c r="N8" s="17">
+      <c r="N8" s="12">
         <v>71533.33</v>
       </c>
-      <c r="O8" s="17">
+      <c r="O8" s="12">
         <v>68441.67</v>
       </c>
-      <c r="P8" s="17">
+      <c r="P8" s="12">
         <v>65491.67</v>
       </c>
-      <c r="Q8" s="17">
+      <c r="Q8" s="12">
         <v>62683.33</v>
       </c>
-      <c r="R8" s="17">
+      <c r="R8" s="12">
         <v>60000</v>
       </c>
-      <c r="S8" s="17">
+      <c r="S8" s="12">
         <v>57441.67</v>
       </c>
-      <c r="T8" s="17">
+      <c r="T8" s="12">
         <v>55000</v>
       </c>
-      <c r="U8" s="17">
+      <c r="U8" s="12">
         <v>52666.67</v>
       </c>
-      <c r="V8" s="17">
+      <c r="V8" s="12">
         <v>50441.67</v>
       </c>
-      <c r="W8" s="17">
+      <c r="W8" s="12">
         <v>48316.67</v>
       </c>
-      <c r="X8" s="17">
+      <c r="X8" s="12">
         <v>46275</v>
       </c>
-      <c r="Y8" s="17">
+      <c r="Y8" s="12">
         <v>44325</v>
       </c>
-      <c r="Z8" s="17">
+      <c r="Z8" s="12">
         <v>42458.33</v>
       </c>
-      <c r="AA8" s="17">
+      <c r="AA8" s="12">
         <v>40675</v>
       </c>
     </row>
     <row r="9" spans="1:27">
       <c r="A9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B9" s="20">
+        <v>67</v>
+      </c>
+      <c r="B9" s="15">
         <v>19850</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="15">
         <v>19850</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="15">
         <v>19850</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="15">
         <v>19850</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="15">
         <v>19850</v>
       </c>
-      <c r="G9" s="20">
+      <c r="G9" s="15">
         <v>19850</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="15">
         <v>19850</v>
       </c>
-      <c r="I9" s="20">
+      <c r="I9" s="15">
         <v>19850</v>
       </c>
-      <c r="J9" s="20">
+      <c r="J9" s="15">
         <v>19850</v>
       </c>
-      <c r="K9" s="20">
+      <c r="K9" s="15">
         <v>19850</v>
       </c>
-      <c r="L9" s="20">
+      <c r="L9" s="15">
         <v>19850</v>
       </c>
-      <c r="M9" s="20">
+      <c r="M9" s="15">
         <v>19850</v>
       </c>
-      <c r="N9" s="20">
+      <c r="N9" s="15">
         <v>19850</v>
       </c>
-      <c r="O9" s="20">
+      <c r="O9" s="15">
         <v>19850</v>
       </c>
-      <c r="P9" s="20">
+      <c r="P9" s="15">
         <v>19850</v>
       </c>
-      <c r="Q9" s="20">
+      <c r="Q9" s="15">
         <v>19850</v>
       </c>
-      <c r="R9" s="20">
+      <c r="R9" s="15">
         <v>19850</v>
       </c>
-      <c r="S9" s="20">
+      <c r="S9" s="15">
         <v>19850</v>
       </c>
-      <c r="T9" s="20">
+      <c r="T9" s="15">
         <v>19850</v>
       </c>
-      <c r="U9" s="20">
+      <c r="U9" s="15">
         <v>19850</v>
       </c>
-      <c r="V9" s="20">
+      <c r="V9" s="15">
         <v>19850</v>
       </c>
-      <c r="W9" s="20">
+      <c r="W9" s="15">
         <v>19850</v>
       </c>
-      <c r="X9" s="20">
+      <c r="X9" s="15">
         <v>19850</v>
       </c>
-      <c r="Y9" s="20">
+      <c r="Y9" s="15">
         <v>19850</v>
       </c>
-      <c r="Z9" s="20">
+      <c r="Z9" s="15">
         <v>19850</v>
       </c>
-      <c r="AA9" s="20">
+      <c r="AA9" s="15">
         <v>19850</v>
       </c>
     </row>
     <row r="10" spans="1:27">
       <c r="A10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B10" s="20">
+        <v>68</v>
+      </c>
+      <c r="B10" s="15">
         <v>4000</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="15">
         <v>4000</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="15">
         <v>4000</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="15">
         <v>4000</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="15">
         <v>4000</v>
       </c>
-      <c r="G10" s="20">
+      <c r="G10" s="15">
         <v>4000</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10" s="15">
         <v>4000</v>
       </c>
-      <c r="I10" s="20">
+      <c r="I10" s="15">
         <v>4000</v>
       </c>
-      <c r="J10" s="20">
+      <c r="J10" s="15">
         <v>4000</v>
       </c>
-      <c r="K10" s="20">
+      <c r="K10" s="15">
         <v>4000</v>
       </c>
-      <c r="L10" s="20">
+      <c r="L10" s="15">
         <v>4000</v>
       </c>
-      <c r="M10" s="20">
+      <c r="M10" s="15">
         <v>4000</v>
       </c>
-      <c r="N10" s="20">
+      <c r="N10" s="15">
         <v>4000</v>
       </c>
-      <c r="O10" s="20">
+      <c r="O10" s="15">
         <v>4000</v>
       </c>
-      <c r="P10" s="20">
+      <c r="P10" s="15">
         <v>4000</v>
       </c>
-      <c r="Q10" s="20">
+      <c r="Q10" s="15">
         <v>4000</v>
       </c>
-      <c r="R10" s="20">
+      <c r="R10" s="15">
         <v>4000</v>
       </c>
-      <c r="S10" s="20">
+      <c r="S10" s="15">
         <v>4000</v>
       </c>
-      <c r="T10" s="20">
+      <c r="T10" s="15">
         <v>4000</v>
       </c>
-      <c r="U10" s="20">
+      <c r="U10" s="15">
         <v>4000</v>
       </c>
-      <c r="V10" s="20">
+      <c r="V10" s="15">
         <v>4000</v>
       </c>
-      <c r="W10" s="20">
+      <c r="W10" s="15">
         <v>4000</v>
       </c>
-      <c r="X10" s="20">
+      <c r="X10" s="15">
         <v>4000</v>
       </c>
-      <c r="Y10" s="20">
+      <c r="Y10" s="15">
         <v>4000</v>
       </c>
-      <c r="Z10" s="20">
+      <c r="Z10" s="15">
         <v>4000</v>
       </c>
-      <c r="AA10" s="20">
+      <c r="AA10" s="15">
         <v>4000</v>
       </c>
     </row>
     <row r="11" spans="1:27">
       <c r="A11" t="s">
-        <v>77</v>
-      </c>
-      <c r="B11" s="20">
+        <v>69</v>
+      </c>
+      <c r="B11" s="15">
         <v>3611</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="15">
         <v>3611</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="15">
         <v>3611</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="15">
         <v>3611</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="15">
         <v>3611</v>
       </c>
-      <c r="G11" s="20">
+      <c r="G11" s="15">
         <v>3611</v>
       </c>
-      <c r="H11" s="20">
+      <c r="H11" s="15">
         <v>3611</v>
       </c>
-      <c r="I11" s="20">
+      <c r="I11" s="15">
         <v>3611</v>
       </c>
-      <c r="J11" s="20">
+      <c r="J11" s="15">
         <v>3611</v>
       </c>
-      <c r="K11" s="20">
+      <c r="K11" s="15">
         <v>3611</v>
       </c>
-      <c r="L11" s="20">
+      <c r="L11" s="15">
         <v>3611</v>
       </c>
-      <c r="M11" s="20">
+      <c r="M11" s="15">
         <v>3611</v>
       </c>
-      <c r="N11" s="20">
+      <c r="N11" s="15">
         <v>3611</v>
       </c>
-      <c r="O11" s="20">
+      <c r="O11" s="15">
         <v>3611</v>
       </c>
-      <c r="P11" s="20">
+      <c r="P11" s="15">
         <v>3611</v>
       </c>
-      <c r="Q11" s="20">
+      <c r="Q11" s="15">
         <v>3611</v>
       </c>
-      <c r="R11" s="20">
+      <c r="R11" s="15">
         <v>3611</v>
       </c>
-      <c r="S11" s="20">
+      <c r="S11" s="15">
         <v>3611</v>
       </c>
-      <c r="T11" s="20">
+      <c r="T11" s="15">
         <v>3611</v>
       </c>
-      <c r="U11" s="20">
+      <c r="U11" s="15">
         <v>3611</v>
       </c>
-      <c r="V11" s="20">
+      <c r="V11" s="15">
         <v>3611</v>
       </c>
-      <c r="W11" s="20">
+      <c r="W11" s="15">
         <v>3611</v>
       </c>
-      <c r="X11" s="20">
+      <c r="X11" s="15">
         <v>3611</v>
       </c>
-      <c r="Y11" s="20">
+      <c r="Y11" s="15">
         <v>3611</v>
       </c>
-      <c r="Z11" s="20">
+      <c r="Z11" s="15">
         <v>3611</v>
       </c>
-      <c r="AA11" s="20">
+      <c r="AA11" s="15">
         <v>3611</v>
       </c>
     </row>
     <row r="12" spans="1:27">
       <c r="A12" t="s">
-        <v>78</v>
-      </c>
-      <c r="B12" s="20">
+        <v>70</v>
+      </c>
+      <c r="B12" s="15">
         <v>50750</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="15">
         <v>50750</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="15">
         <v>50750</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="15">
         <v>50750</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="15">
         <v>50750</v>
       </c>
-      <c r="G12" s="20">
+      <c r="G12" s="15">
         <v>50750</v>
       </c>
-      <c r="H12" s="20">
+      <c r="H12" s="15">
         <v>50750</v>
       </c>
-      <c r="I12" s="20">
+      <c r="I12" s="15">
         <v>50750</v>
       </c>
-      <c r="J12" s="20">
+      <c r="J12" s="15">
         <v>50750</v>
       </c>
-      <c r="K12" s="20">
+      <c r="K12" s="15">
         <v>50750</v>
       </c>
-      <c r="L12" s="20">
+      <c r="L12" s="15">
         <v>50750</v>
       </c>
-      <c r="M12" s="20">
+      <c r="M12" s="15">
         <v>50750</v>
       </c>
-      <c r="N12" s="20">
+      <c r="N12" s="15">
         <v>50750</v>
       </c>
-      <c r="O12" s="20">
+      <c r="O12" s="15">
         <v>50750</v>
       </c>
-      <c r="P12" s="20">
+      <c r="P12" s="15">
         <v>50750</v>
       </c>
-      <c r="Q12" s="20">
+      <c r="Q12" s="15">
         <v>50750</v>
       </c>
-      <c r="R12" s="20">
+      <c r="R12" s="15">
         <v>50750</v>
       </c>
-      <c r="S12" s="20">
+      <c r="S12" s="15">
         <v>50750</v>
       </c>
-      <c r="T12" s="20">
+      <c r="T12" s="15">
         <v>50750</v>
       </c>
-      <c r="U12" s="20">
+      <c r="U12" s="15">
         <v>50750</v>
       </c>
-      <c r="V12" s="20">
+      <c r="V12" s="15">
         <v>50750</v>
       </c>
-      <c r="W12" s="20">
+      <c r="W12" s="15">
         <v>50750</v>
       </c>
-      <c r="X12" s="20">
+      <c r="X12" s="15">
         <v>50750</v>
       </c>
-      <c r="Y12" s="20">
+      <c r="Y12" s="15">
         <v>50750</v>
       </c>
-      <c r="Z12" s="20">
+      <c r="Z12" s="15">
         <v>50750</v>
       </c>
-      <c r="AA12" s="20">
+      <c r="AA12" s="15">
         <v>50750</v>
       </c>
     </row>
     <row r="13" spans="1:27">
       <c r="A13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B13" s="20">
+        <v>71</v>
+      </c>
+      <c r="B13" s="15">
         <v>4000</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="15">
         <v>4000</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="15">
         <v>4000</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="15">
         <v>4000</v>
       </c>
-      <c r="F13" s="20">
+      <c r="F13" s="15">
         <v>4000</v>
       </c>
-      <c r="G13" s="20">
+      <c r="G13" s="15">
         <v>4000</v>
       </c>
-      <c r="H13" s="20">
+      <c r="H13" s="15">
         <v>4000</v>
       </c>
-      <c r="I13" s="20">
+      <c r="I13" s="15">
         <v>4000</v>
       </c>
-      <c r="J13" s="20">
+      <c r="J13" s="15">
         <v>4000</v>
       </c>
-      <c r="K13" s="20">
+      <c r="K13" s="15">
         <v>4000</v>
       </c>
-      <c r="L13" s="20">
+      <c r="L13" s="15">
         <v>4000</v>
       </c>
-      <c r="M13" s="20">
+      <c r="M13" s="15">
         <v>4000</v>
       </c>
-      <c r="N13" s="20">
+      <c r="N13" s="15">
         <v>4000</v>
       </c>
-      <c r="O13" s="20">
+      <c r="O13" s="15">
         <v>4000</v>
       </c>
-      <c r="P13" s="20">
+      <c r="P13" s="15">
         <v>4000</v>
       </c>
-      <c r="Q13" s="20">
+      <c r="Q13" s="15">
         <v>4000</v>
       </c>
-      <c r="R13" s="20">
+      <c r="R13" s="15">
         <v>4000</v>
       </c>
-      <c r="S13" s="20">
+      <c r="S13" s="15">
         <v>4000</v>
       </c>
-      <c r="T13" s="20">
+      <c r="T13" s="15">
         <v>4000</v>
       </c>
-      <c r="U13" s="20">
+      <c r="U13" s="15">
         <v>4000</v>
       </c>
-      <c r="V13" s="20">
+      <c r="V13" s="15">
         <v>4000</v>
       </c>
-      <c r="W13" s="20">
+      <c r="W13" s="15">
         <v>4000</v>
       </c>
-      <c r="X13" s="20">
+      <c r="X13" s="15">
         <v>4000</v>
       </c>
-      <c r="Y13" s="20">
+      <c r="Y13" s="15">
         <v>4000</v>
       </c>
-      <c r="Z13" s="20">
+      <c r="Z13" s="15">
         <v>4000</v>
       </c>
-      <c r="AA13" s="20">
+      <c r="AA13" s="15">
         <v>4000</v>
       </c>
     </row>
@@ -6628,11 +5371,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DC1A385-697C-4C01-B126-79A22BD0CC72}">
   <dimension ref="A1:AA15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -6727,7 +5470,7 @@
     </row>
     <row r="2" spans="1:27" ht="18" customHeight="1">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B2">
         <v>13.97</v>
@@ -6810,7 +5553,7 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B3">
         <v>13.97</v>
@@ -6893,7 +5636,7 @@
     </row>
     <row r="4" spans="1:27">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B4">
         <v>13.97</v>
@@ -6976,7 +5719,7 @@
     </row>
     <row r="5" spans="1:27">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B5">
         <v>13.97</v>
@@ -7059,7 +5802,7 @@
     </row>
     <row r="6" spans="1:27">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B6">
         <v>13.97</v>
@@ -7142,7 +5885,7 @@
     </row>
     <row r="7" spans="1:27">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B7">
         <v>13.97</v>
@@ -7225,7 +5968,7 @@
     </row>
     <row r="8" spans="1:27">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B8">
         <v>13.97</v>
@@ -7308,7 +6051,7 @@
     </row>
     <row r="9" spans="1:27">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B9">
         <v>13.97</v>
@@ -7391,7 +6134,7 @@
     </row>
     <row r="10" spans="1:27">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B10">
         <v>13.97</v>
@@ -7474,7 +6217,7 @@
     </row>
     <row r="11" spans="1:27">
       <c r="A11" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B11">
         <v>13.97</v>
@@ -7557,7 +6300,7 @@
     </row>
     <row r="12" spans="1:27">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B12">
         <v>13.97</v>
@@ -7640,7 +6383,7 @@
     </row>
     <row r="13" spans="1:27">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B13">
         <v>13.97</v>
@@ -7722,7 +6465,7 @@
       </c>
     </row>
     <row r="15" spans="1:27">
-      <c r="B15" s="22"/>
+      <c r="B15" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -7731,404 +6474,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B80F836-AAFA-4D20-813C-A31BE68F85E1}">
-  <dimension ref="A1:H14"/>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20EB8FDB-F47B-40C2-8266-6700BCAB2D8C}">
+  <dimension ref="A1:AF14"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L17" sqref="I1:L17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
-  <cols>
-    <col min="1" max="1" width="19.5" customWidth="1"/>
-    <col min="2" max="2" width="9.69921875" customWidth="1"/>
-    <col min="3" max="3" width="90.5" customWidth="1"/>
-    <col min="4" max="4" width="58.19921875" customWidth="1"/>
-    <col min="5" max="5" width="30.796875" customWidth="1"/>
-    <col min="6" max="6" width="21.19921875" customWidth="1"/>
-    <col min="7" max="7" width="10.296875" customWidth="1"/>
-    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.296875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="34.799999999999997">
-      <c r="A2" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" s="11">
-        <v>4722000</v>
-      </c>
-      <c r="H2" s="24">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="34.799999999999997">
-      <c r="A3" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3" s="11">
-        <v>4237000</v>
-      </c>
-      <c r="H3" s="24">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="34.799999999999997">
-      <c r="A4" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G4" s="11">
-        <v>4128000</v>
-      </c>
-      <c r="H4" s="24">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="34.799999999999997">
-      <c r="A5" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G5" s="11">
-        <v>4127000</v>
-      </c>
-      <c r="H5" s="24">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="34.799999999999997">
-      <c r="A6" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G6" s="11">
-        <v>4000000</v>
-      </c>
-      <c r="H6" s="24">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="34.799999999999997">
-      <c r="A7" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G7" s="11">
-        <v>4000000</v>
-      </c>
-      <c r="H7" s="24">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="34.799999999999997">
-      <c r="A8" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G8" s="11">
-        <v>4000000</v>
-      </c>
-      <c r="H8" s="24">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="34.799999999999997">
-      <c r="A9" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" s="11">
-        <v>3804000</v>
-      </c>
-      <c r="H9" s="24">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="34.799999999999997">
-      <c r="A10" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" s="11">
-        <v>3624000</v>
-      </c>
-      <c r="H10" s="24">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="34.799999999999997">
-      <c r="A11" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" s="11">
-        <v>3239000</v>
-      </c>
-      <c r="H11" s="24">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="34.799999999999997">
-      <c r="A12" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G12" s="11">
-        <v>1914000</v>
-      </c>
-      <c r="H12" s="24">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="34.799999999999997">
-      <c r="A13" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G13" s="11">
-        <v>1683000</v>
-      </c>
-      <c r="H13" s="24">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="34.799999999999997">
-      <c r="A14" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G14" s="11">
-        <v>1280000</v>
-      </c>
-      <c r="H14" s="24">
-        <v>2010</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20EB8FDB-F47B-40C2-8266-6700BCAB2D8C}">
-  <dimension ref="A1:AF19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
@@ -8221,1096 +6572,1275 @@
       <c r="AA1">
         <v>2050</v>
       </c>
-      <c r="AF1" s="11"/>
+      <c r="AF1" s="6"/>
     </row>
     <row r="2" spans="1:32">
       <c r="A2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="19">
+        <v>48</v>
+      </c>
+      <c r="B2" s="14">
         <v>9.4E-2</v>
       </c>
-      <c r="C2" s="19">
+      <c r="C2" s="14">
         <v>9.4E-2</v>
       </c>
-      <c r="D2" s="19">
+      <c r="D2" s="14">
         <v>9.4E-2</v>
       </c>
-      <c r="E2" s="19">
+      <c r="E2" s="14">
         <v>9.4E-2</v>
       </c>
-      <c r="F2" s="19">
+      <c r="F2" s="14">
         <v>9.4E-2</v>
       </c>
-      <c r="G2" s="19">
+      <c r="G2" s="14">
         <v>9.4E-2</v>
       </c>
-      <c r="H2" s="19">
+      <c r="H2" s="14">
         <v>9.4E-2</v>
       </c>
-      <c r="I2" s="19">
+      <c r="I2" s="14">
         <v>9.4E-2</v>
       </c>
-      <c r="J2" s="19">
+      <c r="J2" s="14">
         <v>9.4E-2</v>
       </c>
-      <c r="K2" s="19">
+      <c r="K2" s="14">
         <v>9.4E-2</v>
       </c>
-      <c r="L2" s="19">
+      <c r="L2" s="14">
         <v>9.4E-2</v>
       </c>
-      <c r="M2" s="19">
+      <c r="M2" s="14">
         <v>9.4E-2</v>
       </c>
-      <c r="N2" s="19">
+      <c r="N2" s="14">
         <v>9.4E-2</v>
       </c>
-      <c r="O2" s="19">
+      <c r="O2" s="14">
         <v>9.4E-2</v>
       </c>
-      <c r="P2" s="19">
+      <c r="P2" s="14">
         <v>9.4E-2</v>
       </c>
-      <c r="Q2" s="19">
+      <c r="Q2" s="14">
         <v>9.4E-2</v>
       </c>
-      <c r="R2" s="19">
+      <c r="R2" s="14">
         <v>9.4E-2</v>
       </c>
-      <c r="S2" s="19">
+      <c r="S2" s="14">
         <v>9.4E-2</v>
       </c>
-      <c r="T2" s="19">
+      <c r="T2" s="14">
         <v>9.4E-2</v>
       </c>
-      <c r="U2" s="19">
+      <c r="U2" s="14">
         <v>9.4E-2</v>
       </c>
-      <c r="V2" s="19">
+      <c r="V2" s="14">
         <v>9.4E-2</v>
       </c>
-      <c r="W2" s="19">
+      <c r="W2" s="14">
         <v>9.4E-2</v>
       </c>
-      <c r="X2" s="19">
+      <c r="X2" s="14">
         <v>9.4E-2</v>
       </c>
-      <c r="Y2" s="19">
+      <c r="Y2" s="14">
         <v>9.4E-2</v>
       </c>
-      <c r="Z2" s="19">
+      <c r="Z2" s="14">
         <v>9.4E-2</v>
       </c>
-      <c r="AA2" s="19">
+      <c r="AA2" s="14">
         <v>9.4E-2</v>
       </c>
     </row>
     <row r="3" spans="1:32">
       <c r="A3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="19">
+        <v>49</v>
+      </c>
+      <c r="B3" s="14">
         <v>0.108</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="14">
         <v>0.108</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="14">
         <v>0.108</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="14">
         <v>0.108</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="14">
         <v>0.108</v>
       </c>
-      <c r="G3" s="19">
+      <c r="G3" s="14">
         <v>0.108</v>
       </c>
-      <c r="H3" s="19">
+      <c r="H3" s="14">
         <v>0.108</v>
       </c>
-      <c r="I3" s="19">
+      <c r="I3" s="14">
         <v>0.108</v>
       </c>
-      <c r="J3" s="19">
+      <c r="J3" s="14">
         <v>0.108</v>
       </c>
-      <c r="K3" s="19">
+      <c r="K3" s="14">
         <v>0.108</v>
       </c>
-      <c r="L3" s="19">
+      <c r="L3" s="14">
         <v>0.108</v>
       </c>
-      <c r="M3" s="19">
+      <c r="M3" s="14">
         <v>0.108</v>
       </c>
-      <c r="N3" s="19">
+      <c r="N3" s="14">
         <v>0.108</v>
       </c>
-      <c r="O3" s="19">
+      <c r="O3" s="14">
         <v>0.108</v>
       </c>
-      <c r="P3" s="19">
+      <c r="P3" s="14">
         <v>0.108</v>
       </c>
-      <c r="Q3" s="19">
+      <c r="Q3" s="14">
         <v>0.108</v>
       </c>
-      <c r="R3" s="19">
+      <c r="R3" s="14">
         <v>0.108</v>
       </c>
-      <c r="S3" s="19">
+      <c r="S3" s="14">
         <v>0.108</v>
       </c>
-      <c r="T3" s="19">
+      <c r="T3" s="14">
         <v>0.108</v>
       </c>
-      <c r="U3" s="19">
+      <c r="U3" s="14">
         <v>0.108</v>
       </c>
-      <c r="V3" s="19">
+      <c r="V3" s="14">
         <v>0.108</v>
       </c>
-      <c r="W3" s="19">
+      <c r="W3" s="14">
         <v>0.108</v>
       </c>
-      <c r="X3" s="19">
+      <c r="X3" s="14">
         <v>0.108</v>
       </c>
-      <c r="Y3" s="19">
+      <c r="Y3" s="14">
         <v>0.108</v>
       </c>
-      <c r="Z3" s="19">
+      <c r="Z3" s="14">
         <v>0.108</v>
       </c>
-      <c r="AA3" s="19">
+      <c r="AA3" s="14">
         <v>0.108</v>
       </c>
-      <c r="AC3" s="19"/>
+      <c r="AC3" s="14"/>
     </row>
     <row r="4" spans="1:32">
       <c r="A4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="19">
+        <v>50</v>
+      </c>
+      <c r="B4" s="14">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="14">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="14">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="14">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="14">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="14">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="14">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="I4" s="19">
+      <c r="I4" s="14">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="J4" s="19">
+      <c r="J4" s="14">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="K4" s="19">
+      <c r="K4" s="14">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="L4" s="19">
+      <c r="L4" s="14">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="M4" s="19">
+      <c r="M4" s="14">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="N4" s="19">
+      <c r="N4" s="14">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="O4" s="19">
+      <c r="O4" s="14">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="P4" s="19">
+      <c r="P4" s="14">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="Q4" s="19">
+      <c r="Q4" s="14">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="R4" s="19">
+      <c r="R4" s="14">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="S4" s="19">
+      <c r="S4" s="14">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="T4" s="19">
+      <c r="T4" s="14">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="U4" s="19">
+      <c r="U4" s="14">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="V4" s="19">
+      <c r="V4" s="14">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="W4" s="19">
+      <c r="W4" s="14">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="X4" s="19">
+      <c r="X4" s="14">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="Y4" s="19">
+      <c r="Y4" s="14">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="Z4" s="19">
+      <c r="Z4" s="14">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="AA4" s="19">
+      <c r="AA4" s="14">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="AC4" s="19"/>
+      <c r="AC4" s="14"/>
     </row>
     <row r="5" spans="1:32">
       <c r="A5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="19">
+        <v>51</v>
+      </c>
+      <c r="B5" s="14">
         <v>0.27</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="14">
         <v>0.27</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="14">
         <v>0.27</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="14">
         <v>0.27</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="14">
         <v>0.27</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="14">
         <v>0.27</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="14">
         <v>0.27</v>
       </c>
-      <c r="I5" s="19">
+      <c r="I5" s="14">
         <v>0.27</v>
       </c>
-      <c r="J5" s="19">
+      <c r="J5" s="14">
         <v>0.27</v>
       </c>
-      <c r="K5" s="19">
+      <c r="K5" s="14">
         <v>0.27</v>
       </c>
-      <c r="L5" s="19">
+      <c r="L5" s="14">
         <v>0.27</v>
       </c>
-      <c r="M5" s="19">
+      <c r="M5" s="14">
         <v>0.27</v>
       </c>
-      <c r="N5" s="19">
+      <c r="N5" s="14">
         <v>0.27</v>
       </c>
-      <c r="O5" s="19">
+      <c r="O5" s="14">
         <v>0.27</v>
       </c>
-      <c r="P5" s="19">
+      <c r="P5" s="14">
         <v>0.27</v>
       </c>
-      <c r="Q5" s="19">
+      <c r="Q5" s="14">
         <v>0.27</v>
       </c>
-      <c r="R5" s="19">
+      <c r="R5" s="14">
         <v>0.27</v>
       </c>
-      <c r="S5" s="19">
+      <c r="S5" s="14">
         <v>0.27</v>
       </c>
-      <c r="T5" s="19">
+      <c r="T5" s="14">
         <v>0.27</v>
       </c>
-      <c r="U5" s="19">
+      <c r="U5" s="14">
         <v>0.27</v>
       </c>
-      <c r="V5" s="19">
+      <c r="V5" s="14">
         <v>0.27</v>
       </c>
-      <c r="W5" s="19">
+      <c r="W5" s="14">
         <v>0.27</v>
       </c>
-      <c r="X5" s="19">
+      <c r="X5" s="14">
         <v>0.27</v>
       </c>
-      <c r="Y5" s="19">
+      <c r="Y5" s="14">
         <v>0.27</v>
       </c>
-      <c r="Z5" s="19">
+      <c r="Z5" s="14">
         <v>0.27</v>
       </c>
-      <c r="AA5" s="19">
+      <c r="AA5" s="14">
         <v>0.27</v>
       </c>
-      <c r="AC5" s="19"/>
+      <c r="AC5" s="14"/>
     </row>
     <row r="6" spans="1:32">
       <c r="A6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="19">
+        <v>52</v>
+      </c>
+      <c r="B6" s="14">
         <v>0.24</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="14">
         <v>0.24</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="14">
         <v>0.24</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="14">
         <v>0.24</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="14">
         <v>0.24</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="14">
         <v>0.24</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="14">
         <v>0.24</v>
       </c>
-      <c r="I6" s="19">
+      <c r="I6" s="14">
         <v>0.24</v>
       </c>
-      <c r="J6" s="19">
+      <c r="J6" s="14">
         <v>0.24</v>
       </c>
-      <c r="K6" s="19">
+      <c r="K6" s="14">
         <v>0.24</v>
       </c>
-      <c r="L6" s="19">
+      <c r="L6" s="14">
         <v>0.24</v>
       </c>
-      <c r="M6" s="19">
+      <c r="M6" s="14">
         <v>0.24</v>
       </c>
-      <c r="N6" s="19">
+      <c r="N6" s="14">
         <v>0.24</v>
       </c>
-      <c r="O6" s="19">
+      <c r="O6" s="14">
         <v>0.24</v>
       </c>
-      <c r="P6" s="19">
+      <c r="P6" s="14">
         <v>0.24</v>
       </c>
-      <c r="Q6" s="19">
+      <c r="Q6" s="14">
         <v>0.24</v>
       </c>
-      <c r="R6" s="19">
+      <c r="R6" s="14">
         <v>0.24</v>
       </c>
-      <c r="S6" s="19">
+      <c r="S6" s="14">
         <v>0.24</v>
       </c>
-      <c r="T6" s="19">
+      <c r="T6" s="14">
         <v>0.24</v>
       </c>
-      <c r="U6" s="19">
+      <c r="U6" s="14">
         <v>0.24</v>
       </c>
-      <c r="V6" s="19">
+      <c r="V6" s="14">
         <v>0.24</v>
       </c>
-      <c r="W6" s="19">
+      <c r="W6" s="14">
         <v>0.24</v>
       </c>
-      <c r="X6" s="19">
+      <c r="X6" s="14">
         <v>0.24</v>
       </c>
-      <c r="Y6" s="19">
+      <c r="Y6" s="14">
         <v>0.24</v>
       </c>
-      <c r="Z6" s="19">
+      <c r="Z6" s="14">
         <v>0.24</v>
       </c>
-      <c r="AA6" s="19">
+      <c r="AA6" s="14">
         <v>0.24</v>
       </c>
-      <c r="AC6" s="19"/>
+      <c r="AC6" s="14"/>
     </row>
     <row r="7" spans="1:32">
       <c r="A7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="19">
+        <v>53</v>
+      </c>
+      <c r="B7" s="14">
         <v>0.22</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="14">
         <v>0.22</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="14">
         <v>0.22</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="14">
         <v>0.22</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="14">
         <v>0.22</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="14">
         <v>0.22</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="14">
         <v>0.22</v>
       </c>
-      <c r="I7" s="19">
+      <c r="I7" s="14">
         <v>0.22</v>
       </c>
-      <c r="J7" s="19">
+      <c r="J7" s="14">
         <v>0.22</v>
       </c>
-      <c r="K7" s="19">
+      <c r="K7" s="14">
         <v>0.22</v>
       </c>
-      <c r="L7" s="19">
+      <c r="L7" s="14">
         <v>0.22</v>
       </c>
-      <c r="M7" s="19">
+      <c r="M7" s="14">
         <v>0.22</v>
       </c>
-      <c r="N7" s="19">
+      <c r="N7" s="14">
         <v>0.22</v>
       </c>
-      <c r="O7" s="19">
+      <c r="O7" s="14">
         <v>0.22</v>
       </c>
-      <c r="P7" s="19">
+      <c r="P7" s="14">
         <v>0.22</v>
       </c>
-      <c r="Q7" s="19">
+      <c r="Q7" s="14">
         <v>0.22</v>
       </c>
-      <c r="R7" s="19">
+      <c r="R7" s="14">
         <v>0.22</v>
       </c>
-      <c r="S7" s="19">
+      <c r="S7" s="14">
         <v>0.22</v>
       </c>
-      <c r="T7" s="19">
+      <c r="T7" s="14">
         <v>0.22</v>
       </c>
-      <c r="U7" s="19">
+      <c r="U7" s="14">
         <v>0.22</v>
       </c>
-      <c r="V7" s="19">
+      <c r="V7" s="14">
         <v>0.22</v>
       </c>
-      <c r="W7" s="19">
+      <c r="W7" s="14">
         <v>0.22</v>
       </c>
-      <c r="X7" s="19">
+      <c r="X7" s="14">
         <v>0.22</v>
       </c>
-      <c r="Y7" s="19">
+      <c r="Y7" s="14">
         <v>0.22</v>
       </c>
-      <c r="Z7" s="19">
+      <c r="Z7" s="14">
         <v>0.22</v>
       </c>
-      <c r="AA7" s="19">
+      <c r="AA7" s="14">
         <v>0.22</v>
       </c>
-      <c r="AC7" s="19"/>
+      <c r="AC7" s="14"/>
     </row>
     <row r="8" spans="1:32">
       <c r="A8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" s="19">
+        <v>54</v>
+      </c>
+      <c r="B8" s="14">
         <v>5.5E-2</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="14">
         <v>5.5E-2</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="14">
         <v>5.5E-2</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="14">
         <v>5.5E-2</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="14">
         <v>5.5E-2</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="14">
         <v>5.5E-2</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="14">
         <v>5.5E-2</v>
       </c>
-      <c r="I8" s="19">
+      <c r="I8" s="14">
         <v>5.5E-2</v>
       </c>
-      <c r="J8" s="19">
+      <c r="J8" s="14">
         <v>5.5E-2</v>
       </c>
-      <c r="K8" s="19">
+      <c r="K8" s="14">
         <v>5.5E-2</v>
       </c>
-      <c r="L8" s="19">
+      <c r="L8" s="14">
         <v>5.5E-2</v>
       </c>
-      <c r="M8" s="19">
+      <c r="M8" s="14">
         <v>5.5E-2</v>
       </c>
-      <c r="N8" s="19">
+      <c r="N8" s="14">
         <v>5.5E-2</v>
       </c>
-      <c r="O8" s="19">
+      <c r="O8" s="14">
         <v>5.5E-2</v>
       </c>
-      <c r="P8" s="19">
+      <c r="P8" s="14">
         <v>5.5E-2</v>
       </c>
-      <c r="Q8" s="19">
+      <c r="Q8" s="14">
         <v>5.5E-2</v>
       </c>
-      <c r="R8" s="19">
+      <c r="R8" s="14">
         <v>5.5E-2</v>
       </c>
-      <c r="S8" s="19">
+      <c r="S8" s="14">
         <v>5.5E-2</v>
       </c>
-      <c r="T8" s="19">
+      <c r="T8" s="14">
         <v>5.5E-2</v>
       </c>
-      <c r="U8" s="19">
+      <c r="U8" s="14">
         <v>5.5E-2</v>
       </c>
-      <c r="V8" s="19">
+      <c r="V8" s="14">
         <v>5.5E-2</v>
       </c>
-      <c r="W8" s="19">
+      <c r="W8" s="14">
         <v>5.5E-2</v>
       </c>
-      <c r="X8" s="19">
+      <c r="X8" s="14">
         <v>5.5E-2</v>
       </c>
-      <c r="Y8" s="19">
+      <c r="Y8" s="14">
         <v>5.5E-2</v>
       </c>
-      <c r="Z8" s="19">
+      <c r="Z8" s="14">
         <v>5.5E-2</v>
       </c>
-      <c r="AA8" s="19">
+      <c r="AA8" s="14">
         <v>5.5E-2</v>
       </c>
-      <c r="AC8" s="19"/>
+      <c r="AC8" s="14"/>
     </row>
     <row r="9" spans="1:32">
       <c r="A9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B9" s="19">
-        <v>0</v>
-      </c>
-      <c r="C9" s="19">
-        <v>0</v>
-      </c>
-      <c r="D9" s="19">
-        <v>0</v>
-      </c>
-      <c r="E9" s="19">
-        <v>0</v>
-      </c>
-      <c r="F9" s="19">
-        <v>0</v>
-      </c>
-      <c r="G9" s="19">
-        <v>0</v>
-      </c>
-      <c r="H9" s="19">
-        <v>0</v>
-      </c>
-      <c r="I9" s="19">
-        <v>0</v>
-      </c>
-      <c r="J9" s="19">
-        <v>0</v>
-      </c>
-      <c r="K9" s="19">
-        <v>0</v>
-      </c>
-      <c r="L9" s="19">
-        <v>0</v>
-      </c>
-      <c r="M9" s="19">
-        <v>0</v>
-      </c>
-      <c r="N9" s="19">
-        <v>0</v>
-      </c>
-      <c r="O9" s="19">
-        <v>0</v>
-      </c>
-      <c r="P9" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="19">
-        <v>0</v>
-      </c>
-      <c r="R9" s="19">
-        <v>0</v>
-      </c>
-      <c r="S9" s="19">
-        <v>0</v>
-      </c>
-      <c r="T9" s="19">
-        <v>0</v>
-      </c>
-      <c r="U9" s="19">
-        <v>0</v>
-      </c>
-      <c r="V9" s="19">
-        <v>0</v>
-      </c>
-      <c r="W9" s="19">
-        <v>0</v>
-      </c>
-      <c r="X9" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="19">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="19">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="19">
+        <v>66</v>
+      </c>
+      <c r="B9" s="14">
+        <v>0</v>
+      </c>
+      <c r="C9" s="14">
+        <v>0</v>
+      </c>
+      <c r="D9" s="14">
+        <v>0</v>
+      </c>
+      <c r="E9" s="14">
+        <v>0</v>
+      </c>
+      <c r="F9" s="14">
+        <v>0</v>
+      </c>
+      <c r="G9" s="14">
+        <v>0</v>
+      </c>
+      <c r="H9" s="14">
+        <v>0</v>
+      </c>
+      <c r="I9" s="14">
+        <v>0</v>
+      </c>
+      <c r="J9" s="14">
+        <v>0</v>
+      </c>
+      <c r="K9" s="14">
+        <v>0</v>
+      </c>
+      <c r="L9" s="14">
+        <v>0</v>
+      </c>
+      <c r="M9" s="14">
+        <v>0</v>
+      </c>
+      <c r="N9" s="14">
+        <v>0</v>
+      </c>
+      <c r="O9" s="14">
+        <v>0</v>
+      </c>
+      <c r="P9" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="14">
+        <v>0</v>
+      </c>
+      <c r="R9" s="14">
+        <v>0</v>
+      </c>
+      <c r="S9" s="14">
+        <v>0</v>
+      </c>
+      <c r="T9" s="14">
+        <v>0</v>
+      </c>
+      <c r="U9" s="14">
+        <v>0</v>
+      </c>
+      <c r="V9" s="14">
+        <v>0</v>
+      </c>
+      <c r="W9" s="14">
+        <v>0</v>
+      </c>
+      <c r="X9" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:32">
       <c r="A10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B10" s="19">
-        <v>0</v>
-      </c>
-      <c r="C10" s="19">
-        <v>0</v>
-      </c>
-      <c r="D10" s="19">
-        <v>0</v>
-      </c>
-      <c r="E10" s="19">
-        <v>0</v>
-      </c>
-      <c r="F10" s="19">
-        <v>0</v>
-      </c>
-      <c r="G10" s="19">
-        <v>0</v>
-      </c>
-      <c r="H10" s="19">
-        <v>0</v>
-      </c>
-      <c r="I10" s="19">
-        <v>0</v>
-      </c>
-      <c r="J10" s="19">
-        <v>0</v>
-      </c>
-      <c r="K10" s="19">
-        <v>0</v>
-      </c>
-      <c r="L10" s="19">
-        <v>0</v>
-      </c>
-      <c r="M10" s="19">
-        <v>0</v>
-      </c>
-      <c r="N10" s="19">
-        <v>0</v>
-      </c>
-      <c r="O10" s="19">
-        <v>0</v>
-      </c>
-      <c r="P10" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="19">
-        <v>0</v>
-      </c>
-      <c r="R10" s="19">
-        <v>0</v>
-      </c>
-      <c r="S10" s="19">
-        <v>0</v>
-      </c>
-      <c r="T10" s="19">
-        <v>0</v>
-      </c>
-      <c r="U10" s="19">
-        <v>0</v>
-      </c>
-      <c r="V10" s="19">
-        <v>0</v>
-      </c>
-      <c r="W10" s="19">
-        <v>0</v>
-      </c>
-      <c r="X10" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="19">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="19">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="19">
+        <v>67</v>
+      </c>
+      <c r="B10" s="14">
+        <v>0</v>
+      </c>
+      <c r="C10" s="14">
+        <v>0</v>
+      </c>
+      <c r="D10" s="14">
+        <v>0</v>
+      </c>
+      <c r="E10" s="14">
+        <v>0</v>
+      </c>
+      <c r="F10" s="14">
+        <v>0</v>
+      </c>
+      <c r="G10" s="14">
+        <v>0</v>
+      </c>
+      <c r="H10" s="14">
+        <v>0</v>
+      </c>
+      <c r="I10" s="14">
+        <v>0</v>
+      </c>
+      <c r="J10" s="14">
+        <v>0</v>
+      </c>
+      <c r="K10" s="14">
+        <v>0</v>
+      </c>
+      <c r="L10" s="14">
+        <v>0</v>
+      </c>
+      <c r="M10" s="14">
+        <v>0</v>
+      </c>
+      <c r="N10" s="14">
+        <v>0</v>
+      </c>
+      <c r="O10" s="14">
+        <v>0</v>
+      </c>
+      <c r="P10" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="14">
+        <v>0</v>
+      </c>
+      <c r="R10" s="14">
+        <v>0</v>
+      </c>
+      <c r="S10" s="14">
+        <v>0</v>
+      </c>
+      <c r="T10" s="14">
+        <v>0</v>
+      </c>
+      <c r="U10" s="14">
+        <v>0</v>
+      </c>
+      <c r="V10" s="14">
+        <v>0</v>
+      </c>
+      <c r="W10" s="14">
+        <v>0</v>
+      </c>
+      <c r="X10" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:32">
       <c r="A11" t="s">
-        <v>76</v>
-      </c>
-      <c r="B11" s="19">
-        <v>0</v>
-      </c>
-      <c r="C11" s="19">
-        <v>0</v>
-      </c>
-      <c r="D11" s="19">
-        <v>0</v>
-      </c>
-      <c r="E11" s="19">
-        <v>0</v>
-      </c>
-      <c r="F11" s="19">
-        <v>0</v>
-      </c>
-      <c r="G11" s="19">
-        <v>0</v>
-      </c>
-      <c r="H11" s="19">
-        <v>0</v>
-      </c>
-      <c r="I11" s="19">
-        <v>0</v>
-      </c>
-      <c r="J11" s="19">
-        <v>0</v>
-      </c>
-      <c r="K11" s="19">
-        <v>0</v>
-      </c>
-      <c r="L11" s="19">
-        <v>0</v>
-      </c>
-      <c r="M11" s="19">
-        <v>0</v>
-      </c>
-      <c r="N11" s="19">
-        <v>0</v>
-      </c>
-      <c r="O11" s="19">
-        <v>0</v>
-      </c>
-      <c r="P11" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="19">
-        <v>0</v>
-      </c>
-      <c r="R11" s="19">
-        <v>0</v>
-      </c>
-      <c r="S11" s="19">
-        <v>0</v>
-      </c>
-      <c r="T11" s="19">
-        <v>0</v>
-      </c>
-      <c r="U11" s="19">
-        <v>0</v>
-      </c>
-      <c r="V11" s="19">
-        <v>0</v>
-      </c>
-      <c r="W11" s="19">
-        <v>0</v>
-      </c>
-      <c r="X11" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="19">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="19">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="19">
+        <v>68</v>
+      </c>
+      <c r="B11" s="14">
+        <v>0</v>
+      </c>
+      <c r="C11" s="14">
+        <v>0</v>
+      </c>
+      <c r="D11" s="14">
+        <v>0</v>
+      </c>
+      <c r="E11" s="14">
+        <v>0</v>
+      </c>
+      <c r="F11" s="14">
+        <v>0</v>
+      </c>
+      <c r="G11" s="14">
+        <v>0</v>
+      </c>
+      <c r="H11" s="14">
+        <v>0</v>
+      </c>
+      <c r="I11" s="14">
+        <v>0</v>
+      </c>
+      <c r="J11" s="14">
+        <v>0</v>
+      </c>
+      <c r="K11" s="14">
+        <v>0</v>
+      </c>
+      <c r="L11" s="14">
+        <v>0</v>
+      </c>
+      <c r="M11" s="14">
+        <v>0</v>
+      </c>
+      <c r="N11" s="14">
+        <v>0</v>
+      </c>
+      <c r="O11" s="14">
+        <v>0</v>
+      </c>
+      <c r="P11" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="14">
+        <v>0</v>
+      </c>
+      <c r="R11" s="14">
+        <v>0</v>
+      </c>
+      <c r="S11" s="14">
+        <v>0</v>
+      </c>
+      <c r="T11" s="14">
+        <v>0</v>
+      </c>
+      <c r="U11" s="14">
+        <v>0</v>
+      </c>
+      <c r="V11" s="14">
+        <v>0</v>
+      </c>
+      <c r="W11" s="14">
+        <v>0</v>
+      </c>
+      <c r="X11" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:32">
       <c r="A12" t="s">
-        <v>77</v>
-      </c>
-      <c r="B12" s="19">
+        <v>69</v>
+      </c>
+      <c r="B12" s="14">
         <v>5.5E-2</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="14">
         <v>5.5E-2</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="14">
         <v>5.5E-2</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="14">
         <v>5.5E-2</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="14">
         <v>5.5E-2</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="14">
         <v>5.5E-2</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="14">
         <v>5.5E-2</v>
       </c>
-      <c r="I12" s="19">
+      <c r="I12" s="14">
         <v>5.5E-2</v>
       </c>
-      <c r="J12" s="19">
+      <c r="J12" s="14">
         <v>5.5E-2</v>
       </c>
-      <c r="K12" s="19">
+      <c r="K12" s="14">
         <v>5.5E-2</v>
       </c>
-      <c r="L12" s="19">
+      <c r="L12" s="14">
         <v>5.5E-2</v>
       </c>
-      <c r="M12" s="19">
+      <c r="M12" s="14">
         <v>5.5E-2</v>
       </c>
-      <c r="N12" s="19">
+      <c r="N12" s="14">
         <v>5.5E-2</v>
       </c>
-      <c r="O12" s="19">
+      <c r="O12" s="14">
         <v>5.5E-2</v>
       </c>
-      <c r="P12" s="19">
+      <c r="P12" s="14">
         <v>5.5E-2</v>
       </c>
-      <c r="Q12" s="19">
+      <c r="Q12" s="14">
         <v>5.5E-2</v>
       </c>
-      <c r="R12" s="19">
+      <c r="R12" s="14">
         <v>5.5E-2</v>
       </c>
-      <c r="S12" s="19">
+      <c r="S12" s="14">
         <v>5.5E-2</v>
       </c>
-      <c r="T12" s="19">
+      <c r="T12" s="14">
         <v>5.5E-2</v>
       </c>
-      <c r="U12" s="19">
+      <c r="U12" s="14">
         <v>5.5E-2</v>
       </c>
-      <c r="V12" s="19">
+      <c r="V12" s="14">
         <v>5.5E-2</v>
       </c>
-      <c r="W12" s="19">
+      <c r="W12" s="14">
         <v>5.5E-2</v>
       </c>
-      <c r="X12" s="19">
+      <c r="X12" s="14">
         <v>5.5E-2</v>
       </c>
-      <c r="Y12" s="19">
+      <c r="Y12" s="14">
         <v>5.5E-2</v>
       </c>
-      <c r="Z12" s="19">
+      <c r="Z12" s="14">
         <v>5.5E-2</v>
       </c>
-      <c r="AA12" s="19">
+      <c r="AA12" s="14">
         <v>5.5E-2</v>
       </c>
     </row>
     <row r="13" spans="1:32">
       <c r="A13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B13" s="19">
-        <v>0</v>
-      </c>
-      <c r="C13" s="19">
-        <v>0</v>
-      </c>
-      <c r="D13" s="19">
-        <v>0</v>
-      </c>
-      <c r="E13" s="19">
-        <v>0</v>
-      </c>
-      <c r="F13" s="19">
-        <v>0</v>
-      </c>
-      <c r="G13" s="19">
-        <v>0</v>
-      </c>
-      <c r="H13" s="19">
-        <v>0</v>
-      </c>
-      <c r="I13" s="19">
-        <v>0</v>
-      </c>
-      <c r="J13" s="19">
-        <v>0</v>
-      </c>
-      <c r="K13" s="19">
-        <v>0</v>
-      </c>
-      <c r="L13" s="19">
-        <v>0</v>
-      </c>
-      <c r="M13" s="19">
-        <v>0</v>
-      </c>
-      <c r="N13" s="19">
-        <v>0</v>
-      </c>
-      <c r="O13" s="19">
-        <v>0</v>
-      </c>
-      <c r="P13" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="19">
-        <v>0</v>
-      </c>
-      <c r="R13" s="19">
-        <v>0</v>
-      </c>
-      <c r="S13" s="19">
-        <v>0</v>
-      </c>
-      <c r="T13" s="19">
-        <v>0</v>
-      </c>
-      <c r="U13" s="19">
-        <v>0</v>
-      </c>
-      <c r="V13" s="19">
-        <v>0</v>
-      </c>
-      <c r="W13" s="19">
-        <v>0</v>
-      </c>
-      <c r="X13" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="19">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="19">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="19">
+        <v>70</v>
+      </c>
+      <c r="B13" s="14">
+        <v>0</v>
+      </c>
+      <c r="C13" s="14">
+        <v>0</v>
+      </c>
+      <c r="D13" s="14">
+        <v>0</v>
+      </c>
+      <c r="E13" s="14">
+        <v>0</v>
+      </c>
+      <c r="F13" s="14">
+        <v>0</v>
+      </c>
+      <c r="G13" s="14">
+        <v>0</v>
+      </c>
+      <c r="H13" s="14">
+        <v>0</v>
+      </c>
+      <c r="I13" s="14">
+        <v>0</v>
+      </c>
+      <c r="J13" s="14">
+        <v>0</v>
+      </c>
+      <c r="K13" s="14">
+        <v>0</v>
+      </c>
+      <c r="L13" s="14">
+        <v>0</v>
+      </c>
+      <c r="M13" s="14">
+        <v>0</v>
+      </c>
+      <c r="N13" s="14">
+        <v>0</v>
+      </c>
+      <c r="O13" s="14">
+        <v>0</v>
+      </c>
+      <c r="P13" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="14">
+        <v>0</v>
+      </c>
+      <c r="R13" s="14">
+        <v>0</v>
+      </c>
+      <c r="S13" s="14">
+        <v>0</v>
+      </c>
+      <c r="T13" s="14">
+        <v>0</v>
+      </c>
+      <c r="U13" s="14">
+        <v>0</v>
+      </c>
+      <c r="V13" s="14">
+        <v>0</v>
+      </c>
+      <c r="W13" s="14">
+        <v>0</v>
+      </c>
+      <c r="X13" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:32">
       <c r="A14" t="s">
-        <v>79</v>
-      </c>
-      <c r="B14" s="19">
-        <v>0</v>
-      </c>
-      <c r="C14" s="19">
-        <v>0</v>
-      </c>
-      <c r="D14" s="19">
-        <v>0</v>
-      </c>
-      <c r="E14" s="19">
-        <v>0</v>
-      </c>
-      <c r="F14" s="19">
-        <v>0</v>
-      </c>
-      <c r="G14" s="19">
-        <v>0</v>
-      </c>
-      <c r="H14" s="19">
-        <v>0</v>
-      </c>
-      <c r="I14" s="19">
-        <v>0</v>
-      </c>
-      <c r="J14" s="19">
-        <v>0</v>
-      </c>
-      <c r="K14" s="19">
-        <v>0</v>
-      </c>
-      <c r="L14" s="19">
-        <v>0</v>
-      </c>
-      <c r="M14" s="19">
-        <v>0</v>
-      </c>
-      <c r="N14" s="19">
-        <v>0</v>
-      </c>
-      <c r="O14" s="19">
-        <v>0</v>
-      </c>
-      <c r="P14" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="19">
-        <v>0</v>
-      </c>
-      <c r="R14" s="19">
-        <v>0</v>
-      </c>
-      <c r="S14" s="19">
-        <v>0</v>
-      </c>
-      <c r="T14" s="19">
-        <v>0</v>
-      </c>
-      <c r="U14" s="19">
-        <v>0</v>
-      </c>
-      <c r="V14" s="19">
-        <v>0</v>
-      </c>
-      <c r="W14" s="19">
-        <v>0</v>
-      </c>
-      <c r="X14" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="19">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="19">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4">
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
+        <v>71</v>
+      </c>
+      <c r="B14" s="14">
+        <v>0</v>
+      </c>
+      <c r="C14" s="14">
+        <v>0</v>
+      </c>
+      <c r="D14" s="14">
+        <v>0</v>
+      </c>
+      <c r="E14" s="14">
+        <v>0</v>
+      </c>
+      <c r="F14" s="14">
+        <v>0</v>
+      </c>
+      <c r="G14" s="14">
+        <v>0</v>
+      </c>
+      <c r="H14" s="14">
+        <v>0</v>
+      </c>
+      <c r="I14" s="14">
+        <v>0</v>
+      </c>
+      <c r="J14" s="14">
+        <v>0</v>
+      </c>
+      <c r="K14" s="14">
+        <v>0</v>
+      </c>
+      <c r="L14" s="14">
+        <v>0</v>
+      </c>
+      <c r="M14" s="14">
+        <v>0</v>
+      </c>
+      <c r="N14" s="14">
+        <v>0</v>
+      </c>
+      <c r="O14" s="14">
+        <v>0</v>
+      </c>
+      <c r="P14" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="14">
+        <v>0</v>
+      </c>
+      <c r="R14" s="14">
+        <v>0</v>
+      </c>
+      <c r="S14" s="14">
+        <v>0</v>
+      </c>
+      <c r="T14" s="14">
+        <v>0</v>
+      </c>
+      <c r="U14" s="14">
+        <v>0</v>
+      </c>
+      <c r="V14" s="14">
+        <v>0</v>
+      </c>
+      <c r="W14" s="14">
+        <v>0</v>
+      </c>
+      <c r="X14" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="14">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B80F836-AAFA-4D20-813C-A31BE68F85E1}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="9.69921875" customWidth="1"/>
+    <col min="3" max="3" width="90.5" customWidth="1"/>
+    <col min="4" max="4" width="58.19921875" customWidth="1"/>
+    <col min="5" max="5" width="30.796875" customWidth="1"/>
+    <col min="6" max="6" width="21.19921875" customWidth="1"/>
+    <col min="7" max="7" width="10.296875" customWidth="1"/>
+    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="34.799999999999997">
+      <c r="A2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="6">
+        <v>4722000</v>
+      </c>
+      <c r="H2" s="18">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="34.799999999999997">
+      <c r="A3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="6">
+        <v>4237000</v>
+      </c>
+      <c r="H3" s="18">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="34.799999999999997">
+      <c r="A4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="6">
+        <v>4127000</v>
+      </c>
+      <c r="H4" s="18">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="34.799999999999997">
+      <c r="A5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="6">
+        <v>3624000</v>
+      </c>
+      <c r="H5" s="18">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="34.799999999999997">
+      <c r="A6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="6">
+        <v>3239000</v>
+      </c>
+      <c r="H6" s="18">
+        <v>2006</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -9321,10 +7851,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E234AF8D-964B-419F-969D-C9FD34B2C8AE}">
-  <dimension ref="A1:AA30"/>
+  <dimension ref="A1:AA4"/>
   <sheetViews>
-    <sheetView zoomScale="120" workbookViewId="0">
-      <selection sqref="A1:D4"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
@@ -9334,441 +7864,336 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="17">
+      <c r="B1" s="12">
         <v>2025</v>
       </c>
-      <c r="C1" s="17">
+      <c r="C1" s="12">
         <v>2026</v>
       </c>
-      <c r="D1" s="17">
+      <c r="D1" s="12">
         <v>2027</v>
       </c>
-      <c r="E1" s="17">
+      <c r="E1" s="12">
         <v>2028</v>
       </c>
-      <c r="F1" s="17">
+      <c r="F1" s="12">
         <v>2029</v>
       </c>
-      <c r="G1" s="17">
+      <c r="G1" s="12">
         <v>2030</v>
       </c>
-      <c r="H1" s="17">
+      <c r="H1" s="12">
         <v>2031</v>
       </c>
-      <c r="I1" s="17">
+      <c r="I1" s="12">
         <v>2032</v>
       </c>
-      <c r="J1" s="17">
+      <c r="J1" s="12">
         <v>2033</v>
       </c>
-      <c r="K1" s="17">
+      <c r="K1" s="12">
         <v>2034</v>
       </c>
-      <c r="L1" s="17">
+      <c r="L1" s="12">
         <v>2035</v>
       </c>
-      <c r="M1" s="17">
+      <c r="M1" s="12">
         <v>2036</v>
       </c>
-      <c r="N1" s="17">
+      <c r="N1" s="12">
         <v>2037</v>
       </c>
-      <c r="O1" s="17">
+      <c r="O1" s="12">
         <v>2038</v>
       </c>
-      <c r="P1" s="17">
+      <c r="P1" s="12">
         <v>2039</v>
       </c>
-      <c r="Q1" s="17">
+      <c r="Q1" s="12">
         <v>2040</v>
       </c>
-      <c r="R1" s="17">
+      <c r="R1" s="12">
         <v>2041</v>
       </c>
-      <c r="S1" s="17">
+      <c r="S1" s="12">
         <v>2042</v>
       </c>
-      <c r="T1" s="17">
+      <c r="T1" s="12">
         <v>2043</v>
       </c>
-      <c r="U1" s="17">
+      <c r="U1" s="12">
         <v>2044</v>
       </c>
-      <c r="V1" s="17">
+      <c r="V1" s="12">
         <v>2045</v>
       </c>
-      <c r="W1" s="17">
+      <c r="W1" s="12">
         <v>2046</v>
       </c>
-      <c r="X1" s="17">
+      <c r="X1" s="12">
         <v>2047</v>
       </c>
-      <c r="Y1" s="17">
+      <c r="Y1" s="12">
         <v>2048</v>
       </c>
-      <c r="Z1" s="17">
+      <c r="Z1" s="12">
         <v>2049</v>
       </c>
-      <c r="AA1" s="17">
+      <c r="AA1" s="12">
         <v>2050</v>
       </c>
     </row>
     <row r="2" spans="1:27">
-      <c r="A2" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="17">
+      <c r="A2" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="12">
         <v>500700</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="12">
         <v>500700</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="12">
         <v>500700</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="12">
         <v>500700</v>
       </c>
-      <c r="F2" s="17">
+      <c r="F2" s="12">
         <v>500700</v>
       </c>
-      <c r="G2" s="17">
+      <c r="G2" s="12">
         <v>500700</v>
       </c>
-      <c r="H2" s="17">
+      <c r="H2" s="12">
         <v>500700</v>
       </c>
-      <c r="I2" s="17">
+      <c r="I2" s="12">
         <v>500700</v>
       </c>
-      <c r="J2" s="17">
+      <c r="J2" s="12">
         <v>500700</v>
       </c>
-      <c r="K2" s="17">
+      <c r="K2" s="12">
         <v>500700</v>
       </c>
-      <c r="L2" s="17">
+      <c r="L2" s="12">
         <v>500700</v>
       </c>
-      <c r="M2" s="17">
+      <c r="M2" s="12">
         <v>500700</v>
       </c>
-      <c r="N2" s="17">
+      <c r="N2" s="12">
         <v>500700</v>
       </c>
-      <c r="O2" s="17">
+      <c r="O2" s="12">
         <v>500700</v>
       </c>
-      <c r="P2" s="17">
+      <c r="P2" s="12">
         <v>500700</v>
       </c>
-      <c r="Q2" s="17">
+      <c r="Q2" s="12">
         <v>500700</v>
       </c>
-      <c r="R2" s="17">
+      <c r="R2" s="12">
         <v>500700</v>
       </c>
-      <c r="S2" s="17">
+      <c r="S2" s="12">
         <v>500700</v>
       </c>
-      <c r="T2" s="17">
+      <c r="T2" s="12">
         <v>500700</v>
       </c>
-      <c r="U2" s="17">
+      <c r="U2" s="12">
         <v>500700</v>
       </c>
-      <c r="V2" s="17">
+      <c r="V2" s="12">
         <v>500700</v>
       </c>
-      <c r="W2" s="17">
+      <c r="W2" s="12">
         <v>500700</v>
       </c>
-      <c r="X2" s="17">
+      <c r="X2" s="12">
         <v>500700</v>
       </c>
-      <c r="Y2" s="17">
+      <c r="Y2" s="12">
         <v>500700</v>
       </c>
-      <c r="Z2" s="17">
+      <c r="Z2" s="12">
         <v>500700</v>
       </c>
-      <c r="AA2" s="17">
+      <c r="AA2" s="12">
         <v>500700</v>
       </c>
     </row>
     <row r="3" spans="1:27">
-      <c r="A3" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="17">
+      <c r="A3" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="12">
         <v>1100000</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="12">
         <v>1100000</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="12">
         <v>1100000</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="12">
         <v>1100000</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="12">
         <v>1100000</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="12">
         <v>1100000</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="12">
         <v>1100000</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="12">
         <v>1100000</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J3" s="12">
         <v>1100000</v>
       </c>
-      <c r="K3" s="17">
+      <c r="K3" s="12">
         <v>1100000</v>
       </c>
-      <c r="L3" s="17">
+      <c r="L3" s="12">
         <v>1100000</v>
       </c>
-      <c r="M3" s="17">
+      <c r="M3" s="12">
         <v>1100000</v>
       </c>
-      <c r="N3" s="17">
+      <c r="N3" s="12">
         <v>1100000</v>
       </c>
-      <c r="O3" s="17">
+      <c r="O3" s="12">
         <v>1100000</v>
       </c>
-      <c r="P3" s="17">
+      <c r="P3" s="12">
         <v>1100000</v>
       </c>
-      <c r="Q3" s="17">
+      <c r="Q3" s="12">
         <v>1100000</v>
       </c>
-      <c r="R3" s="17">
+      <c r="R3" s="12">
         <v>1100000</v>
       </c>
-      <c r="S3" s="17">
+      <c r="S3" s="12">
         <v>1100000</v>
       </c>
-      <c r="T3" s="17">
+      <c r="T3" s="12">
         <v>1100000</v>
       </c>
-      <c r="U3" s="17">
+      <c r="U3" s="12">
         <v>1100000</v>
       </c>
-      <c r="V3" s="17">
+      <c r="V3" s="12">
         <v>1100000</v>
       </c>
-      <c r="W3" s="17">
+      <c r="W3" s="12">
         <v>1100000</v>
       </c>
-      <c r="X3" s="17">
+      <c r="X3" s="12">
         <v>1100000</v>
       </c>
-      <c r="Y3" s="17">
+      <c r="Y3" s="12">
         <v>1100000</v>
       </c>
-      <c r="Z3" s="17">
+      <c r="Z3" s="12">
         <v>1100000</v>
       </c>
-      <c r="AA3" s="17">
+      <c r="AA3" s="12">
         <v>1100000</v>
       </c>
     </row>
     <row r="4" spans="1:27">
-      <c r="A4" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="17">
+      <c r="A4" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="12">
         <v>400000</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="12">
         <v>400000</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="12">
         <v>400000</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="12">
         <v>400000</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="12">
         <v>400000</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="12">
         <v>400000</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="12">
         <v>400000</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="12">
         <v>400000</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J4" s="12">
         <v>400000</v>
       </c>
-      <c r="K4" s="17">
+      <c r="K4" s="12">
         <v>400000</v>
       </c>
-      <c r="L4" s="17">
+      <c r="L4" s="12">
         <v>400000</v>
       </c>
-      <c r="M4" s="17">
+      <c r="M4" s="12">
         <v>400000</v>
       </c>
-      <c r="N4" s="17">
+      <c r="N4" s="12">
         <v>400000</v>
       </c>
-      <c r="O4" s="17">
+      <c r="O4" s="12">
         <v>400000</v>
       </c>
-      <c r="P4" s="17">
+      <c r="P4" s="12">
         <v>400000</v>
       </c>
-      <c r="Q4" s="17">
+      <c r="Q4" s="12">
         <v>400000</v>
       </c>
-      <c r="R4" s="17">
+      <c r="R4" s="12">
         <v>400000</v>
       </c>
-      <c r="S4" s="17">
+      <c r="S4" s="12">
         <v>400000</v>
       </c>
-      <c r="T4" s="17">
+      <c r="T4" s="12">
         <v>400000</v>
       </c>
-      <c r="U4" s="17">
+      <c r="U4" s="12">
         <v>400000</v>
       </c>
-      <c r="V4" s="17">
+      <c r="V4" s="12">
         <v>400000</v>
       </c>
-      <c r="W4" s="17">
+      <c r="W4" s="12">
         <v>400000</v>
       </c>
-      <c r="X4" s="17">
+      <c r="X4" s="12">
         <v>400000</v>
       </c>
-      <c r="Y4" s="17">
+      <c r="Y4" s="12">
         <v>400000</v>
       </c>
-      <c r="Z4" s="17">
+      <c r="Z4" s="12">
         <v>400000</v>
       </c>
-      <c r="AA4" s="17">
+      <c r="AA4" s="12">
         <v>400000</v>
       </c>
-    </row>
-    <row r="6" spans="1:27">
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="21"/>
-      <c r="X6" s="21"/>
-      <c r="Y6" s="21"/>
-      <c r="Z6" s="21"/>
-      <c r="AA6" s="21"/>
-    </row>
-    <row r="7" spans="1:27">
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="21"/>
-      <c r="X7" s="21"/>
-      <c r="Y7" s="21"/>
-      <c r="Z7" s="21"/>
-      <c r="AA7" s="21"/>
-    </row>
-    <row r="8" spans="1:27">
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="21"/>
-      <c r="T8" s="21"/>
-      <c r="U8" s="21"/>
-      <c r="V8" s="21"/>
-      <c r="W8" s="21"/>
-      <c r="X8" s="21"/>
-      <c r="Y8" s="21"/>
-      <c r="Z8" s="21"/>
-      <c r="AA8" s="21"/>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="10"/>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="10"/>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="10"/>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="10"/>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="10"/>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="10"/>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -9875,276 +8300,276 @@
     </row>
     <row r="2" spans="1:27">
       <c r="A2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="17">
+        <v>45</v>
+      </c>
+      <c r="B2" s="12">
         <v>177308.78</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="12">
         <v>177308.78</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="12">
         <v>177308.78</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="12">
         <v>177308.78</v>
       </c>
-      <c r="F2" s="17">
+      <c r="F2" s="12">
         <v>177308.78</v>
       </c>
-      <c r="G2" s="17">
+      <c r="G2" s="12">
         <v>177308.78</v>
       </c>
-      <c r="H2" s="17">
+      <c r="H2" s="12">
         <v>177308.78</v>
       </c>
-      <c r="I2" s="17">
+      <c r="I2" s="12">
         <v>177308.78</v>
       </c>
-      <c r="J2" s="17">
+      <c r="J2" s="12">
         <v>177308.78</v>
       </c>
-      <c r="K2" s="17">
+      <c r="K2" s="12">
         <v>177308.78</v>
       </c>
-      <c r="L2" s="17">
+      <c r="L2" s="12">
         <v>177308.78</v>
       </c>
-      <c r="M2" s="17">
+      <c r="M2" s="12">
         <v>177308.78</v>
       </c>
-      <c r="N2" s="17">
+      <c r="N2" s="12">
         <v>177308.78</v>
       </c>
-      <c r="O2" s="17">
+      <c r="O2" s="12">
         <v>177308.78</v>
       </c>
-      <c r="P2" s="17">
+      <c r="P2" s="12">
         <v>177308.78</v>
       </c>
-      <c r="Q2" s="17">
+      <c r="Q2" s="12">
         <v>177308.78</v>
       </c>
-      <c r="R2" s="17">
+      <c r="R2" s="12">
         <v>177308.78</v>
       </c>
-      <c r="S2" s="17">
+      <c r="S2" s="12">
         <v>177308.78</v>
       </c>
-      <c r="T2" s="17">
+      <c r="T2" s="12">
         <v>177308.78</v>
       </c>
-      <c r="U2" s="17">
+      <c r="U2" s="12">
         <v>177308.78</v>
       </c>
-      <c r="V2" s="17">
+      <c r="V2" s="12">
         <v>177308.78</v>
       </c>
-      <c r="W2" s="17">
+      <c r="W2" s="12">
         <v>177308.78</v>
       </c>
-      <c r="X2" s="17">
+      <c r="X2" s="12">
         <v>177308.78</v>
       </c>
-      <c r="Y2" s="17">
+      <c r="Y2" s="12">
         <v>177308.78</v>
       </c>
-      <c r="Z2" s="17">
+      <c r="Z2" s="12">
         <v>177308.78</v>
       </c>
-      <c r="AA2" s="17">
+      <c r="AA2" s="12">
         <v>177308.78</v>
       </c>
     </row>
     <row r="3" spans="1:27">
       <c r="A3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="17">
+        <v>58</v>
+      </c>
+      <c r="B3" s="12">
         <f>B2*2</f>
         <v>354617.56</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="12">
         <f t="shared" ref="C3:AA3" si="0">C2*2</f>
         <v>354617.56</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="12">
         <f t="shared" si="0"/>
         <v>354617.56</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="12">
         <f t="shared" si="0"/>
         <v>354617.56</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="12">
         <f t="shared" si="0"/>
         <v>354617.56</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="12">
         <f t="shared" si="0"/>
         <v>354617.56</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="12">
         <f t="shared" si="0"/>
         <v>354617.56</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="12">
         <f t="shared" si="0"/>
         <v>354617.56</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J3" s="12">
         <f t="shared" si="0"/>
         <v>354617.56</v>
       </c>
-      <c r="K3" s="17">
+      <c r="K3" s="12">
         <f t="shared" si="0"/>
         <v>354617.56</v>
       </c>
-      <c r="L3" s="17">
+      <c r="L3" s="12">
         <f t="shared" si="0"/>
         <v>354617.56</v>
       </c>
-      <c r="M3" s="17">
+      <c r="M3" s="12">
         <f t="shared" si="0"/>
         <v>354617.56</v>
       </c>
-      <c r="N3" s="17">
+      <c r="N3" s="12">
         <f t="shared" si="0"/>
         <v>354617.56</v>
       </c>
-      <c r="O3" s="17">
+      <c r="O3" s="12">
         <f t="shared" si="0"/>
         <v>354617.56</v>
       </c>
-      <c r="P3" s="17">
+      <c r="P3" s="12">
         <f t="shared" si="0"/>
         <v>354617.56</v>
       </c>
-      <c r="Q3" s="17">
+      <c r="Q3" s="12">
         <f t="shared" si="0"/>
         <v>354617.56</v>
       </c>
-      <c r="R3" s="17">
+      <c r="R3" s="12">
         <f t="shared" si="0"/>
         <v>354617.56</v>
       </c>
-      <c r="S3" s="17">
+      <c r="S3" s="12">
         <f t="shared" si="0"/>
         <v>354617.56</v>
       </c>
-      <c r="T3" s="17">
+      <c r="T3" s="12">
         <f t="shared" si="0"/>
         <v>354617.56</v>
       </c>
-      <c r="U3" s="17">
+      <c r="U3" s="12">
         <f t="shared" si="0"/>
         <v>354617.56</v>
       </c>
-      <c r="V3" s="17">
+      <c r="V3" s="12">
         <f t="shared" si="0"/>
         <v>354617.56</v>
       </c>
-      <c r="W3" s="17">
+      <c r="W3" s="12">
         <f t="shared" si="0"/>
         <v>354617.56</v>
       </c>
-      <c r="X3" s="17">
+      <c r="X3" s="12">
         <f t="shared" si="0"/>
         <v>354617.56</v>
       </c>
-      <c r="Y3" s="17">
+      <c r="Y3" s="12">
         <f t="shared" si="0"/>
         <v>354617.56</v>
       </c>
-      <c r="Z3" s="17">
+      <c r="Z3" s="12">
         <f t="shared" si="0"/>
         <v>354617.56</v>
       </c>
-      <c r="AA3" s="17">
+      <c r="AA3" s="12">
         <f t="shared" si="0"/>
         <v>354617.56</v>
       </c>
     </row>
     <row r="4" spans="1:27">
       <c r="A4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="17">
+        <v>46</v>
+      </c>
+      <c r="B4" s="12">
         <v>86076.23</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="12">
         <v>86076.23</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="12">
         <v>86076.23</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="12">
         <v>86076.23</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="12">
         <v>86076.23</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="12">
         <v>86076.23</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="12">
         <v>86076.23</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="12">
         <v>86076.23</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J4" s="12">
         <v>86076.23</v>
       </c>
-      <c r="K4" s="17">
+      <c r="K4" s="12">
         <v>86076.23</v>
       </c>
-      <c r="L4" s="17">
+      <c r="L4" s="12">
         <v>86076.23</v>
       </c>
-      <c r="M4" s="17">
+      <c r="M4" s="12">
         <v>86076.23</v>
       </c>
-      <c r="N4" s="17">
+      <c r="N4" s="12">
         <v>86076.23</v>
       </c>
-      <c r="O4" s="17">
+      <c r="O4" s="12">
         <v>86076.23</v>
       </c>
-      <c r="P4" s="17">
+      <c r="P4" s="12">
         <v>86076.23</v>
       </c>
-      <c r="Q4" s="17">
+      <c r="Q4" s="12">
         <v>86076.23</v>
       </c>
-      <c r="R4" s="17">
+      <c r="R4" s="12">
         <v>86076.23</v>
       </c>
-      <c r="S4" s="17">
+      <c r="S4" s="12">
         <v>86076.23</v>
       </c>
-      <c r="T4" s="17">
+      <c r="T4" s="12">
         <v>86076.23</v>
       </c>
-      <c r="U4" s="17">
+      <c r="U4" s="12">
         <v>86076.23</v>
       </c>
-      <c r="V4" s="17">
+      <c r="V4" s="12">
         <v>86076.23</v>
       </c>
-      <c r="W4" s="17">
+      <c r="W4" s="12">
         <v>86076.23</v>
       </c>
-      <c r="X4" s="17">
+      <c r="X4" s="12">
         <v>86076.23</v>
       </c>
-      <c r="Y4" s="17">
+      <c r="Y4" s="12">
         <v>86076.23</v>
       </c>
-      <c r="Z4" s="17">
+      <c r="Z4" s="12">
         <v>86076.23</v>
       </c>
-      <c r="AA4" s="17">
+      <c r="AA4" s="12">
         <v>86076.23</v>
       </c>
     </row>
@@ -10254,276 +8679,276 @@
     </row>
     <row r="2" spans="1:27">
       <c r="A2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="17">
+        <v>45</v>
+      </c>
+      <c r="B2" s="12">
         <v>421098.9</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="12">
         <v>421098.9</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="12">
         <v>421098.9</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="12">
         <v>421098.9</v>
       </c>
-      <c r="F2" s="17">
+      <c r="F2" s="12">
         <v>421098.9</v>
       </c>
-      <c r="G2" s="17">
+      <c r="G2" s="12">
         <v>421098.9</v>
       </c>
-      <c r="H2" s="17">
+      <c r="H2" s="12">
         <v>421098.9</v>
       </c>
-      <c r="I2" s="17">
+      <c r="I2" s="12">
         <v>421098.9</v>
       </c>
-      <c r="J2" s="17">
+      <c r="J2" s="12">
         <v>421098.9</v>
       </c>
-      <c r="K2" s="17">
+      <c r="K2" s="12">
         <v>421098.9</v>
       </c>
-      <c r="L2" s="17">
+      <c r="L2" s="12">
         <v>421098.9</v>
       </c>
-      <c r="M2" s="17">
+      <c r="M2" s="12">
         <v>421098.9</v>
       </c>
-      <c r="N2" s="17">
+      <c r="N2" s="12">
         <v>421098.9</v>
       </c>
-      <c r="O2" s="17">
+      <c r="O2" s="12">
         <v>421098.9</v>
       </c>
-      <c r="P2" s="17">
+      <c r="P2" s="12">
         <v>421098.9</v>
       </c>
-      <c r="Q2" s="17">
+      <c r="Q2" s="12">
         <v>421098.9</v>
       </c>
-      <c r="R2" s="17">
+      <c r="R2" s="12">
         <v>421098.9</v>
       </c>
-      <c r="S2" s="17">
+      <c r="S2" s="12">
         <v>421098.9</v>
       </c>
-      <c r="T2" s="17">
+      <c r="T2" s="12">
         <v>421098.9</v>
       </c>
-      <c r="U2" s="17">
+      <c r="U2" s="12">
         <v>421098.9</v>
       </c>
-      <c r="V2" s="17">
+      <c r="V2" s="12">
         <v>421098.9</v>
       </c>
-      <c r="W2" s="17">
+      <c r="W2" s="12">
         <v>421098.9</v>
       </c>
-      <c r="X2" s="17">
+      <c r="X2" s="12">
         <v>421098.9</v>
       </c>
-      <c r="Y2" s="17">
+      <c r="Y2" s="12">
         <v>421098.9</v>
       </c>
-      <c r="Z2" s="17">
+      <c r="Z2" s="12">
         <v>421098.9</v>
       </c>
-      <c r="AA2" s="17">
+      <c r="AA2" s="12">
         <v>421098.9</v>
       </c>
     </row>
     <row r="3" spans="1:27">
       <c r="A3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="17">
+        <v>58</v>
+      </c>
+      <c r="B3" s="12">
         <f>B2*2</f>
         <v>842197.8</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="12">
         <f t="shared" ref="C3:AA3" si="0">C2*2</f>
         <v>842197.8</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="12">
         <f t="shared" si="0"/>
         <v>842197.8</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="12">
         <f t="shared" si="0"/>
         <v>842197.8</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="12">
         <f t="shared" si="0"/>
         <v>842197.8</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="12">
         <f t="shared" si="0"/>
         <v>842197.8</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="12">
         <f t="shared" si="0"/>
         <v>842197.8</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="12">
         <f t="shared" si="0"/>
         <v>842197.8</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J3" s="12">
         <f t="shared" si="0"/>
         <v>842197.8</v>
       </c>
-      <c r="K3" s="17">
+      <c r="K3" s="12">
         <f t="shared" si="0"/>
         <v>842197.8</v>
       </c>
-      <c r="L3" s="17">
+      <c r="L3" s="12">
         <f t="shared" si="0"/>
         <v>842197.8</v>
       </c>
-      <c r="M3" s="17">
+      <c r="M3" s="12">
         <f t="shared" si="0"/>
         <v>842197.8</v>
       </c>
-      <c r="N3" s="17">
+      <c r="N3" s="12">
         <f t="shared" si="0"/>
         <v>842197.8</v>
       </c>
-      <c r="O3" s="17">
+      <c r="O3" s="12">
         <f t="shared" si="0"/>
         <v>842197.8</v>
       </c>
-      <c r="P3" s="17">
+      <c r="P3" s="12">
         <f t="shared" si="0"/>
         <v>842197.8</v>
       </c>
-      <c r="Q3" s="17">
+      <c r="Q3" s="12">
         <f t="shared" si="0"/>
         <v>842197.8</v>
       </c>
-      <c r="R3" s="17">
+      <c r="R3" s="12">
         <f t="shared" si="0"/>
         <v>842197.8</v>
       </c>
-      <c r="S3" s="17">
+      <c r="S3" s="12">
         <f t="shared" si="0"/>
         <v>842197.8</v>
       </c>
-      <c r="T3" s="17">
+      <c r="T3" s="12">
         <f t="shared" si="0"/>
         <v>842197.8</v>
       </c>
-      <c r="U3" s="17">
+      <c r="U3" s="12">
         <f t="shared" si="0"/>
         <v>842197.8</v>
       </c>
-      <c r="V3" s="17">
+      <c r="V3" s="12">
         <f t="shared" si="0"/>
         <v>842197.8</v>
       </c>
-      <c r="W3" s="17">
+      <c r="W3" s="12">
         <f t="shared" si="0"/>
         <v>842197.8</v>
       </c>
-      <c r="X3" s="17">
+      <c r="X3" s="12">
         <f t="shared" si="0"/>
         <v>842197.8</v>
       </c>
-      <c r="Y3" s="17">
+      <c r="Y3" s="12">
         <f t="shared" si="0"/>
         <v>842197.8</v>
       </c>
-      <c r="Z3" s="17">
+      <c r="Z3" s="12">
         <f t="shared" si="0"/>
         <v>842197.8</v>
       </c>
-      <c r="AA3" s="17">
+      <c r="AA3" s="12">
         <f t="shared" si="0"/>
         <v>842197.8</v>
       </c>
     </row>
     <row r="4" spans="1:27">
       <c r="A4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="17">
+        <v>46</v>
+      </c>
+      <c r="B4" s="12">
         <v>185299.77</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="12">
         <v>185299.77</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="12">
         <v>185299.77</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="12">
         <v>185299.77</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="12">
         <v>185299.77</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="12">
         <v>185299.77</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="12">
         <v>185299.77</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="12">
         <v>185299.77</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J4" s="12">
         <v>185299.77</v>
       </c>
-      <c r="K4" s="17">
+      <c r="K4" s="12">
         <v>185299.77</v>
       </c>
-      <c r="L4" s="17">
+      <c r="L4" s="12">
         <v>185299.77</v>
       </c>
-      <c r="M4" s="17">
+      <c r="M4" s="12">
         <v>185299.77</v>
       </c>
-      <c r="N4" s="17">
+      <c r="N4" s="12">
         <v>185299.77</v>
       </c>
-      <c r="O4" s="17">
+      <c r="O4" s="12">
         <v>185299.77</v>
       </c>
-      <c r="P4" s="17">
+      <c r="P4" s="12">
         <v>185299.77</v>
       </c>
-      <c r="Q4" s="17">
+      <c r="Q4" s="12">
         <v>185299.77</v>
       </c>
-      <c r="R4" s="17">
+      <c r="R4" s="12">
         <v>185299.77</v>
       </c>
-      <c r="S4" s="17">
+      <c r="S4" s="12">
         <v>185299.77</v>
       </c>
-      <c r="T4" s="17">
+      <c r="T4" s="12">
         <v>185299.77</v>
       </c>
-      <c r="U4" s="17">
+      <c r="U4" s="12">
         <v>185299.77</v>
       </c>
-      <c r="V4" s="17">
+      <c r="V4" s="12">
         <v>185299.77</v>
       </c>
-      <c r="W4" s="17">
+      <c r="W4" s="12">
         <v>185299.77</v>
       </c>
-      <c r="X4" s="17">
+      <c r="X4" s="12">
         <v>185299.77</v>
       </c>
-      <c r="Y4" s="17">
+      <c r="Y4" s="12">
         <v>185299.77</v>
       </c>
-      <c r="Z4" s="17">
+      <c r="Z4" s="12">
         <v>185299.77</v>
       </c>
-      <c r="AA4" s="17">
+      <c r="AA4" s="12">
         <v>185299.77</v>
       </c>
     </row>
@@ -10562,7 +8987,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B2">
         <v>20</v>
@@ -10573,7 +8998,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B3">
         <v>20</v>
@@ -10584,7 +9009,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B4">
         <v>20</v>
@@ -10787,7 +9212,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E46CCB1-2754-42FA-B5C9-8DABA83A320C}">
   <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:AA2"/>
     </sheetView>
   </sheetViews>
@@ -10890,87 +9315,87 @@
       <c r="A2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="25">
+      <c r="B2" s="19">
         <v>150000000</v>
       </c>
-      <c r="C2" s="25">
+      <c r="C2" s="19">
         <v>150000000</v>
       </c>
-      <c r="D2" s="25">
+      <c r="D2" s="19">
         <v>150000000</v>
       </c>
-      <c r="E2" s="25">
+      <c r="E2" s="19">
         <v>150000000</v>
       </c>
-      <c r="F2" s="25">
+      <c r="F2" s="19">
         <v>150000000</v>
       </c>
-      <c r="G2" s="25">
+      <c r="G2" s="19">
         <v>150000000</v>
       </c>
-      <c r="H2" s="25">
+      <c r="H2" s="19">
         <v>150000000</v>
       </c>
-      <c r="I2" s="25">
+      <c r="I2" s="19">
         <v>150000000</v>
       </c>
-      <c r="J2" s="25">
+      <c r="J2" s="19">
         <v>150000000</v>
       </c>
-      <c r="K2" s="25">
+      <c r="K2" s="19">
         <v>150000000</v>
       </c>
-      <c r="L2" s="25">
+      <c r="L2" s="19">
         <v>150000000</v>
       </c>
-      <c r="M2" s="25">
+      <c r="M2" s="19">
         <v>150000000</v>
       </c>
-      <c r="N2" s="25">
+      <c r="N2" s="19">
         <v>150000000</v>
       </c>
-      <c r="O2" s="25">
+      <c r="O2" s="19">
         <v>150000000</v>
       </c>
-      <c r="P2" s="25">
+      <c r="P2" s="19">
         <v>150000000</v>
       </c>
-      <c r="Q2" s="25">
+      <c r="Q2" s="19">
         <v>150000000</v>
       </c>
-      <c r="R2" s="25">
+      <c r="R2" s="19">
         <v>150000000</v>
       </c>
-      <c r="S2" s="25">
+      <c r="S2" s="19">
         <v>150000000</v>
       </c>
-      <c r="T2" s="25">
+      <c r="T2" s="19">
         <v>150000000</v>
       </c>
-      <c r="U2" s="25">
+      <c r="U2" s="19">
         <v>150000000</v>
       </c>
-      <c r="V2" s="25">
+      <c r="V2" s="19">
         <v>150000000</v>
       </c>
-      <c r="W2" s="25">
+      <c r="W2" s="19">
         <v>150000000</v>
       </c>
-      <c r="X2" s="25">
+      <c r="X2" s="19">
         <v>150000000</v>
       </c>
-      <c r="Y2" s="25">
+      <c r="Y2" s="19">
         <v>150000000</v>
       </c>
-      <c r="Z2" s="25">
+      <c r="Z2" s="19">
         <v>150000000</v>
       </c>
-      <c r="AA2" s="25">
+      <c r="AA2" s="19">
         <v>150000000</v>
       </c>
     </row>
     <row r="3" spans="1:27">
-      <c r="G3" s="23"/>
+      <c r="G3" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -10996,230 +9421,230 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="14"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="9">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9">
+        <v>0.34</v>
+      </c>
+      <c r="E2" s="9">
+        <v>2000</v>
+      </c>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0</v>
+      </c>
+      <c r="E3" s="9">
+        <v>2000</v>
+      </c>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9">
+        <v>2000</v>
+      </c>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0</v>
+      </c>
+      <c r="E5" s="9">
+        <v>2000</v>
+      </c>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
         <v>53</v>
       </c>
-      <c r="B2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="14">
-        <v>1</v>
-      </c>
-      <c r="D2" s="14">
+      <c r="C6" s="9">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9">
+        <v>2000</v>
+      </c>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9">
+        <v>2000</v>
+      </c>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="9">
+        <v>1</v>
+      </c>
+      <c r="D8" s="9">
         <v>0.34</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E8" s="9">
         <v>2000</v>
       </c>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="D3" s="14">
-        <v>0</v>
-      </c>
-      <c r="E3" s="14">
-        <v>2000</v>
-      </c>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="14">
-        <v>0.4</v>
-      </c>
-      <c r="D4" s="14">
-        <v>0</v>
-      </c>
-      <c r="E4" s="14">
-        <v>2000</v>
-      </c>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="D5" s="14">
-        <v>0</v>
-      </c>
-      <c r="E5" s="14">
-        <v>2000</v>
-      </c>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="14">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="D6" s="14">
-        <v>0</v>
-      </c>
-      <c r="E6" s="14">
-        <v>2000</v>
-      </c>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="D7" s="14">
-        <v>0</v>
-      </c>
-      <c r="E7" s="14">
-        <v>2000</v>
-      </c>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" s="14">
-        <v>1</v>
-      </c>
-      <c r="D8" s="14">
-        <v>0.34</v>
-      </c>
-      <c r="E8" s="14">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="14" t="s">
-        <v>66</v>
-      </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C9">
         <v>0.39800000000000002</v>
       </c>
-      <c r="D9" s="14">
-        <v>0</v>
-      </c>
-      <c r="E9" s="14">
+      <c r="D9" s="9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="9">
         <v>2000</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="14" t="s">
-        <v>66</v>
+      <c r="A10" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C10">
         <v>0.02</v>
       </c>
-      <c r="D10" s="14">
-        <v>0</v>
-      </c>
-      <c r="E10" s="14">
+      <c r="D10" s="9">
+        <v>0</v>
+      </c>
+      <c r="E10" s="9">
         <v>2000</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C11">
         <v>0.5</v>
       </c>
-      <c r="D11" s="14">
-        <v>0</v>
-      </c>
-      <c r="E11" s="14">
+      <c r="D11" s="9">
+        <v>0</v>
+      </c>
+      <c r="E11" s="9">
         <v>2000</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="9">
         <v>0.34</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="9">
         <v>2000</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C13">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="D13" s="14">
-        <v>0</v>
-      </c>
-      <c r="E13" s="14">
+      <c r="D13" s="9">
+        <v>0</v>
+      </c>
+      <c r="E13" s="9">
         <v>2000</v>
       </c>
     </row>

--- a/database/steel_data.xlsx
+++ b/database/steel_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\PLANiT\github\Costoptimal_steelsystem\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AED3C01-8B60-44E8-9BBF-92A0351D1D6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4CC6EC-43AC-4D0D-8D78-838E96A4CC1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10380" yWindow="3012" windowWidth="28056" windowHeight="18948" tabRatio="775" firstSheet="10" activeTab="18" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
+    <workbookView xWindow="12024" yWindow="4092" windowWidth="28056" windowHeight="18948" tabRatio="775" activeTab="1" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="18" r:id="rId1"/>
@@ -22,16 +22,17 @@
     <sheet name="carbonprice" sheetId="25" r:id="rId7"/>
     <sheet name="emission" sheetId="23" r:id="rId8"/>
     <sheet name="technology_fuel_pairs" sheetId="5" r:id="rId9"/>
-    <sheet name="technology_ei" sheetId="21" r:id="rId10"/>
-    <sheet name="material_efficiency" sheetId="17" r:id="rId11"/>
-    <sheet name="technology_material_pairs" sheetId="6" r:id="rId12"/>
-    <sheet name="material_cost" sheetId="11" r:id="rId13"/>
-    <sheet name="material_emission" sheetId="12" r:id="rId14"/>
-    <sheet name="material_introduction" sheetId="27" r:id="rId15"/>
-    <sheet name="fuel_introduction" sheetId="26" r:id="rId16"/>
-    <sheet name="fuel_cost" sheetId="8" r:id="rId17"/>
-    <sheet name="fuel_efficiency" sheetId="16" r:id="rId18"/>
-    <sheet name="fuel_emission" sheetId="10" r:id="rId19"/>
+    <sheet name="emission_system" sheetId="24" r:id="rId10"/>
+    <sheet name="technology_ei" sheetId="21" r:id="rId11"/>
+    <sheet name="material_efficiency" sheetId="17" r:id="rId12"/>
+    <sheet name="technology_material_pairs" sheetId="6" r:id="rId13"/>
+    <sheet name="material_cost" sheetId="11" r:id="rId14"/>
+    <sheet name="material_emission" sheetId="12" r:id="rId15"/>
+    <sheet name="material_introduction" sheetId="27" r:id="rId16"/>
+    <sheet name="fuel_introduction" sheetId="26" r:id="rId17"/>
+    <sheet name="fuel_cost" sheetId="8" r:id="rId18"/>
+    <sheet name="fuel_efficiency" sheetId="16" r:id="rId19"/>
+    <sheet name="fuel_emission" sheetId="10" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="82">
   <si>
     <t>system</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -222,13 +223,37 @@
     <t>Gwangyang BF5</t>
   </si>
   <si>
+    <t>Pohang BF3</t>
+  </si>
+  <si>
     <t>Gwangyang BF3</t>
+  </si>
+  <si>
+    <t>HyundaiBF1</t>
+  </si>
+  <si>
+    <t>HyundaiBF2</t>
+  </si>
+  <si>
+    <t>HyundaiBF3</t>
+  </si>
+  <si>
+    <t>Pohang BF4</t>
   </si>
   <si>
     <t>Gwangyang BF4</t>
   </si>
   <si>
     <t>Gwangyang BF2</t>
+  </si>
+  <si>
+    <t>Pohang BF2</t>
+  </si>
+  <si>
+    <t>Pohang FNX3</t>
+  </si>
+  <si>
+    <t>Pohang FNX2</t>
   </si>
   <si>
     <t>BAT BF-BOF</t>
@@ -315,8 +340,7 @@
     <t>0.34, 0.097, 0.374, 0.114, 0.059, 0.016</t>
   </si>
   <si>
-    <t>Coke_BB, Thermal coal_BB, BF gas_BB, COG_BB, BOF gas_BB, Natural gas_BB</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>Coke_BB, Thermal coal_BB, BF gas_BB, COG_BB, BOF gas_BB, Natural gas_BB, Hydrogen_BB, Electricity_BB, Steam_BB</t>
   </si>
 </sst>
 </file>
@@ -328,7 +352,7 @@
     <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -352,6 +376,37 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -414,9 +469,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -436,19 +491,26 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -459,13 +521,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -947,11 +1012,1194 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E683ACB1-236C-41D9-AD28-376C61929EF9}">
+  <dimension ref="A1:AA14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="1" max="2" width="17.796875" customWidth="1"/>
+    <col min="3" max="3" width="9.296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>2025</v>
+      </c>
+      <c r="C1">
+        <v>2026</v>
+      </c>
+      <c r="D1">
+        <v>2027</v>
+      </c>
+      <c r="E1">
+        <v>2028</v>
+      </c>
+      <c r="F1">
+        <v>2029</v>
+      </c>
+      <c r="G1">
+        <v>2030</v>
+      </c>
+      <c r="H1">
+        <v>2031</v>
+      </c>
+      <c r="I1">
+        <v>2032</v>
+      </c>
+      <c r="J1">
+        <v>2033</v>
+      </c>
+      <c r="K1">
+        <v>2034</v>
+      </c>
+      <c r="L1">
+        <v>2035</v>
+      </c>
+      <c r="M1">
+        <v>2036</v>
+      </c>
+      <c r="N1">
+        <v>2037</v>
+      </c>
+      <c r="O1">
+        <v>2038</v>
+      </c>
+      <c r="P1">
+        <v>2039</v>
+      </c>
+      <c r="Q1">
+        <v>2040</v>
+      </c>
+      <c r="R1">
+        <v>2041</v>
+      </c>
+      <c r="S1">
+        <v>2042</v>
+      </c>
+      <c r="T1">
+        <v>2043</v>
+      </c>
+      <c r="U1">
+        <v>2044</v>
+      </c>
+      <c r="V1">
+        <v>2045</v>
+      </c>
+      <c r="W1">
+        <v>2046</v>
+      </c>
+      <c r="X1">
+        <v>2047</v>
+      </c>
+      <c r="Y1">
+        <v>2048</v>
+      </c>
+      <c r="Z1">
+        <v>2049</v>
+      </c>
+      <c r="AA1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
+      <c r="A2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2">
+        <v>99999999</v>
+      </c>
+      <c r="C2">
+        <v>99999999</v>
+      </c>
+      <c r="D2">
+        <v>99999999</v>
+      </c>
+      <c r="E2">
+        <v>99999999</v>
+      </c>
+      <c r="F2">
+        <v>99999999</v>
+      </c>
+      <c r="G2">
+        <v>99999999</v>
+      </c>
+      <c r="H2">
+        <v>99999999</v>
+      </c>
+      <c r="I2">
+        <v>99999999</v>
+      </c>
+      <c r="J2">
+        <v>99999999</v>
+      </c>
+      <c r="K2">
+        <v>99999999</v>
+      </c>
+      <c r="L2">
+        <v>99999999</v>
+      </c>
+      <c r="M2">
+        <v>99999999</v>
+      </c>
+      <c r="N2">
+        <v>99999999</v>
+      </c>
+      <c r="O2">
+        <v>99999999</v>
+      </c>
+      <c r="P2">
+        <v>99999999</v>
+      </c>
+      <c r="Q2">
+        <v>99999999</v>
+      </c>
+      <c r="R2">
+        <v>99999999</v>
+      </c>
+      <c r="S2">
+        <v>99999999</v>
+      </c>
+      <c r="T2">
+        <v>99999999</v>
+      </c>
+      <c r="U2">
+        <v>99999999</v>
+      </c>
+      <c r="V2">
+        <v>99999999</v>
+      </c>
+      <c r="W2">
+        <v>99999999</v>
+      </c>
+      <c r="X2">
+        <v>99999999</v>
+      </c>
+      <c r="Y2">
+        <v>99999999</v>
+      </c>
+      <c r="Z2">
+        <v>99999999</v>
+      </c>
+      <c r="AA2">
+        <v>99999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="19.2">
+      <c r="A3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3">
+        <v>99999999</v>
+      </c>
+      <c r="C3">
+        <v>99999999</v>
+      </c>
+      <c r="D3">
+        <v>99999999</v>
+      </c>
+      <c r="E3">
+        <v>99999999</v>
+      </c>
+      <c r="F3">
+        <v>99999999</v>
+      </c>
+      <c r="G3">
+        <v>99999999</v>
+      </c>
+      <c r="H3">
+        <v>99999999</v>
+      </c>
+      <c r="I3">
+        <v>99999999</v>
+      </c>
+      <c r="J3">
+        <v>99999999</v>
+      </c>
+      <c r="K3">
+        <v>99999999</v>
+      </c>
+      <c r="L3">
+        <v>99999999</v>
+      </c>
+      <c r="M3">
+        <v>99999999</v>
+      </c>
+      <c r="N3">
+        <v>99999999</v>
+      </c>
+      <c r="O3">
+        <v>99999999</v>
+      </c>
+      <c r="P3">
+        <v>99999999</v>
+      </c>
+      <c r="Q3">
+        <v>99999999</v>
+      </c>
+      <c r="R3">
+        <v>99999999</v>
+      </c>
+      <c r="S3">
+        <v>99999999</v>
+      </c>
+      <c r="T3">
+        <v>99999999</v>
+      </c>
+      <c r="U3">
+        <v>99999999</v>
+      </c>
+      <c r="V3">
+        <v>99999999</v>
+      </c>
+      <c r="W3">
+        <v>99999999</v>
+      </c>
+      <c r="X3">
+        <v>99999999</v>
+      </c>
+      <c r="Y3">
+        <v>99999999</v>
+      </c>
+      <c r="Z3">
+        <v>99999999</v>
+      </c>
+      <c r="AA3">
+        <v>99999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="19.2">
+      <c r="A4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4">
+        <v>99999999</v>
+      </c>
+      <c r="C4">
+        <v>99999999</v>
+      </c>
+      <c r="D4">
+        <v>99999999</v>
+      </c>
+      <c r="E4">
+        <v>99999999</v>
+      </c>
+      <c r="F4">
+        <v>99999999</v>
+      </c>
+      <c r="G4">
+        <v>99999999</v>
+      </c>
+      <c r="H4">
+        <v>99999999</v>
+      </c>
+      <c r="I4">
+        <v>99999999</v>
+      </c>
+      <c r="J4">
+        <v>99999999</v>
+      </c>
+      <c r="K4">
+        <v>99999999</v>
+      </c>
+      <c r="L4">
+        <v>99999999</v>
+      </c>
+      <c r="M4">
+        <v>99999999</v>
+      </c>
+      <c r="N4">
+        <v>99999999</v>
+      </c>
+      <c r="O4">
+        <v>99999999</v>
+      </c>
+      <c r="P4">
+        <v>99999999</v>
+      </c>
+      <c r="Q4">
+        <v>99999999</v>
+      </c>
+      <c r="R4">
+        <v>99999999</v>
+      </c>
+      <c r="S4">
+        <v>99999999</v>
+      </c>
+      <c r="T4">
+        <v>99999999</v>
+      </c>
+      <c r="U4">
+        <v>99999999</v>
+      </c>
+      <c r="V4">
+        <v>99999999</v>
+      </c>
+      <c r="W4">
+        <v>99999999</v>
+      </c>
+      <c r="X4">
+        <v>99999999</v>
+      </c>
+      <c r="Y4">
+        <v>99999999</v>
+      </c>
+      <c r="Z4">
+        <v>99999999</v>
+      </c>
+      <c r="AA4">
+        <v>99999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
+      <c r="A5" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5">
+        <v>99999999</v>
+      </c>
+      <c r="C5">
+        <v>99999999</v>
+      </c>
+      <c r="D5">
+        <v>99999999</v>
+      </c>
+      <c r="E5">
+        <v>99999999</v>
+      </c>
+      <c r="F5">
+        <v>99999999</v>
+      </c>
+      <c r="G5">
+        <v>99999999</v>
+      </c>
+      <c r="H5">
+        <v>99999999</v>
+      </c>
+      <c r="I5">
+        <v>99999999</v>
+      </c>
+      <c r="J5">
+        <v>99999999</v>
+      </c>
+      <c r="K5">
+        <v>99999999</v>
+      </c>
+      <c r="L5">
+        <v>99999999</v>
+      </c>
+      <c r="M5">
+        <v>99999999</v>
+      </c>
+      <c r="N5">
+        <v>99999999</v>
+      </c>
+      <c r="O5">
+        <v>99999999</v>
+      </c>
+      <c r="P5">
+        <v>99999999</v>
+      </c>
+      <c r="Q5">
+        <v>99999999</v>
+      </c>
+      <c r="R5">
+        <v>99999999</v>
+      </c>
+      <c r="S5">
+        <v>99999999</v>
+      </c>
+      <c r="T5">
+        <v>99999999</v>
+      </c>
+      <c r="U5">
+        <v>99999999</v>
+      </c>
+      <c r="V5">
+        <v>99999999</v>
+      </c>
+      <c r="W5">
+        <v>99999999</v>
+      </c>
+      <c r="X5">
+        <v>99999999</v>
+      </c>
+      <c r="Y5">
+        <v>99999999</v>
+      </c>
+      <c r="Z5">
+        <v>99999999</v>
+      </c>
+      <c r="AA5">
+        <v>99999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="19.2">
+      <c r="A6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6">
+        <v>99999999</v>
+      </c>
+      <c r="C6">
+        <v>99999999</v>
+      </c>
+      <c r="D6">
+        <v>99999999</v>
+      </c>
+      <c r="E6">
+        <v>99999999</v>
+      </c>
+      <c r="F6">
+        <v>99999999</v>
+      </c>
+      <c r="G6">
+        <v>99999999</v>
+      </c>
+      <c r="H6">
+        <v>99999999</v>
+      </c>
+      <c r="I6">
+        <v>99999999</v>
+      </c>
+      <c r="J6">
+        <v>99999999</v>
+      </c>
+      <c r="K6">
+        <v>99999999</v>
+      </c>
+      <c r="L6">
+        <v>99999999</v>
+      </c>
+      <c r="M6">
+        <v>99999999</v>
+      </c>
+      <c r="N6">
+        <v>99999999</v>
+      </c>
+      <c r="O6">
+        <v>99999999</v>
+      </c>
+      <c r="P6">
+        <v>99999999</v>
+      </c>
+      <c r="Q6">
+        <v>99999999</v>
+      </c>
+      <c r="R6">
+        <v>99999999</v>
+      </c>
+      <c r="S6">
+        <v>99999999</v>
+      </c>
+      <c r="T6">
+        <v>99999999</v>
+      </c>
+      <c r="U6">
+        <v>99999999</v>
+      </c>
+      <c r="V6">
+        <v>99999999</v>
+      </c>
+      <c r="W6">
+        <v>99999999</v>
+      </c>
+      <c r="X6">
+        <v>99999999</v>
+      </c>
+      <c r="Y6">
+        <v>99999999</v>
+      </c>
+      <c r="Z6">
+        <v>99999999</v>
+      </c>
+      <c r="AA6">
+        <v>99999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="19.2">
+      <c r="A7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7">
+        <v>99999999</v>
+      </c>
+      <c r="C7">
+        <v>99999999</v>
+      </c>
+      <c r="D7">
+        <v>99999999</v>
+      </c>
+      <c r="E7">
+        <v>99999999</v>
+      </c>
+      <c r="F7">
+        <v>99999999</v>
+      </c>
+      <c r="G7">
+        <v>99999999</v>
+      </c>
+      <c r="H7">
+        <v>99999999</v>
+      </c>
+      <c r="I7">
+        <v>99999999</v>
+      </c>
+      <c r="J7">
+        <v>99999999</v>
+      </c>
+      <c r="K7">
+        <v>99999999</v>
+      </c>
+      <c r="L7">
+        <v>99999999</v>
+      </c>
+      <c r="M7">
+        <v>99999999</v>
+      </c>
+      <c r="N7">
+        <v>99999999</v>
+      </c>
+      <c r="O7">
+        <v>99999999</v>
+      </c>
+      <c r="P7">
+        <v>99999999</v>
+      </c>
+      <c r="Q7">
+        <v>99999999</v>
+      </c>
+      <c r="R7">
+        <v>99999999</v>
+      </c>
+      <c r="S7">
+        <v>99999999</v>
+      </c>
+      <c r="T7">
+        <v>99999999</v>
+      </c>
+      <c r="U7">
+        <v>99999999</v>
+      </c>
+      <c r="V7">
+        <v>99999999</v>
+      </c>
+      <c r="W7">
+        <v>99999999</v>
+      </c>
+      <c r="X7">
+        <v>99999999</v>
+      </c>
+      <c r="Y7">
+        <v>99999999</v>
+      </c>
+      <c r="Z7">
+        <v>99999999</v>
+      </c>
+      <c r="AA7">
+        <v>99999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="19.2">
+      <c r="A8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8">
+        <v>99999999</v>
+      </c>
+      <c r="C8">
+        <v>99999999</v>
+      </c>
+      <c r="D8">
+        <v>99999999</v>
+      </c>
+      <c r="E8">
+        <v>99999999</v>
+      </c>
+      <c r="F8">
+        <v>99999999</v>
+      </c>
+      <c r="G8">
+        <v>99999999</v>
+      </c>
+      <c r="H8">
+        <v>99999999</v>
+      </c>
+      <c r="I8">
+        <v>99999999</v>
+      </c>
+      <c r="J8">
+        <v>99999999</v>
+      </c>
+      <c r="K8">
+        <v>99999999</v>
+      </c>
+      <c r="L8">
+        <v>99999999</v>
+      </c>
+      <c r="M8">
+        <v>99999999</v>
+      </c>
+      <c r="N8">
+        <v>99999999</v>
+      </c>
+      <c r="O8">
+        <v>99999999</v>
+      </c>
+      <c r="P8">
+        <v>99999999</v>
+      </c>
+      <c r="Q8">
+        <v>99999999</v>
+      </c>
+      <c r="R8">
+        <v>99999999</v>
+      </c>
+      <c r="S8">
+        <v>99999999</v>
+      </c>
+      <c r="T8">
+        <v>99999999</v>
+      </c>
+      <c r="U8">
+        <v>99999999</v>
+      </c>
+      <c r="V8">
+        <v>99999999</v>
+      </c>
+      <c r="W8">
+        <v>99999999</v>
+      </c>
+      <c r="X8">
+        <v>99999999</v>
+      </c>
+      <c r="Y8">
+        <v>99999999</v>
+      </c>
+      <c r="Z8">
+        <v>99999999</v>
+      </c>
+      <c r="AA8">
+        <v>99999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="19.2">
+      <c r="A9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9">
+        <v>99999999</v>
+      </c>
+      <c r="C9">
+        <v>99999999</v>
+      </c>
+      <c r="D9">
+        <v>99999999</v>
+      </c>
+      <c r="E9">
+        <v>99999999</v>
+      </c>
+      <c r="F9">
+        <v>99999999</v>
+      </c>
+      <c r="G9">
+        <v>99999999</v>
+      </c>
+      <c r="H9">
+        <v>99999999</v>
+      </c>
+      <c r="I9">
+        <v>99999999</v>
+      </c>
+      <c r="J9">
+        <v>99999999</v>
+      </c>
+      <c r="K9">
+        <v>99999999</v>
+      </c>
+      <c r="L9">
+        <v>99999999</v>
+      </c>
+      <c r="M9">
+        <v>99999999</v>
+      </c>
+      <c r="N9">
+        <v>99999999</v>
+      </c>
+      <c r="O9">
+        <v>99999999</v>
+      </c>
+      <c r="P9">
+        <v>99999999</v>
+      </c>
+      <c r="Q9">
+        <v>99999999</v>
+      </c>
+      <c r="R9">
+        <v>99999999</v>
+      </c>
+      <c r="S9">
+        <v>99999999</v>
+      </c>
+      <c r="T9">
+        <v>99999999</v>
+      </c>
+      <c r="U9">
+        <v>99999999</v>
+      </c>
+      <c r="V9">
+        <v>99999999</v>
+      </c>
+      <c r="W9">
+        <v>99999999</v>
+      </c>
+      <c r="X9">
+        <v>99999999</v>
+      </c>
+      <c r="Y9">
+        <v>99999999</v>
+      </c>
+      <c r="Z9">
+        <v>99999999</v>
+      </c>
+      <c r="AA9">
+        <v>99999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="19.2">
+      <c r="A10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10">
+        <v>99999999</v>
+      </c>
+      <c r="C10">
+        <v>99999999</v>
+      </c>
+      <c r="D10">
+        <v>99999999</v>
+      </c>
+      <c r="E10">
+        <v>99999999</v>
+      </c>
+      <c r="F10">
+        <v>99999999</v>
+      </c>
+      <c r="G10">
+        <v>99999999</v>
+      </c>
+      <c r="H10">
+        <v>99999999</v>
+      </c>
+      <c r="I10">
+        <v>99999999</v>
+      </c>
+      <c r="J10">
+        <v>99999999</v>
+      </c>
+      <c r="K10">
+        <v>99999999</v>
+      </c>
+      <c r="L10">
+        <v>99999999</v>
+      </c>
+      <c r="M10">
+        <v>99999999</v>
+      </c>
+      <c r="N10">
+        <v>99999999</v>
+      </c>
+      <c r="O10">
+        <v>99999999</v>
+      </c>
+      <c r="P10">
+        <v>99999999</v>
+      </c>
+      <c r="Q10">
+        <v>99999999</v>
+      </c>
+      <c r="R10">
+        <v>99999999</v>
+      </c>
+      <c r="S10">
+        <v>99999999</v>
+      </c>
+      <c r="T10">
+        <v>99999999</v>
+      </c>
+      <c r="U10">
+        <v>99999999</v>
+      </c>
+      <c r="V10">
+        <v>99999999</v>
+      </c>
+      <c r="W10">
+        <v>99999999</v>
+      </c>
+      <c r="X10">
+        <v>99999999</v>
+      </c>
+      <c r="Y10">
+        <v>99999999</v>
+      </c>
+      <c r="Z10">
+        <v>99999999</v>
+      </c>
+      <c r="AA10">
+        <v>99999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
+      <c r="A11" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11">
+        <v>99999999</v>
+      </c>
+      <c r="C11">
+        <v>99999999</v>
+      </c>
+      <c r="D11">
+        <v>99999999</v>
+      </c>
+      <c r="E11">
+        <v>99999999</v>
+      </c>
+      <c r="F11">
+        <v>99999999</v>
+      </c>
+      <c r="G11">
+        <v>99999999</v>
+      </c>
+      <c r="H11">
+        <v>99999999</v>
+      </c>
+      <c r="I11">
+        <v>99999999</v>
+      </c>
+      <c r="J11">
+        <v>99999999</v>
+      </c>
+      <c r="K11">
+        <v>99999999</v>
+      </c>
+      <c r="L11">
+        <v>99999999</v>
+      </c>
+      <c r="M11">
+        <v>99999999</v>
+      </c>
+      <c r="N11">
+        <v>99999999</v>
+      </c>
+      <c r="O11">
+        <v>99999999</v>
+      </c>
+      <c r="P11">
+        <v>99999999</v>
+      </c>
+      <c r="Q11">
+        <v>99999999</v>
+      </c>
+      <c r="R11">
+        <v>99999999</v>
+      </c>
+      <c r="S11">
+        <v>99999999</v>
+      </c>
+      <c r="T11">
+        <v>99999999</v>
+      </c>
+      <c r="U11">
+        <v>99999999</v>
+      </c>
+      <c r="V11">
+        <v>99999999</v>
+      </c>
+      <c r="W11">
+        <v>99999999</v>
+      </c>
+      <c r="X11">
+        <v>99999999</v>
+      </c>
+      <c r="Y11">
+        <v>99999999</v>
+      </c>
+      <c r="Z11">
+        <v>99999999</v>
+      </c>
+      <c r="AA11">
+        <v>99999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
+      <c r="A12" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12">
+        <v>99999999</v>
+      </c>
+      <c r="C12">
+        <v>99999999</v>
+      </c>
+      <c r="D12">
+        <v>99999999</v>
+      </c>
+      <c r="E12">
+        <v>99999999</v>
+      </c>
+      <c r="F12">
+        <v>99999999</v>
+      </c>
+      <c r="G12">
+        <v>99999999</v>
+      </c>
+      <c r="H12">
+        <v>99999999</v>
+      </c>
+      <c r="I12">
+        <v>99999999</v>
+      </c>
+      <c r="J12">
+        <v>99999999</v>
+      </c>
+      <c r="K12">
+        <v>99999999</v>
+      </c>
+      <c r="L12">
+        <v>99999999</v>
+      </c>
+      <c r="M12">
+        <v>99999999</v>
+      </c>
+      <c r="N12">
+        <v>99999999</v>
+      </c>
+      <c r="O12">
+        <v>99999999</v>
+      </c>
+      <c r="P12">
+        <v>99999999</v>
+      </c>
+      <c r="Q12">
+        <v>99999999</v>
+      </c>
+      <c r="R12">
+        <v>99999999</v>
+      </c>
+      <c r="S12">
+        <v>99999999</v>
+      </c>
+      <c r="T12">
+        <v>99999999</v>
+      </c>
+      <c r="U12">
+        <v>99999999</v>
+      </c>
+      <c r="V12">
+        <v>99999999</v>
+      </c>
+      <c r="W12">
+        <v>99999999</v>
+      </c>
+      <c r="X12">
+        <v>99999999</v>
+      </c>
+      <c r="Y12">
+        <v>99999999</v>
+      </c>
+      <c r="Z12">
+        <v>99999999</v>
+      </c>
+      <c r="AA12">
+        <v>99999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="19.2">
+      <c r="A13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13">
+        <v>99999999</v>
+      </c>
+      <c r="C13">
+        <v>99999999</v>
+      </c>
+      <c r="D13">
+        <v>99999999</v>
+      </c>
+      <c r="E13">
+        <v>99999999</v>
+      </c>
+      <c r="F13">
+        <v>99999999</v>
+      </c>
+      <c r="G13">
+        <v>99999999</v>
+      </c>
+      <c r="H13">
+        <v>99999999</v>
+      </c>
+      <c r="I13">
+        <v>99999999</v>
+      </c>
+      <c r="J13">
+        <v>99999999</v>
+      </c>
+      <c r="K13">
+        <v>99999999</v>
+      </c>
+      <c r="L13">
+        <v>99999999</v>
+      </c>
+      <c r="M13">
+        <v>99999999</v>
+      </c>
+      <c r="N13">
+        <v>99999999</v>
+      </c>
+      <c r="O13">
+        <v>99999999</v>
+      </c>
+      <c r="P13">
+        <v>99999999</v>
+      </c>
+      <c r="Q13">
+        <v>99999999</v>
+      </c>
+      <c r="R13">
+        <v>99999999</v>
+      </c>
+      <c r="S13">
+        <v>99999999</v>
+      </c>
+      <c r="T13">
+        <v>99999999</v>
+      </c>
+      <c r="U13">
+        <v>99999999</v>
+      </c>
+      <c r="V13">
+        <v>99999999</v>
+      </c>
+      <c r="W13">
+        <v>99999999</v>
+      </c>
+      <c r="X13">
+        <v>99999999</v>
+      </c>
+      <c r="Y13">
+        <v>99999999</v>
+      </c>
+      <c r="Z13">
+        <v>99999999</v>
+      </c>
+      <c r="AA13">
+        <v>99999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="19.2">
+      <c r="A14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14">
+        <v>99999999</v>
+      </c>
+      <c r="C14">
+        <v>99999999</v>
+      </c>
+      <c r="D14">
+        <v>99999999</v>
+      </c>
+      <c r="E14">
+        <v>99999999</v>
+      </c>
+      <c r="F14">
+        <v>99999999</v>
+      </c>
+      <c r="G14">
+        <v>99999999</v>
+      </c>
+      <c r="H14">
+        <v>99999999</v>
+      </c>
+      <c r="I14">
+        <v>99999999</v>
+      </c>
+      <c r="J14">
+        <v>99999999</v>
+      </c>
+      <c r="K14">
+        <v>99999999</v>
+      </c>
+      <c r="L14">
+        <v>99999999</v>
+      </c>
+      <c r="M14">
+        <v>99999999</v>
+      </c>
+      <c r="N14">
+        <v>99999999</v>
+      </c>
+      <c r="O14">
+        <v>99999999</v>
+      </c>
+      <c r="P14">
+        <v>99999999</v>
+      </c>
+      <c r="Q14">
+        <v>99999999</v>
+      </c>
+      <c r="R14">
+        <v>99999999</v>
+      </c>
+      <c r="S14">
+        <v>99999999</v>
+      </c>
+      <c r="T14">
+        <v>99999999</v>
+      </c>
+      <c r="U14">
+        <v>99999999</v>
+      </c>
+      <c r="V14">
+        <v>99999999</v>
+      </c>
+      <c r="W14">
+        <v>99999999</v>
+      </c>
+      <c r="X14">
+        <v>99999999</v>
+      </c>
+      <c r="Y14">
+        <v>99999999</v>
+      </c>
+      <c r="Z14">
+        <v>99999999</v>
+      </c>
+      <c r="AA14">
+        <v>99999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F464A74C-C8AE-4B5D-B335-B05DB5565181}">
   <dimension ref="A1:AA4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD35"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
@@ -1044,7 +2292,7 @@
     </row>
     <row r="2" spans="1:27">
       <c r="A2" s="2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1127,7 +2375,7 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1210,7 +2458,7 @@
     </row>
     <row r="4" spans="1:27">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1298,12 +2546,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3CF035B-C14B-46B7-A841-579E94220A37}">
   <dimension ref="A1:AA10"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T45" sqref="T45"/>
+    <sheetView zoomScale="112" zoomScaleNormal="47" workbookViewId="0">
+      <selection activeCell="W13" sqref="V13:W13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
@@ -1396,7 +2644,7 @@
     </row>
     <row r="2" spans="1:27">
       <c r="A2" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1479,7 +2727,7 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1562,7 +2810,7 @@
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="2" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1645,7 +2893,7 @@
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="2" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1728,7 +2976,7 @@
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1811,7 +3059,7 @@
     </row>
     <row r="7" spans="1:27">
       <c r="A7" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1894,7 +3142,7 @@
     </row>
     <row r="8" spans="1:27">
       <c r="A8" s="2" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1977,7 +3225,7 @@
     </row>
     <row r="9" spans="1:27">
       <c r="A9" s="2" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -2060,7 +3308,7 @@
     </row>
     <row r="10" spans="1:27">
       <c r="A10" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -2148,12 +3396,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83A8B42D-00EB-470C-A0D2-7C21A6CB877B}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView zoomScale="107" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD32"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
@@ -2166,175 +3414,184 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="9"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="11" t="s">
-        <v>45</v>
+      <c r="A2" s="16" t="s">
+        <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="9">
-        <v>1</v>
-      </c>
-      <c r="D2" s="9">
-        <v>0</v>
-      </c>
-      <c r="E2" s="9">
+        <v>63</v>
+      </c>
+      <c r="C2" s="14">
+        <v>1</v>
+      </c>
+      <c r="D2" s="14">
+        <v>0</v>
+      </c>
+      <c r="E2" s="14">
         <v>2000</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="11" t="s">
-        <v>45</v>
+      <c r="A3" s="16" t="s">
+        <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="9">
+        <v>65</v>
+      </c>
+      <c r="C3" s="14">
         <v>0.3</v>
       </c>
-      <c r="D3" s="9">
-        <v>0</v>
-      </c>
-      <c r="E3" s="9">
+      <c r="D3" s="14">
+        <v>0</v>
+      </c>
+      <c r="E3" s="14">
         <v>2000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="11" t="s">
-        <v>45</v>
+      <c r="A4" s="16" t="s">
+        <v>53</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="9">
+        <v>67</v>
+      </c>
+      <c r="C4" s="14">
         <v>0.01</v>
       </c>
-      <c r="D4" s="9">
-        <v>0</v>
-      </c>
-      <c r="E4" s="9">
+      <c r="D4" s="14">
+        <v>0</v>
+      </c>
+      <c r="E4" s="14">
         <v>2000</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="9" t="s">
-        <v>58</v>
+      <c r="A5" s="14" t="s">
+        <v>66</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="9">
+        <v>71</v>
+      </c>
+      <c r="C5" s="14">
         <v>0.01</v>
       </c>
-      <c r="D5" s="9">
-        <v>0</v>
-      </c>
-      <c r="E5" s="9">
+      <c r="D5" s="14">
+        <v>0</v>
+      </c>
+      <c r="E5" s="14">
         <v>2000</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="9" t="s">
-        <v>58</v>
+      <c r="A6" s="14" t="s">
+        <v>66</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="9">
+        <v>72</v>
+      </c>
+      <c r="C6" s="14">
         <v>0.3</v>
       </c>
-      <c r="D6" s="9">
-        <v>0</v>
-      </c>
-      <c r="E6" s="9">
+      <c r="D6" s="14">
+        <v>0</v>
+      </c>
+      <c r="E6" s="14">
         <v>2000</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="9" t="s">
-        <v>58</v>
+      <c r="A7" s="14" t="s">
+        <v>66</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="9">
-        <v>1</v>
-      </c>
-      <c r="D7" s="9">
-        <v>0</v>
-      </c>
-      <c r="E7" s="9">
+        <v>73</v>
+      </c>
+      <c r="C7" s="14">
+        <v>1</v>
+      </c>
+      <c r="D7" s="14">
+        <v>0</v>
+      </c>
+      <c r="E7" s="14">
         <v>2000</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="34.799999999999997">
-      <c r="A8" s="9" t="s">
-        <v>46</v>
+      <c r="A8" s="14" t="s">
+        <v>54</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="9">
+        <v>68</v>
+      </c>
+      <c r="C8" s="14">
         <v>0.01</v>
       </c>
-      <c r="D8" s="9">
-        <v>0</v>
-      </c>
-      <c r="E8" s="9">
+      <c r="D8" s="14">
+        <v>0</v>
+      </c>
+      <c r="E8" s="14">
         <v>2000</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="9" t="s">
-        <v>46</v>
+      <c r="A9" s="14" t="s">
+        <v>54</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="9">
-        <v>1</v>
-      </c>
-      <c r="D9" s="9">
-        <v>0</v>
-      </c>
-      <c r="E9" s="9">
+        <v>69</v>
+      </c>
+      <c r="C9" s="14">
+        <v>1</v>
+      </c>
+      <c r="D9" s="14">
+        <v>0</v>
+      </c>
+      <c r="E9" s="14">
         <v>2000</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="9" t="s">
-        <v>46</v>
+      <c r="A10" s="14" t="s">
+        <v>54</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="9">
+        <v>70</v>
+      </c>
+      <c r="C10" s="14">
         <v>0.01</v>
       </c>
-      <c r="D10" s="9">
-        <v>0</v>
-      </c>
-      <c r="E10" s="9">
+      <c r="D10" s="14">
+        <v>0</v>
+      </c>
+      <c r="E10" s="14">
         <v>2000</v>
       </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="B13" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2343,12 +3600,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9059A3E3-467F-433B-AAF0-DA415330A29D}">
   <dimension ref="A1:AA10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD37"/>
+      <selection sqref="A1:AA10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
@@ -2443,7 +3700,7 @@
     </row>
     <row r="2" spans="1:27">
       <c r="A2" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B2" s="5">
         <v>126638.8</v>
@@ -2526,7 +3783,7 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B3" s="5">
         <v>290855.8</v>
@@ -2609,7 +3866,7 @@
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="2" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B4" s="5">
         <v>389609</v>
@@ -2692,7 +3949,7 @@
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="2" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B5" s="5">
         <v>126638.8</v>
@@ -2775,7 +4032,7 @@
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B6" s="5">
         <v>290855.8</v>
@@ -2858,7 +4115,7 @@
     </row>
     <row r="7" spans="1:27">
       <c r="A7" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B7" s="5">
         <v>389609</v>
@@ -2941,7 +4198,7 @@
     </row>
     <row r="8" spans="1:27" ht="34.799999999999997">
       <c r="A8" s="2" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B8" s="5">
         <v>126638.8</v>
@@ -3024,7 +4281,7 @@
     </row>
     <row r="9" spans="1:27">
       <c r="A9" s="2" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B9" s="5">
         <v>290855.8</v>
@@ -3107,7 +4364,7 @@
     </row>
     <row r="10" spans="1:27">
       <c r="A10" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B10" s="5">
         <v>389609</v>
@@ -3195,12 +4452,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A95E18AD-1C92-4B5C-962D-792F4AC09175}">
   <dimension ref="A1:AA10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD34"/>
+      <selection activeCell="E17" sqref="E17:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
@@ -3295,7 +4552,7 @@
     </row>
     <row r="2" spans="1:27">
       <c r="A2" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B2" s="3">
         <v>0</v>
@@ -3378,7 +4635,7 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B3" s="3">
         <v>0</v>
@@ -3461,7 +4718,7 @@
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="2" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B4" s="3">
         <v>0</v>
@@ -3544,7 +4801,7 @@
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="2" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -3627,7 +4884,7 @@
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B6" s="3">
         <v>0</v>
@@ -3710,7 +4967,7 @@
     </row>
     <row r="7" spans="1:27">
       <c r="A7" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B7" s="3">
         <v>0</v>
@@ -3793,7 +5050,7 @@
     </row>
     <row r="8" spans="1:27" ht="34.799999999999997">
       <c r="A8" s="2" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
@@ -3876,7 +5133,7 @@
     </row>
     <row r="9" spans="1:27">
       <c r="A9" s="2" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B9" s="3">
         <v>0</v>
@@ -3959,7 +5216,7 @@
     </row>
     <row r="10" spans="1:27">
       <c r="A10" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B10" s="3">
         <v>0</v>
@@ -4047,7 +5304,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{410A1906-5A3B-4FF2-8752-8FE09D0C1871}">
   <dimension ref="A1:B10"/>
   <sheetViews>
@@ -4070,7 +5327,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B2">
         <v>2000</v>
@@ -4078,7 +5335,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B3">
         <v>2000</v>
@@ -4086,7 +5343,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B4">
         <v>2000</v>
@@ -4094,7 +5351,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B5">
         <v>2000</v>
@@ -4102,7 +5359,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B6">
         <v>2000</v>
@@ -4110,7 +5367,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B7">
         <v>2000</v>
@@ -4118,7 +5375,7 @@
     </row>
     <row r="8" spans="1:2" ht="34.799999999999997">
       <c r="A8" s="2" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B8">
         <v>2000</v>
@@ -4126,7 +5383,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B9">
         <v>2000</v>
@@ -4134,7 +5391,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B10">
         <v>2000</v>
@@ -4147,7 +5404,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A811D9-2602-4FD1-8BF7-F55E2D4AA43D}">
   <dimension ref="A1:B13"/>
   <sheetViews>
@@ -4171,7 +5428,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B2">
         <v>2000</v>
@@ -4179,7 +5436,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B3">
         <v>2000</v>
@@ -4187,7 +5444,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B4">
         <v>2000</v>
@@ -4195,7 +5452,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B5">
         <v>2000</v>
@@ -4203,7 +5460,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B6">
         <v>2000</v>
@@ -4211,7 +5468,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B7">
         <v>2000</v>
@@ -4219,7 +5476,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B8">
         <v>2000</v>
@@ -4227,7 +5484,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B9">
         <v>2000</v>
@@ -4235,7 +5492,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B10">
         <v>2000</v>
@@ -4243,7 +5500,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B11">
         <v>2000</v>
@@ -4251,7 +5508,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B12">
         <v>2000</v>
@@ -4259,7 +5516,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B13">
         <v>2000</v>
@@ -4272,11 +5529,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{251D8908-2320-4E41-AC8F-86BD7BF58C9B}">
   <dimension ref="A1:AA13"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
@@ -4370,997 +5627,997 @@
     </row>
     <row r="2" spans="1:27">
       <c r="A2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="12">
+        <v>57</v>
+      </c>
+      <c r="B2" s="17">
         <v>16810</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="17">
         <v>16810</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="17">
         <v>16810</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="17">
         <v>16810</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="17">
         <v>16810</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="17">
         <v>16810</v>
       </c>
-      <c r="H2" s="12">
+      <c r="H2" s="17">
         <v>16810</v>
       </c>
-      <c r="I2" s="12">
+      <c r="I2" s="17">
         <v>16810</v>
       </c>
-      <c r="J2" s="12">
+      <c r="J2" s="17">
         <v>16810</v>
       </c>
-      <c r="K2" s="12">
+      <c r="K2" s="17">
         <v>16810</v>
       </c>
-      <c r="L2" s="12">
+      <c r="L2" s="17">
         <v>16810</v>
       </c>
-      <c r="M2" s="12">
+      <c r="M2" s="17">
         <v>16810</v>
       </c>
-      <c r="N2" s="12">
+      <c r="N2" s="17">
         <v>16810</v>
       </c>
-      <c r="O2" s="12">
+      <c r="O2" s="17">
         <v>16810</v>
       </c>
-      <c r="P2" s="12">
+      <c r="P2" s="17">
         <v>16810</v>
       </c>
-      <c r="Q2" s="12">
+      <c r="Q2" s="17">
         <v>16810</v>
       </c>
-      <c r="R2" s="12">
+      <c r="R2" s="17">
         <v>16810</v>
       </c>
-      <c r="S2" s="12">
+      <c r="S2" s="17">
         <v>16810</v>
       </c>
-      <c r="T2" s="12">
+      <c r="T2" s="17">
         <v>16810</v>
       </c>
-      <c r="U2" s="12">
+      <c r="U2" s="17">
         <v>16810</v>
       </c>
-      <c r="V2" s="12">
+      <c r="V2" s="17">
         <v>16810</v>
       </c>
-      <c r="W2" s="12">
+      <c r="W2" s="17">
         <v>16810</v>
       </c>
-      <c r="X2" s="12">
+      <c r="X2" s="17">
         <v>16810</v>
       </c>
-      <c r="Y2" s="12">
+      <c r="Y2" s="17">
         <v>16810</v>
       </c>
-      <c r="Z2" s="12">
+      <c r="Z2" s="17">
         <v>16810</v>
       </c>
-      <c r="AA2" s="12">
+      <c r="AA2" s="17">
         <v>16810</v>
       </c>
     </row>
     <row r="3" spans="1:27">
       <c r="A3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="12">
+        <v>58</v>
+      </c>
+      <c r="B3" s="17">
         <v>6810</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="17">
         <v>6810</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="17">
         <v>6810</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="17">
         <v>6810</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="17">
         <v>6810</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="17">
         <v>6810</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="17">
         <v>6810</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I3" s="17">
         <v>6810</v>
       </c>
-      <c r="J3" s="12">
+      <c r="J3" s="17">
         <v>6810</v>
       </c>
-      <c r="K3" s="12">
+      <c r="K3" s="17">
         <v>6810</v>
       </c>
-      <c r="L3" s="12">
+      <c r="L3" s="17">
         <v>6810</v>
       </c>
-      <c r="M3" s="12">
+      <c r="M3" s="17">
         <v>6810</v>
       </c>
-      <c r="N3" s="12">
+      <c r="N3" s="17">
         <v>6810</v>
       </c>
-      <c r="O3" s="12">
+      <c r="O3" s="17">
         <v>6810</v>
       </c>
-      <c r="P3" s="12">
+      <c r="P3" s="17">
         <v>6810</v>
       </c>
-      <c r="Q3" s="12">
+      <c r="Q3" s="17">
         <v>6810</v>
       </c>
-      <c r="R3" s="12">
+      <c r="R3" s="17">
         <v>6810</v>
       </c>
-      <c r="S3" s="12">
+      <c r="S3" s="17">
         <v>6810</v>
       </c>
-      <c r="T3" s="12">
+      <c r="T3" s="17">
         <v>6810</v>
       </c>
-      <c r="U3" s="12">
+      <c r="U3" s="17">
         <v>6810</v>
       </c>
-      <c r="V3" s="12">
+      <c r="V3" s="17">
         <v>6810</v>
       </c>
-      <c r="W3" s="12">
+      <c r="W3" s="17">
         <v>6810</v>
       </c>
-      <c r="X3" s="12">
+      <c r="X3" s="17">
         <v>6810</v>
       </c>
-      <c r="Y3" s="12">
+      <c r="Y3" s="17">
         <v>6810</v>
       </c>
-      <c r="Z3" s="12">
+      <c r="Z3" s="17">
         <v>6810</v>
       </c>
-      <c r="AA3" s="12">
+      <c r="AA3" s="17">
         <v>6810</v>
       </c>
     </row>
     <row r="4" spans="1:27">
       <c r="A4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="12">
-        <v>0</v>
-      </c>
-      <c r="C4" s="12">
-        <v>0</v>
-      </c>
-      <c r="D4" s="12">
-        <v>0</v>
-      </c>
-      <c r="E4" s="12">
-        <v>0</v>
-      </c>
-      <c r="F4" s="12">
-        <v>0</v>
-      </c>
-      <c r="G4" s="12">
-        <v>0</v>
-      </c>
-      <c r="H4" s="12">
-        <v>0</v>
-      </c>
-      <c r="I4" s="12">
-        <v>0</v>
-      </c>
-      <c r="J4" s="12">
-        <v>0</v>
-      </c>
-      <c r="K4" s="12">
-        <v>0</v>
-      </c>
-      <c r="L4" s="12">
-        <v>0</v>
-      </c>
-      <c r="M4" s="12">
-        <v>0</v>
-      </c>
-      <c r="N4" s="12">
-        <v>0</v>
-      </c>
-      <c r="O4" s="12">
-        <v>0</v>
-      </c>
-      <c r="P4" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="12">
-        <v>0</v>
-      </c>
-      <c r="R4" s="12">
-        <v>0</v>
-      </c>
-      <c r="S4" s="12">
-        <v>0</v>
-      </c>
-      <c r="T4" s="12">
-        <v>0</v>
-      </c>
-      <c r="U4" s="12">
-        <v>0</v>
-      </c>
-      <c r="V4" s="12">
-        <v>0</v>
-      </c>
-      <c r="W4" s="12">
-        <v>0</v>
-      </c>
-      <c r="X4" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="12">
+        <v>59</v>
+      </c>
+      <c r="B4" s="17">
+        <v>0</v>
+      </c>
+      <c r="C4" s="17">
+        <v>0</v>
+      </c>
+      <c r="D4" s="17">
+        <v>0</v>
+      </c>
+      <c r="E4" s="17">
+        <v>0</v>
+      </c>
+      <c r="F4" s="17">
+        <v>0</v>
+      </c>
+      <c r="G4" s="17">
+        <v>0</v>
+      </c>
+      <c r="H4" s="17">
+        <v>0</v>
+      </c>
+      <c r="I4" s="17">
+        <v>0</v>
+      </c>
+      <c r="J4" s="17">
+        <v>0</v>
+      </c>
+      <c r="K4" s="17">
+        <v>0</v>
+      </c>
+      <c r="L4" s="17">
+        <v>0</v>
+      </c>
+      <c r="M4" s="17">
+        <v>0</v>
+      </c>
+      <c r="N4" s="17">
+        <v>0</v>
+      </c>
+      <c r="O4" s="17">
+        <v>0</v>
+      </c>
+      <c r="P4" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="17">
+        <v>0</v>
+      </c>
+      <c r="R4" s="17">
+        <v>0</v>
+      </c>
+      <c r="S4" s="17">
+        <v>0</v>
+      </c>
+      <c r="T4" s="17">
+        <v>0</v>
+      </c>
+      <c r="U4" s="17">
+        <v>0</v>
+      </c>
+      <c r="V4" s="17">
+        <v>0</v>
+      </c>
+      <c r="W4" s="17">
+        <v>0</v>
+      </c>
+      <c r="X4" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:27">
       <c r="A5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="12">
-        <v>0</v>
-      </c>
-      <c r="C5" s="12">
-        <v>0</v>
-      </c>
-      <c r="D5" s="12">
-        <v>0</v>
-      </c>
-      <c r="E5" s="12">
-        <v>0</v>
-      </c>
-      <c r="F5" s="12">
-        <v>0</v>
-      </c>
-      <c r="G5" s="12">
-        <v>0</v>
-      </c>
-      <c r="H5" s="12">
-        <v>0</v>
-      </c>
-      <c r="I5" s="12">
-        <v>0</v>
-      </c>
-      <c r="J5" s="12">
-        <v>0</v>
-      </c>
-      <c r="K5" s="12">
-        <v>0</v>
-      </c>
-      <c r="L5" s="12">
-        <v>0</v>
-      </c>
-      <c r="M5" s="12">
-        <v>0</v>
-      </c>
-      <c r="N5" s="12">
-        <v>0</v>
-      </c>
-      <c r="O5" s="12">
-        <v>0</v>
-      </c>
-      <c r="P5" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="12">
-        <v>0</v>
-      </c>
-      <c r="R5" s="12">
-        <v>0</v>
-      </c>
-      <c r="S5" s="12">
-        <v>0</v>
-      </c>
-      <c r="T5" s="12">
-        <v>0</v>
-      </c>
-      <c r="U5" s="12">
-        <v>0</v>
-      </c>
-      <c r="V5" s="12">
-        <v>0</v>
-      </c>
-      <c r="W5" s="12">
-        <v>0</v>
-      </c>
-      <c r="X5" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="12">
+        <v>60</v>
+      </c>
+      <c r="B5" s="17">
+        <v>0</v>
+      </c>
+      <c r="C5" s="17">
+        <v>0</v>
+      </c>
+      <c r="D5" s="17">
+        <v>0</v>
+      </c>
+      <c r="E5" s="17">
+        <v>0</v>
+      </c>
+      <c r="F5" s="17">
+        <v>0</v>
+      </c>
+      <c r="G5" s="17">
+        <v>0</v>
+      </c>
+      <c r="H5" s="17">
+        <v>0</v>
+      </c>
+      <c r="I5" s="17">
+        <v>0</v>
+      </c>
+      <c r="J5" s="17">
+        <v>0</v>
+      </c>
+      <c r="K5" s="17">
+        <v>0</v>
+      </c>
+      <c r="L5" s="17">
+        <v>0</v>
+      </c>
+      <c r="M5" s="17">
+        <v>0</v>
+      </c>
+      <c r="N5" s="17">
+        <v>0</v>
+      </c>
+      <c r="O5" s="17">
+        <v>0</v>
+      </c>
+      <c r="P5" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="17">
+        <v>0</v>
+      </c>
+      <c r="R5" s="17">
+        <v>0</v>
+      </c>
+      <c r="S5" s="17">
+        <v>0</v>
+      </c>
+      <c r="T5" s="17">
+        <v>0</v>
+      </c>
+      <c r="U5" s="17">
+        <v>0</v>
+      </c>
+      <c r="V5" s="17">
+        <v>0</v>
+      </c>
+      <c r="W5" s="17">
+        <v>0</v>
+      </c>
+      <c r="X5" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:27">
       <c r="A6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="12">
-        <v>0</v>
-      </c>
-      <c r="C6" s="12">
-        <v>0</v>
-      </c>
-      <c r="D6" s="12">
-        <v>0</v>
-      </c>
-      <c r="E6" s="12">
-        <v>0</v>
-      </c>
-      <c r="F6" s="12">
-        <v>0</v>
-      </c>
-      <c r="G6" s="12">
-        <v>0</v>
-      </c>
-      <c r="H6" s="12">
-        <v>0</v>
-      </c>
-      <c r="I6" s="12">
-        <v>0</v>
-      </c>
-      <c r="J6" s="12">
-        <v>0</v>
-      </c>
-      <c r="K6" s="12">
-        <v>0</v>
-      </c>
-      <c r="L6" s="12">
-        <v>0</v>
-      </c>
-      <c r="M6" s="12">
-        <v>0</v>
-      </c>
-      <c r="N6" s="12">
-        <v>0</v>
-      </c>
-      <c r="O6" s="12">
-        <v>0</v>
-      </c>
-      <c r="P6" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="12">
-        <v>0</v>
-      </c>
-      <c r="R6" s="12">
-        <v>0</v>
-      </c>
-      <c r="S6" s="12">
-        <v>0</v>
-      </c>
-      <c r="T6" s="12">
-        <v>0</v>
-      </c>
-      <c r="U6" s="12">
-        <v>0</v>
-      </c>
-      <c r="V6" s="12">
-        <v>0</v>
-      </c>
-      <c r="W6" s="12">
-        <v>0</v>
-      </c>
-      <c r="X6" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="12">
+        <v>61</v>
+      </c>
+      <c r="B6" s="17">
+        <v>0</v>
+      </c>
+      <c r="C6" s="17">
+        <v>0</v>
+      </c>
+      <c r="D6" s="17">
+        <v>0</v>
+      </c>
+      <c r="E6" s="17">
+        <v>0</v>
+      </c>
+      <c r="F6" s="17">
+        <v>0</v>
+      </c>
+      <c r="G6" s="17">
+        <v>0</v>
+      </c>
+      <c r="H6" s="17">
+        <v>0</v>
+      </c>
+      <c r="I6" s="17">
+        <v>0</v>
+      </c>
+      <c r="J6" s="17">
+        <v>0</v>
+      </c>
+      <c r="K6" s="17">
+        <v>0</v>
+      </c>
+      <c r="L6" s="17">
+        <v>0</v>
+      </c>
+      <c r="M6" s="17">
+        <v>0</v>
+      </c>
+      <c r="N6" s="17">
+        <v>0</v>
+      </c>
+      <c r="O6" s="17">
+        <v>0</v>
+      </c>
+      <c r="P6" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="17">
+        <v>0</v>
+      </c>
+      <c r="R6" s="17">
+        <v>0</v>
+      </c>
+      <c r="S6" s="17">
+        <v>0</v>
+      </c>
+      <c r="T6" s="17">
+        <v>0</v>
+      </c>
+      <c r="U6" s="17">
+        <v>0</v>
+      </c>
+      <c r="V6" s="17">
+        <v>0</v>
+      </c>
+      <c r="W6" s="17">
+        <v>0</v>
+      </c>
+      <c r="X6" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:27">
       <c r="A7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" s="12">
+        <v>62</v>
+      </c>
+      <c r="B7" s="17">
         <v>3611</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="17">
         <v>3611</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="17">
         <v>3611</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="17">
         <v>3611</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="17">
         <v>3611</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="17">
         <v>3611</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="17">
         <v>3611</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="17">
         <v>3611</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="17">
         <v>3611</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="17">
         <v>3611</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="17">
         <v>3611</v>
       </c>
-      <c r="M7" s="12">
+      <c r="M7" s="17">
         <v>3611</v>
       </c>
-      <c r="N7" s="12">
+      <c r="N7" s="17">
         <v>3611</v>
       </c>
-      <c r="O7" s="12">
+      <c r="O7" s="17">
         <v>3611</v>
       </c>
-      <c r="P7" s="12">
+      <c r="P7" s="17">
         <v>3611</v>
       </c>
-      <c r="Q7" s="12">
+      <c r="Q7" s="17">
         <v>3611</v>
       </c>
-      <c r="R7" s="12">
+      <c r="R7" s="17">
         <v>3611</v>
       </c>
-      <c r="S7" s="12">
+      <c r="S7" s="17">
         <v>3611</v>
       </c>
-      <c r="T7" s="12">
+      <c r="T7" s="17">
         <v>3611</v>
       </c>
-      <c r="U7" s="12">
+      <c r="U7" s="17">
         <v>3611</v>
       </c>
-      <c r="V7" s="12">
+      <c r="V7" s="17">
         <v>3611</v>
       </c>
-      <c r="W7" s="12">
+      <c r="W7" s="17">
         <v>3611</v>
       </c>
-      <c r="X7" s="12">
+      <c r="X7" s="17">
         <v>3611</v>
       </c>
-      <c r="Y7" s="12">
+      <c r="Y7" s="17">
         <v>3611</v>
       </c>
-      <c r="Z7" s="12">
+      <c r="Z7" s="17">
         <v>3611</v>
       </c>
-      <c r="AA7" s="12">
+      <c r="AA7" s="17">
         <v>3611</v>
       </c>
     </row>
     <row r="8" spans="1:27">
       <c r="A8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" s="12">
+        <v>74</v>
+      </c>
+      <c r="B8" s="17">
         <v>90716.67</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="17">
         <v>89675</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="17">
         <v>87975</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="17">
         <v>89741.67</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="17">
         <v>89800</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="17">
         <v>86400</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="17">
         <v>83208.33</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="17">
         <v>80783.33</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="17">
         <v>78908.33</v>
       </c>
-      <c r="K8" s="12">
+      <c r="K8" s="17">
         <v>78433.33</v>
       </c>
-      <c r="L8" s="12">
+      <c r="L8" s="17">
         <v>77441.67</v>
       </c>
-      <c r="M8" s="12">
+      <c r="M8" s="17">
         <v>76391.67</v>
       </c>
-      <c r="N8" s="12">
+      <c r="N8" s="17">
         <v>71533.33</v>
       </c>
-      <c r="O8" s="12">
+      <c r="O8" s="17">
         <v>68441.67</v>
       </c>
-      <c r="P8" s="12">
+      <c r="P8" s="17">
         <v>65491.67</v>
       </c>
-      <c r="Q8" s="12">
+      <c r="Q8" s="17">
         <v>62683.33</v>
       </c>
-      <c r="R8" s="12">
+      <c r="R8" s="17">
         <v>60000</v>
       </c>
-      <c r="S8" s="12">
+      <c r="S8" s="17">
         <v>57441.67</v>
       </c>
-      <c r="T8" s="12">
+      <c r="T8" s="17">
         <v>55000</v>
       </c>
-      <c r="U8" s="12">
+      <c r="U8" s="17">
         <v>52666.67</v>
       </c>
-      <c r="V8" s="12">
+      <c r="V8" s="17">
         <v>50441.67</v>
       </c>
-      <c r="W8" s="12">
+      <c r="W8" s="17">
         <v>48316.67</v>
       </c>
-      <c r="X8" s="12">
+      <c r="X8" s="17">
         <v>46275</v>
       </c>
-      <c r="Y8" s="12">
+      <c r="Y8" s="17">
         <v>44325</v>
       </c>
-      <c r="Z8" s="12">
+      <c r="Z8" s="17">
         <v>42458.33</v>
       </c>
-      <c r="AA8" s="12">
+      <c r="AA8" s="17">
         <v>40675</v>
       </c>
     </row>
     <row r="9" spans="1:27">
       <c r="A9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B9" s="15">
+        <v>75</v>
+      </c>
+      <c r="B9" s="20">
         <v>19850</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="20">
         <v>19850</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="20">
         <v>19850</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="20">
         <v>19850</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="20">
         <v>19850</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="20">
         <v>19850</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="20">
         <v>19850</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I9" s="20">
         <v>19850</v>
       </c>
-      <c r="J9" s="15">
+      <c r="J9" s="20">
         <v>19850</v>
       </c>
-      <c r="K9" s="15">
+      <c r="K9" s="20">
         <v>19850</v>
       </c>
-      <c r="L9" s="15">
+      <c r="L9" s="20">
         <v>19850</v>
       </c>
-      <c r="M9" s="15">
+      <c r="M9" s="20">
         <v>19850</v>
       </c>
-      <c r="N9" s="15">
+      <c r="N9" s="20">
         <v>19850</v>
       </c>
-      <c r="O9" s="15">
+      <c r="O9" s="20">
         <v>19850</v>
       </c>
-      <c r="P9" s="15">
+      <c r="P9" s="20">
         <v>19850</v>
       </c>
-      <c r="Q9" s="15">
+      <c r="Q9" s="20">
         <v>19850</v>
       </c>
-      <c r="R9" s="15">
+      <c r="R9" s="20">
         <v>19850</v>
       </c>
-      <c r="S9" s="15">
+      <c r="S9" s="20">
         <v>19850</v>
       </c>
-      <c r="T9" s="15">
+      <c r="T9" s="20">
         <v>19850</v>
       </c>
-      <c r="U9" s="15">
+      <c r="U9" s="20">
         <v>19850</v>
       </c>
-      <c r="V9" s="15">
+      <c r="V9" s="20">
         <v>19850</v>
       </c>
-      <c r="W9" s="15">
+      <c r="W9" s="20">
         <v>19850</v>
       </c>
-      <c r="X9" s="15">
+      <c r="X9" s="20">
         <v>19850</v>
       </c>
-      <c r="Y9" s="15">
+      <c r="Y9" s="20">
         <v>19850</v>
       </c>
-      <c r="Z9" s="15">
+      <c r="Z9" s="20">
         <v>19850</v>
       </c>
-      <c r="AA9" s="15">
+      <c r="AA9" s="20">
         <v>19850</v>
       </c>
     </row>
     <row r="10" spans="1:27">
       <c r="A10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" s="15">
+        <v>76</v>
+      </c>
+      <c r="B10" s="20">
         <v>4000</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="20">
         <v>4000</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="20">
         <v>4000</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="20">
         <v>4000</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="20">
         <v>4000</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="20">
         <v>4000</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H10" s="20">
         <v>4000</v>
       </c>
-      <c r="I10" s="15">
+      <c r="I10" s="20">
         <v>4000</v>
       </c>
-      <c r="J10" s="15">
+      <c r="J10" s="20">
         <v>4000</v>
       </c>
-      <c r="K10" s="15">
+      <c r="K10" s="20">
         <v>4000</v>
       </c>
-      <c r="L10" s="15">
+      <c r="L10" s="20">
         <v>4000</v>
       </c>
-      <c r="M10" s="15">
+      <c r="M10" s="20">
         <v>4000</v>
       </c>
-      <c r="N10" s="15">
+      <c r="N10" s="20">
         <v>4000</v>
       </c>
-      <c r="O10" s="15">
+      <c r="O10" s="20">
         <v>4000</v>
       </c>
-      <c r="P10" s="15">
+      <c r="P10" s="20">
         <v>4000</v>
       </c>
-      <c r="Q10" s="15">
+      <c r="Q10" s="20">
         <v>4000</v>
       </c>
-      <c r="R10" s="15">
+      <c r="R10" s="20">
         <v>4000</v>
       </c>
-      <c r="S10" s="15">
+      <c r="S10" s="20">
         <v>4000</v>
       </c>
-      <c r="T10" s="15">
+      <c r="T10" s="20">
         <v>4000</v>
       </c>
-      <c r="U10" s="15">
+      <c r="U10" s="20">
         <v>4000</v>
       </c>
-      <c r="V10" s="15">
+      <c r="V10" s="20">
         <v>4000</v>
       </c>
-      <c r="W10" s="15">
+      <c r="W10" s="20">
         <v>4000</v>
       </c>
-      <c r="X10" s="15">
+      <c r="X10" s="20">
         <v>4000</v>
       </c>
-      <c r="Y10" s="15">
+      <c r="Y10" s="20">
         <v>4000</v>
       </c>
-      <c r="Z10" s="15">
+      <c r="Z10" s="20">
         <v>4000</v>
       </c>
-      <c r="AA10" s="15">
+      <c r="AA10" s="20">
         <v>4000</v>
       </c>
     </row>
     <row r="11" spans="1:27">
       <c r="A11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" s="15">
+        <v>77</v>
+      </c>
+      <c r="B11" s="20">
         <v>3611</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="20">
         <v>3611</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="20">
         <v>3611</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="20">
         <v>3611</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="20">
         <v>3611</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="20">
         <v>3611</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="20">
         <v>3611</v>
       </c>
-      <c r="I11" s="15">
+      <c r="I11" s="20">
         <v>3611</v>
       </c>
-      <c r="J11" s="15">
+      <c r="J11" s="20">
         <v>3611</v>
       </c>
-      <c r="K11" s="15">
+      <c r="K11" s="20">
         <v>3611</v>
       </c>
-      <c r="L11" s="15">
+      <c r="L11" s="20">
         <v>3611</v>
       </c>
-      <c r="M11" s="15">
+      <c r="M11" s="20">
         <v>3611</v>
       </c>
-      <c r="N11" s="15">
+      <c r="N11" s="20">
         <v>3611</v>
       </c>
-      <c r="O11" s="15">
+      <c r="O11" s="20">
         <v>3611</v>
       </c>
-      <c r="P11" s="15">
+      <c r="P11" s="20">
         <v>3611</v>
       </c>
-      <c r="Q11" s="15">
+      <c r="Q11" s="20">
         <v>3611</v>
       </c>
-      <c r="R11" s="15">
+      <c r="R11" s="20">
         <v>3611</v>
       </c>
-      <c r="S11" s="15">
+      <c r="S11" s="20">
         <v>3611</v>
       </c>
-      <c r="T11" s="15">
+      <c r="T11" s="20">
         <v>3611</v>
       </c>
-      <c r="U11" s="15">
+      <c r="U11" s="20">
         <v>3611</v>
       </c>
-      <c r="V11" s="15">
+      <c r="V11" s="20">
         <v>3611</v>
       </c>
-      <c r="W11" s="15">
+      <c r="W11" s="20">
         <v>3611</v>
       </c>
-      <c r="X11" s="15">
+      <c r="X11" s="20">
         <v>3611</v>
       </c>
-      <c r="Y11" s="15">
+      <c r="Y11" s="20">
         <v>3611</v>
       </c>
-      <c r="Z11" s="15">
+      <c r="Z11" s="20">
         <v>3611</v>
       </c>
-      <c r="AA11" s="15">
+      <c r="AA11" s="20">
         <v>3611</v>
       </c>
     </row>
     <row r="12" spans="1:27">
       <c r="A12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B12" s="15">
+        <v>78</v>
+      </c>
+      <c r="B12" s="20">
         <v>50750</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="20">
         <v>50750</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="20">
         <v>50750</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="20">
         <v>50750</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="20">
         <v>50750</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="20">
         <v>50750</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="20">
         <v>50750</v>
       </c>
-      <c r="I12" s="15">
+      <c r="I12" s="20">
         <v>50750</v>
       </c>
-      <c r="J12" s="15">
+      <c r="J12" s="20">
         <v>50750</v>
       </c>
-      <c r="K12" s="15">
+      <c r="K12" s="20">
         <v>50750</v>
       </c>
-      <c r="L12" s="15">
+      <c r="L12" s="20">
         <v>50750</v>
       </c>
-      <c r="M12" s="15">
+      <c r="M12" s="20">
         <v>50750</v>
       </c>
-      <c r="N12" s="15">
+      <c r="N12" s="20">
         <v>50750</v>
       </c>
-      <c r="O12" s="15">
+      <c r="O12" s="20">
         <v>50750</v>
       </c>
-      <c r="P12" s="15">
+      <c r="P12" s="20">
         <v>50750</v>
       </c>
-      <c r="Q12" s="15">
+      <c r="Q12" s="20">
         <v>50750</v>
       </c>
-      <c r="R12" s="15">
+      <c r="R12" s="20">
         <v>50750</v>
       </c>
-      <c r="S12" s="15">
+      <c r="S12" s="20">
         <v>50750</v>
       </c>
-      <c r="T12" s="15">
+      <c r="T12" s="20">
         <v>50750</v>
       </c>
-      <c r="U12" s="15">
+      <c r="U12" s="20">
         <v>50750</v>
       </c>
-      <c r="V12" s="15">
+      <c r="V12" s="20">
         <v>50750</v>
       </c>
-      <c r="W12" s="15">
+      <c r="W12" s="20">
         <v>50750</v>
       </c>
-      <c r="X12" s="15">
+      <c r="X12" s="20">
         <v>50750</v>
       </c>
-      <c r="Y12" s="15">
+      <c r="Y12" s="20">
         <v>50750</v>
       </c>
-      <c r="Z12" s="15">
+      <c r="Z12" s="20">
         <v>50750</v>
       </c>
-      <c r="AA12" s="15">
+      <c r="AA12" s="20">
         <v>50750</v>
       </c>
     </row>
     <row r="13" spans="1:27">
       <c r="A13" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" s="15">
+        <v>79</v>
+      </c>
+      <c r="B13" s="20">
         <v>4000</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="20">
         <v>4000</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="20">
         <v>4000</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="20">
         <v>4000</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="20">
         <v>4000</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="20">
         <v>4000</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="20">
         <v>4000</v>
       </c>
-      <c r="I13" s="15">
+      <c r="I13" s="20">
         <v>4000</v>
       </c>
-      <c r="J13" s="15">
+      <c r="J13" s="20">
         <v>4000</v>
       </c>
-      <c r="K13" s="15">
+      <c r="K13" s="20">
         <v>4000</v>
       </c>
-      <c r="L13" s="15">
+      <c r="L13" s="20">
         <v>4000</v>
       </c>
-      <c r="M13" s="15">
+      <c r="M13" s="20">
         <v>4000</v>
       </c>
-      <c r="N13" s="15">
+      <c r="N13" s="20">
         <v>4000</v>
       </c>
-      <c r="O13" s="15">
+      <c r="O13" s="20">
         <v>4000</v>
       </c>
-      <c r="P13" s="15">
+      <c r="P13" s="20">
         <v>4000</v>
       </c>
-      <c r="Q13" s="15">
+      <c r="Q13" s="20">
         <v>4000</v>
       </c>
-      <c r="R13" s="15">
+      <c r="R13" s="20">
         <v>4000</v>
       </c>
-      <c r="S13" s="15">
+      <c r="S13" s="20">
         <v>4000</v>
       </c>
-      <c r="T13" s="15">
+      <c r="T13" s="20">
         <v>4000</v>
       </c>
-      <c r="U13" s="15">
+      <c r="U13" s="20">
         <v>4000</v>
       </c>
-      <c r="V13" s="15">
+      <c r="V13" s="20">
         <v>4000</v>
       </c>
-      <c r="W13" s="15">
+      <c r="W13" s="20">
         <v>4000</v>
       </c>
-      <c r="X13" s="15">
+      <c r="X13" s="20">
         <v>4000</v>
       </c>
-      <c r="Y13" s="15">
+      <c r="Y13" s="20">
         <v>4000</v>
       </c>
-      <c r="Z13" s="15">
+      <c r="Z13" s="20">
         <v>4000</v>
       </c>
-      <c r="AA13" s="15">
+      <c r="AA13" s="20">
         <v>4000</v>
       </c>
     </row>
@@ -5371,12 +6628,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DC1A385-697C-4C01-B126-79A22BD0CC72}">
   <dimension ref="A1:AA15"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
@@ -5470,7 +6727,7 @@
     </row>
     <row r="2" spans="1:27" ht="18" customHeight="1">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B2">
         <v>13.97</v>
@@ -5553,7 +6810,7 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B3">
         <v>13.97</v>
@@ -5636,7 +6893,7 @@
     </row>
     <row r="4" spans="1:27">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B4">
         <v>13.97</v>
@@ -5719,7 +6976,7 @@
     </row>
     <row r="5" spans="1:27">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B5">
         <v>13.97</v>
@@ -5802,7 +7059,7 @@
     </row>
     <row r="6" spans="1:27">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B6">
         <v>13.97</v>
@@ -5885,7 +7142,7 @@
     </row>
     <row r="7" spans="1:27">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B7">
         <v>13.97</v>
@@ -5968,7 +7225,7 @@
     </row>
     <row r="8" spans="1:27">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B8">
         <v>13.97</v>
@@ -6051,7 +7308,7 @@
     </row>
     <row r="9" spans="1:27">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B9">
         <v>13.97</v>
@@ -6134,7 +7391,7 @@
     </row>
     <row r="10" spans="1:27">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B10">
         <v>13.97</v>
@@ -6217,7 +7474,7 @@
     </row>
     <row r="11" spans="1:27">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B11">
         <v>13.97</v>
@@ -6300,7 +7557,7 @@
     </row>
     <row r="12" spans="1:27">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B12">
         <v>13.97</v>
@@ -6383,7 +7640,7 @@
     </row>
     <row r="13" spans="1:27">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B13">
         <v>13.97</v>
@@ -6465,1199 +7722,7 @@
       </c>
     </row>
     <row r="15" spans="1:27">
-      <c r="B15" s="16"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20EB8FDB-F47B-40C2-8266-6700BCAB2D8C}">
-  <dimension ref="A1:AF14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
-  <cols>
-    <col min="1" max="1" width="21.296875" customWidth="1"/>
-    <col min="2" max="2" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.796875" customWidth="1"/>
-    <col min="32" max="32" width="9.3984375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:32">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1">
-        <v>2025</v>
-      </c>
-      <c r="C1">
-        <v>2026</v>
-      </c>
-      <c r="D1">
-        <v>2027</v>
-      </c>
-      <c r="E1">
-        <v>2028</v>
-      </c>
-      <c r="F1">
-        <v>2029</v>
-      </c>
-      <c r="G1">
-        <v>2030</v>
-      </c>
-      <c r="H1">
-        <v>2031</v>
-      </c>
-      <c r="I1">
-        <v>2032</v>
-      </c>
-      <c r="J1">
-        <v>2033</v>
-      </c>
-      <c r="K1">
-        <v>2034</v>
-      </c>
-      <c r="L1">
-        <v>2035</v>
-      </c>
-      <c r="M1">
-        <v>2036</v>
-      </c>
-      <c r="N1">
-        <v>2037</v>
-      </c>
-      <c r="O1">
-        <v>2038</v>
-      </c>
-      <c r="P1">
-        <v>2039</v>
-      </c>
-      <c r="Q1">
-        <v>2040</v>
-      </c>
-      <c r="R1">
-        <v>2041</v>
-      </c>
-      <c r="S1">
-        <v>2042</v>
-      </c>
-      <c r="T1">
-        <v>2043</v>
-      </c>
-      <c r="U1">
-        <v>2044</v>
-      </c>
-      <c r="V1">
-        <v>2045</v>
-      </c>
-      <c r="W1">
-        <v>2046</v>
-      </c>
-      <c r="X1">
-        <v>2047</v>
-      </c>
-      <c r="Y1">
-        <v>2048</v>
-      </c>
-      <c r="Z1">
-        <v>2049</v>
-      </c>
-      <c r="AA1">
-        <v>2050</v>
-      </c>
-      <c r="AF1" s="6"/>
-    </row>
-    <row r="2" spans="1:32">
-      <c r="A2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="14">
-        <v>9.4E-2</v>
-      </c>
-      <c r="C2" s="14">
-        <v>9.4E-2</v>
-      </c>
-      <c r="D2" s="14">
-        <v>9.4E-2</v>
-      </c>
-      <c r="E2" s="14">
-        <v>9.4E-2</v>
-      </c>
-      <c r="F2" s="14">
-        <v>9.4E-2</v>
-      </c>
-      <c r="G2" s="14">
-        <v>9.4E-2</v>
-      </c>
-      <c r="H2" s="14">
-        <v>9.4E-2</v>
-      </c>
-      <c r="I2" s="14">
-        <v>9.4E-2</v>
-      </c>
-      <c r="J2" s="14">
-        <v>9.4E-2</v>
-      </c>
-      <c r="K2" s="14">
-        <v>9.4E-2</v>
-      </c>
-      <c r="L2" s="14">
-        <v>9.4E-2</v>
-      </c>
-      <c r="M2" s="14">
-        <v>9.4E-2</v>
-      </c>
-      <c r="N2" s="14">
-        <v>9.4E-2</v>
-      </c>
-      <c r="O2" s="14">
-        <v>9.4E-2</v>
-      </c>
-      <c r="P2" s="14">
-        <v>9.4E-2</v>
-      </c>
-      <c r="Q2" s="14">
-        <v>9.4E-2</v>
-      </c>
-      <c r="R2" s="14">
-        <v>9.4E-2</v>
-      </c>
-      <c r="S2" s="14">
-        <v>9.4E-2</v>
-      </c>
-      <c r="T2" s="14">
-        <v>9.4E-2</v>
-      </c>
-      <c r="U2" s="14">
-        <v>9.4E-2</v>
-      </c>
-      <c r="V2" s="14">
-        <v>9.4E-2</v>
-      </c>
-      <c r="W2" s="14">
-        <v>9.4E-2</v>
-      </c>
-      <c r="X2" s="14">
-        <v>9.4E-2</v>
-      </c>
-      <c r="Y2" s="14">
-        <v>9.4E-2</v>
-      </c>
-      <c r="Z2" s="14">
-        <v>9.4E-2</v>
-      </c>
-      <c r="AA2" s="14">
-        <v>9.4E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32">
-      <c r="A3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="14">
-        <v>0.108</v>
-      </c>
-      <c r="C3" s="14">
-        <v>0.108</v>
-      </c>
-      <c r="D3" s="14">
-        <v>0.108</v>
-      </c>
-      <c r="E3" s="14">
-        <v>0.108</v>
-      </c>
-      <c r="F3" s="14">
-        <v>0.108</v>
-      </c>
-      <c r="G3" s="14">
-        <v>0.108</v>
-      </c>
-      <c r="H3" s="14">
-        <v>0.108</v>
-      </c>
-      <c r="I3" s="14">
-        <v>0.108</v>
-      </c>
-      <c r="J3" s="14">
-        <v>0.108</v>
-      </c>
-      <c r="K3" s="14">
-        <v>0.108</v>
-      </c>
-      <c r="L3" s="14">
-        <v>0.108</v>
-      </c>
-      <c r="M3" s="14">
-        <v>0.108</v>
-      </c>
-      <c r="N3" s="14">
-        <v>0.108</v>
-      </c>
-      <c r="O3" s="14">
-        <v>0.108</v>
-      </c>
-      <c r="P3" s="14">
-        <v>0.108</v>
-      </c>
-      <c r="Q3" s="14">
-        <v>0.108</v>
-      </c>
-      <c r="R3" s="14">
-        <v>0.108</v>
-      </c>
-      <c r="S3" s="14">
-        <v>0.108</v>
-      </c>
-      <c r="T3" s="14">
-        <v>0.108</v>
-      </c>
-      <c r="U3" s="14">
-        <v>0.108</v>
-      </c>
-      <c r="V3" s="14">
-        <v>0.108</v>
-      </c>
-      <c r="W3" s="14">
-        <v>0.108</v>
-      </c>
-      <c r="X3" s="14">
-        <v>0.108</v>
-      </c>
-      <c r="Y3" s="14">
-        <v>0.108</v>
-      </c>
-      <c r="Z3" s="14">
-        <v>0.108</v>
-      </c>
-      <c r="AA3" s="14">
-        <v>0.108</v>
-      </c>
-      <c r="AC3" s="14"/>
-    </row>
-    <row r="4" spans="1:32">
-      <c r="A4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="14">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="C4" s="14">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="D4" s="14">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="E4" s="14">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="F4" s="14">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="G4" s="14">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="H4" s="14">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="I4" s="14">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="J4" s="14">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="K4" s="14">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="L4" s="14">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="M4" s="14">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="N4" s="14">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="O4" s="14">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="P4" s="14">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="Q4" s="14">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="R4" s="14">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="S4" s="14">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="T4" s="14">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="U4" s="14">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="V4" s="14">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="W4" s="14">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="X4" s="14">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="Y4" s="14">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="Z4" s="14">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="AA4" s="14">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="AC4" s="14"/>
-    </row>
-    <row r="5" spans="1:32">
-      <c r="A5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="14">
-        <v>0.27</v>
-      </c>
-      <c r="C5" s="14">
-        <v>0.27</v>
-      </c>
-      <c r="D5" s="14">
-        <v>0.27</v>
-      </c>
-      <c r="E5" s="14">
-        <v>0.27</v>
-      </c>
-      <c r="F5" s="14">
-        <v>0.27</v>
-      </c>
-      <c r="G5" s="14">
-        <v>0.27</v>
-      </c>
-      <c r="H5" s="14">
-        <v>0.27</v>
-      </c>
-      <c r="I5" s="14">
-        <v>0.27</v>
-      </c>
-      <c r="J5" s="14">
-        <v>0.27</v>
-      </c>
-      <c r="K5" s="14">
-        <v>0.27</v>
-      </c>
-      <c r="L5" s="14">
-        <v>0.27</v>
-      </c>
-      <c r="M5" s="14">
-        <v>0.27</v>
-      </c>
-      <c r="N5" s="14">
-        <v>0.27</v>
-      </c>
-      <c r="O5" s="14">
-        <v>0.27</v>
-      </c>
-      <c r="P5" s="14">
-        <v>0.27</v>
-      </c>
-      <c r="Q5" s="14">
-        <v>0.27</v>
-      </c>
-      <c r="R5" s="14">
-        <v>0.27</v>
-      </c>
-      <c r="S5" s="14">
-        <v>0.27</v>
-      </c>
-      <c r="T5" s="14">
-        <v>0.27</v>
-      </c>
-      <c r="U5" s="14">
-        <v>0.27</v>
-      </c>
-      <c r="V5" s="14">
-        <v>0.27</v>
-      </c>
-      <c r="W5" s="14">
-        <v>0.27</v>
-      </c>
-      <c r="X5" s="14">
-        <v>0.27</v>
-      </c>
-      <c r="Y5" s="14">
-        <v>0.27</v>
-      </c>
-      <c r="Z5" s="14">
-        <v>0.27</v>
-      </c>
-      <c r="AA5" s="14">
-        <v>0.27</v>
-      </c>
-      <c r="AC5" s="14"/>
-    </row>
-    <row r="6" spans="1:32">
-      <c r="A6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="14">
-        <v>0.24</v>
-      </c>
-      <c r="C6" s="14">
-        <v>0.24</v>
-      </c>
-      <c r="D6" s="14">
-        <v>0.24</v>
-      </c>
-      <c r="E6" s="14">
-        <v>0.24</v>
-      </c>
-      <c r="F6" s="14">
-        <v>0.24</v>
-      </c>
-      <c r="G6" s="14">
-        <v>0.24</v>
-      </c>
-      <c r="H6" s="14">
-        <v>0.24</v>
-      </c>
-      <c r="I6" s="14">
-        <v>0.24</v>
-      </c>
-      <c r="J6" s="14">
-        <v>0.24</v>
-      </c>
-      <c r="K6" s="14">
-        <v>0.24</v>
-      </c>
-      <c r="L6" s="14">
-        <v>0.24</v>
-      </c>
-      <c r="M6" s="14">
-        <v>0.24</v>
-      </c>
-      <c r="N6" s="14">
-        <v>0.24</v>
-      </c>
-      <c r="O6" s="14">
-        <v>0.24</v>
-      </c>
-      <c r="P6" s="14">
-        <v>0.24</v>
-      </c>
-      <c r="Q6" s="14">
-        <v>0.24</v>
-      </c>
-      <c r="R6" s="14">
-        <v>0.24</v>
-      </c>
-      <c r="S6" s="14">
-        <v>0.24</v>
-      </c>
-      <c r="T6" s="14">
-        <v>0.24</v>
-      </c>
-      <c r="U6" s="14">
-        <v>0.24</v>
-      </c>
-      <c r="V6" s="14">
-        <v>0.24</v>
-      </c>
-      <c r="W6" s="14">
-        <v>0.24</v>
-      </c>
-      <c r="X6" s="14">
-        <v>0.24</v>
-      </c>
-      <c r="Y6" s="14">
-        <v>0.24</v>
-      </c>
-      <c r="Z6" s="14">
-        <v>0.24</v>
-      </c>
-      <c r="AA6" s="14">
-        <v>0.24</v>
-      </c>
-      <c r="AC6" s="14"/>
-    </row>
-    <row r="7" spans="1:32">
-      <c r="A7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" s="14">
-        <v>0.22</v>
-      </c>
-      <c r="C7" s="14">
-        <v>0.22</v>
-      </c>
-      <c r="D7" s="14">
-        <v>0.22</v>
-      </c>
-      <c r="E7" s="14">
-        <v>0.22</v>
-      </c>
-      <c r="F7" s="14">
-        <v>0.22</v>
-      </c>
-      <c r="G7" s="14">
-        <v>0.22</v>
-      </c>
-      <c r="H7" s="14">
-        <v>0.22</v>
-      </c>
-      <c r="I7" s="14">
-        <v>0.22</v>
-      </c>
-      <c r="J7" s="14">
-        <v>0.22</v>
-      </c>
-      <c r="K7" s="14">
-        <v>0.22</v>
-      </c>
-      <c r="L7" s="14">
-        <v>0.22</v>
-      </c>
-      <c r="M7" s="14">
-        <v>0.22</v>
-      </c>
-      <c r="N7" s="14">
-        <v>0.22</v>
-      </c>
-      <c r="O7" s="14">
-        <v>0.22</v>
-      </c>
-      <c r="P7" s="14">
-        <v>0.22</v>
-      </c>
-      <c r="Q7" s="14">
-        <v>0.22</v>
-      </c>
-      <c r="R7" s="14">
-        <v>0.22</v>
-      </c>
-      <c r="S7" s="14">
-        <v>0.22</v>
-      </c>
-      <c r="T7" s="14">
-        <v>0.22</v>
-      </c>
-      <c r="U7" s="14">
-        <v>0.22</v>
-      </c>
-      <c r="V7" s="14">
-        <v>0.22</v>
-      </c>
-      <c r="W7" s="14">
-        <v>0.22</v>
-      </c>
-      <c r="X7" s="14">
-        <v>0.22</v>
-      </c>
-      <c r="Y7" s="14">
-        <v>0.22</v>
-      </c>
-      <c r="Z7" s="14">
-        <v>0.22</v>
-      </c>
-      <c r="AA7" s="14">
-        <v>0.22</v>
-      </c>
-      <c r="AC7" s="14"/>
-    </row>
-    <row r="8" spans="1:32">
-      <c r="A8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="14">
-        <v>5.5E-2</v>
-      </c>
-      <c r="C8" s="14">
-        <v>5.5E-2</v>
-      </c>
-      <c r="D8" s="14">
-        <v>5.5E-2</v>
-      </c>
-      <c r="E8" s="14">
-        <v>5.5E-2</v>
-      </c>
-      <c r="F8" s="14">
-        <v>5.5E-2</v>
-      </c>
-      <c r="G8" s="14">
-        <v>5.5E-2</v>
-      </c>
-      <c r="H8" s="14">
-        <v>5.5E-2</v>
-      </c>
-      <c r="I8" s="14">
-        <v>5.5E-2</v>
-      </c>
-      <c r="J8" s="14">
-        <v>5.5E-2</v>
-      </c>
-      <c r="K8" s="14">
-        <v>5.5E-2</v>
-      </c>
-      <c r="L8" s="14">
-        <v>5.5E-2</v>
-      </c>
-      <c r="M8" s="14">
-        <v>5.5E-2</v>
-      </c>
-      <c r="N8" s="14">
-        <v>5.5E-2</v>
-      </c>
-      <c r="O8" s="14">
-        <v>5.5E-2</v>
-      </c>
-      <c r="P8" s="14">
-        <v>5.5E-2</v>
-      </c>
-      <c r="Q8" s="14">
-        <v>5.5E-2</v>
-      </c>
-      <c r="R8" s="14">
-        <v>5.5E-2</v>
-      </c>
-      <c r="S8" s="14">
-        <v>5.5E-2</v>
-      </c>
-      <c r="T8" s="14">
-        <v>5.5E-2</v>
-      </c>
-      <c r="U8" s="14">
-        <v>5.5E-2</v>
-      </c>
-      <c r="V8" s="14">
-        <v>5.5E-2</v>
-      </c>
-      <c r="W8" s="14">
-        <v>5.5E-2</v>
-      </c>
-      <c r="X8" s="14">
-        <v>5.5E-2</v>
-      </c>
-      <c r="Y8" s="14">
-        <v>5.5E-2</v>
-      </c>
-      <c r="Z8" s="14">
-        <v>5.5E-2</v>
-      </c>
-      <c r="AA8" s="14">
-        <v>5.5E-2</v>
-      </c>
-      <c r="AC8" s="14"/>
-    </row>
-    <row r="9" spans="1:32">
-      <c r="A9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="14">
-        <v>0</v>
-      </c>
-      <c r="C9" s="14">
-        <v>0</v>
-      </c>
-      <c r="D9" s="14">
-        <v>0</v>
-      </c>
-      <c r="E9" s="14">
-        <v>0</v>
-      </c>
-      <c r="F9" s="14">
-        <v>0</v>
-      </c>
-      <c r="G9" s="14">
-        <v>0</v>
-      </c>
-      <c r="H9" s="14">
-        <v>0</v>
-      </c>
-      <c r="I9" s="14">
-        <v>0</v>
-      </c>
-      <c r="J9" s="14">
-        <v>0</v>
-      </c>
-      <c r="K9" s="14">
-        <v>0</v>
-      </c>
-      <c r="L9" s="14">
-        <v>0</v>
-      </c>
-      <c r="M9" s="14">
-        <v>0</v>
-      </c>
-      <c r="N9" s="14">
-        <v>0</v>
-      </c>
-      <c r="O9" s="14">
-        <v>0</v>
-      </c>
-      <c r="P9" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="14">
-        <v>0</v>
-      </c>
-      <c r="R9" s="14">
-        <v>0</v>
-      </c>
-      <c r="S9" s="14">
-        <v>0</v>
-      </c>
-      <c r="T9" s="14">
-        <v>0</v>
-      </c>
-      <c r="U9" s="14">
-        <v>0</v>
-      </c>
-      <c r="V9" s="14">
-        <v>0</v>
-      </c>
-      <c r="W9" s="14">
-        <v>0</v>
-      </c>
-      <c r="X9" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="14">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32">
-      <c r="A10" t="s">
-        <v>67</v>
-      </c>
-      <c r="B10" s="14">
-        <v>0</v>
-      </c>
-      <c r="C10" s="14">
-        <v>0</v>
-      </c>
-      <c r="D10" s="14">
-        <v>0</v>
-      </c>
-      <c r="E10" s="14">
-        <v>0</v>
-      </c>
-      <c r="F10" s="14">
-        <v>0</v>
-      </c>
-      <c r="G10" s="14">
-        <v>0</v>
-      </c>
-      <c r="H10" s="14">
-        <v>0</v>
-      </c>
-      <c r="I10" s="14">
-        <v>0</v>
-      </c>
-      <c r="J10" s="14">
-        <v>0</v>
-      </c>
-      <c r="K10" s="14">
-        <v>0</v>
-      </c>
-      <c r="L10" s="14">
-        <v>0</v>
-      </c>
-      <c r="M10" s="14">
-        <v>0</v>
-      </c>
-      <c r="N10" s="14">
-        <v>0</v>
-      </c>
-      <c r="O10" s="14">
-        <v>0</v>
-      </c>
-      <c r="P10" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="14">
-        <v>0</v>
-      </c>
-      <c r="R10" s="14">
-        <v>0</v>
-      </c>
-      <c r="S10" s="14">
-        <v>0</v>
-      </c>
-      <c r="T10" s="14">
-        <v>0</v>
-      </c>
-      <c r="U10" s="14">
-        <v>0</v>
-      </c>
-      <c r="V10" s="14">
-        <v>0</v>
-      </c>
-      <c r="W10" s="14">
-        <v>0</v>
-      </c>
-      <c r="X10" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="14">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32">
-      <c r="A11" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" s="14">
-        <v>0</v>
-      </c>
-      <c r="C11" s="14">
-        <v>0</v>
-      </c>
-      <c r="D11" s="14">
-        <v>0</v>
-      </c>
-      <c r="E11" s="14">
-        <v>0</v>
-      </c>
-      <c r="F11" s="14">
-        <v>0</v>
-      </c>
-      <c r="G11" s="14">
-        <v>0</v>
-      </c>
-      <c r="H11" s="14">
-        <v>0</v>
-      </c>
-      <c r="I11" s="14">
-        <v>0</v>
-      </c>
-      <c r="J11" s="14">
-        <v>0</v>
-      </c>
-      <c r="K11" s="14">
-        <v>0</v>
-      </c>
-      <c r="L11" s="14">
-        <v>0</v>
-      </c>
-      <c r="M11" s="14">
-        <v>0</v>
-      </c>
-      <c r="N11" s="14">
-        <v>0</v>
-      </c>
-      <c r="O11" s="14">
-        <v>0</v>
-      </c>
-      <c r="P11" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="14">
-        <v>0</v>
-      </c>
-      <c r="R11" s="14">
-        <v>0</v>
-      </c>
-      <c r="S11" s="14">
-        <v>0</v>
-      </c>
-      <c r="T11" s="14">
-        <v>0</v>
-      </c>
-      <c r="U11" s="14">
-        <v>0</v>
-      </c>
-      <c r="V11" s="14">
-        <v>0</v>
-      </c>
-      <c r="W11" s="14">
-        <v>0</v>
-      </c>
-      <c r="X11" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="14">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32">
-      <c r="A12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" s="14">
-        <v>5.5E-2</v>
-      </c>
-      <c r="C12" s="14">
-        <v>5.5E-2</v>
-      </c>
-      <c r="D12" s="14">
-        <v>5.5E-2</v>
-      </c>
-      <c r="E12" s="14">
-        <v>5.5E-2</v>
-      </c>
-      <c r="F12" s="14">
-        <v>5.5E-2</v>
-      </c>
-      <c r="G12" s="14">
-        <v>5.5E-2</v>
-      </c>
-      <c r="H12" s="14">
-        <v>5.5E-2</v>
-      </c>
-      <c r="I12" s="14">
-        <v>5.5E-2</v>
-      </c>
-      <c r="J12" s="14">
-        <v>5.5E-2</v>
-      </c>
-      <c r="K12" s="14">
-        <v>5.5E-2</v>
-      </c>
-      <c r="L12" s="14">
-        <v>5.5E-2</v>
-      </c>
-      <c r="M12" s="14">
-        <v>5.5E-2</v>
-      </c>
-      <c r="N12" s="14">
-        <v>5.5E-2</v>
-      </c>
-      <c r="O12" s="14">
-        <v>5.5E-2</v>
-      </c>
-      <c r="P12" s="14">
-        <v>5.5E-2</v>
-      </c>
-      <c r="Q12" s="14">
-        <v>5.5E-2</v>
-      </c>
-      <c r="R12" s="14">
-        <v>5.5E-2</v>
-      </c>
-      <c r="S12" s="14">
-        <v>5.5E-2</v>
-      </c>
-      <c r="T12" s="14">
-        <v>5.5E-2</v>
-      </c>
-      <c r="U12" s="14">
-        <v>5.5E-2</v>
-      </c>
-      <c r="V12" s="14">
-        <v>5.5E-2</v>
-      </c>
-      <c r="W12" s="14">
-        <v>5.5E-2</v>
-      </c>
-      <c r="X12" s="14">
-        <v>5.5E-2</v>
-      </c>
-      <c r="Y12" s="14">
-        <v>5.5E-2</v>
-      </c>
-      <c r="Z12" s="14">
-        <v>5.5E-2</v>
-      </c>
-      <c r="AA12" s="14">
-        <v>5.5E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32">
-      <c r="A13" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13" s="14">
-        <v>0</v>
-      </c>
-      <c r="C13" s="14">
-        <v>0</v>
-      </c>
-      <c r="D13" s="14">
-        <v>0</v>
-      </c>
-      <c r="E13" s="14">
-        <v>0</v>
-      </c>
-      <c r="F13" s="14">
-        <v>0</v>
-      </c>
-      <c r="G13" s="14">
-        <v>0</v>
-      </c>
-      <c r="H13" s="14">
-        <v>0</v>
-      </c>
-      <c r="I13" s="14">
-        <v>0</v>
-      </c>
-      <c r="J13" s="14">
-        <v>0</v>
-      </c>
-      <c r="K13" s="14">
-        <v>0</v>
-      </c>
-      <c r="L13" s="14">
-        <v>0</v>
-      </c>
-      <c r="M13" s="14">
-        <v>0</v>
-      </c>
-      <c r="N13" s="14">
-        <v>0</v>
-      </c>
-      <c r="O13" s="14">
-        <v>0</v>
-      </c>
-      <c r="P13" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="14">
-        <v>0</v>
-      </c>
-      <c r="R13" s="14">
-        <v>0</v>
-      </c>
-      <c r="S13" s="14">
-        <v>0</v>
-      </c>
-      <c r="T13" s="14">
-        <v>0</v>
-      </c>
-      <c r="U13" s="14">
-        <v>0</v>
-      </c>
-      <c r="V13" s="14">
-        <v>0</v>
-      </c>
-      <c r="W13" s="14">
-        <v>0</v>
-      </c>
-      <c r="X13" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="14">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:32">
-      <c r="A14" t="s">
-        <v>71</v>
-      </c>
-      <c r="B14" s="14">
-        <v>0</v>
-      </c>
-      <c r="C14" s="14">
-        <v>0</v>
-      </c>
-      <c r="D14" s="14">
-        <v>0</v>
-      </c>
-      <c r="E14" s="14">
-        <v>0</v>
-      </c>
-      <c r="F14" s="14">
-        <v>0</v>
-      </c>
-      <c r="G14" s="14">
-        <v>0</v>
-      </c>
-      <c r="H14" s="14">
-        <v>0</v>
-      </c>
-      <c r="I14" s="14">
-        <v>0</v>
-      </c>
-      <c r="J14" s="14">
-        <v>0</v>
-      </c>
-      <c r="K14" s="14">
-        <v>0</v>
-      </c>
-      <c r="L14" s="14">
-        <v>0</v>
-      </c>
-      <c r="M14" s="14">
-        <v>0</v>
-      </c>
-      <c r="N14" s="14">
-        <v>0</v>
-      </c>
-      <c r="O14" s="14">
-        <v>0</v>
-      </c>
-      <c r="P14" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="14">
-        <v>0</v>
-      </c>
-      <c r="R14" s="14">
-        <v>0</v>
-      </c>
-      <c r="S14" s="14">
-        <v>0</v>
-      </c>
-      <c r="T14" s="14">
-        <v>0</v>
-      </c>
-      <c r="U14" s="14">
-        <v>0</v>
-      </c>
-      <c r="V14" s="14">
-        <v>0</v>
-      </c>
-      <c r="W14" s="14">
-        <v>0</v>
-      </c>
-      <c r="X14" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="14">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="14">
-        <v>0</v>
-      </c>
+      <c r="B15" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -7670,8 +7735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B80F836-AAFA-4D20-813C-A31BE68F85E1}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
@@ -7684,6 +7749,7 @@
     <col min="6" max="6" width="21.19921875" customWidth="1"/>
     <col min="7" max="7" width="10.296875" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -7713,133 +7779,1316 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="34.799999999999997">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="11" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="11">
+        <v>4722000</v>
+      </c>
+      <c r="H2" s="24">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="34.799999999999997">
+      <c r="A3" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="11">
+        <v>4237000</v>
+      </c>
+      <c r="H3" s="24">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="34.799999999999997">
+      <c r="A4" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="11">
+        <v>4127000</v>
+      </c>
+      <c r="H4" s="24">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="34.799999999999997">
+      <c r="A5" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="11">
+        <v>3624000</v>
+      </c>
+      <c r="H5" s="24">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="34.799999999999997">
+      <c r="A6" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="11">
+        <v>3239000</v>
+      </c>
+      <c r="H6" s="24">
+        <v>2006</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20EB8FDB-F47B-40C2-8266-6700BCAB2D8C}">
+  <dimension ref="A1:AA14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="1" max="1" width="21.296875" customWidth="1"/>
+    <col min="2" max="2" width="12.19921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1">
+        <v>2025</v>
+      </c>
+      <c r="C1">
+        <v>2026</v>
+      </c>
+      <c r="D1">
+        <v>2027</v>
+      </c>
+      <c r="E1">
+        <v>2028</v>
+      </c>
+      <c r="F1">
+        <v>2029</v>
+      </c>
+      <c r="G1">
+        <v>2030</v>
+      </c>
+      <c r="H1">
+        <v>2031</v>
+      </c>
+      <c r="I1">
+        <v>2032</v>
+      </c>
+      <c r="J1">
+        <v>2033</v>
+      </c>
+      <c r="K1">
+        <v>2034</v>
+      </c>
+      <c r="L1">
+        <v>2035</v>
+      </c>
+      <c r="M1">
+        <v>2036</v>
+      </c>
+      <c r="N1">
+        <v>2037</v>
+      </c>
+      <c r="O1">
+        <v>2038</v>
+      </c>
+      <c r="P1">
+        <v>2039</v>
+      </c>
+      <c r="Q1">
+        <v>2040</v>
+      </c>
+      <c r="R1">
+        <v>2041</v>
+      </c>
+      <c r="S1">
+        <v>2042</v>
+      </c>
+      <c r="T1">
+        <v>2043</v>
+      </c>
+      <c r="U1">
+        <v>2044</v>
+      </c>
+      <c r="V1">
+        <v>2045</v>
+      </c>
+      <c r="W1">
+        <v>2046</v>
+      </c>
+      <c r="X1">
+        <v>2047</v>
+      </c>
+      <c r="Y1">
+        <v>2048</v>
+      </c>
+      <c r="Z1">
+        <v>2049</v>
+      </c>
+      <c r="AA1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
+      <c r="A2" t="s">
         <v>56</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="6">
-        <v>4722000</v>
-      </c>
-      <c r="H2" s="18">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="34.799999999999997">
-      <c r="A3" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="6">
-        <v>4237000</v>
-      </c>
-      <c r="H3" s="18">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="34.799999999999997">
-      <c r="A4" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" s="6">
-        <v>4127000</v>
-      </c>
-      <c r="H4" s="18">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="34.799999999999997">
-      <c r="A5" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="6">
-        <v>3624000</v>
-      </c>
-      <c r="H5" s="18">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="34.799999999999997">
-      <c r="A6" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="6">
-        <v>3239000</v>
-      </c>
-      <c r="H6" s="18">
-        <v>2006</v>
+      <c r="B2" s="19">
+        <v>0</v>
+      </c>
+      <c r="C2" s="19">
+        <v>0</v>
+      </c>
+      <c r="D2" s="19">
+        <v>0</v>
+      </c>
+      <c r="E2" s="19">
+        <v>0</v>
+      </c>
+      <c r="F2" s="19">
+        <v>0</v>
+      </c>
+      <c r="G2" s="19">
+        <v>0</v>
+      </c>
+      <c r="H2" s="19">
+        <v>0</v>
+      </c>
+      <c r="I2" s="19">
+        <v>0</v>
+      </c>
+      <c r="J2" s="19">
+        <v>0</v>
+      </c>
+      <c r="K2" s="19">
+        <v>0</v>
+      </c>
+      <c r="L2" s="19">
+        <v>0</v>
+      </c>
+      <c r="M2" s="19">
+        <v>0</v>
+      </c>
+      <c r="N2" s="19">
+        <v>0</v>
+      </c>
+      <c r="O2" s="19">
+        <v>0</v>
+      </c>
+      <c r="P2" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="19">
+        <v>0</v>
+      </c>
+      <c r="R2" s="19">
+        <v>0</v>
+      </c>
+      <c r="S2" s="19">
+        <v>0</v>
+      </c>
+      <c r="T2" s="19">
+        <v>0</v>
+      </c>
+      <c r="U2" s="19">
+        <v>0</v>
+      </c>
+      <c r="V2" s="19">
+        <v>0</v>
+      </c>
+      <c r="W2" s="19">
+        <v>0</v>
+      </c>
+      <c r="X2" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="19">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="19">
+        <v>0</v>
+      </c>
+      <c r="C3" s="19">
+        <v>0</v>
+      </c>
+      <c r="D3" s="19">
+        <v>0</v>
+      </c>
+      <c r="E3" s="19">
+        <v>0</v>
+      </c>
+      <c r="F3" s="19">
+        <v>0</v>
+      </c>
+      <c r="G3" s="19">
+        <v>0</v>
+      </c>
+      <c r="H3" s="19">
+        <v>0</v>
+      </c>
+      <c r="I3" s="19">
+        <v>0</v>
+      </c>
+      <c r="J3" s="19">
+        <v>0</v>
+      </c>
+      <c r="K3" s="19">
+        <v>0</v>
+      </c>
+      <c r="L3" s="19">
+        <v>0</v>
+      </c>
+      <c r="M3" s="19">
+        <v>0</v>
+      </c>
+      <c r="N3" s="19">
+        <v>0</v>
+      </c>
+      <c r="O3" s="19">
+        <v>0</v>
+      </c>
+      <c r="P3" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="19">
+        <v>0</v>
+      </c>
+      <c r="R3" s="19">
+        <v>0</v>
+      </c>
+      <c r="S3" s="19">
+        <v>0</v>
+      </c>
+      <c r="T3" s="19">
+        <v>0</v>
+      </c>
+      <c r="U3" s="19">
+        <v>0</v>
+      </c>
+      <c r="V3" s="19">
+        <v>0</v>
+      </c>
+      <c r="W3" s="19">
+        <v>0</v>
+      </c>
+      <c r="X3" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="19">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="19">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="C4" s="19">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="D4" s="19">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="E4" s="19">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="F4" s="19">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="G4" s="19">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="H4" s="19">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="I4" s="19">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="J4" s="19">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="K4" s="19">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="L4" s="19">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="M4" s="19">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="N4" s="19">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="O4" s="19">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="P4" s="19">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="Q4" s="19">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="R4" s="19">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="S4" s="19">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="T4" s="19">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="U4" s="19">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="V4" s="19">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="W4" s="19">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="X4" s="19">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="Y4" s="19">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="Z4" s="19">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AA4" s="19">
+        <v>9.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
+      <c r="A5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="19">
+        <v>0.26</v>
+      </c>
+      <c r="C5" s="19">
+        <v>0.26</v>
+      </c>
+      <c r="D5" s="19">
+        <v>0.26</v>
+      </c>
+      <c r="E5" s="19">
+        <v>0.26</v>
+      </c>
+      <c r="F5" s="19">
+        <v>0.26</v>
+      </c>
+      <c r="G5" s="19">
+        <v>0.26</v>
+      </c>
+      <c r="H5" s="19">
+        <v>0.26</v>
+      </c>
+      <c r="I5" s="19">
+        <v>0.26</v>
+      </c>
+      <c r="J5" s="19">
+        <v>0.26</v>
+      </c>
+      <c r="K5" s="19">
+        <v>0.26</v>
+      </c>
+      <c r="L5" s="19">
+        <v>0.26</v>
+      </c>
+      <c r="M5" s="19">
+        <v>0.26</v>
+      </c>
+      <c r="N5" s="19">
+        <v>0.26</v>
+      </c>
+      <c r="O5" s="19">
+        <v>0.26</v>
+      </c>
+      <c r="P5" s="19">
+        <v>0.26</v>
+      </c>
+      <c r="Q5" s="19">
+        <v>0.26</v>
+      </c>
+      <c r="R5" s="19">
+        <v>0.26</v>
+      </c>
+      <c r="S5" s="19">
+        <v>0.26</v>
+      </c>
+      <c r="T5" s="19">
+        <v>0.26</v>
+      </c>
+      <c r="U5" s="19">
+        <v>0.26</v>
+      </c>
+      <c r="V5" s="19">
+        <v>0.26</v>
+      </c>
+      <c r="W5" s="19">
+        <v>0.26</v>
+      </c>
+      <c r="X5" s="19">
+        <v>0.26</v>
+      </c>
+      <c r="Y5" s="19">
+        <v>0.26</v>
+      </c>
+      <c r="Z5" s="19">
+        <v>0.26</v>
+      </c>
+      <c r="AA5" s="19">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="19">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="C6" s="19">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="D6" s="19">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="E6" s="19">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="F6" s="19">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="G6" s="19">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="H6" s="19">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="I6" s="19">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="J6" s="19">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="K6" s="19">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="L6" s="19">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="M6" s="19">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="N6" s="19">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="O6" s="19">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="P6" s="19">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="Q6" s="19">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="R6" s="19">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="S6" s="19">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="T6" s="19">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="U6" s="19">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="V6" s="19">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="W6" s="19">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="X6" s="19">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="Y6" s="19">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="Z6" s="19">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="AA6" s="19">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="19">
+        <v>0.192</v>
+      </c>
+      <c r="C7" s="19">
+        <v>0.192</v>
+      </c>
+      <c r="D7" s="19">
+        <v>0.192</v>
+      </c>
+      <c r="E7" s="19">
+        <v>0.192</v>
+      </c>
+      <c r="F7" s="19">
+        <v>0.192</v>
+      </c>
+      <c r="G7" s="19">
+        <v>0.192</v>
+      </c>
+      <c r="H7" s="19">
+        <v>0.192</v>
+      </c>
+      <c r="I7" s="19">
+        <v>0.192</v>
+      </c>
+      <c r="J7" s="19">
+        <v>0.192</v>
+      </c>
+      <c r="K7" s="19">
+        <v>0.192</v>
+      </c>
+      <c r="L7" s="19">
+        <v>0.192</v>
+      </c>
+      <c r="M7" s="19">
+        <v>0.192</v>
+      </c>
+      <c r="N7" s="19">
+        <v>0.192</v>
+      </c>
+      <c r="O7" s="19">
+        <v>0.192</v>
+      </c>
+      <c r="P7" s="19">
+        <v>0.192</v>
+      </c>
+      <c r="Q7" s="19">
+        <v>0.192</v>
+      </c>
+      <c r="R7" s="19">
+        <v>0.192</v>
+      </c>
+      <c r="S7" s="19">
+        <v>0.192</v>
+      </c>
+      <c r="T7" s="19">
+        <v>0.192</v>
+      </c>
+      <c r="U7" s="19">
+        <v>0.192</v>
+      </c>
+      <c r="V7" s="19">
+        <v>0.192</v>
+      </c>
+      <c r="W7" s="19">
+        <v>0.192</v>
+      </c>
+      <c r="X7" s="19">
+        <v>0.192</v>
+      </c>
+      <c r="Y7" s="19">
+        <v>0.192</v>
+      </c>
+      <c r="Z7" s="19">
+        <v>0.192</v>
+      </c>
+      <c r="AA7" s="19">
+        <v>0.192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="19">
+        <v>5.5E-2</v>
+      </c>
+      <c r="C8" s="19">
+        <v>5.5E-2</v>
+      </c>
+      <c r="D8" s="19">
+        <v>5.5E-2</v>
+      </c>
+      <c r="E8" s="19">
+        <v>5.5E-2</v>
+      </c>
+      <c r="F8" s="19">
+        <v>5.5E-2</v>
+      </c>
+      <c r="G8" s="19">
+        <v>5.5E-2</v>
+      </c>
+      <c r="H8" s="19">
+        <v>5.5E-2</v>
+      </c>
+      <c r="I8" s="19">
+        <v>5.5E-2</v>
+      </c>
+      <c r="J8" s="19">
+        <v>5.5E-2</v>
+      </c>
+      <c r="K8" s="19">
+        <v>5.5E-2</v>
+      </c>
+      <c r="L8" s="19">
+        <v>5.5E-2</v>
+      </c>
+      <c r="M8" s="19">
+        <v>5.5E-2</v>
+      </c>
+      <c r="N8" s="19">
+        <v>5.5E-2</v>
+      </c>
+      <c r="O8" s="19">
+        <v>5.5E-2</v>
+      </c>
+      <c r="P8" s="19">
+        <v>5.5E-2</v>
+      </c>
+      <c r="Q8" s="19">
+        <v>5.5E-2</v>
+      </c>
+      <c r="R8" s="19">
+        <v>5.5E-2</v>
+      </c>
+      <c r="S8" s="19">
+        <v>5.5E-2</v>
+      </c>
+      <c r="T8" s="19">
+        <v>5.5E-2</v>
+      </c>
+      <c r="U8" s="19">
+        <v>5.5E-2</v>
+      </c>
+      <c r="V8" s="19">
+        <v>5.5E-2</v>
+      </c>
+      <c r="W8" s="19">
+        <v>5.5E-2</v>
+      </c>
+      <c r="X8" s="19">
+        <v>5.5E-2</v>
+      </c>
+      <c r="Y8" s="19">
+        <v>5.5E-2</v>
+      </c>
+      <c r="Z8" s="19">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AA8" s="19">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
+      <c r="A9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="19">
+        <v>0</v>
+      </c>
+      <c r="C9" s="19">
+        <v>0</v>
+      </c>
+      <c r="D9" s="19">
+        <v>0</v>
+      </c>
+      <c r="E9" s="19">
+        <v>0</v>
+      </c>
+      <c r="F9" s="19">
+        <v>0</v>
+      </c>
+      <c r="G9" s="19">
+        <v>0</v>
+      </c>
+      <c r="H9" s="19">
+        <v>0</v>
+      </c>
+      <c r="I9" s="19">
+        <v>0</v>
+      </c>
+      <c r="J9" s="19">
+        <v>0</v>
+      </c>
+      <c r="K9" s="19">
+        <v>0</v>
+      </c>
+      <c r="L9" s="19">
+        <v>0</v>
+      </c>
+      <c r="M9" s="19">
+        <v>0</v>
+      </c>
+      <c r="N9" s="19">
+        <v>0</v>
+      </c>
+      <c r="O9" s="19">
+        <v>0</v>
+      </c>
+      <c r="P9" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="19">
+        <v>0</v>
+      </c>
+      <c r="R9" s="19">
+        <v>0</v>
+      </c>
+      <c r="S9" s="19">
+        <v>0</v>
+      </c>
+      <c r="T9" s="19">
+        <v>0</v>
+      </c>
+      <c r="U9" s="19">
+        <v>0</v>
+      </c>
+      <c r="V9" s="19">
+        <v>0</v>
+      </c>
+      <c r="W9" s="19">
+        <v>0</v>
+      </c>
+      <c r="X9" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="19">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
+      <c r="A10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="19">
+        <v>0</v>
+      </c>
+      <c r="C10" s="19">
+        <v>0</v>
+      </c>
+      <c r="D10" s="19">
+        <v>0</v>
+      </c>
+      <c r="E10" s="19">
+        <v>0</v>
+      </c>
+      <c r="F10" s="19">
+        <v>0</v>
+      </c>
+      <c r="G10" s="19">
+        <v>0</v>
+      </c>
+      <c r="H10" s="19">
+        <v>0</v>
+      </c>
+      <c r="I10" s="19">
+        <v>0</v>
+      </c>
+      <c r="J10" s="19">
+        <v>0</v>
+      </c>
+      <c r="K10" s="19">
+        <v>0</v>
+      </c>
+      <c r="L10" s="19">
+        <v>0</v>
+      </c>
+      <c r="M10" s="19">
+        <v>0</v>
+      </c>
+      <c r="N10" s="19">
+        <v>0</v>
+      </c>
+      <c r="O10" s="19">
+        <v>0</v>
+      </c>
+      <c r="P10" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="19">
+        <v>0</v>
+      </c>
+      <c r="R10" s="19">
+        <v>0</v>
+      </c>
+      <c r="S10" s="19">
+        <v>0</v>
+      </c>
+      <c r="T10" s="19">
+        <v>0</v>
+      </c>
+      <c r="U10" s="19">
+        <v>0</v>
+      </c>
+      <c r="V10" s="19">
+        <v>0</v>
+      </c>
+      <c r="W10" s="19">
+        <v>0</v>
+      </c>
+      <c r="X10" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="19">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
+      <c r="A11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="19">
+        <v>0</v>
+      </c>
+      <c r="C11" s="19">
+        <v>0</v>
+      </c>
+      <c r="D11" s="19">
+        <v>0</v>
+      </c>
+      <c r="E11" s="19">
+        <v>0</v>
+      </c>
+      <c r="F11" s="19">
+        <v>0</v>
+      </c>
+      <c r="G11" s="19">
+        <v>0</v>
+      </c>
+      <c r="H11" s="19">
+        <v>0</v>
+      </c>
+      <c r="I11" s="19">
+        <v>0</v>
+      </c>
+      <c r="J11" s="19">
+        <v>0</v>
+      </c>
+      <c r="K11" s="19">
+        <v>0</v>
+      </c>
+      <c r="L11" s="19">
+        <v>0</v>
+      </c>
+      <c r="M11" s="19">
+        <v>0</v>
+      </c>
+      <c r="N11" s="19">
+        <v>0</v>
+      </c>
+      <c r="O11" s="19">
+        <v>0</v>
+      </c>
+      <c r="P11" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="19">
+        <v>0</v>
+      </c>
+      <c r="R11" s="19">
+        <v>0</v>
+      </c>
+      <c r="S11" s="19">
+        <v>0</v>
+      </c>
+      <c r="T11" s="19">
+        <v>0</v>
+      </c>
+      <c r="U11" s="19">
+        <v>0</v>
+      </c>
+      <c r="V11" s="19">
+        <v>0</v>
+      </c>
+      <c r="W11" s="19">
+        <v>0</v>
+      </c>
+      <c r="X11" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="19">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
+      <c r="A12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="19">
+        <v>5.5E-2</v>
+      </c>
+      <c r="C12" s="19">
+        <v>5.5E-2</v>
+      </c>
+      <c r="D12" s="19">
+        <v>5.5E-2</v>
+      </c>
+      <c r="E12" s="19">
+        <v>5.5E-2</v>
+      </c>
+      <c r="F12" s="19">
+        <v>5.5E-2</v>
+      </c>
+      <c r="G12" s="19">
+        <v>5.5E-2</v>
+      </c>
+      <c r="H12" s="19">
+        <v>5.5E-2</v>
+      </c>
+      <c r="I12" s="19">
+        <v>5.5E-2</v>
+      </c>
+      <c r="J12" s="19">
+        <v>5.5E-2</v>
+      </c>
+      <c r="K12" s="19">
+        <v>5.5E-2</v>
+      </c>
+      <c r="L12" s="19">
+        <v>5.5E-2</v>
+      </c>
+      <c r="M12" s="19">
+        <v>5.5E-2</v>
+      </c>
+      <c r="N12" s="19">
+        <v>5.5E-2</v>
+      </c>
+      <c r="O12" s="19">
+        <v>5.5E-2</v>
+      </c>
+      <c r="P12" s="19">
+        <v>5.5E-2</v>
+      </c>
+      <c r="Q12" s="19">
+        <v>5.5E-2</v>
+      </c>
+      <c r="R12" s="19">
+        <v>5.5E-2</v>
+      </c>
+      <c r="S12" s="19">
+        <v>5.5E-2</v>
+      </c>
+      <c r="T12" s="19">
+        <v>5.5E-2</v>
+      </c>
+      <c r="U12" s="19">
+        <v>5.5E-2</v>
+      </c>
+      <c r="V12" s="19">
+        <v>5.5E-2</v>
+      </c>
+      <c r="W12" s="19">
+        <v>5.5E-2</v>
+      </c>
+      <c r="X12" s="19">
+        <v>5.5E-2</v>
+      </c>
+      <c r="Y12" s="19">
+        <v>5.5E-2</v>
+      </c>
+      <c r="Z12" s="19">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AA12" s="19">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
+      <c r="A13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="19">
+        <v>0</v>
+      </c>
+      <c r="C13" s="19">
+        <v>0</v>
+      </c>
+      <c r="D13" s="19">
+        <v>0</v>
+      </c>
+      <c r="E13" s="19">
+        <v>0</v>
+      </c>
+      <c r="F13" s="19">
+        <v>0</v>
+      </c>
+      <c r="G13" s="19">
+        <v>0</v>
+      </c>
+      <c r="H13" s="19">
+        <v>0</v>
+      </c>
+      <c r="I13" s="19">
+        <v>0</v>
+      </c>
+      <c r="J13" s="19">
+        <v>0</v>
+      </c>
+      <c r="K13" s="19">
+        <v>0</v>
+      </c>
+      <c r="L13" s="19">
+        <v>0</v>
+      </c>
+      <c r="M13" s="19">
+        <v>0</v>
+      </c>
+      <c r="N13" s="19">
+        <v>0</v>
+      </c>
+      <c r="O13" s="19">
+        <v>0</v>
+      </c>
+      <c r="P13" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="19">
+        <v>0</v>
+      </c>
+      <c r="R13" s="19">
+        <v>0</v>
+      </c>
+      <c r="S13" s="19">
+        <v>0</v>
+      </c>
+      <c r="T13" s="19">
+        <v>0</v>
+      </c>
+      <c r="U13" s="19">
+        <v>0</v>
+      </c>
+      <c r="V13" s="19">
+        <v>0</v>
+      </c>
+      <c r="W13" s="19">
+        <v>0</v>
+      </c>
+      <c r="X13" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="19">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27">
+      <c r="A14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="19">
+        <v>0</v>
+      </c>
+      <c r="C14" s="19">
+        <v>0</v>
+      </c>
+      <c r="D14" s="19">
+        <v>0</v>
+      </c>
+      <c r="E14" s="19">
+        <v>0</v>
+      </c>
+      <c r="F14" s="19">
+        <v>0</v>
+      </c>
+      <c r="G14" s="19">
+        <v>0</v>
+      </c>
+      <c r="H14" s="19">
+        <v>0</v>
+      </c>
+      <c r="I14" s="19">
+        <v>0</v>
+      </c>
+      <c r="J14" s="19">
+        <v>0</v>
+      </c>
+      <c r="K14" s="19">
+        <v>0</v>
+      </c>
+      <c r="L14" s="19">
+        <v>0</v>
+      </c>
+      <c r="M14" s="19">
+        <v>0</v>
+      </c>
+      <c r="N14" s="19">
+        <v>0</v>
+      </c>
+      <c r="O14" s="19">
+        <v>0</v>
+      </c>
+      <c r="P14" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="19">
+        <v>0</v>
+      </c>
+      <c r="R14" s="19">
+        <v>0</v>
+      </c>
+      <c r="S14" s="19">
+        <v>0</v>
+      </c>
+      <c r="T14" s="19">
+        <v>0</v>
+      </c>
+      <c r="U14" s="19">
+        <v>0</v>
+      </c>
+      <c r="V14" s="19">
+        <v>0</v>
+      </c>
+      <c r="W14" s="19">
+        <v>0</v>
+      </c>
+      <c r="X14" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="19">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="19">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -7851,10 +9100,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E234AF8D-964B-419F-969D-C9FD34B2C8AE}">
-  <dimension ref="A1:AA4"/>
+  <dimension ref="A1:AA30"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView zoomScale="120" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
@@ -7864,336 +9113,441 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="12">
+      <c r="B1" s="17">
         <v>2025</v>
       </c>
-      <c r="C1" s="12">
+      <c r="C1" s="17">
         <v>2026</v>
       </c>
-      <c r="D1" s="12">
+      <c r="D1" s="17">
         <v>2027</v>
       </c>
-      <c r="E1" s="12">
+      <c r="E1" s="17">
         <v>2028</v>
       </c>
-      <c r="F1" s="12">
+      <c r="F1" s="17">
         <v>2029</v>
       </c>
-      <c r="G1" s="12">
+      <c r="G1" s="17">
         <v>2030</v>
       </c>
-      <c r="H1" s="12">
+      <c r="H1" s="17">
         <v>2031</v>
       </c>
-      <c r="I1" s="12">
+      <c r="I1" s="17">
         <v>2032</v>
       </c>
-      <c r="J1" s="12">
+      <c r="J1" s="17">
         <v>2033</v>
       </c>
-      <c r="K1" s="12">
+      <c r="K1" s="17">
         <v>2034</v>
       </c>
-      <c r="L1" s="12">
+      <c r="L1" s="17">
         <v>2035</v>
       </c>
-      <c r="M1" s="12">
+      <c r="M1" s="17">
         <v>2036</v>
       </c>
-      <c r="N1" s="12">
+      <c r="N1" s="17">
         <v>2037</v>
       </c>
-      <c r="O1" s="12">
+      <c r="O1" s="17">
         <v>2038</v>
       </c>
-      <c r="P1" s="12">
+      <c r="P1" s="17">
         <v>2039</v>
       </c>
-      <c r="Q1" s="12">
+      <c r="Q1" s="17">
         <v>2040</v>
       </c>
-      <c r="R1" s="12">
+      <c r="R1" s="17">
         <v>2041</v>
       </c>
-      <c r="S1" s="12">
+      <c r="S1" s="17">
         <v>2042</v>
       </c>
-      <c r="T1" s="12">
+      <c r="T1" s="17">
         <v>2043</v>
       </c>
-      <c r="U1" s="12">
+      <c r="U1" s="17">
         <v>2044</v>
       </c>
-      <c r="V1" s="12">
+      <c r="V1" s="17">
         <v>2045</v>
       </c>
-      <c r="W1" s="12">
+      <c r="W1" s="17">
         <v>2046</v>
       </c>
-      <c r="X1" s="12">
+      <c r="X1" s="17">
         <v>2047</v>
       </c>
-      <c r="Y1" s="12">
+      <c r="Y1" s="17">
         <v>2048</v>
       </c>
-      <c r="Z1" s="12">
+      <c r="Z1" s="17">
         <v>2049</v>
       </c>
-      <c r="AA1" s="12">
+      <c r="AA1" s="17">
         <v>2050</v>
       </c>
     </row>
     <row r="2" spans="1:27">
-      <c r="A2" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="12">
+      <c r="A2" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="17">
         <v>500700</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="17">
         <v>500700</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="17">
         <v>500700</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="17">
         <v>500700</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="17">
         <v>500700</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="17">
         <v>500700</v>
       </c>
-      <c r="H2" s="12">
+      <c r="H2" s="17">
         <v>500700</v>
       </c>
-      <c r="I2" s="12">
+      <c r="I2" s="17">
         <v>500700</v>
       </c>
-      <c r="J2" s="12">
+      <c r="J2" s="17">
         <v>500700</v>
       </c>
-      <c r="K2" s="12">
+      <c r="K2" s="17">
         <v>500700</v>
       </c>
-      <c r="L2" s="12">
+      <c r="L2" s="17">
         <v>500700</v>
       </c>
-      <c r="M2" s="12">
+      <c r="M2" s="17">
         <v>500700</v>
       </c>
-      <c r="N2" s="12">
+      <c r="N2" s="17">
         <v>500700</v>
       </c>
-      <c r="O2" s="12">
+      <c r="O2" s="17">
         <v>500700</v>
       </c>
-      <c r="P2" s="12">
+      <c r="P2" s="17">
         <v>500700</v>
       </c>
-      <c r="Q2" s="12">
+      <c r="Q2" s="17">
         <v>500700</v>
       </c>
-      <c r="R2" s="12">
+      <c r="R2" s="17">
         <v>500700</v>
       </c>
-      <c r="S2" s="12">
+      <c r="S2" s="17">
         <v>500700</v>
       </c>
-      <c r="T2" s="12">
+      <c r="T2" s="17">
         <v>500700</v>
       </c>
-      <c r="U2" s="12">
+      <c r="U2" s="17">
         <v>500700</v>
       </c>
-      <c r="V2" s="12">
+      <c r="V2" s="17">
         <v>500700</v>
       </c>
-      <c r="W2" s="12">
+      <c r="W2" s="17">
         <v>500700</v>
       </c>
-      <c r="X2" s="12">
+      <c r="X2" s="17">
         <v>500700</v>
       </c>
-      <c r="Y2" s="12">
+      <c r="Y2" s="17">
         <v>500700</v>
       </c>
-      <c r="Z2" s="12">
+      <c r="Z2" s="17">
         <v>500700</v>
       </c>
-      <c r="AA2" s="12">
+      <c r="AA2" s="17">
         <v>500700</v>
       </c>
     </row>
     <row r="3" spans="1:27">
-      <c r="A3" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="12">
+      <c r="A3" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="17">
         <v>1100000</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="17">
         <v>1100000</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="17">
         <v>1100000</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="17">
         <v>1100000</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="17">
         <v>1100000</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="17">
         <v>1100000</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="17">
         <v>1100000</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I3" s="17">
         <v>1100000</v>
       </c>
-      <c r="J3" s="12">
+      <c r="J3" s="17">
         <v>1100000</v>
       </c>
-      <c r="K3" s="12">
+      <c r="K3" s="17">
         <v>1100000</v>
       </c>
-      <c r="L3" s="12">
+      <c r="L3" s="17">
         <v>1100000</v>
       </c>
-      <c r="M3" s="12">
+      <c r="M3" s="17">
         <v>1100000</v>
       </c>
-      <c r="N3" s="12">
+      <c r="N3" s="17">
         <v>1100000</v>
       </c>
-      <c r="O3" s="12">
+      <c r="O3" s="17">
         <v>1100000</v>
       </c>
-      <c r="P3" s="12">
+      <c r="P3" s="17">
         <v>1100000</v>
       </c>
-      <c r="Q3" s="12">
+      <c r="Q3" s="17">
         <v>1100000</v>
       </c>
-      <c r="R3" s="12">
+      <c r="R3" s="17">
         <v>1100000</v>
       </c>
-      <c r="S3" s="12">
+      <c r="S3" s="17">
         <v>1100000</v>
       </c>
-      <c r="T3" s="12">
+      <c r="T3" s="17">
         <v>1100000</v>
       </c>
-      <c r="U3" s="12">
+      <c r="U3" s="17">
         <v>1100000</v>
       </c>
-      <c r="V3" s="12">
+      <c r="V3" s="17">
         <v>1100000</v>
       </c>
-      <c r="W3" s="12">
+      <c r="W3" s="17">
         <v>1100000</v>
       </c>
-      <c r="X3" s="12">
+      <c r="X3" s="17">
         <v>1100000</v>
       </c>
-      <c r="Y3" s="12">
+      <c r="Y3" s="17">
         <v>1100000</v>
       </c>
-      <c r="Z3" s="12">
+      <c r="Z3" s="17">
         <v>1100000</v>
       </c>
-      <c r="AA3" s="12">
+      <c r="AA3" s="17">
         <v>1100000</v>
       </c>
     </row>
     <row r="4" spans="1:27">
-      <c r="A4" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="12">
+      <c r="A4" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="17">
         <v>400000</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="17">
         <v>400000</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="17">
         <v>400000</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="17">
         <v>400000</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="17">
         <v>400000</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="17">
         <v>400000</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="17">
         <v>400000</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="17">
         <v>400000</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="17">
         <v>400000</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="17">
         <v>400000</v>
       </c>
-      <c r="L4" s="12">
+      <c r="L4" s="17">
         <v>400000</v>
       </c>
-      <c r="M4" s="12">
+      <c r="M4" s="17">
         <v>400000</v>
       </c>
-      <c r="N4" s="12">
+      <c r="N4" s="17">
         <v>400000</v>
       </c>
-      <c r="O4" s="12">
+      <c r="O4" s="17">
         <v>400000</v>
       </c>
-      <c r="P4" s="12">
+      <c r="P4" s="17">
         <v>400000</v>
       </c>
-      <c r="Q4" s="12">
+      <c r="Q4" s="17">
         <v>400000</v>
       </c>
-      <c r="R4" s="12">
+      <c r="R4" s="17">
         <v>400000</v>
       </c>
-      <c r="S4" s="12">
+      <c r="S4" s="17">
         <v>400000</v>
       </c>
-      <c r="T4" s="12">
+      <c r="T4" s="17">
         <v>400000</v>
       </c>
-      <c r="U4" s="12">
+      <c r="U4" s="17">
         <v>400000</v>
       </c>
-      <c r="V4" s="12">
+      <c r="V4" s="17">
         <v>400000</v>
       </c>
-      <c r="W4" s="12">
+      <c r="W4" s="17">
         <v>400000</v>
       </c>
-      <c r="X4" s="12">
+      <c r="X4" s="17">
         <v>400000</v>
       </c>
-      <c r="Y4" s="12">
+      <c r="Y4" s="17">
         <v>400000</v>
       </c>
-      <c r="Z4" s="12">
+      <c r="Z4" s="17">
         <v>400000</v>
       </c>
-      <c r="AA4" s="12">
+      <c r="AA4" s="17">
         <v>400000</v>
       </c>
+    </row>
+    <row r="6" spans="1:27">
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="21"/>
+      <c r="Y6" s="21"/>
+      <c r="Z6" s="21"/>
+      <c r="AA6" s="21"/>
+    </row>
+    <row r="7" spans="1:27">
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="21"/>
+      <c r="X7" s="21"/>
+      <c r="Y7" s="21"/>
+      <c r="Z7" s="21"/>
+      <c r="AA7" s="21"/>
+    </row>
+    <row r="8" spans="1:27">
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="21"/>
+      <c r="X8" s="21"/>
+      <c r="Y8" s="21"/>
+      <c r="Z8" s="21"/>
+      <c r="AA8" s="21"/>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="10"/>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="10"/>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="10"/>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="10"/>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="10"/>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="10"/>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -8300,276 +9654,276 @@
     </row>
     <row r="2" spans="1:27">
       <c r="A2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="12">
+        <v>53</v>
+      </c>
+      <c r="B2" s="17">
         <v>177308.78</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="17">
         <v>177308.78</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="17">
         <v>177308.78</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="17">
         <v>177308.78</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="17">
         <v>177308.78</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="17">
         <v>177308.78</v>
       </c>
-      <c r="H2" s="12">
+      <c r="H2" s="17">
         <v>177308.78</v>
       </c>
-      <c r="I2" s="12">
+      <c r="I2" s="17">
         <v>177308.78</v>
       </c>
-      <c r="J2" s="12">
+      <c r="J2" s="17">
         <v>177308.78</v>
       </c>
-      <c r="K2" s="12">
+      <c r="K2" s="17">
         <v>177308.78</v>
       </c>
-      <c r="L2" s="12">
+      <c r="L2" s="17">
         <v>177308.78</v>
       </c>
-      <c r="M2" s="12">
+      <c r="M2" s="17">
         <v>177308.78</v>
       </c>
-      <c r="N2" s="12">
+      <c r="N2" s="17">
         <v>177308.78</v>
       </c>
-      <c r="O2" s="12">
+      <c r="O2" s="17">
         <v>177308.78</v>
       </c>
-      <c r="P2" s="12">
+      <c r="P2" s="17">
         <v>177308.78</v>
       </c>
-      <c r="Q2" s="12">
+      <c r="Q2" s="17">
         <v>177308.78</v>
       </c>
-      <c r="R2" s="12">
+      <c r="R2" s="17">
         <v>177308.78</v>
       </c>
-      <c r="S2" s="12">
+      <c r="S2" s="17">
         <v>177308.78</v>
       </c>
-      <c r="T2" s="12">
+      <c r="T2" s="17">
         <v>177308.78</v>
       </c>
-      <c r="U2" s="12">
+      <c r="U2" s="17">
         <v>177308.78</v>
       </c>
-      <c r="V2" s="12">
+      <c r="V2" s="17">
         <v>177308.78</v>
       </c>
-      <c r="W2" s="12">
+      <c r="W2" s="17">
         <v>177308.78</v>
       </c>
-      <c r="X2" s="12">
+      <c r="X2" s="17">
         <v>177308.78</v>
       </c>
-      <c r="Y2" s="12">
+      <c r="Y2" s="17">
         <v>177308.78</v>
       </c>
-      <c r="Z2" s="12">
+      <c r="Z2" s="17">
         <v>177308.78</v>
       </c>
-      <c r="AA2" s="12">
+      <c r="AA2" s="17">
         <v>177308.78</v>
       </c>
     </row>
     <row r="3" spans="1:27">
       <c r="A3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="12">
+        <v>66</v>
+      </c>
+      <c r="B3" s="17">
         <f>B2*2</f>
         <v>354617.56</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="17">
         <f t="shared" ref="C3:AA3" si="0">C2*2</f>
         <v>354617.56</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="17">
         <f t="shared" si="0"/>
         <v>354617.56</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="17">
         <f t="shared" si="0"/>
         <v>354617.56</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="17">
         <f t="shared" si="0"/>
         <v>354617.56</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="17">
         <f t="shared" si="0"/>
         <v>354617.56</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="17">
         <f t="shared" si="0"/>
         <v>354617.56</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I3" s="17">
         <f t="shared" si="0"/>
         <v>354617.56</v>
       </c>
-      <c r="J3" s="12">
+      <c r="J3" s="17">
         <f t="shared" si="0"/>
         <v>354617.56</v>
       </c>
-      <c r="K3" s="12">
+      <c r="K3" s="17">
         <f t="shared" si="0"/>
         <v>354617.56</v>
       </c>
-      <c r="L3" s="12">
+      <c r="L3" s="17">
         <f t="shared" si="0"/>
         <v>354617.56</v>
       </c>
-      <c r="M3" s="12">
+      <c r="M3" s="17">
         <f t="shared" si="0"/>
         <v>354617.56</v>
       </c>
-      <c r="N3" s="12">
+      <c r="N3" s="17">
         <f t="shared" si="0"/>
         <v>354617.56</v>
       </c>
-      <c r="O3" s="12">
+      <c r="O3" s="17">
         <f t="shared" si="0"/>
         <v>354617.56</v>
       </c>
-      <c r="P3" s="12">
+      <c r="P3" s="17">
         <f t="shared" si="0"/>
         <v>354617.56</v>
       </c>
-      <c r="Q3" s="12">
+      <c r="Q3" s="17">
         <f t="shared" si="0"/>
         <v>354617.56</v>
       </c>
-      <c r="R3" s="12">
+      <c r="R3" s="17">
         <f t="shared" si="0"/>
         <v>354617.56</v>
       </c>
-      <c r="S3" s="12">
+      <c r="S3" s="17">
         <f t="shared" si="0"/>
         <v>354617.56</v>
       </c>
-      <c r="T3" s="12">
+      <c r="T3" s="17">
         <f t="shared" si="0"/>
         <v>354617.56</v>
       </c>
-      <c r="U3" s="12">
+      <c r="U3" s="17">
         <f t="shared" si="0"/>
         <v>354617.56</v>
       </c>
-      <c r="V3" s="12">
+      <c r="V3" s="17">
         <f t="shared" si="0"/>
         <v>354617.56</v>
       </c>
-      <c r="W3" s="12">
+      <c r="W3" s="17">
         <f t="shared" si="0"/>
         <v>354617.56</v>
       </c>
-      <c r="X3" s="12">
+      <c r="X3" s="17">
         <f t="shared" si="0"/>
         <v>354617.56</v>
       </c>
-      <c r="Y3" s="12">
+      <c r="Y3" s="17">
         <f t="shared" si="0"/>
         <v>354617.56</v>
       </c>
-      <c r="Z3" s="12">
+      <c r="Z3" s="17">
         <f t="shared" si="0"/>
         <v>354617.56</v>
       </c>
-      <c r="AA3" s="12">
+      <c r="AA3" s="17">
         <f t="shared" si="0"/>
         <v>354617.56</v>
       </c>
     </row>
     <row r="4" spans="1:27">
       <c r="A4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="12">
+        <v>54</v>
+      </c>
+      <c r="B4" s="17">
         <v>86076.23</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="17">
         <v>86076.23</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="17">
         <v>86076.23</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="17">
         <v>86076.23</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="17">
         <v>86076.23</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="17">
         <v>86076.23</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="17">
         <v>86076.23</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="17">
         <v>86076.23</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="17">
         <v>86076.23</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="17">
         <v>86076.23</v>
       </c>
-      <c r="L4" s="12">
+      <c r="L4" s="17">
         <v>86076.23</v>
       </c>
-      <c r="M4" s="12">
+      <c r="M4" s="17">
         <v>86076.23</v>
       </c>
-      <c r="N4" s="12">
+      <c r="N4" s="17">
         <v>86076.23</v>
       </c>
-      <c r="O4" s="12">
+      <c r="O4" s="17">
         <v>86076.23</v>
       </c>
-      <c r="P4" s="12">
+      <c r="P4" s="17">
         <v>86076.23</v>
       </c>
-      <c r="Q4" s="12">
+      <c r="Q4" s="17">
         <v>86076.23</v>
       </c>
-      <c r="R4" s="12">
+      <c r="R4" s="17">
         <v>86076.23</v>
       </c>
-      <c r="S4" s="12">
+      <c r="S4" s="17">
         <v>86076.23</v>
       </c>
-      <c r="T4" s="12">
+      <c r="T4" s="17">
         <v>86076.23</v>
       </c>
-      <c r="U4" s="12">
+      <c r="U4" s="17">
         <v>86076.23</v>
       </c>
-      <c r="V4" s="12">
+      <c r="V4" s="17">
         <v>86076.23</v>
       </c>
-      <c r="W4" s="12">
+      <c r="W4" s="17">
         <v>86076.23</v>
       </c>
-      <c r="X4" s="12">
+      <c r="X4" s="17">
         <v>86076.23</v>
       </c>
-      <c r="Y4" s="12">
+      <c r="Y4" s="17">
         <v>86076.23</v>
       </c>
-      <c r="Z4" s="12">
+      <c r="Z4" s="17">
         <v>86076.23</v>
       </c>
-      <c r="AA4" s="12">
+      <c r="AA4" s="17">
         <v>86076.23</v>
       </c>
     </row>
@@ -8679,276 +10033,276 @@
     </row>
     <row r="2" spans="1:27">
       <c r="A2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="12">
+        <v>53</v>
+      </c>
+      <c r="B2" s="17">
         <v>421098.9</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="17">
         <v>421098.9</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="17">
         <v>421098.9</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="17">
         <v>421098.9</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="17">
         <v>421098.9</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="17">
         <v>421098.9</v>
       </c>
-      <c r="H2" s="12">
+      <c r="H2" s="17">
         <v>421098.9</v>
       </c>
-      <c r="I2" s="12">
+      <c r="I2" s="17">
         <v>421098.9</v>
       </c>
-      <c r="J2" s="12">
+      <c r="J2" s="17">
         <v>421098.9</v>
       </c>
-      <c r="K2" s="12">
+      <c r="K2" s="17">
         <v>421098.9</v>
       </c>
-      <c r="L2" s="12">
+      <c r="L2" s="17">
         <v>421098.9</v>
       </c>
-      <c r="M2" s="12">
+      <c r="M2" s="17">
         <v>421098.9</v>
       </c>
-      <c r="N2" s="12">
+      <c r="N2" s="17">
         <v>421098.9</v>
       </c>
-      <c r="O2" s="12">
+      <c r="O2" s="17">
         <v>421098.9</v>
       </c>
-      <c r="P2" s="12">
+      <c r="P2" s="17">
         <v>421098.9</v>
       </c>
-      <c r="Q2" s="12">
+      <c r="Q2" s="17">
         <v>421098.9</v>
       </c>
-      <c r="R2" s="12">
+      <c r="R2" s="17">
         <v>421098.9</v>
       </c>
-      <c r="S2" s="12">
+      <c r="S2" s="17">
         <v>421098.9</v>
       </c>
-      <c r="T2" s="12">
+      <c r="T2" s="17">
         <v>421098.9</v>
       </c>
-      <c r="U2" s="12">
+      <c r="U2" s="17">
         <v>421098.9</v>
       </c>
-      <c r="V2" s="12">
+      <c r="V2" s="17">
         <v>421098.9</v>
       </c>
-      <c r="W2" s="12">
+      <c r="W2" s="17">
         <v>421098.9</v>
       </c>
-      <c r="X2" s="12">
+      <c r="X2" s="17">
         <v>421098.9</v>
       </c>
-      <c r="Y2" s="12">
+      <c r="Y2" s="17">
         <v>421098.9</v>
       </c>
-      <c r="Z2" s="12">
+      <c r="Z2" s="17">
         <v>421098.9</v>
       </c>
-      <c r="AA2" s="12">
+      <c r="AA2" s="17">
         <v>421098.9</v>
       </c>
     </row>
     <row r="3" spans="1:27">
       <c r="A3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="12">
+        <v>66</v>
+      </c>
+      <c r="B3" s="17">
         <f>B2*2</f>
         <v>842197.8</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="17">
         <f t="shared" ref="C3:AA3" si="0">C2*2</f>
         <v>842197.8</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="17">
         <f t="shared" si="0"/>
         <v>842197.8</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="17">
         <f t="shared" si="0"/>
         <v>842197.8</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="17">
         <f t="shared" si="0"/>
         <v>842197.8</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="17">
         <f t="shared" si="0"/>
         <v>842197.8</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="17">
         <f t="shared" si="0"/>
         <v>842197.8</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I3" s="17">
         <f t="shared" si="0"/>
         <v>842197.8</v>
       </c>
-      <c r="J3" s="12">
+      <c r="J3" s="17">
         <f t="shared" si="0"/>
         <v>842197.8</v>
       </c>
-      <c r="K3" s="12">
+      <c r="K3" s="17">
         <f t="shared" si="0"/>
         <v>842197.8</v>
       </c>
-      <c r="L3" s="12">
+      <c r="L3" s="17">
         <f t="shared" si="0"/>
         <v>842197.8</v>
       </c>
-      <c r="M3" s="12">
+      <c r="M3" s="17">
         <f t="shared" si="0"/>
         <v>842197.8</v>
       </c>
-      <c r="N3" s="12">
+      <c r="N3" s="17">
         <f t="shared" si="0"/>
         <v>842197.8</v>
       </c>
-      <c r="O3" s="12">
+      <c r="O3" s="17">
         <f t="shared" si="0"/>
         <v>842197.8</v>
       </c>
-      <c r="P3" s="12">
+      <c r="P3" s="17">
         <f t="shared" si="0"/>
         <v>842197.8</v>
       </c>
-      <c r="Q3" s="12">
+      <c r="Q3" s="17">
         <f t="shared" si="0"/>
         <v>842197.8</v>
       </c>
-      <c r="R3" s="12">
+      <c r="R3" s="17">
         <f t="shared" si="0"/>
         <v>842197.8</v>
       </c>
-      <c r="S3" s="12">
+      <c r="S3" s="17">
         <f t="shared" si="0"/>
         <v>842197.8</v>
       </c>
-      <c r="T3" s="12">
+      <c r="T3" s="17">
         <f t="shared" si="0"/>
         <v>842197.8</v>
       </c>
-      <c r="U3" s="12">
+      <c r="U3" s="17">
         <f t="shared" si="0"/>
         <v>842197.8</v>
       </c>
-      <c r="V3" s="12">
+      <c r="V3" s="17">
         <f t="shared" si="0"/>
         <v>842197.8</v>
       </c>
-      <c r="W3" s="12">
+      <c r="W3" s="17">
         <f t="shared" si="0"/>
         <v>842197.8</v>
       </c>
-      <c r="X3" s="12">
+      <c r="X3" s="17">
         <f t="shared" si="0"/>
         <v>842197.8</v>
       </c>
-      <c r="Y3" s="12">
+      <c r="Y3" s="17">
         <f t="shared" si="0"/>
         <v>842197.8</v>
       </c>
-      <c r="Z3" s="12">
+      <c r="Z3" s="17">
         <f t="shared" si="0"/>
         <v>842197.8</v>
       </c>
-      <c r="AA3" s="12">
+      <c r="AA3" s="17">
         <f t="shared" si="0"/>
         <v>842197.8</v>
       </c>
     </row>
     <row r="4" spans="1:27">
       <c r="A4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="12">
+        <v>54</v>
+      </c>
+      <c r="B4" s="17">
         <v>185299.77</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="17">
         <v>185299.77</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="17">
         <v>185299.77</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="17">
         <v>185299.77</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="17">
         <v>185299.77</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="17">
         <v>185299.77</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="17">
         <v>185299.77</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="17">
         <v>185299.77</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="17">
         <v>185299.77</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="17">
         <v>185299.77</v>
       </c>
-      <c r="L4" s="12">
+      <c r="L4" s="17">
         <v>185299.77</v>
       </c>
-      <c r="M4" s="12">
+      <c r="M4" s="17">
         <v>185299.77</v>
       </c>
-      <c r="N4" s="12">
+      <c r="N4" s="17">
         <v>185299.77</v>
       </c>
-      <c r="O4" s="12">
+      <c r="O4" s="17">
         <v>185299.77</v>
       </c>
-      <c r="P4" s="12">
+      <c r="P4" s="17">
         <v>185299.77</v>
       </c>
-      <c r="Q4" s="12">
+      <c r="Q4" s="17">
         <v>185299.77</v>
       </c>
-      <c r="R4" s="12">
+      <c r="R4" s="17">
         <v>185299.77</v>
       </c>
-      <c r="S4" s="12">
+      <c r="S4" s="17">
         <v>185299.77</v>
       </c>
-      <c r="T4" s="12">
+      <c r="T4" s="17">
         <v>185299.77</v>
       </c>
-      <c r="U4" s="12">
+      <c r="U4" s="17">
         <v>185299.77</v>
       </c>
-      <c r="V4" s="12">
+      <c r="V4" s="17">
         <v>185299.77</v>
       </c>
-      <c r="W4" s="12">
+      <c r="W4" s="17">
         <v>185299.77</v>
       </c>
-      <c r="X4" s="12">
+      <c r="X4" s="17">
         <v>185299.77</v>
       </c>
-      <c r="Y4" s="12">
+      <c r="Y4" s="17">
         <v>185299.77</v>
       </c>
-      <c r="Z4" s="12">
+      <c r="Z4" s="17">
         <v>185299.77</v>
       </c>
-      <c r="AA4" s="12">
+      <c r="AA4" s="17">
         <v>185299.77</v>
       </c>
     </row>
@@ -8987,7 +10341,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B2">
         <v>20</v>
@@ -8998,7 +10352,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B3">
         <v>20</v>
@@ -9009,7 +10363,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B4">
         <v>20</v>
@@ -9212,8 +10566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E46CCB1-2754-42FA-B5C9-8DABA83A320C}">
   <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:AA2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
@@ -9315,87 +10669,87 @@
       <c r="A2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="19">
-        <v>150000000</v>
-      </c>
-      <c r="C2" s="19">
-        <v>150000000</v>
-      </c>
-      <c r="D2" s="19">
-        <v>150000000</v>
-      </c>
-      <c r="E2" s="19">
-        <v>150000000</v>
-      </c>
-      <c r="F2" s="19">
-        <v>150000000</v>
-      </c>
-      <c r="G2" s="19">
-        <v>150000000</v>
-      </c>
-      <c r="H2" s="19">
-        <v>150000000</v>
-      </c>
-      <c r="I2" s="19">
-        <v>150000000</v>
-      </c>
-      <c r="J2" s="19">
-        <v>150000000</v>
-      </c>
-      <c r="K2" s="19">
-        <v>150000000</v>
-      </c>
-      <c r="L2" s="19">
-        <v>150000000</v>
-      </c>
-      <c r="M2" s="19">
-        <v>150000000</v>
-      </c>
-      <c r="N2" s="19">
-        <v>150000000</v>
-      </c>
-      <c r="O2" s="19">
-        <v>150000000</v>
-      </c>
-      <c r="P2" s="19">
-        <v>150000000</v>
-      </c>
-      <c r="Q2" s="19">
-        <v>150000000</v>
-      </c>
-      <c r="R2" s="19">
-        <v>150000000</v>
-      </c>
-      <c r="S2" s="19">
-        <v>150000000</v>
-      </c>
-      <c r="T2" s="19">
-        <v>150000000</v>
-      </c>
-      <c r="U2" s="19">
-        <v>150000000</v>
-      </c>
-      <c r="V2" s="19">
-        <v>150000000</v>
-      </c>
-      <c r="W2" s="19">
-        <v>150000000</v>
-      </c>
-      <c r="X2" s="19">
-        <v>150000000</v>
-      </c>
-      <c r="Y2" s="19">
-        <v>150000000</v>
-      </c>
-      <c r="Z2" s="19">
-        <v>150000000</v>
-      </c>
-      <c r="AA2" s="19">
-        <v>150000000</v>
+      <c r="B2" s="25">
+        <v>300000000</v>
+      </c>
+      <c r="C2" s="25">
+        <v>300000000</v>
+      </c>
+      <c r="D2" s="25">
+        <v>300000000</v>
+      </c>
+      <c r="E2" s="25">
+        <v>300000000</v>
+      </c>
+      <c r="F2" s="25">
+        <v>300000000</v>
+      </c>
+      <c r="G2" s="25">
+        <v>300000000</v>
+      </c>
+      <c r="H2" s="25">
+        <v>300000000</v>
+      </c>
+      <c r="I2" s="25">
+        <v>300000000</v>
+      </c>
+      <c r="J2" s="25">
+        <v>300000000</v>
+      </c>
+      <c r="K2" s="25">
+        <v>300000000</v>
+      </c>
+      <c r="L2" s="25">
+        <v>300000000</v>
+      </c>
+      <c r="M2" s="25">
+        <v>300000000</v>
+      </c>
+      <c r="N2" s="25">
+        <v>300000000</v>
+      </c>
+      <c r="O2" s="25">
+        <v>300000000</v>
+      </c>
+      <c r="P2" s="25">
+        <v>300000000</v>
+      </c>
+      <c r="Q2" s="25">
+        <v>300000000</v>
+      </c>
+      <c r="R2" s="25">
+        <v>300000000</v>
+      </c>
+      <c r="S2" s="25">
+        <v>300000000</v>
+      </c>
+      <c r="T2" s="25">
+        <v>300000000</v>
+      </c>
+      <c r="U2" s="25">
+        <v>300000000</v>
+      </c>
+      <c r="V2" s="25">
+        <v>300000000</v>
+      </c>
+      <c r="W2" s="25">
+        <v>300000000</v>
+      </c>
+      <c r="X2" s="25">
+        <v>300000000</v>
+      </c>
+      <c r="Y2" s="25">
+        <v>300000000</v>
+      </c>
+      <c r="Z2" s="25">
+        <v>300000000</v>
+      </c>
+      <c r="AA2" s="25">
+        <v>300000000</v>
       </c>
     </row>
     <row r="3" spans="1:27">
-      <c r="G3" s="17"/>
+      <c r="G3" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -9409,7 +10763,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView zoomScale="124" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
@@ -9421,230 +10775,230 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="9"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="11" t="s">
-        <v>45</v>
+      <c r="A2" s="16" t="s">
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="9">
-        <v>1</v>
-      </c>
-      <c r="D2" s="9">
-        <v>0.34</v>
-      </c>
-      <c r="E2" s="9">
+        <v>57</v>
+      </c>
+      <c r="C2" s="14">
+        <v>1</v>
+      </c>
+      <c r="D2" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="E2" s="14">
         <v>2000</v>
       </c>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="11" t="s">
-        <v>45</v>
+      <c r="A3" s="16" t="s">
+        <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="9">
+        <v>58</v>
+      </c>
+      <c r="C3" s="14">
         <v>0.1</v>
       </c>
-      <c r="D3" s="9">
-        <v>0</v>
-      </c>
-      <c r="E3" s="9">
+      <c r="D3" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="E3" s="14">
         <v>2000</v>
       </c>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="11" t="s">
-        <v>45</v>
+      <c r="A4" s="16" t="s">
+        <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="9">
+        <v>59</v>
+      </c>
+      <c r="C4" s="14">
         <v>0.4</v>
       </c>
-      <c r="D4" s="9">
-        <v>0</v>
-      </c>
-      <c r="E4" s="9">
+      <c r="D4" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="E4" s="14">
         <v>2000</v>
       </c>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="11" t="s">
-        <v>45</v>
+      <c r="A5" s="16" t="s">
+        <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="9">
+        <v>60</v>
+      </c>
+      <c r="C5" s="14">
         <v>0.1</v>
       </c>
-      <c r="D5" s="9">
-        <v>0</v>
-      </c>
-      <c r="E5" s="9">
+      <c r="D5" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="E5" s="14">
         <v>2000</v>
       </c>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="11" t="s">
-        <v>45</v>
+      <c r="A6" s="16" t="s">
+        <v>53</v>
       </c>
       <c r="B6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="D6" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="E6" s="14">
+        <v>2000</v>
+      </c>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="9">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="D6" s="9">
-        <v>0</v>
-      </c>
-      <c r="E6" s="9">
+      <c r="B7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="D7" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="E7" s="14">
         <v>2000</v>
       </c>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="D7" s="9">
-        <v>0</v>
-      </c>
-      <c r="E7" s="9">
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="14">
+        <v>1</v>
+      </c>
+      <c r="D8" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="E8" s="14">
         <v>2000</v>
       </c>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="9">
-        <v>1</v>
-      </c>
-      <c r="D8" s="9">
-        <v>0.34</v>
-      </c>
-      <c r="E8" s="9">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="9" t="s">
-        <v>58</v>
-      </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C9">
         <v>0.39800000000000002</v>
       </c>
-      <c r="D9" s="9">
-        <v>0</v>
-      </c>
-      <c r="E9" s="9">
+      <c r="D9" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="E9" s="14">
         <v>2000</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="9" t="s">
-        <v>58</v>
+      <c r="A10" s="14" t="s">
+        <v>66</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C10">
         <v>0.02</v>
       </c>
-      <c r="D10" s="9">
-        <v>0</v>
-      </c>
-      <c r="E10" s="9">
+      <c r="D10" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="E10" s="14">
         <v>2000</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C11">
         <v>0.5</v>
       </c>
-      <c r="D11" s="9">
-        <v>0</v>
-      </c>
-      <c r="E11" s="9">
+      <c r="D11" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="E11" s="14">
         <v>2000</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
-      <c r="D12" s="9">
-        <v>0.34</v>
-      </c>
-      <c r="E12" s="9">
+      <c r="D12">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="14">
         <v>2000</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C13">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="D13" s="9">
-        <v>0</v>
-      </c>
-      <c r="E13" s="9">
+      <c r="D13" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="E13" s="14">
         <v>2000</v>
       </c>
     </row>

--- a/database/steel_data.xlsx
+++ b/database/steel_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\PLANiT\github\Costoptimal_steelsystem\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4CC6EC-43AC-4D0D-8D78-838E96A4CC1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D115B6A2-FEC7-4788-9B1C-394D4EEE395F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12024" yWindow="4092" windowWidth="28056" windowHeight="18948" tabRatio="775" activeTab="1" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
+    <workbookView xWindow="12024" yWindow="4092" windowWidth="28056" windowHeight="18948" tabRatio="775" activeTab="7" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="18" r:id="rId1"/>
@@ -7735,7 +7735,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B80F836-AAFA-4D20-813C-A31BE68F85E1}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -10566,7 +10566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E46CCB1-2754-42FA-B5C9-8DABA83A320C}">
   <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -10670,82 +10670,102 @@
         <v>30</v>
       </c>
       <c r="B2" s="25">
-        <v>300000000</v>
+        <v>50000000</v>
       </c>
       <c r="C2" s="25">
-        <v>300000000</v>
+        <v>30000000</v>
       </c>
       <c r="D2" s="25">
-        <v>300000000</v>
+        <v>30000000</v>
       </c>
       <c r="E2" s="25">
-        <v>300000000</v>
+        <v>30000000</v>
       </c>
       <c r="F2" s="25">
-        <v>300000000</v>
+        <v>30000000</v>
       </c>
       <c r="G2" s="25">
-        <v>300000000</v>
+        <f>F2*0.9</f>
+        <v>27000000</v>
       </c>
       <c r="H2" s="25">
-        <v>300000000</v>
+        <f>G2</f>
+        <v>27000000</v>
       </c>
       <c r="I2" s="25">
-        <v>300000000</v>
+        <f t="shared" ref="I2:P2" si="0">H2</f>
+        <v>27000000</v>
       </c>
       <c r="J2" s="25">
-        <v>300000000</v>
+        <f t="shared" si="0"/>
+        <v>27000000</v>
       </c>
       <c r="K2" s="25">
-        <v>300000000</v>
+        <f t="shared" si="0"/>
+        <v>27000000</v>
       </c>
       <c r="L2" s="25">
-        <v>300000000</v>
+        <f t="shared" si="0"/>
+        <v>27000000</v>
       </c>
       <c r="M2" s="25">
-        <v>300000000</v>
+        <f t="shared" si="0"/>
+        <v>27000000</v>
       </c>
       <c r="N2" s="25">
-        <v>300000000</v>
+        <f t="shared" si="0"/>
+        <v>27000000</v>
       </c>
       <c r="O2" s="25">
-        <v>300000000</v>
+        <f t="shared" si="0"/>
+        <v>27000000</v>
       </c>
       <c r="P2" s="25">
-        <v>300000000</v>
+        <f t="shared" si="0"/>
+        <v>27000000</v>
       </c>
       <c r="Q2" s="25">
-        <v>300000000</v>
+        <f>B2*0.5</f>
+        <v>25000000</v>
       </c>
       <c r="R2" s="25">
-        <v>300000000</v>
+        <f>Q2</f>
+        <v>25000000</v>
       </c>
       <c r="S2" s="25">
-        <v>300000000</v>
+        <f t="shared" ref="S2:Z2" si="1">R2</f>
+        <v>25000000</v>
       </c>
       <c r="T2" s="25">
-        <v>300000000</v>
+        <f t="shared" si="1"/>
+        <v>25000000</v>
       </c>
       <c r="U2" s="25">
-        <v>300000000</v>
+        <f t="shared" si="1"/>
+        <v>25000000</v>
       </c>
       <c r="V2" s="25">
-        <v>300000000</v>
+        <f t="shared" si="1"/>
+        <v>25000000</v>
       </c>
       <c r="W2" s="25">
-        <v>300000000</v>
+        <f t="shared" si="1"/>
+        <v>25000000</v>
       </c>
       <c r="X2" s="25">
-        <v>300000000</v>
+        <f t="shared" si="1"/>
+        <v>25000000</v>
       </c>
       <c r="Y2" s="25">
-        <v>300000000</v>
+        <f t="shared" si="1"/>
+        <v>25000000</v>
       </c>
       <c r="Z2" s="25">
-        <v>300000000</v>
+        <f t="shared" si="1"/>
+        <v>25000000</v>
       </c>
       <c r="AA2" s="25">
-        <v>300000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:27">

--- a/database/steel_data.xlsx
+++ b/database/steel_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\PLANiT\github\Costoptimal_steelsystem\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D115B6A2-FEC7-4788-9B1C-394D4EEE395F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71605DC9-2A9B-4032-ACDE-D290EBA28B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12024" yWindow="4092" windowWidth="28056" windowHeight="18948" tabRatio="775" activeTab="7" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
+    <workbookView xWindow="12024" yWindow="4092" windowWidth="28056" windowHeight="18948" tabRatio="775" firstSheet="3" activeTab="5" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="18" r:id="rId1"/>
@@ -24,14 +24,14 @@
     <sheet name="technology_fuel_pairs" sheetId="5" r:id="rId9"/>
     <sheet name="emission_system" sheetId="24" r:id="rId10"/>
     <sheet name="technology_ei" sheetId="21" r:id="rId11"/>
-    <sheet name="material_efficiency" sheetId="17" r:id="rId12"/>
-    <sheet name="technology_material_pairs" sheetId="6" r:id="rId13"/>
-    <sheet name="material_cost" sheetId="11" r:id="rId14"/>
-    <sheet name="material_emission" sheetId="12" r:id="rId15"/>
-    <sheet name="material_introduction" sheetId="27" r:id="rId16"/>
+    <sheet name="feedstock_intensity" sheetId="17" r:id="rId12"/>
+    <sheet name="technology_feedstock_pairs" sheetId="6" r:id="rId13"/>
+    <sheet name="feedstock_cost" sheetId="11" r:id="rId14"/>
+    <sheet name="feedstock_emission" sheetId="12" r:id="rId15"/>
+    <sheet name="feedstock_introduction" sheetId="27" r:id="rId16"/>
     <sheet name="fuel_introduction" sheetId="26" r:id="rId17"/>
     <sheet name="fuel_cost" sheetId="8" r:id="rId18"/>
-    <sheet name="fuel_efficiency" sheetId="16" r:id="rId19"/>
+    <sheet name="fuel_intensity" sheetId="16" r:id="rId19"/>
     <sheet name="fuel_emission" sheetId="10" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -89,22 +89,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>material_cost</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>currency / ton-material</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>material_efficiency</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ton-material / ton-production</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>fuel_cost</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -114,14 +98,6 @@
   </si>
   <si>
     <t>fuel_emission</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>material_emission</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ton-co2 / ton-material</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -138,10 +114,6 @@
   </si>
   <si>
     <t>years</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>material</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -210,10 +182,6 @@
   </si>
   <si>
     <t>fuel_share</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>material_share</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -341,6 +309,30 @@
   </si>
   <si>
     <t>Coke_BB, Thermal coal_BB, BF gas_BB, COG_BB, BOF gas_BB, Natural gas_BB, Hydrogen_BB, Electricity_BB, Steam_BB</t>
+  </si>
+  <si>
+    <t>feedstock_cost</t>
+  </si>
+  <si>
+    <t>currency / ton-feedstock</t>
+  </si>
+  <si>
+    <t>feedstock_efficiency</t>
+  </si>
+  <si>
+    <t>ton-feedstock / ton-production</t>
+  </si>
+  <si>
+    <t>feedstock_emission</t>
+  </si>
+  <si>
+    <t>ton-co2 / ton-feedstock</t>
+  </si>
+  <si>
+    <t>feedstock</t>
+  </si>
+  <si>
+    <t>feedstock_share</t>
   </si>
 </sst>
 </file>
@@ -888,7 +880,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -896,10 +888,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -910,7 +902,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -921,88 +913,88 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1110,7 +1102,7 @@
     </row>
     <row r="2" spans="1:27">
       <c r="A2" s="6" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B2">
         <v>99999999</v>
@@ -1193,7 +1185,7 @@
     </row>
     <row r="3" spans="1:27" ht="19.2">
       <c r="A3" s="7" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B3">
         <v>99999999</v>
@@ -1276,7 +1268,7 @@
     </row>
     <row r="4" spans="1:27" ht="19.2">
       <c r="A4" s="7" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B4">
         <v>99999999</v>
@@ -1359,7 +1351,7 @@
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="8" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B5">
         <v>99999999</v>
@@ -1442,7 +1434,7 @@
     </row>
     <row r="6" spans="1:27" ht="19.2">
       <c r="A6" s="7" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B6">
         <v>99999999</v>
@@ -1525,7 +1517,7 @@
     </row>
     <row r="7" spans="1:27" ht="19.2">
       <c r="A7" s="7" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B7">
         <v>99999999</v>
@@ -1608,7 +1600,7 @@
     </row>
     <row r="8" spans="1:27" ht="19.2">
       <c r="A8" s="7" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B8">
         <v>99999999</v>
@@ -1691,7 +1683,7 @@
     </row>
     <row r="9" spans="1:27" ht="19.2">
       <c r="A9" s="7" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B9">
         <v>99999999</v>
@@ -1774,7 +1766,7 @@
     </row>
     <row r="10" spans="1:27" ht="19.2">
       <c r="A10" s="7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B10">
         <v>99999999</v>
@@ -1857,7 +1849,7 @@
     </row>
     <row r="11" spans="1:27">
       <c r="A11" s="9" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B11">
         <v>99999999</v>
@@ -1940,7 +1932,7 @@
     </row>
     <row r="12" spans="1:27">
       <c r="A12" s="6" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B12">
         <v>99999999</v>
@@ -2023,7 +2015,7 @@
     </row>
     <row r="13" spans="1:27" ht="19.2">
       <c r="A13" s="7" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B13">
         <v>99999999</v>
@@ -2106,7 +2098,7 @@
     </row>
     <row r="14" spans="1:27" ht="19.2">
       <c r="A14" s="7" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B14">
         <v>99999999</v>
@@ -2209,7 +2201,7 @@
   <sheetData>
     <row r="1" spans="1:27">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B1">
         <v>2025</v>
@@ -2292,7 +2284,7 @@
     </row>
     <row r="2" spans="1:27">
       <c r="A2" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2375,7 +2367,7 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -2458,7 +2450,7 @@
     </row>
     <row r="4" spans="1:27">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -2561,7 +2553,7 @@
   <sheetData>
     <row r="1" spans="1:27">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="B1">
         <v>2025</v>
@@ -2644,7 +2636,7 @@
     </row>
     <row r="2" spans="1:27">
       <c r="A2" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2727,7 +2719,7 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -2810,7 +2802,7 @@
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -2893,7 +2885,7 @@
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -2976,7 +2968,7 @@
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -3059,7 +3051,7 @@
     </row>
     <row r="7" spans="1:27">
       <c r="A7" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -3142,7 +3134,7 @@
     </row>
     <row r="8" spans="1:27">
       <c r="A8" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -3225,7 +3217,7 @@
     </row>
     <row r="9" spans="1:27">
       <c r="A9" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -3308,7 +3300,7 @@
     </row>
     <row r="10" spans="1:27">
       <c r="A10" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -3415,28 +3407,28 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>31</v>
-      </c>
       <c r="E1" s="14" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="16" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C2" s="14">
         <v>1</v>
@@ -3450,10 +3442,10 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="16" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C3" s="14">
         <v>0.3</v>
@@ -3467,10 +3459,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="16" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C4" s="14">
         <v>0.01</v>
@@ -3484,10 +3476,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="14" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C5" s="14">
         <v>0.01</v>
@@ -3501,10 +3493,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="14" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C6" s="14">
         <v>0.3</v>
@@ -3518,10 +3510,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="14" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C7" s="14">
         <v>1</v>
@@ -3535,10 +3527,10 @@
     </row>
     <row r="8" spans="1:6" ht="34.799999999999997">
       <c r="A8" s="14" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C8" s="14">
         <v>0.01</v>
@@ -3552,10 +3544,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="14" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C9" s="14">
         <v>1</v>
@@ -3569,10 +3561,10 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="14" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C10" s="14">
         <v>0.01</v>
@@ -3617,7 +3609,7 @@
   <sheetData>
     <row r="1" spans="1:27">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="B1">
         <v>2025</v>
@@ -3700,7 +3692,7 @@
     </row>
     <row r="2" spans="1:27">
       <c r="A2" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B2" s="5">
         <v>126638.8</v>
@@ -3783,7 +3775,7 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B3" s="5">
         <v>290855.8</v>
@@ -3866,7 +3858,7 @@
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B4" s="5">
         <v>389609</v>
@@ -3949,7 +3941,7 @@
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B5" s="5">
         <v>126638.8</v>
@@ -4032,7 +4024,7 @@
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B6" s="5">
         <v>290855.8</v>
@@ -4115,7 +4107,7 @@
     </row>
     <row r="7" spans="1:27">
       <c r="A7" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B7" s="5">
         <v>389609</v>
@@ -4198,7 +4190,7 @@
     </row>
     <row r="8" spans="1:27" ht="34.799999999999997">
       <c r="A8" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B8" s="5">
         <v>126638.8</v>
@@ -4281,7 +4273,7 @@
     </row>
     <row r="9" spans="1:27">
       <c r="A9" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B9" s="5">
         <v>290855.8</v>
@@ -4364,7 +4356,7 @@
     </row>
     <row r="10" spans="1:27">
       <c r="A10" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B10" s="5">
         <v>389609</v>
@@ -4469,7 +4461,7 @@
   <sheetData>
     <row r="1" spans="1:27">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="B1">
         <v>2025</v>
@@ -4552,7 +4544,7 @@
     </row>
     <row r="2" spans="1:27">
       <c r="A2" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B2" s="3">
         <v>0</v>
@@ -4635,7 +4627,7 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B3" s="3">
         <v>0</v>
@@ -4718,7 +4710,7 @@
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B4" s="3">
         <v>0</v>
@@ -4801,7 +4793,7 @@
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -4884,7 +4876,7 @@
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B6" s="3">
         <v>0</v>
@@ -4967,7 +4959,7 @@
     </row>
     <row r="7" spans="1:27">
       <c r="A7" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B7" s="3">
         <v>0</v>
@@ -5050,7 +5042,7 @@
     </row>
     <row r="8" spans="1:27" ht="34.799999999999997">
       <c r="A8" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
@@ -5133,7 +5125,7 @@
     </row>
     <row r="9" spans="1:27">
       <c r="A9" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B9" s="3">
         <v>0</v>
@@ -5216,7 +5208,7 @@
     </row>
     <row r="10" spans="1:27">
       <c r="A10" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B10" s="3">
         <v>0</v>
@@ -5319,15 +5311,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B2">
         <v>2000</v>
@@ -5335,7 +5327,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B3">
         <v>2000</v>
@@ -5343,7 +5335,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B4">
         <v>2000</v>
@@ -5351,7 +5343,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B5">
         <v>2000</v>
@@ -5359,7 +5351,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B6">
         <v>2000</v>
@@ -5367,7 +5359,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B7">
         <v>2000</v>
@@ -5375,7 +5367,7 @@
     </row>
     <row r="8" spans="1:2" ht="34.799999999999997">
       <c r="A8" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B8">
         <v>2000</v>
@@ -5383,7 +5375,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B9">
         <v>2000</v>
@@ -5391,7 +5383,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B10">
         <v>2000</v>
@@ -5420,15 +5412,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B2">
         <v>2000</v>
@@ -5436,7 +5428,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B3">
         <v>2000</v>
@@ -5444,7 +5436,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B4">
         <v>2000</v>
@@ -5452,7 +5444,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B5">
         <v>2000</v>
@@ -5460,7 +5452,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B6">
         <v>2000</v>
@@ -5468,7 +5460,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B7">
         <v>2000</v>
@@ -5476,7 +5468,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B8">
         <v>2000</v>
@@ -5484,7 +5476,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B9">
         <v>2000</v>
@@ -5492,7 +5484,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B10">
         <v>2000</v>
@@ -5500,7 +5492,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B11">
         <v>2000</v>
@@ -5508,7 +5500,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B12">
         <v>2000</v>
@@ -5516,7 +5508,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B13">
         <v>2000</v>
@@ -5544,7 +5536,7 @@
   <sheetData>
     <row r="1" spans="1:27">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B1">
         <v>2025</v>
@@ -5627,7 +5619,7 @@
     </row>
     <row r="2" spans="1:27">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B2" s="17">
         <v>16810</v>
@@ -5710,7 +5702,7 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B3" s="17">
         <v>6810</v>
@@ -5793,7 +5785,7 @@
     </row>
     <row r="4" spans="1:27">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B4" s="17">
         <v>0</v>
@@ -5876,7 +5868,7 @@
     </row>
     <row r="5" spans="1:27">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B5" s="17">
         <v>0</v>
@@ -5959,7 +5951,7 @@
     </row>
     <row r="6" spans="1:27">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B6" s="17">
         <v>0</v>
@@ -6042,7 +6034,7 @@
     </row>
     <row r="7" spans="1:27">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B7" s="17">
         <v>3611</v>
@@ -6125,7 +6117,7 @@
     </row>
     <row r="8" spans="1:27">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B8" s="17">
         <v>90716.67</v>
@@ -6208,7 +6200,7 @@
     </row>
     <row r="9" spans="1:27">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B9" s="20">
         <v>19850</v>
@@ -6291,7 +6283,7 @@
     </row>
     <row r="10" spans="1:27">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B10" s="20">
         <v>4000</v>
@@ -6374,7 +6366,7 @@
     </row>
     <row r="11" spans="1:27">
       <c r="A11" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B11" s="20">
         <v>3611</v>
@@ -6457,7 +6449,7 @@
     </row>
     <row r="12" spans="1:27">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B12" s="20">
         <v>50750</v>
@@ -6540,7 +6532,7 @@
     </row>
     <row r="13" spans="1:27">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B13" s="20">
         <v>4000</v>
@@ -6633,7 +6625,7 @@
   <dimension ref="A1:AA15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
@@ -6644,7 +6636,7 @@
   <sheetData>
     <row r="1" spans="1:27">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B1">
         <v>2025</v>
@@ -6727,7 +6719,7 @@
     </row>
     <row r="2" spans="1:27" ht="18" customHeight="1">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B2">
         <v>13.97</v>
@@ -6810,7 +6802,7 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B3">
         <v>13.97</v>
@@ -6893,7 +6885,7 @@
     </row>
     <row r="4" spans="1:27">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B4">
         <v>13.97</v>
@@ -6976,7 +6968,7 @@
     </row>
     <row r="5" spans="1:27">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B5">
         <v>13.97</v>
@@ -7059,7 +7051,7 @@
     </row>
     <row r="6" spans="1:27">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B6">
         <v>13.97</v>
@@ -7142,7 +7134,7 @@
     </row>
     <row r="7" spans="1:27">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B7">
         <v>13.97</v>
@@ -7225,7 +7217,7 @@
     </row>
     <row r="8" spans="1:27">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B8">
         <v>13.97</v>
@@ -7308,7 +7300,7 @@
     </row>
     <row r="9" spans="1:27">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B9">
         <v>13.97</v>
@@ -7391,7 +7383,7 @@
     </row>
     <row r="10" spans="1:27">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B10">
         <v>13.97</v>
@@ -7474,7 +7466,7 @@
     </row>
     <row r="11" spans="1:27">
       <c r="A11" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B11">
         <v>13.97</v>
@@ -7557,7 +7549,7 @@
     </row>
     <row r="12" spans="1:27">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B12">
         <v>13.97</v>
@@ -7640,7 +7632,7 @@
     </row>
     <row r="13" spans="1:27">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B13">
         <v>13.97</v>
@@ -7757,45 +7749,45 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="F1" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
       </c>
       <c r="H1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="34.799999999999997">
       <c r="A2" s="11" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G2" s="11">
         <v>4722000</v>
@@ -7806,22 +7798,22 @@
     </row>
     <row r="3" spans="1:8" ht="34.799999999999997">
       <c r="A3" s="11" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G3" s="11">
         <v>4237000</v>
@@ -7832,22 +7824,22 @@
     </row>
     <row r="4" spans="1:8" ht="34.799999999999997">
       <c r="A4" s="11" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G4" s="11">
         <v>4127000</v>
@@ -7858,22 +7850,22 @@
     </row>
     <row r="5" spans="1:8" ht="34.799999999999997">
       <c r="A5" s="11" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G5" s="11">
         <v>3624000</v>
@@ -7884,22 +7876,22 @@
     </row>
     <row r="6" spans="1:8" ht="34.799999999999997">
       <c r="A6" s="11" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G6" s="11">
         <v>3239000</v>
@@ -7931,7 +7923,7 @@
   <sheetData>
     <row r="1" spans="1:27">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B1">
         <v>2025</v>
@@ -8014,7 +8006,7 @@
     </row>
     <row r="2" spans="1:27">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B2" s="19">
         <v>0</v>
@@ -8097,7 +8089,7 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B3" s="19">
         <v>0</v>
@@ -8180,7 +8172,7 @@
     </row>
     <row r="4" spans="1:27">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B4" s="19">
         <v>9.5000000000000001E-2</v>
@@ -8263,7 +8255,7 @@
     </row>
     <row r="5" spans="1:27">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B5" s="19">
         <v>0.26</v>
@@ -8346,7 +8338,7 @@
     </row>
     <row r="6" spans="1:27">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B6" s="19">
         <v>4.3999999999999997E-2</v>
@@ -8429,7 +8421,7 @@
     </row>
     <row r="7" spans="1:27">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B7" s="19">
         <v>0.192</v>
@@ -8512,7 +8504,7 @@
     </row>
     <row r="8" spans="1:27">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B8" s="19">
         <v>5.5E-2</v>
@@ -8595,7 +8587,7 @@
     </row>
     <row r="9" spans="1:27">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B9" s="19">
         <v>0</v>
@@ -8678,7 +8670,7 @@
     </row>
     <row r="10" spans="1:27">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B10" s="19">
         <v>0</v>
@@ -8761,7 +8753,7 @@
     </row>
     <row r="11" spans="1:27">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B11" s="19">
         <v>0</v>
@@ -8844,7 +8836,7 @@
     </row>
     <row r="12" spans="1:27">
       <c r="A12" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B12" s="19">
         <v>5.5E-2</v>
@@ -8927,7 +8919,7 @@
     </row>
     <row r="13" spans="1:27">
       <c r="A13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B13" s="19">
         <v>0</v>
@@ -9010,7 +9002,7 @@
     </row>
     <row r="14" spans="1:27">
       <c r="A14" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B14" s="19">
         <v>0</v>
@@ -9114,7 +9106,7 @@
   <sheetData>
     <row r="1" spans="1:27">
       <c r="A1" s="17" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B1" s="17">
         <v>2025</v>
@@ -9197,7 +9189,7 @@
     </row>
     <row r="2" spans="1:27">
       <c r="A2" s="18" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B2" s="17">
         <v>500700</v>
@@ -9280,7 +9272,7 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="17" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B3" s="17">
         <v>1100000</v>
@@ -9363,7 +9355,7 @@
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="17" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B4" s="17">
         <v>400000</v>
@@ -9571,7 +9563,7 @@
   <sheetData>
     <row r="1" spans="1:27">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B1">
         <v>2025</v>
@@ -9654,7 +9646,7 @@
     </row>
     <row r="2" spans="1:27">
       <c r="A2" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B2" s="17">
         <v>177308.78</v>
@@ -9737,7 +9729,7 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B3" s="17">
         <f>B2*2</f>
@@ -9846,7 +9838,7 @@
     </row>
     <row r="4" spans="1:27">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B4" s="17">
         <v>86076.23</v>
@@ -9950,7 +9942,7 @@
   <sheetData>
     <row r="1" spans="1:27">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B1">
         <v>2025</v>
@@ -10033,7 +10025,7 @@
     </row>
     <row r="2" spans="1:27">
       <c r="A2" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B2" s="17">
         <v>421098.9</v>
@@ -10116,7 +10108,7 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B3" s="17">
         <f>B2*2</f>
@@ -10225,7 +10217,7 @@
     </row>
     <row r="4" spans="1:27">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B4" s="17">
         <v>185299.77</v>
@@ -10317,8 +10309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED5339A0-3D98-43CE-86F7-53EF60721306}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
@@ -10330,18 +10322,18 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B2">
         <v>20</v>
@@ -10352,7 +10344,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B3">
         <v>20</v>
@@ -10363,7 +10355,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B4">
         <v>20</v>
@@ -10391,7 +10383,7 @@
   <sheetData>
     <row r="1" spans="1:27">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B1">
         <v>2025</v>
@@ -10474,7 +10466,7 @@
     </row>
     <row r="2" spans="1:27">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B2">
         <v>65000</v>
@@ -10566,7 +10558,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E46CCB1-2754-42FA-B5C9-8DABA83A320C}">
   <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -10584,7 +10576,7 @@
   <sheetData>
     <row r="1" spans="1:27">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B1">
         <v>2025</v>
@@ -10667,7 +10659,7 @@
     </row>
     <row r="2" spans="1:27">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B2" s="25">
         <v>50000000</v>
@@ -10796,28 +10788,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>31</v>
-      </c>
       <c r="E1" s="14" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="16" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C2" s="14">
         <v>1</v>
@@ -10832,10 +10824,10 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="16" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C3" s="14">
         <v>0.1</v>
@@ -10850,10 +10842,10 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="16" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C4" s="14">
         <v>0.4</v>
@@ -10868,10 +10860,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="16" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C5" s="14">
         <v>0.1</v>
@@ -10886,10 +10878,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
         <v>53</v>
-      </c>
-      <c r="B6" t="s">
-        <v>61</v>
       </c>
       <c r="C6" s="14">
         <v>5.8999999999999997E-2</v>
@@ -10904,10 +10896,10 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="16" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C7" s="14">
         <v>0.1</v>
@@ -10922,10 +10914,10 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s">
         <v>66</v>
-      </c>
-      <c r="B8" t="s">
-        <v>74</v>
       </c>
       <c r="C8" s="14">
         <v>1</v>
@@ -10939,10 +10931,10 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="14" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C9">
         <v>0.39800000000000002</v>
@@ -10956,10 +10948,10 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="14" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C10">
         <v>0.02</v>
@@ -10973,10 +10965,10 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C11">
         <v>0.5</v>
@@ -10990,10 +10982,10 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -11007,10 +10999,10 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C13">
         <v>7.5999999999999998E-2</v>

--- a/database/steel_data.xlsx
+++ b/database/steel_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinsupark/jinsu-coding/macc_steel/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8752ED3D-7A06-F24B-B0EB-54720E4F73B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9DA209B-AD34-064A-A6DF-C4388785DA36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="775" firstSheet="6" activeTab="7" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="775" firstSheet="6" activeTab="17" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="18" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="81">
   <si>
     <t>system</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -263,9 +263,6 @@
   </si>
   <si>
     <t>0.81, 0.19</t>
-  </si>
-  <si>
-    <t>Met coal_BB</t>
   </si>
   <si>
     <t>Coke_BB</t>
@@ -2374,7 +2371,7 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -2643,7 +2640,7 @@
     </row>
     <row r="2" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2726,7 +2723,7 @@
     </row>
     <row r="3" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -2809,7 +2806,7 @@
     </row>
     <row r="4" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -2892,7 +2889,7 @@
     </row>
     <row r="5" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -2975,7 +2972,7 @@
     </row>
     <row r="6" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -3058,7 +3055,7 @@
     </row>
     <row r="7" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -3141,7 +3138,7 @@
     </row>
     <row r="8" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -3224,7 +3221,7 @@
     </row>
     <row r="9" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -3307,7 +3304,7 @@
     </row>
     <row r="10" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -3400,7 +3397,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView zoomScale="107" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3435,7 +3432,7 @@
         <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C2" s="14">
         <v>1</v>
@@ -3452,7 +3449,7 @@
         <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3" s="14">
         <v>0.3</v>
@@ -3469,7 +3466,7 @@
         <v>53</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C4" s="14">
         <v>0.01</v>
@@ -3483,10 +3480,10 @@
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" s="14">
         <v>0.01</v>
@@ -3500,10 +3497,10 @@
     </row>
     <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C6" s="14">
         <v>0.3</v>
@@ -3517,10 +3514,10 @@
     </row>
     <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C7" s="14">
         <v>1</v>
@@ -3537,7 +3534,7 @@
         <v>54</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C8" s="14">
         <v>0.01</v>
@@ -3554,7 +3551,7 @@
         <v>54</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C9" s="14">
         <v>1</v>
@@ -3571,7 +3568,7 @@
         <v>54</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C10" s="14">
         <v>0.01</v>
@@ -3699,7 +3696,7 @@
     </row>
     <row r="2" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" s="5">
         <v>126638.8</v>
@@ -3782,7 +3779,7 @@
     </row>
     <row r="3" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3" s="5">
         <v>290855.8</v>
@@ -3865,7 +3862,7 @@
     </row>
     <row r="4" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B4" s="5">
         <v>389609</v>
@@ -3948,7 +3945,7 @@
     </row>
     <row r="5" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B5" s="5">
         <v>126638.8</v>
@@ -4031,7 +4028,7 @@
     </row>
     <row r="6" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B6" s="5">
         <v>290855.8</v>
@@ -4114,7 +4111,7 @@
     </row>
     <row r="7" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B7" s="5">
         <v>389609</v>
@@ -4197,7 +4194,7 @@
     </row>
     <row r="8" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B8" s="5">
         <v>126638.8</v>
@@ -4280,7 +4277,7 @@
     </row>
     <row r="9" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B9" s="5">
         <v>290855.8</v>
@@ -4363,7 +4360,7 @@
     </row>
     <row r="10" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B10" s="5">
         <v>389609</v>
@@ -4551,7 +4548,7 @@
     </row>
     <row r="2" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" s="3">
         <v>0</v>
@@ -4634,7 +4631,7 @@
     </row>
     <row r="3" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3" s="3">
         <v>0</v>
@@ -4717,7 +4714,7 @@
     </row>
     <row r="4" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B4" s="3">
         <v>0</v>
@@ -4800,7 +4797,7 @@
     </row>
     <row r="5" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -4883,7 +4880,7 @@
     </row>
     <row r="6" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B6" s="3">
         <v>0</v>
@@ -4966,7 +4963,7 @@
     </row>
     <row r="7" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B7" s="3">
         <v>0</v>
@@ -5049,7 +5046,7 @@
     </row>
     <row r="8" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
@@ -5132,7 +5129,7 @@
     </row>
     <row r="9" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B9" s="3">
         <v>0</v>
@@ -5215,7 +5212,7 @@
     </row>
     <row r="10" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B10" s="3">
         <v>0</v>
@@ -5326,7 +5323,7 @@
     </row>
     <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2">
         <v>2000</v>
@@ -5334,7 +5331,7 @@
     </row>
     <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3">
         <v>2000</v>
@@ -5342,7 +5339,7 @@
     </row>
     <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B4">
         <v>2000</v>
@@ -5350,7 +5347,7 @@
     </row>
     <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B5">
         <v>2000</v>
@@ -5358,7 +5355,7 @@
     </row>
     <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B6">
         <v>2000</v>
@@ -5366,7 +5363,7 @@
     </row>
     <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B7">
         <v>2000</v>
@@ -5374,7 +5371,7 @@
     </row>
     <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B8">
         <v>2000</v>
@@ -5382,7 +5379,7 @@
     </row>
     <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B9">
         <v>2000</v>
@@ -5390,7 +5387,7 @@
     </row>
     <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B10">
         <v>2000</v>
@@ -5427,7 +5424,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2">
         <v>2000</v>
@@ -5435,7 +5432,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3">
         <v>2000</v>
@@ -5443,7 +5440,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4">
         <v>2000</v>
@@ -5451,7 +5448,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5">
         <v>2000</v>
@@ -5459,7 +5456,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B6">
         <v>2000</v>
@@ -5467,7 +5464,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7">
         <v>2000</v>
@@ -5475,7 +5472,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B8">
         <v>2000</v>
@@ -5483,7 +5480,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B9">
         <v>2000</v>
@@ -5491,7 +5488,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B10">
         <v>2000</v>
@@ -5499,7 +5496,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B11">
         <v>2000</v>
@@ -5507,7 +5504,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B12">
         <v>2000</v>
@@ -5515,7 +5512,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B13">
         <v>2000</v>
@@ -5532,8 +5529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{251D8908-2320-4E41-AC8F-86BD7BF58C9B}">
   <dimension ref="A1:AA13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:AA8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5626,7 +5623,7 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" s="17">
         <v>16810</v>
@@ -5709,7 +5706,7 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" s="17">
         <v>6810</v>
@@ -5792,7 +5789,7 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="17">
         <v>0</v>
@@ -5875,7 +5872,7 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5" s="17">
         <v>0</v>
@@ -5958,7 +5955,7 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B6" s="17">
         <v>0</v>
@@ -6041,7 +6038,7 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" s="17">
         <v>3611</v>
@@ -6124,90 +6121,90 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B8" s="17">
-        <v>90716.67</v>
+        <v>35000</v>
       </c>
       <c r="C8" s="17">
-        <v>89675</v>
+        <v>34230</v>
       </c>
       <c r="D8" s="17">
-        <v>87975</v>
+        <v>33460</v>
       </c>
       <c r="E8" s="17">
-        <v>89741.67</v>
+        <v>32690</v>
       </c>
       <c r="F8" s="17">
-        <v>89800</v>
+        <v>31920</v>
       </c>
       <c r="G8" s="17">
-        <v>86400</v>
+        <v>31150</v>
       </c>
       <c r="H8" s="17">
-        <v>83208.33</v>
+        <v>30356.67</v>
       </c>
       <c r="I8" s="17">
-        <v>80783.33</v>
+        <v>29563.33</v>
       </c>
       <c r="J8" s="17">
-        <v>78908.33</v>
+        <v>28770</v>
       </c>
       <c r="K8" s="17">
-        <v>78433.33</v>
+        <v>27976.67</v>
       </c>
       <c r="L8" s="17">
-        <v>77441.67</v>
+        <v>27183.33</v>
       </c>
       <c r="M8" s="17">
-        <v>76391.67</v>
+        <v>26413.33</v>
       </c>
       <c r="N8" s="17">
-        <v>71533.33</v>
+        <v>25643.33</v>
       </c>
       <c r="O8" s="17">
-        <v>68441.67</v>
+        <v>24873.33</v>
       </c>
       <c r="P8" s="17">
-        <v>65491.67</v>
+        <v>24103.33</v>
       </c>
       <c r="Q8" s="17">
-        <v>62683.33</v>
+        <v>23333.33</v>
       </c>
       <c r="R8" s="17">
-        <v>60000</v>
+        <v>22563.33</v>
       </c>
       <c r="S8" s="17">
-        <v>57441.67</v>
+        <v>21793.33</v>
       </c>
       <c r="T8" s="17">
-        <v>55000</v>
+        <v>21023.33</v>
       </c>
       <c r="U8" s="17">
-        <v>52666.67</v>
+        <v>20253.330000000002</v>
       </c>
       <c r="V8" s="17">
-        <v>50441.67</v>
+        <v>19483.330000000002</v>
       </c>
       <c r="W8" s="17">
-        <v>48316.67</v>
+        <v>19086.669999999998</v>
       </c>
       <c r="X8" s="17">
-        <v>46275</v>
+        <v>18690</v>
       </c>
       <c r="Y8" s="17">
-        <v>44325</v>
+        <v>18293.330000000002</v>
       </c>
       <c r="Z8" s="17">
-        <v>42458.33</v>
+        <v>17896.669999999998</v>
       </c>
       <c r="AA8" s="17">
-        <v>40675</v>
+        <v>17500</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B9" s="20">
         <v>19850</v>
@@ -6290,7 +6287,7 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B10" s="20">
         <v>4000</v>
@@ -6373,7 +6370,7 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B11" s="20">
         <v>3611</v>
@@ -6456,7 +6453,7 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B12" s="20">
         <v>50750</v>
@@ -6539,7 +6536,7 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B13" s="20">
         <v>4000</v>
@@ -6726,7 +6723,7 @@
     </row>
     <row r="2" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2">
         <v>13.97</v>
@@ -6809,7 +6806,7 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3">
         <v>13.97</v>
@@ -6892,7 +6889,7 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4">
         <v>13.97</v>
@@ -6975,7 +6972,7 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5">
         <v>13.97</v>
@@ -7058,7 +7055,7 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B6">
         <v>13.97</v>
@@ -7141,7 +7138,7 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7">
         <v>13.97</v>
@@ -7224,7 +7221,7 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B8">
         <v>13.97</v>
@@ -7307,7 +7304,7 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B9">
         <v>13.97</v>
@@ -7390,7 +7387,7 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B10">
         <v>13.97</v>
@@ -7473,7 +7470,7 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B11">
         <v>13.97</v>
@@ -7556,7 +7553,7 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B12">
         <v>13.97</v>
@@ -7639,7 +7636,7 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B13">
         <v>13.97</v>
@@ -7732,10 +7729,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B80F836-AAFA-4D20-813C-A31BE68F85E1}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7785,13 +7782,13 @@
         <v>53</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>55</v>
@@ -7811,13 +7808,13 @@
         <v>53</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>55</v>
@@ -7831,288 +7828,80 @@
     </row>
     <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>55</v>
       </c>
       <c r="G4" s="11">
-        <v>4128000</v>
+        <v>4127000</v>
       </c>
       <c r="H4" s="24">
-        <v>2017</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>55</v>
       </c>
       <c r="G5" s="11">
-        <v>4127000</v>
+        <v>3624000</v>
       </c>
       <c r="H5" s="24">
-        <v>2020</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>55</v>
       </c>
       <c r="G6" s="11">
-        <v>4000000</v>
+        <v>3239000</v>
       </c>
       <c r="H6" s="24">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G7" s="11">
-        <v>4000000</v>
-      </c>
-      <c r="H7" s="24">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G8" s="11">
-        <v>4000000</v>
-      </c>
-      <c r="H8" s="24">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" s="11">
-        <v>3804000</v>
-      </c>
-      <c r="H9" s="24">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" s="11">
-        <v>3624000</v>
-      </c>
-      <c r="H10" s="24">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" s="11">
-        <v>3239000</v>
-      </c>
-      <c r="H11" s="24">
         <v>2006</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G12" s="11">
-        <v>1914000</v>
-      </c>
-      <c r="H12" s="24">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G13" s="11">
-        <v>1683000</v>
-      </c>
-      <c r="H13" s="24">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G14" s="11">
-        <v>1280000</v>
-      </c>
-      <c r="H14" s="24">
-        <v>2010</v>
       </c>
     </row>
   </sheetData>
@@ -8124,10 +7913,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20EB8FDB-F47B-40C2-8266-6700BCAB2D8C}">
-  <dimension ref="A1:AA14"/>
+  <dimension ref="A1:AA13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8224,82 +8013,82 @@
         <v>56</v>
       </c>
       <c r="B2" s="19">
-        <v>0</v>
+        <v>0.107</v>
       </c>
       <c r="C2" s="19">
-        <v>0</v>
+        <v>0.107</v>
       </c>
       <c r="D2" s="19">
-        <v>0</v>
+        <v>0.107</v>
       </c>
       <c r="E2" s="19">
-        <v>0</v>
+        <v>0.107</v>
       </c>
       <c r="F2" s="19">
-        <v>0</v>
+        <v>0.107</v>
       </c>
       <c r="G2" s="19">
-        <v>0</v>
+        <v>0.107</v>
       </c>
       <c r="H2" s="19">
-        <v>0</v>
+        <v>0.107</v>
       </c>
       <c r="I2" s="19">
-        <v>0</v>
+        <v>0.107</v>
       </c>
       <c r="J2" s="19">
-        <v>0</v>
+        <v>0.107</v>
       </c>
       <c r="K2" s="19">
-        <v>0</v>
+        <v>0.107</v>
       </c>
       <c r="L2" s="19">
-        <v>0</v>
+        <v>0.107</v>
       </c>
       <c r="M2" s="19">
-        <v>0</v>
+        <v>0.107</v>
       </c>
       <c r="N2" s="19">
-        <v>0</v>
+        <v>0.107</v>
       </c>
       <c r="O2" s="19">
-        <v>0</v>
+        <v>0.107</v>
       </c>
       <c r="P2" s="19">
-        <v>0</v>
+        <v>0.107</v>
       </c>
       <c r="Q2" s="19">
-        <v>0</v>
+        <v>0.107</v>
       </c>
       <c r="R2" s="19">
-        <v>0</v>
+        <v>0.107</v>
       </c>
       <c r="S2" s="19">
-        <v>0</v>
+        <v>0.107</v>
       </c>
       <c r="T2" s="19">
-        <v>0</v>
+        <v>0.107</v>
       </c>
       <c r="U2" s="19">
-        <v>0</v>
+        <v>0.107</v>
       </c>
       <c r="V2" s="19">
-        <v>0</v>
+        <v>0.107</v>
       </c>
       <c r="W2" s="19">
-        <v>0</v>
+        <v>0.107</v>
       </c>
       <c r="X2" s="19">
-        <v>0</v>
+        <v>0.107</v>
       </c>
       <c r="Y2" s="19">
-        <v>0</v>
+        <v>0.107</v>
       </c>
       <c r="Z2" s="19">
-        <v>0</v>
+        <v>0.107</v>
       </c>
       <c r="AA2" s="19">
-        <v>0</v>
+        <v>0.107</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
@@ -8307,82 +8096,82 @@
         <v>57</v>
       </c>
       <c r="B3" s="19">
-        <v>0</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="C3" s="19">
-        <v>0</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="D3" s="19">
-        <v>0</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="E3" s="19">
-        <v>0</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="F3" s="19">
-        <v>0</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="G3" s="19">
-        <v>0</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="H3" s="19">
-        <v>0</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I3" s="19">
-        <v>0</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="J3" s="19">
-        <v>0</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="K3" s="19">
-        <v>0</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="L3" s="19">
-        <v>0</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="M3" s="19">
-        <v>0</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="N3" s="19">
-        <v>0</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="O3" s="19">
-        <v>0</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="P3" s="19">
-        <v>0</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="Q3" s="19">
-        <v>0</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="R3" s="19">
-        <v>0</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="S3" s="19">
-        <v>0</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="T3" s="19">
-        <v>0</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="U3" s="19">
-        <v>0</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="V3" s="19">
-        <v>0</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="W3" s="19">
-        <v>0</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="X3" s="19">
-        <v>0</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="Y3" s="19">
-        <v>0</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="Z3" s="19">
-        <v>0</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="AA3" s="19">
-        <v>0</v>
+        <v>9.5000000000000001E-2</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
@@ -8390,82 +8179,82 @@
         <v>58</v>
       </c>
       <c r="B4" s="19">
-        <v>9.5000000000000001E-2</v>
+        <v>0.26</v>
       </c>
       <c r="C4" s="19">
-        <v>9.5000000000000001E-2</v>
+        <v>0.26</v>
       </c>
       <c r="D4" s="19">
-        <v>9.5000000000000001E-2</v>
+        <v>0.26</v>
       </c>
       <c r="E4" s="19">
-        <v>9.5000000000000001E-2</v>
+        <v>0.26</v>
       </c>
       <c r="F4" s="19">
-        <v>9.5000000000000001E-2</v>
+        <v>0.26</v>
       </c>
       <c r="G4" s="19">
-        <v>9.5000000000000001E-2</v>
+        <v>0.26</v>
       </c>
       <c r="H4" s="19">
-        <v>9.5000000000000001E-2</v>
+        <v>0.26</v>
       </c>
       <c r="I4" s="19">
-        <v>9.5000000000000001E-2</v>
+        <v>0.26</v>
       </c>
       <c r="J4" s="19">
-        <v>9.5000000000000001E-2</v>
+        <v>0.26</v>
       </c>
       <c r="K4" s="19">
-        <v>9.5000000000000001E-2</v>
+        <v>0.26</v>
       </c>
       <c r="L4" s="19">
-        <v>9.5000000000000001E-2</v>
+        <v>0.26</v>
       </c>
       <c r="M4" s="19">
-        <v>9.5000000000000001E-2</v>
+        <v>0.26</v>
       </c>
       <c r="N4" s="19">
-        <v>9.5000000000000001E-2</v>
+        <v>0.26</v>
       </c>
       <c r="O4" s="19">
-        <v>9.5000000000000001E-2</v>
+        <v>0.26</v>
       </c>
       <c r="P4" s="19">
-        <v>9.5000000000000001E-2</v>
+        <v>0.26</v>
       </c>
       <c r="Q4" s="19">
-        <v>9.5000000000000001E-2</v>
+        <v>0.26</v>
       </c>
       <c r="R4" s="19">
-        <v>9.5000000000000001E-2</v>
+        <v>0.26</v>
       </c>
       <c r="S4" s="19">
-        <v>9.5000000000000001E-2</v>
+        <v>0.26</v>
       </c>
       <c r="T4" s="19">
-        <v>9.5000000000000001E-2</v>
+        <v>0.26</v>
       </c>
       <c r="U4" s="19">
-        <v>9.5000000000000001E-2</v>
+        <v>0.26</v>
       </c>
       <c r="V4" s="19">
-        <v>9.5000000000000001E-2</v>
+        <v>0.26</v>
       </c>
       <c r="W4" s="19">
-        <v>9.5000000000000001E-2</v>
+        <v>0.26</v>
       </c>
       <c r="X4" s="19">
-        <v>9.5000000000000001E-2</v>
+        <v>0.26</v>
       </c>
       <c r="Y4" s="19">
-        <v>9.5000000000000001E-2</v>
+        <v>0.26</v>
       </c>
       <c r="Z4" s="19">
-        <v>9.5000000000000001E-2</v>
+        <v>0.26</v>
       </c>
       <c r="AA4" s="19">
-        <v>9.5000000000000001E-2</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
@@ -8473,82 +8262,82 @@
         <v>59</v>
       </c>
       <c r="B5" s="19">
-        <v>0.26</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="C5" s="19">
-        <v>0.26</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="D5" s="19">
-        <v>0.26</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="E5" s="19">
-        <v>0.26</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="F5" s="19">
-        <v>0.26</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="G5" s="19">
-        <v>0.26</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="H5" s="19">
-        <v>0.26</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="I5" s="19">
-        <v>0.26</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="J5" s="19">
-        <v>0.26</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="K5" s="19">
-        <v>0.26</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="L5" s="19">
-        <v>0.26</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="M5" s="19">
-        <v>0.26</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="N5" s="19">
-        <v>0.26</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="O5" s="19">
-        <v>0.26</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="P5" s="19">
-        <v>0.26</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="Q5" s="19">
-        <v>0.26</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="R5" s="19">
-        <v>0.26</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="S5" s="19">
-        <v>0.26</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="T5" s="19">
-        <v>0.26</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="U5" s="19">
-        <v>0.26</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="V5" s="19">
-        <v>0.26</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="W5" s="19">
-        <v>0.26</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="X5" s="19">
-        <v>0.26</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="Y5" s="19">
-        <v>0.26</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="Z5" s="19">
-        <v>0.26</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="AA5" s="19">
-        <v>0.26</v>
+        <v>4.3999999999999997E-2</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
@@ -8556,82 +8345,82 @@
         <v>60</v>
       </c>
       <c r="B6" s="19">
-        <v>4.3999999999999997E-2</v>
+        <v>0.192</v>
       </c>
       <c r="C6" s="19">
-        <v>4.3999999999999997E-2</v>
+        <v>0.192</v>
       </c>
       <c r="D6" s="19">
-        <v>4.3999999999999997E-2</v>
+        <v>0.192</v>
       </c>
       <c r="E6" s="19">
-        <v>4.3999999999999997E-2</v>
+        <v>0.192</v>
       </c>
       <c r="F6" s="19">
-        <v>4.3999999999999997E-2</v>
+        <v>0.192</v>
       </c>
       <c r="G6" s="19">
-        <v>4.3999999999999997E-2</v>
+        <v>0.192</v>
       </c>
       <c r="H6" s="19">
-        <v>4.3999999999999997E-2</v>
+        <v>0.192</v>
       </c>
       <c r="I6" s="19">
-        <v>4.3999999999999997E-2</v>
+        <v>0.192</v>
       </c>
       <c r="J6" s="19">
-        <v>4.3999999999999997E-2</v>
+        <v>0.192</v>
       </c>
       <c r="K6" s="19">
-        <v>4.3999999999999997E-2</v>
+        <v>0.192</v>
       </c>
       <c r="L6" s="19">
-        <v>4.3999999999999997E-2</v>
+        <v>0.192</v>
       </c>
       <c r="M6" s="19">
-        <v>4.3999999999999997E-2</v>
+        <v>0.192</v>
       </c>
       <c r="N6" s="19">
-        <v>4.3999999999999997E-2</v>
+        <v>0.192</v>
       </c>
       <c r="O6" s="19">
-        <v>4.3999999999999997E-2</v>
+        <v>0.192</v>
       </c>
       <c r="P6" s="19">
-        <v>4.3999999999999997E-2</v>
+        <v>0.192</v>
       </c>
       <c r="Q6" s="19">
-        <v>4.3999999999999997E-2</v>
+        <v>0.192</v>
       </c>
       <c r="R6" s="19">
-        <v>4.3999999999999997E-2</v>
+        <v>0.192</v>
       </c>
       <c r="S6" s="19">
-        <v>4.3999999999999997E-2</v>
+        <v>0.192</v>
       </c>
       <c r="T6" s="19">
-        <v>4.3999999999999997E-2</v>
+        <v>0.192</v>
       </c>
       <c r="U6" s="19">
-        <v>4.3999999999999997E-2</v>
+        <v>0.192</v>
       </c>
       <c r="V6" s="19">
-        <v>4.3999999999999997E-2</v>
+        <v>0.192</v>
       </c>
       <c r="W6" s="19">
-        <v>4.3999999999999997E-2</v>
+        <v>0.192</v>
       </c>
       <c r="X6" s="19">
-        <v>4.3999999999999997E-2</v>
+        <v>0.192</v>
       </c>
       <c r="Y6" s="19">
-        <v>4.3999999999999997E-2</v>
+        <v>0.192</v>
       </c>
       <c r="Z6" s="19">
-        <v>4.3999999999999997E-2</v>
+        <v>0.192</v>
       </c>
       <c r="AA6" s="19">
-        <v>4.3999999999999997E-2</v>
+        <v>0.192</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
@@ -8639,165 +8428,165 @@
         <v>61</v>
       </c>
       <c r="B7" s="19">
-        <v>0.192</v>
+        <v>5.5E-2</v>
       </c>
       <c r="C7" s="19">
-        <v>0.192</v>
+        <v>5.5E-2</v>
       </c>
       <c r="D7" s="19">
-        <v>0.192</v>
+        <v>5.5E-2</v>
       </c>
       <c r="E7" s="19">
-        <v>0.192</v>
+        <v>5.5E-2</v>
       </c>
       <c r="F7" s="19">
-        <v>0.192</v>
+        <v>5.5E-2</v>
       </c>
       <c r="G7" s="19">
-        <v>0.192</v>
+        <v>5.5E-2</v>
       </c>
       <c r="H7" s="19">
-        <v>0.192</v>
+        <v>5.5E-2</v>
       </c>
       <c r="I7" s="19">
-        <v>0.192</v>
+        <v>5.5E-2</v>
       </c>
       <c r="J7" s="19">
-        <v>0.192</v>
+        <v>5.5E-2</v>
       </c>
       <c r="K7" s="19">
-        <v>0.192</v>
+        <v>5.5E-2</v>
       </c>
       <c r="L7" s="19">
-        <v>0.192</v>
+        <v>5.5E-2</v>
       </c>
       <c r="M7" s="19">
-        <v>0.192</v>
+        <v>5.5E-2</v>
       </c>
       <c r="N7" s="19">
-        <v>0.192</v>
+        <v>5.5E-2</v>
       </c>
       <c r="O7" s="19">
-        <v>0.192</v>
+        <v>5.5E-2</v>
       </c>
       <c r="P7" s="19">
-        <v>0.192</v>
+        <v>5.5E-2</v>
       </c>
       <c r="Q7" s="19">
-        <v>0.192</v>
+        <v>5.5E-2</v>
       </c>
       <c r="R7" s="19">
-        <v>0.192</v>
+        <v>5.5E-2</v>
       </c>
       <c r="S7" s="19">
-        <v>0.192</v>
+        <v>5.5E-2</v>
       </c>
       <c r="T7" s="19">
-        <v>0.192</v>
+        <v>5.5E-2</v>
       </c>
       <c r="U7" s="19">
-        <v>0.192</v>
+        <v>5.5E-2</v>
       </c>
       <c r="V7" s="19">
-        <v>0.192</v>
+        <v>5.5E-2</v>
       </c>
       <c r="W7" s="19">
-        <v>0.192</v>
+        <v>5.5E-2</v>
       </c>
       <c r="X7" s="19">
-        <v>0.192</v>
+        <v>5.5E-2</v>
       </c>
       <c r="Y7" s="19">
-        <v>0.192</v>
+        <v>5.5E-2</v>
       </c>
       <c r="Z7" s="19">
-        <v>0.192</v>
+        <v>5.5E-2</v>
       </c>
       <c r="AA7" s="19">
-        <v>0.192</v>
+        <v>5.5E-2</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="B8" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="C8" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="D8" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="E8" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="F8" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="G8" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="H8" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="I8" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="J8" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="K8" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="L8" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="M8" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="N8" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="O8" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="P8" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="R8" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="S8" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="T8" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="U8" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="V8" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="W8" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="X8" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="Y8" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="AA8" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
@@ -8971,82 +8760,82 @@
         <v>76</v>
       </c>
       <c r="B11" s="19">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="C11" s="19">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="D11" s="19">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="E11" s="19">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="F11" s="19">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="G11" s="19">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="H11" s="19">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="I11" s="19">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="J11" s="19">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="K11" s="19">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="L11" s="19">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="M11" s="19">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="N11" s="19">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="O11" s="19">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="P11" s="19">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="Q11" s="19">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="R11" s="19">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="S11" s="19">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="T11" s="19">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="U11" s="19">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="V11" s="19">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="W11" s="19">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="X11" s="19">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="Y11" s="19">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="Z11" s="19">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="AA11" s="19">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
@@ -9054,82 +8843,82 @@
         <v>77</v>
       </c>
       <c r="B12" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="C12" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="D12" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="E12" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="F12" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="G12" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="H12" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="I12" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="J12" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="K12" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="L12" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="M12" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="N12" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="O12" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="P12" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="R12" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="S12" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="T12" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="U12" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="V12" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="W12" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="X12" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="Y12" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="AA12" s="19">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
@@ -9212,89 +9001,6 @@
         <v>0</v>
       </c>
       <c r="AA13" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>79</v>
-      </c>
-      <c r="B14" s="19">
-        <v>0</v>
-      </c>
-      <c r="C14" s="19">
-        <v>0</v>
-      </c>
-      <c r="D14" s="19">
-        <v>0</v>
-      </c>
-      <c r="E14" s="19">
-        <v>0</v>
-      </c>
-      <c r="F14" s="19">
-        <v>0</v>
-      </c>
-      <c r="G14" s="19">
-        <v>0</v>
-      </c>
-      <c r="H14" s="19">
-        <v>0</v>
-      </c>
-      <c r="I14" s="19">
-        <v>0</v>
-      </c>
-      <c r="J14" s="19">
-        <v>0</v>
-      </c>
-      <c r="K14" s="19">
-        <v>0</v>
-      </c>
-      <c r="L14" s="19">
-        <v>0</v>
-      </c>
-      <c r="M14" s="19">
-        <v>0</v>
-      </c>
-      <c r="N14" s="19">
-        <v>0</v>
-      </c>
-      <c r="O14" s="19">
-        <v>0</v>
-      </c>
-      <c r="P14" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="19">
-        <v>0</v>
-      </c>
-      <c r="R14" s="19">
-        <v>0</v>
-      </c>
-      <c r="S14" s="19">
-        <v>0</v>
-      </c>
-      <c r="T14" s="19">
-        <v>0</v>
-      </c>
-      <c r="U14" s="19">
-        <v>0</v>
-      </c>
-      <c r="V14" s="19">
-        <v>0</v>
-      </c>
-      <c r="W14" s="19">
-        <v>0</v>
-      </c>
-      <c r="X14" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="19">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="19">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="19">
         <v>0</v>
       </c>
     </row>
@@ -9310,7 +9016,7 @@
   <dimension ref="A1:AA30"/>
   <sheetViews>
     <sheetView zoomScale="120" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9487,7 +9193,7 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B3" s="17">
         <v>1100000</v>
@@ -9944,7 +9650,7 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B3" s="17">
         <f>B2*2</f>
@@ -10323,7 +10029,7 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B3" s="17">
         <f>B2*2</f>
@@ -10525,7 +10231,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10559,7 +10265,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B3">
         <v>20</v>
@@ -10576,7 +10282,7 @@
         <v>20</v>
       </c>
       <c r="C4">
-        <v>2020</v>
+        <v>2050</v>
       </c>
     </row>
   </sheetData>
@@ -10773,8 +10479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E46CCB1-2754-42FA-B5C9-8DABA83A320C}">
   <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10877,82 +10583,82 @@
         <v>30</v>
       </c>
       <c r="B2" s="25">
-        <v>300000000</v>
+        <v>80000000</v>
       </c>
       <c r="C2" s="25">
-        <v>300000000</v>
+        <v>78400000</v>
       </c>
       <c r="D2" s="25">
-        <v>300000000</v>
+        <v>76800000</v>
       </c>
       <c r="E2" s="25">
-        <v>300000000</v>
+        <v>75200000</v>
       </c>
       <c r="F2" s="25">
-        <v>300000000</v>
+        <v>73600000</v>
       </c>
       <c r="G2" s="25">
-        <v>300000000</v>
+        <v>72000000</v>
       </c>
       <c r="H2" s="25">
-        <v>300000000</v>
+        <v>68800000</v>
       </c>
       <c r="I2" s="25">
-        <v>300000000</v>
+        <v>65600000.000000007</v>
       </c>
       <c r="J2" s="25">
-        <v>300000000</v>
+        <v>62400000</v>
       </c>
       <c r="K2" s="25">
-        <v>300000000</v>
+        <v>59200000</v>
       </c>
       <c r="L2" s="25">
-        <v>300000000</v>
+        <v>56000000</v>
       </c>
       <c r="M2" s="25">
-        <v>300000000</v>
+        <v>52800000</v>
       </c>
       <c r="N2" s="25">
-        <v>300000000</v>
+        <v>49600000</v>
       </c>
       <c r="O2" s="25">
-        <v>300000000</v>
+        <v>46400000</v>
       </c>
       <c r="P2" s="25">
-        <v>300000000</v>
+        <v>43199999.999999993</v>
       </c>
       <c r="Q2" s="25">
-        <v>300000000</v>
+        <v>39999999.999999993</v>
       </c>
       <c r="R2" s="25">
-        <v>300000000</v>
+        <v>36800000</v>
       </c>
       <c r="S2" s="25">
-        <v>300000000</v>
+        <v>33599999.999999993</v>
       </c>
       <c r="T2" s="25">
-        <v>300000000</v>
+        <v>30399999.999999996</v>
       </c>
       <c r="U2" s="25">
-        <v>300000000</v>
+        <v>27199999.999999996</v>
       </c>
       <c r="V2" s="25">
-        <v>300000000</v>
+        <v>23999999.999999996</v>
       </c>
       <c r="W2" s="25">
-        <v>300000000</v>
+        <v>20799999.999999996</v>
       </c>
       <c r="X2" s="25">
-        <v>300000000</v>
+        <v>17599999.999999993</v>
       </c>
       <c r="Y2" s="25">
-        <v>300000000</v>
+        <v>14399999.999999994</v>
       </c>
       <c r="Z2" s="25">
-        <v>300000000</v>
+        <v>11199999.999999996</v>
       </c>
       <c r="AA2" s="25">
-        <v>300000000</v>
+        <v>7999999.9999999916</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
@@ -10970,7 +10676,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView zoomScale="124" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11004,13 +10710,13 @@
         <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" s="14">
         <v>1</v>
       </c>
       <c r="D2" s="14">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E2" s="14">
         <v>2000</v>
@@ -11022,13 +10728,13 @@
         <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3" s="14">
         <v>0.1</v>
       </c>
       <c r="D3" s="14">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="E3" s="14">
         <v>2000</v>
@@ -11040,13 +10746,13 @@
         <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4" s="14">
         <v>0.4</v>
       </c>
       <c r="D4" s="14">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="E4" s="14">
         <v>2000</v>
@@ -11058,13 +10764,13 @@
         <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C5" s="14">
         <v>0.1</v>
       </c>
       <c r="D5" s="14">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="E5" s="14">
         <v>2000</v>
@@ -11076,13 +10782,13 @@
         <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6" s="14">
         <v>5.8999999999999997E-2</v>
       </c>
       <c r="D6" s="14">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="E6" s="14">
         <v>2000</v>
@@ -11094,13 +10800,13 @@
         <v>53</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C7" s="14">
         <v>0.1</v>
       </c>
       <c r="D7" s="14">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="E7" s="14">
         <v>2000</v>
@@ -11109,10 +10815,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C8" s="14">
         <v>1</v>
@@ -11126,16 +10832,16 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C9">
         <v>0.39800000000000002</v>
       </c>
       <c r="D9" s="14">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="E9" s="14">
         <v>2000</v>
@@ -11143,16 +10849,16 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C10">
         <v>0.02</v>
       </c>
       <c r="D10" s="14">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="E10" s="14">
         <v>2000</v>
@@ -11163,13 +10869,13 @@
         <v>54</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C11">
         <v>0.5</v>
       </c>
       <c r="D11" s="14">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="E11" s="14">
         <v>2000</v>
@@ -11180,7 +10886,7 @@
         <v>54</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -11197,13 +10903,13 @@
         <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C13">
         <v>7.5999999999999998E-2</v>
       </c>
       <c r="D13" s="14">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="E13" s="14">
         <v>2000</v>

--- a/database/steel_data.xlsx
+++ b/database/steel_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\PLANiT\github\Costoptimal_steelsystem\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinsupark/jinsu-coding/macc_steel/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71605DC9-2A9B-4032-ACDE-D290EBA28B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35BB539-DC7C-B449-8671-1D36F211F9F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12024" yWindow="4092" windowWidth="28056" windowHeight="18948" tabRatio="775" firstSheet="3" activeTab="5" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
+    <workbookView xWindow="19200" yWindow="500" windowWidth="19200" windowHeight="21100" tabRatio="775" firstSheet="1" activeTab="8" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="18" r:id="rId1"/>
@@ -33,6 +33,7 @@
     <sheet name="fuel_cost" sheetId="8" r:id="rId18"/>
     <sheet name="fuel_intensity" sheetId="16" r:id="rId19"/>
     <sheet name="fuel_emission" sheetId="10" r:id="rId20"/>
+    <sheet name="Sheet1" sheetId="28" r:id="rId21"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -340,15 +341,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="0.0"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -357,14 +358,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Aptos Narrow"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -378,7 +379,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -413,7 +414,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -421,14 +422,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -461,7 +462,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -473,7 +474,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -505,29 +506,29 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -543,7 +544,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -862,17 +863,17 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -883,7 +884,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -894,7 +895,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -905,7 +906,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -916,7 +917,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>74</v>
       </c>
@@ -924,7 +925,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>76</v>
       </c>
@@ -935,7 +936,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -943,7 +944,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -951,7 +952,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -962,7 +963,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -973,7 +974,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -981,7 +982,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -989,7 +990,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1011,13 +1012,13 @@
       <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="17.796875" customWidth="1"/>
-    <col min="3" max="3" width="9.296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="17.83203125" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1100,7 +1101,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>32</v>
       </c>
@@ -1183,7 +1184,7 @@
         <v>99999999</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="19.2">
+    <row r="3" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>33</v>
       </c>
@@ -1266,7 +1267,7 @@
         <v>99999999</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="19.2">
+    <row r="4" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>34</v>
       </c>
@@ -1349,7 +1350,7 @@
         <v>99999999</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>35</v>
       </c>
@@ -1432,7 +1433,7 @@
         <v>99999999</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="19.2">
+    <row r="6" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>36</v>
       </c>
@@ -1515,7 +1516,7 @@
         <v>99999999</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="19.2">
+    <row r="7" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>37</v>
       </c>
@@ -1598,7 +1599,7 @@
         <v>99999999</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="19.2">
+    <row r="8" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>38</v>
       </c>
@@ -1681,7 +1682,7 @@
         <v>99999999</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="19.2">
+    <row r="9" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>39</v>
       </c>
@@ -1764,7 +1765,7 @@
         <v>99999999</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="19.2">
+    <row r="10" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>40</v>
       </c>
@@ -1847,7 +1848,7 @@
         <v>99999999</v>
       </c>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>41</v>
       </c>
@@ -1930,7 +1931,7 @@
         <v>99999999</v>
       </c>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>42</v>
       </c>
@@ -2013,7 +2014,7 @@
         <v>99999999</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="19.2">
+    <row r="13" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>43</v>
       </c>
@@ -2096,7 +2097,7 @@
         <v>99999999</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="19.2">
+    <row r="14" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>44</v>
       </c>
@@ -2194,12 +2195,12 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -2282,7 +2283,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>45</v>
       </c>
@@ -2365,7 +2366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -2448,7 +2449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -2543,15 +2544,15 @@
   <dimension ref="A1:AA10"/>
   <sheetViews>
     <sheetView zoomScale="112" zoomScaleNormal="47" workbookViewId="0">
-      <selection activeCell="W13" sqref="V13:W13"/>
+      <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.296875" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>80</v>
       </c>
@@ -2634,7 +2635,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>55</v>
       </c>
@@ -2717,7 +2718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>57</v>
       </c>
@@ -2800,7 +2801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>59</v>
       </c>
@@ -2883,7 +2884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>63</v>
       </c>
@@ -2966,7 +2967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>64</v>
       </c>
@@ -3049,7 +3050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>65</v>
       </c>
@@ -3132,7 +3133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>60</v>
       </c>
@@ -3215,7 +3216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>61</v>
       </c>
@@ -3298,7 +3299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>62</v>
       </c>
@@ -3396,16 +3397,16 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.19921875" customWidth="1"/>
+    <col min="1" max="1" width="24.1640625" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>17</v>
       </c>
@@ -3423,7 +3424,7 @@
       </c>
       <c r="F1" s="14"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>45</v>
       </c>
@@ -3440,7 +3441,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
         <v>45</v>
       </c>
@@ -3457,7 +3458,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>45</v>
       </c>
@@ -3474,7 +3475,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>58</v>
       </c>
@@ -3491,7 +3492,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>58</v>
       </c>
@@ -3508,7 +3509,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>58</v>
       </c>
@@ -3525,7 +3526,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="34.799999999999997">
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>46</v>
       </c>
@@ -3542,7 +3543,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>46</v>
       </c>
@@ -3559,7 +3560,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>46</v>
       </c>
@@ -3576,13 +3577,13 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
     </row>
   </sheetData>
@@ -3597,17 +3598,17 @@
   <dimension ref="A1:AA10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:AA10"/>
+      <selection activeCell="T30" sqref="T30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.69921875" customWidth="1"/>
-    <col min="3" max="27" width="9.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="27" width="9.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>80</v>
       </c>
@@ -3690,7 +3691,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>55</v>
       </c>
@@ -3773,7 +3774,7 @@
         <v>126638.8</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>57</v>
       </c>
@@ -3856,7 +3857,7 @@
         <v>290855.8</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>59</v>
       </c>
@@ -3939,7 +3940,7 @@
         <v>389609</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>63</v>
       </c>
@@ -4022,7 +4023,7 @@
         <v>126638.8</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>64</v>
       </c>
@@ -4105,7 +4106,7 @@
         <v>290855.8</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>65</v>
       </c>
@@ -4188,7 +4189,7 @@
         <v>389609</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="34.799999999999997">
+    <row r="8" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>60</v>
       </c>
@@ -4271,7 +4272,7 @@
         <v>126638.8</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>61</v>
       </c>
@@ -4354,7 +4355,7 @@
         <v>290855.8</v>
       </c>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>62</v>
       </c>
@@ -4452,14 +4453,14 @@
       <selection activeCell="E17" sqref="E17:F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="27" width="9.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="27" width="9.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>80</v>
       </c>
@@ -4542,7 +4543,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>55</v>
       </c>
@@ -4625,7 +4626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>57</v>
       </c>
@@ -4708,7 +4709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>59</v>
       </c>
@@ -4791,7 +4792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>63</v>
       </c>
@@ -4874,7 +4875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>64</v>
       </c>
@@ -4957,7 +4958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>65</v>
       </c>
@@ -5040,7 +5041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="34.799999999999997">
+    <row r="8" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>60</v>
       </c>
@@ -5123,7 +5124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>61</v>
       </c>
@@ -5206,7 +5207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>62</v>
       </c>
@@ -5304,12 +5305,12 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>80</v>
       </c>
@@ -5317,7 +5318,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>55</v>
       </c>
@@ -5325,7 +5326,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>57</v>
       </c>
@@ -5333,7 +5334,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>59</v>
       </c>
@@ -5341,7 +5342,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>63</v>
       </c>
@@ -5349,7 +5350,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>64</v>
       </c>
@@ -5357,7 +5358,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>65</v>
       </c>
@@ -5365,7 +5366,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="34.799999999999997">
+    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>60</v>
       </c>
@@ -5373,7 +5374,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>61</v>
       </c>
@@ -5381,7 +5382,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>62</v>
       </c>
@@ -5404,13 +5405,13 @@
       <selection activeCell="D22" sqref="D22:E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.796875" customWidth="1"/>
-    <col min="2" max="2" width="14.796875" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -5418,7 +5419,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -5426,7 +5427,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -5434,7 +5435,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -5442,7 +5443,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -5450,7 +5451,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>53</v>
       </c>
@@ -5458,7 +5459,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -5466,7 +5467,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>66</v>
       </c>
@@ -5474,7 +5475,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -5482,7 +5483,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -5490,7 +5491,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -5498,7 +5499,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>70</v>
       </c>
@@ -5506,7 +5507,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>71</v>
       </c>
@@ -5529,12 +5530,12 @@
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.69921875" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -5617,7 +5618,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -5700,7 +5701,7 @@
         <v>16810</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -5783,7 +5784,7 @@
         <v>6810</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -5866,7 +5867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -5949,7 +5950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>53</v>
       </c>
@@ -6032,7 +6033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -6115,7 +6116,7 @@
         <v>3611</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>66</v>
       </c>
@@ -6198,7 +6199,7 @@
         <v>40675</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -6281,7 +6282,7 @@
         <v>19850</v>
       </c>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -6364,7 +6365,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -6447,7 +6448,7 @@
         <v>3611</v>
       </c>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>70</v>
       </c>
@@ -6530,7 +6531,7 @@
         <v>50750</v>
       </c>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>71</v>
       </c>
@@ -6628,13 +6629,13 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -6717,7 +6718,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="18" customHeight="1">
+    <row r="2" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -6800,7 +6801,7 @@
         <v>13.97</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -6883,7 +6884,7 @@
         <v>13.97</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -6966,7 +6967,7 @@
         <v>13.97</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -7049,7 +7050,7 @@
         <v>13.97</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>53</v>
       </c>
@@ -7132,7 +7133,7 @@
         <v>13.97</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -7215,7 +7216,7 @@
         <v>13.97</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>66</v>
       </c>
@@ -7298,7 +7299,7 @@
         <v>13.97</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -7381,7 +7382,7 @@
         <v>13.97</v>
       </c>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -7464,7 +7465,7 @@
         <v>13.97</v>
       </c>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -7547,7 +7548,7 @@
         <v>13.97</v>
       </c>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>70</v>
       </c>
@@ -7630,7 +7631,7 @@
         <v>13.97</v>
       </c>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>71</v>
       </c>
@@ -7713,7 +7714,7 @@
         <v>13.97</v>
       </c>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B15" s="22"/>
     </row>
   </sheetData>
@@ -7727,24 +7728,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B80F836-AAFA-4D20-813C-A31BE68F85E1}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.5" customWidth="1"/>
-    <col min="2" max="2" width="9.69921875" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" customWidth="1"/>
     <col min="3" max="3" width="90.5" customWidth="1"/>
-    <col min="4" max="4" width="58.19921875" customWidth="1"/>
-    <col min="5" max="5" width="30.796875" customWidth="1"/>
-    <col min="6" max="6" width="21.19921875" customWidth="1"/>
-    <col min="7" max="7" width="10.296875" customWidth="1"/>
+    <col min="4" max="4" width="58.1640625" customWidth="1"/>
+    <col min="5" max="5" width="30.83203125" customWidth="1"/>
+    <col min="6" max="6" width="21.1640625" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7770,7 +7771,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="34.799999999999997">
+    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>32</v>
       </c>
@@ -7796,7 +7797,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="34.799999999999997">
+    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>33</v>
       </c>
@@ -7822,7 +7823,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="34.799999999999997">
+    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>35</v>
       </c>
@@ -7848,7 +7849,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="34.799999999999997">
+    <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>40</v>
       </c>
@@ -7874,7 +7875,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="34.799999999999997">
+    <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>41</v>
       </c>
@@ -7915,13 +7916,13 @@
       <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.296875" customWidth="1"/>
-    <col min="2" max="2" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -8004,7 +8005,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -8087,7 +8088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>49</v>
       </c>
@@ -8170,7 +8171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -8253,7 +8254,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>51</v>
       </c>
@@ -8336,7 +8337,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -8419,7 +8420,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>53</v>
       </c>
@@ -8502,7 +8503,7 @@
         <v>0.192</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>54</v>
       </c>
@@ -8585,7 +8586,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>66</v>
       </c>
@@ -8668,7 +8669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>67</v>
       </c>
@@ -8751,7 +8752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>68</v>
       </c>
@@ -8834,7 +8835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>69</v>
       </c>
@@ -8917,7 +8918,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>70</v>
       </c>
@@ -9000,7 +9001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>71</v>
       </c>
@@ -9087,6 +9088,18 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F0359DD-2ECF-2B47-9AD1-CACF47CC50B5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -9095,16 +9108,16 @@
   <dimension ref="A1:AA30"/>
   <sheetViews>
     <sheetView zoomScale="120" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="36.5" customWidth="1"/>
-    <col min="2" max="27" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="27" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
         <v>17</v>
       </c>
@@ -9187,7 +9200,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
         <v>45</v>
       </c>
@@ -9270,7 +9283,7 @@
         <v>500700</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
         <v>58</v>
       </c>
@@ -9353,7 +9366,7 @@
         <v>1100000</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>46</v>
       </c>
@@ -9436,7 +9449,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
@@ -9464,7 +9477,7 @@
       <c r="Z6" s="21"/>
       <c r="AA6" s="21"/>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
@@ -9492,7 +9505,7 @@
       <c r="Z7" s="21"/>
       <c r="AA7" s="21"/>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
       <c r="D8" s="21"/>
@@ -9520,25 +9533,25 @@
       <c r="Z8" s="21"/>
       <c r="AA8" s="21"/>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="10"/>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="10"/>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="10"/>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="10"/>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="10"/>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="10"/>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="10"/>
     </row>
   </sheetData>
@@ -9556,12 +9569,12 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -9644,7 +9657,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>45</v>
       </c>
@@ -9727,7 +9740,7 @@
         <v>177308.78</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -9836,7 +9849,7 @@
         <v>354617.56</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -9934,13 +9947,13 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -10023,7 +10036,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>45</v>
       </c>
@@ -10106,7 +10119,7 @@
         <v>421098.9</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -10215,7 +10228,7 @@
         <v>842197.8</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -10309,18 +10322,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED5339A0-3D98-43CE-86F7-53EF60721306}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="33.5" customWidth="1"/>
-    <col min="2" max="2" width="12.796875" customWidth="1"/>
-    <col min="3" max="3" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -10331,7 +10344,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>45</v>
       </c>
@@ -10342,7 +10355,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -10353,7 +10366,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -10379,9 +10392,9 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -10464,7 +10477,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -10562,19 +10575,19 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.69921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="17" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="18" max="21" width="11.19921875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.19921875" customWidth="1"/>
-    <col min="23" max="23" width="11.19921875" bestFit="1" customWidth="1"/>
-    <col min="24" max="27" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="17" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.1640625" customWidth="1"/>
+    <col min="23" max="23" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="27" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -10657,7 +10670,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -10760,7 +10773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="G3" s="23"/>
     </row>
   </sheetData>
@@ -10774,19 +10787,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8A5865B-B011-402F-A09D-739FDD6B0E90}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView zoomScale="124" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScale="124" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="5" max="5" width="11.69921875" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
     <col min="8" max="10" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>17</v>
       </c>
@@ -10804,7 +10817,7 @@
       </c>
       <c r="F1" s="14"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>45</v>
       </c>
@@ -10822,7 +10835,7 @@
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
         <v>45</v>
       </c>
@@ -10840,7 +10853,7 @@
       </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>45</v>
       </c>
@@ -10858,7 +10871,7 @@
       </c>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>45</v>
       </c>
@@ -10876,7 +10889,7 @@
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>45</v>
       </c>
@@ -10894,7 +10907,7 @@
       </c>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>45</v>
       </c>
@@ -10912,7 +10925,7 @@
       </c>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>58</v>
       </c>
@@ -10929,7 +10942,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>58</v>
       </c>
@@ -10946,7 +10959,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>58</v>
       </c>
@@ -10963,7 +10976,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -10980,7 +10993,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -10997,7 +11010,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>46</v>
       </c>

--- a/database/steel_data.xlsx
+++ b/database/steel_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinsupark/jinsu-coding/macc_steel/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D54EAA4B-E465-BC45-88B5-B6271D4EEE73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2375F99-C987-574F-8C24-68ECE4492B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-6920" windowWidth="19200" windowHeight="21100" tabRatio="775" firstSheet="7" activeTab="17" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
+    <workbookView xWindow="-38400" yWindow="-6920" windowWidth="38400" windowHeight="19880" tabRatio="775" activeTab="8" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="18" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="91">
   <si>
     <t>system</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -257,9 +257,6 @@
     <t>Scrap_EAF</t>
   </si>
   <si>
-    <t>DRI_EAF</t>
-  </si>
-  <si>
     <t>Iron ore_H2</t>
   </si>
   <si>
@@ -303,18 +300,6 @@
   </si>
   <si>
     <t>BF-BOF-FX</t>
-  </si>
-  <si>
-    <t>0.87, 0.07, 0.04, 0.01, 0, 0, 0.01</t>
-  </si>
-  <si>
-    <t>0.83, 0.09, 0, 0.01, 0.06, 0, 0.02</t>
-  </si>
-  <si>
-    <t>Coal_BB, BF gas_BB, COG_BB, BOF gas_BB, Natural gas_BB, Hydrogen_BB, Electricity_BB</t>
-  </si>
-  <si>
-    <t>Coal_BX, BF gas_BX, COG_BX, BOF gas_BX, Natural gas_BX, Hydrogen_BX, Electricity_BX</t>
   </si>
   <si>
     <t>0.91, 0.09</t>
@@ -363,6 +348,18 @@
   </si>
   <si>
     <t>HBI_EAF</t>
+  </si>
+  <si>
+    <t>Coal_BB, BF gas_BB, COG_BB, BOF gas_BB, Electricity_BB</t>
+  </si>
+  <si>
+    <t>0.87, 0.07, 0.04, 0.01, 0.01</t>
+  </si>
+  <si>
+    <t>Coal_BX, BF gas_BX, BOF gas_BX, Natural gas_BX, Electricity_BX</t>
+  </si>
+  <si>
+    <t>0.83, 0.09, 0.01, 0.06, 0.01</t>
   </si>
 </sst>
 </file>
@@ -944,18 +941,18 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" t="s">
         <v>62</v>
-      </c>
-      <c r="B5" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" t="s">
         <v>64</v>
-      </c>
-      <c r="B6" t="s">
-        <v>65</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -963,10 +960,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" t="s">
         <v>66</v>
-      </c>
-      <c r="B7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1034,7 +1031,7 @@
   <dimension ref="A1:AA14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2217,7 +2214,7 @@
   <dimension ref="A1:AA5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:AA3"/>
+      <selection activeCell="O45" sqref="O45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2310,7 +2307,7 @@
     </row>
     <row r="2" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2393,7 +2390,7 @@
     </row>
     <row r="3" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B3">
         <v>0.8</v>
@@ -2652,7 +2649,7 @@
   <dimension ref="A1:AA13"/>
   <sheetViews>
     <sheetView zoomScale="112" zoomScaleNormal="47" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2662,7 +2659,7 @@
   <sheetData>
     <row r="1" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B1">
         <v>2025</v>
@@ -2911,7 +2908,7 @@
     </row>
     <row r="4" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B4">
         <v>1.05</v>
@@ -2994,7 +2991,7 @@
     </row>
     <row r="5" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B5">
         <v>1.65</v>
@@ -3077,7 +3074,7 @@
     </row>
     <row r="6" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B6">
         <v>1.1000000000000001</v>
@@ -3160,7 +3157,7 @@
     </row>
     <row r="7" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B7">
         <v>1.05</v>
@@ -3243,7 +3240,7 @@
     </row>
     <row r="8" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B8">
         <v>1.65</v>
@@ -3326,7 +3323,7 @@
     </row>
     <row r="9" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B9">
         <v>1.1000000000000001</v>
@@ -3409,7 +3406,7 @@
     </row>
     <row r="10" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B10">
         <v>1.05</v>
@@ -3658,7 +3655,7 @@
     </row>
     <row r="13" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="B13">
         <v>1.05</v>
@@ -3751,7 +3748,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView zoomScale="107" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B13"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3768,7 +3765,7 @@
         <v>17</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>22</v>
@@ -3783,7 +3780,7 @@
     </row>
     <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>50</v>
@@ -3800,7 +3797,7 @@
     </row>
     <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>52</v>
@@ -3817,10 +3814,10 @@
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C4" s="13">
         <v>0.64</v>
@@ -3834,10 +3831,10 @@
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C5" s="13">
         <v>1</v>
@@ -3851,10 +3848,10 @@
     </row>
     <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C6" s="13">
         <v>0.17</v>
@@ -3868,10 +3865,10 @@
     </row>
     <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C7" s="13">
         <v>0.72</v>
@@ -3888,7 +3885,7 @@
         <v>53</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C8" s="13">
         <v>1</v>
@@ -3905,7 +3902,7 @@
         <v>53</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9" s="13">
         <v>0</v>
@@ -3922,10 +3919,10 @@
         <v>53</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C10" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="13">
         <v>0</v>
@@ -3973,7 +3970,7 @@
         <v>45</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C13" s="13">
         <v>1</v>
@@ -4018,7 +4015,7 @@
   <sheetData>
     <row r="1" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B1">
         <v>2025</v>
@@ -4267,7 +4264,7 @@
     </row>
     <row r="4" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B4" s="16">
         <v>538408.9009146546</v>
@@ -4350,7 +4347,7 @@
     </row>
     <row r="5" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B5" s="16">
         <v>126638.8</v>
@@ -4433,7 +4430,7 @@
     </row>
     <row r="6" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B6" s="16">
         <v>290855.8</v>
@@ -4516,7 +4513,7 @@
     </row>
     <row r="7" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B7" s="16">
         <v>538408.9009146546</v>
@@ -4599,7 +4596,7 @@
     </row>
     <row r="8" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B8" s="16">
         <v>126638.8</v>
@@ -4682,7 +4679,7 @@
     </row>
     <row r="9" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B9" s="16">
         <v>290855.8</v>
@@ -4765,7 +4762,7 @@
     </row>
     <row r="10" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B10" s="16">
         <v>538408.9009146546</v>
@@ -5014,7 +5011,7 @@
     </row>
     <row r="13" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B13" s="16">
         <v>538408.9009146546</v>
@@ -5113,7 +5110,7 @@
   <dimension ref="A1:AA13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A13"/>
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5125,7 +5122,7 @@
   <sheetData>
     <row r="1" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B1">
         <v>2025</v>
@@ -5374,7 +5371,7 @@
     </row>
     <row r="4" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B4" s="3">
         <v>0</v>
@@ -5457,7 +5454,7 @@
     </row>
     <row r="5" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -5540,7 +5537,7 @@
     </row>
     <row r="6" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B6" s="3">
         <v>0</v>
@@ -5623,7 +5620,7 @@
     </row>
     <row r="7" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B7" s="3">
         <v>0</v>
@@ -5706,7 +5703,7 @@
     </row>
     <row r="8" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
@@ -5789,7 +5786,7 @@
     </row>
     <row r="9" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B9" s="3">
         <v>0</v>
@@ -5872,7 +5869,7 @@
     </row>
     <row r="10" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B10" s="3">
         <v>0</v>
@@ -6121,7 +6118,7 @@
     </row>
     <row r="13" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B13" s="3">
         <v>0</v>
@@ -6224,7 +6221,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B1" t="s">
         <v>18</v>
@@ -6248,7 +6245,7 @@
     </row>
     <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B4">
         <v>2000</v>
@@ -6256,7 +6253,7 @@
     </row>
     <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B5">
         <v>2000</v>
@@ -6264,7 +6261,7 @@
     </row>
     <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B6">
         <v>2000</v>
@@ -6272,7 +6269,7 @@
     </row>
     <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B7">
         <v>2000</v>
@@ -6280,7 +6277,7 @@
     </row>
     <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B8">
         <v>2000</v>
@@ -6288,7 +6285,7 @@
     </row>
     <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B9">
         <v>2000</v>
@@ -6296,7 +6293,7 @@
     </row>
     <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B10">
         <v>2000</v>
@@ -6320,7 +6317,7 @@
     </row>
     <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B13">
         <v>2000</v>
@@ -6357,7 +6354,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B2">
         <v>2000</v>
@@ -6397,7 +6394,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B7">
         <v>2000</v>
@@ -6405,7 +6402,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B8">
         <v>2000</v>
@@ -6413,7 +6410,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B9">
         <v>2000</v>
@@ -6421,7 +6418,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B10">
         <v>2000</v>
@@ -6429,7 +6426,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B11">
         <v>2000</v>
@@ -6437,7 +6434,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B12">
         <v>2000</v>
@@ -6445,7 +6442,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B13">
         <v>2000</v>
@@ -6453,7 +6450,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B14">
         <v>2000</v>
@@ -6468,10 +6465,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{251D8908-2320-4E41-AC8F-86BD7BF58C9B}">
-  <dimension ref="A1:AC14"/>
+  <dimension ref="A1:AA14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6479,7 +6476,7 @@
     <col min="1" max="1" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -6562,265 +6559,1082 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B2" s="16">
         <v>6625.0999999999995</v>
       </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="C2" s="16">
+        <v>6625.0999999999995</v>
+      </c>
+      <c r="D2" s="16">
+        <v>6625.0999999999995</v>
+      </c>
+      <c r="E2" s="16">
+        <v>6625.0999999999995</v>
+      </c>
+      <c r="F2" s="16">
+        <v>6625.0999999999995</v>
+      </c>
+      <c r="G2" s="16">
+        <v>6625.0999999999995</v>
+      </c>
+      <c r="H2" s="16">
+        <v>6625.0999999999995</v>
+      </c>
+      <c r="I2" s="16">
+        <v>6625.0999999999995</v>
+      </c>
+      <c r="J2" s="16">
+        <v>6625.0999999999995</v>
+      </c>
+      <c r="K2" s="16">
+        <v>6625.0999999999995</v>
+      </c>
+      <c r="L2" s="16">
+        <v>6625.0999999999995</v>
+      </c>
+      <c r="M2" s="16">
+        <v>6625.0999999999995</v>
+      </c>
+      <c r="N2" s="16">
+        <v>6625.0999999999995</v>
+      </c>
+      <c r="O2" s="16">
+        <v>6625.0999999999995</v>
+      </c>
+      <c r="P2" s="16">
+        <v>6625.0999999999995</v>
+      </c>
+      <c r="Q2" s="16">
+        <v>6625.0999999999995</v>
+      </c>
+      <c r="R2" s="16">
+        <v>6625.0999999999995</v>
+      </c>
+      <c r="S2" s="16">
+        <v>6625.0999999999995</v>
+      </c>
+      <c r="T2" s="16">
+        <v>6625.0999999999995</v>
+      </c>
+      <c r="U2" s="16">
+        <v>6625.0999999999995</v>
+      </c>
+      <c r="V2" s="16">
+        <v>6625.0999999999995</v>
+      </c>
+      <c r="W2" s="16">
+        <v>6625.0999999999995</v>
+      </c>
+      <c r="X2" s="16">
+        <v>6625.0999999999995</v>
+      </c>
+      <c r="Y2" s="16">
+        <v>6625.0999999999995</v>
+      </c>
+      <c r="Z2" s="16">
+        <v>6625.0999999999995</v>
+      </c>
+      <c r="AA2" s="16">
+        <v>6625.0999999999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>46</v>
       </c>
       <c r="B3" s="16">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="C3" s="16">
+        <v>0</v>
+      </c>
+      <c r="D3" s="16">
+        <v>0</v>
+      </c>
+      <c r="E3" s="16">
+        <v>0</v>
+      </c>
+      <c r="F3" s="16">
+        <v>0</v>
+      </c>
+      <c r="G3" s="16">
+        <v>0</v>
+      </c>
+      <c r="H3" s="16">
+        <v>0</v>
+      </c>
+      <c r="I3" s="16">
+        <v>0</v>
+      </c>
+      <c r="J3" s="16">
+        <v>0</v>
+      </c>
+      <c r="K3" s="16">
+        <v>0</v>
+      </c>
+      <c r="L3" s="16">
+        <v>0</v>
+      </c>
+      <c r="M3" s="16">
+        <v>0</v>
+      </c>
+      <c r="N3" s="16">
+        <v>0</v>
+      </c>
+      <c r="O3" s="16">
+        <v>0</v>
+      </c>
+      <c r="P3" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="16">
+        <v>0</v>
+      </c>
+      <c r="R3" s="16">
+        <v>0</v>
+      </c>
+      <c r="S3" s="16">
+        <v>0</v>
+      </c>
+      <c r="T3" s="16">
+        <v>0</v>
+      </c>
+      <c r="U3" s="16">
+        <v>0</v>
+      </c>
+      <c r="V3" s="16">
+        <v>0</v>
+      </c>
+      <c r="W3" s="16">
+        <v>0</v>
+      </c>
+      <c r="X3" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>47</v>
       </c>
       <c r="B4" s="16">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="C4" s="16">
+        <v>0</v>
+      </c>
+      <c r="D4" s="16">
+        <v>0</v>
+      </c>
+      <c r="E4" s="16">
+        <v>0</v>
+      </c>
+      <c r="F4" s="16">
+        <v>0</v>
+      </c>
+      <c r="G4" s="16">
+        <v>0</v>
+      </c>
+      <c r="H4" s="16">
+        <v>0</v>
+      </c>
+      <c r="I4" s="16">
+        <v>0</v>
+      </c>
+      <c r="J4" s="16">
+        <v>0</v>
+      </c>
+      <c r="K4" s="16">
+        <v>0</v>
+      </c>
+      <c r="L4" s="16">
+        <v>0</v>
+      </c>
+      <c r="M4" s="16">
+        <v>0</v>
+      </c>
+      <c r="N4" s="16">
+        <v>0</v>
+      </c>
+      <c r="O4" s="16">
+        <v>0</v>
+      </c>
+      <c r="P4" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="16">
+        <v>0</v>
+      </c>
+      <c r="R4" s="16">
+        <v>0</v>
+      </c>
+      <c r="S4" s="16">
+        <v>0</v>
+      </c>
+      <c r="T4" s="16">
+        <v>0</v>
+      </c>
+      <c r="U4" s="16">
+        <v>0</v>
+      </c>
+      <c r="V4" s="16">
+        <v>0</v>
+      </c>
+      <c r="W4" s="16">
+        <v>0</v>
+      </c>
+      <c r="X4" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>48</v>
       </c>
       <c r="B5" s="16">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="C5" s="16">
+        <v>0</v>
+      </c>
+      <c r="D5" s="16">
+        <v>0</v>
+      </c>
+      <c r="E5" s="16">
+        <v>0</v>
+      </c>
+      <c r="F5" s="16">
+        <v>0</v>
+      </c>
+      <c r="G5" s="16">
+        <v>0</v>
+      </c>
+      <c r="H5" s="16">
+        <v>0</v>
+      </c>
+      <c r="I5" s="16">
+        <v>0</v>
+      </c>
+      <c r="J5" s="16">
+        <v>0</v>
+      </c>
+      <c r="K5" s="16">
+        <v>0</v>
+      </c>
+      <c r="L5" s="16">
+        <v>0</v>
+      </c>
+      <c r="M5" s="16">
+        <v>0</v>
+      </c>
+      <c r="N5" s="16">
+        <v>0</v>
+      </c>
+      <c r="O5" s="16">
+        <v>0</v>
+      </c>
+      <c r="P5" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="16">
+        <v>0</v>
+      </c>
+      <c r="R5" s="16">
+        <v>0</v>
+      </c>
+      <c r="S5" s="16">
+        <v>0</v>
+      </c>
+      <c r="T5" s="16">
+        <v>0</v>
+      </c>
+      <c r="U5" s="16">
+        <v>0</v>
+      </c>
+      <c r="V5" s="16">
+        <v>0</v>
+      </c>
+      <c r="W5" s="16">
+        <v>0</v>
+      </c>
+      <c r="X5" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>49</v>
       </c>
       <c r="B6" s="16">
         <v>18934</v>
       </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="C6" s="16">
+        <v>18934</v>
+      </c>
+      <c r="D6" s="16">
+        <v>18934</v>
+      </c>
+      <c r="E6" s="16">
+        <v>18934</v>
+      </c>
+      <c r="F6" s="16">
+        <v>18934</v>
+      </c>
+      <c r="G6" s="16">
+        <v>18934</v>
+      </c>
+      <c r="H6" s="16">
+        <v>18934</v>
+      </c>
+      <c r="I6" s="16">
+        <v>18934</v>
+      </c>
+      <c r="J6" s="16">
+        <v>18934</v>
+      </c>
+      <c r="K6" s="16">
+        <v>18934</v>
+      </c>
+      <c r="L6" s="16">
+        <v>18934</v>
+      </c>
+      <c r="M6" s="16">
+        <v>18934</v>
+      </c>
+      <c r="N6" s="16">
+        <v>18934</v>
+      </c>
+      <c r="O6" s="16">
+        <v>18934</v>
+      </c>
+      <c r="P6" s="16">
+        <v>18934</v>
+      </c>
+      <c r="Q6" s="16">
+        <v>18934</v>
+      </c>
+      <c r="R6" s="16">
+        <v>18934</v>
+      </c>
+      <c r="S6" s="16">
+        <v>18934</v>
+      </c>
+      <c r="T6" s="16">
+        <v>18934</v>
+      </c>
+      <c r="U6" s="16">
+        <v>18934</v>
+      </c>
+      <c r="V6" s="16">
+        <v>18934</v>
+      </c>
+      <c r="W6" s="16">
+        <v>18934</v>
+      </c>
+      <c r="X6" s="16">
+        <v>18934</v>
+      </c>
+      <c r="Y6" s="16">
+        <v>18934</v>
+      </c>
+      <c r="Z6" s="16">
+        <v>18934</v>
+      </c>
+      <c r="AA6" s="16">
+        <v>18934</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B7" s="16">
         <v>6625.0999999999995</v>
       </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="C7" s="16">
+        <v>6625.0999999999995</v>
+      </c>
+      <c r="D7" s="16">
+        <v>6625.0999999999995</v>
+      </c>
+      <c r="E7" s="16">
+        <v>6625.0999999999995</v>
+      </c>
+      <c r="F7" s="16">
+        <v>6625.0999999999995</v>
+      </c>
+      <c r="G7" s="16">
+        <v>6625.0999999999995</v>
+      </c>
+      <c r="H7" s="16">
+        <v>6625.0999999999995</v>
+      </c>
+      <c r="I7" s="16">
+        <v>6625.0999999999995</v>
+      </c>
+      <c r="J7" s="16">
+        <v>6625.0999999999995</v>
+      </c>
+      <c r="K7" s="16">
+        <v>6625.0999999999995</v>
+      </c>
+      <c r="L7" s="16">
+        <v>6625.0999999999995</v>
+      </c>
+      <c r="M7" s="16">
+        <v>6625.0999999999995</v>
+      </c>
+      <c r="N7" s="16">
+        <v>6625.0999999999995</v>
+      </c>
+      <c r="O7" s="16">
+        <v>6625.0999999999995</v>
+      </c>
+      <c r="P7" s="16">
+        <v>6625.0999999999995</v>
+      </c>
+      <c r="Q7" s="16">
+        <v>6625.0999999999995</v>
+      </c>
+      <c r="R7" s="16">
+        <v>6625.0999999999995</v>
+      </c>
+      <c r="S7" s="16">
+        <v>6625.0999999999995</v>
+      </c>
+      <c r="T7" s="16">
+        <v>6625.0999999999995</v>
+      </c>
+      <c r="U7" s="16">
+        <v>6625.0999999999995</v>
+      </c>
+      <c r="V7" s="16">
+        <v>6625.0999999999995</v>
+      </c>
+      <c r="W7" s="16">
+        <v>6625.0999999999995</v>
+      </c>
+      <c r="X7" s="16">
+        <v>6625.0999999999995</v>
+      </c>
+      <c r="Y7" s="16">
+        <v>6625.0999999999995</v>
+      </c>
+      <c r="Z7" s="16">
+        <v>6625.0999999999995</v>
+      </c>
+      <c r="AA7" s="16">
+        <v>6625.0999999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B8" s="16">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="C8" s="16">
+        <v>0</v>
+      </c>
+      <c r="D8" s="16">
+        <v>0</v>
+      </c>
+      <c r="E8" s="16">
+        <v>0</v>
+      </c>
+      <c r="F8" s="16">
+        <v>0</v>
+      </c>
+      <c r="G8" s="16">
+        <v>0</v>
+      </c>
+      <c r="H8" s="16">
+        <v>0</v>
+      </c>
+      <c r="I8" s="16">
+        <v>0</v>
+      </c>
+      <c r="J8" s="16">
+        <v>0</v>
+      </c>
+      <c r="K8" s="16">
+        <v>0</v>
+      </c>
+      <c r="L8" s="16">
+        <v>0</v>
+      </c>
+      <c r="M8" s="16">
+        <v>0</v>
+      </c>
+      <c r="N8" s="16">
+        <v>0</v>
+      </c>
+      <c r="O8" s="16">
+        <v>0</v>
+      </c>
+      <c r="P8" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="16">
+        <v>0</v>
+      </c>
+      <c r="R8" s="16">
+        <v>0</v>
+      </c>
+      <c r="S8" s="16">
+        <v>0</v>
+      </c>
+      <c r="T8" s="16">
+        <v>0</v>
+      </c>
+      <c r="U8" s="16">
+        <v>0</v>
+      </c>
+      <c r="V8" s="16">
+        <v>0</v>
+      </c>
+      <c r="W8" s="16">
+        <v>0</v>
+      </c>
+      <c r="X8" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B9" s="16">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="C9" s="16">
+        <v>0</v>
+      </c>
+      <c r="D9" s="16">
+        <v>0</v>
+      </c>
+      <c r="E9" s="16">
+        <v>0</v>
+      </c>
+      <c r="F9" s="16">
+        <v>0</v>
+      </c>
+      <c r="G9" s="16">
+        <v>0</v>
+      </c>
+      <c r="H9" s="16">
+        <v>0</v>
+      </c>
+      <c r="I9" s="16">
+        <v>0</v>
+      </c>
+      <c r="J9" s="16">
+        <v>0</v>
+      </c>
+      <c r="K9" s="16">
+        <v>0</v>
+      </c>
+      <c r="L9" s="16">
+        <v>0</v>
+      </c>
+      <c r="M9" s="16">
+        <v>0</v>
+      </c>
+      <c r="N9" s="16">
+        <v>0</v>
+      </c>
+      <c r="O9" s="16">
+        <v>0</v>
+      </c>
+      <c r="P9" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="16">
+        <v>0</v>
+      </c>
+      <c r="R9" s="16">
+        <v>0</v>
+      </c>
+      <c r="S9" s="16">
+        <v>0</v>
+      </c>
+      <c r="T9" s="16">
+        <v>0</v>
+      </c>
+      <c r="U9" s="16">
+        <v>0</v>
+      </c>
+      <c r="V9" s="16">
+        <v>0</v>
+      </c>
+      <c r="W9" s="16">
+        <v>0</v>
+      </c>
+      <c r="X9" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B10" s="16">
         <v>18934</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="C10" s="16">
+        <v>18934</v>
+      </c>
+      <c r="D10" s="16">
+        <v>18934</v>
+      </c>
+      <c r="E10" s="16">
+        <v>18934</v>
+      </c>
+      <c r="F10" s="16">
+        <v>18934</v>
+      </c>
+      <c r="G10" s="16">
+        <v>18934</v>
+      </c>
+      <c r="H10" s="16">
+        <v>18934</v>
+      </c>
+      <c r="I10" s="16">
+        <v>18934</v>
+      </c>
+      <c r="J10" s="16">
+        <v>18934</v>
+      </c>
+      <c r="K10" s="16">
+        <v>18934</v>
+      </c>
+      <c r="L10" s="16">
+        <v>18934</v>
+      </c>
+      <c r="M10" s="16">
+        <v>18934</v>
+      </c>
+      <c r="N10" s="16">
+        <v>18934</v>
+      </c>
+      <c r="O10" s="16">
+        <v>18934</v>
+      </c>
+      <c r="P10" s="16">
+        <v>18934</v>
+      </c>
+      <c r="Q10" s="16">
+        <v>18934</v>
+      </c>
+      <c r="R10" s="16">
+        <v>18934</v>
+      </c>
+      <c r="S10" s="16">
+        <v>18934</v>
+      </c>
+      <c r="T10" s="16">
+        <v>18934</v>
+      </c>
+      <c r="U10" s="16">
+        <v>18934</v>
+      </c>
+      <c r="V10" s="16">
+        <v>18934</v>
+      </c>
+      <c r="W10" s="16">
+        <v>18934</v>
+      </c>
+      <c r="X10" s="16">
+        <v>18934</v>
+      </c>
+      <c r="Y10" s="16">
+        <v>18934</v>
+      </c>
+      <c r="Z10" s="16">
+        <v>18934</v>
+      </c>
+      <c r="AA10" s="16">
+        <v>18934</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="16">
+        <v>90716.67</v>
+      </c>
+      <c r="C11" s="16">
+        <v>89675</v>
+      </c>
+      <c r="D11" s="16">
+        <v>87975</v>
+      </c>
+      <c r="E11" s="16">
+        <v>89741.67</v>
+      </c>
+      <c r="F11" s="16">
+        <v>89800</v>
+      </c>
+      <c r="G11" s="16">
+        <v>86400</v>
+      </c>
+      <c r="H11" s="16">
+        <v>83208.33</v>
+      </c>
+      <c r="I11" s="16">
+        <v>80783.33</v>
+      </c>
+      <c r="J11" s="16">
+        <v>78908.33</v>
+      </c>
+      <c r="K11" s="16">
+        <v>78433.33</v>
+      </c>
+      <c r="L11" s="16">
+        <v>77441.67</v>
+      </c>
+      <c r="M11" s="16">
+        <v>76391.67</v>
+      </c>
+      <c r="N11" s="16">
+        <v>71533.33</v>
+      </c>
+      <c r="O11" s="16">
+        <v>68441.67</v>
+      </c>
+      <c r="P11" s="16">
+        <v>65491.67</v>
+      </c>
+      <c r="Q11" s="16">
+        <v>62683.33</v>
+      </c>
+      <c r="R11" s="16">
+        <v>60000</v>
+      </c>
+      <c r="S11" s="16">
+        <v>57441.67</v>
+      </c>
+      <c r="T11" s="16">
+        <v>55000</v>
+      </c>
+      <c r="U11" s="16">
+        <v>52666.67</v>
+      </c>
+      <c r="V11" s="16">
+        <v>50441.67</v>
+      </c>
+      <c r="W11" s="16">
+        <v>48316.67</v>
+      </c>
+      <c r="X11" s="16">
+        <v>46275</v>
+      </c>
+      <c r="Y11" s="16">
+        <v>44325</v>
+      </c>
+      <c r="Z11" s="16">
+        <v>42458.33</v>
+      </c>
+      <c r="AA11" s="16">
+        <v>40675</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="16">
-        <v>94841.67</v>
-      </c>
-      <c r="C11">
-        <v>93433.33</v>
-      </c>
-      <c r="D11">
+      <c r="B12" s="16">
+        <v>50750</v>
+      </c>
+      <c r="C12" s="16">
+        <v>50750</v>
+      </c>
+      <c r="D12" s="16">
+        <v>50750</v>
+      </c>
+      <c r="E12" s="16">
+        <v>50750</v>
+      </c>
+      <c r="F12" s="16">
+        <v>50750</v>
+      </c>
+      <c r="G12" s="16">
+        <v>50750</v>
+      </c>
+      <c r="H12" s="16">
+        <v>50750</v>
+      </c>
+      <c r="I12" s="16">
+        <v>50750</v>
+      </c>
+      <c r="J12" s="16">
+        <v>50750</v>
+      </c>
+      <c r="K12" s="16">
+        <v>50750</v>
+      </c>
+      <c r="L12" s="16">
+        <v>50750</v>
+      </c>
+      <c r="M12" s="16">
+        <v>50750</v>
+      </c>
+      <c r="N12" s="16">
+        <v>50750</v>
+      </c>
+      <c r="O12" s="16">
+        <v>50750</v>
+      </c>
+      <c r="P12" s="16">
+        <v>50750</v>
+      </c>
+      <c r="Q12" s="16">
+        <v>50750</v>
+      </c>
+      <c r="R12" s="16">
+        <v>50750</v>
+      </c>
+      <c r="S12" s="16">
+        <v>50750</v>
+      </c>
+      <c r="T12" s="16">
+        <v>50750</v>
+      </c>
+      <c r="U12" s="16">
+        <v>50750</v>
+      </c>
+      <c r="V12" s="16">
+        <v>50750</v>
+      </c>
+      <c r="W12" s="16">
+        <v>50750</v>
+      </c>
+      <c r="X12" s="16">
+        <v>50750</v>
+      </c>
+      <c r="Y12" s="16">
+        <v>50750</v>
+      </c>
+      <c r="Z12" s="16">
+        <v>50750</v>
+      </c>
+      <c r="AA12" s="16">
+        <v>50750</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="16">
+        <v>50750</v>
+      </c>
+      <c r="C13" s="16">
+        <v>50750</v>
+      </c>
+      <c r="D13" s="16">
+        <v>50750</v>
+      </c>
+      <c r="E13" s="16">
+        <v>50750</v>
+      </c>
+      <c r="F13" s="16">
+        <v>50750</v>
+      </c>
+      <c r="G13" s="16">
+        <v>50750</v>
+      </c>
+      <c r="H13" s="16">
+        <v>50750</v>
+      </c>
+      <c r="I13" s="16">
+        <v>50750</v>
+      </c>
+      <c r="J13" s="16">
+        <v>50750</v>
+      </c>
+      <c r="K13" s="16">
+        <v>50750</v>
+      </c>
+      <c r="L13" s="16">
+        <v>50750</v>
+      </c>
+      <c r="M13" s="16">
+        <v>50750</v>
+      </c>
+      <c r="N13" s="16">
+        <v>50750</v>
+      </c>
+      <c r="O13" s="16">
+        <v>50750</v>
+      </c>
+      <c r="P13" s="16">
+        <v>50750</v>
+      </c>
+      <c r="Q13" s="16">
+        <v>50750</v>
+      </c>
+      <c r="R13" s="16">
+        <v>50750</v>
+      </c>
+      <c r="S13" s="16">
+        <v>50750</v>
+      </c>
+      <c r="T13" s="16">
+        <v>50750</v>
+      </c>
+      <c r="U13" s="16">
+        <v>50750</v>
+      </c>
+      <c r="V13" s="16">
+        <v>50750</v>
+      </c>
+      <c r="W13" s="16">
+        <v>50750</v>
+      </c>
+      <c r="X13" s="16">
+        <v>50750</v>
+      </c>
+      <c r="Y13" s="16">
+        <v>50750</v>
+      </c>
+      <c r="Z13" s="16">
+        <v>50750</v>
+      </c>
+      <c r="AA13" s="16">
+        <v>50750</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="16">
         <v>90716.67</v>
       </c>
-      <c r="E11">
+      <c r="C14" s="16">
         <v>89675</v>
       </c>
-      <c r="F11">
+      <c r="D14" s="16">
         <v>87975</v>
       </c>
-      <c r="G11">
+      <c r="E14" s="16">
         <v>89741.67</v>
       </c>
-      <c r="H11">
+      <c r="F14" s="16">
         <v>89800</v>
       </c>
-      <c r="I11">
+      <c r="G14" s="16">
         <v>86400</v>
       </c>
-      <c r="J11">
+      <c r="H14" s="16">
         <v>83208.33</v>
       </c>
-      <c r="K11">
+      <c r="I14" s="16">
         <v>80783.33</v>
       </c>
-      <c r="L11">
+      <c r="J14" s="16">
         <v>78908.33</v>
       </c>
-      <c r="M11">
+      <c r="K14" s="16">
         <v>78433.33</v>
       </c>
-      <c r="N11">
+      <c r="L14" s="16">
         <v>77441.67</v>
       </c>
-      <c r="O11">
+      <c r="M14" s="16">
         <v>76391.67</v>
       </c>
-      <c r="P11">
+      <c r="N14" s="16">
         <v>71533.33</v>
       </c>
-      <c r="Q11">
+      <c r="O14" s="16">
         <v>68441.67</v>
       </c>
-      <c r="R11">
+      <c r="P14" s="16">
         <v>65491.67</v>
       </c>
-      <c r="S11">
+      <c r="Q14" s="16">
         <v>62683.33</v>
       </c>
-      <c r="T11">
+      <c r="R14" s="16">
         <v>60000</v>
       </c>
-      <c r="U11">
+      <c r="S14" s="16">
         <v>57441.67</v>
       </c>
-      <c r="V11">
+      <c r="T14" s="16">
         <v>55000</v>
       </c>
-      <c r="W11">
+      <c r="U14" s="16">
         <v>52666.67</v>
       </c>
-      <c r="X11">
+      <c r="V14" s="16">
         <v>50441.67</v>
       </c>
-      <c r="Y11">
+      <c r="W14" s="16">
         <v>48316.67</v>
       </c>
-      <c r="Z11">
+      <c r="X14" s="16">
         <v>46275</v>
       </c>
-      <c r="AA11">
+      <c r="Y14" s="16">
         <v>44325</v>
       </c>
-      <c r="AB11">
+      <c r="Z14" s="16">
         <v>42458.33</v>
       </c>
-      <c r="AC11">
-        <v>40675</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="16"/>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" s="16"/>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>85</v>
-      </c>
-      <c r="B14" s="16">
-        <v>94841.67</v>
-      </c>
-      <c r="C14">
-        <v>93433.33</v>
-      </c>
-      <c r="D14">
-        <v>90716.67</v>
-      </c>
-      <c r="E14">
-        <v>89675</v>
-      </c>
-      <c r="F14">
-        <v>87975</v>
-      </c>
-      <c r="G14">
-        <v>89741.67</v>
-      </c>
-      <c r="H14">
-        <v>89800</v>
-      </c>
-      <c r="I14">
-        <v>86400</v>
-      </c>
-      <c r="J14">
-        <v>83208.33</v>
-      </c>
-      <c r="K14">
-        <v>80783.33</v>
-      </c>
-      <c r="L14">
-        <v>78908.33</v>
-      </c>
-      <c r="M14">
-        <v>78433.33</v>
-      </c>
-      <c r="N14">
-        <v>77441.67</v>
-      </c>
-      <c r="O14">
-        <v>76391.67</v>
-      </c>
-      <c r="P14">
-        <v>71533.33</v>
-      </c>
-      <c r="Q14">
-        <v>68441.67</v>
-      </c>
-      <c r="R14">
-        <v>65491.67</v>
-      </c>
-      <c r="S14">
-        <v>62683.33</v>
-      </c>
-      <c r="T14">
-        <v>60000</v>
-      </c>
-      <c r="U14">
-        <v>57441.67</v>
-      </c>
-      <c r="V14">
-        <v>55000</v>
-      </c>
-      <c r="W14">
-        <v>52666.67</v>
-      </c>
-      <c r="X14">
-        <v>50441.67</v>
-      </c>
-      <c r="Y14">
-        <v>48316.67</v>
-      </c>
-      <c r="Z14">
-        <v>46275</v>
-      </c>
-      <c r="AA14">
-        <v>44325</v>
-      </c>
-      <c r="AB14">
-        <v>42458.33</v>
-      </c>
-      <c r="AC14">
+      <c r="AA14" s="16">
         <v>40675</v>
       </c>
     </row>
@@ -6930,7 +7744,7 @@
     </row>
     <row r="2" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B2">
         <v>14.06</v>
@@ -7345,7 +8159,7 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B7">
         <v>14.06</v>
@@ -7428,7 +8242,7 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B8">
         <v>16.399999999999999</v>
@@ -7511,7 +8325,7 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B9">
         <v>16.399999999999999</v>
@@ -7594,7 +8408,7 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B10">
         <v>16.03</v>
@@ -7677,7 +8491,7 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B11">
         <v>15.9</v>
@@ -7760,7 +8574,7 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B12">
         <v>15.91</v>
@@ -7843,7 +8657,7 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B13">
         <v>6</v>
@@ -7926,7 +8740,7 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B14">
         <v>6.01</v>
@@ -8021,8 +8835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B80F836-AAFA-4D20-813C-A31BE68F85E1}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8052,10 +8866,10 @@
         <v>31</v>
       </c>
       <c r="E1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" t="s">
         <v>68</v>
-      </c>
-      <c r="F1" t="s">
-        <v>69</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
@@ -8069,19 +8883,19 @@
         <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>51</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G2" s="10">
         <v>4722000</v>
@@ -8095,19 +8909,19 @@
         <v>33</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>51</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G3" s="10">
         <v>4237000</v>
@@ -8121,19 +8935,19 @@
         <v>34</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>51</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G4" s="10">
         <v>4128000</v>
@@ -8147,19 +8961,19 @@
         <v>35</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>51</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G5" s="10">
         <v>4127000</v>
@@ -8173,19 +8987,19 @@
         <v>36</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>51</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G6" s="10">
         <v>4000000</v>
@@ -8199,19 +9013,19 @@
         <v>37</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>51</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G7" s="10">
         <v>4000000</v>
@@ -8225,19 +9039,19 @@
         <v>38</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>51</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G8" s="10">
         <v>4000000</v>
@@ -8251,19 +9065,19 @@
         <v>39</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>51</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G9" s="10">
         <v>3804000</v>
@@ -8277,19 +9091,19 @@
         <v>40</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>51</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G10" s="10">
         <v>3624000</v>
@@ -8303,19 +9117,19 @@
         <v>41</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>51</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G11" s="10">
         <v>3239000</v>
@@ -8329,19 +9143,19 @@
         <v>42</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>51</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G12" s="10">
         <v>1914000</v>
@@ -8355,19 +9169,19 @@
         <v>43</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="D13" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="E13" s="12" t="s">
-        <v>78</v>
-      </c>
       <c r="F13" s="12" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G13" s="10">
         <v>1683000</v>
@@ -8381,19 +9195,19 @@
         <v>44</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="D14" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="E14" s="12" t="s">
-        <v>78</v>
-      </c>
       <c r="F14" s="12" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G14" s="10">
         <v>1280000</v>
@@ -8414,7 +9228,7 @@
   <dimension ref="A1:AA14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8508,7 +9322,7 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B2" s="18">
         <v>0.1</v>
@@ -8923,7 +9737,7 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B7" s="18">
         <v>9.5000000000000001E-2</v>
@@ -9006,7 +9820,7 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B8" s="18">
         <v>0.26</v>
@@ -9089,7 +9903,7 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B9" s="18">
         <v>0.192</v>
@@ -9172,7 +9986,7 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B10" s="18">
         <v>5.5E-2</v>
@@ -9255,7 +10069,7 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B11" s="18">
         <v>0</v>
@@ -9338,7 +10152,7 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B12" s="18">
         <v>0</v>
@@ -9421,7 +10235,7 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B13" s="18">
         <v>0</v>
@@ -9504,7 +10318,7 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B14" s="18">
         <v>0</v>
@@ -9691,7 +10505,7 @@
     </row>
     <row r="2" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B2" s="16">
         <v>500700</v>
@@ -9774,7 +10588,7 @@
     </row>
     <row r="3" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B3" s="16">
         <v>425595</v>
@@ -10137,8 +10951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39EC2A4D-93DC-4E45-8627-2A75EDF5181B}">
   <dimension ref="A1:AA5"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="X38" sqref="X38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10231,7 +11045,7 @@
     </row>
     <row r="2" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B2" s="16">
         <v>177308.78</v>
@@ -10314,7 +11128,7 @@
     </row>
     <row r="3" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B3" s="16">
         <f>B2*0.85</f>
@@ -10719,7 +11533,7 @@
     </row>
     <row r="2" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B2" s="16">
         <v>421098.9</v>
@@ -10802,7 +11616,7 @@
     </row>
     <row r="3" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B3" s="16">
         <v>357934.065</v>
@@ -11087,7 +11901,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11110,7 +11924,7 @@
     </row>
     <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B2">
         <v>20</v>
@@ -11121,7 +11935,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B3">
         <v>20</v>
@@ -11149,7 +11963,7 @@
         <v>20</v>
       </c>
       <c r="C5">
-        <v>2029</v>
+        <v>2025</v>
       </c>
     </row>
   </sheetData>
@@ -11346,8 +12160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E46CCB1-2754-42FA-B5C9-8DABA83A320C}">
   <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14:S15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11450,82 +12264,82 @@
         <v>23</v>
       </c>
       <c r="B2" s="23">
-        <v>100000000</v>
+        <v>4000000000</v>
       </c>
       <c r="C2" s="23">
-        <v>100000000</v>
+        <v>4000000000</v>
       </c>
       <c r="D2" s="23">
-        <v>100000000</v>
+        <v>4000000000</v>
       </c>
       <c r="E2" s="23">
-        <v>100000000</v>
+        <v>4000000000</v>
       </c>
       <c r="F2" s="23">
-        <v>100000000</v>
+        <v>4000000000</v>
       </c>
       <c r="G2" s="23">
-        <v>90000000</v>
+        <v>4000000000</v>
       </c>
       <c r="H2" s="23">
-        <v>90000000</v>
+        <v>4000000000</v>
       </c>
       <c r="I2" s="23">
-        <v>90000000</v>
+        <v>4000000000</v>
       </c>
       <c r="J2" s="23">
-        <v>90000000</v>
+        <v>4000000000</v>
       </c>
       <c r="K2" s="23">
-        <v>90000000</v>
+        <v>4000000000</v>
       </c>
       <c r="L2" s="23">
-        <v>70000000</v>
+        <v>4000000000</v>
       </c>
       <c r="M2" s="23">
-        <v>70000000</v>
+        <v>4000000000</v>
       </c>
       <c r="N2" s="23">
-        <v>70000000</v>
+        <v>4000000000</v>
       </c>
       <c r="O2" s="23">
-        <v>70000000</v>
+        <v>4000000000</v>
       </c>
       <c r="P2" s="23">
-        <v>70000000</v>
+        <v>4000000000</v>
       </c>
       <c r="Q2" s="23">
-        <v>49999999.999999993</v>
+        <v>4000000000</v>
       </c>
       <c r="R2" s="23">
-        <v>49999999.999999993</v>
+        <v>4000000000</v>
       </c>
       <c r="S2" s="23">
-        <v>49999999.999999993</v>
+        <v>4000000000</v>
       </c>
       <c r="T2" s="23">
-        <v>49999999.999999993</v>
+        <v>4000000000</v>
       </c>
       <c r="U2" s="23">
-        <v>49999999.999999993</v>
+        <v>4000000000</v>
       </c>
       <c r="V2" s="23">
-        <v>49999999.999999993</v>
+        <v>4000000000</v>
       </c>
       <c r="W2" s="23">
-        <v>49999999.999999993</v>
+        <v>4000000000</v>
       </c>
       <c r="X2" s="23">
-        <v>49999999.999999993</v>
+        <v>4000000000</v>
       </c>
       <c r="Y2" s="23">
-        <v>49999999.999999993</v>
+        <v>4000000000</v>
       </c>
       <c r="Z2" s="23">
-        <v>49999999.999999993</v>
+        <v>4000000000</v>
       </c>
       <c r="AA2" s="23">
-        <v>9999999.9999999888</v>
+        <v>4000000000</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
@@ -11542,8 +12356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8A5865B-B011-402F-A09D-739FDD6B0E90}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView zoomScale="122" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B14"/>
+    <sheetView tabSelected="1" zoomScale="122" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11574,13 +12388,13 @@
     </row>
     <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C2" s="13">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="D2" s="13">
         <v>0.44</v>
@@ -11592,7 +12406,7 @@
     </row>
     <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3" t="s">
         <v>46</v>
@@ -11610,7 +12424,7 @@
     </row>
     <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B4" t="s">
         <v>47</v>
@@ -11628,7 +12442,7 @@
     </row>
     <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s">
         <v>48</v>
@@ -11646,7 +12460,7 @@
     </row>
     <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B6" t="s">
         <v>49</v>
@@ -11664,13 +12478,13 @@
     </row>
     <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C7" s="13">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="D7" s="13">
         <v>0.41</v>
@@ -11682,10 +12496,10 @@
     </row>
     <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C8" s="13">
         <v>0.11</v>
@@ -11700,10 +12514,10 @@
     </row>
     <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C9" s="13">
         <v>0.06</v>
@@ -11718,10 +12532,10 @@
     </row>
     <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C10" s="13">
         <v>0.13</v>
@@ -11736,10 +12550,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C11" s="13">
         <v>0.6</v>
@@ -11753,10 +12567,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C12" s="13">
         <v>0.57999999999999996</v>
@@ -11773,7 +12587,7 @@
         <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C13" s="13">
         <v>1</v>
@@ -11790,7 +12604,7 @@
         <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C14" s="13">
         <v>0.6</v>

--- a/database/steel_data.xlsx
+++ b/database/steel_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinsupark/jinsu-coding/macc_steel/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2375F99-C987-574F-8C24-68ECE4492B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1B2570-C229-E04C-93EA-20F446BA76EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-6920" windowWidth="38400" windowHeight="19880" tabRatio="775" activeTab="8" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
+    <workbookView xWindow="-38400" yWindow="-6920" windowWidth="38400" windowHeight="19880" tabRatio="775" activeTab="1" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="18" r:id="rId1"/>
@@ -22,10 +22,10 @@
     <sheet name="carbonprice" sheetId="25" r:id="rId7"/>
     <sheet name="emission" sheetId="23" r:id="rId8"/>
     <sheet name="technology_fuel_pairs" sheetId="5" r:id="rId9"/>
-    <sheet name="emission_system" sheetId="24" r:id="rId10"/>
-    <sheet name="technology_ei" sheetId="21" r:id="rId11"/>
-    <sheet name="feedstock_intensity" sheetId="17" r:id="rId12"/>
-    <sheet name="technology_feedstock_pairs" sheetId="6" r:id="rId13"/>
+    <sheet name="technology_feedstock_pairs" sheetId="6" r:id="rId10"/>
+    <sheet name="emission_system" sheetId="24" r:id="rId11"/>
+    <sheet name="technology_ei" sheetId="21" r:id="rId12"/>
+    <sheet name="feedstock_intensity" sheetId="17" r:id="rId13"/>
     <sheet name="feedstock_cost" sheetId="11" r:id="rId14"/>
     <sheet name="feedstock_emission" sheetId="12" r:id="rId15"/>
     <sheet name="feedstock_introduction" sheetId="27" r:id="rId16"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="93">
   <si>
     <t>system</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -360,6 +360,12 @@
   </si>
   <si>
     <t>0.83, 0.09, 0.01, 0.06, 0.01</t>
+  </si>
+  <si>
+    <t>Electricity_BB</t>
+  </si>
+  <si>
+    <t>Electricity_BX</t>
   </si>
 </sst>
 </file>
@@ -1027,6 +1033,267 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83A8B42D-00EB-470C-A0D2-7C21A6CB877B}">
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView zoomScale="107" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.1640625" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="13"/>
+    </row>
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="13">
+        <v>1</v>
+      </c>
+      <c r="D2" s="13">
+        <v>0</v>
+      </c>
+      <c r="E2" s="13">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="13">
+        <v>1</v>
+      </c>
+      <c r="D3" s="13">
+        <v>0</v>
+      </c>
+      <c r="E3" s="13">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="13">
+        <v>1</v>
+      </c>
+      <c r="D4" s="13">
+        <v>0</v>
+      </c>
+      <c r="E4" s="13">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="13">
+        <v>1</v>
+      </c>
+      <c r="D5" s="13">
+        <v>0</v>
+      </c>
+      <c r="E5" s="13">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="13">
+        <v>1</v>
+      </c>
+      <c r="D6" s="13">
+        <v>0</v>
+      </c>
+      <c r="E6" s="13">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="13">
+        <v>1</v>
+      </c>
+      <c r="D7" s="13">
+        <v>0</v>
+      </c>
+      <c r="E7" s="13">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="13">
+        <v>1</v>
+      </c>
+      <c r="D8" s="13">
+        <v>0</v>
+      </c>
+      <c r="E8" s="13">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="13">
+        <v>1</v>
+      </c>
+      <c r="D9" s="13">
+        <v>0</v>
+      </c>
+      <c r="E9" s="13">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="13">
+        <v>1</v>
+      </c>
+      <c r="D10" s="13">
+        <v>0</v>
+      </c>
+      <c r="E10" s="13">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="13">
+        <v>1</v>
+      </c>
+      <c r="D11" s="13">
+        <v>0</v>
+      </c>
+      <c r="E11" s="13">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="13">
+        <v>1</v>
+      </c>
+      <c r="D12" s="13">
+        <v>0</v>
+      </c>
+      <c r="E12" s="13">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="13">
+        <v>1</v>
+      </c>
+      <c r="D13" s="13">
+        <v>0</v>
+      </c>
+      <c r="E13" s="13">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B14" s="2"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B15" s="2"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B16" s="2"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E683ACB1-236C-41D9-AD28-376C61929EF9}">
   <dimension ref="A1:AA14"/>
   <sheetViews>
@@ -2209,7 +2476,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F464A74C-C8AE-4B5D-B335-B05DB5565181}">
   <dimension ref="A1:AA5"/>
   <sheetViews>
@@ -2644,12 +2911,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3CF035B-C14B-46B7-A841-579E94220A37}">
   <dimension ref="A1:AA13"/>
   <sheetViews>
     <sheetView zoomScale="112" zoomScaleNormal="47" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3735,261 +4002,6 @@
       <c r="AA13">
         <v>1.05</v>
       </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83A8B42D-00EB-470C-A0D2-7C21A6CB877B}">
-  <dimension ref="A1:F16"/>
-  <sheetViews>
-    <sheetView zoomScale="107" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="24.1640625" customWidth="1"/>
-    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="13"/>
-    </row>
-    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="13">
-        <v>1</v>
-      </c>
-      <c r="D2" s="13">
-        <v>0.82</v>
-      </c>
-      <c r="E2" s="13">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="13">
-        <v>0.15</v>
-      </c>
-      <c r="D3" s="13">
-        <v>0.06</v>
-      </c>
-      <c r="E3" s="13">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" s="13">
-        <v>0.64</v>
-      </c>
-      <c r="D4" s="13">
-        <v>0</v>
-      </c>
-      <c r="E4" s="13">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C5" s="13">
-        <v>1</v>
-      </c>
-      <c r="D5" s="13">
-        <v>0.9</v>
-      </c>
-      <c r="E5" s="13">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" s="13">
-        <v>0.17</v>
-      </c>
-      <c r="D6" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="E6" s="13">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7" s="13">
-        <v>0.72</v>
-      </c>
-      <c r="D7" s="13">
-        <v>0</v>
-      </c>
-      <c r="E7" s="13">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="13">
-        <v>1</v>
-      </c>
-      <c r="D8" s="13">
-        <v>1</v>
-      </c>
-      <c r="E8" s="13">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="13">
-        <v>0</v>
-      </c>
-      <c r="D9" s="13">
-        <v>0</v>
-      </c>
-      <c r="E9" s="13">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C10" s="13">
-        <v>1</v>
-      </c>
-      <c r="D10" s="13">
-        <v>0</v>
-      </c>
-      <c r="E10" s="13">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="13">
-        <v>0</v>
-      </c>
-      <c r="D11" s="13">
-        <v>0</v>
-      </c>
-      <c r="E11" s="13">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="13">
-        <v>1</v>
-      </c>
-      <c r="D12" s="13">
-        <v>0.8</v>
-      </c>
-      <c r="E12" s="13">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" s="13">
-        <v>1</v>
-      </c>
-      <c r="D13" s="13">
-        <v>0</v>
-      </c>
-      <c r="E13" s="13">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -6332,10 +6344,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A811D9-2602-4FD1-8BF7-F55E2D4AA43D}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6394,7 +6406,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="B7">
         <v>2000</v>
@@ -6402,7 +6414,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B8">
         <v>2000</v>
@@ -6410,7 +6422,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B9">
         <v>2000</v>
@@ -6418,7 +6430,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B10">
         <v>2000</v>
@@ -6426,7 +6438,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="B11">
         <v>2000</v>
@@ -6434,7 +6446,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="B12">
         <v>2000</v>
@@ -6442,7 +6454,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B13">
         <v>2000</v>
@@ -6450,9 +6462,25 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>80</v>
       </c>
-      <c r="B14">
+      <c r="B16">
         <v>2000</v>
       </c>
     </row>
@@ -6465,10 +6493,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{251D8908-2320-4E41-AC8F-86BD7BF58C9B}">
-  <dimension ref="A1:AA14"/>
+  <dimension ref="A1:AA16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="A2" sqref="A2:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6976,173 +7004,173 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="B7" s="16">
-        <v>6625.0999999999995</v>
+        <v>50750</v>
       </c>
       <c r="C7" s="16">
-        <v>6625.0999999999995</v>
+        <v>50750</v>
       </c>
       <c r="D7" s="16">
-        <v>6625.0999999999995</v>
+        <v>50750</v>
       </c>
       <c r="E7" s="16">
-        <v>6625.0999999999995</v>
+        <v>50750</v>
       </c>
       <c r="F7" s="16">
-        <v>6625.0999999999995</v>
+        <v>50750</v>
       </c>
       <c r="G7" s="16">
-        <v>6625.0999999999995</v>
+        <v>50750</v>
       </c>
       <c r="H7" s="16">
-        <v>6625.0999999999995</v>
+        <v>50750</v>
       </c>
       <c r="I7" s="16">
-        <v>6625.0999999999995</v>
+        <v>50750</v>
       </c>
       <c r="J7" s="16">
-        <v>6625.0999999999995</v>
+        <v>50750</v>
       </c>
       <c r="K7" s="16">
-        <v>6625.0999999999995</v>
+        <v>50750</v>
       </c>
       <c r="L7" s="16">
-        <v>6625.0999999999995</v>
+        <v>50750</v>
       </c>
       <c r="M7" s="16">
-        <v>6625.0999999999995</v>
+        <v>50750</v>
       </c>
       <c r="N7" s="16">
-        <v>6625.0999999999995</v>
+        <v>50750</v>
       </c>
       <c r="O7" s="16">
-        <v>6625.0999999999995</v>
+        <v>50750</v>
       </c>
       <c r="P7" s="16">
-        <v>6625.0999999999995</v>
+        <v>50750</v>
       </c>
       <c r="Q7" s="16">
-        <v>6625.0999999999995</v>
+        <v>50750</v>
       </c>
       <c r="R7" s="16">
-        <v>6625.0999999999995</v>
+        <v>50750</v>
       </c>
       <c r="S7" s="16">
-        <v>6625.0999999999995</v>
+        <v>50750</v>
       </c>
       <c r="T7" s="16">
-        <v>6625.0999999999995</v>
+        <v>50750</v>
       </c>
       <c r="U7" s="16">
-        <v>6625.0999999999995</v>
+        <v>50750</v>
       </c>
       <c r="V7" s="16">
-        <v>6625.0999999999995</v>
+        <v>50750</v>
       </c>
       <c r="W7" s="16">
-        <v>6625.0999999999995</v>
+        <v>50750</v>
       </c>
       <c r="X7" s="16">
-        <v>6625.0999999999995</v>
+        <v>50750</v>
       </c>
       <c r="Y7" s="16">
-        <v>6625.0999999999995</v>
+        <v>50750</v>
       </c>
       <c r="Z7" s="16">
-        <v>6625.0999999999995</v>
+        <v>50750</v>
       </c>
       <c r="AA7" s="16">
-        <v>6625.0999999999995</v>
+        <v>50750</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B8" s="16">
-        <v>0</v>
+        <v>6625.0999999999995</v>
       </c>
       <c r="C8" s="16">
-        <v>0</v>
+        <v>6625.0999999999995</v>
       </c>
       <c r="D8" s="16">
-        <v>0</v>
+        <v>6625.0999999999995</v>
       </c>
       <c r="E8" s="16">
-        <v>0</v>
+        <v>6625.0999999999995</v>
       </c>
       <c r="F8" s="16">
-        <v>0</v>
+        <v>6625.0999999999995</v>
       </c>
       <c r="G8" s="16">
-        <v>0</v>
+        <v>6625.0999999999995</v>
       </c>
       <c r="H8" s="16">
-        <v>0</v>
+        <v>6625.0999999999995</v>
       </c>
       <c r="I8" s="16">
-        <v>0</v>
+        <v>6625.0999999999995</v>
       </c>
       <c r="J8" s="16">
-        <v>0</v>
+        <v>6625.0999999999995</v>
       </c>
       <c r="K8" s="16">
-        <v>0</v>
+        <v>6625.0999999999995</v>
       </c>
       <c r="L8" s="16">
-        <v>0</v>
+        <v>6625.0999999999995</v>
       </c>
       <c r="M8" s="16">
-        <v>0</v>
+        <v>6625.0999999999995</v>
       </c>
       <c r="N8" s="16">
-        <v>0</v>
+        <v>6625.0999999999995</v>
       </c>
       <c r="O8" s="16">
-        <v>0</v>
+        <v>6625.0999999999995</v>
       </c>
       <c r="P8" s="16">
-        <v>0</v>
+        <v>6625.0999999999995</v>
       </c>
       <c r="Q8" s="16">
-        <v>0</v>
+        <v>6625.0999999999995</v>
       </c>
       <c r="R8" s="16">
-        <v>0</v>
+        <v>6625.0999999999995</v>
       </c>
       <c r="S8" s="16">
-        <v>0</v>
+        <v>6625.0999999999995</v>
       </c>
       <c r="T8" s="16">
-        <v>0</v>
+        <v>6625.0999999999995</v>
       </c>
       <c r="U8" s="16">
-        <v>0</v>
+        <v>6625.0999999999995</v>
       </c>
       <c r="V8" s="16">
-        <v>0</v>
+        <v>6625.0999999999995</v>
       </c>
       <c r="W8" s="16">
-        <v>0</v>
+        <v>6625.0999999999995</v>
       </c>
       <c r="X8" s="16">
-        <v>0</v>
+        <v>6625.0999999999995</v>
       </c>
       <c r="Y8" s="16">
-        <v>0</v>
+        <v>6625.0999999999995</v>
       </c>
       <c r="Z8" s="16">
-        <v>0</v>
+        <v>6625.0999999999995</v>
       </c>
       <c r="AA8" s="16">
-        <v>0</v>
+        <v>6625.0999999999995</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B9" s="16">
         <v>0</v>
@@ -7225,173 +7253,173 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B10" s="16">
-        <v>18934</v>
+        <v>0</v>
       </c>
       <c r="C10" s="16">
-        <v>18934</v>
+        <v>0</v>
       </c>
       <c r="D10" s="16">
-        <v>18934</v>
+        <v>0</v>
       </c>
       <c r="E10" s="16">
-        <v>18934</v>
+        <v>0</v>
       </c>
       <c r="F10" s="16">
-        <v>18934</v>
+        <v>0</v>
       </c>
       <c r="G10" s="16">
-        <v>18934</v>
+        <v>0</v>
       </c>
       <c r="H10" s="16">
-        <v>18934</v>
+        <v>0</v>
       </c>
       <c r="I10" s="16">
-        <v>18934</v>
+        <v>0</v>
       </c>
       <c r="J10" s="16">
-        <v>18934</v>
+        <v>0</v>
       </c>
       <c r="K10" s="16">
-        <v>18934</v>
+        <v>0</v>
       </c>
       <c r="L10" s="16">
-        <v>18934</v>
+        <v>0</v>
       </c>
       <c r="M10" s="16">
-        <v>18934</v>
+        <v>0</v>
       </c>
       <c r="N10" s="16">
-        <v>18934</v>
+        <v>0</v>
       </c>
       <c r="O10" s="16">
-        <v>18934</v>
+        <v>0</v>
       </c>
       <c r="P10" s="16">
-        <v>18934</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="16">
-        <v>18934</v>
+        <v>0</v>
       </c>
       <c r="R10" s="16">
-        <v>18934</v>
+        <v>0</v>
       </c>
       <c r="S10" s="16">
-        <v>18934</v>
+        <v>0</v>
       </c>
       <c r="T10" s="16">
-        <v>18934</v>
+        <v>0</v>
       </c>
       <c r="U10" s="16">
-        <v>18934</v>
+        <v>0</v>
       </c>
       <c r="V10" s="16">
-        <v>18934</v>
+        <v>0</v>
       </c>
       <c r="W10" s="16">
-        <v>18934</v>
+        <v>0</v>
       </c>
       <c r="X10" s="16">
-        <v>18934</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="16">
-        <v>18934</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="16">
-        <v>18934</v>
+        <v>0</v>
       </c>
       <c r="AA10" s="16">
-        <v>18934</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="B11" s="16">
-        <v>90716.67</v>
+        <v>18934</v>
       </c>
       <c r="C11" s="16">
-        <v>89675</v>
+        <v>18934</v>
       </c>
       <c r="D11" s="16">
-        <v>87975</v>
+        <v>18934</v>
       </c>
       <c r="E11" s="16">
-        <v>89741.67</v>
+        <v>18934</v>
       </c>
       <c r="F11" s="16">
-        <v>89800</v>
+        <v>18934</v>
       </c>
       <c r="G11" s="16">
-        <v>86400</v>
+        <v>18934</v>
       </c>
       <c r="H11" s="16">
-        <v>83208.33</v>
+        <v>18934</v>
       </c>
       <c r="I11" s="16">
-        <v>80783.33</v>
+        <v>18934</v>
       </c>
       <c r="J11" s="16">
-        <v>78908.33</v>
+        <v>18934</v>
       </c>
       <c r="K11" s="16">
-        <v>78433.33</v>
+        <v>18934</v>
       </c>
       <c r="L11" s="16">
-        <v>77441.67</v>
+        <v>18934</v>
       </c>
       <c r="M11" s="16">
-        <v>76391.67</v>
+        <v>18934</v>
       </c>
       <c r="N11" s="16">
-        <v>71533.33</v>
+        <v>18934</v>
       </c>
       <c r="O11" s="16">
-        <v>68441.67</v>
+        <v>18934</v>
       </c>
       <c r="P11" s="16">
-        <v>65491.67</v>
+        <v>18934</v>
       </c>
       <c r="Q11" s="16">
-        <v>62683.33</v>
+        <v>18934</v>
       </c>
       <c r="R11" s="16">
-        <v>60000</v>
+        <v>18934</v>
       </c>
       <c r="S11" s="16">
-        <v>57441.67</v>
+        <v>18934</v>
       </c>
       <c r="T11" s="16">
-        <v>55000</v>
+        <v>18934</v>
       </c>
       <c r="U11" s="16">
-        <v>52666.67</v>
+        <v>18934</v>
       </c>
       <c r="V11" s="16">
-        <v>50441.67</v>
+        <v>18934</v>
       </c>
       <c r="W11" s="16">
-        <v>48316.67</v>
+        <v>18934</v>
       </c>
       <c r="X11" s="16">
-        <v>46275</v>
+        <v>18934</v>
       </c>
       <c r="Y11" s="16">
-        <v>44325</v>
+        <v>18934</v>
       </c>
       <c r="Z11" s="16">
-        <v>42458.33</v>
+        <v>18934</v>
       </c>
       <c r="AA11" s="16">
-        <v>40675</v>
+        <v>18934</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="B12" s="16">
         <v>50750</v>
@@ -7474,167 +7502,333 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B13" s="16">
-        <v>50750</v>
+        <v>90716.67</v>
       </c>
       <c r="C13" s="16">
-        <v>50750</v>
+        <v>89675</v>
       </c>
       <c r="D13" s="16">
-        <v>50750</v>
+        <v>87975</v>
       </c>
       <c r="E13" s="16">
-        <v>50750</v>
+        <v>89741.67</v>
       </c>
       <c r="F13" s="16">
-        <v>50750</v>
+        <v>89800</v>
       </c>
       <c r="G13" s="16">
-        <v>50750</v>
+        <v>86400</v>
       </c>
       <c r="H13" s="16">
-        <v>50750</v>
+        <v>83208.33</v>
       </c>
       <c r="I13" s="16">
-        <v>50750</v>
+        <v>80783.33</v>
       </c>
       <c r="J13" s="16">
-        <v>50750</v>
+        <v>78908.33</v>
       </c>
       <c r="K13" s="16">
-        <v>50750</v>
+        <v>78433.33</v>
       </c>
       <c r="L13" s="16">
-        <v>50750</v>
+        <v>77441.67</v>
       </c>
       <c r="M13" s="16">
-        <v>50750</v>
+        <v>76391.67</v>
       </c>
       <c r="N13" s="16">
-        <v>50750</v>
+        <v>71533.33</v>
       </c>
       <c r="O13" s="16">
-        <v>50750</v>
+        <v>68441.67</v>
       </c>
       <c r="P13" s="16">
-        <v>50750</v>
+        <v>65491.67</v>
       </c>
       <c r="Q13" s="16">
-        <v>50750</v>
+        <v>62683.33</v>
       </c>
       <c r="R13" s="16">
-        <v>50750</v>
+        <v>60000</v>
       </c>
       <c r="S13" s="16">
-        <v>50750</v>
+        <v>57441.67</v>
       </c>
       <c r="T13" s="16">
-        <v>50750</v>
+        <v>55000</v>
       </c>
       <c r="U13" s="16">
-        <v>50750</v>
+        <v>52666.67</v>
       </c>
       <c r="V13" s="16">
-        <v>50750</v>
+        <v>50441.67</v>
       </c>
       <c r="W13" s="16">
-        <v>50750</v>
+        <v>48316.67</v>
       </c>
       <c r="X13" s="16">
-        <v>50750</v>
+        <v>46275</v>
       </c>
       <c r="Y13" s="16">
-        <v>50750</v>
+        <v>44325</v>
       </c>
       <c r="Z13" s="16">
-        <v>50750</v>
+        <v>42458.33</v>
       </c>
       <c r="AA13" s="16">
-        <v>50750</v>
+        <v>40675</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="16">
+        <v>50750</v>
+      </c>
+      <c r="C14" s="16">
+        <v>50750</v>
+      </c>
+      <c r="D14" s="16">
+        <v>50750</v>
+      </c>
+      <c r="E14" s="16">
+        <v>50750</v>
+      </c>
+      <c r="F14" s="16">
+        <v>50750</v>
+      </c>
+      <c r="G14" s="16">
+        <v>50750</v>
+      </c>
+      <c r="H14" s="16">
+        <v>50750</v>
+      </c>
+      <c r="I14" s="16">
+        <v>50750</v>
+      </c>
+      <c r="J14" s="16">
+        <v>50750</v>
+      </c>
+      <c r="K14" s="16">
+        <v>50750</v>
+      </c>
+      <c r="L14" s="16">
+        <v>50750</v>
+      </c>
+      <c r="M14" s="16">
+        <v>50750</v>
+      </c>
+      <c r="N14" s="16">
+        <v>50750</v>
+      </c>
+      <c r="O14" s="16">
+        <v>50750</v>
+      </c>
+      <c r="P14" s="16">
+        <v>50750</v>
+      </c>
+      <c r="Q14" s="16">
+        <v>50750</v>
+      </c>
+      <c r="R14" s="16">
+        <v>50750</v>
+      </c>
+      <c r="S14" s="16">
+        <v>50750</v>
+      </c>
+      <c r="T14" s="16">
+        <v>50750</v>
+      </c>
+      <c r="U14" s="16">
+        <v>50750</v>
+      </c>
+      <c r="V14" s="16">
+        <v>50750</v>
+      </c>
+      <c r="W14" s="16">
+        <v>50750</v>
+      </c>
+      <c r="X14" s="16">
+        <v>50750</v>
+      </c>
+      <c r="Y14" s="16">
+        <v>50750</v>
+      </c>
+      <c r="Z14" s="16">
+        <v>50750</v>
+      </c>
+      <c r="AA14" s="16">
+        <v>50750</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="16">
+        <v>50750</v>
+      </c>
+      <c r="C15" s="16">
+        <v>50750</v>
+      </c>
+      <c r="D15" s="16">
+        <v>50750</v>
+      </c>
+      <c r="E15" s="16">
+        <v>50750</v>
+      </c>
+      <c r="F15" s="16">
+        <v>50750</v>
+      </c>
+      <c r="G15" s="16">
+        <v>50750</v>
+      </c>
+      <c r="H15" s="16">
+        <v>50750</v>
+      </c>
+      <c r="I15" s="16">
+        <v>50750</v>
+      </c>
+      <c r="J15" s="16">
+        <v>50750</v>
+      </c>
+      <c r="K15" s="16">
+        <v>50750</v>
+      </c>
+      <c r="L15" s="16">
+        <v>50750</v>
+      </c>
+      <c r="M15" s="16">
+        <v>50750</v>
+      </c>
+      <c r="N15" s="16">
+        <v>50750</v>
+      </c>
+      <c r="O15" s="16">
+        <v>50750</v>
+      </c>
+      <c r="P15" s="16">
+        <v>50750</v>
+      </c>
+      <c r="Q15" s="16">
+        <v>50750</v>
+      </c>
+      <c r="R15" s="16">
+        <v>50750</v>
+      </c>
+      <c r="S15" s="16">
+        <v>50750</v>
+      </c>
+      <c r="T15" s="16">
+        <v>50750</v>
+      </c>
+      <c r="U15" s="16">
+        <v>50750</v>
+      </c>
+      <c r="V15" s="16">
+        <v>50750</v>
+      </c>
+      <c r="W15" s="16">
+        <v>50750</v>
+      </c>
+      <c r="X15" s="16">
+        <v>50750</v>
+      </c>
+      <c r="Y15" s="16">
+        <v>50750</v>
+      </c>
+      <c r="Z15" s="16">
+        <v>50750</v>
+      </c>
+      <c r="AA15" s="16">
+        <v>50750</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>80</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B16" s="16">
         <v>90716.67</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C16" s="16">
         <v>89675</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D16" s="16">
         <v>87975</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E16" s="16">
         <v>89741.67</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F16" s="16">
         <v>89800</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G16" s="16">
         <v>86400</v>
       </c>
-      <c r="H14" s="16">
+      <c r="H16" s="16">
         <v>83208.33</v>
       </c>
-      <c r="I14" s="16">
+      <c r="I16" s="16">
         <v>80783.33</v>
       </c>
-      <c r="J14" s="16">
+      <c r="J16" s="16">
         <v>78908.33</v>
       </c>
-      <c r="K14" s="16">
+      <c r="K16" s="16">
         <v>78433.33</v>
       </c>
-      <c r="L14" s="16">
+      <c r="L16" s="16">
         <v>77441.67</v>
       </c>
-      <c r="M14" s="16">
+      <c r="M16" s="16">
         <v>76391.67</v>
       </c>
-      <c r="N14" s="16">
+      <c r="N16" s="16">
         <v>71533.33</v>
       </c>
-      <c r="O14" s="16">
+      <c r="O16" s="16">
         <v>68441.67</v>
       </c>
-      <c r="P14" s="16">
+      <c r="P16" s="16">
         <v>65491.67</v>
       </c>
-      <c r="Q14" s="16">
+      <c r="Q16" s="16">
         <v>62683.33</v>
       </c>
-      <c r="R14" s="16">
+      <c r="R16" s="16">
         <v>60000</v>
       </c>
-      <c r="S14" s="16">
+      <c r="S16" s="16">
         <v>57441.67</v>
       </c>
-      <c r="T14" s="16">
+      <c r="T16" s="16">
         <v>55000</v>
       </c>
-      <c r="U14" s="16">
+      <c r="U16" s="16">
         <v>52666.67</v>
       </c>
-      <c r="V14" s="16">
+      <c r="V16" s="16">
         <v>50441.67</v>
       </c>
-      <c r="W14" s="16">
+      <c r="W16" s="16">
         <v>48316.67</v>
       </c>
-      <c r="X14" s="16">
+      <c r="X16" s="16">
         <v>46275</v>
       </c>
-      <c r="Y14" s="16">
+      <c r="Y16" s="16">
         <v>44325</v>
       </c>
-      <c r="Z14" s="16">
+      <c r="Z16" s="16">
         <v>42458.33</v>
       </c>
-      <c r="AA14" s="16">
+      <c r="AA16" s="16">
         <v>40675</v>
       </c>
     </row>
@@ -7647,10 +7841,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DC1A385-697C-4C01-B126-79A22BD0CC72}">
-  <dimension ref="A1:AA15"/>
+  <dimension ref="A1:AA17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A14"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="W21" sqref="W21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8159,173 +8353,173 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="B7">
-        <v>14.06</v>
+        <v>16.420000000000002</v>
       </c>
       <c r="C7">
-        <v>14.06</v>
+        <v>16.420000000000002</v>
       </c>
       <c r="D7">
-        <v>14.06</v>
+        <v>16.420000000000002</v>
       </c>
       <c r="E7">
-        <v>14.06</v>
+        <v>16.420000000000002</v>
       </c>
       <c r="F7">
-        <v>14.06</v>
+        <v>16.420000000000002</v>
       </c>
       <c r="G7">
-        <v>14.06</v>
+        <v>16.420000000000002</v>
       </c>
       <c r="H7">
-        <v>14.06</v>
+        <v>16.420000000000002</v>
       </c>
       <c r="I7">
-        <v>14.06</v>
+        <v>16.420000000000002</v>
       </c>
       <c r="J7">
-        <v>14.06</v>
+        <v>16.420000000000002</v>
       </c>
       <c r="K7">
-        <v>14.06</v>
+        <v>16.420000000000002</v>
       </c>
       <c r="L7">
-        <v>14.06</v>
+        <v>16.420000000000002</v>
       </c>
       <c r="M7">
-        <v>14.06</v>
+        <v>16.420000000000002</v>
       </c>
       <c r="N7">
-        <v>14.06</v>
+        <v>16.420000000000002</v>
       </c>
       <c r="O7">
-        <v>14.06</v>
+        <v>16.420000000000002</v>
       </c>
       <c r="P7">
-        <v>14.06</v>
+        <v>16.420000000000002</v>
       </c>
       <c r="Q7">
-        <v>14.06</v>
+        <v>16.420000000000002</v>
       </c>
       <c r="R7">
-        <v>14.06</v>
+        <v>16.420000000000002</v>
       </c>
       <c r="S7">
-        <v>14.06</v>
+        <v>16.420000000000002</v>
       </c>
       <c r="T7">
-        <v>14.06</v>
+        <v>16.420000000000002</v>
       </c>
       <c r="U7">
-        <v>14.06</v>
+        <v>16.420000000000002</v>
       </c>
       <c r="V7">
-        <v>14.06</v>
+        <v>16.420000000000002</v>
       </c>
       <c r="W7">
-        <v>14.06</v>
+        <v>16.420000000000002</v>
       </c>
       <c r="X7">
-        <v>14.06</v>
+        <v>16.420000000000002</v>
       </c>
       <c r="Y7">
-        <v>14.06</v>
+        <v>16.420000000000002</v>
       </c>
       <c r="Z7">
-        <v>14.06</v>
+        <v>16.420000000000002</v>
       </c>
       <c r="AA7">
-        <v>14.06</v>
+        <v>16.420000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B8">
-        <v>16.399999999999999</v>
+        <v>14.06</v>
       </c>
       <c r="C8">
-        <v>16.399999999999999</v>
+        <v>14.06</v>
       </c>
       <c r="D8">
-        <v>16.399999999999999</v>
+        <v>14.06</v>
       </c>
       <c r="E8">
-        <v>16.399999999999999</v>
+        <v>14.06</v>
       </c>
       <c r="F8">
-        <v>16.399999999999999</v>
+        <v>14.06</v>
       </c>
       <c r="G8">
-        <v>16.399999999999999</v>
+        <v>14.06</v>
       </c>
       <c r="H8">
-        <v>16.399999999999999</v>
+        <v>14.06</v>
       </c>
       <c r="I8">
-        <v>16.399999999999999</v>
+        <v>14.06</v>
       </c>
       <c r="J8">
-        <v>16.399999999999999</v>
+        <v>14.06</v>
       </c>
       <c r="K8">
-        <v>16.399999999999999</v>
+        <v>14.06</v>
       </c>
       <c r="L8">
-        <v>16.399999999999999</v>
+        <v>14.06</v>
       </c>
       <c r="M8">
-        <v>16.399999999999999</v>
+        <v>14.06</v>
       </c>
       <c r="N8">
-        <v>16.399999999999999</v>
+        <v>14.06</v>
       </c>
       <c r="O8">
-        <v>16.399999999999999</v>
+        <v>14.06</v>
       </c>
       <c r="P8">
-        <v>16.399999999999999</v>
+        <v>14.06</v>
       </c>
       <c r="Q8">
-        <v>16.399999999999999</v>
+        <v>14.06</v>
       </c>
       <c r="R8">
-        <v>16.399999999999999</v>
+        <v>14.06</v>
       </c>
       <c r="S8">
-        <v>16.399999999999999</v>
+        <v>14.06</v>
       </c>
       <c r="T8">
-        <v>16.399999999999999</v>
+        <v>14.06</v>
       </c>
       <c r="U8">
-        <v>16.399999999999999</v>
+        <v>14.06</v>
       </c>
       <c r="V8">
-        <v>16.399999999999999</v>
+        <v>14.06</v>
       </c>
       <c r="W8">
-        <v>16.399999999999999</v>
+        <v>14.06</v>
       </c>
       <c r="X8">
-        <v>16.399999999999999</v>
+        <v>14.06</v>
       </c>
       <c r="Y8">
-        <v>16.399999999999999</v>
+        <v>14.06</v>
       </c>
       <c r="Z8">
-        <v>16.399999999999999</v>
+        <v>14.06</v>
       </c>
       <c r="AA8">
-        <v>16.399999999999999</v>
+        <v>14.06</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B9">
         <v>16.399999999999999</v>
@@ -8408,421 +8602,587 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B10">
-        <v>16.03</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="C10">
-        <v>16.03</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="D10">
-        <v>16.03</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="E10">
-        <v>16.03</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="F10">
-        <v>16.03</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="G10">
-        <v>16.03</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="H10">
-        <v>16.03</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="I10">
-        <v>16.03</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="J10">
-        <v>16.03</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="K10">
-        <v>16.03</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="L10">
-        <v>16.03</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="M10">
-        <v>16.03</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="N10">
-        <v>16.03</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="O10">
-        <v>16.03</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="P10">
-        <v>16.03</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="Q10">
-        <v>16.03</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="R10">
-        <v>16.03</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="S10">
-        <v>16.03</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="T10">
-        <v>16.03</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="U10">
-        <v>16.03</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="V10">
-        <v>16.03</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="W10">
-        <v>16.03</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="X10">
-        <v>16.03</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="Y10">
-        <v>16.03</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="Z10">
-        <v>16.03</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="AA10">
-        <v>16.03</v>
+        <v>16.399999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="B11">
-        <v>15.9</v>
+        <v>16.03</v>
       </c>
       <c r="C11">
-        <v>15.9</v>
+        <v>16.03</v>
       </c>
       <c r="D11">
-        <v>15.9</v>
+        <v>16.03</v>
       </c>
       <c r="E11">
-        <v>15.9</v>
+        <v>16.03</v>
       </c>
       <c r="F11">
-        <v>15.9</v>
+        <v>16.03</v>
       </c>
       <c r="G11">
-        <v>15.9</v>
+        <v>16.03</v>
       </c>
       <c r="H11">
-        <v>15.9</v>
+        <v>16.03</v>
       </c>
       <c r="I11">
-        <v>15.9</v>
+        <v>16.03</v>
       </c>
       <c r="J11">
-        <v>15.9</v>
+        <v>16.03</v>
       </c>
       <c r="K11">
-        <v>15.9</v>
+        <v>16.03</v>
       </c>
       <c r="L11">
-        <v>15.9</v>
+        <v>16.03</v>
       </c>
       <c r="M11">
-        <v>15.9</v>
+        <v>16.03</v>
       </c>
       <c r="N11">
-        <v>15.9</v>
+        <v>16.03</v>
       </c>
       <c r="O11">
-        <v>15.9</v>
+        <v>16.03</v>
       </c>
       <c r="P11">
-        <v>15.9</v>
+        <v>16.03</v>
       </c>
       <c r="Q11">
-        <v>15.9</v>
+        <v>16.03</v>
       </c>
       <c r="R11">
-        <v>15.9</v>
+        <v>16.03</v>
       </c>
       <c r="S11">
-        <v>15.9</v>
+        <v>16.03</v>
       </c>
       <c r="T11">
-        <v>15.9</v>
+        <v>16.03</v>
       </c>
       <c r="U11">
-        <v>15.9</v>
+        <v>16.03</v>
       </c>
       <c r="V11">
-        <v>15.9</v>
+        <v>16.03</v>
       </c>
       <c r="W11">
-        <v>15.9</v>
+        <v>16.03</v>
       </c>
       <c r="X11">
-        <v>15.9</v>
+        <v>16.03</v>
       </c>
       <c r="Y11">
-        <v>15.9</v>
+        <v>16.03</v>
       </c>
       <c r="Z11">
-        <v>15.9</v>
+        <v>16.03</v>
       </c>
       <c r="AA11">
-        <v>15.9</v>
+        <v>16.03</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="B12">
-        <v>15.91</v>
+        <v>16.420000000000002</v>
       </c>
       <c r="C12">
-        <v>15.91</v>
+        <v>16.420000000000002</v>
       </c>
       <c r="D12">
-        <v>15.91</v>
+        <v>16.420000000000002</v>
       </c>
       <c r="E12">
-        <v>15.91</v>
+        <v>16.420000000000002</v>
       </c>
       <c r="F12">
-        <v>15.91</v>
+        <v>16.420000000000002</v>
       </c>
       <c r="G12">
-        <v>15.91</v>
+        <v>16.420000000000002</v>
       </c>
       <c r="H12">
-        <v>15.91</v>
+        <v>16.420000000000002</v>
       </c>
       <c r="I12">
-        <v>15.91</v>
+        <v>16.420000000000002</v>
       </c>
       <c r="J12">
-        <v>15.91</v>
+        <v>16.420000000000002</v>
       </c>
       <c r="K12">
-        <v>15.91</v>
+        <v>16.420000000000002</v>
       </c>
       <c r="L12">
-        <v>15.91</v>
+        <v>16.420000000000002</v>
       </c>
       <c r="M12">
-        <v>15.91</v>
+        <v>16.420000000000002</v>
       </c>
       <c r="N12">
-        <v>15.91</v>
+        <v>16.420000000000002</v>
       </c>
       <c r="O12">
-        <v>15.91</v>
+        <v>16.420000000000002</v>
       </c>
       <c r="P12">
-        <v>15.91</v>
+        <v>16.420000000000002</v>
       </c>
       <c r="Q12">
-        <v>15.91</v>
+        <v>16.420000000000002</v>
       </c>
       <c r="R12">
-        <v>15.91</v>
+        <v>16.420000000000002</v>
       </c>
       <c r="S12">
-        <v>15.91</v>
+        <v>16.420000000000002</v>
       </c>
       <c r="T12">
-        <v>15.91</v>
+        <v>16.420000000000002</v>
       </c>
       <c r="U12">
-        <v>15.91</v>
+        <v>16.420000000000002</v>
       </c>
       <c r="V12">
-        <v>15.91</v>
+        <v>16.420000000000002</v>
       </c>
       <c r="W12">
-        <v>15.91</v>
+        <v>16.420000000000002</v>
       </c>
       <c r="X12">
-        <v>15.91</v>
+        <v>16.420000000000002</v>
       </c>
       <c r="Y12">
-        <v>15.91</v>
+        <v>16.420000000000002</v>
       </c>
       <c r="Z12">
-        <v>15.91</v>
+        <v>16.420000000000002</v>
       </c>
       <c r="AA12">
-        <v>15.91</v>
+        <v>16.420000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>15.9</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>15.9</v>
       </c>
       <c r="D13">
-        <v>6</v>
+        <v>15.9</v>
       </c>
       <c r="E13">
-        <v>6</v>
+        <v>15.9</v>
       </c>
       <c r="F13">
-        <v>6</v>
+        <v>15.9</v>
       </c>
       <c r="G13">
-        <v>6</v>
+        <v>15.9</v>
       </c>
       <c r="H13">
-        <v>6</v>
+        <v>15.9</v>
       </c>
       <c r="I13">
-        <v>6</v>
+        <v>15.9</v>
       </c>
       <c r="J13">
-        <v>6</v>
+        <v>15.9</v>
       </c>
       <c r="K13">
-        <v>6</v>
+        <v>15.9</v>
       </c>
       <c r="L13">
-        <v>6</v>
+        <v>15.9</v>
       </c>
       <c r="M13">
-        <v>6</v>
+        <v>15.9</v>
       </c>
       <c r="N13">
-        <v>6</v>
+        <v>15.9</v>
       </c>
       <c r="O13">
-        <v>6</v>
+        <v>15.9</v>
       </c>
       <c r="P13">
-        <v>6</v>
+        <v>15.9</v>
       </c>
       <c r="Q13">
-        <v>6</v>
+        <v>15.9</v>
       </c>
       <c r="R13">
-        <v>6</v>
+        <v>15.9</v>
       </c>
       <c r="S13">
-        <v>6</v>
+        <v>15.9</v>
       </c>
       <c r="T13">
-        <v>6</v>
+        <v>15.9</v>
       </c>
       <c r="U13">
-        <v>6</v>
+        <v>15.9</v>
       </c>
       <c r="V13">
-        <v>6</v>
+        <v>15.9</v>
       </c>
       <c r="W13">
-        <v>6</v>
+        <v>15.9</v>
       </c>
       <c r="X13">
-        <v>6</v>
+        <v>15.9</v>
       </c>
       <c r="Y13">
-        <v>6</v>
+        <v>15.9</v>
       </c>
       <c r="Z13">
-        <v>6</v>
+        <v>15.9</v>
       </c>
       <c r="AA13">
-        <v>6</v>
+        <v>15.9</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14">
+        <v>15.91</v>
+      </c>
+      <c r="C14">
+        <v>15.91</v>
+      </c>
+      <c r="D14">
+        <v>15.91</v>
+      </c>
+      <c r="E14">
+        <v>15.91</v>
+      </c>
+      <c r="F14">
+        <v>15.91</v>
+      </c>
+      <c r="G14">
+        <v>15.91</v>
+      </c>
+      <c r="H14">
+        <v>15.91</v>
+      </c>
+      <c r="I14">
+        <v>15.91</v>
+      </c>
+      <c r="J14">
+        <v>15.91</v>
+      </c>
+      <c r="K14">
+        <v>15.91</v>
+      </c>
+      <c r="L14">
+        <v>15.91</v>
+      </c>
+      <c r="M14">
+        <v>15.91</v>
+      </c>
+      <c r="N14">
+        <v>15.91</v>
+      </c>
+      <c r="O14">
+        <v>15.91</v>
+      </c>
+      <c r="P14">
+        <v>15.91</v>
+      </c>
+      <c r="Q14">
+        <v>15.91</v>
+      </c>
+      <c r="R14">
+        <v>15.91</v>
+      </c>
+      <c r="S14">
+        <v>15.91</v>
+      </c>
+      <c r="T14">
+        <v>15.91</v>
+      </c>
+      <c r="U14">
+        <v>15.91</v>
+      </c>
+      <c r="V14">
+        <v>15.91</v>
+      </c>
+      <c r="W14">
+        <v>15.91</v>
+      </c>
+      <c r="X14">
+        <v>15.91</v>
+      </c>
+      <c r="Y14">
+        <v>15.91</v>
+      </c>
+      <c r="Z14">
+        <v>15.91</v>
+      </c>
+      <c r="AA14">
+        <v>15.91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
+      <c r="E15">
+        <v>6</v>
+      </c>
+      <c r="F15">
+        <v>6</v>
+      </c>
+      <c r="G15">
+        <v>6</v>
+      </c>
+      <c r="H15">
+        <v>6</v>
+      </c>
+      <c r="I15">
+        <v>6</v>
+      </c>
+      <c r="J15">
+        <v>6</v>
+      </c>
+      <c r="K15">
+        <v>6</v>
+      </c>
+      <c r="L15">
+        <v>6</v>
+      </c>
+      <c r="M15">
+        <v>6</v>
+      </c>
+      <c r="N15">
+        <v>6</v>
+      </c>
+      <c r="O15">
+        <v>6</v>
+      </c>
+      <c r="P15">
+        <v>6</v>
+      </c>
+      <c r="Q15">
+        <v>6</v>
+      </c>
+      <c r="R15">
+        <v>6</v>
+      </c>
+      <c r="S15">
+        <v>6</v>
+      </c>
+      <c r="T15">
+        <v>6</v>
+      </c>
+      <c r="U15">
+        <v>6</v>
+      </c>
+      <c r="V15">
+        <v>6</v>
+      </c>
+      <c r="W15">
+        <v>6</v>
+      </c>
+      <c r="X15">
+        <v>6</v>
+      </c>
+      <c r="Y15">
+        <v>6</v>
+      </c>
+      <c r="Z15">
+        <v>6</v>
+      </c>
+      <c r="AA15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>80</v>
       </c>
-      <c r="B14">
+      <c r="B16">
         <v>6.01</v>
       </c>
-      <c r="C14">
+      <c r="C16">
         <v>6.01</v>
       </c>
-      <c r="D14">
+      <c r="D16">
         <v>6.01</v>
       </c>
-      <c r="E14">
+      <c r="E16">
         <v>6.01</v>
       </c>
-      <c r="F14">
+      <c r="F16">
         <v>6.01</v>
       </c>
-      <c r="G14">
+      <c r="G16">
         <v>6.01</v>
       </c>
-      <c r="H14">
+      <c r="H16">
         <v>6.01</v>
       </c>
-      <c r="I14">
+      <c r="I16">
         <v>6.01</v>
       </c>
-      <c r="J14">
+      <c r="J16">
         <v>6.01</v>
       </c>
-      <c r="K14">
+      <c r="K16">
         <v>6.01</v>
       </c>
-      <c r="L14">
+      <c r="L16">
         <v>6.01</v>
       </c>
-      <c r="M14">
+      <c r="M16">
         <v>6.01</v>
       </c>
-      <c r="N14">
+      <c r="N16">
         <v>6.01</v>
       </c>
-      <c r="O14">
+      <c r="O16">
         <v>6.01</v>
       </c>
-      <c r="P14">
+      <c r="P16">
         <v>6.01</v>
       </c>
-      <c r="Q14">
+      <c r="Q16">
         <v>6.01</v>
       </c>
-      <c r="R14">
+      <c r="R16">
         <v>6.01</v>
       </c>
-      <c r="S14">
+      <c r="S16">
         <v>6.01</v>
       </c>
-      <c r="T14">
+      <c r="T16">
         <v>6.01</v>
       </c>
-      <c r="U14">
+      <c r="U16">
         <v>6.01</v>
       </c>
-      <c r="V14">
+      <c r="V16">
         <v>6.01</v>
       </c>
-      <c r="W14">
+      <c r="W16">
         <v>6.01</v>
       </c>
-      <c r="X14">
+      <c r="X16">
         <v>6.01</v>
       </c>
-      <c r="Y14">
+      <c r="Y16">
         <v>6.01</v>
       </c>
-      <c r="Z14">
+      <c r="Z16">
         <v>6.01</v>
       </c>
-      <c r="AA14">
+      <c r="AA16">
         <v>6.01</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B15" s="20"/>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -8835,8 +9195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B80F836-AAFA-4D20-813C-A31BE68F85E1}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9135,7 +9495,7 @@
         <v>3239000</v>
       </c>
       <c r="H11" s="22">
-        <v>2005</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -9225,10 +9585,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20EB8FDB-F47B-40C2-8266-6700BCAB2D8C}">
-  <dimension ref="A1:AA14"/>
+  <dimension ref="A1:AA16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="AA12" sqref="B12:AA12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9737,422 +10097,422 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="B7" s="18">
-        <v>9.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="C7" s="18">
-        <v>9.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="D7" s="18">
-        <v>9.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="E7" s="18">
-        <v>9.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="F7" s="18">
-        <v>9.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="G7" s="18">
-        <v>9.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="H7" s="18">
-        <v>9.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="I7" s="18">
-        <v>9.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="J7" s="18">
-        <v>9.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="K7" s="18">
-        <v>9.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="L7" s="18">
-        <v>9.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="M7" s="18">
-        <v>9.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="N7" s="18">
-        <v>9.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="O7" s="18">
-        <v>9.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="P7" s="18">
-        <v>9.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="18">
-        <v>9.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="R7" s="18">
-        <v>9.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="S7" s="18">
-        <v>9.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="T7" s="18">
-        <v>9.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="U7" s="18">
-        <v>9.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="V7" s="18">
-        <v>9.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="W7" s="18">
-        <v>9.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="X7" s="18">
-        <v>9.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="18">
-        <v>9.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="18">
-        <v>9.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="AA7" s="18">
-        <v>9.5000000000000001E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B8" s="18">
-        <v>0.26</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="C8" s="18">
-        <v>0.26</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="D8" s="18">
-        <v>0.26</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="E8" s="18">
-        <v>0.26</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="F8" s="18">
-        <v>0.26</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="G8" s="18">
-        <v>0.26</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="H8" s="18">
-        <v>0.26</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I8" s="18">
-        <v>0.26</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="J8" s="18">
-        <v>0.26</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="K8" s="18">
-        <v>0.26</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="L8" s="18">
-        <v>0.26</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="M8" s="18">
-        <v>0.26</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="N8" s="18">
-        <v>0.26</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="O8" s="18">
-        <v>0.26</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="P8" s="18">
-        <v>0.26</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="Q8" s="18">
-        <v>0.26</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="R8" s="18">
-        <v>0.26</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="S8" s="18">
-        <v>0.26</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="T8" s="18">
-        <v>0.26</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="U8" s="18">
-        <v>0.26</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="V8" s="18">
-        <v>0.26</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="W8" s="18">
-        <v>0.26</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="X8" s="18">
-        <v>0.26</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="Y8" s="18">
-        <v>0.26</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="Z8" s="18">
-        <v>0.26</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="AA8" s="18">
-        <v>0.26</v>
+        <v>9.5000000000000001E-2</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B9" s="18">
-        <v>0.192</v>
+        <v>0.26</v>
       </c>
       <c r="C9" s="18">
-        <v>0.192</v>
+        <v>0.26</v>
       </c>
       <c r="D9" s="18">
-        <v>0.192</v>
+        <v>0.26</v>
       </c>
       <c r="E9" s="18">
-        <v>0.192</v>
+        <v>0.26</v>
       </c>
       <c r="F9" s="18">
-        <v>0.192</v>
+        <v>0.26</v>
       </c>
       <c r="G9" s="18">
-        <v>0.192</v>
+        <v>0.26</v>
       </c>
       <c r="H9" s="18">
-        <v>0.192</v>
+        <v>0.26</v>
       </c>
       <c r="I9" s="18">
-        <v>0.192</v>
+        <v>0.26</v>
       </c>
       <c r="J9" s="18">
-        <v>0.192</v>
+        <v>0.26</v>
       </c>
       <c r="K9" s="18">
-        <v>0.192</v>
+        <v>0.26</v>
       </c>
       <c r="L9" s="18">
-        <v>0.192</v>
+        <v>0.26</v>
       </c>
       <c r="M9" s="18">
-        <v>0.192</v>
+        <v>0.26</v>
       </c>
       <c r="N9" s="18">
-        <v>0.192</v>
+        <v>0.26</v>
       </c>
       <c r="O9" s="18">
-        <v>0.192</v>
+        <v>0.26</v>
       </c>
       <c r="P9" s="18">
-        <v>0.192</v>
+        <v>0.26</v>
       </c>
       <c r="Q9" s="18">
-        <v>0.192</v>
+        <v>0.26</v>
       </c>
       <c r="R9" s="18">
-        <v>0.192</v>
+        <v>0.26</v>
       </c>
       <c r="S9" s="18">
-        <v>0.192</v>
+        <v>0.26</v>
       </c>
       <c r="T9" s="18">
-        <v>0.192</v>
+        <v>0.26</v>
       </c>
       <c r="U9" s="18">
-        <v>0.192</v>
+        <v>0.26</v>
       </c>
       <c r="V9" s="18">
-        <v>0.192</v>
+        <v>0.26</v>
       </c>
       <c r="W9" s="18">
-        <v>0.192</v>
+        <v>0.26</v>
       </c>
       <c r="X9" s="18">
-        <v>0.192</v>
+        <v>0.26</v>
       </c>
       <c r="Y9" s="18">
-        <v>0.192</v>
+        <v>0.26</v>
       </c>
       <c r="Z9" s="18">
-        <v>0.192</v>
+        <v>0.26</v>
       </c>
       <c r="AA9" s="18">
-        <v>0.192</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B10" s="18">
-        <v>5.5E-2</v>
+        <v>0.192</v>
       </c>
       <c r="C10" s="18">
-        <v>5.5E-2</v>
+        <v>0.192</v>
       </c>
       <c r="D10" s="18">
-        <v>5.5E-2</v>
+        <v>0.192</v>
       </c>
       <c r="E10" s="18">
-        <v>5.5E-2</v>
+        <v>0.192</v>
       </c>
       <c r="F10" s="18">
-        <v>5.5E-2</v>
+        <v>0.192</v>
       </c>
       <c r="G10" s="18">
-        <v>5.5E-2</v>
+        <v>0.192</v>
       </c>
       <c r="H10" s="18">
-        <v>5.5E-2</v>
+        <v>0.192</v>
       </c>
       <c r="I10" s="18">
-        <v>5.5E-2</v>
+        <v>0.192</v>
       </c>
       <c r="J10" s="18">
-        <v>5.5E-2</v>
+        <v>0.192</v>
       </c>
       <c r="K10" s="18">
-        <v>5.5E-2</v>
+        <v>0.192</v>
       </c>
       <c r="L10" s="18">
-        <v>5.5E-2</v>
+        <v>0.192</v>
       </c>
       <c r="M10" s="18">
-        <v>5.5E-2</v>
+        <v>0.192</v>
       </c>
       <c r="N10" s="18">
-        <v>5.5E-2</v>
+        <v>0.192</v>
       </c>
       <c r="O10" s="18">
-        <v>5.5E-2</v>
+        <v>0.192</v>
       </c>
       <c r="P10" s="18">
-        <v>5.5E-2</v>
+        <v>0.192</v>
       </c>
       <c r="Q10" s="18">
-        <v>5.5E-2</v>
+        <v>0.192</v>
       </c>
       <c r="R10" s="18">
-        <v>5.5E-2</v>
+        <v>0.192</v>
       </c>
       <c r="S10" s="18">
-        <v>5.5E-2</v>
+        <v>0.192</v>
       </c>
       <c r="T10" s="18">
-        <v>5.5E-2</v>
+        <v>0.192</v>
       </c>
       <c r="U10" s="18">
-        <v>5.5E-2</v>
+        <v>0.192</v>
       </c>
       <c r="V10" s="18">
-        <v>5.5E-2</v>
+        <v>0.192</v>
       </c>
       <c r="W10" s="18">
-        <v>5.5E-2</v>
+        <v>0.192</v>
       </c>
       <c r="X10" s="18">
-        <v>5.5E-2</v>
+        <v>0.192</v>
       </c>
       <c r="Y10" s="18">
-        <v>5.5E-2</v>
+        <v>0.192</v>
       </c>
       <c r="Z10" s="18">
-        <v>5.5E-2</v>
+        <v>0.192</v>
       </c>
       <c r="AA10" s="18">
-        <v>5.5E-2</v>
+        <v>0.192</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="B11" s="18">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="C11" s="18">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="D11" s="18">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="E11" s="18">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="F11" s="18">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="G11" s="18">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="H11" s="18">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="I11" s="18">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="J11" s="18">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="K11" s="18">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="L11" s="18">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="M11" s="18">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="N11" s="18">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="O11" s="18">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="P11" s="18">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="Q11" s="18">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="R11" s="18">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="S11" s="18">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="T11" s="18">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="U11" s="18">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="V11" s="18">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="W11" s="18">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="X11" s="18">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="Y11" s="18">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="Z11" s="18">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="AA11" s="18">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="B12" s="18">
         <v>0</v>
@@ -10235,7 +10595,7 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B13" s="18">
         <v>0</v>
@@ -10318,84 +10678,250 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="18">
+        <v>0</v>
+      </c>
+      <c r="C14" s="18">
+        <v>0</v>
+      </c>
+      <c r="D14" s="18">
+        <v>0</v>
+      </c>
+      <c r="E14" s="18">
+        <v>0</v>
+      </c>
+      <c r="F14" s="18">
+        <v>0</v>
+      </c>
+      <c r="G14" s="18">
+        <v>0</v>
+      </c>
+      <c r="H14" s="18">
+        <v>0</v>
+      </c>
+      <c r="I14" s="18">
+        <v>0</v>
+      </c>
+      <c r="J14" s="18">
+        <v>0</v>
+      </c>
+      <c r="K14" s="18">
+        <v>0</v>
+      </c>
+      <c r="L14" s="18">
+        <v>0</v>
+      </c>
+      <c r="M14" s="18">
+        <v>0</v>
+      </c>
+      <c r="N14" s="18">
+        <v>0</v>
+      </c>
+      <c r="O14" s="18">
+        <v>0</v>
+      </c>
+      <c r="P14" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="18">
+        <v>0</v>
+      </c>
+      <c r="R14" s="18">
+        <v>0</v>
+      </c>
+      <c r="S14" s="18">
+        <v>0</v>
+      </c>
+      <c r="T14" s="18">
+        <v>0</v>
+      </c>
+      <c r="U14" s="18">
+        <v>0</v>
+      </c>
+      <c r="V14" s="18">
+        <v>0</v>
+      </c>
+      <c r="W14" s="18">
+        <v>0</v>
+      </c>
+      <c r="X14" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="18">
+        <v>0</v>
+      </c>
+      <c r="C15" s="18">
+        <v>0</v>
+      </c>
+      <c r="D15" s="18">
+        <v>0</v>
+      </c>
+      <c r="E15" s="18">
+        <v>0</v>
+      </c>
+      <c r="F15" s="18">
+        <v>0</v>
+      </c>
+      <c r="G15" s="18">
+        <v>0</v>
+      </c>
+      <c r="H15" s="18">
+        <v>0</v>
+      </c>
+      <c r="I15" s="18">
+        <v>0</v>
+      </c>
+      <c r="J15" s="18">
+        <v>0</v>
+      </c>
+      <c r="K15" s="18">
+        <v>0</v>
+      </c>
+      <c r="L15" s="18">
+        <v>0</v>
+      </c>
+      <c r="M15" s="18">
+        <v>0</v>
+      </c>
+      <c r="N15" s="18">
+        <v>0</v>
+      </c>
+      <c r="O15" s="18">
+        <v>0</v>
+      </c>
+      <c r="P15" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="18">
+        <v>0</v>
+      </c>
+      <c r="R15" s="18">
+        <v>0</v>
+      </c>
+      <c r="S15" s="18">
+        <v>0</v>
+      </c>
+      <c r="T15" s="18">
+        <v>0</v>
+      </c>
+      <c r="U15" s="18">
+        <v>0</v>
+      </c>
+      <c r="V15" s="18">
+        <v>0</v>
+      </c>
+      <c r="W15" s="18">
+        <v>0</v>
+      </c>
+      <c r="X15" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>80</v>
       </c>
-      <c r="B14" s="18">
-        <v>0</v>
-      </c>
-      <c r="C14" s="18">
-        <v>0</v>
-      </c>
-      <c r="D14" s="18">
-        <v>0</v>
-      </c>
-      <c r="E14" s="18">
-        <v>0</v>
-      </c>
-      <c r="F14" s="18">
-        <v>0</v>
-      </c>
-      <c r="G14" s="18">
-        <v>0</v>
-      </c>
-      <c r="H14" s="18">
-        <v>0</v>
-      </c>
-      <c r="I14" s="18">
-        <v>0</v>
-      </c>
-      <c r="J14" s="18">
-        <v>0</v>
-      </c>
-      <c r="K14" s="18">
-        <v>0</v>
-      </c>
-      <c r="L14" s="18">
-        <v>0</v>
-      </c>
-      <c r="M14" s="18">
-        <v>0</v>
-      </c>
-      <c r="N14" s="18">
-        <v>0</v>
-      </c>
-      <c r="O14" s="18">
-        <v>0</v>
-      </c>
-      <c r="P14" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="18">
-        <v>0</v>
-      </c>
-      <c r="R14" s="18">
-        <v>0</v>
-      </c>
-      <c r="S14" s="18">
-        <v>0</v>
-      </c>
-      <c r="T14" s="18">
-        <v>0</v>
-      </c>
-      <c r="U14" s="18">
-        <v>0</v>
-      </c>
-      <c r="V14" s="18">
-        <v>0</v>
-      </c>
-      <c r="W14" s="18">
-        <v>0</v>
-      </c>
-      <c r="X14" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="18">
+      <c r="B16" s="18">
+        <v>0</v>
+      </c>
+      <c r="C16" s="18">
+        <v>0</v>
+      </c>
+      <c r="D16" s="18">
+        <v>0</v>
+      </c>
+      <c r="E16" s="18">
+        <v>0</v>
+      </c>
+      <c r="F16" s="18">
+        <v>0</v>
+      </c>
+      <c r="G16" s="18">
+        <v>0</v>
+      </c>
+      <c r="H16" s="18">
+        <v>0</v>
+      </c>
+      <c r="I16" s="18">
+        <v>0</v>
+      </c>
+      <c r="J16" s="18">
+        <v>0</v>
+      </c>
+      <c r="K16" s="18">
+        <v>0</v>
+      </c>
+      <c r="L16" s="18">
+        <v>0</v>
+      </c>
+      <c r="M16" s="18">
+        <v>0</v>
+      </c>
+      <c r="N16" s="18">
+        <v>0</v>
+      </c>
+      <c r="O16" s="18">
+        <v>0</v>
+      </c>
+      <c r="P16" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="18">
+        <v>0</v>
+      </c>
+      <c r="R16" s="18">
+        <v>0</v>
+      </c>
+      <c r="S16" s="18">
+        <v>0</v>
+      </c>
+      <c r="T16" s="18">
+        <v>0</v>
+      </c>
+      <c r="U16" s="18">
+        <v>0</v>
+      </c>
+      <c r="V16" s="18">
+        <v>0</v>
+      </c>
+      <c r="W16" s="18">
+        <v>0</v>
+      </c>
+      <c r="X16" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="18">
         <v>0</v>
       </c>
     </row>
@@ -12354,10 +12880,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8A5865B-B011-402F-A09D-739FDD6B0E90}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="122" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView zoomScale="122" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12397,7 +12923,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="13">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="E2" s="13">
         <v>2000</v>
@@ -12412,10 +12938,10 @@
         <v>46</v>
       </c>
       <c r="C3" s="13">
-        <v>0.09</v>
+        <v>1</v>
       </c>
       <c r="D3" s="13">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="E3" s="13">
         <v>2000</v>
@@ -12430,7 +12956,7 @@
         <v>47</v>
       </c>
       <c r="C4" s="13">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="D4" s="13">
         <v>0</v>
@@ -12448,7 +12974,7 @@
         <v>48</v>
       </c>
       <c r="C5" s="13">
-        <v>0.04</v>
+        <v>1</v>
       </c>
       <c r="D5" s="13">
         <v>0</v>
@@ -12466,7 +12992,7 @@
         <v>49</v>
       </c>
       <c r="C6" s="13">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="D6" s="13">
         <v>0</v>
@@ -12478,16 +13004,16 @@
     </row>
     <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="C7" s="13">
         <v>1</v>
       </c>
       <c r="D7" s="13">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="E7" s="13">
         <v>2000</v>
@@ -12499,13 +13025,13 @@
         <v>70</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C8" s="13">
-        <v>0.11</v>
+        <v>1</v>
       </c>
       <c r="D8" s="13">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="E8" s="13">
         <v>2000</v>
@@ -12517,10 +13043,10 @@
         <v>70</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C9" s="13">
-        <v>0.06</v>
+        <v>1</v>
       </c>
       <c r="D9" s="13">
         <v>0</v>
@@ -12535,10 +13061,10 @@
         <v>70</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C10" s="13">
-        <v>0.13</v>
+        <v>1</v>
       </c>
       <c r="D10" s="13">
         <v>0</v>
@@ -12548,71 +13074,107 @@
       </c>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
-        <v>79</v>
+    <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
+        <v>70</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="C11" s="13">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="D11" s="13">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="E11" s="13">
         <v>2000</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
-        <v>79</v>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
+        <v>70</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="C12" s="13">
-        <v>0.57999999999999996</v>
+        <v>1</v>
       </c>
       <c r="D12" s="13">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="E12" s="13">
         <v>2000</v>
       </c>
+      <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>45</v>
+      <c r="A13" s="13" t="s">
+        <v>79</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C13" s="13">
         <v>1</v>
       </c>
       <c r="D13" s="13">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="E13" s="13">
         <v>2000</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="13">
+        <v>1</v>
+      </c>
+      <c r="D14" s="13">
+        <v>0</v>
+      </c>
+      <c r="E14" s="13">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>45</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="13">
+        <v>1</v>
+      </c>
+      <c r="D15" s="13">
+        <v>0</v>
+      </c>
+      <c r="E15" s="13">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" t="s">
         <v>80</v>
       </c>
-      <c r="C14" s="13">
-        <v>0.6</v>
-      </c>
-      <c r="D14" s="13">
-        <v>0</v>
-      </c>
-      <c r="E14" s="13">
+      <c r="C16" s="13">
+        <v>1</v>
+      </c>
+      <c r="D16" s="13">
+        <v>0</v>
+      </c>
+      <c r="E16" s="13">
         <v>2000</v>
       </c>
     </row>

--- a/database/steel_data.xlsx
+++ b/database/steel_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinsupark/jinsu-coding/macc_steel/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1B2570-C229-E04C-93EA-20F446BA76EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9843A93-D40A-CD41-9EE1-F25E4E48D90E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-6920" windowWidth="38400" windowHeight="19880" tabRatio="775" activeTab="1" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17160" tabRatio="775" activeTab="1" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="18" r:id="rId1"/>
@@ -9196,7 +9196,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9209,7 +9209,6 @@
     <col min="6" max="6" width="21.1640625" customWidth="1"/>
     <col min="7" max="7" width="10.33203125" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -9240,7 +9239,7 @@
     </row>
     <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>69</v>
@@ -9258,15 +9257,15 @@
         <v>71</v>
       </c>
       <c r="G2" s="10">
-        <v>4722000</v>
+        <v>3239000</v>
       </c>
       <c r="H2" s="22">
-        <v>2013</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>69</v>
@@ -9284,15 +9283,15 @@
         <v>71</v>
       </c>
       <c r="G3" s="10">
-        <v>4237000</v>
+        <v>4000000</v>
       </c>
       <c r="H3" s="22">
-        <v>2016</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>69</v>
@@ -9310,59 +9309,59 @@
         <v>71</v>
       </c>
       <c r="G4" s="10">
-        <v>4128000</v>
+        <v>4000000</v>
       </c>
       <c r="H4" s="22">
-        <v>2017</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G5" s="10">
-        <v>4127000</v>
+        <v>1683000</v>
       </c>
       <c r="H5" s="22">
-        <v>2020</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G6" s="10">
-        <v>4000000</v>
+        <v>1280000</v>
       </c>
       <c r="H6" s="22">
         <v>2010</v>
@@ -9370,7 +9369,7 @@
     </row>
     <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>69</v>
@@ -9388,10 +9387,10 @@
         <v>71</v>
       </c>
       <c r="G7" s="10">
-        <v>4000000</v>
+        <v>4722000</v>
       </c>
       <c r="H7" s="22">
-        <v>2010</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -9422,7 +9421,7 @@
     </row>
     <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>69</v>
@@ -9440,15 +9439,15 @@
         <v>71</v>
       </c>
       <c r="G9" s="10">
-        <v>3804000</v>
+        <v>1914000</v>
       </c>
       <c r="H9" s="22">
-        <v>2024</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>69</v>
@@ -9466,15 +9465,15 @@
         <v>71</v>
       </c>
       <c r="G10" s="10">
-        <v>3624000</v>
+        <v>4237000</v>
       </c>
       <c r="H10" s="22">
-        <v>2022</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>69</v>
@@ -9492,15 +9491,15 @@
         <v>71</v>
       </c>
       <c r="G11" s="10">
-        <v>3239000</v>
+        <v>4128000</v>
       </c>
       <c r="H11" s="22">
-        <v>2006</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>69</v>
@@ -9518,65 +9517,68 @@
         <v>71</v>
       </c>
       <c r="G12" s="10">
-        <v>1914000</v>
+        <v>4127000</v>
       </c>
       <c r="H12" s="22">
-        <v>2015</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G13" s="10">
-        <v>1683000</v>
+        <v>3624000</v>
       </c>
       <c r="H13" s="22">
-        <v>2010</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G14" s="10">
-        <v>1280000</v>
+        <v>3804000</v>
       </c>
       <c r="H14" s="22">
-        <v>2010</v>
+        <v>2024</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H14">
+    <sortCondition ref="H2:H14"/>
+  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/database/steel_data.xlsx
+++ b/database/steel_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinsupark/jinsu-coding/macc_steel/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9843A93-D40A-CD41-9EE1-F25E4E48D90E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14CA39C-2E6D-E344-8E87-C89213E8DB21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17160" tabRatio="775" activeTab="1" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
   </bookViews>
@@ -9196,7 +9196,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/database/steel_data.xlsx
+++ b/database/steel_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinsupark/jinsu-coding/macc_steel/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14CA39C-2E6D-E344-8E87-C89213E8DB21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43376878-0845-6445-88BF-8DA4BEE5C56F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17160" tabRatio="775" activeTab="1" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
   </bookViews>
@@ -9196,7 +9196,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
